--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.233737</v>
+        <v>0.233342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237646</v>
+        <v>0.237017</v>
       </c>
       <c r="D2" t="n">
-        <v>0.224147</v>
+        <v>0.223654</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.237915</v>
+        <v>0.237606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239928</v>
+        <v>0.239506</v>
       </c>
       <c r="D3" t="n">
-        <v>0.224539</v>
+        <v>0.224444</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.245859</v>
+        <v>0.24567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.251545</v>
+        <v>0.251675</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229769</v>
+        <v>0.229581</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.25811</v>
+        <v>0.258072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265789</v>
+        <v>0.26593</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234493</v>
+        <v>0.234219</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.274675</v>
+        <v>0.273929</v>
       </c>
       <c r="C6" t="n">
-        <v>0.284265</v>
+        <v>0.284037</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240513</v>
+        <v>0.240341</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.295018</v>
+        <v>0.295394</v>
       </c>
       <c r="C7" t="n">
-        <v>0.313647</v>
+        <v>0.313559</v>
       </c>
       <c r="D7" t="n">
-        <v>0.252764</v>
+        <v>0.252671</v>
       </c>
     </row>
     <row r="8">
@@ -3332,10 +3332,10 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.330538</v>
+        <v>0.328932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.348159</v>
+        <v>0.347992</v>
       </c>
       <c r="D8" t="n">
         <v>0.269442</v>
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.384859</v>
+        <v>0.384821</v>
       </c>
       <c r="C9" t="n">
-        <v>0.402549</v>
+        <v>0.402883</v>
       </c>
       <c r="D9" t="n">
-        <v>0.223242</v>
+        <v>0.223303</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229541</v>
+        <v>0.229306</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225174</v>
+        <v>0.225216</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223505</v>
+        <v>0.223411</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230045</v>
+        <v>0.229807</v>
       </c>
       <c r="C11" t="n">
-        <v>0.225578</v>
+        <v>0.22561</v>
       </c>
       <c r="D11" t="n">
-        <v>0.223318</v>
+        <v>0.223246</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232444</v>
+        <v>0.232386</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22825</v>
+        <v>0.228183</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225348</v>
+        <v>0.225336</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.232336</v>
+        <v>0.232355</v>
       </c>
       <c r="C13" t="n">
-        <v>0.228849</v>
+        <v>0.228873</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224786</v>
+        <v>0.224743</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.23534</v>
+        <v>0.235075</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233268</v>
+        <v>0.233093</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226583</v>
+        <v>0.22642</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.237474</v>
+        <v>0.237305</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236322</v>
+        <v>0.236295</v>
       </c>
       <c r="D15" t="n">
-        <v>0.227903</v>
+        <v>0.227786</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.240547</v>
+        <v>0.240492</v>
       </c>
       <c r="C16" t="n">
-        <v>0.240939</v>
+        <v>0.240854</v>
       </c>
       <c r="D16" t="n">
-        <v>0.229078</v>
+        <v>0.229062</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.243822</v>
+        <v>0.243651</v>
       </c>
       <c r="C17" t="n">
-        <v>0.246398</v>
+        <v>0.246252</v>
       </c>
       <c r="D17" t="n">
-        <v>0.230499</v>
+        <v>0.230385</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.248988</v>
+        <v>0.248945</v>
       </c>
       <c r="C18" t="n">
-        <v>0.252424</v>
+        <v>0.252352</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232029</v>
+        <v>0.231979</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.258359</v>
+        <v>0.25856</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263083</v>
+        <v>0.263115</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236262</v>
+        <v>0.236214</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269732</v>
+        <v>0.269619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.27836</v>
+        <v>0.278408</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240324</v>
+        <v>0.240325</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.290161</v>
+        <v>0.290009</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298216</v>
+        <v>0.298217</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248074</v>
+        <v>0.248084</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.324815</v>
+        <v>0.3251</v>
       </c>
       <c r="C22" t="n">
-        <v>0.325628</v>
+        <v>0.325639</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261234</v>
+        <v>0.261046</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.36708</v>
+        <v>0.36697</v>
       </c>
       <c r="C23" t="n">
-        <v>0.379906</v>
+        <v>0.379564</v>
       </c>
       <c r="D23" t="n">
-        <v>0.226464</v>
+        <v>0.22642</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.234082</v>
+        <v>0.233923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.227387</v>
+        <v>0.227281</v>
       </c>
       <c r="D24" t="n">
-        <v>0.227432</v>
+        <v>0.227324</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234153</v>
+        <v>0.233942</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227738</v>
+        <v>0.227695</v>
       </c>
       <c r="D25" t="n">
-        <v>0.227086</v>
+        <v>0.226932</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235051</v>
+        <v>0.234959</v>
       </c>
       <c r="C26" t="n">
-        <v>0.228854</v>
+        <v>0.22889</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227392</v>
+        <v>0.227292</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.236553</v>
+        <v>0.236474</v>
       </c>
       <c r="C27" t="n">
-        <v>0.230518</v>
+        <v>0.23046</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22779</v>
+        <v>0.227741</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.238657</v>
+        <v>0.238639</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233066</v>
+        <v>0.233065</v>
       </c>
       <c r="D28" t="n">
-        <v>0.229166</v>
+        <v>0.22904</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.240059</v>
+        <v>0.239925</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235769</v>
+        <v>0.235714</v>
       </c>
       <c r="D29" t="n">
-        <v>0.229437</v>
+        <v>0.229348</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.242565</v>
+        <v>0.242499</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239049</v>
+        <v>0.239063</v>
       </c>
       <c r="D30" t="n">
-        <v>0.230647</v>
+        <v>0.230491</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.245872</v>
+        <v>0.245786</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243419</v>
+        <v>0.243448</v>
       </c>
       <c r="D31" t="n">
-        <v>0.231736</v>
+        <v>0.231614</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.25147</v>
+        <v>0.251464</v>
       </c>
       <c r="C32" t="n">
-        <v>0.250145</v>
+        <v>0.250123</v>
       </c>
       <c r="D32" t="n">
-        <v>0.234155</v>
+        <v>0.234043</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.258784</v>
+        <v>0.258783</v>
       </c>
       <c r="C33" t="n">
-        <v>0.260406</v>
+        <v>0.260412</v>
       </c>
       <c r="D33" t="n">
-        <v>0.237239</v>
+        <v>0.237149</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268779</v>
+        <v>0.268739</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272266</v>
+        <v>0.272355</v>
       </c>
       <c r="D34" t="n">
-        <v>0.241136</v>
+        <v>0.241082</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.284616</v>
+        <v>0.284518</v>
       </c>
       <c r="C35" t="n">
-        <v>0.289645</v>
+        <v>0.289731</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246708</v>
+        <v>0.246581</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.308804</v>
+        <v>0.308224</v>
       </c>
       <c r="C36" t="n">
-        <v>0.317823</v>
+        <v>0.317815</v>
       </c>
       <c r="D36" t="n">
-        <v>0.257524</v>
+        <v>0.257416</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.350076</v>
+        <v>0.350036</v>
       </c>
       <c r="C37" t="n">
-        <v>0.362492</v>
+        <v>0.362526</v>
       </c>
       <c r="D37" t="n">
-        <v>0.228888</v>
+        <v>0.228877</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.235409</v>
+        <v>0.235272</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228891</v>
+        <v>0.229025</v>
       </c>
       <c r="D38" t="n">
-        <v>0.228711</v>
+        <v>0.228625</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236839</v>
+        <v>0.236713</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230665</v>
+        <v>0.230794</v>
       </c>
       <c r="D39" t="n">
-        <v>0.229708</v>
+        <v>0.229648</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237471</v>
+        <v>0.23728</v>
       </c>
       <c r="C40" t="n">
-        <v>0.231454</v>
+        <v>0.231545</v>
       </c>
       <c r="D40" t="n">
-        <v>0.229746</v>
+        <v>0.229712</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.238798</v>
+        <v>0.238685</v>
       </c>
       <c r="C41" t="n">
-        <v>0.232786</v>
+        <v>0.232893</v>
       </c>
       <c r="D41" t="n">
-        <v>0.23029</v>
+        <v>0.230215</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.240616</v>
+        <v>0.240482</v>
       </c>
       <c r="C42" t="n">
-        <v>0.234596</v>
+        <v>0.234672</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231123</v>
+        <v>0.231061</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.242619</v>
+        <v>0.242533</v>
       </c>
       <c r="C43" t="n">
-        <v>0.236954</v>
+        <v>0.236999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.231801</v>
+        <v>0.231687</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.245402</v>
+        <v>0.245303</v>
       </c>
       <c r="C44" t="n">
-        <v>0.240539</v>
+        <v>0.240592</v>
       </c>
       <c r="D44" t="n">
-        <v>0.23311</v>
+        <v>0.233008</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.248777</v>
+        <v>0.248705</v>
       </c>
       <c r="C45" t="n">
-        <v>0.24487</v>
+        <v>0.244999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.234444</v>
+        <v>0.234315</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253777</v>
+        <v>0.253726</v>
       </c>
       <c r="C46" t="n">
-        <v>0.251168</v>
+        <v>0.251285</v>
       </c>
       <c r="D46" t="n">
-        <v>0.23646</v>
+        <v>0.236436</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260344</v>
+        <v>0.260307</v>
       </c>
       <c r="C47" t="n">
-        <v>0.25956</v>
+        <v>0.259735</v>
       </c>
       <c r="D47" t="n">
-        <v>0.238997</v>
+        <v>0.238896</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.270464</v>
+        <v>0.27044</v>
       </c>
       <c r="C48" t="n">
-        <v>0.27154</v>
+        <v>0.271822</v>
       </c>
       <c r="D48" t="n">
-        <v>0.242839</v>
+        <v>0.242785</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.285243</v>
+        <v>0.285274</v>
       </c>
       <c r="C49" t="n">
-        <v>0.288312</v>
+        <v>0.288409</v>
       </c>
       <c r="D49" t="n">
-        <v>0.24845</v>
+        <v>0.248412</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.308607</v>
+        <v>0.308354</v>
       </c>
       <c r="C50" t="n">
-        <v>0.316203</v>
+        <v>0.316347</v>
       </c>
       <c r="D50" t="n">
-        <v>0.258959</v>
+        <v>0.258898</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.344384</v>
+        <v>0.344393</v>
       </c>
       <c r="C51" t="n">
-        <v>0.35357</v>
+        <v>0.353869</v>
       </c>
       <c r="D51" t="n">
-        <v>0.231093</v>
+        <v>0.231083</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.399912</v>
+        <v>0.398182</v>
       </c>
       <c r="C52" t="n">
-        <v>0.418262</v>
+        <v>0.41666</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2316</v>
+        <v>0.231426</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241513</v>
+        <v>0.239772</v>
       </c>
       <c r="C53" t="n">
-        <v>0.233827</v>
+        <v>0.233281</v>
       </c>
       <c r="D53" t="n">
-        <v>0.231933</v>
+        <v>0.23176</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242208</v>
+        <v>0.240513</v>
       </c>
       <c r="C54" t="n">
-        <v>0.234822</v>
+        <v>0.234523</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232444</v>
+        <v>0.232259</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.243447</v>
+        <v>0.241692</v>
       </c>
       <c r="C55" t="n">
-        <v>0.236359</v>
+        <v>0.236051</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233059</v>
+        <v>0.232864</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.244801</v>
+        <v>0.243067</v>
       </c>
       <c r="C56" t="n">
-        <v>0.238173</v>
+        <v>0.237813</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233838</v>
+        <v>0.233635</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.246605</v>
+        <v>0.24484</v>
       </c>
       <c r="C57" t="n">
-        <v>0.240669</v>
+        <v>0.240293</v>
       </c>
       <c r="D57" t="n">
-        <v>0.234674</v>
+        <v>0.234436</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.249008</v>
+        <v>0.247219</v>
       </c>
       <c r="C58" t="n">
-        <v>0.244198</v>
+        <v>0.243816</v>
       </c>
       <c r="D58" t="n">
-        <v>0.235709</v>
+        <v>0.235475</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.25206</v>
+        <v>0.250713</v>
       </c>
       <c r="C59" t="n">
-        <v>0.248816</v>
+        <v>0.248343</v>
       </c>
       <c r="D59" t="n">
-        <v>0.236975</v>
+        <v>0.236722</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.25704</v>
+        <v>0.255262</v>
       </c>
       <c r="C60" t="n">
-        <v>0.254343</v>
+        <v>0.253919</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238959</v>
+        <v>0.238798</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263688</v>
+        <v>0.261861</v>
       </c>
       <c r="C61" t="n">
-        <v>0.262049</v>
+        <v>0.261574</v>
       </c>
       <c r="D61" t="n">
-        <v>0.241179</v>
+        <v>0.240913</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272455</v>
+        <v>0.270622</v>
       </c>
       <c r="C62" t="n">
-        <v>0.272894</v>
+        <v>0.272353</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244789</v>
+        <v>0.244511</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.285469</v>
+        <v>0.283586</v>
       </c>
       <c r="C63" t="n">
-        <v>0.288836</v>
+        <v>0.288257</v>
       </c>
       <c r="D63" t="n">
-        <v>0.250782</v>
+        <v>0.250415</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.306241</v>
+        <v>0.304409</v>
       </c>
       <c r="C64" t="n">
-        <v>0.312564</v>
+        <v>0.312011</v>
       </c>
       <c r="D64" t="n">
-        <v>0.260103</v>
+        <v>0.259882</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.338148</v>
+        <v>0.336614</v>
       </c>
       <c r="C65" t="n">
-        <v>0.349272</v>
+        <v>0.348747</v>
       </c>
       <c r="D65" t="n">
-        <v>0.276556</v>
+        <v>0.276205</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3884</v>
+        <v>0.386635</v>
       </c>
       <c r="C66" t="n">
-        <v>0.407651</v>
+        <v>0.405623</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242731</v>
+        <v>0.248592</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.258116</v>
+        <v>0.258021</v>
       </c>
       <c r="C67" t="n">
-        <v>0.24695</v>
+        <v>0.250736</v>
       </c>
       <c r="D67" t="n">
-        <v>0.243223</v>
+        <v>0.248912</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.258413</v>
+        <v>0.258468</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248177</v>
+        <v>0.251813</v>
       </c>
       <c r="D68" t="n">
-        <v>0.243682</v>
+        <v>0.249285</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.259686</v>
+        <v>0.259683</v>
       </c>
       <c r="C69" t="n">
-        <v>0.25001</v>
+        <v>0.253431</v>
       </c>
       <c r="D69" t="n">
-        <v>0.244495</v>
+        <v>0.250008</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.261124</v>
+        <v>0.261139</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251919</v>
+        <v>0.255232</v>
       </c>
       <c r="D70" t="n">
-        <v>0.245258</v>
+        <v>0.250557</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.262877</v>
+        <v>0.262825</v>
       </c>
       <c r="C71" t="n">
-        <v>0.254634</v>
+        <v>0.257719</v>
       </c>
       <c r="D71" t="n">
-        <v>0.246153</v>
+        <v>0.251302</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.265464</v>
+        <v>0.265416</v>
       </c>
       <c r="C72" t="n">
-        <v>0.257761</v>
+        <v>0.260742</v>
       </c>
       <c r="D72" t="n">
-        <v>0.247365</v>
+        <v>0.252391</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.268415</v>
+        <v>0.268318</v>
       </c>
       <c r="C73" t="n">
-        <v>0.262071</v>
+        <v>0.26486</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248945</v>
+        <v>0.253748</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272433</v>
+        <v>0.272368</v>
       </c>
       <c r="C74" t="n">
-        <v>0.267928</v>
+        <v>0.270543</v>
       </c>
       <c r="D74" t="n">
-        <v>0.250897</v>
+        <v>0.255518</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278204</v>
+        <v>0.278006</v>
       </c>
       <c r="C75" t="n">
-        <v>0.27623</v>
+        <v>0.278645</v>
       </c>
       <c r="D75" t="n">
-        <v>0.253702</v>
+        <v>0.258065</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.286603</v>
+        <v>0.286444</v>
       </c>
       <c r="C76" t="n">
-        <v>0.28709</v>
+        <v>0.289228</v>
       </c>
       <c r="D76" t="n">
-        <v>0.257434</v>
+        <v>0.261592</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.299268</v>
+        <v>0.299077</v>
       </c>
       <c r="C77" t="n">
-        <v>0.302209</v>
+        <v>0.30423</v>
       </c>
       <c r="D77" t="n">
-        <v>0.26288</v>
+        <v>0.266915</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318377</v>
+        <v>0.318219</v>
       </c>
       <c r="C78" t="n">
-        <v>0.324229</v>
+        <v>0.326096</v>
       </c>
       <c r="D78" t="n">
-        <v>0.271654</v>
+        <v>0.275553</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.346369</v>
+        <v>0.346144</v>
       </c>
       <c r="C79" t="n">
-        <v>0.358375</v>
+        <v>0.360075</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286404</v>
+        <v>0.290146</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.391263</v>
+        <v>0.391148</v>
       </c>
       <c r="C80" t="n">
-        <v>0.409706</v>
+        <v>0.41156</v>
       </c>
       <c r="D80" t="n">
-        <v>0.264804</v>
+        <v>0.265125</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.27566</v>
+        <v>0.27554</v>
       </c>
       <c r="C81" t="n">
-        <v>0.26615</v>
+        <v>0.266443</v>
       </c>
       <c r="D81" t="n">
-        <v>0.26512</v>
+        <v>0.265423</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.276447</v>
+        <v>0.276211</v>
       </c>
       <c r="C82" t="n">
-        <v>0.267144</v>
+        <v>0.267518</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26559</v>
+        <v>0.265926</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.277521</v>
+        <v>0.277273</v>
       </c>
       <c r="C83" t="n">
-        <v>0.268466</v>
+        <v>0.268816</v>
       </c>
       <c r="D83" t="n">
-        <v>0.266122</v>
+        <v>0.266473</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.278764</v>
+        <v>0.278596</v>
       </c>
       <c r="C84" t="n">
-        <v>0.270176</v>
+        <v>0.270534</v>
       </c>
       <c r="D84" t="n">
-        <v>0.266729</v>
+        <v>0.267096</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.280351</v>
+        <v>0.280248</v>
       </c>
       <c r="C85" t="n">
-        <v>0.272231</v>
+        <v>0.272591</v>
       </c>
       <c r="D85" t="n">
-        <v>0.267516</v>
+        <v>0.26783</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.282457</v>
+        <v>0.282262</v>
       </c>
       <c r="C86" t="n">
-        <v>0.274909</v>
+        <v>0.27525</v>
       </c>
       <c r="D86" t="n">
-        <v>0.268417</v>
+        <v>0.268755</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.28508</v>
+        <v>0.284909</v>
       </c>
       <c r="C87" t="n">
-        <v>0.278627</v>
+        <v>0.278938</v>
       </c>
       <c r="D87" t="n">
-        <v>0.269602</v>
+        <v>0.269966</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.288813</v>
+        <v>0.288564</v>
       </c>
       <c r="C88" t="n">
-        <v>0.283673</v>
+        <v>0.284052</v>
       </c>
       <c r="D88" t="n">
-        <v>0.271257</v>
+        <v>0.271613</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.294241</v>
+        <v>0.293945</v>
       </c>
       <c r="C89" t="n">
-        <v>0.291015</v>
+        <v>0.291309</v>
       </c>
       <c r="D89" t="n">
-        <v>0.273654</v>
+        <v>0.274026</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.30203</v>
+        <v>0.301823</v>
       </c>
       <c r="C90" t="n">
-        <v>0.300752</v>
+        <v>0.301034</v>
       </c>
       <c r="D90" t="n">
-        <v>0.276974</v>
+        <v>0.277256</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.313271</v>
+        <v>0.31297</v>
       </c>
       <c r="C91" t="n">
-        <v>0.314352</v>
+        <v>0.314734</v>
       </c>
       <c r="D91" t="n">
-        <v>0.281769</v>
+        <v>0.28208</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.330112</v>
+        <v>0.329763</v>
       </c>
       <c r="C92" t="n">
-        <v>0.333955</v>
+        <v>0.334247</v>
       </c>
       <c r="D92" t="n">
-        <v>0.289332</v>
+        <v>0.289647</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.355915</v>
+        <v>0.355492</v>
       </c>
       <c r="C93" t="n">
-        <v>0.364441</v>
+        <v>0.364741</v>
       </c>
       <c r="D93" t="n">
-        <v>0.301929</v>
+        <v>0.302289</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.396721</v>
+        <v>0.396289</v>
       </c>
       <c r="C94" t="n">
-        <v>0.412803</v>
+        <v>0.413127</v>
       </c>
       <c r="D94" t="n">
-        <v>0.274559</v>
+        <v>0.274715</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.286606</v>
+        <v>0.286348</v>
       </c>
       <c r="C95" t="n">
-        <v>0.276867</v>
+        <v>0.27677</v>
       </c>
       <c r="D95" t="n">
-        <v>0.275181</v>
+        <v>0.275244</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.287522</v>
+        <v>0.287436</v>
       </c>
       <c r="C96" t="n">
-        <v>0.278176</v>
+        <v>0.277976</v>
       </c>
       <c r="D96" t="n">
-        <v>0.275801</v>
+        <v>0.275719</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.288874</v>
+        <v>0.288675</v>
       </c>
       <c r="C97" t="n">
-        <v>0.279698</v>
+        <v>0.279491</v>
       </c>
       <c r="D97" t="n">
-        <v>0.276338</v>
+        <v>0.276267</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.290251</v>
+        <v>0.290028</v>
       </c>
       <c r="C98" t="n">
-        <v>0.281708</v>
+        <v>0.28143</v>
       </c>
       <c r="D98" t="n">
-        <v>0.277014</v>
+        <v>0.276976</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.292051</v>
+        <v>0.291741</v>
       </c>
       <c r="C99" t="n">
-        <v>0.284136</v>
+        <v>0.283857</v>
       </c>
       <c r="D99" t="n">
-        <v>0.277914</v>
+        <v>0.277861</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.294508</v>
+        <v>0.294033</v>
       </c>
       <c r="C100" t="n">
-        <v>0.287352</v>
+        <v>0.286894</v>
       </c>
       <c r="D100" t="n">
-        <v>0.278927</v>
+        <v>0.278822</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.297488</v>
+        <v>0.296934</v>
       </c>
       <c r="C101" t="n">
-        <v>0.291476</v>
+        <v>0.29118</v>
       </c>
       <c r="D101" t="n">
-        <v>0.280168</v>
+        <v>0.280075</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301895</v>
+        <v>0.300937</v>
       </c>
       <c r="C102" t="n">
-        <v>0.297365</v>
+        <v>0.296964</v>
       </c>
       <c r="D102" t="n">
-        <v>0.281881</v>
+        <v>0.281792</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.307834</v>
+        <v>0.306632</v>
       </c>
       <c r="C103" t="n">
-        <v>0.305353</v>
+        <v>0.304982</v>
       </c>
       <c r="D103" t="n">
-        <v>0.284254</v>
+        <v>0.284186</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.316338</v>
+        <v>0.314813</v>
       </c>
       <c r="C104" t="n">
-        <v>0.316589</v>
+        <v>0.315991</v>
       </c>
       <c r="D104" t="n">
-        <v>0.287614</v>
+        <v>0.287487</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.328674</v>
+        <v>0.32672</v>
       </c>
       <c r="C105" t="n">
-        <v>0.331746</v>
+        <v>0.330907</v>
       </c>
       <c r="D105" t="n">
-        <v>0.292476</v>
+        <v>0.292568</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.346415</v>
+        <v>0.344325</v>
       </c>
       <c r="C106" t="n">
-        <v>0.352282</v>
+        <v>0.351652</v>
       </c>
       <c r="D106" t="n">
-        <v>0.29993</v>
+        <v>0.299931</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.373237</v>
+        <v>0.371001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.383343</v>
+        <v>0.382544</v>
       </c>
       <c r="D107" t="n">
-        <v>0.312603</v>
+        <v>0.312696</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.41441</v>
+        <v>0.411765</v>
       </c>
       <c r="C108" t="n">
-        <v>0.430273</v>
+        <v>0.429216</v>
       </c>
       <c r="D108" t="n">
-        <v>0.280311</v>
+        <v>0.279567</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.475618</v>
+        <v>0.474359</v>
       </c>
       <c r="C109" t="n">
-        <v>0.501383</v>
+        <v>0.499795</v>
       </c>
       <c r="D109" t="n">
-        <v>0.280671</v>
+        <v>0.280675</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.301093</v>
+        <v>0.30543</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297881</v>
+        <v>0.298829</v>
       </c>
       <c r="D110" t="n">
-        <v>0.281872</v>
+        <v>0.281786</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.309524</v>
+        <v>0.308847</v>
       </c>
       <c r="C111" t="n">
-        <v>0.303342</v>
+        <v>0.302958</v>
       </c>
       <c r="D111" t="n">
-        <v>0.282104</v>
+        <v>0.282789</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.314125</v>
+        <v>0.314503</v>
       </c>
       <c r="C112" t="n">
-        <v>0.309706</v>
+        <v>0.30946</v>
       </c>
       <c r="D112" t="n">
-        <v>0.284234</v>
+        <v>0.284223</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.320535</v>
+        <v>0.316205</v>
       </c>
       <c r="C113" t="n">
-        <v>0.316262</v>
+        <v>0.316059</v>
       </c>
       <c r="D113" t="n">
-        <v>0.286276</v>
+        <v>0.286354</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.327638</v>
+        <v>0.32726</v>
       </c>
       <c r="C114" t="n">
-        <v>0.323791</v>
+        <v>0.323709</v>
       </c>
       <c r="D114" t="n">
-        <v>0.288703</v>
+        <v>0.288332</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.335177</v>
+        <v>0.335113</v>
       </c>
       <c r="C115" t="n">
-        <v>0.331891</v>
+        <v>0.331985</v>
       </c>
       <c r="D115" t="n">
-        <v>0.291418</v>
+        <v>0.291826</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.343782</v>
+        <v>0.34371</v>
       </c>
       <c r="C116" t="n">
-        <v>0.341256</v>
+        <v>0.341554</v>
       </c>
       <c r="D116" t="n">
-        <v>0.29603</v>
+        <v>0.295607</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.353129</v>
+        <v>0.35352</v>
       </c>
       <c r="C117" t="n">
-        <v>0.352365</v>
+        <v>0.352526</v>
       </c>
       <c r="D117" t="n">
-        <v>0.301154</v>
+        <v>0.300839</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.364771</v>
+        <v>0.364895</v>
       </c>
       <c r="C118" t="n">
-        <v>0.36538</v>
+        <v>0.365498</v>
       </c>
       <c r="D118" t="n">
-        <v>0.307595</v>
+        <v>0.308075</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.379961</v>
+        <v>0.379806</v>
       </c>
       <c r="C119" t="n">
-        <v>0.382202</v>
+        <v>0.382272</v>
       </c>
       <c r="D119" t="n">
-        <v>0.31649</v>
+        <v>0.316729</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.400319</v>
+        <v>0.399796</v>
       </c>
       <c r="C120" t="n">
-        <v>0.401739</v>
+        <v>0.404684</v>
       </c>
       <c r="D120" t="n">
-        <v>0.328123</v>
+        <v>0.327615</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.428146</v>
+        <v>0.428451</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432591</v>
+        <v>0.435807</v>
       </c>
       <c r="D121" t="n">
-        <v>0.34391</v>
+        <v>0.343951</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.470237</v>
+        <v>0.470143</v>
       </c>
       <c r="C122" t="n">
-        <v>0.47941</v>
+        <v>0.483409</v>
       </c>
       <c r="D122" t="n">
-        <v>0.368039</v>
+        <v>0.366979</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.535063</v>
+        <v>0.534871</v>
       </c>
       <c r="C123" t="n">
-        <v>0.559129</v>
+        <v>0.554125</v>
       </c>
       <c r="D123" t="n">
-        <v>0.312198</v>
+        <v>0.309833</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.342786</v>
+        <v>0.354966</v>
       </c>
       <c r="C124" t="n">
-        <v>0.346776</v>
+        <v>0.347546</v>
       </c>
       <c r="D124" t="n">
-        <v>0.313868</v>
+        <v>0.314885</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.358884</v>
+        <v>0.345409</v>
       </c>
       <c r="C125" t="n">
-        <v>0.352202</v>
+        <v>0.351707</v>
       </c>
       <c r="D125" t="n">
-        <v>0.317502</v>
+        <v>0.317664</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.36569</v>
+        <v>0.36346</v>
       </c>
       <c r="C126" t="n">
-        <v>0.356659</v>
+        <v>0.356173</v>
       </c>
       <c r="D126" t="n">
-        <v>0.321124</v>
+        <v>0.31988</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.367728</v>
+        <v>0.367587</v>
       </c>
       <c r="C127" t="n">
-        <v>0.361949</v>
+        <v>0.360217</v>
       </c>
       <c r="D127" t="n">
-        <v>0.324003</v>
+        <v>0.323133</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3729</v>
+        <v>0.374173</v>
       </c>
       <c r="C128" t="n">
-        <v>0.367474</v>
+        <v>0.367019</v>
       </c>
       <c r="D128" t="n">
-        <v>0.327531</v>
+        <v>0.326699</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.379497</v>
+        <v>0.378908</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374582</v>
+        <v>0.372493</v>
       </c>
       <c r="D129" t="n">
-        <v>0.330657</v>
+        <v>0.329807</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.371457</v>
+        <v>0.374053</v>
       </c>
       <c r="C130" t="n">
-        <v>0.383191</v>
+        <v>0.383918</v>
       </c>
       <c r="D130" t="n">
-        <v>0.334841</v>
+        <v>0.336865</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.397768</v>
+        <v>0.396512</v>
       </c>
       <c r="C131" t="n">
-        <v>0.392386</v>
+        <v>0.390823</v>
       </c>
       <c r="D131" t="n">
-        <v>0.33853</v>
+        <v>0.337908</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.414319</v>
+        <v>0.39045</v>
       </c>
       <c r="C132" t="n">
-        <v>0.407715</v>
+        <v>0.408572</v>
       </c>
       <c r="D132" t="n">
-        <v>0.345442</v>
+        <v>0.346862</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.418976</v>
+        <v>0.415723</v>
       </c>
       <c r="C133" t="n">
-        <v>0.422723</v>
+        <v>0.424607</v>
       </c>
       <c r="D133" t="n">
-        <v>0.351496</v>
+        <v>0.351491</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.445587</v>
+        <v>0.439106</v>
       </c>
       <c r="C134" t="n">
-        <v>0.448618</v>
+        <v>0.448383</v>
       </c>
       <c r="D134" t="n">
-        <v>0.361154</v>
+        <v>0.360862</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.467531</v>
+        <v>0.470176</v>
       </c>
       <c r="C135" t="n">
-        <v>0.480858</v>
+        <v>0.480671</v>
       </c>
       <c r="D135" t="n">
-        <v>0.376227</v>
+        <v>0.375497</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5098780000000001</v>
+        <v>0.511529</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5325569999999999</v>
+        <v>0.532116</v>
       </c>
       <c r="D136" t="n">
-        <v>0.399362</v>
+        <v>0.399746</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.570659</v>
+        <v>0.575671</v>
       </c>
       <c r="C137" t="n">
-        <v>0.601672</v>
+        <v>0.5994660000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.451967</v>
+        <v>0.44935</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.521935</v>
+        <v>0.509782</v>
       </c>
       <c r="C138" t="n">
-        <v>0.49081</v>
+        <v>0.497351</v>
       </c>
       <c r="D138" t="n">
-        <v>0.447218</v>
+        <v>0.455678</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.517598</v>
+        <v>0.514794</v>
       </c>
       <c r="C139" t="n">
-        <v>0.502018</v>
+        <v>0.499144</v>
       </c>
       <c r="D139" t="n">
-        <v>0.456629</v>
+        <v>0.453111</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.525247</v>
+        <v>0.5245</v>
       </c>
       <c r="C140" t="n">
-        <v>0.505652</v>
+        <v>0.506489</v>
       </c>
       <c r="D140" t="n">
-        <v>0.457613</v>
+        <v>0.459015</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.524423</v>
+        <v>0.507401</v>
       </c>
       <c r="C141" t="n">
-        <v>0.514198</v>
+        <v>0.516256</v>
       </c>
       <c r="D141" t="n">
-        <v>0.463952</v>
+        <v>0.466265</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.537059</v>
+        <v>0.538142</v>
       </c>
       <c r="C142" t="n">
-        <v>0.520268</v>
+        <v>0.5186500000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.465286</v>
+        <v>0.463354</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.552285</v>
+        <v>0.514773</v>
       </c>
       <c r="C143" t="n">
-        <v>0.53208</v>
+        <v>0.529576</v>
       </c>
       <c r="D143" t="n">
-        <v>0.472852</v>
+        <v>0.470467</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.233342</v>
+        <v>0.233445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237017</v>
+        <v>0.237113</v>
       </c>
       <c r="D2" t="n">
-        <v>0.223654</v>
+        <v>0.223732</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.237606</v>
+        <v>0.237637</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239506</v>
+        <v>0.240041</v>
       </c>
       <c r="D3" t="n">
-        <v>0.224444</v>
+        <v>0.224414</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.24567</v>
+        <v>0.245823</v>
       </c>
       <c r="C4" t="n">
-        <v>0.251675</v>
+        <v>0.251378</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229581</v>
+        <v>0.229606</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.258072</v>
+        <v>0.257911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.26593</v>
+        <v>0.265969</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234219</v>
+        <v>0.234269</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.273929</v>
+        <v>0.274072</v>
       </c>
       <c r="C6" t="n">
-        <v>0.284037</v>
+        <v>0.284156</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240341</v>
+        <v>0.240353</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.295394</v>
+        <v>0.294851</v>
       </c>
       <c r="C7" t="n">
-        <v>0.313559</v>
+        <v>0.313636</v>
       </c>
       <c r="D7" t="n">
-        <v>0.252671</v>
+        <v>0.252448</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.328932</v>
+        <v>0.329911</v>
       </c>
       <c r="C8" t="n">
-        <v>0.347992</v>
+        <v>0.348418</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269442</v>
+        <v>0.269393</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.384821</v>
+        <v>0.384417</v>
       </c>
       <c r="C9" t="n">
-        <v>0.402883</v>
+        <v>0.402791</v>
       </c>
       <c r="D9" t="n">
-        <v>0.223303</v>
+        <v>0.223197</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229306</v>
+        <v>0.229605</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225216</v>
+        <v>0.225281</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223411</v>
+        <v>0.223453</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.229807</v>
+        <v>0.230011</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22561</v>
+        <v>0.225436</v>
       </c>
       <c r="D11" t="n">
-        <v>0.223246</v>
+        <v>0.223209</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232386</v>
+        <v>0.232414</v>
       </c>
       <c r="C12" t="n">
-        <v>0.228183</v>
+        <v>0.228187</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225336</v>
+        <v>0.225203</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.232355</v>
+        <v>0.232333</v>
       </c>
       <c r="C13" t="n">
-        <v>0.228873</v>
+        <v>0.228811</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224743</v>
+        <v>0.224656</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.235075</v>
+        <v>0.235064</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233093</v>
+        <v>0.23314</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22642</v>
+        <v>0.226457</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.237305</v>
+        <v>0.237267</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236295</v>
+        <v>0.236281</v>
       </c>
       <c r="D15" t="n">
-        <v>0.227786</v>
+        <v>0.227775</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.240492</v>
+        <v>0.24054</v>
       </c>
       <c r="C16" t="n">
-        <v>0.240854</v>
+        <v>0.240828</v>
       </c>
       <c r="D16" t="n">
-        <v>0.229062</v>
+        <v>0.228965</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.243651</v>
+        <v>0.24369</v>
       </c>
       <c r="C17" t="n">
-        <v>0.246252</v>
+        <v>0.24631</v>
       </c>
       <c r="D17" t="n">
-        <v>0.230385</v>
+        <v>0.230409</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.248945</v>
+        <v>0.248925</v>
       </c>
       <c r="C18" t="n">
-        <v>0.252352</v>
+        <v>0.252386</v>
       </c>
       <c r="D18" t="n">
-        <v>0.231979</v>
+        <v>0.231958</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.25856</v>
+        <v>0.258453</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263115</v>
+        <v>0.263085</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236214</v>
+        <v>0.236096</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269619</v>
+        <v>0.269845</v>
       </c>
       <c r="C20" t="n">
-        <v>0.278408</v>
+        <v>0.278316</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240325</v>
+        <v>0.240332</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.290009</v>
+        <v>0.290071</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298217</v>
+        <v>0.298011</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248084</v>
+        <v>0.247974</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3251</v>
+        <v>0.325049</v>
       </c>
       <c r="C22" t="n">
-        <v>0.325639</v>
+        <v>0.32563</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261046</v>
+        <v>0.261139</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.36697</v>
+        <v>0.367051</v>
       </c>
       <c r="C23" t="n">
-        <v>0.379564</v>
+        <v>0.379687</v>
       </c>
       <c r="D23" t="n">
-        <v>0.22642</v>
+        <v>0.22637</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.233923</v>
+        <v>0.233898</v>
       </c>
       <c r="C24" t="n">
-        <v>0.227281</v>
+        <v>0.227295</v>
       </c>
       <c r="D24" t="n">
-        <v>0.227324</v>
+        <v>0.227258</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233942</v>
+        <v>0.233987</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227695</v>
+        <v>0.227746</v>
       </c>
       <c r="D25" t="n">
-        <v>0.226932</v>
+        <v>0.227006</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234959</v>
+        <v>0.234906</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22889</v>
+        <v>0.22893</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227292</v>
+        <v>0.227379</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.236474</v>
+        <v>0.236564</v>
       </c>
       <c r="C27" t="n">
-        <v>0.23046</v>
+        <v>0.230589</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227741</v>
+        <v>0.227714</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.238639</v>
+        <v>0.238581</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233065</v>
+        <v>0.23312</v>
       </c>
       <c r="D28" t="n">
-        <v>0.22904</v>
+        <v>0.229139</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.239925</v>
+        <v>0.239889</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235714</v>
+        <v>0.235819</v>
       </c>
       <c r="D29" t="n">
-        <v>0.229348</v>
+        <v>0.229395</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.242499</v>
+        <v>0.242453</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239063</v>
+        <v>0.239133</v>
       </c>
       <c r="D30" t="n">
-        <v>0.230491</v>
+        <v>0.230594</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.245786</v>
+        <v>0.245802</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243448</v>
+        <v>0.243481</v>
       </c>
       <c r="D31" t="n">
-        <v>0.231614</v>
+        <v>0.231649</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251464</v>
+        <v>0.251475</v>
       </c>
       <c r="C32" t="n">
-        <v>0.250123</v>
+        <v>0.250201</v>
       </c>
       <c r="D32" t="n">
-        <v>0.234043</v>
+        <v>0.234085</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.258783</v>
+        <v>0.258732</v>
       </c>
       <c r="C33" t="n">
-        <v>0.260412</v>
+        <v>0.260487</v>
       </c>
       <c r="D33" t="n">
-        <v>0.237149</v>
+        <v>0.237186</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268739</v>
+        <v>0.268677</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272355</v>
+        <v>0.272349</v>
       </c>
       <c r="D34" t="n">
-        <v>0.241082</v>
+        <v>0.241086</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.284518</v>
+        <v>0.284552</v>
       </c>
       <c r="C35" t="n">
-        <v>0.289731</v>
+        <v>0.289813</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246581</v>
+        <v>0.246553</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.308224</v>
+        <v>0.308751</v>
       </c>
       <c r="C36" t="n">
-        <v>0.317815</v>
+        <v>0.317911</v>
       </c>
       <c r="D36" t="n">
-        <v>0.257416</v>
+        <v>0.257407</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.350036</v>
+        <v>0.349898</v>
       </c>
       <c r="C37" t="n">
-        <v>0.362526</v>
+        <v>0.362575</v>
       </c>
       <c r="D37" t="n">
-        <v>0.228877</v>
+        <v>0.22892</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.235272</v>
+        <v>0.235232</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229025</v>
+        <v>0.229001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.228625</v>
+        <v>0.228715</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236713</v>
+        <v>0.236735</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230794</v>
+        <v>0.230756</v>
       </c>
       <c r="D39" t="n">
-        <v>0.229648</v>
+        <v>0.229694</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23728</v>
+        <v>0.237268</v>
       </c>
       <c r="C40" t="n">
-        <v>0.231545</v>
+        <v>0.23152</v>
       </c>
       <c r="D40" t="n">
-        <v>0.229712</v>
+        <v>0.229725</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.238685</v>
+        <v>0.238686</v>
       </c>
       <c r="C41" t="n">
-        <v>0.232893</v>
+        <v>0.232877</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230215</v>
+        <v>0.230259</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.240482</v>
+        <v>0.240499</v>
       </c>
       <c r="C42" t="n">
-        <v>0.234672</v>
+        <v>0.234692</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231061</v>
+        <v>0.231131</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.242533</v>
+        <v>0.24253</v>
       </c>
       <c r="C43" t="n">
-        <v>0.236999</v>
+        <v>0.237007</v>
       </c>
       <c r="D43" t="n">
-        <v>0.231687</v>
+        <v>0.231756</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.245303</v>
+        <v>0.245263</v>
       </c>
       <c r="C44" t="n">
-        <v>0.240592</v>
+        <v>0.240569</v>
       </c>
       <c r="D44" t="n">
-        <v>0.233008</v>
+        <v>0.233037</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.248705</v>
+        <v>0.248716</v>
       </c>
       <c r="C45" t="n">
-        <v>0.244999</v>
+        <v>0.245058</v>
       </c>
       <c r="D45" t="n">
-        <v>0.234315</v>
+        <v>0.234395</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253726</v>
+        <v>0.253698</v>
       </c>
       <c r="C46" t="n">
-        <v>0.251285</v>
+        <v>0.251284</v>
       </c>
       <c r="D46" t="n">
-        <v>0.236436</v>
+        <v>0.236504</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260307</v>
+        <v>0.260228</v>
       </c>
       <c r="C47" t="n">
-        <v>0.259735</v>
+        <v>0.25964</v>
       </c>
       <c r="D47" t="n">
-        <v>0.238896</v>
+        <v>0.23889</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.27044</v>
+        <v>0.270333</v>
       </c>
       <c r="C48" t="n">
-        <v>0.271822</v>
+        <v>0.271654</v>
       </c>
       <c r="D48" t="n">
-        <v>0.242785</v>
+        <v>0.242767</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.285274</v>
+        <v>0.284962</v>
       </c>
       <c r="C49" t="n">
-        <v>0.288409</v>
+        <v>0.288351</v>
       </c>
       <c r="D49" t="n">
-        <v>0.248412</v>
+        <v>0.248368</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.308354</v>
+        <v>0.308056</v>
       </c>
       <c r="C50" t="n">
-        <v>0.316347</v>
+        <v>0.316283</v>
       </c>
       <c r="D50" t="n">
-        <v>0.258898</v>
+        <v>0.258875</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.344393</v>
+        <v>0.344354</v>
       </c>
       <c r="C51" t="n">
-        <v>0.353869</v>
+        <v>0.353692</v>
       </c>
       <c r="D51" t="n">
-        <v>0.231083</v>
+        <v>0.231035</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.398182</v>
+        <v>0.401323</v>
       </c>
       <c r="C52" t="n">
-        <v>0.41666</v>
+        <v>0.418401</v>
       </c>
       <c r="D52" t="n">
-        <v>0.231426</v>
+        <v>0.231367</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239772</v>
+        <v>0.241359</v>
       </c>
       <c r="C53" t="n">
-        <v>0.233281</v>
+        <v>0.233322</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23176</v>
+        <v>0.231727</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.240513</v>
+        <v>0.242003</v>
       </c>
       <c r="C54" t="n">
-        <v>0.234523</v>
+        <v>0.234536</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232259</v>
+        <v>0.232271</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.241692</v>
+        <v>0.243222</v>
       </c>
       <c r="C55" t="n">
-        <v>0.236051</v>
+        <v>0.236045</v>
       </c>
       <c r="D55" t="n">
-        <v>0.232864</v>
+        <v>0.232848</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.243067</v>
+        <v>0.244571</v>
       </c>
       <c r="C56" t="n">
-        <v>0.237813</v>
+        <v>0.237808</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233635</v>
+        <v>0.233595</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.24484</v>
+        <v>0.246391</v>
       </c>
       <c r="C57" t="n">
-        <v>0.240293</v>
+        <v>0.240306</v>
       </c>
       <c r="D57" t="n">
-        <v>0.234436</v>
+        <v>0.234431</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.247219</v>
+        <v>0.248824</v>
       </c>
       <c r="C58" t="n">
-        <v>0.243816</v>
+        <v>0.243824</v>
       </c>
       <c r="D58" t="n">
-        <v>0.235475</v>
+        <v>0.235513</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.250713</v>
+        <v>0.251493</v>
       </c>
       <c r="C59" t="n">
-        <v>0.248343</v>
+        <v>0.248354</v>
       </c>
       <c r="D59" t="n">
-        <v>0.236722</v>
+        <v>0.236729</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.255262</v>
+        <v>0.256807</v>
       </c>
       <c r="C60" t="n">
-        <v>0.253919</v>
+        <v>0.25391</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238798</v>
+        <v>0.238693</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.261861</v>
+        <v>0.263343</v>
       </c>
       <c r="C61" t="n">
-        <v>0.261574</v>
+        <v>0.261545</v>
       </c>
       <c r="D61" t="n">
-        <v>0.240913</v>
+        <v>0.240867</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.270622</v>
+        <v>0.272164</v>
       </c>
       <c r="C62" t="n">
-        <v>0.272353</v>
+        <v>0.272365</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244511</v>
+        <v>0.244442</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.283586</v>
+        <v>0.285478</v>
       </c>
       <c r="C63" t="n">
-        <v>0.288257</v>
+        <v>0.288316</v>
       </c>
       <c r="D63" t="n">
-        <v>0.250415</v>
+        <v>0.250421</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.304409</v>
+        <v>0.305991</v>
       </c>
       <c r="C64" t="n">
-        <v>0.312011</v>
+        <v>0.312039</v>
       </c>
       <c r="D64" t="n">
-        <v>0.259882</v>
+        <v>0.259748</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.336614</v>
+        <v>0.338014</v>
       </c>
       <c r="C65" t="n">
-        <v>0.348747</v>
+        <v>0.34877</v>
       </c>
       <c r="D65" t="n">
-        <v>0.276205</v>
+        <v>0.276188</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.386635</v>
+        <v>0.386837</v>
       </c>
       <c r="C66" t="n">
-        <v>0.405623</v>
+        <v>0.405116</v>
       </c>
       <c r="D66" t="n">
-        <v>0.248592</v>
+        <v>0.243047</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.258021</v>
+        <v>0.2564</v>
       </c>
       <c r="C67" t="n">
-        <v>0.250736</v>
+        <v>0.24741</v>
       </c>
       <c r="D67" t="n">
-        <v>0.248912</v>
+        <v>0.243719</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.258468</v>
+        <v>0.258289</v>
       </c>
       <c r="C68" t="n">
-        <v>0.251813</v>
+        <v>0.247977</v>
       </c>
       <c r="D68" t="n">
-        <v>0.249285</v>
+        <v>0.243415</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.259683</v>
+        <v>0.259187</v>
       </c>
       <c r="C69" t="n">
-        <v>0.253431</v>
+        <v>0.249811</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250008</v>
+        <v>0.244327</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.261139</v>
+        <v>0.260574</v>
       </c>
       <c r="C70" t="n">
-        <v>0.255232</v>
+        <v>0.251737</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250557</v>
+        <v>0.245039</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.262825</v>
+        <v>0.262318</v>
       </c>
       <c r="C71" t="n">
-        <v>0.257719</v>
+        <v>0.254398</v>
       </c>
       <c r="D71" t="n">
-        <v>0.251302</v>
+        <v>0.245972</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.265416</v>
+        <v>0.264819</v>
       </c>
       <c r="C72" t="n">
-        <v>0.260742</v>
+        <v>0.257557</v>
       </c>
       <c r="D72" t="n">
-        <v>0.252391</v>
+        <v>0.247216</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.268318</v>
+        <v>0.267736</v>
       </c>
       <c r="C73" t="n">
-        <v>0.26486</v>
+        <v>0.261821</v>
       </c>
       <c r="D73" t="n">
-        <v>0.253748</v>
+        <v>0.24872</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272368</v>
+        <v>0.271725</v>
       </c>
       <c r="C74" t="n">
-        <v>0.270543</v>
+        <v>0.267685</v>
       </c>
       <c r="D74" t="n">
-        <v>0.255518</v>
+        <v>0.250701</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278006</v>
+        <v>0.277433</v>
       </c>
       <c r="C75" t="n">
-        <v>0.278645</v>
+        <v>0.275987</v>
       </c>
       <c r="D75" t="n">
-        <v>0.258065</v>
+        <v>0.253424</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.286444</v>
+        <v>0.285914</v>
       </c>
       <c r="C76" t="n">
-        <v>0.289228</v>
+        <v>0.286837</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261592</v>
+        <v>0.257178</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.299077</v>
+        <v>0.298468</v>
       </c>
       <c r="C77" t="n">
-        <v>0.30423</v>
+        <v>0.302012</v>
       </c>
       <c r="D77" t="n">
-        <v>0.266915</v>
+        <v>0.262666</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318219</v>
+        <v>0.317383</v>
       </c>
       <c r="C78" t="n">
-        <v>0.326096</v>
+        <v>0.324015</v>
       </c>
       <c r="D78" t="n">
-        <v>0.275553</v>
+        <v>0.271469</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.346144</v>
+        <v>0.345507</v>
       </c>
       <c r="C79" t="n">
-        <v>0.360075</v>
+        <v>0.358163</v>
       </c>
       <c r="D79" t="n">
-        <v>0.290146</v>
+        <v>0.286197</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.391148</v>
+        <v>0.389205</v>
       </c>
       <c r="C80" t="n">
-        <v>0.41156</v>
+        <v>0.40957</v>
       </c>
       <c r="D80" t="n">
-        <v>0.265125</v>
+        <v>0.265005</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.27554</v>
+        <v>0.275882</v>
       </c>
       <c r="C81" t="n">
-        <v>0.266443</v>
+        <v>0.266271</v>
       </c>
       <c r="D81" t="n">
-        <v>0.265423</v>
+        <v>0.265343</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.276211</v>
+        <v>0.27671</v>
       </c>
       <c r="C82" t="n">
-        <v>0.267518</v>
+        <v>0.26735</v>
       </c>
       <c r="D82" t="n">
-        <v>0.265926</v>
+        <v>0.265762</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.277273</v>
+        <v>0.277712</v>
       </c>
       <c r="C83" t="n">
-        <v>0.268816</v>
+        <v>0.268613</v>
       </c>
       <c r="D83" t="n">
-        <v>0.266473</v>
+        <v>0.266347</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.278596</v>
+        <v>0.27906</v>
       </c>
       <c r="C84" t="n">
-        <v>0.270534</v>
+        <v>0.270323</v>
       </c>
       <c r="D84" t="n">
-        <v>0.267096</v>
+        <v>0.266965</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.280248</v>
+        <v>0.280635</v>
       </c>
       <c r="C85" t="n">
-        <v>0.272591</v>
+        <v>0.272338</v>
       </c>
       <c r="D85" t="n">
-        <v>0.26783</v>
+        <v>0.267712</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.282262</v>
+        <v>0.282601</v>
       </c>
       <c r="C86" t="n">
-        <v>0.27525</v>
+        <v>0.274983</v>
       </c>
       <c r="D86" t="n">
-        <v>0.268755</v>
+        <v>0.268591</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.284909</v>
+        <v>0.285303</v>
       </c>
       <c r="C87" t="n">
-        <v>0.278938</v>
+        <v>0.278684</v>
       </c>
       <c r="D87" t="n">
-        <v>0.269966</v>
+        <v>0.269815</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.288564</v>
+        <v>0.289011</v>
       </c>
       <c r="C88" t="n">
-        <v>0.284052</v>
+        <v>0.283714</v>
       </c>
       <c r="D88" t="n">
-        <v>0.271613</v>
+        <v>0.271406</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.293945</v>
+        <v>0.29431</v>
       </c>
       <c r="C89" t="n">
-        <v>0.291309</v>
+        <v>0.291047</v>
       </c>
       <c r="D89" t="n">
-        <v>0.274026</v>
+        <v>0.273809</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.301823</v>
+        <v>0.302195</v>
       </c>
       <c r="C90" t="n">
-        <v>0.301034</v>
+        <v>0.300766</v>
       </c>
       <c r="D90" t="n">
-        <v>0.277256</v>
+        <v>0.277037</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.31297</v>
+        <v>0.313119</v>
       </c>
       <c r="C91" t="n">
-        <v>0.314734</v>
+        <v>0.314355</v>
       </c>
       <c r="D91" t="n">
-        <v>0.28208</v>
+        <v>0.281893</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.329763</v>
+        <v>0.329893</v>
       </c>
       <c r="C92" t="n">
-        <v>0.334247</v>
+        <v>0.33384</v>
       </c>
       <c r="D92" t="n">
-        <v>0.289647</v>
+        <v>0.289403</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.355492</v>
+        <v>0.355618</v>
       </c>
       <c r="C93" t="n">
-        <v>0.364741</v>
+        <v>0.364266</v>
       </c>
       <c r="D93" t="n">
-        <v>0.302289</v>
+        <v>0.30196</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.396289</v>
+        <v>0.395863</v>
       </c>
       <c r="C94" t="n">
-        <v>0.413127</v>
+        <v>0.412555</v>
       </c>
       <c r="D94" t="n">
-        <v>0.274715</v>
+        <v>0.272592</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.286348</v>
+        <v>0.280506</v>
       </c>
       <c r="C95" t="n">
-        <v>0.27677</v>
+        <v>0.273235</v>
       </c>
       <c r="D95" t="n">
-        <v>0.275244</v>
+        <v>0.272865</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.287436</v>
+        <v>0.281424</v>
       </c>
       <c r="C96" t="n">
-        <v>0.277976</v>
+        <v>0.274359</v>
       </c>
       <c r="D96" t="n">
-        <v>0.275719</v>
+        <v>0.273266</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.288675</v>
+        <v>0.282523</v>
       </c>
       <c r="C97" t="n">
-        <v>0.279491</v>
+        <v>0.275777</v>
       </c>
       <c r="D97" t="n">
-        <v>0.276267</v>
+        <v>0.273673</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.290028</v>
+        <v>0.283727</v>
       </c>
       <c r="C98" t="n">
-        <v>0.28143</v>
+        <v>0.277447</v>
       </c>
       <c r="D98" t="n">
-        <v>0.276976</v>
+        <v>0.274305</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.291741</v>
+        <v>0.285388</v>
       </c>
       <c r="C99" t="n">
-        <v>0.283857</v>
+        <v>0.279797</v>
       </c>
       <c r="D99" t="n">
-        <v>0.277861</v>
+        <v>0.274999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.294033</v>
+        <v>0.287554</v>
       </c>
       <c r="C100" t="n">
-        <v>0.286894</v>
+        <v>0.283112</v>
       </c>
       <c r="D100" t="n">
-        <v>0.278822</v>
+        <v>0.275908</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.296934</v>
+        <v>0.290396</v>
       </c>
       <c r="C101" t="n">
-        <v>0.29118</v>
+        <v>0.287337</v>
       </c>
       <c r="D101" t="n">
-        <v>0.280075</v>
+        <v>0.276947</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.300937</v>
+        <v>0.294365</v>
       </c>
       <c r="C102" t="n">
-        <v>0.296964</v>
+        <v>0.293238</v>
       </c>
       <c r="D102" t="n">
-        <v>0.281792</v>
+        <v>0.278514</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.306632</v>
+        <v>0.299773</v>
       </c>
       <c r="C103" t="n">
-        <v>0.304982</v>
+        <v>0.301426</v>
       </c>
       <c r="D103" t="n">
-        <v>0.284186</v>
+        <v>0.280785</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.314813</v>
+        <v>0.30786</v>
       </c>
       <c r="C104" t="n">
-        <v>0.315991</v>
+        <v>0.312467</v>
       </c>
       <c r="D104" t="n">
-        <v>0.287487</v>
+        <v>0.28396</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.32672</v>
+        <v>0.319544</v>
       </c>
       <c r="C105" t="n">
-        <v>0.330907</v>
+        <v>0.327469</v>
       </c>
       <c r="D105" t="n">
-        <v>0.292568</v>
+        <v>0.288861</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.344325</v>
+        <v>0.337077</v>
       </c>
       <c r="C106" t="n">
-        <v>0.351652</v>
+        <v>0.348069</v>
       </c>
       <c r="D106" t="n">
-        <v>0.299931</v>
+        <v>0.296239</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.371001</v>
+        <v>0.363638</v>
       </c>
       <c r="C107" t="n">
-        <v>0.382544</v>
+        <v>0.378742</v>
       </c>
       <c r="D107" t="n">
-        <v>0.312696</v>
+        <v>0.308968</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.411765</v>
+        <v>0.404691</v>
       </c>
       <c r="C108" t="n">
-        <v>0.429216</v>
+        <v>0.425531</v>
       </c>
       <c r="D108" t="n">
-        <v>0.279567</v>
+        <v>0.27972</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.474359</v>
+        <v>0.474629</v>
       </c>
       <c r="C109" t="n">
-        <v>0.499795</v>
+        <v>0.499523</v>
       </c>
       <c r="D109" t="n">
-        <v>0.280675</v>
+        <v>0.280284</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.30543</v>
+        <v>0.301468</v>
       </c>
       <c r="C110" t="n">
-        <v>0.298829</v>
+        <v>0.297465</v>
       </c>
       <c r="D110" t="n">
-        <v>0.281786</v>
+        <v>0.281533</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.308847</v>
+        <v>0.305199</v>
       </c>
       <c r="C111" t="n">
-        <v>0.302958</v>
+        <v>0.304</v>
       </c>
       <c r="D111" t="n">
-        <v>0.282789</v>
+        <v>0.282799</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.314503</v>
+        <v>0.314086</v>
       </c>
       <c r="C112" t="n">
-        <v>0.30946</v>
+        <v>0.309831</v>
       </c>
       <c r="D112" t="n">
-        <v>0.284223</v>
+        <v>0.28398</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.316205</v>
+        <v>0.320756</v>
       </c>
       <c r="C113" t="n">
-        <v>0.316059</v>
+        <v>0.316355</v>
       </c>
       <c r="D113" t="n">
-        <v>0.286354</v>
+        <v>0.286386</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.32726</v>
+        <v>0.326917</v>
       </c>
       <c r="C114" t="n">
-        <v>0.323709</v>
+        <v>0.323564</v>
       </c>
       <c r="D114" t="n">
-        <v>0.288332</v>
+        <v>0.288187</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.335113</v>
+        <v>0.334554</v>
       </c>
       <c r="C115" t="n">
-        <v>0.331985</v>
+        <v>0.331383</v>
       </c>
       <c r="D115" t="n">
-        <v>0.291826</v>
+        <v>0.291557</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.34371</v>
+        <v>0.342973</v>
       </c>
       <c r="C116" t="n">
-        <v>0.341554</v>
+        <v>0.340036</v>
       </c>
       <c r="D116" t="n">
-        <v>0.295607</v>
+        <v>0.295967</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.35352</v>
+        <v>0.352279</v>
       </c>
       <c r="C117" t="n">
-        <v>0.352526</v>
+        <v>0.352466</v>
       </c>
       <c r="D117" t="n">
-        <v>0.300839</v>
+        <v>0.301092</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.364895</v>
+        <v>0.364518</v>
       </c>
       <c r="C118" t="n">
-        <v>0.365498</v>
+        <v>0.365459</v>
       </c>
       <c r="D118" t="n">
-        <v>0.308075</v>
+        <v>0.307878</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.379806</v>
+        <v>0.379745</v>
       </c>
       <c r="C119" t="n">
-        <v>0.382272</v>
+        <v>0.382241</v>
       </c>
       <c r="D119" t="n">
-        <v>0.316729</v>
+        <v>0.316719</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.399796</v>
+        <v>0.400227</v>
       </c>
       <c r="C120" t="n">
-        <v>0.404684</v>
+        <v>0.404477</v>
       </c>
       <c r="D120" t="n">
-        <v>0.327615</v>
+        <v>0.327943</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.428451</v>
+        <v>0.428101</v>
       </c>
       <c r="C121" t="n">
-        <v>0.435807</v>
+        <v>0.435818</v>
       </c>
       <c r="D121" t="n">
-        <v>0.343951</v>
+        <v>0.343888</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.470143</v>
+        <v>0.47012</v>
       </c>
       <c r="C122" t="n">
-        <v>0.483409</v>
+        <v>0.483657</v>
       </c>
       <c r="D122" t="n">
-        <v>0.366979</v>
+        <v>0.367917</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.534871</v>
+        <v>0.534209</v>
       </c>
       <c r="C123" t="n">
-        <v>0.554125</v>
+        <v>0.559595</v>
       </c>
       <c r="D123" t="n">
-        <v>0.309833</v>
+        <v>0.308909</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.354966</v>
+        <v>0.354744</v>
       </c>
       <c r="C124" t="n">
-        <v>0.347546</v>
+        <v>0.345481</v>
       </c>
       <c r="D124" t="n">
-        <v>0.314885</v>
+        <v>0.312269</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.345409</v>
+        <v>0.361632</v>
       </c>
       <c r="C125" t="n">
-        <v>0.351707</v>
+        <v>0.350875</v>
       </c>
       <c r="D125" t="n">
-        <v>0.317664</v>
+        <v>0.315831</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.36346</v>
+        <v>0.363266</v>
       </c>
       <c r="C126" t="n">
-        <v>0.356173</v>
+        <v>0.355489</v>
       </c>
       <c r="D126" t="n">
-        <v>0.31988</v>
+        <v>0.319029</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.367587</v>
+        <v>0.375571</v>
       </c>
       <c r="C127" t="n">
-        <v>0.360217</v>
+        <v>0.360272</v>
       </c>
       <c r="D127" t="n">
-        <v>0.323133</v>
+        <v>0.322593</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.374173</v>
+        <v>0.373577</v>
       </c>
       <c r="C128" t="n">
-        <v>0.367019</v>
+        <v>0.368226</v>
       </c>
       <c r="D128" t="n">
-        <v>0.326699</v>
+        <v>0.327162</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.378908</v>
+        <v>0.378794</v>
       </c>
       <c r="C129" t="n">
-        <v>0.372493</v>
+        <v>0.374232</v>
       </c>
       <c r="D129" t="n">
-        <v>0.329807</v>
+        <v>0.330847</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.374053</v>
+        <v>0.385967</v>
       </c>
       <c r="C130" t="n">
-        <v>0.383918</v>
+        <v>0.382423</v>
       </c>
       <c r="D130" t="n">
-        <v>0.336865</v>
+        <v>0.334282</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.396512</v>
+        <v>0.394574</v>
       </c>
       <c r="C131" t="n">
-        <v>0.390823</v>
+        <v>0.392246</v>
       </c>
       <c r="D131" t="n">
-        <v>0.337908</v>
+        <v>0.338352</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.39045</v>
+        <v>0.390041</v>
       </c>
       <c r="C132" t="n">
-        <v>0.408572</v>
+        <v>0.405296</v>
       </c>
       <c r="D132" t="n">
-        <v>0.346862</v>
+        <v>0.343623</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.415723</v>
+        <v>0.418901</v>
       </c>
       <c r="C133" t="n">
-        <v>0.424607</v>
+        <v>0.426741</v>
       </c>
       <c r="D133" t="n">
-        <v>0.351491</v>
+        <v>0.352971</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.439106</v>
+        <v>0.440339</v>
       </c>
       <c r="C134" t="n">
-        <v>0.448383</v>
+        <v>0.448789</v>
       </c>
       <c r="D134" t="n">
-        <v>0.360862</v>
+        <v>0.361075</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.470176</v>
+        <v>0.467499</v>
       </c>
       <c r="C135" t="n">
-        <v>0.480671</v>
+        <v>0.480923</v>
       </c>
       <c r="D135" t="n">
-        <v>0.375497</v>
+        <v>0.374911</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.511529</v>
+        <v>0.508785</v>
       </c>
       <c r="C136" t="n">
-        <v>0.532116</v>
+        <v>0.529989</v>
       </c>
       <c r="D136" t="n">
-        <v>0.399746</v>
+        <v>0.396555</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.575671</v>
+        <v>0.571092</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5994660000000001</v>
+        <v>0.603079</v>
       </c>
       <c r="D137" t="n">
-        <v>0.44935</v>
+        <v>0.456717</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.509782</v>
+        <v>0.49057</v>
       </c>
       <c r="C138" t="n">
-        <v>0.497351</v>
+        <v>0.495791</v>
       </c>
       <c r="D138" t="n">
-        <v>0.455678</v>
+        <v>0.454803</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.514794</v>
+        <v>0.512829</v>
       </c>
       <c r="C139" t="n">
-        <v>0.499144</v>
+        <v>0.506024</v>
       </c>
       <c r="D139" t="n">
-        <v>0.453111</v>
+        <v>0.463095</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5245</v>
+        <v>0.515293</v>
       </c>
       <c r="C140" t="n">
-        <v>0.506489</v>
+        <v>0.508195</v>
       </c>
       <c r="D140" t="n">
-        <v>0.459015</v>
+        <v>0.461403</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.507401</v>
+        <v>0.538784</v>
       </c>
       <c r="C141" t="n">
-        <v>0.516256</v>
+        <v>0.5151</v>
       </c>
       <c r="D141" t="n">
-        <v>0.466265</v>
+        <v>0.464795</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.538142</v>
+        <v>0.526492</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5186500000000001</v>
+        <v>0.527008</v>
       </c>
       <c r="D142" t="n">
-        <v>0.463354</v>
+        <v>0.47412</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.514773</v>
+        <v>0.551339</v>
       </c>
       <c r="C143" t="n">
-        <v>0.529576</v>
+        <v>0.53185</v>
       </c>
       <c r="D143" t="n">
-        <v>0.470467</v>
+        <v>0.47263</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.233445</v>
+        <v>0.233602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237113</v>
+        <v>0.236945</v>
       </c>
       <c r="D2" t="n">
-        <v>0.223732</v>
+        <v>0.22378</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.237637</v>
+        <v>0.237455</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240041</v>
+        <v>0.239631</v>
       </c>
       <c r="D3" t="n">
-        <v>0.224414</v>
+        <v>0.224517</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.245823</v>
+        <v>0.245797</v>
       </c>
       <c r="C4" t="n">
-        <v>0.251378</v>
+        <v>0.251469</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229606</v>
+        <v>0.229693</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.257911</v>
+        <v>0.258122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265969</v>
+        <v>0.265834</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234269</v>
+        <v>0.234388</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.274072</v>
+        <v>0.274202</v>
       </c>
       <c r="C6" t="n">
-        <v>0.284156</v>
+        <v>0.283907</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240353</v>
+        <v>0.240437</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.294851</v>
+        <v>0.295441</v>
       </c>
       <c r="C7" t="n">
-        <v>0.313636</v>
+        <v>0.313519</v>
       </c>
       <c r="D7" t="n">
-        <v>0.252448</v>
+        <v>0.252787</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.329911</v>
+        <v>0.329956</v>
       </c>
       <c r="C8" t="n">
-        <v>0.348418</v>
+        <v>0.348077</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269393</v>
+        <v>0.269492</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.384417</v>
+        <v>0.383807</v>
       </c>
       <c r="C9" t="n">
-        <v>0.402791</v>
+        <v>0.403387</v>
       </c>
       <c r="D9" t="n">
-        <v>0.223197</v>
+        <v>0.223169</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229605</v>
+        <v>0.229259</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225281</v>
+        <v>0.225073</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223453</v>
+        <v>0.223287</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230011</v>
+        <v>0.229849</v>
       </c>
       <c r="C11" t="n">
-        <v>0.225436</v>
+        <v>0.225501</v>
       </c>
       <c r="D11" t="n">
-        <v>0.223209</v>
+        <v>0.223185</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232414</v>
+        <v>0.232302</v>
       </c>
       <c r="C12" t="n">
-        <v>0.228187</v>
+        <v>0.228129</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225203</v>
+        <v>0.225232</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.232333</v>
+        <v>0.232267</v>
       </c>
       <c r="C13" t="n">
-        <v>0.228811</v>
+        <v>0.228834</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224656</v>
+        <v>0.224698</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.235064</v>
+        <v>0.235139</v>
       </c>
       <c r="C14" t="n">
-        <v>0.23314</v>
+        <v>0.233248</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226457</v>
+        <v>0.226527</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.237267</v>
+        <v>0.23731</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236281</v>
+        <v>0.236266</v>
       </c>
       <c r="D15" t="n">
-        <v>0.227775</v>
+        <v>0.227837</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.24054</v>
+        <v>0.240545</v>
       </c>
       <c r="C16" t="n">
-        <v>0.240828</v>
+        <v>0.240873</v>
       </c>
       <c r="D16" t="n">
-        <v>0.228965</v>
+        <v>0.229091</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.24369</v>
+        <v>0.243793</v>
       </c>
       <c r="C17" t="n">
-        <v>0.24631</v>
+        <v>0.246362</v>
       </c>
       <c r="D17" t="n">
-        <v>0.230409</v>
+        <v>0.230461</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.248925</v>
+        <v>0.248994</v>
       </c>
       <c r="C18" t="n">
-        <v>0.252386</v>
+        <v>0.252369</v>
       </c>
       <c r="D18" t="n">
-        <v>0.231958</v>
+        <v>0.232008</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.258453</v>
+        <v>0.2585</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263085</v>
+        <v>0.263046</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236096</v>
+        <v>0.23622</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269845</v>
+        <v>0.269855</v>
       </c>
       <c r="C20" t="n">
-        <v>0.278316</v>
+        <v>0.278287</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240332</v>
+        <v>0.240358</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.290071</v>
+        <v>0.290075</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298011</v>
+        <v>0.298036</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247974</v>
+        <v>0.247998</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.325049</v>
+        <v>0.324033</v>
       </c>
       <c r="C22" t="n">
-        <v>0.32563</v>
+        <v>0.32548</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261139</v>
+        <v>0.261119</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.367051</v>
+        <v>0.36698</v>
       </c>
       <c r="C23" t="n">
-        <v>0.379687</v>
+        <v>0.379997</v>
       </c>
       <c r="D23" t="n">
-        <v>0.22637</v>
+        <v>0.226387</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.233898</v>
+        <v>0.234054</v>
       </c>
       <c r="C24" t="n">
-        <v>0.227295</v>
+        <v>0.227355</v>
       </c>
       <c r="D24" t="n">
-        <v>0.227258</v>
+        <v>0.227398</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233987</v>
+        <v>0.234058</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227746</v>
+        <v>0.227732</v>
       </c>
       <c r="D25" t="n">
-        <v>0.227006</v>
+        <v>0.227034</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234906</v>
+        <v>0.235055</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22893</v>
+        <v>0.228886</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227379</v>
+        <v>0.227315</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.236564</v>
+        <v>0.236536</v>
       </c>
       <c r="C27" t="n">
-        <v>0.230589</v>
+        <v>0.230511</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227714</v>
+        <v>0.227776</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.238581</v>
+        <v>0.238601</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23312</v>
+        <v>0.233044</v>
       </c>
       <c r="D28" t="n">
-        <v>0.229139</v>
+        <v>0.229112</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.239889</v>
+        <v>0.239937</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235819</v>
+        <v>0.235856</v>
       </c>
       <c r="D29" t="n">
-        <v>0.229395</v>
+        <v>0.229492</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.242453</v>
+        <v>0.242536</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239133</v>
+        <v>0.239117</v>
       </c>
       <c r="D30" t="n">
-        <v>0.230594</v>
+        <v>0.230731</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.245802</v>
+        <v>0.245957</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243481</v>
+        <v>0.243525</v>
       </c>
       <c r="D31" t="n">
-        <v>0.231649</v>
+        <v>0.231792</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251475</v>
+        <v>0.251514</v>
       </c>
       <c r="C32" t="n">
-        <v>0.250201</v>
+        <v>0.250223</v>
       </c>
       <c r="D32" t="n">
-        <v>0.234085</v>
+        <v>0.234189</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.258732</v>
+        <v>0.258909</v>
       </c>
       <c r="C33" t="n">
-        <v>0.260487</v>
+        <v>0.260546</v>
       </c>
       <c r="D33" t="n">
-        <v>0.237186</v>
+        <v>0.237289</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268677</v>
+        <v>0.268796</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272349</v>
+        <v>0.272397</v>
       </c>
       <c r="D34" t="n">
-        <v>0.241086</v>
+        <v>0.24115</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.284552</v>
+        <v>0.284495</v>
       </c>
       <c r="C35" t="n">
-        <v>0.289813</v>
+        <v>0.289781</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246553</v>
+        <v>0.246673</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.308751</v>
+        <v>0.30822</v>
       </c>
       <c r="C36" t="n">
-        <v>0.317911</v>
+        <v>0.317924</v>
       </c>
       <c r="D36" t="n">
-        <v>0.257407</v>
+        <v>0.257484</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.349898</v>
+        <v>0.349599</v>
       </c>
       <c r="C37" t="n">
-        <v>0.362575</v>
+        <v>0.362511</v>
       </c>
       <c r="D37" t="n">
-        <v>0.22892</v>
+        <v>0.228939</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.235232</v>
+        <v>0.235295</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229001</v>
+        <v>0.228886</v>
       </c>
       <c r="D38" t="n">
-        <v>0.228715</v>
+        <v>0.228741</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236735</v>
+        <v>0.236726</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230756</v>
+        <v>0.230644</v>
       </c>
       <c r="D39" t="n">
-        <v>0.229694</v>
+        <v>0.229759</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237268</v>
+        <v>0.237289</v>
       </c>
       <c r="C40" t="n">
-        <v>0.23152</v>
+        <v>0.231439</v>
       </c>
       <c r="D40" t="n">
-        <v>0.229725</v>
+        <v>0.229731</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.238686</v>
+        <v>0.23869</v>
       </c>
       <c r="C41" t="n">
-        <v>0.232877</v>
+        <v>0.232772</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230259</v>
+        <v>0.230242</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.240499</v>
+        <v>0.240508</v>
       </c>
       <c r="C42" t="n">
-        <v>0.234692</v>
+        <v>0.234598</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231131</v>
+        <v>0.231078</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.24253</v>
+        <v>0.242519</v>
       </c>
       <c r="C43" t="n">
-        <v>0.237007</v>
+        <v>0.236899</v>
       </c>
       <c r="D43" t="n">
-        <v>0.231756</v>
+        <v>0.231736</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.245263</v>
+        <v>0.245243</v>
       </c>
       <c r="C44" t="n">
-        <v>0.240569</v>
+        <v>0.240518</v>
       </c>
       <c r="D44" t="n">
-        <v>0.233037</v>
+        <v>0.233019</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.248716</v>
+        <v>0.248622</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245058</v>
+        <v>0.24489</v>
       </c>
       <c r="D45" t="n">
-        <v>0.234395</v>
+        <v>0.234405</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253698</v>
+        <v>0.253673</v>
       </c>
       <c r="C46" t="n">
-        <v>0.251284</v>
+        <v>0.251152</v>
       </c>
       <c r="D46" t="n">
-        <v>0.236504</v>
+        <v>0.236506</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260228</v>
+        <v>0.260217</v>
       </c>
       <c r="C47" t="n">
-        <v>0.25964</v>
+        <v>0.259547</v>
       </c>
       <c r="D47" t="n">
-        <v>0.23889</v>
+        <v>0.238946</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.270333</v>
+        <v>0.270407</v>
       </c>
       <c r="C48" t="n">
-        <v>0.271654</v>
+        <v>0.271509</v>
       </c>
       <c r="D48" t="n">
-        <v>0.242767</v>
+        <v>0.242794</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.284962</v>
+        <v>0.285271</v>
       </c>
       <c r="C49" t="n">
-        <v>0.288351</v>
+        <v>0.288237</v>
       </c>
       <c r="D49" t="n">
-        <v>0.248368</v>
+        <v>0.248445</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.308056</v>
+        <v>0.307759</v>
       </c>
       <c r="C50" t="n">
-        <v>0.316283</v>
+        <v>0.316165</v>
       </c>
       <c r="D50" t="n">
-        <v>0.258875</v>
+        <v>0.258908</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.344354</v>
+        <v>0.344417</v>
       </c>
       <c r="C51" t="n">
-        <v>0.353692</v>
+        <v>0.353526</v>
       </c>
       <c r="D51" t="n">
-        <v>0.231035</v>
+        <v>0.23102</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.401323</v>
+        <v>0.399883</v>
       </c>
       <c r="C52" t="n">
-        <v>0.418401</v>
+        <v>0.418398</v>
       </c>
       <c r="D52" t="n">
-        <v>0.231367</v>
+        <v>0.231368</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241359</v>
+        <v>0.241343</v>
       </c>
       <c r="C53" t="n">
-        <v>0.233322</v>
+        <v>0.233472</v>
       </c>
       <c r="D53" t="n">
-        <v>0.231727</v>
+        <v>0.231742</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242003</v>
+        <v>0.24222</v>
       </c>
       <c r="C54" t="n">
-        <v>0.234536</v>
+        <v>0.234593</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232271</v>
+        <v>0.232221</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.243222</v>
+        <v>0.243217</v>
       </c>
       <c r="C55" t="n">
-        <v>0.236045</v>
+        <v>0.236047</v>
       </c>
       <c r="D55" t="n">
-        <v>0.232848</v>
+        <v>0.232788</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.244571</v>
+        <v>0.244566</v>
       </c>
       <c r="C56" t="n">
-        <v>0.237808</v>
+        <v>0.237816</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233595</v>
+        <v>0.233557</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.246391</v>
+        <v>0.24637</v>
       </c>
       <c r="C57" t="n">
-        <v>0.240306</v>
+        <v>0.240295</v>
       </c>
       <c r="D57" t="n">
-        <v>0.234431</v>
+        <v>0.234402</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.248824</v>
+        <v>0.248753</v>
       </c>
       <c r="C58" t="n">
-        <v>0.243824</v>
+        <v>0.243809</v>
       </c>
       <c r="D58" t="n">
-        <v>0.235513</v>
+        <v>0.235462</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.251493</v>
+        <v>0.251503</v>
       </c>
       <c r="C59" t="n">
-        <v>0.248354</v>
+        <v>0.2483</v>
       </c>
       <c r="D59" t="n">
-        <v>0.236729</v>
+        <v>0.236678</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.256807</v>
+        <v>0.256709</v>
       </c>
       <c r="C60" t="n">
-        <v>0.25391</v>
+        <v>0.253929</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238693</v>
+        <v>0.238649</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263343</v>
+        <v>0.263309</v>
       </c>
       <c r="C61" t="n">
-        <v>0.261545</v>
+        <v>0.261604</v>
       </c>
       <c r="D61" t="n">
-        <v>0.240867</v>
+        <v>0.240851</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272164</v>
+        <v>0.272077</v>
       </c>
       <c r="C62" t="n">
-        <v>0.272365</v>
+        <v>0.272407</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244442</v>
+        <v>0.24447</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.285478</v>
+        <v>0.285306</v>
       </c>
       <c r="C63" t="n">
-        <v>0.288316</v>
+        <v>0.28837</v>
       </c>
       <c r="D63" t="n">
-        <v>0.250421</v>
+        <v>0.250357</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.305991</v>
+        <v>0.305666</v>
       </c>
       <c r="C64" t="n">
-        <v>0.312039</v>
+        <v>0.312061</v>
       </c>
       <c r="D64" t="n">
-        <v>0.259748</v>
+        <v>0.259726</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.338014</v>
+        <v>0.338094</v>
       </c>
       <c r="C65" t="n">
-        <v>0.34877</v>
+        <v>0.348779</v>
       </c>
       <c r="D65" t="n">
-        <v>0.276188</v>
+        <v>0.27613</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.386837</v>
+        <v>0.388065</v>
       </c>
       <c r="C66" t="n">
-        <v>0.405116</v>
+        <v>0.405134</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243047</v>
+        <v>0.242199</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2564</v>
+        <v>0.257684</v>
       </c>
       <c r="C67" t="n">
-        <v>0.24741</v>
+        <v>0.247518</v>
       </c>
       <c r="D67" t="n">
-        <v>0.243719</v>
+        <v>0.243189</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.258289</v>
+        <v>0.257861</v>
       </c>
       <c r="C68" t="n">
-        <v>0.247977</v>
+        <v>0.248117</v>
       </c>
       <c r="D68" t="n">
-        <v>0.243415</v>
+        <v>0.243653</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.259187</v>
+        <v>0.2591</v>
       </c>
       <c r="C69" t="n">
-        <v>0.249811</v>
+        <v>0.249934</v>
       </c>
       <c r="D69" t="n">
-        <v>0.244327</v>
+        <v>0.24447</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.260574</v>
+        <v>0.260528</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251737</v>
+        <v>0.251891</v>
       </c>
       <c r="D70" t="n">
-        <v>0.245039</v>
+        <v>0.245198</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.262318</v>
+        <v>0.262295</v>
       </c>
       <c r="C71" t="n">
-        <v>0.254398</v>
+        <v>0.254475</v>
       </c>
       <c r="D71" t="n">
-        <v>0.245972</v>
+        <v>0.246125</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.264819</v>
+        <v>0.264794</v>
       </c>
       <c r="C72" t="n">
-        <v>0.257557</v>
+        <v>0.257677</v>
       </c>
       <c r="D72" t="n">
-        <v>0.247216</v>
+        <v>0.247345</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.267736</v>
+        <v>0.267784</v>
       </c>
       <c r="C73" t="n">
-        <v>0.261821</v>
+        <v>0.261882</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24872</v>
+        <v>0.248905</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.271725</v>
+        <v>0.271798</v>
       </c>
       <c r="C74" t="n">
-        <v>0.267685</v>
+        <v>0.267773</v>
       </c>
       <c r="D74" t="n">
-        <v>0.250701</v>
+        <v>0.250876</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.277433</v>
+        <v>0.277494</v>
       </c>
       <c r="C75" t="n">
-        <v>0.275987</v>
+        <v>0.276057</v>
       </c>
       <c r="D75" t="n">
-        <v>0.253424</v>
+        <v>0.253603</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.285914</v>
+        <v>0.285917</v>
       </c>
       <c r="C76" t="n">
-        <v>0.286837</v>
+        <v>0.28688</v>
       </c>
       <c r="D76" t="n">
-        <v>0.257178</v>
+        <v>0.257322</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.298468</v>
+        <v>0.298498</v>
       </c>
       <c r="C77" t="n">
-        <v>0.302012</v>
+        <v>0.30203</v>
       </c>
       <c r="D77" t="n">
-        <v>0.262666</v>
+        <v>0.262769</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.317383</v>
+        <v>0.317632</v>
       </c>
       <c r="C78" t="n">
-        <v>0.324015</v>
+        <v>0.324038</v>
       </c>
       <c r="D78" t="n">
-        <v>0.271469</v>
+        <v>0.27156</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.345507</v>
+        <v>0.345534</v>
       </c>
       <c r="C79" t="n">
-        <v>0.358163</v>
+        <v>0.358149</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286197</v>
+        <v>0.286305</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.389205</v>
+        <v>0.390825</v>
       </c>
       <c r="C80" t="n">
-        <v>0.40957</v>
+        <v>0.409548</v>
       </c>
       <c r="D80" t="n">
-        <v>0.265005</v>
+        <v>0.264541</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.275882</v>
+        <v>0.275835</v>
       </c>
       <c r="C81" t="n">
-        <v>0.266271</v>
+        <v>0.265874</v>
       </c>
       <c r="D81" t="n">
-        <v>0.265343</v>
+        <v>0.264929</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.27671</v>
+        <v>0.276599</v>
       </c>
       <c r="C82" t="n">
-        <v>0.26735</v>
+        <v>0.266928</v>
       </c>
       <c r="D82" t="n">
-        <v>0.265762</v>
+        <v>0.265375</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.277712</v>
+        <v>0.27766</v>
       </c>
       <c r="C83" t="n">
-        <v>0.268613</v>
+        <v>0.268214</v>
       </c>
       <c r="D83" t="n">
-        <v>0.266347</v>
+        <v>0.266061</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.27906</v>
+        <v>0.278977</v>
       </c>
       <c r="C84" t="n">
-        <v>0.270323</v>
+        <v>0.269988</v>
       </c>
       <c r="D84" t="n">
-        <v>0.266965</v>
+        <v>0.266669</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.280635</v>
+        <v>0.280569</v>
       </c>
       <c r="C85" t="n">
-        <v>0.272338</v>
+        <v>0.271938</v>
       </c>
       <c r="D85" t="n">
-        <v>0.267712</v>
+        <v>0.267265</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.282601</v>
+        <v>0.28252</v>
       </c>
       <c r="C86" t="n">
-        <v>0.274983</v>
+        <v>0.274573</v>
       </c>
       <c r="D86" t="n">
-        <v>0.268591</v>
+        <v>0.268213</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.285303</v>
+        <v>0.285145</v>
       </c>
       <c r="C87" t="n">
-        <v>0.278684</v>
+        <v>0.278238</v>
       </c>
       <c r="D87" t="n">
-        <v>0.269815</v>
+        <v>0.269366</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.289011</v>
+        <v>0.288794</v>
       </c>
       <c r="C88" t="n">
-        <v>0.283714</v>
+        <v>0.283289</v>
       </c>
       <c r="D88" t="n">
-        <v>0.271406</v>
+        <v>0.270936</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.29431</v>
+        <v>0.294154</v>
       </c>
       <c r="C89" t="n">
-        <v>0.291047</v>
+        <v>0.290692</v>
       </c>
       <c r="D89" t="n">
-        <v>0.273809</v>
+        <v>0.273344</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.302195</v>
+        <v>0.301981</v>
       </c>
       <c r="C90" t="n">
-        <v>0.300766</v>
+        <v>0.300625</v>
       </c>
       <c r="D90" t="n">
-        <v>0.277037</v>
+        <v>0.276817</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.313119</v>
+        <v>0.313313</v>
       </c>
       <c r="C91" t="n">
-        <v>0.314355</v>
+        <v>0.314288</v>
       </c>
       <c r="D91" t="n">
-        <v>0.281893</v>
+        <v>0.281695</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.329893</v>
+        <v>0.33049</v>
       </c>
       <c r="C92" t="n">
-        <v>0.33384</v>
+        <v>0.333929</v>
       </c>
       <c r="D92" t="n">
-        <v>0.289403</v>
+        <v>0.289254</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.355618</v>
+        <v>0.356054</v>
       </c>
       <c r="C93" t="n">
-        <v>0.364266</v>
+        <v>0.36431</v>
       </c>
       <c r="D93" t="n">
-        <v>0.30196</v>
+        <v>0.301906</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.395863</v>
+        <v>0.396756</v>
       </c>
       <c r="C94" t="n">
-        <v>0.412555</v>
+        <v>0.412586</v>
       </c>
       <c r="D94" t="n">
-        <v>0.272592</v>
+        <v>0.273225</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.280506</v>
+        <v>0.284505</v>
       </c>
       <c r="C95" t="n">
-        <v>0.273235</v>
+        <v>0.274941</v>
       </c>
       <c r="D95" t="n">
-        <v>0.272865</v>
+        <v>0.273916</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.281424</v>
+        <v>0.285441</v>
       </c>
       <c r="C96" t="n">
-        <v>0.274359</v>
+        <v>0.276145</v>
       </c>
       <c r="D96" t="n">
-        <v>0.273266</v>
+        <v>0.274407</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.282523</v>
+        <v>0.28656</v>
       </c>
       <c r="C97" t="n">
-        <v>0.275777</v>
+        <v>0.277588</v>
       </c>
       <c r="D97" t="n">
-        <v>0.273673</v>
+        <v>0.274763</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.283727</v>
+        <v>0.287784</v>
       </c>
       <c r="C98" t="n">
-        <v>0.277447</v>
+        <v>0.27945</v>
       </c>
       <c r="D98" t="n">
-        <v>0.274305</v>
+        <v>0.275432</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.285388</v>
+        <v>0.289573</v>
       </c>
       <c r="C99" t="n">
-        <v>0.279797</v>
+        <v>0.282022</v>
       </c>
       <c r="D99" t="n">
-        <v>0.274999</v>
+        <v>0.276236</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.287554</v>
+        <v>0.291649</v>
       </c>
       <c r="C100" t="n">
-        <v>0.283112</v>
+        <v>0.28521</v>
       </c>
       <c r="D100" t="n">
-        <v>0.275908</v>
+        <v>0.277093</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.290396</v>
+        <v>0.294553</v>
       </c>
       <c r="C101" t="n">
-        <v>0.287337</v>
+        <v>0.289402</v>
       </c>
       <c r="D101" t="n">
-        <v>0.276947</v>
+        <v>0.278322</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.294365</v>
+        <v>0.298641</v>
       </c>
       <c r="C102" t="n">
-        <v>0.293238</v>
+        <v>0.295294</v>
       </c>
       <c r="D102" t="n">
-        <v>0.278514</v>
+        <v>0.279968</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.299773</v>
+        <v>0.304337</v>
       </c>
       <c r="C103" t="n">
-        <v>0.301426</v>
+        <v>0.303462</v>
       </c>
       <c r="D103" t="n">
-        <v>0.280785</v>
+        <v>0.282359</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.30786</v>
+        <v>0.312364</v>
       </c>
       <c r="C104" t="n">
-        <v>0.312467</v>
+        <v>0.314453</v>
       </c>
       <c r="D104" t="n">
-        <v>0.28396</v>
+        <v>0.285622</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.319544</v>
+        <v>0.3242</v>
       </c>
       <c r="C105" t="n">
-        <v>0.327469</v>
+        <v>0.329282</v>
       </c>
       <c r="D105" t="n">
-        <v>0.288861</v>
+        <v>0.290435</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.337077</v>
+        <v>0.342015</v>
       </c>
       <c r="C106" t="n">
-        <v>0.348069</v>
+        <v>0.350036</v>
       </c>
       <c r="D106" t="n">
-        <v>0.296239</v>
+        <v>0.297999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.363638</v>
+        <v>0.368621</v>
       </c>
       <c r="C107" t="n">
-        <v>0.378742</v>
+        <v>0.380719</v>
       </c>
       <c r="D107" t="n">
-        <v>0.308968</v>
+        <v>0.310758</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.404691</v>
+        <v>0.409414</v>
       </c>
       <c r="C108" t="n">
-        <v>0.425531</v>
+        <v>0.427497</v>
       </c>
       <c r="D108" t="n">
-        <v>0.27972</v>
+        <v>0.279814</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.474629</v>
+        <v>0.475686</v>
       </c>
       <c r="C109" t="n">
-        <v>0.499523</v>
+        <v>0.500513</v>
       </c>
       <c r="D109" t="n">
-        <v>0.280284</v>
+        <v>0.281011</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.301468</v>
+        <v>0.305187</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297465</v>
+        <v>0.298136</v>
       </c>
       <c r="D110" t="n">
-        <v>0.281533</v>
+        <v>0.281419</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.305199</v>
+        <v>0.311426</v>
       </c>
       <c r="C111" t="n">
-        <v>0.304</v>
+        <v>0.303772</v>
       </c>
       <c r="D111" t="n">
-        <v>0.282799</v>
+        <v>0.282716</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.314086</v>
+        <v>0.31561</v>
       </c>
       <c r="C112" t="n">
-        <v>0.309831</v>
+        <v>0.309822</v>
       </c>
       <c r="D112" t="n">
-        <v>0.28398</v>
+        <v>0.284054</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.320756</v>
+        <v>0.317333</v>
       </c>
       <c r="C113" t="n">
-        <v>0.316355</v>
+        <v>0.316887</v>
       </c>
       <c r="D113" t="n">
-        <v>0.286386</v>
+        <v>0.286741</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.326917</v>
+        <v>0.32795</v>
       </c>
       <c r="C114" t="n">
-        <v>0.323564</v>
+        <v>0.324014</v>
       </c>
       <c r="D114" t="n">
-        <v>0.288187</v>
+        <v>0.288944</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.334554</v>
+        <v>0.335645</v>
       </c>
       <c r="C115" t="n">
-        <v>0.331383</v>
+        <v>0.332018</v>
       </c>
       <c r="D115" t="n">
-        <v>0.291557</v>
+        <v>0.292165</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.342973</v>
+        <v>0.343749</v>
       </c>
       <c r="C116" t="n">
-        <v>0.340036</v>
+        <v>0.341305</v>
       </c>
       <c r="D116" t="n">
-        <v>0.295967</v>
+        <v>0.296112</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.352279</v>
+        <v>0.353292</v>
       </c>
       <c r="C117" t="n">
-        <v>0.352466</v>
+        <v>0.352212</v>
       </c>
       <c r="D117" t="n">
-        <v>0.301092</v>
+        <v>0.30149</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.364518</v>
+        <v>0.359865</v>
       </c>
       <c r="C118" t="n">
-        <v>0.365459</v>
+        <v>0.365081</v>
       </c>
       <c r="D118" t="n">
-        <v>0.307878</v>
+        <v>0.308073</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.379745</v>
+        <v>0.379529</v>
       </c>
       <c r="C119" t="n">
-        <v>0.382241</v>
+        <v>0.379325</v>
       </c>
       <c r="D119" t="n">
-        <v>0.316719</v>
+        <v>0.31667</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.400227</v>
+        <v>0.394612</v>
       </c>
       <c r="C120" t="n">
-        <v>0.404477</v>
+        <v>0.401269</v>
       </c>
       <c r="D120" t="n">
-        <v>0.327943</v>
+        <v>0.328052</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.428101</v>
+        <v>0.427753</v>
       </c>
       <c r="C121" t="n">
-        <v>0.435818</v>
+        <v>0.432136</v>
       </c>
       <c r="D121" t="n">
-        <v>0.343888</v>
+        <v>0.343713</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.47012</v>
+        <v>0.469664</v>
       </c>
       <c r="C122" t="n">
-        <v>0.483657</v>
+        <v>0.483083</v>
       </c>
       <c r="D122" t="n">
-        <v>0.367917</v>
+        <v>0.36791</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.534209</v>
+        <v>0.533485</v>
       </c>
       <c r="C123" t="n">
-        <v>0.559595</v>
+        <v>0.558812</v>
       </c>
       <c r="D123" t="n">
-        <v>0.308909</v>
+        <v>0.309134</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.354744</v>
+        <v>0.354661</v>
       </c>
       <c r="C124" t="n">
-        <v>0.345481</v>
+        <v>0.346463</v>
       </c>
       <c r="D124" t="n">
-        <v>0.312269</v>
+        <v>0.31257</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.361632</v>
+        <v>0.35912</v>
       </c>
       <c r="C125" t="n">
-        <v>0.350875</v>
+        <v>0.352181</v>
       </c>
       <c r="D125" t="n">
-        <v>0.315831</v>
+        <v>0.317813</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.363266</v>
+        <v>0.363444</v>
       </c>
       <c r="C126" t="n">
-        <v>0.355489</v>
+        <v>0.355758</v>
       </c>
       <c r="D126" t="n">
-        <v>0.319029</v>
+        <v>0.319866</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.375571</v>
+        <v>0.368209</v>
       </c>
       <c r="C127" t="n">
-        <v>0.360272</v>
+        <v>0.362233</v>
       </c>
       <c r="D127" t="n">
-        <v>0.322593</v>
+        <v>0.324589</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.373577</v>
+        <v>0.373991</v>
       </c>
       <c r="C128" t="n">
-        <v>0.368226</v>
+        <v>0.366121</v>
       </c>
       <c r="D128" t="n">
-        <v>0.327162</v>
+        <v>0.326236</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.378794</v>
+        <v>0.379524</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374232</v>
+        <v>0.374009</v>
       </c>
       <c r="D129" t="n">
-        <v>0.330847</v>
+        <v>0.330403</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.385967</v>
+        <v>0.372716</v>
       </c>
       <c r="C130" t="n">
-        <v>0.382423</v>
+        <v>0.382477</v>
       </c>
       <c r="D130" t="n">
-        <v>0.334282</v>
+        <v>0.334594</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.394574</v>
+        <v>0.395303</v>
       </c>
       <c r="C131" t="n">
-        <v>0.392246</v>
+        <v>0.395942</v>
       </c>
       <c r="D131" t="n">
-        <v>0.338352</v>
+        <v>0.342018</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.390041</v>
+        <v>0.390246</v>
       </c>
       <c r="C132" t="n">
-        <v>0.405296</v>
+        <v>0.406912</v>
       </c>
       <c r="D132" t="n">
-        <v>0.343623</v>
+        <v>0.34589</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.418901</v>
+        <v>0.425208</v>
       </c>
       <c r="C133" t="n">
-        <v>0.426741</v>
+        <v>0.423164</v>
       </c>
       <c r="D133" t="n">
-        <v>0.352971</v>
+        <v>0.350358</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.440339</v>
+        <v>0.438825</v>
       </c>
       <c r="C134" t="n">
-        <v>0.448789</v>
+        <v>0.447041</v>
       </c>
       <c r="D134" t="n">
-        <v>0.361075</v>
+        <v>0.360861</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.467499</v>
+        <v>0.467249</v>
       </c>
       <c r="C135" t="n">
-        <v>0.480923</v>
+        <v>0.48191</v>
       </c>
       <c r="D135" t="n">
-        <v>0.374911</v>
+        <v>0.374849</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.508785</v>
+        <v>0.496469</v>
       </c>
       <c r="C136" t="n">
-        <v>0.529989</v>
+        <v>0.532738</v>
       </c>
       <c r="D136" t="n">
-        <v>0.396555</v>
+        <v>0.400258</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.571092</v>
+        <v>0.57104</v>
       </c>
       <c r="C137" t="n">
-        <v>0.603079</v>
+        <v>0.602284</v>
       </c>
       <c r="D137" t="n">
-        <v>0.456717</v>
+        <v>0.449733</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.49057</v>
+        <v>0.508485</v>
       </c>
       <c r="C138" t="n">
-        <v>0.495791</v>
+        <v>0.495147</v>
       </c>
       <c r="D138" t="n">
-        <v>0.454803</v>
+        <v>0.454174</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.512829</v>
+        <v>0.519863</v>
       </c>
       <c r="C139" t="n">
-        <v>0.506024</v>
+        <v>0.500251</v>
       </c>
       <c r="D139" t="n">
-        <v>0.463095</v>
+        <v>0.455674</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.515293</v>
+        <v>0.532404</v>
       </c>
       <c r="C140" t="n">
-        <v>0.508195</v>
+        <v>0.505264</v>
       </c>
       <c r="D140" t="n">
-        <v>0.461403</v>
+        <v>0.457503</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.538784</v>
+        <v>0.508016</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5151</v>
+        <v>0.512938</v>
       </c>
       <c r="D141" t="n">
-        <v>0.464795</v>
+        <v>0.461846</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.526492</v>
+        <v>0.5422439999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>0.527008</v>
+        <v>0.52134</v>
       </c>
       <c r="D142" t="n">
-        <v>0.47412</v>
+        <v>0.467467</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.551339</v>
+        <v>0.548521</v>
       </c>
       <c r="C143" t="n">
-        <v>0.53185</v>
+        <v>0.529126</v>
       </c>
       <c r="D143" t="n">
-        <v>0.47263</v>
+        <v>0.469655</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.233602</v>
+        <v>0.233557</v>
       </c>
       <c r="C2" t="n">
-        <v>0.236945</v>
+        <v>0.237263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22378</v>
+        <v>0.223705</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.237455</v>
+        <v>0.237513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239631</v>
+        <v>0.239751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.224517</v>
+        <v>0.224607</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.245797</v>
+        <v>0.245825</v>
       </c>
       <c r="C4" t="n">
-        <v>0.251469</v>
+        <v>0.251254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229693</v>
+        <v>0.229696</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.258122</v>
+        <v>0.258007</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265834</v>
+        <v>0.265726</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234388</v>
+        <v>0.234147</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.274202</v>
+        <v>0.273891</v>
       </c>
       <c r="C6" t="n">
-        <v>0.283907</v>
+        <v>0.284035</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240437</v>
+        <v>0.24043</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.295441</v>
+        <v>0.294916</v>
       </c>
       <c r="C7" t="n">
-        <v>0.313519</v>
+        <v>0.313654</v>
       </c>
       <c r="D7" t="n">
-        <v>0.252787</v>
+        <v>0.252773</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.329956</v>
+        <v>0.329406</v>
       </c>
       <c r="C8" t="n">
-        <v>0.348077</v>
+        <v>0.348196</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269492</v>
+        <v>0.269379</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.383807</v>
+        <v>0.384214</v>
       </c>
       <c r="C9" t="n">
-        <v>0.403387</v>
+        <v>0.402773</v>
       </c>
       <c r="D9" t="n">
-        <v>0.223169</v>
+        <v>0.223207</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229259</v>
+        <v>0.229407</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225073</v>
+        <v>0.225492</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223287</v>
+        <v>0.223405</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.229849</v>
+        <v>0.229869</v>
       </c>
       <c r="C11" t="n">
-        <v>0.225501</v>
+        <v>0.225576</v>
       </c>
       <c r="D11" t="n">
-        <v>0.223185</v>
+        <v>0.22325</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232302</v>
+        <v>0.232359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.228129</v>
+        <v>0.22818</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225232</v>
+        <v>0.225237</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.232267</v>
+        <v>0.232283</v>
       </c>
       <c r="C13" t="n">
-        <v>0.228834</v>
+        <v>0.22877</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224698</v>
+        <v>0.224638</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.235139</v>
+        <v>0.235121</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233248</v>
+        <v>0.233269</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226527</v>
+        <v>0.226474</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.23731</v>
+        <v>0.237336</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236266</v>
+        <v>0.236313</v>
       </c>
       <c r="D15" t="n">
-        <v>0.227837</v>
+        <v>0.227881</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.240545</v>
+        <v>0.240553</v>
       </c>
       <c r="C16" t="n">
-        <v>0.240873</v>
+        <v>0.24088</v>
       </c>
       <c r="D16" t="n">
-        <v>0.229091</v>
+        <v>0.229061</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.243793</v>
+        <v>0.243758</v>
       </c>
       <c r="C17" t="n">
-        <v>0.246362</v>
+        <v>0.246367</v>
       </c>
       <c r="D17" t="n">
-        <v>0.230461</v>
+        <v>0.230416</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.248994</v>
+        <v>0.248989</v>
       </c>
       <c r="C18" t="n">
-        <v>0.252369</v>
+        <v>0.252418</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232008</v>
+        <v>0.231981</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2585</v>
+        <v>0.258472</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263046</v>
+        <v>0.263191</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23622</v>
+        <v>0.236218</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269855</v>
+        <v>0.269802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.278287</v>
+        <v>0.27843</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240358</v>
+        <v>0.240322</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.290075</v>
+        <v>0.290121</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298036</v>
+        <v>0.298141</v>
       </c>
       <c r="D21" t="n">
-        <v>0.247998</v>
+        <v>0.248044</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.324033</v>
+        <v>0.324645</v>
       </c>
       <c r="C22" t="n">
-        <v>0.32548</v>
+        <v>0.325759</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261119</v>
+        <v>0.261157</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.36698</v>
+        <v>0.367314</v>
       </c>
       <c r="C23" t="n">
-        <v>0.379997</v>
+        <v>0.379731</v>
       </c>
       <c r="D23" t="n">
-        <v>0.226387</v>
+        <v>0.226431</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.234054</v>
+        <v>0.233981</v>
       </c>
       <c r="C24" t="n">
-        <v>0.227355</v>
+        <v>0.227337</v>
       </c>
       <c r="D24" t="n">
-        <v>0.227398</v>
+        <v>0.227388</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234058</v>
+        <v>0.23403</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227732</v>
+        <v>0.227743</v>
       </c>
       <c r="D25" t="n">
-        <v>0.227034</v>
+        <v>0.227039</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.235055</v>
+        <v>0.234948</v>
       </c>
       <c r="C26" t="n">
-        <v>0.228886</v>
+        <v>0.228928</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227315</v>
+        <v>0.227354</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.236536</v>
+        <v>0.236498</v>
       </c>
       <c r="C27" t="n">
-        <v>0.230511</v>
+        <v>0.230639</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227776</v>
+        <v>0.227793</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.238601</v>
+        <v>0.238631</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233044</v>
+        <v>0.233238</v>
       </c>
       <c r="D28" t="n">
-        <v>0.229112</v>
+        <v>0.229093</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.239937</v>
+        <v>0.239973</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235856</v>
+        <v>0.235743</v>
       </c>
       <c r="D29" t="n">
-        <v>0.229492</v>
+        <v>0.229395</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.242536</v>
+        <v>0.242535</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239117</v>
+        <v>0.239076</v>
       </c>
       <c r="D30" t="n">
-        <v>0.230731</v>
+        <v>0.230639</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.245957</v>
+        <v>0.245876</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243525</v>
+        <v>0.243374</v>
       </c>
       <c r="D31" t="n">
-        <v>0.231792</v>
+        <v>0.231742</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251514</v>
+        <v>0.251478</v>
       </c>
       <c r="C32" t="n">
-        <v>0.250223</v>
+        <v>0.250138</v>
       </c>
       <c r="D32" t="n">
-        <v>0.234189</v>
+        <v>0.234159</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.258909</v>
+        <v>0.258937</v>
       </c>
       <c r="C33" t="n">
-        <v>0.260546</v>
+        <v>0.260399</v>
       </c>
       <c r="D33" t="n">
-        <v>0.237289</v>
+        <v>0.237278</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268796</v>
+        <v>0.268894</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272397</v>
+        <v>0.272298</v>
       </c>
       <c r="D34" t="n">
-        <v>0.24115</v>
+        <v>0.241138</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.284495</v>
+        <v>0.284358</v>
       </c>
       <c r="C35" t="n">
-        <v>0.289781</v>
+        <v>0.28971</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246673</v>
+        <v>0.246672</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.30822</v>
+        <v>0.308779</v>
       </c>
       <c r="C36" t="n">
-        <v>0.317924</v>
+        <v>0.317863</v>
       </c>
       <c r="D36" t="n">
-        <v>0.257484</v>
+        <v>0.257512</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.349599</v>
+        <v>0.349969</v>
       </c>
       <c r="C37" t="n">
-        <v>0.362511</v>
+        <v>0.362448</v>
       </c>
       <c r="D37" t="n">
-        <v>0.228939</v>
+        <v>0.228868</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.235295</v>
+        <v>0.235332</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228886</v>
+        <v>0.228893</v>
       </c>
       <c r="D38" t="n">
-        <v>0.228741</v>
+        <v>0.228641</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236726</v>
+        <v>0.23675</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230644</v>
+        <v>0.230658</v>
       </c>
       <c r="D39" t="n">
-        <v>0.229759</v>
+        <v>0.229692</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237289</v>
+        <v>0.237376</v>
       </c>
       <c r="C40" t="n">
-        <v>0.231439</v>
+        <v>0.231401</v>
       </c>
       <c r="D40" t="n">
-        <v>0.229731</v>
+        <v>0.229703</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.23869</v>
+        <v>0.238708</v>
       </c>
       <c r="C41" t="n">
-        <v>0.232772</v>
+        <v>0.232753</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230242</v>
+        <v>0.230295</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.240508</v>
+        <v>0.240535</v>
       </c>
       <c r="C42" t="n">
-        <v>0.234598</v>
+        <v>0.234552</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231078</v>
+        <v>0.231114</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.242519</v>
+        <v>0.242553</v>
       </c>
       <c r="C43" t="n">
-        <v>0.236899</v>
+        <v>0.236845</v>
       </c>
       <c r="D43" t="n">
-        <v>0.231736</v>
+        <v>0.231787</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.245243</v>
+        <v>0.245374</v>
       </c>
       <c r="C44" t="n">
-        <v>0.240518</v>
+        <v>0.240472</v>
       </c>
       <c r="D44" t="n">
-        <v>0.233019</v>
+        <v>0.233102</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.248622</v>
+        <v>0.248815</v>
       </c>
       <c r="C45" t="n">
-        <v>0.24489</v>
+        <v>0.244853</v>
       </c>
       <c r="D45" t="n">
-        <v>0.234405</v>
+        <v>0.234414</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253673</v>
+        <v>0.253844</v>
       </c>
       <c r="C46" t="n">
-        <v>0.251152</v>
+        <v>0.251131</v>
       </c>
       <c r="D46" t="n">
-        <v>0.236506</v>
+        <v>0.236525</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260217</v>
+        <v>0.260399</v>
       </c>
       <c r="C47" t="n">
-        <v>0.259547</v>
+        <v>0.259553</v>
       </c>
       <c r="D47" t="n">
-        <v>0.238946</v>
+        <v>0.238952</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.270407</v>
+        <v>0.270512</v>
       </c>
       <c r="C48" t="n">
-        <v>0.271509</v>
+        <v>0.271512</v>
       </c>
       <c r="D48" t="n">
-        <v>0.242794</v>
+        <v>0.242845</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.285271</v>
+        <v>0.285327</v>
       </c>
       <c r="C49" t="n">
-        <v>0.288237</v>
+        <v>0.288385</v>
       </c>
       <c r="D49" t="n">
-        <v>0.248445</v>
+        <v>0.248406</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.307759</v>
+        <v>0.308793</v>
       </c>
       <c r="C50" t="n">
-        <v>0.316165</v>
+        <v>0.316615</v>
       </c>
       <c r="D50" t="n">
-        <v>0.258908</v>
+        <v>0.258887</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.344417</v>
+        <v>0.34465</v>
       </c>
       <c r="C51" t="n">
-        <v>0.353526</v>
+        <v>0.353533</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23102</v>
+        <v>0.230942</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.399883</v>
+        <v>0.398614</v>
       </c>
       <c r="C52" t="n">
-        <v>0.418398</v>
+        <v>0.41627</v>
       </c>
       <c r="D52" t="n">
-        <v>0.231368</v>
+        <v>0.231318</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241343</v>
+        <v>0.240098</v>
       </c>
       <c r="C53" t="n">
-        <v>0.233472</v>
+        <v>0.23318</v>
       </c>
       <c r="D53" t="n">
-        <v>0.231742</v>
+        <v>0.231666</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.24222</v>
+        <v>0.24082</v>
       </c>
       <c r="C54" t="n">
-        <v>0.234593</v>
+        <v>0.234418</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232221</v>
+        <v>0.232178</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.243217</v>
+        <v>0.241989</v>
       </c>
       <c r="C55" t="n">
-        <v>0.236047</v>
+        <v>0.235935</v>
       </c>
       <c r="D55" t="n">
-        <v>0.232788</v>
+        <v>0.232781</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.244566</v>
+        <v>0.243373</v>
       </c>
       <c r="C56" t="n">
-        <v>0.237816</v>
+        <v>0.237732</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233557</v>
+        <v>0.233522</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.24637</v>
+        <v>0.245202</v>
       </c>
       <c r="C57" t="n">
-        <v>0.240295</v>
+        <v>0.240175</v>
       </c>
       <c r="D57" t="n">
-        <v>0.234402</v>
+        <v>0.234364</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.248753</v>
+        <v>0.247587</v>
       </c>
       <c r="C58" t="n">
-        <v>0.243809</v>
+        <v>0.243699</v>
       </c>
       <c r="D58" t="n">
-        <v>0.235462</v>
+        <v>0.235428</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.251503</v>
+        <v>0.251281</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2483</v>
+        <v>0.248119</v>
       </c>
       <c r="D59" t="n">
-        <v>0.236678</v>
+        <v>0.236674</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.256709</v>
+        <v>0.255614</v>
       </c>
       <c r="C60" t="n">
-        <v>0.253929</v>
+        <v>0.253705</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238649</v>
+        <v>0.238612</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.263309</v>
+        <v>0.26224</v>
       </c>
       <c r="C61" t="n">
-        <v>0.261604</v>
+        <v>0.261378</v>
       </c>
       <c r="D61" t="n">
-        <v>0.240851</v>
+        <v>0.240777</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272077</v>
+        <v>0.270996</v>
       </c>
       <c r="C62" t="n">
-        <v>0.272407</v>
+        <v>0.272133</v>
       </c>
       <c r="D62" t="n">
-        <v>0.24447</v>
+        <v>0.244367</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.285306</v>
+        <v>0.284196</v>
       </c>
       <c r="C63" t="n">
-        <v>0.28837</v>
+        <v>0.288094</v>
       </c>
       <c r="D63" t="n">
-        <v>0.250357</v>
+        <v>0.250266</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.305666</v>
+        <v>0.304877</v>
       </c>
       <c r="C64" t="n">
-        <v>0.312061</v>
+        <v>0.31175</v>
       </c>
       <c r="D64" t="n">
-        <v>0.259726</v>
+        <v>0.259694</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.338094</v>
+        <v>0.33711</v>
       </c>
       <c r="C65" t="n">
-        <v>0.348779</v>
+        <v>0.348505</v>
       </c>
       <c r="D65" t="n">
-        <v>0.27613</v>
+        <v>0.276223</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.388065</v>
+        <v>0.387288</v>
       </c>
       <c r="C66" t="n">
-        <v>0.405134</v>
+        <v>0.405385</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242199</v>
+        <v>0.243482</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.257684</v>
+        <v>0.258365</v>
       </c>
       <c r="C67" t="n">
-        <v>0.247518</v>
+        <v>0.247194</v>
       </c>
       <c r="D67" t="n">
-        <v>0.243189</v>
+        <v>0.243653</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.257861</v>
+        <v>0.258887</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248117</v>
+        <v>0.248389</v>
       </c>
       <c r="D68" t="n">
-        <v>0.243653</v>
+        <v>0.244059</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2591</v>
+        <v>0.260236</v>
       </c>
       <c r="C69" t="n">
-        <v>0.249934</v>
+        <v>0.250172</v>
       </c>
       <c r="D69" t="n">
-        <v>0.24447</v>
+        <v>0.244878</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.260528</v>
+        <v>0.261632</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251891</v>
+        <v>0.252066</v>
       </c>
       <c r="D70" t="n">
-        <v>0.245198</v>
+        <v>0.245473</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.262295</v>
+        <v>0.26326</v>
       </c>
       <c r="C71" t="n">
-        <v>0.254475</v>
+        <v>0.254616</v>
       </c>
       <c r="D71" t="n">
-        <v>0.246125</v>
+        <v>0.24639</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.264794</v>
+        <v>0.265807</v>
       </c>
       <c r="C72" t="n">
-        <v>0.257677</v>
+        <v>0.257809</v>
       </c>
       <c r="D72" t="n">
-        <v>0.247345</v>
+        <v>0.24762</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.267784</v>
+        <v>0.268684</v>
       </c>
       <c r="C73" t="n">
-        <v>0.261882</v>
+        <v>0.262086</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248905</v>
+        <v>0.249146</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.271798</v>
+        <v>0.272741</v>
       </c>
       <c r="C74" t="n">
-        <v>0.267773</v>
+        <v>0.267937</v>
       </c>
       <c r="D74" t="n">
-        <v>0.250876</v>
+        <v>0.251102</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.277494</v>
+        <v>0.278446</v>
       </c>
       <c r="C75" t="n">
-        <v>0.276057</v>
+        <v>0.276182</v>
       </c>
       <c r="D75" t="n">
-        <v>0.253603</v>
+        <v>0.253858</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.285917</v>
+        <v>0.286947</v>
       </c>
       <c r="C76" t="n">
-        <v>0.28688</v>
+        <v>0.287037</v>
       </c>
       <c r="D76" t="n">
-        <v>0.257322</v>
+        <v>0.257567</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.298498</v>
+        <v>0.299445</v>
       </c>
       <c r="C77" t="n">
-        <v>0.30203</v>
+        <v>0.302171</v>
       </c>
       <c r="D77" t="n">
-        <v>0.262769</v>
+        <v>0.263018</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.317632</v>
+        <v>0.318443</v>
       </c>
       <c r="C78" t="n">
-        <v>0.324038</v>
+        <v>0.324142</v>
       </c>
       <c r="D78" t="n">
-        <v>0.27156</v>
+        <v>0.271776</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.345534</v>
+        <v>0.346258</v>
       </c>
       <c r="C79" t="n">
-        <v>0.358149</v>
+        <v>0.358212</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286305</v>
+        <v>0.286462</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.390825</v>
+        <v>0.391683</v>
       </c>
       <c r="C80" t="n">
-        <v>0.409548</v>
+        <v>0.409653</v>
       </c>
       <c r="D80" t="n">
-        <v>0.264541</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.275835</v>
+        <v>0.276047</v>
       </c>
       <c r="C81" t="n">
-        <v>0.265874</v>
+        <v>0.266217</v>
       </c>
       <c r="D81" t="n">
-        <v>0.264929</v>
+        <v>0.265337</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.276599</v>
+        <v>0.276722</v>
       </c>
       <c r="C82" t="n">
-        <v>0.266928</v>
+        <v>0.267364</v>
       </c>
       <c r="D82" t="n">
-        <v>0.265375</v>
+        <v>0.265847</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.27766</v>
+        <v>0.27775</v>
       </c>
       <c r="C83" t="n">
-        <v>0.268214</v>
+        <v>0.268614</v>
       </c>
       <c r="D83" t="n">
-        <v>0.266061</v>
+        <v>0.266321</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.278977</v>
+        <v>0.279046</v>
       </c>
       <c r="C84" t="n">
-        <v>0.269988</v>
+        <v>0.270302</v>
       </c>
       <c r="D84" t="n">
-        <v>0.266669</v>
+        <v>0.26696</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.280569</v>
+        <v>0.280666</v>
       </c>
       <c r="C85" t="n">
-        <v>0.271938</v>
+        <v>0.272372</v>
       </c>
       <c r="D85" t="n">
-        <v>0.267265</v>
+        <v>0.267715</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.28252</v>
+        <v>0.282625</v>
       </c>
       <c r="C86" t="n">
-        <v>0.274573</v>
+        <v>0.275007</v>
       </c>
       <c r="D86" t="n">
-        <v>0.268213</v>
+        <v>0.268615</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.285145</v>
+        <v>0.285312</v>
       </c>
       <c r="C87" t="n">
-        <v>0.278238</v>
+        <v>0.27872</v>
       </c>
       <c r="D87" t="n">
-        <v>0.269366</v>
+        <v>0.269835</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.288794</v>
+        <v>0.289011</v>
       </c>
       <c r="C88" t="n">
-        <v>0.283289</v>
+        <v>0.283748</v>
       </c>
       <c r="D88" t="n">
-        <v>0.270936</v>
+        <v>0.271431</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.294154</v>
+        <v>0.294326</v>
       </c>
       <c r="C89" t="n">
-        <v>0.290692</v>
+        <v>0.291055</v>
       </c>
       <c r="D89" t="n">
-        <v>0.273344</v>
+        <v>0.273859</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.301981</v>
+        <v>0.302151</v>
       </c>
       <c r="C90" t="n">
-        <v>0.300625</v>
+        <v>0.300782</v>
       </c>
       <c r="D90" t="n">
-        <v>0.276817</v>
+        <v>0.277072</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.313313</v>
+        <v>0.313224</v>
       </c>
       <c r="C91" t="n">
-        <v>0.314288</v>
+        <v>0.314394</v>
       </c>
       <c r="D91" t="n">
-        <v>0.281695</v>
+        <v>0.281887</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.33049</v>
+        <v>0.329967</v>
       </c>
       <c r="C92" t="n">
-        <v>0.333929</v>
+        <v>0.333923</v>
       </c>
       <c r="D92" t="n">
-        <v>0.289254</v>
+        <v>0.289421</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.356054</v>
+        <v>0.355776</v>
       </c>
       <c r="C93" t="n">
-        <v>0.36431</v>
+        <v>0.364366</v>
       </c>
       <c r="D93" t="n">
-        <v>0.301906</v>
+        <v>0.302031</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.396756</v>
+        <v>0.396372</v>
       </c>
       <c r="C94" t="n">
-        <v>0.412586</v>
+        <v>0.41275</v>
       </c>
       <c r="D94" t="n">
-        <v>0.273225</v>
+        <v>0.274344</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.284505</v>
+        <v>0.286374</v>
       </c>
       <c r="C95" t="n">
-        <v>0.274941</v>
+        <v>0.276281</v>
       </c>
       <c r="D95" t="n">
-        <v>0.273916</v>
+        <v>0.27485</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.285441</v>
+        <v>0.287271</v>
       </c>
       <c r="C96" t="n">
-        <v>0.276145</v>
+        <v>0.27765</v>
       </c>
       <c r="D96" t="n">
-        <v>0.274407</v>
+        <v>0.275413</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.28656</v>
+        <v>0.288529</v>
       </c>
       <c r="C97" t="n">
-        <v>0.277588</v>
+        <v>0.279175</v>
       </c>
       <c r="D97" t="n">
-        <v>0.274763</v>
+        <v>0.276021</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.287784</v>
+        <v>0.289949</v>
       </c>
       <c r="C98" t="n">
-        <v>0.27945</v>
+        <v>0.281134</v>
       </c>
       <c r="D98" t="n">
-        <v>0.275432</v>
+        <v>0.276675</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.289573</v>
+        <v>0.291735</v>
       </c>
       <c r="C99" t="n">
-        <v>0.282022</v>
+        <v>0.2837</v>
       </c>
       <c r="D99" t="n">
-        <v>0.276236</v>
+        <v>0.277445</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.291649</v>
+        <v>0.294099</v>
       </c>
       <c r="C100" t="n">
-        <v>0.28521</v>
+        <v>0.286931</v>
       </c>
       <c r="D100" t="n">
-        <v>0.277093</v>
+        <v>0.278448</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.294553</v>
+        <v>0.297245</v>
       </c>
       <c r="C101" t="n">
-        <v>0.289402</v>
+        <v>0.291278</v>
       </c>
       <c r="D101" t="n">
-        <v>0.278322</v>
+        <v>0.279697</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.298641</v>
+        <v>0.301598</v>
       </c>
       <c r="C102" t="n">
-        <v>0.295294</v>
+        <v>0.297207</v>
       </c>
       <c r="D102" t="n">
-        <v>0.279968</v>
+        <v>0.281417</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.304337</v>
+        <v>0.307624</v>
       </c>
       <c r="C103" t="n">
-        <v>0.303462</v>
+        <v>0.305634</v>
       </c>
       <c r="D103" t="n">
-        <v>0.282359</v>
+        <v>0.283772</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.312364</v>
+        <v>0.316193</v>
       </c>
       <c r="C104" t="n">
-        <v>0.314453</v>
+        <v>0.317117</v>
       </c>
       <c r="D104" t="n">
-        <v>0.285622</v>
+        <v>0.287072</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3242</v>
+        <v>0.328625</v>
       </c>
       <c r="C105" t="n">
-        <v>0.329282</v>
+        <v>0.332622</v>
       </c>
       <c r="D105" t="n">
-        <v>0.290435</v>
+        <v>0.292006</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.342015</v>
+        <v>0.346903</v>
       </c>
       <c r="C106" t="n">
-        <v>0.350036</v>
+        <v>0.353602</v>
       </c>
       <c r="D106" t="n">
-        <v>0.297999</v>
+        <v>0.299534</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.368621</v>
+        <v>0.374214</v>
       </c>
       <c r="C107" t="n">
-        <v>0.380719</v>
+        <v>0.384573</v>
       </c>
       <c r="D107" t="n">
-        <v>0.310758</v>
+        <v>0.312349</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.409414</v>
+        <v>0.415688</v>
       </c>
       <c r="C108" t="n">
-        <v>0.427497</v>
+        <v>0.431585</v>
       </c>
       <c r="D108" t="n">
-        <v>0.279814</v>
+        <v>0.279228</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.475686</v>
+        <v>0.475796</v>
       </c>
       <c r="C109" t="n">
-        <v>0.500513</v>
+        <v>0.499828</v>
       </c>
       <c r="D109" t="n">
-        <v>0.281011</v>
+        <v>0.280683</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.305187</v>
+        <v>0.304755</v>
       </c>
       <c r="C110" t="n">
-        <v>0.298136</v>
+        <v>0.297898</v>
       </c>
       <c r="D110" t="n">
-        <v>0.281419</v>
+        <v>0.281653</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.311426</v>
+        <v>0.309736</v>
       </c>
       <c r="C111" t="n">
-        <v>0.303772</v>
+        <v>0.30315</v>
       </c>
       <c r="D111" t="n">
-        <v>0.282716</v>
+        <v>0.282561</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.31561</v>
+        <v>0.311395</v>
       </c>
       <c r="C112" t="n">
-        <v>0.309822</v>
+        <v>0.30995</v>
       </c>
       <c r="D112" t="n">
-        <v>0.284054</v>
+        <v>0.284436</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.317333</v>
+        <v>0.321884</v>
       </c>
       <c r="C113" t="n">
-        <v>0.316887</v>
+        <v>0.316972</v>
       </c>
       <c r="D113" t="n">
-        <v>0.286741</v>
+        <v>0.285904</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.32795</v>
+        <v>0.327697</v>
       </c>
       <c r="C114" t="n">
-        <v>0.324014</v>
+        <v>0.323912</v>
       </c>
       <c r="D114" t="n">
-        <v>0.288944</v>
+        <v>0.288233</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.335645</v>
+        <v>0.335668</v>
       </c>
       <c r="C115" t="n">
-        <v>0.332018</v>
+        <v>0.33229</v>
       </c>
       <c r="D115" t="n">
-        <v>0.292165</v>
+        <v>0.292364</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.343749</v>
+        <v>0.339508</v>
       </c>
       <c r="C116" t="n">
-        <v>0.341305</v>
+        <v>0.341714</v>
       </c>
       <c r="D116" t="n">
-        <v>0.296112</v>
+        <v>0.295762</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.353292</v>
+        <v>0.353318</v>
       </c>
       <c r="C117" t="n">
-        <v>0.352212</v>
+        <v>0.352593</v>
       </c>
       <c r="D117" t="n">
-        <v>0.30149</v>
+        <v>0.301058</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.359865</v>
+        <v>0.36494</v>
       </c>
       <c r="C118" t="n">
-        <v>0.365081</v>
+        <v>0.365711</v>
       </c>
       <c r="D118" t="n">
-        <v>0.308073</v>
+        <v>0.307917</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.379529</v>
+        <v>0.379889</v>
       </c>
       <c r="C119" t="n">
-        <v>0.379325</v>
+        <v>0.379987</v>
       </c>
       <c r="D119" t="n">
-        <v>0.31667</v>
+        <v>0.317161</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.394612</v>
+        <v>0.395314</v>
       </c>
       <c r="C120" t="n">
-        <v>0.401269</v>
+        <v>0.405167</v>
       </c>
       <c r="D120" t="n">
-        <v>0.328052</v>
+        <v>0.328034</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.427753</v>
+        <v>0.428669</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432136</v>
+        <v>0.433045</v>
       </c>
       <c r="D121" t="n">
-        <v>0.343713</v>
+        <v>0.344083</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.469664</v>
+        <v>0.470768</v>
       </c>
       <c r="C122" t="n">
-        <v>0.483083</v>
+        <v>0.480123</v>
       </c>
       <c r="D122" t="n">
-        <v>0.36791</v>
+        <v>0.366703</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.533485</v>
+        <v>0.534979</v>
       </c>
       <c r="C123" t="n">
-        <v>0.558812</v>
+        <v>0.560428</v>
       </c>
       <c r="D123" t="n">
-        <v>0.309134</v>
+        <v>0.309096</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.354661</v>
+        <v>0.34146</v>
       </c>
       <c r="C124" t="n">
-        <v>0.346463</v>
+        <v>0.346804</v>
       </c>
       <c r="D124" t="n">
-        <v>0.31257</v>
+        <v>0.312627</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.35912</v>
+        <v>0.359716</v>
       </c>
       <c r="C125" t="n">
-        <v>0.352181</v>
+        <v>0.352185</v>
       </c>
       <c r="D125" t="n">
-        <v>0.317813</v>
+        <v>0.317599</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.363444</v>
+        <v>0.363952</v>
       </c>
       <c r="C126" t="n">
-        <v>0.355758</v>
+        <v>0.356052</v>
       </c>
       <c r="D126" t="n">
-        <v>0.319866</v>
+        <v>0.319758</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368209</v>
+        <v>0.37204</v>
       </c>
       <c r="C127" t="n">
-        <v>0.362233</v>
+        <v>0.364031</v>
       </c>
       <c r="D127" t="n">
-        <v>0.324589</v>
+        <v>0.325903</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.373991</v>
+        <v>0.373323</v>
       </c>
       <c r="C128" t="n">
-        <v>0.366121</v>
+        <v>0.368351</v>
       </c>
       <c r="D128" t="n">
-        <v>0.326236</v>
+        <v>0.326998</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.379524</v>
+        <v>0.383181</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374009</v>
+        <v>0.375787</v>
       </c>
       <c r="D129" t="n">
-        <v>0.330403</v>
+        <v>0.331028</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.372716</v>
+        <v>0.371499</v>
       </c>
       <c r="C130" t="n">
-        <v>0.382477</v>
+        <v>0.382992</v>
       </c>
       <c r="D130" t="n">
-        <v>0.334594</v>
+        <v>0.334616</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.395303</v>
+        <v>0.389329</v>
       </c>
       <c r="C131" t="n">
-        <v>0.395942</v>
+        <v>0.393914</v>
       </c>
       <c r="D131" t="n">
-        <v>0.342018</v>
+        <v>0.339632</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.390246</v>
+        <v>0.405824</v>
       </c>
       <c r="C132" t="n">
-        <v>0.406912</v>
+        <v>0.406711</v>
       </c>
       <c r="D132" t="n">
-        <v>0.34589</v>
+        <v>0.344572</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.425208</v>
+        <v>0.419961</v>
       </c>
       <c r="C133" t="n">
-        <v>0.423164</v>
+        <v>0.424449</v>
       </c>
       <c r="D133" t="n">
-        <v>0.350358</v>
+        <v>0.351286</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.438825</v>
+        <v>0.441971</v>
       </c>
       <c r="C134" t="n">
-        <v>0.447041</v>
+        <v>0.450419</v>
       </c>
       <c r="D134" t="n">
-        <v>0.360861</v>
+        <v>0.362655</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.467249</v>
+        <v>0.471238</v>
       </c>
       <c r="C135" t="n">
-        <v>0.48191</v>
+        <v>0.480093</v>
       </c>
       <c r="D135" t="n">
-        <v>0.374849</v>
+        <v>0.37469</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.496469</v>
+        <v>0.5098279999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.532738</v>
+        <v>0.532871</v>
       </c>
       <c r="D136" t="n">
-        <v>0.400258</v>
+        <v>0.399574</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.57104</v>
+        <v>0.574716</v>
       </c>
       <c r="C137" t="n">
-        <v>0.602284</v>
+        <v>0.604992</v>
       </c>
       <c r="D137" t="n">
-        <v>0.449733</v>
+        <v>0.459869</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.508485</v>
+        <v>0.533256</v>
       </c>
       <c r="C138" t="n">
-        <v>0.495147</v>
+        <v>0.500171</v>
       </c>
       <c r="D138" t="n">
-        <v>0.454174</v>
+        <v>0.458216</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.519863</v>
+        <v>0.529803</v>
       </c>
       <c r="C139" t="n">
-        <v>0.500251</v>
+        <v>0.500862</v>
       </c>
       <c r="D139" t="n">
-        <v>0.455674</v>
+        <v>0.455025</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.532404</v>
+        <v>0.531208</v>
       </c>
       <c r="C140" t="n">
-        <v>0.505264</v>
+        <v>0.511722</v>
       </c>
       <c r="D140" t="n">
-        <v>0.457503</v>
+        <v>0.464554</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.508016</v>
+        <v>0.543994</v>
       </c>
       <c r="C141" t="n">
-        <v>0.512938</v>
+        <v>0.518072</v>
       </c>
       <c r="D141" t="n">
-        <v>0.461846</v>
+        <v>0.467742</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5422439999999999</v>
+        <v>0.535043</v>
       </c>
       <c r="C142" t="n">
-        <v>0.52134</v>
+        <v>0.525236</v>
       </c>
       <c r="D142" t="n">
-        <v>0.467467</v>
+        <v>0.471269</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.548521</v>
+        <v>0.5482629999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.529126</v>
+        <v>0.533597</v>
       </c>
       <c r="D143" t="n">
-        <v>0.469655</v>
+        <v>0.474576</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.233557</v>
+        <v>0.235546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237263</v>
+        <v>0.239176</v>
       </c>
       <c r="D2" t="n">
-        <v>0.223705</v>
+        <v>0.22588</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.237513</v>
+        <v>0.239901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239751</v>
+        <v>0.241647</v>
       </c>
       <c r="D3" t="n">
-        <v>0.224607</v>
+        <v>0.226649</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.245825</v>
+        <v>0.248013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.251254</v>
+        <v>0.253956</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229696</v>
+        <v>0.231729</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.258007</v>
+        <v>0.260224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265726</v>
+        <v>0.267896</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234147</v>
+        <v>0.23629</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.273891</v>
+        <v>0.276464</v>
       </c>
       <c r="C6" t="n">
-        <v>0.284035</v>
+        <v>0.286293</v>
       </c>
       <c r="D6" t="n">
-        <v>0.24043</v>
+        <v>0.242744</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.294916</v>
+        <v>0.297226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.313654</v>
+        <v>0.316136</v>
       </c>
       <c r="D7" t="n">
-        <v>0.252773</v>
+        <v>0.254531</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.329406</v>
+        <v>0.331463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.348196</v>
+        <v>0.350866</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269379</v>
+        <v>0.270658</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.384214</v>
+        <v>0.385703</v>
       </c>
       <c r="C9" t="n">
-        <v>0.402773</v>
+        <v>0.407202</v>
       </c>
       <c r="D9" t="n">
-        <v>0.223207</v>
+        <v>0.224826</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229407</v>
+        <v>0.231272</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225492</v>
+        <v>0.226732</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223405</v>
+        <v>0.224814</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.229869</v>
+        <v>0.231427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.225576</v>
+        <v>0.226967</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22325</v>
+        <v>0.224591</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232359</v>
+        <v>0.233733</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22818</v>
+        <v>0.229303</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225237</v>
+        <v>0.226276</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.232283</v>
+        <v>0.233664</v>
       </c>
       <c r="C13" t="n">
-        <v>0.22877</v>
+        <v>0.229877</v>
       </c>
       <c r="D13" t="n">
-        <v>0.224638</v>
+        <v>0.225622</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.235121</v>
+        <v>0.236544</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233269</v>
+        <v>0.234363</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226474</v>
+        <v>0.227722</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.237336</v>
+        <v>0.238689</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236313</v>
+        <v>0.23779</v>
       </c>
       <c r="D15" t="n">
-        <v>0.227881</v>
+        <v>0.229265</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.240553</v>
+        <v>0.241881</v>
       </c>
       <c r="C16" t="n">
-        <v>0.24088</v>
+        <v>0.24244</v>
       </c>
       <c r="D16" t="n">
-        <v>0.229061</v>
+        <v>0.2305</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.243758</v>
+        <v>0.245392</v>
       </c>
       <c r="C17" t="n">
-        <v>0.246367</v>
+        <v>0.247826</v>
       </c>
       <c r="D17" t="n">
-        <v>0.230416</v>
+        <v>0.231987</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.248989</v>
+        <v>0.250393</v>
       </c>
       <c r="C18" t="n">
-        <v>0.252418</v>
+        <v>0.254064</v>
       </c>
       <c r="D18" t="n">
-        <v>0.231981</v>
+        <v>0.233612</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.258472</v>
+        <v>0.259848</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263191</v>
+        <v>0.264863</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236218</v>
+        <v>0.23799</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269802</v>
+        <v>0.271262</v>
       </c>
       <c r="C20" t="n">
-        <v>0.27843</v>
+        <v>0.280008</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240322</v>
+        <v>0.241991</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.290121</v>
+        <v>0.291756</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298141</v>
+        <v>0.299966</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248044</v>
+        <v>0.249538</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.324645</v>
+        <v>0.326499</v>
       </c>
       <c r="C22" t="n">
-        <v>0.325759</v>
+        <v>0.327619</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261157</v>
+        <v>0.262675</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.367314</v>
+        <v>0.367777</v>
       </c>
       <c r="C23" t="n">
-        <v>0.379731</v>
+        <v>0.383194</v>
       </c>
       <c r="D23" t="n">
-        <v>0.226431</v>
+        <v>0.227772</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.233981</v>
+        <v>0.235282</v>
       </c>
       <c r="C24" t="n">
-        <v>0.227337</v>
+        <v>0.228938</v>
       </c>
       <c r="D24" t="n">
-        <v>0.227388</v>
+        <v>0.228761</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23403</v>
+        <v>0.235456</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227743</v>
+        <v>0.229404</v>
       </c>
       <c r="D25" t="n">
-        <v>0.227039</v>
+        <v>0.22844</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234948</v>
+        <v>0.23659</v>
       </c>
       <c r="C26" t="n">
-        <v>0.228928</v>
+        <v>0.230758</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227354</v>
+        <v>0.22894</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.236498</v>
+        <v>0.238135</v>
       </c>
       <c r="C27" t="n">
-        <v>0.230639</v>
+        <v>0.23232</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227793</v>
+        <v>0.229301</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.238631</v>
+        <v>0.240196</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233238</v>
+        <v>0.234829</v>
       </c>
       <c r="D28" t="n">
-        <v>0.229093</v>
+        <v>0.230671</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.239973</v>
+        <v>0.241572</v>
       </c>
       <c r="C29" t="n">
-        <v>0.235743</v>
+        <v>0.23758</v>
       </c>
       <c r="D29" t="n">
-        <v>0.229395</v>
+        <v>0.231061</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.242535</v>
+        <v>0.24414</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239076</v>
+        <v>0.240773</v>
       </c>
       <c r="D30" t="n">
-        <v>0.230639</v>
+        <v>0.232273</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.245876</v>
+        <v>0.24747</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243374</v>
+        <v>0.245072</v>
       </c>
       <c r="D31" t="n">
-        <v>0.231742</v>
+        <v>0.233407</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.251478</v>
+        <v>0.253178</v>
       </c>
       <c r="C32" t="n">
-        <v>0.250138</v>
+        <v>0.251706</v>
       </c>
       <c r="D32" t="n">
-        <v>0.234159</v>
+        <v>0.23577</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.258937</v>
+        <v>0.260651</v>
       </c>
       <c r="C33" t="n">
-        <v>0.260399</v>
+        <v>0.262087</v>
       </c>
       <c r="D33" t="n">
-        <v>0.237278</v>
+        <v>0.239014</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268894</v>
+        <v>0.270549</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272298</v>
+        <v>0.274029</v>
       </c>
       <c r="D34" t="n">
-        <v>0.241138</v>
+        <v>0.242849</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.284358</v>
+        <v>0.286133</v>
       </c>
       <c r="C35" t="n">
-        <v>0.28971</v>
+        <v>0.291477</v>
       </c>
       <c r="D35" t="n">
-        <v>0.246672</v>
+        <v>0.248356</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.308779</v>
+        <v>0.310589</v>
       </c>
       <c r="C36" t="n">
-        <v>0.317863</v>
+        <v>0.320161</v>
       </c>
       <c r="D36" t="n">
-        <v>0.257512</v>
+        <v>0.259187</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.349969</v>
+        <v>0.351685</v>
       </c>
       <c r="C37" t="n">
-        <v>0.362448</v>
+        <v>0.365773</v>
       </c>
       <c r="D37" t="n">
-        <v>0.228868</v>
+        <v>0.230389</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.235332</v>
+        <v>0.236654</v>
       </c>
       <c r="C38" t="n">
-        <v>0.228893</v>
+        <v>0.230341</v>
       </c>
       <c r="D38" t="n">
-        <v>0.228641</v>
+        <v>0.230215</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.23675</v>
+        <v>0.237998</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230658</v>
+        <v>0.232029</v>
       </c>
       <c r="D39" t="n">
-        <v>0.229692</v>
+        <v>0.231273</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.237376</v>
+        <v>0.238694</v>
       </c>
       <c r="C40" t="n">
-        <v>0.231401</v>
+        <v>0.232936</v>
       </c>
       <c r="D40" t="n">
-        <v>0.229703</v>
+        <v>0.231322</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.238708</v>
+        <v>0.2401</v>
       </c>
       <c r="C41" t="n">
-        <v>0.232753</v>
+        <v>0.234302</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230295</v>
+        <v>0.231879</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.240535</v>
+        <v>0.241864</v>
       </c>
       <c r="C42" t="n">
-        <v>0.234552</v>
+        <v>0.236086</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231114</v>
+        <v>0.23269</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.242553</v>
+        <v>0.244052</v>
       </c>
       <c r="C43" t="n">
-        <v>0.236845</v>
+        <v>0.238559</v>
       </c>
       <c r="D43" t="n">
-        <v>0.231787</v>
+        <v>0.233434</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.245374</v>
+        <v>0.246844</v>
       </c>
       <c r="C44" t="n">
-        <v>0.240472</v>
+        <v>0.242108</v>
       </c>
       <c r="D44" t="n">
-        <v>0.233102</v>
+        <v>0.234603</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.248815</v>
+        <v>0.250213</v>
       </c>
       <c r="C45" t="n">
-        <v>0.244853</v>
+        <v>0.246418</v>
       </c>
       <c r="D45" t="n">
-        <v>0.234414</v>
+        <v>0.235999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.253844</v>
+        <v>0.255156</v>
       </c>
       <c r="C46" t="n">
-        <v>0.251131</v>
+        <v>0.252636</v>
       </c>
       <c r="D46" t="n">
-        <v>0.236525</v>
+        <v>0.238089</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.260399</v>
+        <v>0.261656</v>
       </c>
       <c r="C47" t="n">
-        <v>0.259553</v>
+        <v>0.260918</v>
       </c>
       <c r="D47" t="n">
-        <v>0.238952</v>
+        <v>0.240507</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.270512</v>
+        <v>0.271795</v>
       </c>
       <c r="C48" t="n">
-        <v>0.271512</v>
+        <v>0.272908</v>
       </c>
       <c r="D48" t="n">
-        <v>0.242845</v>
+        <v>0.244396</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.285327</v>
+        <v>0.286608</v>
       </c>
       <c r="C49" t="n">
-        <v>0.288385</v>
+        <v>0.289726</v>
       </c>
       <c r="D49" t="n">
-        <v>0.248406</v>
+        <v>0.249893</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.308793</v>
+        <v>0.309721</v>
       </c>
       <c r="C50" t="n">
-        <v>0.316615</v>
+        <v>0.317862</v>
       </c>
       <c r="D50" t="n">
-        <v>0.258887</v>
+        <v>0.260338</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.34465</v>
+        <v>0.345402</v>
       </c>
       <c r="C51" t="n">
-        <v>0.353533</v>
+        <v>0.356032</v>
       </c>
       <c r="D51" t="n">
-        <v>0.230942</v>
+        <v>0.232247</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.398614</v>
+        <v>0.402202</v>
       </c>
       <c r="C52" t="n">
-        <v>0.41627</v>
+        <v>0.422648</v>
       </c>
       <c r="D52" t="n">
-        <v>0.231318</v>
+        <v>0.232832</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240098</v>
+        <v>0.243244</v>
       </c>
       <c r="C53" t="n">
-        <v>0.23318</v>
+        <v>0.234642</v>
       </c>
       <c r="D53" t="n">
-        <v>0.231666</v>
+        <v>0.233084</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.24082</v>
+        <v>0.244884</v>
       </c>
       <c r="C54" t="n">
-        <v>0.234418</v>
+        <v>0.236153</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232178</v>
+        <v>0.233712</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.241989</v>
+        <v>0.245829</v>
       </c>
       <c r="C55" t="n">
-        <v>0.235935</v>
+        <v>0.237567</v>
       </c>
       <c r="D55" t="n">
-        <v>0.232781</v>
+        <v>0.234326</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.243373</v>
+        <v>0.24717</v>
       </c>
       <c r="C56" t="n">
-        <v>0.237732</v>
+        <v>0.239292</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233522</v>
+        <v>0.235075</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.245202</v>
+        <v>0.249005</v>
       </c>
       <c r="C57" t="n">
-        <v>0.240175</v>
+        <v>0.241841</v>
       </c>
       <c r="D57" t="n">
-        <v>0.234364</v>
+        <v>0.235947</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.247587</v>
+        <v>0.251437</v>
       </c>
       <c r="C58" t="n">
-        <v>0.243699</v>
+        <v>0.245247</v>
       </c>
       <c r="D58" t="n">
-        <v>0.235428</v>
+        <v>0.237102</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.251281</v>
+        <v>0.254642</v>
       </c>
       <c r="C59" t="n">
-        <v>0.248119</v>
+        <v>0.249692</v>
       </c>
       <c r="D59" t="n">
-        <v>0.236674</v>
+        <v>0.238323</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.255614</v>
+        <v>0.25936</v>
       </c>
       <c r="C60" t="n">
-        <v>0.253705</v>
+        <v>0.255283</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238612</v>
+        <v>0.240262</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.26224</v>
+        <v>0.265897</v>
       </c>
       <c r="C61" t="n">
-        <v>0.261378</v>
+        <v>0.262853</v>
       </c>
       <c r="D61" t="n">
-        <v>0.240777</v>
+        <v>0.242476</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.270996</v>
+        <v>0.274558</v>
       </c>
       <c r="C62" t="n">
-        <v>0.272133</v>
+        <v>0.273603</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244367</v>
+        <v>0.246041</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.284196</v>
+        <v>0.287756</v>
       </c>
       <c r="C63" t="n">
-        <v>0.288094</v>
+        <v>0.289608</v>
       </c>
       <c r="D63" t="n">
-        <v>0.250266</v>
+        <v>0.251899</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.304877</v>
+        <v>0.308109</v>
       </c>
       <c r="C64" t="n">
-        <v>0.31175</v>
+        <v>0.313707</v>
       </c>
       <c r="D64" t="n">
-        <v>0.259694</v>
+        <v>0.261116</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.33711</v>
+        <v>0.339914</v>
       </c>
       <c r="C65" t="n">
-        <v>0.348505</v>
+        <v>0.350548</v>
       </c>
       <c r="D65" t="n">
-        <v>0.276223</v>
+        <v>0.277359</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.387288</v>
+        <v>0.389485</v>
       </c>
       <c r="C66" t="n">
-        <v>0.405385</v>
+        <v>0.40845</v>
       </c>
       <c r="D66" t="n">
-        <v>0.243482</v>
+        <v>0.253022</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.258365</v>
+        <v>0.258137</v>
       </c>
       <c r="C67" t="n">
-        <v>0.247194</v>
+        <v>0.254962</v>
       </c>
       <c r="D67" t="n">
-        <v>0.243653</v>
+        <v>0.253494</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.258887</v>
+        <v>0.258439</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248389</v>
+        <v>0.25595</v>
       </c>
       <c r="D68" t="n">
-        <v>0.244059</v>
+        <v>0.253799</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.260236</v>
+        <v>0.259767</v>
       </c>
       <c r="C69" t="n">
-        <v>0.250172</v>
+        <v>0.257514</v>
       </c>
       <c r="D69" t="n">
-        <v>0.244878</v>
+        <v>0.25444</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.261632</v>
+        <v>0.261207</v>
       </c>
       <c r="C70" t="n">
-        <v>0.252066</v>
+        <v>0.259277</v>
       </c>
       <c r="D70" t="n">
-        <v>0.245473</v>
+        <v>0.255007</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.26326</v>
+        <v>0.262961</v>
       </c>
       <c r="C71" t="n">
-        <v>0.254616</v>
+        <v>0.261694</v>
       </c>
       <c r="D71" t="n">
-        <v>0.24639</v>
+        <v>0.255764</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.265807</v>
+        <v>0.265509</v>
       </c>
       <c r="C72" t="n">
-        <v>0.257809</v>
+        <v>0.264704</v>
       </c>
       <c r="D72" t="n">
-        <v>0.24762</v>
+        <v>0.256808</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.268684</v>
+        <v>0.2685</v>
       </c>
       <c r="C73" t="n">
-        <v>0.262086</v>
+        <v>0.268712</v>
       </c>
       <c r="D73" t="n">
-        <v>0.249146</v>
+        <v>0.258138</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272741</v>
+        <v>0.272539</v>
       </c>
       <c r="C74" t="n">
-        <v>0.267937</v>
+        <v>0.274262</v>
       </c>
       <c r="D74" t="n">
-        <v>0.251102</v>
+        <v>0.259875</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278446</v>
+        <v>0.278269</v>
       </c>
       <c r="C75" t="n">
-        <v>0.276182</v>
+        <v>0.282286</v>
       </c>
       <c r="D75" t="n">
-        <v>0.253858</v>
+        <v>0.262333</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.286947</v>
+        <v>0.286703</v>
       </c>
       <c r="C76" t="n">
-        <v>0.287037</v>
+        <v>0.292891</v>
       </c>
       <c r="D76" t="n">
-        <v>0.257567</v>
+        <v>0.265825</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.299445</v>
+        <v>0.299101</v>
       </c>
       <c r="C77" t="n">
-        <v>0.302171</v>
+        <v>0.307874</v>
       </c>
       <c r="D77" t="n">
-        <v>0.263018</v>
+        <v>0.271107</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318443</v>
+        <v>0.318067</v>
       </c>
       <c r="C78" t="n">
-        <v>0.324142</v>
+        <v>0.329896</v>
       </c>
       <c r="D78" t="n">
-        <v>0.271776</v>
+        <v>0.279694</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.346258</v>
+        <v>0.346</v>
       </c>
       <c r="C79" t="n">
-        <v>0.358212</v>
+        <v>0.364307</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286462</v>
+        <v>0.2942</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.391683</v>
+        <v>0.390822</v>
       </c>
       <c r="C80" t="n">
-        <v>0.409653</v>
+        <v>0.417329</v>
       </c>
       <c r="D80" t="n">
-        <v>0.265</v>
+        <v>0.266155</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.276047</v>
+        <v>0.27705</v>
       </c>
       <c r="C81" t="n">
-        <v>0.266217</v>
+        <v>0.267363</v>
       </c>
       <c r="D81" t="n">
-        <v>0.265337</v>
+        <v>0.26648</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.276722</v>
+        <v>0.27771</v>
       </c>
       <c r="C82" t="n">
-        <v>0.267364</v>
+        <v>0.268452</v>
       </c>
       <c r="D82" t="n">
-        <v>0.265847</v>
+        <v>0.26691</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.27775</v>
+        <v>0.278809</v>
       </c>
       <c r="C83" t="n">
-        <v>0.268614</v>
+        <v>0.269753</v>
       </c>
       <c r="D83" t="n">
-        <v>0.266321</v>
+        <v>0.267426</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.279046</v>
+        <v>0.280109</v>
       </c>
       <c r="C84" t="n">
-        <v>0.270302</v>
+        <v>0.271482</v>
       </c>
       <c r="D84" t="n">
-        <v>0.26696</v>
+        <v>0.268099</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.280666</v>
+        <v>0.281714</v>
       </c>
       <c r="C85" t="n">
-        <v>0.272372</v>
+        <v>0.273547</v>
       </c>
       <c r="D85" t="n">
-        <v>0.267715</v>
+        <v>0.268832</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.282625</v>
+        <v>0.283712</v>
       </c>
       <c r="C86" t="n">
-        <v>0.275007</v>
+        <v>0.276185</v>
       </c>
       <c r="D86" t="n">
-        <v>0.268615</v>
+        <v>0.269712</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.285312</v>
+        <v>0.286365</v>
       </c>
       <c r="C87" t="n">
-        <v>0.27872</v>
+        <v>0.279846</v>
       </c>
       <c r="D87" t="n">
-        <v>0.269835</v>
+        <v>0.270909</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.289011</v>
+        <v>0.290052</v>
       </c>
       <c r="C88" t="n">
-        <v>0.283748</v>
+        <v>0.284901</v>
       </c>
       <c r="D88" t="n">
-        <v>0.271431</v>
+        <v>0.272538</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.294326</v>
+        <v>0.295291</v>
       </c>
       <c r="C89" t="n">
-        <v>0.291055</v>
+        <v>0.292221</v>
       </c>
       <c r="D89" t="n">
-        <v>0.273859</v>
+        <v>0.274895</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.302151</v>
+        <v>0.303008</v>
       </c>
       <c r="C90" t="n">
-        <v>0.300782</v>
+        <v>0.30197</v>
       </c>
       <c r="D90" t="n">
-        <v>0.277072</v>
+        <v>0.278144</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.313224</v>
+        <v>0.314158</v>
       </c>
       <c r="C91" t="n">
-        <v>0.314394</v>
+        <v>0.315738</v>
       </c>
       <c r="D91" t="n">
-        <v>0.281887</v>
+        <v>0.282876</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.329967</v>
+        <v>0.330823</v>
       </c>
       <c r="C92" t="n">
-        <v>0.333923</v>
+        <v>0.335423</v>
       </c>
       <c r="D92" t="n">
-        <v>0.289421</v>
+        <v>0.290331</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.355776</v>
+        <v>0.35633</v>
       </c>
       <c r="C93" t="n">
-        <v>0.364366</v>
+        <v>0.366117</v>
       </c>
       <c r="D93" t="n">
-        <v>0.302031</v>
+        <v>0.302773</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.396372</v>
+        <v>0.396801</v>
       </c>
       <c r="C94" t="n">
-        <v>0.41275</v>
+        <v>0.415215</v>
       </c>
       <c r="D94" t="n">
-        <v>0.274344</v>
+        <v>0.276025</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.286374</v>
+        <v>0.287552</v>
       </c>
       <c r="C95" t="n">
-        <v>0.276281</v>
+        <v>0.27771</v>
       </c>
       <c r="D95" t="n">
-        <v>0.27485</v>
+        <v>0.276464</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.287271</v>
+        <v>0.288502</v>
       </c>
       <c r="C96" t="n">
-        <v>0.27765</v>
+        <v>0.279012</v>
       </c>
       <c r="D96" t="n">
-        <v>0.275413</v>
+        <v>0.276968</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.288529</v>
+        <v>0.289816</v>
       </c>
       <c r="C97" t="n">
-        <v>0.279175</v>
+        <v>0.280584</v>
       </c>
       <c r="D97" t="n">
-        <v>0.276021</v>
+        <v>0.277556</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.289949</v>
+        <v>0.291151</v>
       </c>
       <c r="C98" t="n">
-        <v>0.281134</v>
+        <v>0.282548</v>
       </c>
       <c r="D98" t="n">
-        <v>0.276675</v>
+        <v>0.278293</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.291735</v>
+        <v>0.292997</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2837</v>
+        <v>0.285094</v>
       </c>
       <c r="D99" t="n">
-        <v>0.277445</v>
+        <v>0.279107</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.294099</v>
+        <v>0.295352</v>
       </c>
       <c r="C100" t="n">
-        <v>0.286931</v>
+        <v>0.288228</v>
       </c>
       <c r="D100" t="n">
-        <v>0.278448</v>
+        <v>0.280091</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.297245</v>
+        <v>0.298535</v>
       </c>
       <c r="C101" t="n">
-        <v>0.291278</v>
+        <v>0.292467</v>
       </c>
       <c r="D101" t="n">
-        <v>0.279697</v>
+        <v>0.281334</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301598</v>
+        <v>0.302779</v>
       </c>
       <c r="C102" t="n">
-        <v>0.297207</v>
+        <v>0.298421</v>
       </c>
       <c r="D102" t="n">
-        <v>0.281417</v>
+        <v>0.282956</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.307624</v>
+        <v>0.308532</v>
       </c>
       <c r="C103" t="n">
-        <v>0.305634</v>
+        <v>0.306661</v>
       </c>
       <c r="D103" t="n">
-        <v>0.283772</v>
+        <v>0.285402</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.316193</v>
+        <v>0.316795</v>
       </c>
       <c r="C104" t="n">
-        <v>0.317117</v>
+        <v>0.317662</v>
       </c>
       <c r="D104" t="n">
-        <v>0.287072</v>
+        <v>0.288733</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.328625</v>
+        <v>0.328949</v>
       </c>
       <c r="C105" t="n">
-        <v>0.332622</v>
+        <v>0.332879</v>
       </c>
       <c r="D105" t="n">
-        <v>0.292006</v>
+        <v>0.293619</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.346903</v>
+        <v>0.346755</v>
       </c>
       <c r="C106" t="n">
-        <v>0.353602</v>
+        <v>0.353804</v>
       </c>
       <c r="D106" t="n">
-        <v>0.299534</v>
+        <v>0.301149</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.374214</v>
+        <v>0.37346</v>
       </c>
       <c r="C107" t="n">
-        <v>0.384573</v>
+        <v>0.384942</v>
       </c>
       <c r="D107" t="n">
-        <v>0.312349</v>
+        <v>0.313713</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.415688</v>
+        <v>0.414349</v>
       </c>
       <c r="C108" t="n">
-        <v>0.431585</v>
+        <v>0.432216</v>
       </c>
       <c r="D108" t="n">
-        <v>0.279228</v>
+        <v>0.281163</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.475796</v>
+        <v>0.476201</v>
       </c>
       <c r="C109" t="n">
-        <v>0.499828</v>
+        <v>0.503718</v>
       </c>
       <c r="D109" t="n">
-        <v>0.280683</v>
+        <v>0.281914</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.304755</v>
+        <v>0.306393</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297898</v>
+        <v>0.299789</v>
       </c>
       <c r="D110" t="n">
-        <v>0.281653</v>
+        <v>0.282829</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.309736</v>
+        <v>0.310698</v>
       </c>
       <c r="C111" t="n">
-        <v>0.30315</v>
+        <v>0.304769</v>
       </c>
       <c r="D111" t="n">
-        <v>0.282561</v>
+        <v>0.283885</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.311395</v>
+        <v>0.316075</v>
       </c>
       <c r="C112" t="n">
-        <v>0.30995</v>
+        <v>0.311211</v>
       </c>
       <c r="D112" t="n">
-        <v>0.284436</v>
+        <v>0.285891</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.321884</v>
+        <v>0.321805</v>
       </c>
       <c r="C113" t="n">
-        <v>0.316972</v>
+        <v>0.318395</v>
       </c>
       <c r="D113" t="n">
-        <v>0.285904</v>
+        <v>0.287902</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.327697</v>
+        <v>0.329028</v>
       </c>
       <c r="C114" t="n">
-        <v>0.323912</v>
+        <v>0.325324</v>
       </c>
       <c r="D114" t="n">
-        <v>0.288233</v>
+        <v>0.28999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.335668</v>
+        <v>0.332427</v>
       </c>
       <c r="C115" t="n">
-        <v>0.33229</v>
+        <v>0.333833</v>
       </c>
       <c r="D115" t="n">
-        <v>0.292364</v>
+        <v>0.2934</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.339508</v>
+        <v>0.345255</v>
       </c>
       <c r="C116" t="n">
-        <v>0.341714</v>
+        <v>0.343054</v>
       </c>
       <c r="D116" t="n">
-        <v>0.295762</v>
+        <v>0.297736</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.353318</v>
+        <v>0.354418</v>
       </c>
       <c r="C117" t="n">
-        <v>0.352593</v>
+        <v>0.353938</v>
       </c>
       <c r="D117" t="n">
-        <v>0.301058</v>
+        <v>0.303299</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.36494</v>
+        <v>0.365992</v>
       </c>
       <c r="C118" t="n">
-        <v>0.365711</v>
+        <v>0.364615</v>
       </c>
       <c r="D118" t="n">
-        <v>0.307917</v>
+        <v>0.309879</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.379889</v>
+        <v>0.376287</v>
       </c>
       <c r="C119" t="n">
-        <v>0.379987</v>
+        <v>0.383793</v>
       </c>
       <c r="D119" t="n">
-        <v>0.317161</v>
+        <v>0.318181</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.395314</v>
+        <v>0.401303</v>
       </c>
       <c r="C120" t="n">
-        <v>0.405167</v>
+        <v>0.403632</v>
       </c>
       <c r="D120" t="n">
-        <v>0.328034</v>
+        <v>0.329457</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.428669</v>
+        <v>0.42418</v>
       </c>
       <c r="C121" t="n">
-        <v>0.433045</v>
+        <v>0.437871</v>
       </c>
       <c r="D121" t="n">
-        <v>0.344083</v>
+        <v>0.345285</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.470768</v>
+        <v>0.47155</v>
       </c>
       <c r="C122" t="n">
-        <v>0.480123</v>
+        <v>0.481867</v>
       </c>
       <c r="D122" t="n">
-        <v>0.366703</v>
+        <v>0.369071</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.534979</v>
+        <v>0.528817</v>
       </c>
       <c r="C123" t="n">
-        <v>0.560428</v>
+        <v>0.562852</v>
       </c>
       <c r="D123" t="n">
-        <v>0.309096</v>
+        <v>0.310643</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.34146</v>
+        <v>0.342557</v>
       </c>
       <c r="C124" t="n">
-        <v>0.346804</v>
+        <v>0.347941</v>
       </c>
       <c r="D124" t="n">
-        <v>0.312627</v>
+        <v>0.314758</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.359716</v>
+        <v>0.360604</v>
       </c>
       <c r="C125" t="n">
-        <v>0.352185</v>
+        <v>0.352566</v>
       </c>
       <c r="D125" t="n">
-        <v>0.317599</v>
+        <v>0.318238</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.363952</v>
+        <v>0.364921</v>
       </c>
       <c r="C126" t="n">
-        <v>0.356052</v>
+        <v>0.358217</v>
       </c>
       <c r="D126" t="n">
-        <v>0.319758</v>
+        <v>0.3223</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.37204</v>
+        <v>0.363993</v>
       </c>
       <c r="C127" t="n">
-        <v>0.364031</v>
+        <v>0.363926</v>
       </c>
       <c r="D127" t="n">
-        <v>0.325903</v>
+        <v>0.325627</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.373323</v>
+        <v>0.374896</v>
       </c>
       <c r="C128" t="n">
-        <v>0.368351</v>
+        <v>0.368613</v>
       </c>
       <c r="D128" t="n">
-        <v>0.326998</v>
+        <v>0.328824</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.383181</v>
+        <v>0.380618</v>
       </c>
       <c r="C129" t="n">
-        <v>0.375787</v>
+        <v>0.377921</v>
       </c>
       <c r="D129" t="n">
-        <v>0.331028</v>
+        <v>0.333627</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.371499</v>
+        <v>0.394764</v>
       </c>
       <c r="C130" t="n">
-        <v>0.382992</v>
+        <v>0.383663</v>
       </c>
       <c r="D130" t="n">
-        <v>0.334616</v>
+        <v>0.335177</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.389329</v>
+        <v>0.396683</v>
       </c>
       <c r="C131" t="n">
-        <v>0.393914</v>
+        <v>0.396524</v>
       </c>
       <c r="D131" t="n">
-        <v>0.339632</v>
+        <v>0.341946</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.405824</v>
+        <v>0.392289</v>
       </c>
       <c r="C132" t="n">
-        <v>0.406711</v>
+        <v>0.407642</v>
       </c>
       <c r="D132" t="n">
-        <v>0.344572</v>
+        <v>0.345712</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.419961</v>
+        <v>0.420854</v>
       </c>
       <c r="C133" t="n">
-        <v>0.424449</v>
+        <v>0.425636</v>
       </c>
       <c r="D133" t="n">
-        <v>0.351286</v>
+        <v>0.353148</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.441971</v>
+        <v>0.44452</v>
       </c>
       <c r="C134" t="n">
-        <v>0.450419</v>
+        <v>0.450313</v>
       </c>
       <c r="D134" t="n">
-        <v>0.362655</v>
+        <v>0.362539</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.471238</v>
+        <v>0.471012</v>
       </c>
       <c r="C135" t="n">
-        <v>0.480093</v>
+        <v>0.483938</v>
       </c>
       <c r="D135" t="n">
-        <v>0.37469</v>
+        <v>0.377867</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5098279999999999</v>
+        <v>0.5155650000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.532871</v>
+        <v>0.533435</v>
       </c>
       <c r="D136" t="n">
-        <v>0.399574</v>
+        <v>0.398824</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.574716</v>
+        <v>0.573245</v>
       </c>
       <c r="C137" t="n">
-        <v>0.604992</v>
+        <v>0.606015</v>
       </c>
       <c r="D137" t="n">
-        <v>0.459869</v>
+        <v>0.452274</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.533256</v>
+        <v>0.491745</v>
       </c>
       <c r="C138" t="n">
-        <v>0.500171</v>
+        <v>0.501655</v>
       </c>
       <c r="D138" t="n">
-        <v>0.458216</v>
+        <v>0.459874</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.529803</v>
+        <v>0.522602</v>
       </c>
       <c r="C139" t="n">
-        <v>0.500862</v>
+        <v>0.503919</v>
       </c>
       <c r="D139" t="n">
-        <v>0.455025</v>
+        <v>0.458793</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.531208</v>
+        <v>0.52013</v>
       </c>
       <c r="C140" t="n">
-        <v>0.511722</v>
+        <v>0.510008</v>
       </c>
       <c r="D140" t="n">
-        <v>0.464554</v>
+        <v>0.463399</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.543994</v>
+        <v>0.530212</v>
       </c>
       <c r="C141" t="n">
-        <v>0.518072</v>
+        <v>0.517313</v>
       </c>
       <c r="D141" t="n">
-        <v>0.467742</v>
+        <v>0.465429</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.535043</v>
+        <v>0.542753</v>
       </c>
       <c r="C142" t="n">
-        <v>0.525236</v>
+        <v>0.525711</v>
       </c>
       <c r="D142" t="n">
-        <v>0.471269</v>
+        <v>0.471565</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5482629999999999</v>
+        <v>0.547341</v>
       </c>
       <c r="C143" t="n">
-        <v>0.533597</v>
+        <v>0.536099</v>
       </c>
       <c r="D143" t="n">
-        <v>0.474576</v>
+        <v>0.476948</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.235546</v>
+        <v>0.235691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239176</v>
+        <v>0.239238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22588</v>
+        <v>0.225824</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239901</v>
+        <v>0.239952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.241647</v>
+        <v>0.242054</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226649</v>
+        <v>0.226574</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.248013</v>
+        <v>0.248082</v>
       </c>
       <c r="C4" t="n">
-        <v>0.253956</v>
+        <v>0.254159</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231729</v>
+        <v>0.231837</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260224</v>
+        <v>0.260432</v>
       </c>
       <c r="C5" t="n">
-        <v>0.267896</v>
+        <v>0.268028</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23629</v>
+        <v>0.236399</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.276464</v>
+        <v>0.276395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.286293</v>
+        <v>0.286192</v>
       </c>
       <c r="D6" t="n">
-        <v>0.242744</v>
+        <v>0.242654</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.297226</v>
+        <v>0.297374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.316136</v>
+        <v>0.316124</v>
       </c>
       <c r="D7" t="n">
-        <v>0.254531</v>
+        <v>0.25457</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.331463</v>
+        <v>0.331822</v>
       </c>
       <c r="C8" t="n">
-        <v>0.350866</v>
+        <v>0.351099</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270658</v>
+        <v>0.270615</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.385703</v>
+        <v>0.386053</v>
       </c>
       <c r="C9" t="n">
-        <v>0.407202</v>
+        <v>0.407268</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224826</v>
+        <v>0.224726</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231272</v>
+        <v>0.231053</v>
       </c>
       <c r="C10" t="n">
-        <v>0.226732</v>
+        <v>0.226837</v>
       </c>
       <c r="D10" t="n">
-        <v>0.224814</v>
+        <v>0.224849</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.231427</v>
+        <v>0.231602</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226967</v>
+        <v>0.22702</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224591</v>
+        <v>0.22444</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.233733</v>
+        <v>0.233677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.229303</v>
+        <v>0.229384</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226276</v>
+        <v>0.226409</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.233664</v>
+        <v>0.233796</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229877</v>
+        <v>0.230122</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225622</v>
+        <v>0.225903</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.236544</v>
+        <v>0.236545</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234363</v>
+        <v>0.234389</v>
       </c>
       <c r="D14" t="n">
-        <v>0.227722</v>
+        <v>0.22756</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.238689</v>
+        <v>0.238697</v>
       </c>
       <c r="C15" t="n">
-        <v>0.23779</v>
+        <v>0.237836</v>
       </c>
       <c r="D15" t="n">
-        <v>0.229265</v>
+        <v>0.229259</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.241881</v>
+        <v>0.241913</v>
       </c>
       <c r="C16" t="n">
-        <v>0.24244</v>
+        <v>0.242441</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2305</v>
+        <v>0.230587</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.245392</v>
+        <v>0.245348</v>
       </c>
       <c r="C17" t="n">
-        <v>0.247826</v>
+        <v>0.247861</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231987</v>
+        <v>0.232096</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.250393</v>
+        <v>0.250473</v>
       </c>
       <c r="C18" t="n">
-        <v>0.254064</v>
+        <v>0.254043</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233612</v>
+        <v>0.233693</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259848</v>
+        <v>0.259857</v>
       </c>
       <c r="C19" t="n">
-        <v>0.264863</v>
+        <v>0.264884</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23799</v>
+        <v>0.237939</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.271262</v>
+        <v>0.271275</v>
       </c>
       <c r="C20" t="n">
-        <v>0.280008</v>
+        <v>0.279973</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241991</v>
+        <v>0.241944</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.291756</v>
+        <v>0.291768</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299966</v>
+        <v>0.299908</v>
       </c>
       <c r="D21" t="n">
-        <v>0.249538</v>
+        <v>0.249544</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.326499</v>
+        <v>0.32652</v>
       </c>
       <c r="C22" t="n">
-        <v>0.327619</v>
+        <v>0.327516</v>
       </c>
       <c r="D22" t="n">
-        <v>0.262675</v>
+        <v>0.262632</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.367777</v>
+        <v>0.367867</v>
       </c>
       <c r="C23" t="n">
-        <v>0.383194</v>
+        <v>0.383114</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227772</v>
+        <v>0.227803</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.235282</v>
+        <v>0.23523</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228938</v>
+        <v>0.228831</v>
       </c>
       <c r="D24" t="n">
-        <v>0.228761</v>
+        <v>0.228742</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235456</v>
+        <v>0.235451</v>
       </c>
       <c r="C25" t="n">
-        <v>0.229404</v>
+        <v>0.229349</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22844</v>
+        <v>0.228439</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.23659</v>
+        <v>0.236545</v>
       </c>
       <c r="C26" t="n">
-        <v>0.230758</v>
+        <v>0.230602</v>
       </c>
       <c r="D26" t="n">
-        <v>0.22894</v>
+        <v>0.228864</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.238135</v>
+        <v>0.238022</v>
       </c>
       <c r="C27" t="n">
-        <v>0.23232</v>
+        <v>0.232191</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229301</v>
+        <v>0.229258</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.240196</v>
+        <v>0.240139</v>
       </c>
       <c r="C28" t="n">
-        <v>0.234829</v>
+        <v>0.234676</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230671</v>
+        <v>0.230662</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.241572</v>
+        <v>0.241449</v>
       </c>
       <c r="C29" t="n">
-        <v>0.23758</v>
+        <v>0.237342</v>
       </c>
       <c r="D29" t="n">
-        <v>0.231061</v>
+        <v>0.23105</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.24414</v>
+        <v>0.244015</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240773</v>
+        <v>0.240647</v>
       </c>
       <c r="D30" t="n">
-        <v>0.232273</v>
+        <v>0.232289</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.24747</v>
+        <v>0.247317</v>
       </c>
       <c r="C31" t="n">
-        <v>0.245072</v>
+        <v>0.245048</v>
       </c>
       <c r="D31" t="n">
-        <v>0.233407</v>
+        <v>0.233422</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.253178</v>
+        <v>0.252973</v>
       </c>
       <c r="C32" t="n">
-        <v>0.251706</v>
+        <v>0.251617</v>
       </c>
       <c r="D32" t="n">
-        <v>0.23577</v>
+        <v>0.235741</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.260651</v>
+        <v>0.260372</v>
       </c>
       <c r="C33" t="n">
-        <v>0.262087</v>
+        <v>0.261989</v>
       </c>
       <c r="D33" t="n">
-        <v>0.239014</v>
+        <v>0.238993</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270549</v>
+        <v>0.270257</v>
       </c>
       <c r="C34" t="n">
-        <v>0.274029</v>
+        <v>0.273834</v>
       </c>
       <c r="D34" t="n">
-        <v>0.242849</v>
+        <v>0.242771</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.286133</v>
+        <v>0.285853</v>
       </c>
       <c r="C35" t="n">
-        <v>0.291477</v>
+        <v>0.291263</v>
       </c>
       <c r="D35" t="n">
-        <v>0.248356</v>
+        <v>0.248252</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.310589</v>
+        <v>0.310186</v>
       </c>
       <c r="C36" t="n">
-        <v>0.320161</v>
+        <v>0.319934</v>
       </c>
       <c r="D36" t="n">
-        <v>0.259187</v>
+        <v>0.259076</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.351685</v>
+        <v>0.351368</v>
       </c>
       <c r="C37" t="n">
-        <v>0.365773</v>
+        <v>0.365555</v>
       </c>
       <c r="D37" t="n">
-        <v>0.230389</v>
+        <v>0.230299</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.236654</v>
+        <v>0.236718</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230341</v>
+        <v>0.230362</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230215</v>
+        <v>0.230214</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237998</v>
+        <v>0.238201</v>
       </c>
       <c r="C39" t="n">
-        <v>0.232029</v>
+        <v>0.232073</v>
       </c>
       <c r="D39" t="n">
-        <v>0.231273</v>
+        <v>0.231122</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238694</v>
+        <v>0.238767</v>
       </c>
       <c r="C40" t="n">
-        <v>0.232936</v>
+        <v>0.232882</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231322</v>
+        <v>0.231198</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2401</v>
+        <v>0.240159</v>
       </c>
       <c r="C41" t="n">
-        <v>0.234302</v>
+        <v>0.234215</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231879</v>
+        <v>0.231785</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.241864</v>
+        <v>0.241992</v>
       </c>
       <c r="C42" t="n">
-        <v>0.236086</v>
+        <v>0.236004</v>
       </c>
       <c r="D42" t="n">
-        <v>0.23269</v>
+        <v>0.232565</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.244052</v>
+        <v>0.244075</v>
       </c>
       <c r="C43" t="n">
-        <v>0.238559</v>
+        <v>0.238385</v>
       </c>
       <c r="D43" t="n">
-        <v>0.233434</v>
+        <v>0.233273</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.246844</v>
+        <v>0.246914</v>
       </c>
       <c r="C44" t="n">
-        <v>0.242108</v>
+        <v>0.241979</v>
       </c>
       <c r="D44" t="n">
-        <v>0.234603</v>
+        <v>0.234503</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.250213</v>
+        <v>0.25029</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246418</v>
+        <v>0.246333</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235999</v>
+        <v>0.235944</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.255156</v>
+        <v>0.255245</v>
       </c>
       <c r="C46" t="n">
-        <v>0.252636</v>
+        <v>0.252583</v>
       </c>
       <c r="D46" t="n">
-        <v>0.238089</v>
+        <v>0.238077</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261656</v>
+        <v>0.261808</v>
       </c>
       <c r="C47" t="n">
-        <v>0.260918</v>
+        <v>0.260857</v>
       </c>
       <c r="D47" t="n">
-        <v>0.240507</v>
+        <v>0.240527</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271795</v>
+        <v>0.271881</v>
       </c>
       <c r="C48" t="n">
-        <v>0.272908</v>
+        <v>0.272774</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244396</v>
+        <v>0.24433</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.286608</v>
+        <v>0.286668</v>
       </c>
       <c r="C49" t="n">
-        <v>0.289726</v>
+        <v>0.289579</v>
       </c>
       <c r="D49" t="n">
-        <v>0.249893</v>
+        <v>0.249941</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.309721</v>
+        <v>0.30983</v>
       </c>
       <c r="C50" t="n">
-        <v>0.317862</v>
+        <v>0.317711</v>
       </c>
       <c r="D50" t="n">
-        <v>0.260338</v>
+        <v>0.26027</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.345402</v>
+        <v>0.345559</v>
       </c>
       <c r="C51" t="n">
-        <v>0.356032</v>
+        <v>0.35567</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232247</v>
+        <v>0.232602</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.402202</v>
+        <v>0.402234</v>
       </c>
       <c r="C52" t="n">
-        <v>0.422648</v>
+        <v>0.422737</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232832</v>
+        <v>0.232718</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243244</v>
+        <v>0.241392</v>
       </c>
       <c r="C53" t="n">
-        <v>0.234642</v>
+        <v>0.234734</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233084</v>
+        <v>0.233069</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.244884</v>
+        <v>0.242927</v>
       </c>
       <c r="C54" t="n">
-        <v>0.236153</v>
+        <v>0.236196</v>
       </c>
       <c r="D54" t="n">
-        <v>0.233712</v>
+        <v>0.233815</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.245829</v>
+        <v>0.244238</v>
       </c>
       <c r="C55" t="n">
-        <v>0.237567</v>
+        <v>0.237691</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234326</v>
+        <v>0.234394</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.24717</v>
+        <v>0.245229</v>
       </c>
       <c r="C56" t="n">
-        <v>0.239292</v>
+        <v>0.239288</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235075</v>
+        <v>0.235159</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.249005</v>
+        <v>0.247108</v>
       </c>
       <c r="C57" t="n">
-        <v>0.241841</v>
+        <v>0.241909</v>
       </c>
       <c r="D57" t="n">
-        <v>0.235947</v>
+        <v>0.236059</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.251437</v>
+        <v>0.249515</v>
       </c>
       <c r="C58" t="n">
-        <v>0.245247</v>
+        <v>0.24525</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237102</v>
+        <v>0.237158</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.254642</v>
+        <v>0.252618</v>
       </c>
       <c r="C59" t="n">
-        <v>0.249692</v>
+        <v>0.249645</v>
       </c>
       <c r="D59" t="n">
-        <v>0.238323</v>
+        <v>0.238338</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.25936</v>
+        <v>0.257485</v>
       </c>
       <c r="C60" t="n">
-        <v>0.255283</v>
+        <v>0.255185</v>
       </c>
       <c r="D60" t="n">
-        <v>0.240262</v>
+        <v>0.240295</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.265897</v>
+        <v>0.264058</v>
       </c>
       <c r="C61" t="n">
-        <v>0.262853</v>
+        <v>0.262808</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242476</v>
+        <v>0.24251</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274558</v>
+        <v>0.272726</v>
       </c>
       <c r="C62" t="n">
-        <v>0.273603</v>
+        <v>0.273634</v>
       </c>
       <c r="D62" t="n">
-        <v>0.246041</v>
+        <v>0.24601</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.287756</v>
+        <v>0.285973</v>
       </c>
       <c r="C63" t="n">
-        <v>0.289608</v>
+        <v>0.289559</v>
       </c>
       <c r="D63" t="n">
-        <v>0.251899</v>
+        <v>0.251877</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.308109</v>
+        <v>0.306494</v>
       </c>
       <c r="C64" t="n">
-        <v>0.313707</v>
+        <v>0.313463</v>
       </c>
       <c r="D64" t="n">
-        <v>0.261116</v>
+        <v>0.261077</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.339914</v>
+        <v>0.338263</v>
       </c>
       <c r="C65" t="n">
-        <v>0.350548</v>
+        <v>0.350512</v>
       </c>
       <c r="D65" t="n">
-        <v>0.277359</v>
+        <v>0.277339</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.389485</v>
+        <v>0.387893</v>
       </c>
       <c r="C66" t="n">
-        <v>0.40845</v>
+        <v>0.408283</v>
       </c>
       <c r="D66" t="n">
-        <v>0.253022</v>
+        <v>0.245595</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.258137</v>
+        <v>0.258616</v>
       </c>
       <c r="C67" t="n">
-        <v>0.254962</v>
+        <v>0.249901</v>
       </c>
       <c r="D67" t="n">
-        <v>0.253494</v>
+        <v>0.246879</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.258439</v>
+        <v>0.258896</v>
       </c>
       <c r="C68" t="n">
-        <v>0.25595</v>
+        <v>0.250604</v>
       </c>
       <c r="D68" t="n">
-        <v>0.253799</v>
+        <v>0.246828</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.259767</v>
+        <v>0.260163</v>
       </c>
       <c r="C69" t="n">
-        <v>0.257514</v>
+        <v>0.252335</v>
       </c>
       <c r="D69" t="n">
-        <v>0.25444</v>
+        <v>0.247583</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.261207</v>
+        <v>0.261727</v>
       </c>
       <c r="C70" t="n">
-        <v>0.259277</v>
+        <v>0.254273</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255007</v>
+        <v>0.24831</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.262961</v>
+        <v>0.263475</v>
       </c>
       <c r="C71" t="n">
-        <v>0.261694</v>
+        <v>0.256827</v>
       </c>
       <c r="D71" t="n">
-        <v>0.255764</v>
+        <v>0.24914</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.265509</v>
+        <v>0.266176</v>
       </c>
       <c r="C72" t="n">
-        <v>0.264704</v>
+        <v>0.260093</v>
       </c>
       <c r="D72" t="n">
-        <v>0.256808</v>
+        <v>0.250368</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2685</v>
+        <v>0.269083</v>
       </c>
       <c r="C73" t="n">
-        <v>0.268712</v>
+        <v>0.264281</v>
       </c>
       <c r="D73" t="n">
-        <v>0.258138</v>
+        <v>0.251851</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272539</v>
+        <v>0.273069</v>
       </c>
       <c r="C74" t="n">
-        <v>0.274262</v>
+        <v>0.270033</v>
       </c>
       <c r="D74" t="n">
-        <v>0.259875</v>
+        <v>0.253691</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278269</v>
+        <v>0.278854</v>
       </c>
       <c r="C75" t="n">
-        <v>0.282286</v>
+        <v>0.27828</v>
       </c>
       <c r="D75" t="n">
-        <v>0.262333</v>
+        <v>0.256347</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.286703</v>
+        <v>0.287298</v>
       </c>
       <c r="C76" t="n">
-        <v>0.292891</v>
+        <v>0.289107</v>
       </c>
       <c r="D76" t="n">
-        <v>0.265825</v>
+        <v>0.26006</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.299101</v>
+        <v>0.299666</v>
       </c>
       <c r="C77" t="n">
-        <v>0.307874</v>
+        <v>0.304266</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271107</v>
+        <v>0.265434</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318067</v>
+        <v>0.318659</v>
       </c>
       <c r="C78" t="n">
-        <v>0.329896</v>
+        <v>0.326411</v>
       </c>
       <c r="D78" t="n">
-        <v>0.279694</v>
+        <v>0.27409</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.346</v>
+        <v>0.34664</v>
       </c>
       <c r="C79" t="n">
-        <v>0.364307</v>
+        <v>0.361211</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2942</v>
+        <v>0.288524</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.390822</v>
+        <v>0.391454</v>
       </c>
       <c r="C80" t="n">
-        <v>0.417329</v>
+        <v>0.413547</v>
       </c>
       <c r="D80" t="n">
-        <v>0.266155</v>
+        <v>0.266558</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.27705</v>
+        <v>0.27693</v>
       </c>
       <c r="C81" t="n">
-        <v>0.267363</v>
+        <v>0.267876</v>
       </c>
       <c r="D81" t="n">
-        <v>0.26648</v>
+        <v>0.266959</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.27771</v>
+        <v>0.277778</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268452</v>
+        <v>0.268936</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26691</v>
+        <v>0.267403</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.278809</v>
+        <v>0.278779</v>
       </c>
       <c r="C83" t="n">
-        <v>0.269753</v>
+        <v>0.270273</v>
       </c>
       <c r="D83" t="n">
-        <v>0.267426</v>
+        <v>0.267878</v>
       </c>
     </row>
     <row r="84">
@@ -4399,10 +4399,10 @@
         <v>0.280109</v>
       </c>
       <c r="C84" t="n">
-        <v>0.271482</v>
+        <v>0.271947</v>
       </c>
       <c r="D84" t="n">
-        <v>0.268099</v>
+        <v>0.268579</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.281714</v>
+        <v>0.281768</v>
       </c>
       <c r="C85" t="n">
-        <v>0.273547</v>
+        <v>0.274038</v>
       </c>
       <c r="D85" t="n">
-        <v>0.268832</v>
+        <v>0.269317</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.283712</v>
+        <v>0.283779</v>
       </c>
       <c r="C86" t="n">
-        <v>0.276185</v>
+        <v>0.276767</v>
       </c>
       <c r="D86" t="n">
-        <v>0.269712</v>
+        <v>0.270257</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.286365</v>
+        <v>0.286441</v>
       </c>
       <c r="C87" t="n">
-        <v>0.279846</v>
+        <v>0.280435</v>
       </c>
       <c r="D87" t="n">
-        <v>0.270909</v>
+        <v>0.271461</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.290052</v>
+        <v>0.290213</v>
       </c>
       <c r="C88" t="n">
-        <v>0.284901</v>
+        <v>0.285548</v>
       </c>
       <c r="D88" t="n">
-        <v>0.272538</v>
+        <v>0.273051</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.295291</v>
+        <v>0.295458</v>
       </c>
       <c r="C89" t="n">
-        <v>0.292221</v>
+        <v>0.292853</v>
       </c>
       <c r="D89" t="n">
-        <v>0.274895</v>
+        <v>0.275442</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.303008</v>
+        <v>0.303174</v>
       </c>
       <c r="C90" t="n">
-        <v>0.30197</v>
+        <v>0.302635</v>
       </c>
       <c r="D90" t="n">
-        <v>0.278144</v>
+        <v>0.278636</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.314158</v>
+        <v>0.314451</v>
       </c>
       <c r="C91" t="n">
-        <v>0.315738</v>
+        <v>0.31663</v>
       </c>
       <c r="D91" t="n">
-        <v>0.282876</v>
+        <v>0.283417</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.330823</v>
+        <v>0.331169</v>
       </c>
       <c r="C92" t="n">
-        <v>0.335423</v>
+        <v>0.336192</v>
       </c>
       <c r="D92" t="n">
-        <v>0.290331</v>
+        <v>0.290969</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.35633</v>
+        <v>0.356774</v>
       </c>
       <c r="C93" t="n">
-        <v>0.366117</v>
+        <v>0.367049</v>
       </c>
       <c r="D93" t="n">
-        <v>0.302773</v>
+        <v>0.303442</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.396801</v>
+        <v>0.397173</v>
       </c>
       <c r="C94" t="n">
-        <v>0.415215</v>
+        <v>0.416333</v>
       </c>
       <c r="D94" t="n">
-        <v>0.276025</v>
+        <v>0.276032</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.287552</v>
+        <v>0.287949</v>
       </c>
       <c r="C95" t="n">
-        <v>0.27771</v>
+        <v>0.278566</v>
       </c>
       <c r="D95" t="n">
-        <v>0.276464</v>
+        <v>0.276529</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.288502</v>
+        <v>0.28899</v>
       </c>
       <c r="C96" t="n">
-        <v>0.279012</v>
+        <v>0.279996</v>
       </c>
       <c r="D96" t="n">
-        <v>0.276968</v>
+        <v>0.277111</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.289816</v>
+        <v>0.29036</v>
       </c>
       <c r="C97" t="n">
-        <v>0.280584</v>
+        <v>0.281684</v>
       </c>
       <c r="D97" t="n">
-        <v>0.277556</v>
+        <v>0.277815</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.291151</v>
+        <v>0.291949</v>
       </c>
       <c r="C98" t="n">
-        <v>0.282548</v>
+        <v>0.283842</v>
       </c>
       <c r="D98" t="n">
-        <v>0.278293</v>
+        <v>0.278489</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.292997</v>
+        <v>0.293979</v>
       </c>
       <c r="C99" t="n">
-        <v>0.285094</v>
+        <v>0.286496</v>
       </c>
       <c r="D99" t="n">
-        <v>0.279107</v>
+        <v>0.279367</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.295352</v>
+        <v>0.296643</v>
       </c>
       <c r="C100" t="n">
-        <v>0.288228</v>
+        <v>0.290012</v>
       </c>
       <c r="D100" t="n">
-        <v>0.280091</v>
+        <v>0.280449</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.298535</v>
+        <v>0.299968</v>
       </c>
       <c r="C101" t="n">
-        <v>0.292467</v>
+        <v>0.294565</v>
       </c>
       <c r="D101" t="n">
-        <v>0.281334</v>
+        <v>0.281696</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302779</v>
+        <v>0.304571</v>
       </c>
       <c r="C102" t="n">
-        <v>0.298421</v>
+        <v>0.300684</v>
       </c>
       <c r="D102" t="n">
-        <v>0.282956</v>
+        <v>0.283487</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.308532</v>
+        <v>0.310731</v>
       </c>
       <c r="C103" t="n">
-        <v>0.306661</v>
+        <v>0.308914</v>
       </c>
       <c r="D103" t="n">
-        <v>0.285402</v>
+        <v>0.28608</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.316795</v>
+        <v>0.319346</v>
       </c>
       <c r="C104" t="n">
-        <v>0.317662</v>
+        <v>0.319829</v>
       </c>
       <c r="D104" t="n">
-        <v>0.288733</v>
+        <v>0.289529</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.328949</v>
+        <v>0.331604</v>
       </c>
       <c r="C105" t="n">
-        <v>0.332879</v>
+        <v>0.33472</v>
       </c>
       <c r="D105" t="n">
-        <v>0.293619</v>
+        <v>0.29461</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.346755</v>
+        <v>0.34976</v>
       </c>
       <c r="C106" t="n">
-        <v>0.353804</v>
+        <v>0.355819</v>
       </c>
       <c r="D106" t="n">
-        <v>0.301149</v>
+        <v>0.302243</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.37346</v>
+        <v>0.376276</v>
       </c>
       <c r="C107" t="n">
-        <v>0.384942</v>
+        <v>0.386433</v>
       </c>
       <c r="D107" t="n">
-        <v>0.313713</v>
+        <v>0.314984</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.414349</v>
+        <v>0.417454</v>
       </c>
       <c r="C108" t="n">
-        <v>0.432216</v>
+        <v>0.434113</v>
       </c>
       <c r="D108" t="n">
-        <v>0.281163</v>
+        <v>0.281545</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.476201</v>
+        <v>0.474702</v>
       </c>
       <c r="C109" t="n">
-        <v>0.503718</v>
+        <v>0.505027</v>
       </c>
       <c r="D109" t="n">
-        <v>0.281914</v>
+        <v>0.282345</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.306393</v>
+        <v>0.303546</v>
       </c>
       <c r="C110" t="n">
-        <v>0.299789</v>
+        <v>0.299123</v>
       </c>
       <c r="D110" t="n">
-        <v>0.282829</v>
+        <v>0.28314</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.310698</v>
+        <v>0.311717</v>
       </c>
       <c r="C111" t="n">
-        <v>0.304769</v>
+        <v>0.305763</v>
       </c>
       <c r="D111" t="n">
-        <v>0.283885</v>
+        <v>0.284575</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.316075</v>
+        <v>0.316122</v>
       </c>
       <c r="C112" t="n">
-        <v>0.311211</v>
+        <v>0.311027</v>
       </c>
       <c r="D112" t="n">
-        <v>0.285891</v>
+        <v>0.286352</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.321805</v>
+        <v>0.322264</v>
       </c>
       <c r="C113" t="n">
-        <v>0.318395</v>
+        <v>0.317944</v>
       </c>
       <c r="D113" t="n">
-        <v>0.287902</v>
+        <v>0.288096</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.329028</v>
+        <v>0.329875</v>
       </c>
       <c r="C114" t="n">
-        <v>0.325324</v>
+        <v>0.325389</v>
       </c>
       <c r="D114" t="n">
-        <v>0.28999</v>
+        <v>0.290191</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.332427</v>
+        <v>0.336727</v>
       </c>
       <c r="C115" t="n">
-        <v>0.333833</v>
+        <v>0.333359</v>
       </c>
       <c r="D115" t="n">
-        <v>0.2934</v>
+        <v>0.293737</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.345255</v>
+        <v>0.344989</v>
       </c>
       <c r="C116" t="n">
-        <v>0.343054</v>
+        <v>0.342619</v>
       </c>
       <c r="D116" t="n">
-        <v>0.297736</v>
+        <v>0.298193</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.354418</v>
+        <v>0.354304</v>
       </c>
       <c r="C117" t="n">
-        <v>0.353938</v>
+        <v>0.352058</v>
       </c>
       <c r="D117" t="n">
-        <v>0.303299</v>
+        <v>0.303321</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.365992</v>
+        <v>0.36098</v>
       </c>
       <c r="C118" t="n">
-        <v>0.364615</v>
+        <v>0.366639</v>
       </c>
       <c r="D118" t="n">
-        <v>0.309879</v>
+        <v>0.309912</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.376287</v>
+        <v>0.381038</v>
       </c>
       <c r="C119" t="n">
-        <v>0.383793</v>
+        <v>0.383559</v>
       </c>
       <c r="D119" t="n">
-        <v>0.318181</v>
+        <v>0.318431</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.401303</v>
+        <v>0.401041</v>
       </c>
       <c r="C120" t="n">
-        <v>0.403632</v>
+        <v>0.405897</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329457</v>
+        <v>0.329459</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.42418</v>
+        <v>0.428944</v>
       </c>
       <c r="C121" t="n">
-        <v>0.437871</v>
+        <v>0.43745</v>
       </c>
       <c r="D121" t="n">
-        <v>0.345285</v>
+        <v>0.345036</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.47155</v>
+        <v>0.471257</v>
       </c>
       <c r="C122" t="n">
-        <v>0.481867</v>
+        <v>0.481704</v>
       </c>
       <c r="D122" t="n">
-        <v>0.369071</v>
+        <v>0.368846</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.528817</v>
+        <v>0.528417</v>
       </c>
       <c r="C123" t="n">
-        <v>0.562852</v>
+        <v>0.561733</v>
       </c>
       <c r="D123" t="n">
-        <v>0.310643</v>
+        <v>0.310878</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.342557</v>
+        <v>0.356001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.347941</v>
+        <v>0.350343</v>
       </c>
       <c r="D124" t="n">
-        <v>0.314758</v>
+        <v>0.317353</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.360604</v>
+        <v>0.360689</v>
       </c>
       <c r="C125" t="n">
-        <v>0.352566</v>
+        <v>0.352178</v>
       </c>
       <c r="D125" t="n">
-        <v>0.318238</v>
+        <v>0.317635</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.364921</v>
+        <v>0.36451</v>
       </c>
       <c r="C126" t="n">
-        <v>0.358217</v>
+        <v>0.357984</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3223</v>
+        <v>0.322075</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.363993</v>
+        <v>0.371117</v>
       </c>
       <c r="C127" t="n">
-        <v>0.363926</v>
+        <v>0.362693</v>
       </c>
       <c r="D127" t="n">
-        <v>0.325627</v>
+        <v>0.32563</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.374896</v>
+        <v>0.381808</v>
       </c>
       <c r="C128" t="n">
-        <v>0.368613</v>
+        <v>0.369436</v>
       </c>
       <c r="D128" t="n">
-        <v>0.328824</v>
+        <v>0.329287</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.380618</v>
+        <v>0.36553</v>
       </c>
       <c r="C129" t="n">
-        <v>0.377921</v>
+        <v>0.375981</v>
       </c>
       <c r="D129" t="n">
-        <v>0.333627</v>
+        <v>0.332064</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.394764</v>
+        <v>0.391722</v>
       </c>
       <c r="C130" t="n">
-        <v>0.383663</v>
+        <v>0.383988</v>
       </c>
       <c r="D130" t="n">
-        <v>0.335177</v>
+        <v>0.336909</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.396683</v>
+        <v>0.381571</v>
       </c>
       <c r="C131" t="n">
-        <v>0.396524</v>
+        <v>0.393978</v>
       </c>
       <c r="D131" t="n">
-        <v>0.341946</v>
+        <v>0.339537</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.392289</v>
+        <v>0.40669</v>
       </c>
       <c r="C132" t="n">
-        <v>0.407642</v>
+        <v>0.408065</v>
       </c>
       <c r="D132" t="n">
-        <v>0.345712</v>
+        <v>0.345439</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.420854</v>
+        <v>0.421848</v>
       </c>
       <c r="C133" t="n">
-        <v>0.425636</v>
+        <v>0.425962</v>
       </c>
       <c r="D133" t="n">
-        <v>0.353148</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.44452</v>
+        <v>0.444275</v>
       </c>
       <c r="C134" t="n">
-        <v>0.450313</v>
+        <v>0.450078</v>
       </c>
       <c r="D134" t="n">
-        <v>0.362539</v>
+        <v>0.363195</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.471012</v>
+        <v>0.469617</v>
       </c>
       <c r="C135" t="n">
-        <v>0.483938</v>
+        <v>0.482449</v>
       </c>
       <c r="D135" t="n">
-        <v>0.377867</v>
+        <v>0.376541</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5155650000000001</v>
+        <v>0.511788</v>
       </c>
       <c r="C136" t="n">
-        <v>0.533435</v>
+        <v>0.531121</v>
       </c>
       <c r="D136" t="n">
-        <v>0.398824</v>
+        <v>0.397818</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.573245</v>
+        <v>0.57346</v>
       </c>
       <c r="C137" t="n">
-        <v>0.606015</v>
+        <v>0.60503</v>
       </c>
       <c r="D137" t="n">
-        <v>0.452274</v>
+        <v>0.457307</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.491745</v>
+        <v>0.508135</v>
       </c>
       <c r="C138" t="n">
-        <v>0.501655</v>
+        <v>0.496628</v>
       </c>
       <c r="D138" t="n">
-        <v>0.459874</v>
+        <v>0.453957</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.522602</v>
+        <v>0.518333</v>
       </c>
       <c r="C139" t="n">
-        <v>0.503919</v>
+        <v>0.506656</v>
       </c>
       <c r="D139" t="n">
-        <v>0.458793</v>
+        <v>0.463914</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.52013</v>
+        <v>0.535471</v>
       </c>
       <c r="C140" t="n">
-        <v>0.510008</v>
+        <v>0.507377</v>
       </c>
       <c r="D140" t="n">
-        <v>0.463399</v>
+        <v>0.460006</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.530212</v>
+        <v>0.53672</v>
       </c>
       <c r="C141" t="n">
-        <v>0.517313</v>
+        <v>0.5198430000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.465429</v>
+        <v>0.470096</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.542753</v>
+        <v>0.549159</v>
       </c>
       <c r="C142" t="n">
-        <v>0.525711</v>
+        <v>0.52308</v>
       </c>
       <c r="D142" t="n">
-        <v>0.471565</v>
+        <v>0.468861</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.547341</v>
+        <v>0.550106</v>
       </c>
       <c r="C143" t="n">
-        <v>0.536099</v>
+        <v>0.53644</v>
       </c>
       <c r="D143" t="n">
-        <v>0.476948</v>
+        <v>0.478253</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.235691</v>
+        <v>0.235531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239238</v>
+        <v>0.239001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.225824</v>
+        <v>0.225911</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239952</v>
+        <v>0.239722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.242054</v>
+        <v>0.241748</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226574</v>
+        <v>0.226705</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.248082</v>
+        <v>0.247904</v>
       </c>
       <c r="C4" t="n">
-        <v>0.254159</v>
+        <v>0.253982</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231837</v>
+        <v>0.231887</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260432</v>
+        <v>0.260115</v>
       </c>
       <c r="C5" t="n">
-        <v>0.268028</v>
+        <v>0.26811</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236399</v>
+        <v>0.236476</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.276395</v>
+        <v>0.276338</v>
       </c>
       <c r="C6" t="n">
-        <v>0.286192</v>
+        <v>0.286014</v>
       </c>
       <c r="D6" t="n">
-        <v>0.242654</v>
+        <v>0.24264</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.297374</v>
+        <v>0.297254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.316124</v>
+        <v>0.315505</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25457</v>
+        <v>0.254549</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.331822</v>
+        <v>0.331393</v>
       </c>
       <c r="C8" t="n">
-        <v>0.351099</v>
+        <v>0.351024</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270615</v>
+        <v>0.270761</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.386053</v>
+        <v>0.385559</v>
       </c>
       <c r="C9" t="n">
-        <v>0.407268</v>
+        <v>0.406796</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224726</v>
+        <v>0.224609</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231053</v>
+        <v>0.231154</v>
       </c>
       <c r="C10" t="n">
-        <v>0.226837</v>
+        <v>0.22661</v>
       </c>
       <c r="D10" t="n">
-        <v>0.224849</v>
+        <v>0.224817</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.231602</v>
+        <v>0.231392</v>
       </c>
       <c r="C11" t="n">
-        <v>0.22702</v>
+        <v>0.227083</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22444</v>
+        <v>0.224652</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.233677</v>
+        <v>0.233769</v>
       </c>
       <c r="C12" t="n">
-        <v>0.229384</v>
+        <v>0.229437</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226409</v>
+        <v>0.226397</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.233796</v>
+        <v>0.233754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.230122</v>
+        <v>0.230055</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225903</v>
+        <v>0.225802</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.236545</v>
+        <v>0.23653</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234389</v>
+        <v>0.234375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22756</v>
+        <v>0.227516</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.238697</v>
+        <v>0.238608</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237836</v>
+        <v>0.237738</v>
       </c>
       <c r="D15" t="n">
-        <v>0.229259</v>
+        <v>0.229267</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.241913</v>
+        <v>0.241953</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242441</v>
+        <v>0.24229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.230587</v>
+        <v>0.23055</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.245348</v>
+        <v>0.245274</v>
       </c>
       <c r="C17" t="n">
-        <v>0.247861</v>
+        <v>0.247828</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232096</v>
+        <v>0.232191</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.250473</v>
+        <v>0.250392</v>
       </c>
       <c r="C18" t="n">
-        <v>0.254043</v>
+        <v>0.254021</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233693</v>
+        <v>0.233676</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259857</v>
+        <v>0.259761</v>
       </c>
       <c r="C19" t="n">
-        <v>0.264884</v>
+        <v>0.26489</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237939</v>
+        <v>0.237952</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.271275</v>
+        <v>0.271165</v>
       </c>
       <c r="C20" t="n">
-        <v>0.279973</v>
+        <v>0.279969</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241944</v>
+        <v>0.241943</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.291768</v>
+        <v>0.291698</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299908</v>
+        <v>0.299821</v>
       </c>
       <c r="D21" t="n">
-        <v>0.249544</v>
+        <v>0.249532</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.32652</v>
+        <v>0.326482</v>
       </c>
       <c r="C22" t="n">
-        <v>0.327516</v>
+        <v>0.327592</v>
       </c>
       <c r="D22" t="n">
-        <v>0.262632</v>
+        <v>0.26262</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.367867</v>
+        <v>0.367802</v>
       </c>
       <c r="C23" t="n">
-        <v>0.383114</v>
+        <v>0.383196</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227803</v>
+        <v>0.227733</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.23523</v>
+        <v>0.23527</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228831</v>
+        <v>0.228728</v>
       </c>
       <c r="D24" t="n">
-        <v>0.228742</v>
+        <v>0.228787</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235451</v>
+        <v>0.235448</v>
       </c>
       <c r="C25" t="n">
-        <v>0.229349</v>
+        <v>0.229249</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228439</v>
+        <v>0.228393</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236545</v>
+        <v>0.236541</v>
       </c>
       <c r="C26" t="n">
-        <v>0.230602</v>
+        <v>0.230563</v>
       </c>
       <c r="D26" t="n">
-        <v>0.228864</v>
+        <v>0.228855</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.238022</v>
+        <v>0.237996</v>
       </c>
       <c r="C27" t="n">
-        <v>0.232191</v>
+        <v>0.232048</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229258</v>
+        <v>0.229111</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.240139</v>
+        <v>0.240202</v>
       </c>
       <c r="C28" t="n">
-        <v>0.234676</v>
+        <v>0.2347</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230662</v>
+        <v>0.230573</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.241449</v>
+        <v>0.241482</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237342</v>
+        <v>0.237384</v>
       </c>
       <c r="D29" t="n">
-        <v>0.23105</v>
+        <v>0.230972</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.244015</v>
+        <v>0.244096</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240647</v>
+        <v>0.240706</v>
       </c>
       <c r="D30" t="n">
-        <v>0.232289</v>
+        <v>0.232184</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.247317</v>
+        <v>0.247425</v>
       </c>
       <c r="C31" t="n">
-        <v>0.245048</v>
+        <v>0.245052</v>
       </c>
       <c r="D31" t="n">
-        <v>0.233422</v>
+        <v>0.233375</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.252973</v>
+        <v>0.252987</v>
       </c>
       <c r="C32" t="n">
-        <v>0.251617</v>
+        <v>0.251577</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235741</v>
+        <v>0.235624</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.260372</v>
+        <v>0.260407</v>
       </c>
       <c r="C33" t="n">
-        <v>0.261989</v>
+        <v>0.261937</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238993</v>
+        <v>0.238888</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270257</v>
+        <v>0.270274</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273834</v>
+        <v>0.273863</v>
       </c>
       <c r="D34" t="n">
-        <v>0.242771</v>
+        <v>0.242675</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.285853</v>
+        <v>0.285877</v>
       </c>
       <c r="C35" t="n">
-        <v>0.291263</v>
+        <v>0.291353</v>
       </c>
       <c r="D35" t="n">
-        <v>0.248252</v>
+        <v>0.248185</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.310186</v>
+        <v>0.310216</v>
       </c>
       <c r="C36" t="n">
-        <v>0.319934</v>
+        <v>0.319928</v>
       </c>
       <c r="D36" t="n">
-        <v>0.259076</v>
+        <v>0.259059</v>
       </c>
     </row>
     <row r="37">
@@ -3741,10 +3741,10 @@
         <v>0.351368</v>
       </c>
       <c r="C37" t="n">
-        <v>0.365555</v>
+        <v>0.365568</v>
       </c>
       <c r="D37" t="n">
-        <v>0.230299</v>
+        <v>0.230308</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.236718</v>
+        <v>0.236744</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230362</v>
+        <v>0.230293</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230214</v>
+        <v>0.230145</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238201</v>
+        <v>0.238176</v>
       </c>
       <c r="C39" t="n">
-        <v>0.232073</v>
+        <v>0.231994</v>
       </c>
       <c r="D39" t="n">
-        <v>0.231122</v>
+        <v>0.231102</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238767</v>
+        <v>0.238824</v>
       </c>
       <c r="C40" t="n">
-        <v>0.232882</v>
+        <v>0.23279</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231198</v>
+        <v>0.231173</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.240159</v>
+        <v>0.240154</v>
       </c>
       <c r="C41" t="n">
-        <v>0.234215</v>
+        <v>0.234112</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231785</v>
+        <v>0.231781</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.241992</v>
+        <v>0.241997</v>
       </c>
       <c r="C42" t="n">
-        <v>0.236004</v>
+        <v>0.23592</v>
       </c>
       <c r="D42" t="n">
-        <v>0.232565</v>
+        <v>0.23254</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.244075</v>
+        <v>0.244085</v>
       </c>
       <c r="C43" t="n">
-        <v>0.238385</v>
+        <v>0.238318</v>
       </c>
       <c r="D43" t="n">
-        <v>0.233273</v>
+        <v>0.233261</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.246914</v>
+        <v>0.246912</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241979</v>
+        <v>0.241864</v>
       </c>
       <c r="D44" t="n">
-        <v>0.234503</v>
+        <v>0.234477</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.25029</v>
+        <v>0.250235</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246333</v>
+        <v>0.246231</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235944</v>
+        <v>0.235831</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.255245</v>
+        <v>0.255167</v>
       </c>
       <c r="C46" t="n">
-        <v>0.252583</v>
+        <v>0.252419</v>
       </c>
       <c r="D46" t="n">
-        <v>0.238077</v>
+        <v>0.238015</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261808</v>
+        <v>0.261708</v>
       </c>
       <c r="C47" t="n">
-        <v>0.260857</v>
+        <v>0.260748</v>
       </c>
       <c r="D47" t="n">
-        <v>0.240527</v>
+        <v>0.240408</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271881</v>
+        <v>0.271772</v>
       </c>
       <c r="C48" t="n">
-        <v>0.272774</v>
+        <v>0.272702</v>
       </c>
       <c r="D48" t="n">
-        <v>0.24433</v>
+        <v>0.244286</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.286668</v>
+        <v>0.28656</v>
       </c>
       <c r="C49" t="n">
-        <v>0.289579</v>
+        <v>0.289466</v>
       </c>
       <c r="D49" t="n">
-        <v>0.249941</v>
+        <v>0.249779</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.30983</v>
+        <v>0.309757</v>
       </c>
       <c r="C50" t="n">
-        <v>0.317711</v>
+        <v>0.317553</v>
       </c>
       <c r="D50" t="n">
-        <v>0.26027</v>
+        <v>0.260088</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.345559</v>
+        <v>0.345898</v>
       </c>
       <c r="C51" t="n">
-        <v>0.35567</v>
+        <v>0.355569</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232602</v>
+        <v>0.232776</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.402234</v>
+        <v>0.401625</v>
       </c>
       <c r="C52" t="n">
-        <v>0.422737</v>
+        <v>0.422166</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232718</v>
+        <v>0.233019</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241392</v>
+        <v>0.244666</v>
       </c>
       <c r="C53" t="n">
-        <v>0.234734</v>
+        <v>0.235544</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233069</v>
+        <v>0.233485</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242927</v>
+        <v>0.245495</v>
       </c>
       <c r="C54" t="n">
-        <v>0.236196</v>
+        <v>0.236571</v>
       </c>
       <c r="D54" t="n">
-        <v>0.233815</v>
+        <v>0.234024</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.244238</v>
+        <v>0.246698</v>
       </c>
       <c r="C55" t="n">
-        <v>0.237691</v>
+        <v>0.238078</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234394</v>
+        <v>0.234637</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.245229</v>
+        <v>0.248063</v>
       </c>
       <c r="C56" t="n">
-        <v>0.239288</v>
+        <v>0.239874</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235159</v>
+        <v>0.235479</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.247108</v>
+        <v>0.24986</v>
       </c>
       <c r="C57" t="n">
-        <v>0.241909</v>
+        <v>0.242459</v>
       </c>
       <c r="D57" t="n">
-        <v>0.236059</v>
+        <v>0.236383</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.249515</v>
+        <v>0.252268</v>
       </c>
       <c r="C58" t="n">
-        <v>0.24525</v>
+        <v>0.24594</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237158</v>
+        <v>0.237481</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.252618</v>
+        <v>0.255438</v>
       </c>
       <c r="C59" t="n">
-        <v>0.249645</v>
+        <v>0.250401</v>
       </c>
       <c r="D59" t="n">
-        <v>0.238338</v>
+        <v>0.238763</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.257485</v>
+        <v>0.260145</v>
       </c>
       <c r="C60" t="n">
-        <v>0.255185</v>
+        <v>0.256001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.240295</v>
+        <v>0.240735</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264058</v>
+        <v>0.266621</v>
       </c>
       <c r="C61" t="n">
-        <v>0.262808</v>
+        <v>0.263589</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24251</v>
+        <v>0.242988</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272726</v>
+        <v>0.275173</v>
       </c>
       <c r="C62" t="n">
-        <v>0.273634</v>
+        <v>0.274478</v>
       </c>
       <c r="D62" t="n">
-        <v>0.24601</v>
+        <v>0.246561</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.285973</v>
+        <v>0.28827</v>
       </c>
       <c r="C63" t="n">
-        <v>0.289559</v>
+        <v>0.290486</v>
       </c>
       <c r="D63" t="n">
-        <v>0.251877</v>
+        <v>0.252481</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.306494</v>
+        <v>0.308576</v>
       </c>
       <c r="C64" t="n">
-        <v>0.313463</v>
+        <v>0.314336</v>
       </c>
       <c r="D64" t="n">
-        <v>0.261077</v>
+        <v>0.261687</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.338263</v>
+        <v>0.340273</v>
       </c>
       <c r="C65" t="n">
-        <v>0.350512</v>
+        <v>0.351441</v>
       </c>
       <c r="D65" t="n">
-        <v>0.277339</v>
+        <v>0.277904</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.387893</v>
+        <v>0.389914</v>
       </c>
       <c r="C66" t="n">
-        <v>0.408283</v>
+        <v>0.409291</v>
       </c>
       <c r="D66" t="n">
-        <v>0.245595</v>
+        <v>0.245973</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.258616</v>
+        <v>0.259622</v>
       </c>
       <c r="C67" t="n">
-        <v>0.249901</v>
+        <v>0.250204</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246879</v>
+        <v>0.24684</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.258896</v>
+        <v>0.260014</v>
       </c>
       <c r="C68" t="n">
-        <v>0.250604</v>
+        <v>0.250873</v>
       </c>
       <c r="D68" t="n">
-        <v>0.246828</v>
+        <v>0.247198</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.260163</v>
+        <v>0.26127</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252335</v>
+        <v>0.252608</v>
       </c>
       <c r="D69" t="n">
-        <v>0.247583</v>
+        <v>0.247942</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.261727</v>
+        <v>0.262701</v>
       </c>
       <c r="C70" t="n">
-        <v>0.254273</v>
+        <v>0.254515</v>
       </c>
       <c r="D70" t="n">
-        <v>0.24831</v>
+        <v>0.248643</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.263475</v>
+        <v>0.264447</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256827</v>
+        <v>0.257066</v>
       </c>
       <c r="D71" t="n">
-        <v>0.24914</v>
+        <v>0.249488</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.266176</v>
+        <v>0.267069</v>
       </c>
       <c r="C72" t="n">
-        <v>0.260093</v>
+        <v>0.260283</v>
       </c>
       <c r="D72" t="n">
-        <v>0.250368</v>
+        <v>0.25069</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.269083</v>
+        <v>0.269924</v>
       </c>
       <c r="C73" t="n">
-        <v>0.264281</v>
+        <v>0.264404</v>
       </c>
       <c r="D73" t="n">
-        <v>0.251851</v>
+        <v>0.252153</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.273069</v>
+        <v>0.273878</v>
       </c>
       <c r="C74" t="n">
-        <v>0.270033</v>
+        <v>0.270178</v>
       </c>
       <c r="D74" t="n">
-        <v>0.253691</v>
+        <v>0.254028</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278854</v>
+        <v>0.279605</v>
       </c>
       <c r="C75" t="n">
-        <v>0.27828</v>
+        <v>0.278342</v>
       </c>
       <c r="D75" t="n">
-        <v>0.256347</v>
+        <v>0.256668</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287298</v>
+        <v>0.287976</v>
       </c>
       <c r="C76" t="n">
-        <v>0.289107</v>
+        <v>0.289134</v>
       </c>
       <c r="D76" t="n">
-        <v>0.26006</v>
+        <v>0.260321</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.299666</v>
+        <v>0.300348</v>
       </c>
       <c r="C77" t="n">
-        <v>0.304266</v>
+        <v>0.304285</v>
       </c>
       <c r="D77" t="n">
-        <v>0.265434</v>
+        <v>0.265649</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.318659</v>
+        <v>0.31924</v>
       </c>
       <c r="C78" t="n">
-        <v>0.326411</v>
+        <v>0.326351</v>
       </c>
       <c r="D78" t="n">
-        <v>0.27409</v>
+        <v>0.274329</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.34664</v>
+        <v>0.347082</v>
       </c>
       <c r="C79" t="n">
-        <v>0.361211</v>
+        <v>0.361009</v>
       </c>
       <c r="D79" t="n">
-        <v>0.288524</v>
+        <v>0.288744</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.391454</v>
+        <v>0.391992</v>
       </c>
       <c r="C80" t="n">
-        <v>0.413547</v>
+        <v>0.413764</v>
       </c>
       <c r="D80" t="n">
-        <v>0.266558</v>
+        <v>0.265943</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.27693</v>
+        <v>0.276872</v>
       </c>
       <c r="C81" t="n">
-        <v>0.267876</v>
+        <v>0.267196</v>
       </c>
       <c r="D81" t="n">
-        <v>0.266959</v>
+        <v>0.266252</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.277778</v>
+        <v>0.277749</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268936</v>
+        <v>0.268286</v>
       </c>
       <c r="D82" t="n">
-        <v>0.267403</v>
+        <v>0.266713</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.278779</v>
+        <v>0.278774</v>
       </c>
       <c r="C83" t="n">
-        <v>0.270273</v>
+        <v>0.269613</v>
       </c>
       <c r="D83" t="n">
-        <v>0.267878</v>
+        <v>0.267265</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.280109</v>
+        <v>0.280075</v>
       </c>
       <c r="C84" t="n">
-        <v>0.271947</v>
+        <v>0.271302</v>
       </c>
       <c r="D84" t="n">
-        <v>0.268579</v>
+        <v>0.267872</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.281768</v>
+        <v>0.28173</v>
       </c>
       <c r="C85" t="n">
-        <v>0.274038</v>
+        <v>0.273378</v>
       </c>
       <c r="D85" t="n">
-        <v>0.269317</v>
+        <v>0.268598</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.283779</v>
+        <v>0.283641</v>
       </c>
       <c r="C86" t="n">
-        <v>0.276767</v>
+        <v>0.275972</v>
       </c>
       <c r="D86" t="n">
-        <v>0.270257</v>
+        <v>0.269546</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.286441</v>
+        <v>0.28633</v>
       </c>
       <c r="C87" t="n">
-        <v>0.280435</v>
+        <v>0.279677</v>
       </c>
       <c r="D87" t="n">
-        <v>0.271461</v>
+        <v>0.270728</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.290213</v>
+        <v>0.289976</v>
       </c>
       <c r="C88" t="n">
-        <v>0.285548</v>
+        <v>0.284732</v>
       </c>
       <c r="D88" t="n">
-        <v>0.273051</v>
+        <v>0.272347</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.295458</v>
+        <v>0.295247</v>
       </c>
       <c r="C89" t="n">
-        <v>0.292853</v>
+        <v>0.292011</v>
       </c>
       <c r="D89" t="n">
-        <v>0.275442</v>
+        <v>0.274671</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.303174</v>
+        <v>0.302963</v>
       </c>
       <c r="C90" t="n">
-        <v>0.302635</v>
+        <v>0.301783</v>
       </c>
       <c r="D90" t="n">
-        <v>0.278636</v>
+        <v>0.277905</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.314451</v>
+        <v>0.314118</v>
       </c>
       <c r="C91" t="n">
-        <v>0.31663</v>
+        <v>0.315566</v>
       </c>
       <c r="D91" t="n">
-        <v>0.283417</v>
+        <v>0.282657</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.331169</v>
+        <v>0.33081</v>
       </c>
       <c r="C92" t="n">
-        <v>0.336192</v>
+        <v>0.335201</v>
       </c>
       <c r="D92" t="n">
-        <v>0.290969</v>
+        <v>0.290134</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.356774</v>
+        <v>0.356374</v>
       </c>
       <c r="C93" t="n">
-        <v>0.367049</v>
+        <v>0.365868</v>
       </c>
       <c r="D93" t="n">
-        <v>0.303442</v>
+        <v>0.302636</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.397173</v>
+        <v>0.396813</v>
       </c>
       <c r="C94" t="n">
-        <v>0.416333</v>
+        <v>0.41534</v>
       </c>
       <c r="D94" t="n">
-        <v>0.276032</v>
+        <v>0.275797</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.287949</v>
+        <v>0.2876</v>
       </c>
       <c r="C95" t="n">
-        <v>0.278566</v>
+        <v>0.277575</v>
       </c>
       <c r="D95" t="n">
-        <v>0.276529</v>
+        <v>0.276167</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.28899</v>
+        <v>0.288602</v>
       </c>
       <c r="C96" t="n">
-        <v>0.279996</v>
+        <v>0.278869</v>
       </c>
       <c r="D96" t="n">
-        <v>0.277111</v>
+        <v>0.276737</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.29036</v>
+        <v>0.289857</v>
       </c>
       <c r="C97" t="n">
-        <v>0.281684</v>
+        <v>0.28045</v>
       </c>
       <c r="D97" t="n">
-        <v>0.277815</v>
+        <v>0.277272</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.291949</v>
+        <v>0.291331</v>
       </c>
       <c r="C98" t="n">
-        <v>0.283842</v>
+        <v>0.282372</v>
       </c>
       <c r="D98" t="n">
-        <v>0.278489</v>
+        <v>0.277955</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.293979</v>
+        <v>0.293136</v>
       </c>
       <c r="C99" t="n">
-        <v>0.286496</v>
+        <v>0.284897</v>
       </c>
       <c r="D99" t="n">
-        <v>0.279367</v>
+        <v>0.278841</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.296643</v>
+        <v>0.29554</v>
       </c>
       <c r="C100" t="n">
-        <v>0.290012</v>
+        <v>0.288282</v>
       </c>
       <c r="D100" t="n">
-        <v>0.280449</v>
+        <v>0.279856</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.299968</v>
+        <v>0.298685</v>
       </c>
       <c r="C101" t="n">
-        <v>0.294565</v>
+        <v>0.29269</v>
       </c>
       <c r="D101" t="n">
-        <v>0.281696</v>
+        <v>0.281181</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.304571</v>
+        <v>0.302841</v>
       </c>
       <c r="C102" t="n">
-        <v>0.300684</v>
+        <v>0.298632</v>
       </c>
       <c r="D102" t="n">
-        <v>0.283487</v>
+        <v>0.282823</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.310731</v>
+        <v>0.308735</v>
       </c>
       <c r="C103" t="n">
-        <v>0.308914</v>
+        <v>0.307006</v>
       </c>
       <c r="D103" t="n">
-        <v>0.28608</v>
+        <v>0.285231</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.319346</v>
+        <v>0.317347</v>
       </c>
       <c r="C104" t="n">
-        <v>0.319829</v>
+        <v>0.318296</v>
       </c>
       <c r="D104" t="n">
-        <v>0.289529</v>
+        <v>0.288567</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.331604</v>
+        <v>0.329562</v>
       </c>
       <c r="C105" t="n">
-        <v>0.33472</v>
+        <v>0.333473</v>
       </c>
       <c r="D105" t="n">
-        <v>0.29461</v>
+        <v>0.293442</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.34976</v>
+        <v>0.34757</v>
       </c>
       <c r="C106" t="n">
-        <v>0.355819</v>
+        <v>0.354329</v>
       </c>
       <c r="D106" t="n">
-        <v>0.302243</v>
+        <v>0.301023</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.376276</v>
+        <v>0.37438</v>
       </c>
       <c r="C107" t="n">
-        <v>0.386433</v>
+        <v>0.385468</v>
       </c>
       <c r="D107" t="n">
-        <v>0.314984</v>
+        <v>0.313863</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.417454</v>
+        <v>0.415361</v>
       </c>
       <c r="C108" t="n">
-        <v>0.434113</v>
+        <v>0.432901</v>
       </c>
       <c r="D108" t="n">
-        <v>0.281545</v>
+        <v>0.2795</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.474702</v>
+        <v>0.4747</v>
       </c>
       <c r="C109" t="n">
-        <v>0.505027</v>
+        <v>0.503364</v>
       </c>
       <c r="D109" t="n">
-        <v>0.282345</v>
+        <v>0.281452</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.303546</v>
+        <v>0.307065</v>
       </c>
       <c r="C110" t="n">
-        <v>0.299123</v>
+        <v>0.299571</v>
       </c>
       <c r="D110" t="n">
-        <v>0.28314</v>
+        <v>0.283056</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.311717</v>
+        <v>0.310995</v>
       </c>
       <c r="C111" t="n">
-        <v>0.305763</v>
+        <v>0.305599</v>
       </c>
       <c r="D111" t="n">
-        <v>0.284575</v>
+        <v>0.284183</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.316122</v>
+        <v>0.316694</v>
       </c>
       <c r="C112" t="n">
-        <v>0.311027</v>
+        <v>0.311762</v>
       </c>
       <c r="D112" t="n">
-        <v>0.286352</v>
+        <v>0.286038</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.322264</v>
+        <v>0.322905</v>
       </c>
       <c r="C113" t="n">
-        <v>0.317944</v>
+        <v>0.318443</v>
       </c>
       <c r="D113" t="n">
-        <v>0.288096</v>
+        <v>0.287427</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.329875</v>
+        <v>0.328877</v>
       </c>
       <c r="C114" t="n">
-        <v>0.325389</v>
+        <v>0.325521</v>
       </c>
       <c r="D114" t="n">
-        <v>0.290191</v>
+        <v>0.290514</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.336727</v>
+        <v>0.3365</v>
       </c>
       <c r="C115" t="n">
-        <v>0.333359</v>
+        <v>0.33339</v>
       </c>
       <c r="D115" t="n">
-        <v>0.293737</v>
+        <v>0.293273</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.344989</v>
+        <v>0.345017</v>
       </c>
       <c r="C116" t="n">
-        <v>0.342619</v>
+        <v>0.341593</v>
       </c>
       <c r="D116" t="n">
-        <v>0.298193</v>
+        <v>0.297886</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.354304</v>
+        <v>0.354403</v>
       </c>
       <c r="C117" t="n">
-        <v>0.352058</v>
+        <v>0.353343</v>
       </c>
       <c r="D117" t="n">
-        <v>0.303321</v>
+        <v>0.303292</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.36098</v>
+        <v>0.365853</v>
       </c>
       <c r="C118" t="n">
-        <v>0.366639</v>
+        <v>0.364929</v>
       </c>
       <c r="D118" t="n">
-        <v>0.309912</v>
+        <v>0.309749</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.381038</v>
+        <v>0.380478</v>
       </c>
       <c r="C119" t="n">
-        <v>0.383559</v>
+        <v>0.383746</v>
       </c>
       <c r="D119" t="n">
-        <v>0.318431</v>
+        <v>0.318417</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.401041</v>
+        <v>0.401542</v>
       </c>
       <c r="C120" t="n">
-        <v>0.405897</v>
+        <v>0.403783</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329459</v>
+        <v>0.329392</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.428944</v>
+        <v>0.429908</v>
       </c>
       <c r="C121" t="n">
-        <v>0.43745</v>
+        <v>0.437545</v>
       </c>
       <c r="D121" t="n">
-        <v>0.345036</v>
+        <v>0.344011</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.471257</v>
+        <v>0.471777</v>
       </c>
       <c r="C122" t="n">
-        <v>0.481704</v>
+        <v>0.482631</v>
       </c>
       <c r="D122" t="n">
-        <v>0.368846</v>
+        <v>0.369098</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.528417</v>
+        <v>0.536246</v>
       </c>
       <c r="C123" t="n">
-        <v>0.561733</v>
+        <v>0.562816</v>
       </c>
       <c r="D123" t="n">
-        <v>0.310878</v>
+        <v>0.310687</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356001</v>
+        <v>0.34237</v>
       </c>
       <c r="C124" t="n">
-        <v>0.350343</v>
+        <v>0.348138</v>
       </c>
       <c r="D124" t="n">
-        <v>0.317353</v>
+        <v>0.314686</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.360689</v>
+        <v>0.36398</v>
       </c>
       <c r="C125" t="n">
-        <v>0.352178</v>
+        <v>0.353119</v>
       </c>
       <c r="D125" t="n">
-        <v>0.317635</v>
+        <v>0.318251</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.36451</v>
+        <v>0.366767</v>
       </c>
       <c r="C126" t="n">
-        <v>0.357984</v>
+        <v>0.358261</v>
       </c>
       <c r="D126" t="n">
-        <v>0.322075</v>
+        <v>0.321844</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.371117</v>
+        <v>0.369967</v>
       </c>
       <c r="C127" t="n">
-        <v>0.362693</v>
+        <v>0.362333</v>
       </c>
       <c r="D127" t="n">
-        <v>0.32563</v>
+        <v>0.32425</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.381808</v>
+        <v>0.376279</v>
       </c>
       <c r="C128" t="n">
-        <v>0.369436</v>
+        <v>0.370541</v>
       </c>
       <c r="D128" t="n">
-        <v>0.329287</v>
+        <v>0.328949</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.36553</v>
+        <v>0.382656</v>
       </c>
       <c r="C129" t="n">
-        <v>0.375981</v>
+        <v>0.374764</v>
       </c>
       <c r="D129" t="n">
-        <v>0.332064</v>
+        <v>0.331188</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.391722</v>
+        <v>0.391996</v>
       </c>
       <c r="C130" t="n">
-        <v>0.383988</v>
+        <v>0.385039</v>
       </c>
       <c r="D130" t="n">
-        <v>0.336909</v>
+        <v>0.336563</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.381571</v>
+        <v>0.40079</v>
       </c>
       <c r="C131" t="n">
-        <v>0.393978</v>
+        <v>0.394663</v>
       </c>
       <c r="D131" t="n">
-        <v>0.339537</v>
+        <v>0.340201</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.40669</v>
+        <v>0.409176</v>
       </c>
       <c r="C132" t="n">
-        <v>0.408065</v>
+        <v>0.409638</v>
       </c>
       <c r="D132" t="n">
-        <v>0.345439</v>
+        <v>0.346353</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.421848</v>
+        <v>0.422145</v>
       </c>
       <c r="C133" t="n">
-        <v>0.425962</v>
+        <v>0.427214</v>
       </c>
       <c r="D133" t="n">
-        <v>0.353</v>
+        <v>0.354171</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.444275</v>
+        <v>0.443541</v>
       </c>
       <c r="C134" t="n">
-        <v>0.450078</v>
+        <v>0.450949</v>
       </c>
       <c r="D134" t="n">
-        <v>0.363195</v>
+        <v>0.363097</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.469617</v>
+        <v>0.45623</v>
       </c>
       <c r="C135" t="n">
-        <v>0.482449</v>
+        <v>0.484109</v>
       </c>
       <c r="D135" t="n">
-        <v>0.376541</v>
+        <v>0.377916</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.511788</v>
+        <v>0.513615</v>
       </c>
       <c r="C136" t="n">
-        <v>0.531121</v>
+        <v>0.535567</v>
       </c>
       <c r="D136" t="n">
-        <v>0.397818</v>
+        <v>0.400457</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.57346</v>
+        <v>0.558526</v>
       </c>
       <c r="C137" t="n">
-        <v>0.60503</v>
+        <v>0.605351</v>
       </c>
       <c r="D137" t="n">
-        <v>0.457307</v>
+        <v>0.454845</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.508135</v>
+        <v>0.521293</v>
       </c>
       <c r="C138" t="n">
-        <v>0.496628</v>
+        <v>0.501347</v>
       </c>
       <c r="D138" t="n">
-        <v>0.453957</v>
+        <v>0.459327</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.518333</v>
+        <v>0.5234259999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.506656</v>
+        <v>0.504212</v>
       </c>
       <c r="D139" t="n">
-        <v>0.463914</v>
+        <v>0.459306</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.535471</v>
+        <v>0.533052</v>
       </c>
       <c r="C140" t="n">
-        <v>0.507377</v>
+        <v>0.508901</v>
       </c>
       <c r="D140" t="n">
-        <v>0.460006</v>
+        <v>0.460879</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.53672</v>
+        <v>0.531954</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5198430000000001</v>
+        <v>0.516826</v>
       </c>
       <c r="D141" t="n">
-        <v>0.470096</v>
+        <v>0.466052</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.549159</v>
+        <v>0.54662</v>
       </c>
       <c r="C142" t="n">
-        <v>0.52308</v>
+        <v>0.523639</v>
       </c>
       <c r="D142" t="n">
-        <v>0.468861</v>
+        <v>0.467457</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.550106</v>
+        <v>0.543351</v>
       </c>
       <c r="C143" t="n">
-        <v>0.53644</v>
+        <v>0.530092</v>
       </c>
       <c r="D143" t="n">
-        <v>0.478253</v>
+        <v>0.470177</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.235531</v>
+        <v>0.235572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239001</v>
+        <v>0.239233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.225911</v>
+        <v>0.225872</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239722</v>
+        <v>0.239749</v>
       </c>
       <c r="C3" t="n">
-        <v>0.241748</v>
+        <v>0.241601</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226705</v>
+        <v>0.226453</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.247904</v>
+        <v>0.247716</v>
       </c>
       <c r="C4" t="n">
-        <v>0.253982</v>
+        <v>0.253517</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231887</v>
+        <v>0.231622</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260115</v>
+        <v>0.259912</v>
       </c>
       <c r="C5" t="n">
-        <v>0.26811</v>
+        <v>0.267619</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236476</v>
+        <v>0.236281</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.276338</v>
+        <v>0.276394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.286014</v>
+        <v>0.286235</v>
       </c>
       <c r="D6" t="n">
-        <v>0.24264</v>
+        <v>0.242643</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.297254</v>
+        <v>0.297132</v>
       </c>
       <c r="C7" t="n">
-        <v>0.315505</v>
+        <v>0.315865</v>
       </c>
       <c r="D7" t="n">
-        <v>0.254549</v>
+        <v>0.254646</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.331393</v>
+        <v>0.331534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.351024</v>
+        <v>0.351263</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270761</v>
+        <v>0.270744</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.385559</v>
+        <v>0.385776</v>
       </c>
       <c r="C9" t="n">
-        <v>0.406796</v>
+        <v>0.407107</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224609</v>
+        <v>0.224763</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231154</v>
+        <v>0.231166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22661</v>
+        <v>0.226783</v>
       </c>
       <c r="D10" t="n">
-        <v>0.224817</v>
+        <v>0.224745</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.231392</v>
+        <v>0.231298</v>
       </c>
       <c r="C11" t="n">
-        <v>0.227083</v>
+        <v>0.226971</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224652</v>
+        <v>0.224522</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.233769</v>
+        <v>0.233655</v>
       </c>
       <c r="C12" t="n">
-        <v>0.229437</v>
+        <v>0.229213</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226397</v>
+        <v>0.226295</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.233754</v>
+        <v>0.233469</v>
       </c>
       <c r="C13" t="n">
-        <v>0.230055</v>
+        <v>0.229911</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225802</v>
+        <v>0.225746</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.23653</v>
+        <v>0.236441</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234375</v>
+        <v>0.234318</v>
       </c>
       <c r="D14" t="n">
-        <v>0.227516</v>
+        <v>0.227601</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.238608</v>
+        <v>0.23863</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237738</v>
+        <v>0.237802</v>
       </c>
       <c r="D15" t="n">
-        <v>0.229267</v>
+        <v>0.229324</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.241953</v>
+        <v>0.241871</v>
       </c>
       <c r="C16" t="n">
-        <v>0.24229</v>
+        <v>0.242403</v>
       </c>
       <c r="D16" t="n">
-        <v>0.23055</v>
+        <v>0.230556</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.245274</v>
+        <v>0.245238</v>
       </c>
       <c r="C17" t="n">
-        <v>0.247828</v>
+        <v>0.247768</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232191</v>
+        <v>0.23202</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.250392</v>
+        <v>0.250335</v>
       </c>
       <c r="C18" t="n">
-        <v>0.254021</v>
+        <v>0.253868</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233676</v>
+        <v>0.233517</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259761</v>
+        <v>0.259795</v>
       </c>
       <c r="C19" t="n">
-        <v>0.26489</v>
+        <v>0.264768</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237952</v>
+        <v>0.237885</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.271165</v>
+        <v>0.271196</v>
       </c>
       <c r="C20" t="n">
-        <v>0.279969</v>
+        <v>0.279918</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241943</v>
+        <v>0.241987</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.291698</v>
+        <v>0.291761</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299821</v>
+        <v>0.299906</v>
       </c>
       <c r="D21" t="n">
-        <v>0.249532</v>
+        <v>0.249702</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.326482</v>
+        <v>0.326438</v>
       </c>
       <c r="C22" t="n">
-        <v>0.327592</v>
+        <v>0.327638</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26262</v>
+        <v>0.262568</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.367802</v>
+        <v>0.367573</v>
       </c>
       <c r="C23" t="n">
-        <v>0.383196</v>
+        <v>0.382927</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227733</v>
+        <v>0.227705</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.23527</v>
+        <v>0.235252</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228728</v>
+        <v>0.228765</v>
       </c>
       <c r="D24" t="n">
-        <v>0.228787</v>
+        <v>0.228666</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235448</v>
+        <v>0.235383</v>
       </c>
       <c r="C25" t="n">
-        <v>0.229249</v>
+        <v>0.22922</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228393</v>
+        <v>0.228357</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236541</v>
+        <v>0.236451</v>
       </c>
       <c r="C26" t="n">
-        <v>0.230563</v>
+        <v>0.230512</v>
       </c>
       <c r="D26" t="n">
-        <v>0.228855</v>
+        <v>0.228759</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.237996</v>
+        <v>0.237903</v>
       </c>
       <c r="C27" t="n">
-        <v>0.232048</v>
+        <v>0.232039</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229111</v>
+        <v>0.229192</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.240202</v>
+        <v>0.24007</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2347</v>
+        <v>0.234535</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230573</v>
+        <v>0.230568</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.241482</v>
+        <v>0.241403</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237384</v>
+        <v>0.237161</v>
       </c>
       <c r="D29" t="n">
-        <v>0.230972</v>
+        <v>0.230895</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.244096</v>
+        <v>0.243922</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240706</v>
+        <v>0.240398</v>
       </c>
       <c r="D30" t="n">
-        <v>0.232184</v>
+        <v>0.23217</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.247425</v>
+        <v>0.247251</v>
       </c>
       <c r="C31" t="n">
-        <v>0.245052</v>
+        <v>0.244854</v>
       </c>
       <c r="D31" t="n">
-        <v>0.233375</v>
+        <v>0.23323</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.252987</v>
+        <v>0.252811</v>
       </c>
       <c r="C32" t="n">
-        <v>0.251577</v>
+        <v>0.251476</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235624</v>
+        <v>0.235697</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.260407</v>
+        <v>0.260312</v>
       </c>
       <c r="C33" t="n">
-        <v>0.261937</v>
+        <v>0.261834</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238888</v>
+        <v>0.238861</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270274</v>
+        <v>0.270154</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273863</v>
+        <v>0.273649</v>
       </c>
       <c r="D34" t="n">
-        <v>0.242675</v>
+        <v>0.242592</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.285877</v>
+        <v>0.285728</v>
       </c>
       <c r="C35" t="n">
-        <v>0.291353</v>
+        <v>0.291012</v>
       </c>
       <c r="D35" t="n">
-        <v>0.248185</v>
+        <v>0.248119</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.310216</v>
+        <v>0.310135</v>
       </c>
       <c r="C36" t="n">
-        <v>0.319928</v>
+        <v>0.319657</v>
       </c>
       <c r="D36" t="n">
-        <v>0.259059</v>
+        <v>0.259053</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.351368</v>
+        <v>0.351191</v>
       </c>
       <c r="C37" t="n">
-        <v>0.365568</v>
+        <v>0.365035</v>
       </c>
       <c r="D37" t="n">
-        <v>0.230308</v>
+        <v>0.230271</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.236744</v>
+        <v>0.236796</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230293</v>
+        <v>0.230193</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230145</v>
+        <v>0.230095</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238176</v>
+        <v>0.238286</v>
       </c>
       <c r="C39" t="n">
-        <v>0.231994</v>
+        <v>0.232003</v>
       </c>
       <c r="D39" t="n">
-        <v>0.231102</v>
+        <v>0.231135</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238824</v>
+        <v>0.238867</v>
       </c>
       <c r="C40" t="n">
-        <v>0.23279</v>
+        <v>0.232936</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231173</v>
+        <v>0.231154</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.240154</v>
+        <v>0.240284</v>
       </c>
       <c r="C41" t="n">
-        <v>0.234112</v>
+        <v>0.234229</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231781</v>
+        <v>0.231806</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.241997</v>
+        <v>0.242081</v>
       </c>
       <c r="C42" t="n">
-        <v>0.23592</v>
+        <v>0.236016</v>
       </c>
       <c r="D42" t="n">
-        <v>0.23254</v>
+        <v>0.232566</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.244085</v>
+        <v>0.244199</v>
       </c>
       <c r="C43" t="n">
-        <v>0.238318</v>
+        <v>0.238442</v>
       </c>
       <c r="D43" t="n">
-        <v>0.233261</v>
+        <v>0.23329</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.246912</v>
+        <v>0.24705</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241864</v>
+        <v>0.241965</v>
       </c>
       <c r="D44" t="n">
-        <v>0.234477</v>
+        <v>0.234534</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.250235</v>
+        <v>0.250435</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246231</v>
+        <v>0.246393</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235831</v>
+        <v>0.235909</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.255167</v>
+        <v>0.25539</v>
       </c>
       <c r="C46" t="n">
-        <v>0.252419</v>
+        <v>0.252561</v>
       </c>
       <c r="D46" t="n">
-        <v>0.238015</v>
+        <v>0.238019</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261708</v>
+        <v>0.261876</v>
       </c>
       <c r="C47" t="n">
-        <v>0.260748</v>
+        <v>0.260829</v>
       </c>
       <c r="D47" t="n">
-        <v>0.240408</v>
+        <v>0.240479</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271772</v>
+        <v>0.271914</v>
       </c>
       <c r="C48" t="n">
-        <v>0.272702</v>
+        <v>0.272762</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244286</v>
+        <v>0.244352</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.28656</v>
+        <v>0.286732</v>
       </c>
       <c r="C49" t="n">
-        <v>0.289466</v>
+        <v>0.289603</v>
       </c>
       <c r="D49" t="n">
-        <v>0.249779</v>
+        <v>0.249866</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.309757</v>
+        <v>0.309948</v>
       </c>
       <c r="C50" t="n">
-        <v>0.317553</v>
+        <v>0.317688</v>
       </c>
       <c r="D50" t="n">
-        <v>0.260088</v>
+        <v>0.260154</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.345898</v>
+        <v>0.345589</v>
       </c>
       <c r="C51" t="n">
-        <v>0.355569</v>
+        <v>0.355708</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232776</v>
+        <v>0.232368</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.401625</v>
+        <v>0.402104</v>
       </c>
       <c r="C52" t="n">
-        <v>0.422166</v>
+        <v>0.422266</v>
       </c>
       <c r="D52" t="n">
-        <v>0.233019</v>
+        <v>0.232847</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244666</v>
+        <v>0.241815</v>
       </c>
       <c r="C53" t="n">
-        <v>0.235544</v>
+        <v>0.235031</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233485</v>
+        <v>0.233196</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.245495</v>
+        <v>0.242634</v>
       </c>
       <c r="C54" t="n">
-        <v>0.236571</v>
+        <v>0.236088</v>
       </c>
       <c r="D54" t="n">
-        <v>0.234024</v>
+        <v>0.23368</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.246698</v>
+        <v>0.243872</v>
       </c>
       <c r="C55" t="n">
-        <v>0.238078</v>
+        <v>0.237634</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234637</v>
+        <v>0.234342</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.248063</v>
+        <v>0.245218</v>
       </c>
       <c r="C56" t="n">
-        <v>0.239874</v>
+        <v>0.239443</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235479</v>
+        <v>0.235121</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.24986</v>
+        <v>0.247077</v>
       </c>
       <c r="C57" t="n">
-        <v>0.242459</v>
+        <v>0.242027</v>
       </c>
       <c r="D57" t="n">
-        <v>0.236383</v>
+        <v>0.236039</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.252268</v>
+        <v>0.249515</v>
       </c>
       <c r="C58" t="n">
-        <v>0.24594</v>
+        <v>0.245424</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237481</v>
+        <v>0.237131</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.255438</v>
+        <v>0.252586</v>
       </c>
       <c r="C59" t="n">
-        <v>0.250401</v>
+        <v>0.249882</v>
       </c>
       <c r="D59" t="n">
-        <v>0.238763</v>
+        <v>0.238386</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.260145</v>
+        <v>0.257517</v>
       </c>
       <c r="C60" t="n">
-        <v>0.256001</v>
+        <v>0.255452</v>
       </c>
       <c r="D60" t="n">
-        <v>0.240735</v>
+        <v>0.240388</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.266621</v>
+        <v>0.264128</v>
       </c>
       <c r="C61" t="n">
-        <v>0.263589</v>
+        <v>0.263083</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242988</v>
+        <v>0.242547</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275173</v>
+        <v>0.272733</v>
       </c>
       <c r="C62" t="n">
-        <v>0.274478</v>
+        <v>0.273928</v>
       </c>
       <c r="D62" t="n">
-        <v>0.246561</v>
+        <v>0.246098</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.28827</v>
+        <v>0.286012</v>
       </c>
       <c r="C63" t="n">
-        <v>0.290486</v>
+        <v>0.289866</v>
       </c>
       <c r="D63" t="n">
-        <v>0.252481</v>
+        <v>0.251982</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.308576</v>
+        <v>0.30646</v>
       </c>
       <c r="C64" t="n">
-        <v>0.314336</v>
+        <v>0.313858</v>
       </c>
       <c r="D64" t="n">
-        <v>0.261687</v>
+        <v>0.261197</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.340273</v>
+        <v>0.33843</v>
       </c>
       <c r="C65" t="n">
-        <v>0.351441</v>
+        <v>0.35087</v>
       </c>
       <c r="D65" t="n">
-        <v>0.277904</v>
+        <v>0.277389</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.389914</v>
+        <v>0.38792</v>
       </c>
       <c r="C66" t="n">
-        <v>0.409291</v>
+        <v>0.408708</v>
       </c>
       <c r="D66" t="n">
-        <v>0.245973</v>
+        <v>0.244798</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.259622</v>
+        <v>0.259467</v>
       </c>
       <c r="C67" t="n">
-        <v>0.250204</v>
+        <v>0.249307</v>
       </c>
       <c r="D67" t="n">
-        <v>0.24684</v>
+        <v>0.245577</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.260014</v>
+        <v>0.260654</v>
       </c>
       <c r="C68" t="n">
-        <v>0.250873</v>
+        <v>0.249942</v>
       </c>
       <c r="D68" t="n">
-        <v>0.247198</v>
+        <v>0.24598</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.26127</v>
+        <v>0.261865</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252608</v>
+        <v>0.25169</v>
       </c>
       <c r="D69" t="n">
-        <v>0.247942</v>
+        <v>0.246703</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.262701</v>
+        <v>0.26335</v>
       </c>
       <c r="C70" t="n">
-        <v>0.254515</v>
+        <v>0.253573</v>
       </c>
       <c r="D70" t="n">
-        <v>0.248643</v>
+        <v>0.247378</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.264447</v>
+        <v>0.26503</v>
       </c>
       <c r="C71" t="n">
-        <v>0.257066</v>
+        <v>0.256167</v>
       </c>
       <c r="D71" t="n">
-        <v>0.249488</v>
+        <v>0.248254</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.267069</v>
+        <v>0.267553</v>
       </c>
       <c r="C72" t="n">
-        <v>0.260283</v>
+        <v>0.259412</v>
       </c>
       <c r="D72" t="n">
-        <v>0.25069</v>
+        <v>0.249507</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.269924</v>
+        <v>0.270459</v>
       </c>
       <c r="C73" t="n">
-        <v>0.264404</v>
+        <v>0.263605</v>
       </c>
       <c r="D73" t="n">
-        <v>0.252153</v>
+        <v>0.251004</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.273878</v>
+        <v>0.274427</v>
       </c>
       <c r="C74" t="n">
-        <v>0.270178</v>
+        <v>0.269415</v>
       </c>
       <c r="D74" t="n">
-        <v>0.254028</v>
+        <v>0.252849</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279605</v>
+        <v>0.280186</v>
       </c>
       <c r="C75" t="n">
-        <v>0.278342</v>
+        <v>0.277669</v>
       </c>
       <c r="D75" t="n">
-        <v>0.256668</v>
+        <v>0.255546</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287976</v>
+        <v>0.288537</v>
       </c>
       <c r="C76" t="n">
-        <v>0.289134</v>
+        <v>0.288542</v>
       </c>
       <c r="D76" t="n">
-        <v>0.260321</v>
+        <v>0.259248</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.300348</v>
+        <v>0.300862</v>
       </c>
       <c r="C77" t="n">
-        <v>0.304285</v>
+        <v>0.303704</v>
       </c>
       <c r="D77" t="n">
-        <v>0.265649</v>
+        <v>0.264635</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.31924</v>
+        <v>0.319836</v>
       </c>
       <c r="C78" t="n">
-        <v>0.326351</v>
+        <v>0.32584</v>
       </c>
       <c r="D78" t="n">
-        <v>0.274329</v>
+        <v>0.273362</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.347082</v>
+        <v>0.347669</v>
       </c>
       <c r="C79" t="n">
-        <v>0.361009</v>
+        <v>0.36061</v>
       </c>
       <c r="D79" t="n">
-        <v>0.288744</v>
+        <v>0.287788</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.391992</v>
+        <v>0.392565</v>
       </c>
       <c r="C80" t="n">
-        <v>0.413764</v>
+        <v>0.413155</v>
       </c>
       <c r="D80" t="n">
-        <v>0.265943</v>
+        <v>0.266692</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.276872</v>
+        <v>0.277103</v>
       </c>
       <c r="C81" t="n">
-        <v>0.267196</v>
+        <v>0.267956</v>
       </c>
       <c r="D81" t="n">
-        <v>0.266252</v>
+        <v>0.2671</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.277749</v>
+        <v>0.277785</v>
       </c>
       <c r="C82" t="n">
-        <v>0.268286</v>
+        <v>0.269028</v>
       </c>
       <c r="D82" t="n">
-        <v>0.266713</v>
+        <v>0.267528</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.278774</v>
+        <v>0.278806</v>
       </c>
       <c r="C83" t="n">
-        <v>0.269613</v>
+        <v>0.270312</v>
       </c>
       <c r="D83" t="n">
-        <v>0.267265</v>
+        <v>0.268064</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.280075</v>
+        <v>0.280116</v>
       </c>
       <c r="C84" t="n">
-        <v>0.271302</v>
+        <v>0.272047</v>
       </c>
       <c r="D84" t="n">
-        <v>0.267872</v>
+        <v>0.268676</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.28173</v>
+        <v>0.281695</v>
       </c>
       <c r="C85" t="n">
-        <v>0.273378</v>
+        <v>0.274076</v>
       </c>
       <c r="D85" t="n">
-        <v>0.268598</v>
+        <v>0.269444</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.283641</v>
+        <v>0.283711</v>
       </c>
       <c r="C86" t="n">
-        <v>0.275972</v>
+        <v>0.276669</v>
       </c>
       <c r="D86" t="n">
-        <v>0.269546</v>
+        <v>0.270329</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.28633</v>
+        <v>0.286408</v>
       </c>
       <c r="C87" t="n">
-        <v>0.279677</v>
+        <v>0.280379</v>
       </c>
       <c r="D87" t="n">
-        <v>0.270728</v>
+        <v>0.271541</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.289976</v>
+        <v>0.290091</v>
       </c>
       <c r="C88" t="n">
-        <v>0.284732</v>
+        <v>0.2854</v>
       </c>
       <c r="D88" t="n">
-        <v>0.272347</v>
+        <v>0.273181</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.295247</v>
+        <v>0.295388</v>
       </c>
       <c r="C89" t="n">
-        <v>0.292011</v>
+        <v>0.292685</v>
       </c>
       <c r="D89" t="n">
-        <v>0.274671</v>
+        <v>0.2755</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.302963</v>
+        <v>0.30303</v>
       </c>
       <c r="C90" t="n">
-        <v>0.301783</v>
+        <v>0.302504</v>
       </c>
       <c r="D90" t="n">
-        <v>0.277905</v>
+        <v>0.278748</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.314118</v>
+        <v>0.314194</v>
       </c>
       <c r="C91" t="n">
-        <v>0.315566</v>
+        <v>0.316163</v>
       </c>
       <c r="D91" t="n">
-        <v>0.282657</v>
+        <v>0.283484</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.33081</v>
+        <v>0.330837</v>
       </c>
       <c r="C92" t="n">
-        <v>0.335201</v>
+        <v>0.335719</v>
       </c>
       <c r="D92" t="n">
-        <v>0.290134</v>
+        <v>0.290938</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.356374</v>
+        <v>0.356352</v>
       </c>
       <c r="C93" t="n">
-        <v>0.365868</v>
+        <v>0.366557</v>
       </c>
       <c r="D93" t="n">
-        <v>0.302636</v>
+        <v>0.303379</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.396813</v>
+        <v>0.396812</v>
       </c>
       <c r="C94" t="n">
-        <v>0.41534</v>
+        <v>0.416013</v>
       </c>
       <c r="D94" t="n">
-        <v>0.275797</v>
+        <v>0.273847</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2876</v>
+        <v>0.284522</v>
       </c>
       <c r="C95" t="n">
-        <v>0.277575</v>
+        <v>0.274903</v>
       </c>
       <c r="D95" t="n">
-        <v>0.276167</v>
+        <v>0.274303</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.288602</v>
+        <v>0.285323</v>
       </c>
       <c r="C96" t="n">
-        <v>0.278869</v>
+        <v>0.276246</v>
       </c>
       <c r="D96" t="n">
-        <v>0.276737</v>
+        <v>0.274779</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.289857</v>
+        <v>0.286493</v>
       </c>
       <c r="C97" t="n">
-        <v>0.28045</v>
+        <v>0.277695</v>
       </c>
       <c r="D97" t="n">
-        <v>0.277272</v>
+        <v>0.275507</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.291331</v>
+        <v>0.287746</v>
       </c>
       <c r="C98" t="n">
-        <v>0.282372</v>
+        <v>0.279727</v>
       </c>
       <c r="D98" t="n">
-        <v>0.277955</v>
+        <v>0.276074</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.293136</v>
+        <v>0.289388</v>
       </c>
       <c r="C99" t="n">
-        <v>0.284897</v>
+        <v>0.282231</v>
       </c>
       <c r="D99" t="n">
-        <v>0.278841</v>
+        <v>0.276771</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.29554</v>
+        <v>0.291604</v>
       </c>
       <c r="C100" t="n">
-        <v>0.288282</v>
+        <v>0.285514</v>
       </c>
       <c r="D100" t="n">
-        <v>0.279856</v>
+        <v>0.27758</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.298685</v>
+        <v>0.294442</v>
       </c>
       <c r="C101" t="n">
-        <v>0.29269</v>
+        <v>0.289712</v>
       </c>
       <c r="D101" t="n">
-        <v>0.281181</v>
+        <v>0.278683</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302841</v>
+        <v>0.29854</v>
       </c>
       <c r="C102" t="n">
-        <v>0.298632</v>
+        <v>0.295582</v>
       </c>
       <c r="D102" t="n">
-        <v>0.282823</v>
+        <v>0.280341</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.308735</v>
+        <v>0.304357</v>
       </c>
       <c r="C103" t="n">
-        <v>0.307006</v>
+        <v>0.303866</v>
       </c>
       <c r="D103" t="n">
-        <v>0.285231</v>
+        <v>0.282787</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.317347</v>
+        <v>0.312446</v>
       </c>
       <c r="C104" t="n">
-        <v>0.318296</v>
+        <v>0.314827</v>
       </c>
       <c r="D104" t="n">
-        <v>0.288567</v>
+        <v>0.285952</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.329562</v>
+        <v>0.324662</v>
       </c>
       <c r="C105" t="n">
-        <v>0.333473</v>
+        <v>0.329921</v>
       </c>
       <c r="D105" t="n">
-        <v>0.293442</v>
+        <v>0.290851</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.34757</v>
+        <v>0.342657</v>
       </c>
       <c r="C106" t="n">
-        <v>0.354329</v>
+        <v>0.350625</v>
       </c>
       <c r="D106" t="n">
-        <v>0.301023</v>
+        <v>0.298401</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.37438</v>
+        <v>0.369503</v>
       </c>
       <c r="C107" t="n">
-        <v>0.385468</v>
+        <v>0.381625</v>
       </c>
       <c r="D107" t="n">
-        <v>0.313863</v>
+        <v>0.311056</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.415361</v>
+        <v>0.410763</v>
       </c>
       <c r="C108" t="n">
-        <v>0.432901</v>
+        <v>0.428965</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2795</v>
+        <v>0.28102</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4747</v>
+        <v>0.478384</v>
       </c>
       <c r="C109" t="n">
-        <v>0.503364</v>
+        <v>0.50421</v>
       </c>
       <c r="D109" t="n">
-        <v>0.281452</v>
+        <v>0.282208</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.307065</v>
+        <v>0.307189</v>
       </c>
       <c r="C110" t="n">
-        <v>0.299571</v>
+        <v>0.299975</v>
       </c>
       <c r="D110" t="n">
-        <v>0.283056</v>
+        <v>0.283278</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.310995</v>
+        <v>0.311717</v>
       </c>
       <c r="C111" t="n">
-        <v>0.305599</v>
+        <v>0.305456</v>
       </c>
       <c r="D111" t="n">
-        <v>0.284183</v>
+        <v>0.28445</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.316694</v>
+        <v>0.316803</v>
       </c>
       <c r="C112" t="n">
-        <v>0.311762</v>
+        <v>0.311809</v>
       </c>
       <c r="D112" t="n">
-        <v>0.286038</v>
+        <v>0.285638</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.322905</v>
+        <v>0.322009</v>
       </c>
       <c r="C113" t="n">
-        <v>0.318443</v>
+        <v>0.317837</v>
       </c>
       <c r="D113" t="n">
-        <v>0.287427</v>
+        <v>0.287405</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328877</v>
+        <v>0.329631</v>
       </c>
       <c r="C114" t="n">
-        <v>0.325521</v>
+        <v>0.325211</v>
       </c>
       <c r="D114" t="n">
-        <v>0.290514</v>
+        <v>0.290446</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3365</v>
+        <v>0.33232</v>
       </c>
       <c r="C115" t="n">
-        <v>0.33339</v>
+        <v>0.333442</v>
       </c>
       <c r="D115" t="n">
-        <v>0.293273</v>
+        <v>0.29344</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.345017</v>
+        <v>0.344789</v>
       </c>
       <c r="C116" t="n">
-        <v>0.341593</v>
+        <v>0.341412</v>
       </c>
       <c r="D116" t="n">
-        <v>0.297886</v>
+        <v>0.297683</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.354403</v>
+        <v>0.354446</v>
       </c>
       <c r="C117" t="n">
-        <v>0.353343</v>
+        <v>0.353748</v>
       </c>
       <c r="D117" t="n">
-        <v>0.303292</v>
+        <v>0.303109</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.365853</v>
+        <v>0.360905</v>
       </c>
       <c r="C118" t="n">
-        <v>0.364929</v>
+        <v>0.366828</v>
       </c>
       <c r="D118" t="n">
-        <v>0.309749</v>
+        <v>0.30985</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.380478</v>
+        <v>0.381034</v>
       </c>
       <c r="C119" t="n">
-        <v>0.383746</v>
+        <v>0.383786</v>
       </c>
       <c r="D119" t="n">
-        <v>0.318417</v>
+        <v>0.318713</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.401542</v>
+        <v>0.400915</v>
       </c>
       <c r="C120" t="n">
-        <v>0.403783</v>
+        <v>0.406582</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329392</v>
+        <v>0.329455</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.429908</v>
+        <v>0.429534</v>
       </c>
       <c r="C121" t="n">
-        <v>0.437545</v>
+        <v>0.438133</v>
       </c>
       <c r="D121" t="n">
-        <v>0.344011</v>
+        <v>0.345365</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.471777</v>
+        <v>0.471904</v>
       </c>
       <c r="C122" t="n">
-        <v>0.482631</v>
+        <v>0.482508</v>
       </c>
       <c r="D122" t="n">
-        <v>0.369098</v>
+        <v>0.369284</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.536246</v>
+        <v>0.536284</v>
       </c>
       <c r="C123" t="n">
-        <v>0.562816</v>
+        <v>0.563035</v>
       </c>
       <c r="D123" t="n">
-        <v>0.310687</v>
+        <v>0.311258</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.34237</v>
+        <v>0.342706</v>
       </c>
       <c r="C124" t="n">
-        <v>0.348138</v>
+        <v>0.349377</v>
       </c>
       <c r="D124" t="n">
-        <v>0.314686</v>
+        <v>0.316129</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.36398</v>
+        <v>0.34892</v>
       </c>
       <c r="C125" t="n">
-        <v>0.353119</v>
+        <v>0.352943</v>
       </c>
       <c r="D125" t="n">
-        <v>0.318251</v>
+        <v>0.317854</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.366767</v>
+        <v>0.37352</v>
       </c>
       <c r="C126" t="n">
-        <v>0.358261</v>
+        <v>0.356811</v>
       </c>
       <c r="D126" t="n">
-        <v>0.321844</v>
+        <v>0.320908</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.369967</v>
+        <v>0.376767</v>
       </c>
       <c r="C127" t="n">
-        <v>0.362333</v>
+        <v>0.362737</v>
       </c>
       <c r="D127" t="n">
-        <v>0.32425</v>
+        <v>0.32549</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.376279</v>
+        <v>0.361433</v>
       </c>
       <c r="C128" t="n">
-        <v>0.370541</v>
+        <v>0.368193</v>
       </c>
       <c r="D128" t="n">
-        <v>0.328949</v>
+        <v>0.328196</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.382656</v>
+        <v>0.382709</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374764</v>
+        <v>0.377381</v>
       </c>
       <c r="D129" t="n">
-        <v>0.331188</v>
+        <v>0.333131</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.391996</v>
+        <v>0.389187</v>
       </c>
       <c r="C130" t="n">
-        <v>0.385039</v>
+        <v>0.385208</v>
       </c>
       <c r="D130" t="n">
-        <v>0.336563</v>
+        <v>0.336175</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.40079</v>
+        <v>0.398978</v>
       </c>
       <c r="C131" t="n">
-        <v>0.394663</v>
+        <v>0.39442</v>
       </c>
       <c r="D131" t="n">
-        <v>0.340201</v>
+        <v>0.340873</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.409176</v>
+        <v>0.410563</v>
       </c>
       <c r="C132" t="n">
-        <v>0.409638</v>
+        <v>0.409398</v>
       </c>
       <c r="D132" t="n">
-        <v>0.346353</v>
+        <v>0.34707</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.422145</v>
+        <v>0.429431</v>
       </c>
       <c r="C133" t="n">
-        <v>0.427214</v>
+        <v>0.425843</v>
       </c>
       <c r="D133" t="n">
-        <v>0.354171</v>
+        <v>0.352978</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.443541</v>
+        <v>0.443205</v>
       </c>
       <c r="C134" t="n">
-        <v>0.450949</v>
+        <v>0.451397</v>
       </c>
       <c r="D134" t="n">
-        <v>0.363097</v>
+        <v>0.363662</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.45623</v>
+        <v>0.47258</v>
       </c>
       <c r="C135" t="n">
-        <v>0.484109</v>
+        <v>0.485952</v>
       </c>
       <c r="D135" t="n">
-        <v>0.377916</v>
+        <v>0.378304</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.513615</v>
+        <v>0.496267</v>
       </c>
       <c r="C136" t="n">
-        <v>0.535567</v>
+        <v>0.536067</v>
       </c>
       <c r="D136" t="n">
-        <v>0.400457</v>
+        <v>0.399763</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.558526</v>
+        <v>0.580372</v>
       </c>
       <c r="C137" t="n">
-        <v>0.605351</v>
+        <v>0.606275</v>
       </c>
       <c r="D137" t="n">
-        <v>0.454845</v>
+        <v>0.448652</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.521293</v>
+        <v>0.515373</v>
       </c>
       <c r="C138" t="n">
-        <v>0.501347</v>
+        <v>0.492961</v>
       </c>
       <c r="D138" t="n">
-        <v>0.459327</v>
+        <v>0.448509</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5234259999999999</v>
+        <v>0.529443</v>
       </c>
       <c r="C139" t="n">
-        <v>0.504212</v>
+        <v>0.5053</v>
       </c>
       <c r="D139" t="n">
-        <v>0.459306</v>
+        <v>0.460097</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.533052</v>
+        <v>0.536582</v>
       </c>
       <c r="C140" t="n">
-        <v>0.508901</v>
+        <v>0.506231</v>
       </c>
       <c r="D140" t="n">
-        <v>0.460879</v>
+        <v>0.457183</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.531954</v>
+        <v>0.527574</v>
       </c>
       <c r="C141" t="n">
-        <v>0.516826</v>
+        <v>0.518583</v>
       </c>
       <c r="D141" t="n">
-        <v>0.466052</v>
+        <v>0.46897</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.54662</v>
+        <v>0.538913</v>
       </c>
       <c r="C142" t="n">
-        <v>0.523639</v>
+        <v>0.526549</v>
       </c>
       <c r="D142" t="n">
-        <v>0.467457</v>
+        <v>0.471917</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.543351</v>
+        <v>0.559809</v>
       </c>
       <c r="C143" t="n">
-        <v>0.530092</v>
+        <v>0.535065</v>
       </c>
       <c r="D143" t="n">
-        <v>0.470177</v>
+        <v>0.477051</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.235572</v>
+        <v>0.235746</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239233</v>
+        <v>0.239362</v>
       </c>
       <c r="D2" t="n">
-        <v>0.225872</v>
+        <v>0.225917</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239749</v>
+        <v>0.240084</v>
       </c>
       <c r="C3" t="n">
-        <v>0.241601</v>
+        <v>0.241987</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226453</v>
+        <v>0.226638</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.247716</v>
+        <v>0.248075</v>
       </c>
       <c r="C4" t="n">
-        <v>0.253517</v>
+        <v>0.254289</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231622</v>
+        <v>0.231863</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.259912</v>
+        <v>0.260472</v>
       </c>
       <c r="C5" t="n">
-        <v>0.267619</v>
+        <v>0.268201</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236281</v>
+        <v>0.236438</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.276394</v>
+        <v>0.276464</v>
       </c>
       <c r="C6" t="n">
-        <v>0.286235</v>
+        <v>0.286224</v>
       </c>
       <c r="D6" t="n">
-        <v>0.242643</v>
+        <v>0.242639</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.297132</v>
+        <v>0.297324</v>
       </c>
       <c r="C7" t="n">
-        <v>0.315865</v>
+        <v>0.316315</v>
       </c>
       <c r="D7" t="n">
-        <v>0.254646</v>
+        <v>0.254576</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.331534</v>
+        <v>0.331784</v>
       </c>
       <c r="C8" t="n">
-        <v>0.351263</v>
+        <v>0.351149</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270744</v>
+        <v>0.27073</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.385776</v>
+        <v>0.386201</v>
       </c>
       <c r="C9" t="n">
-        <v>0.407107</v>
+        <v>0.407492</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224763</v>
+        <v>0.224758</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231166</v>
+        <v>0.231112</v>
       </c>
       <c r="C10" t="n">
-        <v>0.226783</v>
+        <v>0.226798</v>
       </c>
       <c r="D10" t="n">
-        <v>0.224745</v>
+        <v>0.224822</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.231298</v>
+        <v>0.231499</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226971</v>
+        <v>0.227243</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224522</v>
+        <v>0.224753</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.233655</v>
+        <v>0.233796</v>
       </c>
       <c r="C12" t="n">
-        <v>0.229213</v>
+        <v>0.229569</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226295</v>
+        <v>0.226362</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.233469</v>
+        <v>0.233747</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229911</v>
+        <v>0.2301</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225746</v>
+        <v>0.225934</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.236441</v>
+        <v>0.23654</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234318</v>
+        <v>0.234509</v>
       </c>
       <c r="D14" t="n">
-        <v>0.227601</v>
+        <v>0.22772</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.23863</v>
+        <v>0.238694</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237802</v>
+        <v>0.238005</v>
       </c>
       <c r="D15" t="n">
-        <v>0.229324</v>
+        <v>0.229294</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.241871</v>
+        <v>0.241927</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242403</v>
+        <v>0.242688</v>
       </c>
       <c r="D16" t="n">
-        <v>0.230556</v>
+        <v>0.230734</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.245238</v>
+        <v>0.245434</v>
       </c>
       <c r="C17" t="n">
-        <v>0.247768</v>
+        <v>0.248015</v>
       </c>
       <c r="D17" t="n">
-        <v>0.23202</v>
+        <v>0.232311</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.250335</v>
+        <v>0.250562</v>
       </c>
       <c r="C18" t="n">
-        <v>0.253868</v>
+        <v>0.254223</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233517</v>
+        <v>0.233749</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259795</v>
+        <v>0.259924</v>
       </c>
       <c r="C19" t="n">
-        <v>0.264768</v>
+        <v>0.265063</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237885</v>
+        <v>0.237975</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.271196</v>
+        <v>0.271319</v>
       </c>
       <c r="C20" t="n">
-        <v>0.279918</v>
+        <v>0.280118</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241987</v>
+        <v>0.242053</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.291761</v>
+        <v>0.291744</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299906</v>
+        <v>0.3001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.249702</v>
+        <v>0.249671</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.326438</v>
+        <v>0.326505</v>
       </c>
       <c r="C22" t="n">
-        <v>0.327638</v>
+        <v>0.327697</v>
       </c>
       <c r="D22" t="n">
-        <v>0.262568</v>
+        <v>0.262729</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.367573</v>
+        <v>0.367851</v>
       </c>
       <c r="C23" t="n">
-        <v>0.382927</v>
+        <v>0.383104</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227705</v>
+        <v>0.227799</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.235252</v>
+        <v>0.23518</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228765</v>
+        <v>0.228975</v>
       </c>
       <c r="D24" t="n">
-        <v>0.228666</v>
+        <v>0.228733</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235383</v>
+        <v>0.235334</v>
       </c>
       <c r="C25" t="n">
-        <v>0.22922</v>
+        <v>0.229433</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228357</v>
+        <v>0.228492</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236451</v>
+        <v>0.236452</v>
       </c>
       <c r="C26" t="n">
-        <v>0.230512</v>
+        <v>0.230711</v>
       </c>
       <c r="D26" t="n">
-        <v>0.228759</v>
+        <v>0.228933</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.237903</v>
+        <v>0.23797</v>
       </c>
       <c r="C27" t="n">
-        <v>0.232039</v>
+        <v>0.23236</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229192</v>
+        <v>0.229272</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.24007</v>
+        <v>0.240069</v>
       </c>
       <c r="C28" t="n">
-        <v>0.234535</v>
+        <v>0.234891</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230568</v>
+        <v>0.230684</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.241403</v>
+        <v>0.241416</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237161</v>
+        <v>0.237575</v>
       </c>
       <c r="D29" t="n">
-        <v>0.230895</v>
+        <v>0.231084</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.243922</v>
+        <v>0.243988</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240398</v>
+        <v>0.240748</v>
       </c>
       <c r="D30" t="n">
-        <v>0.23217</v>
+        <v>0.23236</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.247251</v>
+        <v>0.247359</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244854</v>
+        <v>0.245035</v>
       </c>
       <c r="D31" t="n">
-        <v>0.23323</v>
+        <v>0.233547</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.252811</v>
+        <v>0.252976</v>
       </c>
       <c r="C32" t="n">
-        <v>0.251476</v>
+        <v>0.251629</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235697</v>
+        <v>0.235834</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.260312</v>
+        <v>0.260396</v>
       </c>
       <c r="C33" t="n">
-        <v>0.261834</v>
+        <v>0.262125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238861</v>
+        <v>0.239137</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270154</v>
+        <v>0.270215</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273649</v>
+        <v>0.274052</v>
       </c>
       <c r="D34" t="n">
-        <v>0.242592</v>
+        <v>0.242908</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.285728</v>
+        <v>0.285808</v>
       </c>
       <c r="C35" t="n">
-        <v>0.291012</v>
+        <v>0.291498</v>
       </c>
       <c r="D35" t="n">
-        <v>0.248119</v>
+        <v>0.24842</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.310135</v>
+        <v>0.310217</v>
       </c>
       <c r="C36" t="n">
-        <v>0.319657</v>
+        <v>0.32015</v>
       </c>
       <c r="D36" t="n">
-        <v>0.259053</v>
+        <v>0.259222</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.351191</v>
+        <v>0.35143</v>
       </c>
       <c r="C37" t="n">
-        <v>0.365035</v>
+        <v>0.365596</v>
       </c>
       <c r="D37" t="n">
-        <v>0.230271</v>
+        <v>0.230432</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.236796</v>
+        <v>0.236691</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230193</v>
+        <v>0.230543</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230095</v>
+        <v>0.230272</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238286</v>
+        <v>0.238139</v>
       </c>
       <c r="C39" t="n">
-        <v>0.232003</v>
+        <v>0.232249</v>
       </c>
       <c r="D39" t="n">
-        <v>0.231135</v>
+        <v>0.231203</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238867</v>
+        <v>0.238694</v>
       </c>
       <c r="C40" t="n">
-        <v>0.232936</v>
+        <v>0.233035</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231154</v>
+        <v>0.231235</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.240284</v>
+        <v>0.240099</v>
       </c>
       <c r="C41" t="n">
-        <v>0.234229</v>
+        <v>0.234357</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231806</v>
+        <v>0.231857</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.242081</v>
+        <v>0.241878</v>
       </c>
       <c r="C42" t="n">
-        <v>0.236016</v>
+        <v>0.236159</v>
       </c>
       <c r="D42" t="n">
-        <v>0.232566</v>
+        <v>0.232703</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.244199</v>
+        <v>0.244015</v>
       </c>
       <c r="C43" t="n">
-        <v>0.238442</v>
+        <v>0.238576</v>
       </c>
       <c r="D43" t="n">
-        <v>0.23329</v>
+        <v>0.233348</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.24705</v>
+        <v>0.24682</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241965</v>
+        <v>0.242061</v>
       </c>
       <c r="D44" t="n">
-        <v>0.234534</v>
+        <v>0.23458</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.250435</v>
+        <v>0.250162</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246393</v>
+        <v>0.246437</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235909</v>
+        <v>0.235999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.25539</v>
+        <v>0.255163</v>
       </c>
       <c r="C46" t="n">
-        <v>0.252561</v>
+        <v>0.252657</v>
       </c>
       <c r="D46" t="n">
-        <v>0.238019</v>
+        <v>0.238107</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261876</v>
+        <v>0.261676</v>
       </c>
       <c r="C47" t="n">
-        <v>0.260829</v>
+        <v>0.260879</v>
       </c>
       <c r="D47" t="n">
-        <v>0.240479</v>
+        <v>0.24053</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271914</v>
+        <v>0.27179</v>
       </c>
       <c r="C48" t="n">
-        <v>0.272762</v>
+        <v>0.272964</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244352</v>
+        <v>0.244407</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.286732</v>
+        <v>0.286509</v>
       </c>
       <c r="C49" t="n">
-        <v>0.289603</v>
+        <v>0.28971</v>
       </c>
       <c r="D49" t="n">
-        <v>0.249866</v>
+        <v>0.2499</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.309948</v>
+        <v>0.309641</v>
       </c>
       <c r="C50" t="n">
-        <v>0.317688</v>
+        <v>0.317833</v>
       </c>
       <c r="D50" t="n">
-        <v>0.260154</v>
+        <v>0.260143</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.345589</v>
+        <v>0.34531</v>
       </c>
       <c r="C51" t="n">
-        <v>0.355708</v>
+        <v>0.355769</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232368</v>
+        <v>0.231899</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.402104</v>
+        <v>0.401306</v>
       </c>
       <c r="C52" t="n">
-        <v>0.422266</v>
+        <v>0.420907</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232847</v>
+        <v>0.232144</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.241815</v>
+        <v>0.242557</v>
       </c>
       <c r="C53" t="n">
-        <v>0.235031</v>
+        <v>0.233914</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233196</v>
+        <v>0.232613</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.242634</v>
+        <v>0.243484</v>
       </c>
       <c r="C54" t="n">
-        <v>0.236088</v>
+        <v>0.23492</v>
       </c>
       <c r="D54" t="n">
-        <v>0.23368</v>
+        <v>0.233048</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.243872</v>
+        <v>0.244659</v>
       </c>
       <c r="C55" t="n">
-        <v>0.237634</v>
+        <v>0.236478</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234342</v>
+        <v>0.23369</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.245218</v>
+        <v>0.246094</v>
       </c>
       <c r="C56" t="n">
-        <v>0.239443</v>
+        <v>0.238204</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235121</v>
+        <v>0.234453</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.247077</v>
+        <v>0.247927</v>
       </c>
       <c r="C57" t="n">
-        <v>0.242027</v>
+        <v>0.240784</v>
       </c>
       <c r="D57" t="n">
-        <v>0.236039</v>
+        <v>0.235328</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.249515</v>
+        <v>0.250315</v>
       </c>
       <c r="C58" t="n">
-        <v>0.245424</v>
+        <v>0.244165</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237131</v>
+        <v>0.236461</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.252586</v>
+        <v>0.253554</v>
       </c>
       <c r="C59" t="n">
-        <v>0.249882</v>
+        <v>0.248645</v>
       </c>
       <c r="D59" t="n">
-        <v>0.238386</v>
+        <v>0.237734</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.257517</v>
+        <v>0.258358</v>
       </c>
       <c r="C60" t="n">
-        <v>0.255452</v>
+        <v>0.254254</v>
       </c>
       <c r="D60" t="n">
-        <v>0.240388</v>
+        <v>0.239599</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264128</v>
+        <v>0.264895</v>
       </c>
       <c r="C61" t="n">
-        <v>0.263083</v>
+        <v>0.261851</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242547</v>
+        <v>0.241871</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.272733</v>
+        <v>0.273547</v>
       </c>
       <c r="C62" t="n">
-        <v>0.273928</v>
+        <v>0.272604</v>
       </c>
       <c r="D62" t="n">
-        <v>0.246098</v>
+        <v>0.245428</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.286012</v>
+        <v>0.28672</v>
       </c>
       <c r="C63" t="n">
-        <v>0.289866</v>
+        <v>0.288496</v>
       </c>
       <c r="D63" t="n">
-        <v>0.251982</v>
+        <v>0.251159</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.30646</v>
+        <v>0.307189</v>
       </c>
       <c r="C64" t="n">
-        <v>0.313858</v>
+        <v>0.312476</v>
       </c>
       <c r="D64" t="n">
-        <v>0.261197</v>
+        <v>0.260384</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.33843</v>
+        <v>0.339128</v>
       </c>
       <c r="C65" t="n">
-        <v>0.35087</v>
+        <v>0.348991</v>
       </c>
       <c r="D65" t="n">
-        <v>0.277389</v>
+        <v>0.276384</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.38792</v>
+        <v>0.388868</v>
       </c>
       <c r="C66" t="n">
-        <v>0.408708</v>
+        <v>0.4061</v>
       </c>
       <c r="D66" t="n">
-        <v>0.244798</v>
+        <v>0.242182</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.259467</v>
+        <v>0.255658</v>
       </c>
       <c r="C67" t="n">
-        <v>0.249307</v>
+        <v>0.245643</v>
       </c>
       <c r="D67" t="n">
-        <v>0.245577</v>
+        <v>0.24297</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.260654</v>
+        <v>0.257601</v>
       </c>
       <c r="C68" t="n">
-        <v>0.249942</v>
+        <v>0.246572</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24598</v>
+        <v>0.243285</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.261865</v>
+        <v>0.258988</v>
       </c>
       <c r="C69" t="n">
-        <v>0.25169</v>
+        <v>0.248275</v>
       </c>
       <c r="D69" t="n">
-        <v>0.246703</v>
+        <v>0.243998</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.26335</v>
+        <v>0.260451</v>
       </c>
       <c r="C70" t="n">
-        <v>0.253573</v>
+        <v>0.250143</v>
       </c>
       <c r="D70" t="n">
-        <v>0.247378</v>
+        <v>0.244661</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.26503</v>
+        <v>0.262277</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256167</v>
+        <v>0.252705</v>
       </c>
       <c r="D71" t="n">
-        <v>0.248254</v>
+        <v>0.245503</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.267553</v>
+        <v>0.264787</v>
       </c>
       <c r="C72" t="n">
-        <v>0.259412</v>
+        <v>0.25588</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249507</v>
+        <v>0.246651</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.270459</v>
+        <v>0.267821</v>
       </c>
       <c r="C73" t="n">
-        <v>0.263605</v>
+        <v>0.259966</v>
       </c>
       <c r="D73" t="n">
-        <v>0.251004</v>
+        <v>0.248119</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.274427</v>
+        <v>0.271808</v>
       </c>
       <c r="C74" t="n">
-        <v>0.269415</v>
+        <v>0.265644</v>
       </c>
       <c r="D74" t="n">
-        <v>0.252849</v>
+        <v>0.249881</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.280186</v>
+        <v>0.277648</v>
       </c>
       <c r="C75" t="n">
-        <v>0.277669</v>
+        <v>0.273876</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255546</v>
+        <v>0.252495</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.288537</v>
+        <v>0.286183</v>
       </c>
       <c r="C76" t="n">
-        <v>0.288542</v>
+        <v>0.284588</v>
       </c>
       <c r="D76" t="n">
-        <v>0.259248</v>
+        <v>0.256126</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.300862</v>
+        <v>0.298654</v>
       </c>
       <c r="C77" t="n">
-        <v>0.303704</v>
+        <v>0.299596</v>
       </c>
       <c r="D77" t="n">
-        <v>0.264635</v>
+        <v>0.261361</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.319836</v>
+        <v>0.31774</v>
       </c>
       <c r="C78" t="n">
-        <v>0.32584</v>
+        <v>0.321545</v>
       </c>
       <c r="D78" t="n">
-        <v>0.273362</v>
+        <v>0.269918</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.347669</v>
+        <v>0.345586</v>
       </c>
       <c r="C79" t="n">
-        <v>0.36061</v>
+        <v>0.356142</v>
       </c>
       <c r="D79" t="n">
-        <v>0.287788</v>
+        <v>0.284114</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.392565</v>
+        <v>0.390403</v>
       </c>
       <c r="C80" t="n">
-        <v>0.413155</v>
+        <v>0.408321</v>
       </c>
       <c r="D80" t="n">
-        <v>0.266692</v>
+        <v>0.265225</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.277103</v>
+        <v>0.27731</v>
       </c>
       <c r="C81" t="n">
-        <v>0.267956</v>
+        <v>0.266596</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2671</v>
+        <v>0.265637</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.277785</v>
+        <v>0.278147</v>
       </c>
       <c r="C82" t="n">
-        <v>0.269028</v>
+        <v>0.267686</v>
       </c>
       <c r="D82" t="n">
-        <v>0.267528</v>
+        <v>0.266078</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.278806</v>
+        <v>0.279132</v>
       </c>
       <c r="C83" t="n">
-        <v>0.270312</v>
+        <v>0.268905</v>
       </c>
       <c r="D83" t="n">
-        <v>0.268064</v>
+        <v>0.266588</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.280116</v>
+        <v>0.280427</v>
       </c>
       <c r="C84" t="n">
-        <v>0.272047</v>
+        <v>0.270692</v>
       </c>
       <c r="D84" t="n">
-        <v>0.268676</v>
+        <v>0.267211</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.281695</v>
+        <v>0.282002</v>
       </c>
       <c r="C85" t="n">
-        <v>0.274076</v>
+        <v>0.272754</v>
       </c>
       <c r="D85" t="n">
-        <v>0.269444</v>
+        <v>0.267868</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.283711</v>
+        <v>0.284002</v>
       </c>
       <c r="C86" t="n">
-        <v>0.276669</v>
+        <v>0.27539</v>
       </c>
       <c r="D86" t="n">
-        <v>0.270329</v>
+        <v>0.268817</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.286408</v>
+        <v>0.286718</v>
       </c>
       <c r="C87" t="n">
-        <v>0.280379</v>
+        <v>0.279024</v>
       </c>
       <c r="D87" t="n">
-        <v>0.271541</v>
+        <v>0.270036</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.290091</v>
+        <v>0.290424</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2854</v>
+        <v>0.284117</v>
       </c>
       <c r="D88" t="n">
-        <v>0.273181</v>
+        <v>0.27161</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.295388</v>
+        <v>0.295716</v>
       </c>
       <c r="C89" t="n">
-        <v>0.292685</v>
+        <v>0.29137</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2755</v>
+        <v>0.273974</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.30303</v>
+        <v>0.303411</v>
       </c>
       <c r="C90" t="n">
-        <v>0.302504</v>
+        <v>0.301182</v>
       </c>
       <c r="D90" t="n">
-        <v>0.278748</v>
+        <v>0.277219</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.314194</v>
+        <v>0.314623</v>
       </c>
       <c r="C91" t="n">
-        <v>0.316163</v>
+        <v>0.314948</v>
       </c>
       <c r="D91" t="n">
-        <v>0.283484</v>
+        <v>0.281976</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.330837</v>
+        <v>0.331381</v>
       </c>
       <c r="C92" t="n">
-        <v>0.335719</v>
+        <v>0.334573</v>
       </c>
       <c r="D92" t="n">
-        <v>0.290938</v>
+        <v>0.289458</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.356352</v>
+        <v>0.356889</v>
       </c>
       <c r="C93" t="n">
-        <v>0.366557</v>
+        <v>0.365338</v>
       </c>
       <c r="D93" t="n">
-        <v>0.303379</v>
+        <v>0.301892</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.396812</v>
+        <v>0.397455</v>
       </c>
       <c r="C94" t="n">
-        <v>0.416013</v>
+        <v>0.414693</v>
       </c>
       <c r="D94" t="n">
-        <v>0.273847</v>
+        <v>0.274996</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.284522</v>
+        <v>0.286488</v>
       </c>
       <c r="C95" t="n">
-        <v>0.274903</v>
+        <v>0.276848</v>
       </c>
       <c r="D95" t="n">
-        <v>0.274303</v>
+        <v>0.275462</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.285323</v>
+        <v>0.28753</v>
       </c>
       <c r="C96" t="n">
-        <v>0.276246</v>
+        <v>0.278028</v>
       </c>
       <c r="D96" t="n">
-        <v>0.274779</v>
+        <v>0.276001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.286493</v>
+        <v>0.288823</v>
       </c>
       <c r="C97" t="n">
-        <v>0.277695</v>
+        <v>0.279502</v>
       </c>
       <c r="D97" t="n">
-        <v>0.275507</v>
+        <v>0.276561</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.287746</v>
+        <v>0.290035</v>
       </c>
       <c r="C98" t="n">
-        <v>0.279727</v>
+        <v>0.281424</v>
       </c>
       <c r="D98" t="n">
-        <v>0.276074</v>
+        <v>0.277221</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.289388</v>
+        <v>0.291905</v>
       </c>
       <c r="C99" t="n">
-        <v>0.282231</v>
+        <v>0.283947</v>
       </c>
       <c r="D99" t="n">
-        <v>0.276771</v>
+        <v>0.278008</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.291604</v>
+        <v>0.294105</v>
       </c>
       <c r="C100" t="n">
-        <v>0.285514</v>
+        <v>0.287143</v>
       </c>
       <c r="D100" t="n">
-        <v>0.27758</v>
+        <v>0.278984</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.294442</v>
+        <v>0.297065</v>
       </c>
       <c r="C101" t="n">
-        <v>0.289712</v>
+        <v>0.291562</v>
       </c>
       <c r="D101" t="n">
-        <v>0.278683</v>
+        <v>0.280234</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.29854</v>
+        <v>0.301254</v>
       </c>
       <c r="C102" t="n">
-        <v>0.295582</v>
+        <v>0.297481</v>
       </c>
       <c r="D102" t="n">
-        <v>0.280341</v>
+        <v>0.281854</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.304357</v>
+        <v>0.306969</v>
       </c>
       <c r="C103" t="n">
-        <v>0.303866</v>
+        <v>0.305798</v>
       </c>
       <c r="D103" t="n">
-        <v>0.282787</v>
+        <v>0.284218</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.312446</v>
+        <v>0.315501</v>
       </c>
       <c r="C104" t="n">
-        <v>0.314827</v>
+        <v>0.317116</v>
       </c>
       <c r="D104" t="n">
-        <v>0.285952</v>
+        <v>0.287596</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.324662</v>
+        <v>0.327589</v>
       </c>
       <c r="C105" t="n">
-        <v>0.329921</v>
+        <v>0.332426</v>
       </c>
       <c r="D105" t="n">
-        <v>0.290851</v>
+        <v>0.292355</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.342657</v>
+        <v>0.345572</v>
       </c>
       <c r="C106" t="n">
-        <v>0.350625</v>
+        <v>0.353185</v>
       </c>
       <c r="D106" t="n">
-        <v>0.298401</v>
+        <v>0.299791</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.369503</v>
+        <v>0.372553</v>
       </c>
       <c r="C107" t="n">
-        <v>0.381625</v>
+        <v>0.384583</v>
       </c>
       <c r="D107" t="n">
-        <v>0.311056</v>
+        <v>0.31255</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.410763</v>
+        <v>0.413644</v>
       </c>
       <c r="C108" t="n">
-        <v>0.428965</v>
+        <v>0.432227</v>
       </c>
       <c r="D108" t="n">
-        <v>0.28102</v>
+        <v>0.280998</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.478384</v>
+        <v>0.476594</v>
       </c>
       <c r="C109" t="n">
-        <v>0.50421</v>
+        <v>0.504224</v>
       </c>
       <c r="D109" t="n">
-        <v>0.282208</v>
+        <v>0.282299</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.307189</v>
+        <v>0.306714</v>
       </c>
       <c r="C110" t="n">
-        <v>0.299975</v>
+        <v>0.299881</v>
       </c>
       <c r="D110" t="n">
-        <v>0.283278</v>
+        <v>0.283095</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.311717</v>
+        <v>0.311921</v>
       </c>
       <c r="C111" t="n">
-        <v>0.305456</v>
+        <v>0.305772</v>
       </c>
       <c r="D111" t="n">
-        <v>0.28445</v>
+        <v>0.2848</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.316803</v>
+        <v>0.316418</v>
       </c>
       <c r="C112" t="n">
-        <v>0.311809</v>
+        <v>0.311425</v>
       </c>
       <c r="D112" t="n">
-        <v>0.285638</v>
+        <v>0.286273</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.322009</v>
+        <v>0.323459</v>
       </c>
       <c r="C113" t="n">
-        <v>0.317837</v>
+        <v>0.318563</v>
       </c>
       <c r="D113" t="n">
-        <v>0.287405</v>
+        <v>0.287905</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.329631</v>
+        <v>0.32918</v>
       </c>
       <c r="C114" t="n">
-        <v>0.325211</v>
+        <v>0.325279</v>
       </c>
       <c r="D114" t="n">
-        <v>0.290446</v>
+        <v>0.290074</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.33232</v>
+        <v>0.337053</v>
       </c>
       <c r="C115" t="n">
-        <v>0.333442</v>
+        <v>0.333329</v>
       </c>
       <c r="D115" t="n">
-        <v>0.29344</v>
+        <v>0.294226</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.344789</v>
+        <v>0.344836</v>
       </c>
       <c r="C116" t="n">
-        <v>0.341412</v>
+        <v>0.342621</v>
       </c>
       <c r="D116" t="n">
-        <v>0.297683</v>
+        <v>0.297704</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.354446</v>
+        <v>0.3545</v>
       </c>
       <c r="C117" t="n">
-        <v>0.353748</v>
+        <v>0.353558</v>
       </c>
       <c r="D117" t="n">
-        <v>0.303109</v>
+        <v>0.303301</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.360905</v>
+        <v>0.360858</v>
       </c>
       <c r="C118" t="n">
-        <v>0.366828</v>
+        <v>0.366696</v>
       </c>
       <c r="D118" t="n">
-        <v>0.30985</v>
+        <v>0.31074</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.381034</v>
+        <v>0.380814</v>
       </c>
       <c r="C119" t="n">
-        <v>0.383786</v>
+        <v>0.381328</v>
       </c>
       <c r="D119" t="n">
-        <v>0.318713</v>
+        <v>0.318643</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.400915</v>
+        <v>0.401103</v>
       </c>
       <c r="C120" t="n">
-        <v>0.406582</v>
+        <v>0.406052</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329455</v>
+        <v>0.329537</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.429534</v>
+        <v>0.423619</v>
       </c>
       <c r="C121" t="n">
-        <v>0.438133</v>
+        <v>0.437941</v>
       </c>
       <c r="D121" t="n">
-        <v>0.345365</v>
+        <v>0.345272</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.471904</v>
+        <v>0.471366</v>
       </c>
       <c r="C122" t="n">
-        <v>0.482508</v>
+        <v>0.481816</v>
       </c>
       <c r="D122" t="n">
-        <v>0.369284</v>
+        <v>0.36893</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.536284</v>
+        <v>0.535883</v>
       </c>
       <c r="C123" t="n">
-        <v>0.563035</v>
+        <v>0.562109</v>
       </c>
       <c r="D123" t="n">
-        <v>0.311258</v>
+        <v>0.311133</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.342706</v>
+        <v>0.358545</v>
       </c>
       <c r="C124" t="n">
-        <v>0.349377</v>
+        <v>0.347871</v>
       </c>
       <c r="D124" t="n">
-        <v>0.316129</v>
+        <v>0.31488</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34892</v>
+        <v>0.362605</v>
       </c>
       <c r="C125" t="n">
-        <v>0.352943</v>
+        <v>0.351173</v>
       </c>
       <c r="D125" t="n">
-        <v>0.317854</v>
+        <v>0.317337</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.37352</v>
+        <v>0.365867</v>
       </c>
       <c r="C126" t="n">
-        <v>0.356811</v>
+        <v>0.356349</v>
       </c>
       <c r="D126" t="n">
-        <v>0.320908</v>
+        <v>0.320682</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.376767</v>
+        <v>0.371291</v>
       </c>
       <c r="C127" t="n">
-        <v>0.362737</v>
+        <v>0.361893</v>
       </c>
       <c r="D127" t="n">
-        <v>0.32549</v>
+        <v>0.324398</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.361433</v>
+        <v>0.376138</v>
       </c>
       <c r="C128" t="n">
-        <v>0.368193</v>
+        <v>0.368041</v>
       </c>
       <c r="D128" t="n">
-        <v>0.328196</v>
+        <v>0.327395</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.382709</v>
+        <v>0.383576</v>
       </c>
       <c r="C129" t="n">
-        <v>0.377381</v>
+        <v>0.375537</v>
       </c>
       <c r="D129" t="n">
-        <v>0.333131</v>
+        <v>0.331581</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.389187</v>
+        <v>0.372929</v>
       </c>
       <c r="C130" t="n">
-        <v>0.385208</v>
+        <v>0.384382</v>
       </c>
       <c r="D130" t="n">
-        <v>0.336175</v>
+        <v>0.335923</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.398978</v>
+        <v>0.403176</v>
       </c>
       <c r="C131" t="n">
-        <v>0.39442</v>
+        <v>0.397039</v>
       </c>
       <c r="D131" t="n">
-        <v>0.340873</v>
+        <v>0.342004</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.410563</v>
+        <v>0.407103</v>
       </c>
       <c r="C132" t="n">
-        <v>0.409398</v>
+        <v>0.408619</v>
       </c>
       <c r="D132" t="n">
-        <v>0.34707</v>
+        <v>0.346576</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.429431</v>
+        <v>0.424735</v>
       </c>
       <c r="C133" t="n">
-        <v>0.425843</v>
+        <v>0.425449</v>
       </c>
       <c r="D133" t="n">
-        <v>0.352978</v>
+        <v>0.35338</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.443205</v>
+        <v>0.443586</v>
       </c>
       <c r="C134" t="n">
-        <v>0.451397</v>
+        <v>0.45013</v>
       </c>
       <c r="D134" t="n">
-        <v>0.363662</v>
+        <v>0.362948</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.47258</v>
+        <v>0.469983</v>
       </c>
       <c r="C135" t="n">
-        <v>0.485952</v>
+        <v>0.485893</v>
       </c>
       <c r="D135" t="n">
-        <v>0.378304</v>
+        <v>0.379299</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.496267</v>
+        <v>0.512756</v>
       </c>
       <c r="C136" t="n">
-        <v>0.536067</v>
+        <v>0.532382</v>
       </c>
       <c r="D136" t="n">
-        <v>0.399763</v>
+        <v>0.398697</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.580372</v>
+        <v>0.573272</v>
       </c>
       <c r="C137" t="n">
-        <v>0.606275</v>
+        <v>0.606847</v>
       </c>
       <c r="D137" t="n">
-        <v>0.448652</v>
+        <v>0.456366</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.515373</v>
+        <v>0.51572</v>
       </c>
       <c r="C138" t="n">
-        <v>0.492961</v>
+        <v>0.497607</v>
       </c>
       <c r="D138" t="n">
-        <v>0.448509</v>
+        <v>0.455733</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.529443</v>
+        <v>0.511296</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5053</v>
+        <v>0.5030019999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.460097</v>
+        <v>0.45802</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.536582</v>
+        <v>0.531162</v>
       </c>
       <c r="C140" t="n">
-        <v>0.506231</v>
+        <v>0.5106270000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.457183</v>
+        <v>0.462949</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.527574</v>
+        <v>0.511719</v>
       </c>
       <c r="C141" t="n">
-        <v>0.518583</v>
+        <v>0.514352</v>
       </c>
       <c r="D141" t="n">
-        <v>0.46897</v>
+        <v>0.463097</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.538913</v>
+        <v>0.542728</v>
       </c>
       <c r="C142" t="n">
-        <v>0.526549</v>
+        <v>0.525172</v>
       </c>
       <c r="D142" t="n">
-        <v>0.471917</v>
+        <v>0.470941</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.559809</v>
+        <v>0.546003</v>
       </c>
       <c r="C143" t="n">
-        <v>0.535065</v>
+        <v>0.530892</v>
       </c>
       <c r="D143" t="n">
-        <v>0.477051</v>
+        <v>0.470656</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.235746</v>
+        <v>0.235784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239362</v>
+        <v>0.239348</v>
       </c>
       <c r="D2" t="n">
-        <v>0.225917</v>
+        <v>0.225857</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.240084</v>
+        <v>0.239689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.241987</v>
+        <v>0.241455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226638</v>
+        <v>0.226614</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.248075</v>
+        <v>0.247755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.254289</v>
+        <v>0.253695</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231863</v>
+        <v>0.231846</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260472</v>
+        <v>0.260114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.268201</v>
+        <v>0.267835</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236438</v>
+        <v>0.236341</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.276464</v>
+        <v>0.276505</v>
       </c>
       <c r="C6" t="n">
-        <v>0.286224</v>
+        <v>0.286298</v>
       </c>
       <c r="D6" t="n">
-        <v>0.242639</v>
+        <v>0.242796</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.297324</v>
+        <v>0.297267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.316315</v>
+        <v>0.315977</v>
       </c>
       <c r="D7" t="n">
-        <v>0.254576</v>
+        <v>0.254595</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.331784</v>
+        <v>0.331605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.351149</v>
+        <v>0.351086</v>
       </c>
       <c r="D8" t="n">
-        <v>0.27073</v>
+        <v>0.270701</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.386201</v>
+        <v>0.386163</v>
       </c>
       <c r="C9" t="n">
-        <v>0.407492</v>
+        <v>0.406608</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224758</v>
+        <v>0.224665</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.231112</v>
+        <v>0.23096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.226798</v>
+        <v>0.226298</v>
       </c>
       <c r="D10" t="n">
-        <v>0.224822</v>
+        <v>0.22467</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.231499</v>
+        <v>0.231349</v>
       </c>
       <c r="C11" t="n">
-        <v>0.227243</v>
+        <v>0.226879</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224753</v>
+        <v>0.224442</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.233796</v>
+        <v>0.233579</v>
       </c>
       <c r="C12" t="n">
-        <v>0.229569</v>
+        <v>0.229274</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226362</v>
+        <v>0.226229</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.233747</v>
+        <v>0.233597</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2301</v>
+        <v>0.229827</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225934</v>
+        <v>0.225724</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.23654</v>
+        <v>0.236516</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234509</v>
+        <v>0.234293</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22772</v>
+        <v>0.227557</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.238694</v>
+        <v>0.238732</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238005</v>
+        <v>0.237685</v>
       </c>
       <c r="D15" t="n">
-        <v>0.229294</v>
+        <v>0.229178</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.241927</v>
+        <v>0.241892</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242688</v>
+        <v>0.242301</v>
       </c>
       <c r="D16" t="n">
-        <v>0.230734</v>
+        <v>0.230422</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.245434</v>
+        <v>0.245367</v>
       </c>
       <c r="C17" t="n">
-        <v>0.248015</v>
+        <v>0.247743</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232311</v>
+        <v>0.232002</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.250562</v>
+        <v>0.250368</v>
       </c>
       <c r="C18" t="n">
-        <v>0.254223</v>
+        <v>0.253885</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233749</v>
+        <v>0.233451</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259924</v>
+        <v>0.259789</v>
       </c>
       <c r="C19" t="n">
-        <v>0.265063</v>
+        <v>0.264698</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237975</v>
+        <v>0.237794</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.271319</v>
+        <v>0.271189</v>
       </c>
       <c r="C20" t="n">
-        <v>0.280118</v>
+        <v>0.279766</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242053</v>
+        <v>0.2417</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.291744</v>
+        <v>0.291872</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3001</v>
+        <v>0.299766</v>
       </c>
       <c r="D21" t="n">
-        <v>0.249671</v>
+        <v>0.24936</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.326505</v>
+        <v>0.326507</v>
       </c>
       <c r="C22" t="n">
-        <v>0.327697</v>
+        <v>0.327417</v>
       </c>
       <c r="D22" t="n">
-        <v>0.262729</v>
+        <v>0.262562</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.367851</v>
+        <v>0.367732</v>
       </c>
       <c r="C23" t="n">
-        <v>0.383104</v>
+        <v>0.38298</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227799</v>
+        <v>0.227751</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.23518</v>
+        <v>0.235227</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228975</v>
+        <v>0.228674</v>
       </c>
       <c r="D24" t="n">
-        <v>0.228733</v>
+        <v>0.228554</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235334</v>
+        <v>0.235381</v>
       </c>
       <c r="C25" t="n">
-        <v>0.229433</v>
+        <v>0.229054</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228492</v>
+        <v>0.228283</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236452</v>
+        <v>0.236521</v>
       </c>
       <c r="C26" t="n">
-        <v>0.230711</v>
+        <v>0.230479</v>
       </c>
       <c r="D26" t="n">
-        <v>0.228933</v>
+        <v>0.22876</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.23797</v>
+        <v>0.237966</v>
       </c>
       <c r="C27" t="n">
-        <v>0.23236</v>
+        <v>0.231924</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229272</v>
+        <v>0.229059</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.240069</v>
+        <v>0.240047</v>
       </c>
       <c r="C28" t="n">
-        <v>0.234891</v>
+        <v>0.234423</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230684</v>
+        <v>0.230484</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.241416</v>
+        <v>0.2414</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237575</v>
+        <v>0.237256</v>
       </c>
       <c r="D29" t="n">
-        <v>0.231084</v>
+        <v>0.230933</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.243988</v>
+        <v>0.243933</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240748</v>
+        <v>0.240547</v>
       </c>
       <c r="D30" t="n">
-        <v>0.23236</v>
+        <v>0.232149</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.247359</v>
+        <v>0.247283</v>
       </c>
       <c r="C31" t="n">
-        <v>0.245035</v>
+        <v>0.244836</v>
       </c>
       <c r="D31" t="n">
-        <v>0.233547</v>
+        <v>0.23337</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.252976</v>
+        <v>0.2529</v>
       </c>
       <c r="C32" t="n">
-        <v>0.251629</v>
+        <v>0.251421</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235834</v>
+        <v>0.235588</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.260396</v>
+        <v>0.260316</v>
       </c>
       <c r="C33" t="n">
-        <v>0.262125</v>
+        <v>0.261843</v>
       </c>
       <c r="D33" t="n">
-        <v>0.239137</v>
+        <v>0.238819</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270215</v>
+        <v>0.270188</v>
       </c>
       <c r="C34" t="n">
-        <v>0.274052</v>
+        <v>0.273736</v>
       </c>
       <c r="D34" t="n">
-        <v>0.242908</v>
+        <v>0.242656</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.285808</v>
+        <v>0.285786</v>
       </c>
       <c r="C35" t="n">
-        <v>0.291498</v>
+        <v>0.291088</v>
       </c>
       <c r="D35" t="n">
-        <v>0.24842</v>
+        <v>0.248257</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.310217</v>
+        <v>0.310221</v>
       </c>
       <c r="C36" t="n">
-        <v>0.32015</v>
+        <v>0.319802</v>
       </c>
       <c r="D36" t="n">
-        <v>0.259222</v>
+        <v>0.259033</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.35143</v>
+        <v>0.351234</v>
       </c>
       <c r="C37" t="n">
-        <v>0.365596</v>
+        <v>0.365076</v>
       </c>
       <c r="D37" t="n">
-        <v>0.230432</v>
+        <v>0.230398</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.236691</v>
+        <v>0.236763</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230543</v>
+        <v>0.230428</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230272</v>
+        <v>0.230186</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238139</v>
+        <v>0.238222</v>
       </c>
       <c r="C39" t="n">
-        <v>0.232249</v>
+        <v>0.232158</v>
       </c>
       <c r="D39" t="n">
-        <v>0.231203</v>
+        <v>0.231174</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238694</v>
+        <v>0.238803</v>
       </c>
       <c r="C40" t="n">
-        <v>0.233035</v>
+        <v>0.232921</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231235</v>
+        <v>0.231208</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.240099</v>
+        <v>0.240218</v>
       </c>
       <c r="C41" t="n">
-        <v>0.234357</v>
+        <v>0.234308</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231857</v>
+        <v>0.231873</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.241878</v>
+        <v>0.242022</v>
       </c>
       <c r="C42" t="n">
-        <v>0.236159</v>
+        <v>0.236033</v>
       </c>
       <c r="D42" t="n">
-        <v>0.232703</v>
+        <v>0.232628</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.244015</v>
+        <v>0.244126</v>
       </c>
       <c r="C43" t="n">
-        <v>0.238576</v>
+        <v>0.238491</v>
       </c>
       <c r="D43" t="n">
-        <v>0.233348</v>
+        <v>0.233312</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.24682</v>
+        <v>0.246942</v>
       </c>
       <c r="C44" t="n">
-        <v>0.242061</v>
+        <v>0.242034</v>
       </c>
       <c r="D44" t="n">
-        <v>0.23458</v>
+        <v>0.234551</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.250162</v>
+        <v>0.250347</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246437</v>
+        <v>0.246446</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235999</v>
+        <v>0.235936</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.255163</v>
+        <v>0.255274</v>
       </c>
       <c r="C46" t="n">
-        <v>0.252657</v>
+        <v>0.25262</v>
       </c>
       <c r="D46" t="n">
-        <v>0.238107</v>
+        <v>0.238063</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261676</v>
+        <v>0.261858</v>
       </c>
       <c r="C47" t="n">
-        <v>0.260879</v>
+        <v>0.260913</v>
       </c>
       <c r="D47" t="n">
-        <v>0.24053</v>
+        <v>0.240497</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.27179</v>
+        <v>0.271872</v>
       </c>
       <c r="C48" t="n">
-        <v>0.272964</v>
+        <v>0.272905</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244407</v>
+        <v>0.2443</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.286509</v>
+        <v>0.28674</v>
       </c>
       <c r="C49" t="n">
-        <v>0.28971</v>
+        <v>0.289688</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2499</v>
+        <v>0.249826</v>
       </c>
     </row>
     <row r="50">
@@ -3920,10 +3920,10 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.309641</v>
+        <v>0.30988</v>
       </c>
       <c r="C50" t="n">
-        <v>0.317833</v>
+        <v>0.317842</v>
       </c>
       <c r="D50" t="n">
         <v>0.260143</v>
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.34531</v>
+        <v>0.345618</v>
       </c>
       <c r="C51" t="n">
-        <v>0.355769</v>
+        <v>0.355935</v>
       </c>
       <c r="D51" t="n">
-        <v>0.231899</v>
+        <v>0.232658</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.401306</v>
+        <v>0.399722</v>
       </c>
       <c r="C52" t="n">
-        <v>0.420907</v>
+        <v>0.420503</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232144</v>
+        <v>0.232975</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242557</v>
+        <v>0.24235</v>
       </c>
       <c r="C53" t="n">
-        <v>0.233914</v>
+        <v>0.235057</v>
       </c>
       <c r="D53" t="n">
-        <v>0.232613</v>
+        <v>0.233368</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243484</v>
+        <v>0.243126</v>
       </c>
       <c r="C54" t="n">
-        <v>0.23492</v>
+        <v>0.23631</v>
       </c>
       <c r="D54" t="n">
-        <v>0.233048</v>
+        <v>0.233821</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.244659</v>
+        <v>0.244362</v>
       </c>
       <c r="C55" t="n">
-        <v>0.236478</v>
+        <v>0.237855</v>
       </c>
       <c r="D55" t="n">
-        <v>0.23369</v>
+        <v>0.234498</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.246094</v>
+        <v>0.245732</v>
       </c>
       <c r="C56" t="n">
-        <v>0.238204</v>
+        <v>0.239657</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234453</v>
+        <v>0.235243</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.247927</v>
+        <v>0.247553</v>
       </c>
       <c r="C57" t="n">
-        <v>0.240784</v>
+        <v>0.242244</v>
       </c>
       <c r="D57" t="n">
-        <v>0.235328</v>
+        <v>0.236158</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.250315</v>
+        <v>0.249942</v>
       </c>
       <c r="C58" t="n">
-        <v>0.244165</v>
+        <v>0.245673</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236461</v>
+        <v>0.237243</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.253554</v>
+        <v>0.253116</v>
       </c>
       <c r="C59" t="n">
-        <v>0.248645</v>
+        <v>0.250169</v>
       </c>
       <c r="D59" t="n">
-        <v>0.237734</v>
+        <v>0.238483</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.258358</v>
+        <v>0.257953</v>
       </c>
       <c r="C60" t="n">
-        <v>0.254254</v>
+        <v>0.255762</v>
       </c>
       <c r="D60" t="n">
-        <v>0.239599</v>
+        <v>0.24046</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264895</v>
+        <v>0.264531</v>
       </c>
       <c r="C61" t="n">
-        <v>0.261851</v>
+        <v>0.263391</v>
       </c>
       <c r="D61" t="n">
-        <v>0.241871</v>
+        <v>0.242721</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.273547</v>
+        <v>0.273149</v>
       </c>
       <c r="C62" t="n">
-        <v>0.272604</v>
+        <v>0.274254</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245428</v>
+        <v>0.246334</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.28672</v>
+        <v>0.286359</v>
       </c>
       <c r="C63" t="n">
-        <v>0.288496</v>
+        <v>0.290215</v>
       </c>
       <c r="D63" t="n">
-        <v>0.251159</v>
+        <v>0.25216</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.307189</v>
+        <v>0.306803</v>
       </c>
       <c r="C64" t="n">
-        <v>0.312476</v>
+        <v>0.314116</v>
       </c>
       <c r="D64" t="n">
-        <v>0.260384</v>
+        <v>0.261375</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.339128</v>
+        <v>0.338646</v>
       </c>
       <c r="C65" t="n">
-        <v>0.348991</v>
+        <v>0.351292</v>
       </c>
       <c r="D65" t="n">
-        <v>0.276384</v>
+        <v>0.277547</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.388868</v>
+        <v>0.388573</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4061</v>
+        <v>0.408925</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242182</v>
+        <v>0.247784</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.255658</v>
+        <v>0.25812</v>
       </c>
       <c r="C67" t="n">
-        <v>0.245643</v>
+        <v>0.250543</v>
       </c>
       <c r="D67" t="n">
-        <v>0.24297</v>
+        <v>0.248139</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.257601</v>
+        <v>0.258231</v>
       </c>
       <c r="C68" t="n">
-        <v>0.246572</v>
+        <v>0.251634</v>
       </c>
       <c r="D68" t="n">
-        <v>0.243285</v>
+        <v>0.248452</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.258988</v>
+        <v>0.259504</v>
       </c>
       <c r="C69" t="n">
-        <v>0.248275</v>
+        <v>0.253289</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243998</v>
+        <v>0.249135</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.260451</v>
+        <v>0.260959</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250143</v>
+        <v>0.255176</v>
       </c>
       <c r="D70" t="n">
-        <v>0.244661</v>
+        <v>0.249805</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.262277</v>
+        <v>0.262759</v>
       </c>
       <c r="C71" t="n">
-        <v>0.252705</v>
+        <v>0.257731</v>
       </c>
       <c r="D71" t="n">
-        <v>0.245503</v>
+        <v>0.250643</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.264787</v>
+        <v>0.265315</v>
       </c>
       <c r="C72" t="n">
-        <v>0.25588</v>
+        <v>0.260892</v>
       </c>
       <c r="D72" t="n">
-        <v>0.246651</v>
+        <v>0.251774</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.267821</v>
+        <v>0.268288</v>
       </c>
       <c r="C73" t="n">
-        <v>0.259966</v>
+        <v>0.264917</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248119</v>
+        <v>0.253177</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.271808</v>
+        <v>0.272322</v>
       </c>
       <c r="C74" t="n">
-        <v>0.265644</v>
+        <v>0.270723</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249881</v>
+        <v>0.254941</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.277648</v>
+        <v>0.278122</v>
       </c>
       <c r="C75" t="n">
-        <v>0.273876</v>
+        <v>0.278865</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252495</v>
+        <v>0.257583</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.286183</v>
+        <v>0.286603</v>
       </c>
       <c r="C76" t="n">
-        <v>0.284588</v>
+        <v>0.289594</v>
       </c>
       <c r="D76" t="n">
-        <v>0.256126</v>
+        <v>0.261134</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.298654</v>
+        <v>0.298968</v>
       </c>
       <c r="C77" t="n">
-        <v>0.299596</v>
+        <v>0.304717</v>
       </c>
       <c r="D77" t="n">
-        <v>0.261361</v>
+        <v>0.266504</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.31774</v>
+        <v>0.317927</v>
       </c>
       <c r="C78" t="n">
-        <v>0.321545</v>
+        <v>0.326711</v>
       </c>
       <c r="D78" t="n">
-        <v>0.269918</v>
+        <v>0.275139</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.345586</v>
+        <v>0.345897</v>
       </c>
       <c r="C79" t="n">
-        <v>0.356142</v>
+        <v>0.361444</v>
       </c>
       <c r="D79" t="n">
-        <v>0.284114</v>
+        <v>0.289569</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.390403</v>
+        <v>0.390604</v>
       </c>
       <c r="C80" t="n">
-        <v>0.408321</v>
+        <v>0.413887</v>
       </c>
       <c r="D80" t="n">
-        <v>0.265225</v>
+        <v>0.266644</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.27731</v>
+        <v>0.277144</v>
       </c>
       <c r="C81" t="n">
-        <v>0.266596</v>
+        <v>0.267945</v>
       </c>
       <c r="D81" t="n">
-        <v>0.265637</v>
+        <v>0.267004</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.278147</v>
+        <v>0.277893</v>
       </c>
       <c r="C82" t="n">
-        <v>0.267686</v>
+        <v>0.269041</v>
       </c>
       <c r="D82" t="n">
-        <v>0.266078</v>
+        <v>0.267449</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.279132</v>
+        <v>0.278866</v>
       </c>
       <c r="C83" t="n">
-        <v>0.268905</v>
+        <v>0.270304</v>
       </c>
       <c r="D83" t="n">
-        <v>0.266588</v>
+        <v>0.267965</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.280427</v>
+        <v>0.280236</v>
       </c>
       <c r="C84" t="n">
-        <v>0.270692</v>
+        <v>0.272026</v>
       </c>
       <c r="D84" t="n">
-        <v>0.267211</v>
+        <v>0.268604</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.282002</v>
+        <v>0.281946</v>
       </c>
       <c r="C85" t="n">
-        <v>0.272754</v>
+        <v>0.274157</v>
       </c>
       <c r="D85" t="n">
-        <v>0.267868</v>
+        <v>0.269303</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.284002</v>
+        <v>0.283924</v>
       </c>
       <c r="C86" t="n">
-        <v>0.27539</v>
+        <v>0.276779</v>
       </c>
       <c r="D86" t="n">
-        <v>0.268817</v>
+        <v>0.270297</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.286718</v>
+        <v>0.286632</v>
       </c>
       <c r="C87" t="n">
-        <v>0.279024</v>
+        <v>0.280435</v>
       </c>
       <c r="D87" t="n">
-        <v>0.270036</v>
+        <v>0.271478</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.290424</v>
+        <v>0.290278</v>
       </c>
       <c r="C88" t="n">
-        <v>0.284117</v>
+        <v>0.285566</v>
       </c>
       <c r="D88" t="n">
-        <v>0.27161</v>
+        <v>0.273094</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.295716</v>
+        <v>0.295569</v>
       </c>
       <c r="C89" t="n">
-        <v>0.29137</v>
+        <v>0.292802</v>
       </c>
       <c r="D89" t="n">
-        <v>0.273974</v>
+        <v>0.275408</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.303411</v>
+        <v>0.30327</v>
       </c>
       <c r="C90" t="n">
-        <v>0.301182</v>
+        <v>0.302643</v>
       </c>
       <c r="D90" t="n">
-        <v>0.277219</v>
+        <v>0.278687</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.314623</v>
+        <v>0.314435</v>
       </c>
       <c r="C91" t="n">
-        <v>0.314948</v>
+        <v>0.316434</v>
       </c>
       <c r="D91" t="n">
-        <v>0.281976</v>
+        <v>0.283441</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.331381</v>
+        <v>0.331203</v>
       </c>
       <c r="C92" t="n">
-        <v>0.334573</v>
+        <v>0.336076</v>
       </c>
       <c r="D92" t="n">
-        <v>0.289458</v>
+        <v>0.290947</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.356889</v>
+        <v>0.35665</v>
       </c>
       <c r="C93" t="n">
-        <v>0.365338</v>
+        <v>0.366867</v>
       </c>
       <c r="D93" t="n">
-        <v>0.301892</v>
+        <v>0.3034</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.397455</v>
+        <v>0.397199</v>
       </c>
       <c r="C94" t="n">
-        <v>0.414693</v>
+        <v>0.416344</v>
       </c>
       <c r="D94" t="n">
-        <v>0.274996</v>
+        <v>0.275945</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.286488</v>
+        <v>0.287998</v>
       </c>
       <c r="C95" t="n">
-        <v>0.276848</v>
+        <v>0.277902</v>
       </c>
       <c r="D95" t="n">
-        <v>0.275462</v>
+        <v>0.276401</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.28753</v>
+        <v>0.288852</v>
       </c>
       <c r="C96" t="n">
-        <v>0.278028</v>
+        <v>0.279171</v>
       </c>
       <c r="D96" t="n">
-        <v>0.276001</v>
+        <v>0.276901</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.288823</v>
+        <v>0.290136</v>
       </c>
       <c r="C97" t="n">
-        <v>0.279502</v>
+        <v>0.280802</v>
       </c>
       <c r="D97" t="n">
-        <v>0.276561</v>
+        <v>0.277503</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.290035</v>
+        <v>0.291613</v>
       </c>
       <c r="C98" t="n">
-        <v>0.281424</v>
+        <v>0.282667</v>
       </c>
       <c r="D98" t="n">
-        <v>0.277221</v>
+        <v>0.278143</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.291905</v>
+        <v>0.293442</v>
       </c>
       <c r="C99" t="n">
-        <v>0.283947</v>
+        <v>0.285218</v>
       </c>
       <c r="D99" t="n">
-        <v>0.278008</v>
+        <v>0.279041</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.294105</v>
+        <v>0.295926</v>
       </c>
       <c r="C100" t="n">
-        <v>0.287143</v>
+        <v>0.288518</v>
       </c>
       <c r="D100" t="n">
-        <v>0.278984</v>
+        <v>0.280109</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.297065</v>
+        <v>0.298958</v>
       </c>
       <c r="C101" t="n">
-        <v>0.291562</v>
+        <v>0.292951</v>
       </c>
       <c r="D101" t="n">
-        <v>0.280234</v>
+        <v>0.281466</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301254</v>
+        <v>0.303298</v>
       </c>
       <c r="C102" t="n">
-        <v>0.297481</v>
+        <v>0.298898</v>
       </c>
       <c r="D102" t="n">
-        <v>0.281854</v>
+        <v>0.283067</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.306969</v>
+        <v>0.308981</v>
       </c>
       <c r="C103" t="n">
-        <v>0.305798</v>
+        <v>0.307202</v>
       </c>
       <c r="D103" t="n">
-        <v>0.284218</v>
+        <v>0.285552</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.315501</v>
+        <v>0.317101</v>
       </c>
       <c r="C104" t="n">
-        <v>0.317116</v>
+        <v>0.318178</v>
       </c>
       <c r="D104" t="n">
-        <v>0.287596</v>
+        <v>0.288823</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.327589</v>
+        <v>0.329164</v>
       </c>
       <c r="C105" t="n">
-        <v>0.332426</v>
+        <v>0.33315</v>
       </c>
       <c r="D105" t="n">
-        <v>0.292355</v>
+        <v>0.293789</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.345572</v>
+        <v>0.34717</v>
       </c>
       <c r="C106" t="n">
-        <v>0.353185</v>
+        <v>0.354261</v>
       </c>
       <c r="D106" t="n">
-        <v>0.299791</v>
+        <v>0.301264</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.372553</v>
+        <v>0.373818</v>
       </c>
       <c r="C107" t="n">
-        <v>0.384583</v>
+        <v>0.385448</v>
       </c>
       <c r="D107" t="n">
-        <v>0.31255</v>
+        <v>0.314006</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.413644</v>
+        <v>0.414757</v>
       </c>
       <c r="C108" t="n">
-        <v>0.432227</v>
+        <v>0.432425</v>
       </c>
       <c r="D108" t="n">
-        <v>0.280998</v>
+        <v>0.281358</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.476594</v>
+        <v>0.477839</v>
       </c>
       <c r="C109" t="n">
-        <v>0.504224</v>
+        <v>0.504977</v>
       </c>
       <c r="D109" t="n">
-        <v>0.282299</v>
+        <v>0.282062</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.306714</v>
+        <v>0.307005</v>
       </c>
       <c r="C110" t="n">
-        <v>0.299881</v>
+        <v>0.299758</v>
       </c>
       <c r="D110" t="n">
-        <v>0.283095</v>
+        <v>0.283161</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.311921</v>
+        <v>0.311302</v>
       </c>
       <c r="C111" t="n">
-        <v>0.305772</v>
+        <v>0.304484</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2848</v>
+        <v>0.28447</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.316418</v>
+        <v>0.315982</v>
       </c>
       <c r="C112" t="n">
-        <v>0.311425</v>
+        <v>0.310985</v>
       </c>
       <c r="D112" t="n">
-        <v>0.286273</v>
+        <v>0.285834</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.323459</v>
+        <v>0.322544</v>
       </c>
       <c r="C113" t="n">
-        <v>0.318563</v>
+        <v>0.317256</v>
       </c>
       <c r="D113" t="n">
-        <v>0.287905</v>
+        <v>0.287506</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.32918</v>
+        <v>0.328701</v>
       </c>
       <c r="C114" t="n">
-        <v>0.325279</v>
+        <v>0.325077</v>
       </c>
       <c r="D114" t="n">
-        <v>0.290074</v>
+        <v>0.290005</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.337053</v>
+        <v>0.33604</v>
       </c>
       <c r="C115" t="n">
-        <v>0.333329</v>
+        <v>0.332939</v>
       </c>
       <c r="D115" t="n">
-        <v>0.294226</v>
+        <v>0.293276</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.344836</v>
+        <v>0.34437</v>
       </c>
       <c r="C116" t="n">
-        <v>0.342621</v>
+        <v>0.342059</v>
       </c>
       <c r="D116" t="n">
-        <v>0.297704</v>
+        <v>0.298006</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3545</v>
+        <v>0.353522</v>
       </c>
       <c r="C117" t="n">
-        <v>0.353558</v>
+        <v>0.353206</v>
       </c>
       <c r="D117" t="n">
-        <v>0.303301</v>
+        <v>0.302719</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.360858</v>
+        <v>0.365348</v>
       </c>
       <c r="C118" t="n">
-        <v>0.366696</v>
+        <v>0.366372</v>
       </c>
       <c r="D118" t="n">
-        <v>0.31074</v>
+        <v>0.309456</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.380814</v>
+        <v>0.380632</v>
       </c>
       <c r="C119" t="n">
-        <v>0.381328</v>
+        <v>0.383164</v>
       </c>
       <c r="D119" t="n">
-        <v>0.318643</v>
+        <v>0.318159</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.401103</v>
+        <v>0.400368</v>
       </c>
       <c r="C120" t="n">
-        <v>0.406052</v>
+        <v>0.405731</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329537</v>
+        <v>0.329231</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.423619</v>
+        <v>0.42871</v>
       </c>
       <c r="C121" t="n">
-        <v>0.437941</v>
+        <v>0.437028</v>
       </c>
       <c r="D121" t="n">
-        <v>0.345272</v>
+        <v>0.344707</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.471366</v>
+        <v>0.470817</v>
       </c>
       <c r="C122" t="n">
-        <v>0.481816</v>
+        <v>0.485026</v>
       </c>
       <c r="D122" t="n">
-        <v>0.36893</v>
+        <v>0.368604</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.535883</v>
+        <v>0.535534</v>
       </c>
       <c r="C123" t="n">
-        <v>0.562109</v>
+        <v>0.561905</v>
       </c>
       <c r="D123" t="n">
-        <v>0.311133</v>
+        <v>0.310526</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.358545</v>
+        <v>0.356722</v>
       </c>
       <c r="C124" t="n">
-        <v>0.347871</v>
+        <v>0.347219</v>
       </c>
       <c r="D124" t="n">
-        <v>0.31488</v>
+        <v>0.313783</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.362605</v>
+        <v>0.362978</v>
       </c>
       <c r="C125" t="n">
-        <v>0.351173</v>
+        <v>0.351476</v>
       </c>
       <c r="D125" t="n">
-        <v>0.317337</v>
+        <v>0.316965</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.365867</v>
+        <v>0.365556</v>
       </c>
       <c r="C126" t="n">
-        <v>0.356349</v>
+        <v>0.359404</v>
       </c>
       <c r="D126" t="n">
-        <v>0.320682</v>
+        <v>0.32279</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.371291</v>
+        <v>0.373031</v>
       </c>
       <c r="C127" t="n">
-        <v>0.361893</v>
+        <v>0.363725</v>
       </c>
       <c r="D127" t="n">
-        <v>0.324398</v>
+        <v>0.32535</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.376138</v>
+        <v>0.374582</v>
       </c>
       <c r="C128" t="n">
-        <v>0.368041</v>
+        <v>0.367667</v>
       </c>
       <c r="D128" t="n">
-        <v>0.327395</v>
+        <v>0.327621</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.383576</v>
+        <v>0.383781</v>
       </c>
       <c r="C129" t="n">
-        <v>0.375537</v>
+        <v>0.374844</v>
       </c>
       <c r="D129" t="n">
-        <v>0.331581</v>
+        <v>0.331457</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.372929</v>
+        <v>0.38774</v>
       </c>
       <c r="C130" t="n">
-        <v>0.384382</v>
+        <v>0.384523</v>
       </c>
       <c r="D130" t="n">
-        <v>0.335923</v>
+        <v>0.33601</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.403176</v>
+        <v>0.39899</v>
       </c>
       <c r="C131" t="n">
-        <v>0.397039</v>
+        <v>0.39634</v>
       </c>
       <c r="D131" t="n">
-        <v>0.342004</v>
+        <v>0.34165</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.407103</v>
+        <v>0.407867</v>
       </c>
       <c r="C132" t="n">
-        <v>0.408619</v>
+        <v>0.408802</v>
       </c>
       <c r="D132" t="n">
-        <v>0.346576</v>
+        <v>0.347472</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.424735</v>
+        <v>0.425062</v>
       </c>
       <c r="C133" t="n">
-        <v>0.425449</v>
+        <v>0.424405</v>
       </c>
       <c r="D133" t="n">
-        <v>0.35338</v>
+        <v>0.352006</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.443586</v>
+        <v>0.443778</v>
       </c>
       <c r="C134" t="n">
-        <v>0.45013</v>
+        <v>0.449807</v>
       </c>
       <c r="D134" t="n">
-        <v>0.362948</v>
+        <v>0.361773</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.469983</v>
+        <v>0.473615</v>
       </c>
       <c r="C135" t="n">
-        <v>0.485893</v>
+        <v>0.484664</v>
       </c>
       <c r="D135" t="n">
-        <v>0.379299</v>
+        <v>0.377088</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.512756</v>
+        <v>0.514089</v>
       </c>
       <c r="C136" t="n">
-        <v>0.532382</v>
+        <v>0.532392</v>
       </c>
       <c r="D136" t="n">
-        <v>0.398697</v>
+        <v>0.398391</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.573272</v>
+        <v>0.575047</v>
       </c>
       <c r="C137" t="n">
-        <v>0.606847</v>
+        <v>0.607783</v>
       </c>
       <c r="D137" t="n">
-        <v>0.456366</v>
+        <v>0.45017</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.51572</v>
+        <v>0.514778</v>
       </c>
       <c r="C138" t="n">
-        <v>0.497607</v>
+        <v>0.499576</v>
       </c>
       <c r="D138" t="n">
-        <v>0.455733</v>
+        <v>0.458304</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.511296</v>
+        <v>0.521312</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5030019999999999</v>
+        <v>0.501238</v>
       </c>
       <c r="D139" t="n">
-        <v>0.45802</v>
+        <v>0.455219</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.531162</v>
+        <v>0.530748</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5106270000000001</v>
+        <v>0.511034</v>
       </c>
       <c r="D140" t="n">
-        <v>0.462949</v>
+        <v>0.463589</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.511719</v>
+        <v>0.5386879999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>0.514352</v>
+        <v>0.5159859999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.463097</v>
+        <v>0.464996</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.542728</v>
+        <v>0.541497</v>
       </c>
       <c r="C142" t="n">
-        <v>0.525172</v>
+        <v>0.530347</v>
       </c>
       <c r="D142" t="n">
-        <v>0.470941</v>
+        <v>0.475874</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.546003</v>
+        <v>0.547388</v>
       </c>
       <c r="C143" t="n">
-        <v>0.530892</v>
+        <v>0.532338</v>
       </c>
       <c r="D143" t="n">
-        <v>0.470656</v>
+        <v>0.47184</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.235784</v>
+        <v>0.236895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.239348</v>
+        <v>0.238214</v>
       </c>
       <c r="D2" t="n">
-        <v>0.225857</v>
+        <v>0.225261</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239689</v>
+        <v>0.241311</v>
       </c>
       <c r="C3" t="n">
-        <v>0.241455</v>
+        <v>0.240299</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226614</v>
+        <v>0.225568</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.247755</v>
+        <v>0.249649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.253695</v>
+        <v>0.251969</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231846</v>
+        <v>0.230722</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.260114</v>
+        <v>0.262353</v>
       </c>
       <c r="C5" t="n">
-        <v>0.267835</v>
+        <v>0.26589</v>
       </c>
       <c r="D5" t="n">
-        <v>0.236341</v>
+        <v>0.234941</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.276505</v>
+        <v>0.2788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.286298</v>
+        <v>0.283711</v>
       </c>
       <c r="D6" t="n">
-        <v>0.242796</v>
+        <v>0.240945</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.297267</v>
+        <v>0.300501</v>
       </c>
       <c r="C7" t="n">
-        <v>0.315977</v>
+        <v>0.312882</v>
       </c>
       <c r="D7" t="n">
-        <v>0.254595</v>
+        <v>0.253172</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.331605</v>
+        <v>0.33705</v>
       </c>
       <c r="C8" t="n">
-        <v>0.351086</v>
+        <v>0.348467</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270701</v>
+        <v>0.269071</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.386163</v>
+        <v>0.390868</v>
       </c>
       <c r="C9" t="n">
-        <v>0.406608</v>
+        <v>0.404667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224665</v>
+        <v>0.224154</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.23096</v>
+        <v>0.232418</v>
       </c>
       <c r="C10" t="n">
-        <v>0.226298</v>
+        <v>0.225471</v>
       </c>
       <c r="D10" t="n">
-        <v>0.22467</v>
+        <v>0.224187</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.231349</v>
+        <v>0.232638</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226879</v>
+        <v>0.226061</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224442</v>
+        <v>0.224194</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.233579</v>
+        <v>0.234999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.229274</v>
+        <v>0.228482</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226229</v>
+        <v>0.225894</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.233597</v>
+        <v>0.234845</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229827</v>
+        <v>0.229222</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225724</v>
+        <v>0.225292</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.236516</v>
+        <v>0.237981</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234293</v>
+        <v>0.233356</v>
       </c>
       <c r="D14" t="n">
-        <v>0.227557</v>
+        <v>0.226973</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.238732</v>
+        <v>0.240204</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237685</v>
+        <v>0.236794</v>
       </c>
       <c r="D15" t="n">
-        <v>0.229178</v>
+        <v>0.228466</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.241892</v>
+        <v>0.24335</v>
       </c>
       <c r="C16" t="n">
-        <v>0.242301</v>
+        <v>0.241262</v>
       </c>
       <c r="D16" t="n">
-        <v>0.230422</v>
+        <v>0.229746</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.245367</v>
+        <v>0.247055</v>
       </c>
       <c r="C17" t="n">
-        <v>0.247743</v>
+        <v>0.246646</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232002</v>
+        <v>0.231203</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.250368</v>
+        <v>0.252285</v>
       </c>
       <c r="C18" t="n">
-        <v>0.253885</v>
+        <v>0.252494</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233451</v>
+        <v>0.23267</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.259789</v>
+        <v>0.261896</v>
       </c>
       <c r="C19" t="n">
-        <v>0.264698</v>
+        <v>0.263025</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237794</v>
+        <v>0.236916</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.271189</v>
+        <v>0.273277</v>
       </c>
       <c r="C20" t="n">
-        <v>0.279766</v>
+        <v>0.27799</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2417</v>
+        <v>0.240683</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.291872</v>
+        <v>0.294218</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299766</v>
+        <v>0.297212</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24936</v>
+        <v>0.248244</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.326507</v>
+        <v>0.330046</v>
       </c>
       <c r="C22" t="n">
-        <v>0.327417</v>
+        <v>0.324726</v>
       </c>
       <c r="D22" t="n">
-        <v>0.262562</v>
+        <v>0.261204</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.367732</v>
+        <v>0.372192</v>
       </c>
       <c r="C23" t="n">
-        <v>0.38298</v>
+        <v>0.38038</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227751</v>
+        <v>0.227286</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.235227</v>
+        <v>0.236577</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228674</v>
+        <v>0.228068</v>
       </c>
       <c r="D24" t="n">
-        <v>0.228554</v>
+        <v>0.228174</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235381</v>
+        <v>0.236665</v>
       </c>
       <c r="C25" t="n">
-        <v>0.229054</v>
+        <v>0.228572</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228283</v>
+        <v>0.227937</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.236521</v>
+        <v>0.23771</v>
       </c>
       <c r="C26" t="n">
-        <v>0.230479</v>
+        <v>0.229725</v>
       </c>
       <c r="D26" t="n">
-        <v>0.22876</v>
+        <v>0.228338</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.237966</v>
+        <v>0.239175</v>
       </c>
       <c r="C27" t="n">
-        <v>0.231924</v>
+        <v>0.231185</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229059</v>
+        <v>0.22855</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.240047</v>
+        <v>0.241286</v>
       </c>
       <c r="C28" t="n">
-        <v>0.234423</v>
+        <v>0.233843</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230484</v>
+        <v>0.230025</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2414</v>
+        <v>0.242623</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237256</v>
+        <v>0.236452</v>
       </c>
       <c r="D29" t="n">
-        <v>0.230933</v>
+        <v>0.23042</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.243933</v>
+        <v>0.245115</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240547</v>
+        <v>0.239601</v>
       </c>
       <c r="D30" t="n">
-        <v>0.232149</v>
+        <v>0.231676</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.247283</v>
+        <v>0.248617</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244836</v>
+        <v>0.243964</v>
       </c>
       <c r="D31" t="n">
-        <v>0.23337</v>
+        <v>0.232791</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2529</v>
+        <v>0.254275</v>
       </c>
       <c r="C32" t="n">
-        <v>0.251421</v>
+        <v>0.250477</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235588</v>
+        <v>0.235045</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.260316</v>
+        <v>0.261928</v>
       </c>
       <c r="C33" t="n">
-        <v>0.261843</v>
+        <v>0.260432</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238819</v>
+        <v>0.238199</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270188</v>
+        <v>0.271925</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273736</v>
+        <v>0.272194</v>
       </c>
       <c r="D34" t="n">
-        <v>0.242656</v>
+        <v>0.241884</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.285786</v>
+        <v>0.28801</v>
       </c>
       <c r="C35" t="n">
-        <v>0.291088</v>
+        <v>0.289399</v>
       </c>
       <c r="D35" t="n">
-        <v>0.248257</v>
+        <v>0.247256</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.310221</v>
+        <v>0.313076</v>
       </c>
       <c r="C36" t="n">
-        <v>0.319802</v>
+        <v>0.317276</v>
       </c>
       <c r="D36" t="n">
-        <v>0.259033</v>
+        <v>0.258092</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.351234</v>
+        <v>0.354973</v>
       </c>
       <c r="C37" t="n">
-        <v>0.365076</v>
+        <v>0.362068</v>
       </c>
       <c r="D37" t="n">
-        <v>0.230398</v>
+        <v>0.229872</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.236763</v>
+        <v>0.237936</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230428</v>
+        <v>0.229879</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230186</v>
+        <v>0.229669</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238222</v>
+        <v>0.239302</v>
       </c>
       <c r="C39" t="n">
-        <v>0.232158</v>
+        <v>0.231469</v>
       </c>
       <c r="D39" t="n">
-        <v>0.231174</v>
+        <v>0.230604</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.238803</v>
+        <v>0.239955</v>
       </c>
       <c r="C40" t="n">
-        <v>0.232921</v>
+        <v>0.232399</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231208</v>
+        <v>0.230657</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.240218</v>
+        <v>0.241123</v>
       </c>
       <c r="C41" t="n">
-        <v>0.234308</v>
+        <v>0.233704</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231873</v>
+        <v>0.231169</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.242022</v>
+        <v>0.243001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.236033</v>
+        <v>0.235415</v>
       </c>
       <c r="D42" t="n">
-        <v>0.232628</v>
+        <v>0.231916</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.244126</v>
+        <v>0.245071</v>
       </c>
       <c r="C43" t="n">
-        <v>0.238491</v>
+        <v>0.237838</v>
       </c>
       <c r="D43" t="n">
-        <v>0.233312</v>
+        <v>0.232669</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.246942</v>
+        <v>0.247948</v>
       </c>
       <c r="C44" t="n">
-        <v>0.242034</v>
+        <v>0.241301</v>
       </c>
       <c r="D44" t="n">
-        <v>0.234551</v>
+        <v>0.233879</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.250347</v>
+        <v>0.25136</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246446</v>
+        <v>0.245496</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235936</v>
+        <v>0.235129</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.255274</v>
+        <v>0.256526</v>
       </c>
       <c r="C46" t="n">
-        <v>0.25262</v>
+        <v>0.251568</v>
       </c>
       <c r="D46" t="n">
-        <v>0.238063</v>
+        <v>0.237242</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.261858</v>
+        <v>0.263144</v>
       </c>
       <c r="C47" t="n">
-        <v>0.260913</v>
+        <v>0.259765</v>
       </c>
       <c r="D47" t="n">
-        <v>0.240497</v>
+        <v>0.239633</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271872</v>
+        <v>0.273494</v>
       </c>
       <c r="C48" t="n">
-        <v>0.272905</v>
+        <v>0.27155</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2443</v>
+        <v>0.243477</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.28674</v>
+        <v>0.288673</v>
       </c>
       <c r="C49" t="n">
-        <v>0.289688</v>
+        <v>0.287917</v>
       </c>
       <c r="D49" t="n">
-        <v>0.249826</v>
+        <v>0.248877</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.30988</v>
+        <v>0.31266</v>
       </c>
       <c r="C50" t="n">
-        <v>0.317842</v>
+        <v>0.315444</v>
       </c>
       <c r="D50" t="n">
-        <v>0.260143</v>
+        <v>0.259135</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.345618</v>
+        <v>0.349258</v>
       </c>
       <c r="C51" t="n">
-        <v>0.355935</v>
+        <v>0.353308</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232658</v>
+        <v>0.231772</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.399722</v>
+        <v>0.406499</v>
       </c>
       <c r="C52" t="n">
-        <v>0.420503</v>
+        <v>0.419934</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232975</v>
+        <v>0.232324</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24235</v>
+        <v>0.243833</v>
       </c>
       <c r="C53" t="n">
-        <v>0.235057</v>
+        <v>0.234213</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233368</v>
+        <v>0.232662</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243126</v>
+        <v>0.244521</v>
       </c>
       <c r="C54" t="n">
-        <v>0.23631</v>
+        <v>0.235556</v>
       </c>
       <c r="D54" t="n">
-        <v>0.233821</v>
+        <v>0.233147</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.244362</v>
+        <v>0.245732</v>
       </c>
       <c r="C55" t="n">
-        <v>0.237855</v>
+        <v>0.236977</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234498</v>
+        <v>0.233792</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.245732</v>
+        <v>0.247182</v>
       </c>
       <c r="C56" t="n">
-        <v>0.239657</v>
+        <v>0.238843</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235243</v>
+        <v>0.234573</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.247553</v>
+        <v>0.248913</v>
       </c>
       <c r="C57" t="n">
-        <v>0.242244</v>
+        <v>0.241331</v>
       </c>
       <c r="D57" t="n">
-        <v>0.236158</v>
+        <v>0.235392</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.249942</v>
+        <v>0.251285</v>
       </c>
       <c r="C58" t="n">
-        <v>0.245673</v>
+        <v>0.244709</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237243</v>
+        <v>0.236514</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.253116</v>
+        <v>0.254631</v>
       </c>
       <c r="C59" t="n">
-        <v>0.250169</v>
+        <v>0.249114</v>
       </c>
       <c r="D59" t="n">
-        <v>0.238483</v>
+        <v>0.237755</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.257953</v>
+        <v>0.259512</v>
       </c>
       <c r="C60" t="n">
-        <v>0.255762</v>
+        <v>0.254932</v>
       </c>
       <c r="D60" t="n">
-        <v>0.24046</v>
+        <v>0.239603</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264531</v>
+        <v>0.266303</v>
       </c>
       <c r="C61" t="n">
-        <v>0.263391</v>
+        <v>0.262169</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242721</v>
+        <v>0.241923</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.273149</v>
+        <v>0.275172</v>
       </c>
       <c r="C62" t="n">
-        <v>0.274254</v>
+        <v>0.272845</v>
       </c>
       <c r="D62" t="n">
-        <v>0.246334</v>
+        <v>0.245405</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.286359</v>
+        <v>0.28862</v>
       </c>
       <c r="C63" t="n">
-        <v>0.290215</v>
+        <v>0.28846</v>
       </c>
       <c r="D63" t="n">
-        <v>0.25216</v>
+        <v>0.251256</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.306803</v>
+        <v>0.309705</v>
       </c>
       <c r="C64" t="n">
-        <v>0.314116</v>
+        <v>0.311887</v>
       </c>
       <c r="D64" t="n">
-        <v>0.261375</v>
+        <v>0.260462</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.338646</v>
+        <v>0.342657</v>
       </c>
       <c r="C65" t="n">
-        <v>0.351292</v>
+        <v>0.348341</v>
       </c>
       <c r="D65" t="n">
-        <v>0.277547</v>
+        <v>0.27665</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.388573</v>
+        <v>0.393367</v>
       </c>
       <c r="C66" t="n">
-        <v>0.408925</v>
+        <v>0.406214</v>
       </c>
       <c r="D66" t="n">
-        <v>0.247784</v>
+        <v>0.248504</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.25812</v>
+        <v>0.257625</v>
       </c>
       <c r="C67" t="n">
-        <v>0.250543</v>
+        <v>0.250577</v>
       </c>
       <c r="D67" t="n">
-        <v>0.248139</v>
+        <v>0.248809</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.258231</v>
+        <v>0.257983</v>
       </c>
       <c r="C68" t="n">
-        <v>0.251634</v>
+        <v>0.251734</v>
       </c>
       <c r="D68" t="n">
-        <v>0.248452</v>
+        <v>0.249125</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.259504</v>
+        <v>0.259305</v>
       </c>
       <c r="C69" t="n">
-        <v>0.253289</v>
+        <v>0.25338</v>
       </c>
       <c r="D69" t="n">
-        <v>0.249135</v>
+        <v>0.250038</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.260959</v>
+        <v>0.260736</v>
       </c>
       <c r="C70" t="n">
-        <v>0.255176</v>
+        <v>0.255108</v>
       </c>
       <c r="D70" t="n">
-        <v>0.249805</v>
+        <v>0.250817</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.262759</v>
+        <v>0.262513</v>
       </c>
       <c r="C71" t="n">
-        <v>0.257731</v>
+        <v>0.257629</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250643</v>
+        <v>0.251275</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.265315</v>
+        <v>0.264993</v>
       </c>
       <c r="C72" t="n">
-        <v>0.260892</v>
+        <v>0.260677</v>
       </c>
       <c r="D72" t="n">
-        <v>0.251774</v>
+        <v>0.252371</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.268288</v>
+        <v>0.2681</v>
       </c>
       <c r="C73" t="n">
-        <v>0.264917</v>
+        <v>0.264734</v>
       </c>
       <c r="D73" t="n">
-        <v>0.253177</v>
+        <v>0.253794</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272322</v>
+        <v>0.272217</v>
       </c>
       <c r="C74" t="n">
-        <v>0.270723</v>
+        <v>0.270349</v>
       </c>
       <c r="D74" t="n">
-        <v>0.254941</v>
+        <v>0.255896</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278122</v>
+        <v>0.278167</v>
       </c>
       <c r="C75" t="n">
-        <v>0.278865</v>
+        <v>0.278216</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257583</v>
+        <v>0.258314</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.286603</v>
+        <v>0.286761</v>
       </c>
       <c r="C76" t="n">
-        <v>0.289594</v>
+        <v>0.288617</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261134</v>
+        <v>0.261718</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.298968</v>
+        <v>0.299452</v>
       </c>
       <c r="C77" t="n">
-        <v>0.304717</v>
+        <v>0.303372</v>
       </c>
       <c r="D77" t="n">
-        <v>0.266504</v>
+        <v>0.266899</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.317927</v>
+        <v>0.319056</v>
       </c>
       <c r="C78" t="n">
-        <v>0.326711</v>
+        <v>0.324888</v>
       </c>
       <c r="D78" t="n">
-        <v>0.275139</v>
+        <v>0.275838</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.345897</v>
+        <v>0.348028</v>
       </c>
       <c r="C79" t="n">
-        <v>0.361444</v>
+        <v>0.358799</v>
       </c>
       <c r="D79" t="n">
-        <v>0.289569</v>
+        <v>0.289605</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.390604</v>
+        <v>0.393964</v>
       </c>
       <c r="C80" t="n">
-        <v>0.413887</v>
+        <v>0.412074</v>
       </c>
       <c r="D80" t="n">
-        <v>0.266644</v>
+        <v>0.26575</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.277144</v>
+        <v>0.277148</v>
       </c>
       <c r="C81" t="n">
-        <v>0.267945</v>
+        <v>0.26623</v>
       </c>
       <c r="D81" t="n">
-        <v>0.267004</v>
+        <v>0.266103</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.277893</v>
+        <v>0.278047</v>
       </c>
       <c r="C82" t="n">
-        <v>0.269041</v>
+        <v>0.267356</v>
       </c>
       <c r="D82" t="n">
-        <v>0.267449</v>
+        <v>0.266511</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.278866</v>
+        <v>0.279163</v>
       </c>
       <c r="C83" t="n">
-        <v>0.270304</v>
+        <v>0.268652</v>
       </c>
       <c r="D83" t="n">
-        <v>0.267965</v>
+        <v>0.267076</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.280236</v>
+        <v>0.280377</v>
       </c>
       <c r="C84" t="n">
-        <v>0.272026</v>
+        <v>0.270392</v>
       </c>
       <c r="D84" t="n">
-        <v>0.268604</v>
+        <v>0.2677</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.281946</v>
+        <v>0.281978</v>
       </c>
       <c r="C85" t="n">
-        <v>0.274157</v>
+        <v>0.27238</v>
       </c>
       <c r="D85" t="n">
-        <v>0.269303</v>
+        <v>0.268461</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.283924</v>
+        <v>0.283986</v>
       </c>
       <c r="C86" t="n">
-        <v>0.276779</v>
+        <v>0.275004</v>
       </c>
       <c r="D86" t="n">
-        <v>0.270297</v>
+        <v>0.26941</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.286632</v>
+        <v>0.286691</v>
       </c>
       <c r="C87" t="n">
-        <v>0.280435</v>
+        <v>0.278654</v>
       </c>
       <c r="D87" t="n">
-        <v>0.271478</v>
+        <v>0.270603</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.290278</v>
+        <v>0.290482</v>
       </c>
       <c r="C88" t="n">
-        <v>0.285566</v>
+        <v>0.283678</v>
       </c>
       <c r="D88" t="n">
-        <v>0.273094</v>
+        <v>0.272246</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.295569</v>
+        <v>0.295855</v>
       </c>
       <c r="C89" t="n">
-        <v>0.292802</v>
+        <v>0.290778</v>
       </c>
       <c r="D89" t="n">
-        <v>0.275408</v>
+        <v>0.274562</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.30327</v>
+        <v>0.303812</v>
       </c>
       <c r="C90" t="n">
-        <v>0.302643</v>
+        <v>0.300431</v>
       </c>
       <c r="D90" t="n">
-        <v>0.278687</v>
+        <v>0.277807</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.314435</v>
+        <v>0.315079</v>
       </c>
       <c r="C91" t="n">
-        <v>0.316434</v>
+        <v>0.313834</v>
       </c>
       <c r="D91" t="n">
-        <v>0.283441</v>
+        <v>0.28247</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.331203</v>
+        <v>0.332271</v>
       </c>
       <c r="C92" t="n">
-        <v>0.336076</v>
+        <v>0.333115</v>
       </c>
       <c r="D92" t="n">
-        <v>0.290947</v>
+        <v>0.289856</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.35665</v>
+        <v>0.358768</v>
       </c>
       <c r="C93" t="n">
-        <v>0.366867</v>
+        <v>0.363446</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3034</v>
+        <v>0.302252</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.397199</v>
+        <v>0.400796</v>
       </c>
       <c r="C94" t="n">
-        <v>0.416344</v>
+        <v>0.412599</v>
       </c>
       <c r="D94" t="n">
-        <v>0.275945</v>
+        <v>0.275553</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.287998</v>
+        <v>0.287846</v>
       </c>
       <c r="C95" t="n">
-        <v>0.277902</v>
+        <v>0.276357</v>
       </c>
       <c r="D95" t="n">
-        <v>0.276401</v>
+        <v>0.276018</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.288852</v>
+        <v>0.288896</v>
       </c>
       <c r="C96" t="n">
-        <v>0.279171</v>
+        <v>0.27753</v>
       </c>
       <c r="D96" t="n">
-        <v>0.276901</v>
+        <v>0.276547</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.290136</v>
+        <v>0.290185</v>
       </c>
       <c r="C97" t="n">
-        <v>0.280802</v>
+        <v>0.279</v>
       </c>
       <c r="D97" t="n">
-        <v>0.277503</v>
+        <v>0.277174</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.291613</v>
+        <v>0.291536</v>
       </c>
       <c r="C98" t="n">
-        <v>0.282667</v>
+        <v>0.28084</v>
       </c>
       <c r="D98" t="n">
-        <v>0.278143</v>
+        <v>0.277994</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.293442</v>
+        <v>0.293381</v>
       </c>
       <c r="C99" t="n">
-        <v>0.285218</v>
+        <v>0.283332</v>
       </c>
       <c r="D99" t="n">
-        <v>0.279041</v>
+        <v>0.27868</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.295926</v>
+        <v>0.295699</v>
       </c>
       <c r="C100" t="n">
-        <v>0.288518</v>
+        <v>0.286523</v>
       </c>
       <c r="D100" t="n">
-        <v>0.280109</v>
+        <v>0.27977</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.298958</v>
+        <v>0.298847</v>
       </c>
       <c r="C101" t="n">
-        <v>0.292951</v>
+        <v>0.290712</v>
       </c>
       <c r="D101" t="n">
-        <v>0.281466</v>
+        <v>0.280907</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303298</v>
+        <v>0.303198</v>
       </c>
       <c r="C102" t="n">
-        <v>0.298898</v>
+        <v>0.29635</v>
       </c>
       <c r="D102" t="n">
-        <v>0.283067</v>
+        <v>0.282521</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.308981</v>
+        <v>0.309155</v>
       </c>
       <c r="C103" t="n">
-        <v>0.307202</v>
+        <v>0.304482</v>
       </c>
       <c r="D103" t="n">
-        <v>0.285552</v>
+        <v>0.284933</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.317101</v>
+        <v>0.317781</v>
       </c>
       <c r="C104" t="n">
-        <v>0.318178</v>
+        <v>0.315385</v>
       </c>
       <c r="D104" t="n">
-        <v>0.288823</v>
+        <v>0.288147</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.329164</v>
+        <v>0.330033</v>
       </c>
       <c r="C105" t="n">
-        <v>0.33315</v>
+        <v>0.330334</v>
       </c>
       <c r="D105" t="n">
-        <v>0.293789</v>
+        <v>0.292864</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.34717</v>
+        <v>0.348275</v>
       </c>
       <c r="C106" t="n">
-        <v>0.354261</v>
+        <v>0.350935</v>
       </c>
       <c r="D106" t="n">
-        <v>0.301264</v>
+        <v>0.300145</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.373818</v>
+        <v>0.376042</v>
       </c>
       <c r="C107" t="n">
-        <v>0.385448</v>
+        <v>0.381723</v>
       </c>
       <c r="D107" t="n">
-        <v>0.314006</v>
+        <v>0.31265</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.414757</v>
+        <v>0.418507</v>
       </c>
       <c r="C108" t="n">
-        <v>0.432425</v>
+        <v>0.428865</v>
       </c>
       <c r="D108" t="n">
-        <v>0.281358</v>
+        <v>0.281049</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.477839</v>
+        <v>0.480907</v>
       </c>
       <c r="C109" t="n">
-        <v>0.504977</v>
+        <v>0.5020829999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.282062</v>
+        <v>0.281944</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.307005</v>
+        <v>0.306791</v>
       </c>
       <c r="C110" t="n">
-        <v>0.299758</v>
+        <v>0.297135</v>
       </c>
       <c r="D110" t="n">
-        <v>0.283161</v>
+        <v>0.282746</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.311302</v>
+        <v>0.311197</v>
       </c>
       <c r="C111" t="n">
-        <v>0.304484</v>
+        <v>0.302076</v>
       </c>
       <c r="D111" t="n">
-        <v>0.28447</v>
+        <v>0.284222</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.315982</v>
+        <v>0.317031</v>
       </c>
       <c r="C112" t="n">
-        <v>0.310985</v>
+        <v>0.308977</v>
       </c>
       <c r="D112" t="n">
-        <v>0.285834</v>
+        <v>0.285459</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.322544</v>
+        <v>0.322734</v>
       </c>
       <c r="C113" t="n">
-        <v>0.317256</v>
+        <v>0.315318</v>
       </c>
       <c r="D113" t="n">
-        <v>0.287506</v>
+        <v>0.287536</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328701</v>
+        <v>0.329299</v>
       </c>
       <c r="C114" t="n">
-        <v>0.325077</v>
+        <v>0.322723</v>
       </c>
       <c r="D114" t="n">
-        <v>0.290005</v>
+        <v>0.290002</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.33604</v>
+        <v>0.336184</v>
       </c>
       <c r="C115" t="n">
-        <v>0.332939</v>
+        <v>0.331235</v>
       </c>
       <c r="D115" t="n">
-        <v>0.293276</v>
+        <v>0.293319</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.34437</v>
+        <v>0.344408</v>
       </c>
       <c r="C116" t="n">
-        <v>0.342059</v>
+        <v>0.340605</v>
       </c>
       <c r="D116" t="n">
-        <v>0.298006</v>
+        <v>0.297537</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.353522</v>
+        <v>0.353973</v>
       </c>
       <c r="C117" t="n">
-        <v>0.353206</v>
+        <v>0.351328</v>
       </c>
       <c r="D117" t="n">
-        <v>0.302719</v>
+        <v>0.302664</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.365348</v>
+        <v>0.365929</v>
       </c>
       <c r="C118" t="n">
-        <v>0.366372</v>
+        <v>0.364329</v>
       </c>
       <c r="D118" t="n">
-        <v>0.309456</v>
+        <v>0.309362</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.380632</v>
+        <v>0.380778</v>
       </c>
       <c r="C119" t="n">
-        <v>0.383164</v>
+        <v>0.381117</v>
       </c>
       <c r="D119" t="n">
-        <v>0.318159</v>
+        <v>0.317562</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.400368</v>
+        <v>0.401295</v>
       </c>
       <c r="C120" t="n">
-        <v>0.405731</v>
+        <v>0.403361</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329231</v>
+        <v>0.328531</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.42871</v>
+        <v>0.430319</v>
       </c>
       <c r="C121" t="n">
-        <v>0.437028</v>
+        <v>0.43457</v>
       </c>
       <c r="D121" t="n">
-        <v>0.344707</v>
+        <v>0.344169</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.470817</v>
+        <v>0.473395</v>
       </c>
       <c r="C122" t="n">
-        <v>0.485026</v>
+        <v>0.481624</v>
       </c>
       <c r="D122" t="n">
-        <v>0.368604</v>
+        <v>0.367545</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.535534</v>
+        <v>0.538879</v>
       </c>
       <c r="C123" t="n">
-        <v>0.561905</v>
+        <v>0.559247</v>
       </c>
       <c r="D123" t="n">
-        <v>0.310526</v>
+        <v>0.310353</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356722</v>
+        <v>0.358388</v>
       </c>
       <c r="C124" t="n">
-        <v>0.347219</v>
+        <v>0.345413</v>
       </c>
       <c r="D124" t="n">
-        <v>0.313783</v>
+        <v>0.313839</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.362978</v>
+        <v>0.362878</v>
       </c>
       <c r="C125" t="n">
-        <v>0.351476</v>
+        <v>0.352279</v>
       </c>
       <c r="D125" t="n">
-        <v>0.316965</v>
+        <v>0.318803</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.365556</v>
+        <v>0.365753</v>
       </c>
       <c r="C126" t="n">
-        <v>0.359404</v>
+        <v>0.355434</v>
       </c>
       <c r="D126" t="n">
-        <v>0.32279</v>
+        <v>0.321082</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.373031</v>
+        <v>0.370347</v>
       </c>
       <c r="C127" t="n">
-        <v>0.363725</v>
+        <v>0.362581</v>
       </c>
       <c r="D127" t="n">
-        <v>0.32535</v>
+        <v>0.325522</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.374582</v>
+        <v>0.378293</v>
       </c>
       <c r="C128" t="n">
-        <v>0.367667</v>
+        <v>0.365573</v>
       </c>
       <c r="D128" t="n">
-        <v>0.327621</v>
+        <v>0.326838</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.383781</v>
+        <v>0.38486</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374844</v>
+        <v>0.374595</v>
       </c>
       <c r="D129" t="n">
-        <v>0.331457</v>
+        <v>0.331924</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.38774</v>
+        <v>0.388192</v>
       </c>
       <c r="C130" t="n">
-        <v>0.384523</v>
+        <v>0.381123</v>
       </c>
       <c r="D130" t="n">
-        <v>0.33601</v>
+        <v>0.334445</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.39899</v>
+        <v>0.399103</v>
       </c>
       <c r="C131" t="n">
-        <v>0.39634</v>
+        <v>0.393691</v>
       </c>
       <c r="D131" t="n">
-        <v>0.34165</v>
+        <v>0.340112</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.407867</v>
+        <v>0.411594</v>
       </c>
       <c r="C132" t="n">
-        <v>0.408802</v>
+        <v>0.405299</v>
       </c>
       <c r="D132" t="n">
-        <v>0.347472</v>
+        <v>0.344539</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.425062</v>
+        <v>0.424039</v>
       </c>
       <c r="C133" t="n">
-        <v>0.424405</v>
+        <v>0.424909</v>
       </c>
       <c r="D133" t="n">
-        <v>0.352006</v>
+        <v>0.353337</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.443778</v>
+        <v>0.444368</v>
       </c>
       <c r="C134" t="n">
-        <v>0.449807</v>
+        <v>0.44576</v>
       </c>
       <c r="D134" t="n">
-        <v>0.361773</v>
+        <v>0.360842</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.473615</v>
+        <v>0.471717</v>
       </c>
       <c r="C135" t="n">
-        <v>0.484664</v>
+        <v>0.481347</v>
       </c>
       <c r="D135" t="n">
-        <v>0.377088</v>
+        <v>0.375391</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.514089</v>
+        <v>0.51588</v>
       </c>
       <c r="C136" t="n">
-        <v>0.532392</v>
+        <v>0.528605</v>
       </c>
       <c r="D136" t="n">
-        <v>0.398391</v>
+        <v>0.39747</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.575047</v>
+        <v>0.5794550000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.607783</v>
+        <v>0.602151</v>
       </c>
       <c r="D137" t="n">
-        <v>0.45017</v>
+        <v>0.449929</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.514778</v>
+        <v>0.522537</v>
       </c>
       <c r="C138" t="n">
-        <v>0.499576</v>
+        <v>0.496204</v>
       </c>
       <c r="D138" t="n">
-        <v>0.458304</v>
+        <v>0.452927</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.521312</v>
+        <v>0.522842</v>
       </c>
       <c r="C139" t="n">
-        <v>0.501238</v>
+        <v>0.503201</v>
       </c>
       <c r="D139" t="n">
-        <v>0.455219</v>
+        <v>0.458293</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.530748</v>
+        <v>0.530818</v>
       </c>
       <c r="C140" t="n">
-        <v>0.511034</v>
+        <v>0.507722</v>
       </c>
       <c r="D140" t="n">
-        <v>0.463589</v>
+        <v>0.46155</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5386879999999999</v>
+        <v>0.537008</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5159859999999999</v>
+        <v>0.5216769999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.464996</v>
+        <v>0.472471</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.541497</v>
+        <v>0.544839</v>
       </c>
       <c r="C142" t="n">
-        <v>0.530347</v>
+        <v>0.529339</v>
       </c>
       <c r="D142" t="n">
-        <v>0.475874</v>
+        <v>0.476056</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.547388</v>
+        <v>0.547639</v>
       </c>
       <c r="C143" t="n">
-        <v>0.532338</v>
+        <v>0.532393</v>
       </c>
       <c r="D143" t="n">
-        <v>0.47184</v>
+        <v>0.474359</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.236895</v>
+        <v>0.236718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238214</v>
+        <v>0.238208</v>
       </c>
       <c r="D2" t="n">
-        <v>0.225261</v>
+        <v>0.225296</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241311</v>
+        <v>0.24126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240299</v>
+        <v>0.240131</v>
       </c>
       <c r="D3" t="n">
-        <v>0.225568</v>
+        <v>0.225498</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.249649</v>
+        <v>0.24934</v>
       </c>
       <c r="C4" t="n">
-        <v>0.251969</v>
+        <v>0.251401</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230722</v>
+        <v>0.230607</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.262353</v>
+        <v>0.261978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.26589</v>
+        <v>0.265653</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234941</v>
+        <v>0.23491</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2788</v>
+        <v>0.278517</v>
       </c>
       <c r="C6" t="n">
-        <v>0.283711</v>
+        <v>0.28325</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240945</v>
+        <v>0.240838</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.300501</v>
+        <v>0.299879</v>
       </c>
       <c r="C7" t="n">
-        <v>0.312882</v>
+        <v>0.312406</v>
       </c>
       <c r="D7" t="n">
-        <v>0.253172</v>
+        <v>0.25296</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.33705</v>
+        <v>0.336614</v>
       </c>
       <c r="C8" t="n">
-        <v>0.348467</v>
+        <v>0.347718</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269071</v>
+        <v>0.269248</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.390868</v>
+        <v>0.391811</v>
       </c>
       <c r="C9" t="n">
-        <v>0.404667</v>
+        <v>0.404918</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224154</v>
+        <v>0.224391</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.232418</v>
+        <v>0.232819</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225471</v>
+        <v>0.22599</v>
       </c>
       <c r="D10" t="n">
-        <v>0.224187</v>
+        <v>0.224473</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.232638</v>
+        <v>0.23313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226061</v>
+        <v>0.226537</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224194</v>
+        <v>0.224337</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.234999</v>
+        <v>0.235352</v>
       </c>
       <c r="C12" t="n">
-        <v>0.228482</v>
+        <v>0.228877</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225894</v>
+        <v>0.225985</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.234845</v>
+        <v>0.235169</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229222</v>
+        <v>0.229445</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225292</v>
+        <v>0.225681</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.237981</v>
+        <v>0.238084</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233356</v>
+        <v>0.233534</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226973</v>
+        <v>0.227224</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.240204</v>
+        <v>0.240372</v>
       </c>
       <c r="C15" t="n">
-        <v>0.236794</v>
+        <v>0.237028</v>
       </c>
       <c r="D15" t="n">
-        <v>0.228466</v>
+        <v>0.228729</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.24335</v>
+        <v>0.243519</v>
       </c>
       <c r="C16" t="n">
-        <v>0.241262</v>
+        <v>0.241395</v>
       </c>
       <c r="D16" t="n">
-        <v>0.229746</v>
+        <v>0.229998</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.247055</v>
+        <v>0.247176</v>
       </c>
       <c r="C17" t="n">
-        <v>0.246646</v>
+        <v>0.246825</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231203</v>
+        <v>0.231433</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.252285</v>
+        <v>0.252433</v>
       </c>
       <c r="C18" t="n">
-        <v>0.252494</v>
+        <v>0.2527</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23267</v>
+        <v>0.23289</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.261896</v>
+        <v>0.262084</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263025</v>
+        <v>0.263156</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236916</v>
+        <v>0.237036</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273277</v>
+        <v>0.273455</v>
       </c>
       <c r="C20" t="n">
-        <v>0.27799</v>
+        <v>0.278285</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240683</v>
+        <v>0.240798</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.294218</v>
+        <v>0.294484</v>
       </c>
       <c r="C21" t="n">
-        <v>0.297212</v>
+        <v>0.2974</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248244</v>
+        <v>0.248287</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.330046</v>
+        <v>0.330374</v>
       </c>
       <c r="C22" t="n">
-        <v>0.324726</v>
+        <v>0.324919</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261204</v>
+        <v>0.261164</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.372192</v>
+        <v>0.372592</v>
       </c>
       <c r="C23" t="n">
-        <v>0.38038</v>
+        <v>0.380757</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227286</v>
+        <v>0.227348</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236577</v>
+        <v>0.236623</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228068</v>
+        <v>0.228353</v>
       </c>
       <c r="D24" t="n">
-        <v>0.228174</v>
+        <v>0.228356</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236665</v>
+        <v>0.23671</v>
       </c>
       <c r="C25" t="n">
-        <v>0.228572</v>
+        <v>0.228702</v>
       </c>
       <c r="D25" t="n">
-        <v>0.227937</v>
+        <v>0.228119</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.23771</v>
+        <v>0.237816</v>
       </c>
       <c r="C26" t="n">
-        <v>0.229725</v>
+        <v>0.229892</v>
       </c>
       <c r="D26" t="n">
-        <v>0.228338</v>
+        <v>0.228471</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.239175</v>
+        <v>0.239259</v>
       </c>
       <c r="C27" t="n">
-        <v>0.231185</v>
+        <v>0.23147</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22855</v>
+        <v>0.228786</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.241286</v>
+        <v>0.241345</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233843</v>
+        <v>0.234097</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230025</v>
+        <v>0.230179</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.242623</v>
+        <v>0.242755</v>
       </c>
       <c r="C29" t="n">
-        <v>0.236452</v>
+        <v>0.236676</v>
       </c>
       <c r="D29" t="n">
-        <v>0.23042</v>
+        <v>0.230631</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.245115</v>
+        <v>0.245282</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239601</v>
+        <v>0.239808</v>
       </c>
       <c r="D30" t="n">
-        <v>0.231676</v>
+        <v>0.231792</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.248617</v>
+        <v>0.248739</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243964</v>
+        <v>0.244176</v>
       </c>
       <c r="D31" t="n">
-        <v>0.232791</v>
+        <v>0.232876</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.254275</v>
+        <v>0.254414</v>
       </c>
       <c r="C32" t="n">
-        <v>0.250477</v>
+        <v>0.250761</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235045</v>
+        <v>0.235218</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.261928</v>
+        <v>0.262133</v>
       </c>
       <c r="C33" t="n">
-        <v>0.260432</v>
+        <v>0.260679</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238199</v>
+        <v>0.238322</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.271925</v>
+        <v>0.272125</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272194</v>
+        <v>0.272539</v>
       </c>
       <c r="D34" t="n">
-        <v>0.241884</v>
+        <v>0.242036</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.28801</v>
+        <v>0.288287</v>
       </c>
       <c r="C35" t="n">
-        <v>0.289399</v>
+        <v>0.289675</v>
       </c>
       <c r="D35" t="n">
-        <v>0.247256</v>
+        <v>0.247387</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.313076</v>
+        <v>0.313205</v>
       </c>
       <c r="C36" t="n">
-        <v>0.317276</v>
+        <v>0.317541</v>
       </c>
       <c r="D36" t="n">
-        <v>0.258092</v>
+        <v>0.258094</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.354973</v>
+        <v>0.355656</v>
       </c>
       <c r="C37" t="n">
-        <v>0.362068</v>
+        <v>0.362695</v>
       </c>
       <c r="D37" t="n">
-        <v>0.229872</v>
+        <v>0.229719</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.237936</v>
+        <v>0.237846</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229879</v>
+        <v>0.229835</v>
       </c>
       <c r="D38" t="n">
-        <v>0.229669</v>
+        <v>0.229536</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239302</v>
+        <v>0.239238</v>
       </c>
       <c r="C39" t="n">
-        <v>0.231469</v>
+        <v>0.231482</v>
       </c>
       <c r="D39" t="n">
-        <v>0.230604</v>
+        <v>0.230526</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239955</v>
+        <v>0.239877</v>
       </c>
       <c r="C40" t="n">
-        <v>0.232399</v>
+        <v>0.232354</v>
       </c>
       <c r="D40" t="n">
-        <v>0.230657</v>
+        <v>0.230651</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.241123</v>
+        <v>0.241145</v>
       </c>
       <c r="C41" t="n">
-        <v>0.233704</v>
+        <v>0.23374</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231169</v>
+        <v>0.231178</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.243001</v>
+        <v>0.242969</v>
       </c>
       <c r="C42" t="n">
-        <v>0.235415</v>
+        <v>0.235417</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231916</v>
+        <v>0.231951</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.245071</v>
+        <v>0.244959</v>
       </c>
       <c r="C43" t="n">
-        <v>0.237838</v>
+        <v>0.237772</v>
       </c>
       <c r="D43" t="n">
-        <v>0.232669</v>
+        <v>0.232596</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.247948</v>
+        <v>0.247849</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241301</v>
+        <v>0.241208</v>
       </c>
       <c r="D44" t="n">
-        <v>0.233879</v>
+        <v>0.233868</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.25136</v>
+        <v>0.251297</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245496</v>
+        <v>0.245466</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235129</v>
+        <v>0.235173</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.256526</v>
+        <v>0.25641</v>
       </c>
       <c r="C46" t="n">
-        <v>0.251568</v>
+        <v>0.251536</v>
       </c>
       <c r="D46" t="n">
-        <v>0.237242</v>
+        <v>0.237308</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263144</v>
+        <v>0.263082</v>
       </c>
       <c r="C47" t="n">
-        <v>0.259765</v>
+        <v>0.259656</v>
       </c>
       <c r="D47" t="n">
-        <v>0.239633</v>
+        <v>0.239604</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.273494</v>
+        <v>0.273379</v>
       </c>
       <c r="C48" t="n">
-        <v>0.27155</v>
+        <v>0.271287</v>
       </c>
       <c r="D48" t="n">
-        <v>0.243477</v>
+        <v>0.243435</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.288673</v>
+        <v>0.288492</v>
       </c>
       <c r="C49" t="n">
-        <v>0.287917</v>
+        <v>0.287664</v>
       </c>
       <c r="D49" t="n">
-        <v>0.248877</v>
+        <v>0.24886</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.31266</v>
+        <v>0.312372</v>
       </c>
       <c r="C50" t="n">
-        <v>0.315444</v>
+        <v>0.315211</v>
       </c>
       <c r="D50" t="n">
-        <v>0.259135</v>
+        <v>0.259046</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.349258</v>
+        <v>0.349028</v>
       </c>
       <c r="C51" t="n">
-        <v>0.353308</v>
+        <v>0.352997</v>
       </c>
       <c r="D51" t="n">
-        <v>0.231772</v>
+        <v>0.23323</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.406499</v>
+        <v>0.406439</v>
       </c>
       <c r="C52" t="n">
-        <v>0.419934</v>
+        <v>0.418371</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232324</v>
+        <v>0.234008</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243833</v>
+        <v>0.242579</v>
       </c>
       <c r="C53" t="n">
-        <v>0.234213</v>
+        <v>0.236191</v>
       </c>
       <c r="D53" t="n">
-        <v>0.232662</v>
+        <v>0.234465</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.244521</v>
+        <v>0.243314</v>
       </c>
       <c r="C54" t="n">
-        <v>0.235556</v>
+        <v>0.237432</v>
       </c>
       <c r="D54" t="n">
-        <v>0.233147</v>
+        <v>0.234944</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.245732</v>
+        <v>0.244797</v>
       </c>
       <c r="C55" t="n">
-        <v>0.236977</v>
+        <v>0.23892</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233792</v>
+        <v>0.23554</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.247182</v>
+        <v>0.245916</v>
       </c>
       <c r="C56" t="n">
-        <v>0.238843</v>
+        <v>0.240755</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234573</v>
+        <v>0.236363</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.248913</v>
+        <v>0.247634</v>
       </c>
       <c r="C57" t="n">
-        <v>0.241331</v>
+        <v>0.243181</v>
       </c>
       <c r="D57" t="n">
-        <v>0.235392</v>
+        <v>0.237243</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.251285</v>
+        <v>0.25</v>
       </c>
       <c r="C58" t="n">
-        <v>0.244709</v>
+        <v>0.246711</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236514</v>
+        <v>0.238402</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.254631</v>
+        <v>0.25329</v>
       </c>
       <c r="C59" t="n">
-        <v>0.249114</v>
+        <v>0.251128</v>
       </c>
       <c r="D59" t="n">
-        <v>0.237755</v>
+        <v>0.2397</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.259512</v>
+        <v>0.258161</v>
       </c>
       <c r="C60" t="n">
-        <v>0.254932</v>
+        <v>0.256575</v>
       </c>
       <c r="D60" t="n">
-        <v>0.239603</v>
+        <v>0.241674</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.266303</v>
+        <v>0.264888</v>
       </c>
       <c r="C61" t="n">
-        <v>0.262169</v>
+        <v>0.264076</v>
       </c>
       <c r="D61" t="n">
-        <v>0.241923</v>
+        <v>0.243896</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275172</v>
+        <v>0.273703</v>
       </c>
       <c r="C62" t="n">
-        <v>0.272845</v>
+        <v>0.274874</v>
       </c>
       <c r="D62" t="n">
-        <v>0.245405</v>
+        <v>0.247407</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.28862</v>
+        <v>0.287084</v>
       </c>
       <c r="C63" t="n">
-        <v>0.28846</v>
+        <v>0.290257</v>
       </c>
       <c r="D63" t="n">
-        <v>0.251256</v>
+        <v>0.253253</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.309705</v>
+        <v>0.30817</v>
       </c>
       <c r="C64" t="n">
-        <v>0.311887</v>
+        <v>0.313708</v>
       </c>
       <c r="D64" t="n">
-        <v>0.260462</v>
+        <v>0.262468</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.342657</v>
+        <v>0.341113</v>
       </c>
       <c r="C65" t="n">
-        <v>0.348341</v>
+        <v>0.350203</v>
       </c>
       <c r="D65" t="n">
-        <v>0.27665</v>
+        <v>0.278767</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.393367</v>
+        <v>0.391947</v>
       </c>
       <c r="C66" t="n">
-        <v>0.406214</v>
+        <v>0.408608</v>
       </c>
       <c r="D66" t="n">
-        <v>0.248504</v>
+        <v>0.247429</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.257625</v>
+        <v>0.256636</v>
       </c>
       <c r="C67" t="n">
-        <v>0.250577</v>
+        <v>0.250123</v>
       </c>
       <c r="D67" t="n">
-        <v>0.248809</v>
+        <v>0.248259</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.257983</v>
+        <v>0.258577</v>
       </c>
       <c r="C68" t="n">
-        <v>0.251734</v>
+        <v>0.251281</v>
       </c>
       <c r="D68" t="n">
-        <v>0.249125</v>
+        <v>0.248653</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.259305</v>
+        <v>0.259784</v>
       </c>
       <c r="C69" t="n">
-        <v>0.25338</v>
+        <v>0.252913</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250038</v>
+        <v>0.249353</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.260736</v>
+        <v>0.261305</v>
       </c>
       <c r="C70" t="n">
-        <v>0.255108</v>
+        <v>0.254735</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250817</v>
+        <v>0.250007</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.262513</v>
+        <v>0.263057</v>
       </c>
       <c r="C71" t="n">
-        <v>0.257629</v>
+        <v>0.257263</v>
       </c>
       <c r="D71" t="n">
-        <v>0.251275</v>
+        <v>0.251056</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.264993</v>
+        <v>0.265601</v>
       </c>
       <c r="C72" t="n">
-        <v>0.260677</v>
+        <v>0.260394</v>
       </c>
       <c r="D72" t="n">
-        <v>0.252371</v>
+        <v>0.252171</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2681</v>
+        <v>0.268661</v>
       </c>
       <c r="C73" t="n">
-        <v>0.264734</v>
+        <v>0.264474</v>
       </c>
       <c r="D73" t="n">
-        <v>0.253794</v>
+        <v>0.253326</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272217</v>
+        <v>0.272744</v>
       </c>
       <c r="C74" t="n">
-        <v>0.270349</v>
+        <v>0.270136</v>
       </c>
       <c r="D74" t="n">
-        <v>0.255896</v>
+        <v>0.255117</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278167</v>
+        <v>0.278554</v>
       </c>
       <c r="C75" t="n">
-        <v>0.278216</v>
+        <v>0.278009</v>
       </c>
       <c r="D75" t="n">
-        <v>0.258314</v>
+        <v>0.257684</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.286761</v>
+        <v>0.287154</v>
       </c>
       <c r="C76" t="n">
-        <v>0.288617</v>
+        <v>0.288421</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261718</v>
+        <v>0.261283</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.299452</v>
+        <v>0.29989</v>
       </c>
       <c r="C77" t="n">
-        <v>0.303372</v>
+        <v>0.303207</v>
       </c>
       <c r="D77" t="n">
-        <v>0.266899</v>
+        <v>0.266541</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.319056</v>
+        <v>0.319413</v>
       </c>
       <c r="C78" t="n">
-        <v>0.324888</v>
+        <v>0.324812</v>
       </c>
       <c r="D78" t="n">
-        <v>0.275838</v>
+        <v>0.274957</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.348028</v>
+        <v>0.348474</v>
       </c>
       <c r="C79" t="n">
-        <v>0.358799</v>
+        <v>0.358886</v>
       </c>
       <c r="D79" t="n">
-        <v>0.289605</v>
+        <v>0.289402</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.393964</v>
+        <v>0.394428</v>
       </c>
       <c r="C80" t="n">
-        <v>0.412074</v>
+        <v>0.41164</v>
       </c>
       <c r="D80" t="n">
-        <v>0.26575</v>
+        <v>0.265299</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.277148</v>
+        <v>0.276901</v>
       </c>
       <c r="C81" t="n">
-        <v>0.26623</v>
+        <v>0.265823</v>
       </c>
       <c r="D81" t="n">
-        <v>0.266103</v>
+        <v>0.265624</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.278047</v>
+        <v>0.277819</v>
       </c>
       <c r="C82" t="n">
-        <v>0.267356</v>
+        <v>0.26691</v>
       </c>
       <c r="D82" t="n">
-        <v>0.266511</v>
+        <v>0.266061</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.279163</v>
+        <v>0.278807</v>
       </c>
       <c r="C83" t="n">
-        <v>0.268652</v>
+        <v>0.26817</v>
       </c>
       <c r="D83" t="n">
-        <v>0.267076</v>
+        <v>0.26661</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.280377</v>
+        <v>0.280097</v>
       </c>
       <c r="C84" t="n">
-        <v>0.270392</v>
+        <v>0.269877</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2677</v>
+        <v>0.267194</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.281978</v>
+        <v>0.281678</v>
       </c>
       <c r="C85" t="n">
-        <v>0.27238</v>
+        <v>0.27193</v>
       </c>
       <c r="D85" t="n">
-        <v>0.268461</v>
+        <v>0.267954</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.283986</v>
+        <v>0.283619</v>
       </c>
       <c r="C86" t="n">
-        <v>0.275004</v>
+        <v>0.274537</v>
       </c>
       <c r="D86" t="n">
-        <v>0.26941</v>
+        <v>0.268857</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.286691</v>
+        <v>0.286299</v>
       </c>
       <c r="C87" t="n">
-        <v>0.278654</v>
+        <v>0.2782</v>
       </c>
       <c r="D87" t="n">
-        <v>0.270603</v>
+        <v>0.270073</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.290482</v>
+        <v>0.290081</v>
       </c>
       <c r="C88" t="n">
-        <v>0.283678</v>
+        <v>0.283163</v>
       </c>
       <c r="D88" t="n">
-        <v>0.272246</v>
+        <v>0.271662</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.295855</v>
+        <v>0.295489</v>
       </c>
       <c r="C89" t="n">
-        <v>0.290778</v>
+        <v>0.290302</v>
       </c>
       <c r="D89" t="n">
-        <v>0.274562</v>
+        <v>0.274022</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.303812</v>
+        <v>0.303388</v>
       </c>
       <c r="C90" t="n">
-        <v>0.300431</v>
+        <v>0.299901</v>
       </c>
       <c r="D90" t="n">
-        <v>0.277807</v>
+        <v>0.277175</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.315079</v>
+        <v>0.314728</v>
       </c>
       <c r="C91" t="n">
-        <v>0.313834</v>
+        <v>0.31341</v>
       </c>
       <c r="D91" t="n">
-        <v>0.28247</v>
+        <v>0.281913</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.332271</v>
+        <v>0.331923</v>
       </c>
       <c r="C92" t="n">
-        <v>0.333115</v>
+        <v>0.332569</v>
       </c>
       <c r="D92" t="n">
-        <v>0.289856</v>
+        <v>0.289261</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.358768</v>
+        <v>0.358396</v>
       </c>
       <c r="C93" t="n">
-        <v>0.363446</v>
+        <v>0.362798</v>
       </c>
       <c r="D93" t="n">
-        <v>0.302252</v>
+        <v>0.301638</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.400796</v>
+        <v>0.4003</v>
       </c>
       <c r="C94" t="n">
-        <v>0.412599</v>
+        <v>0.412018</v>
       </c>
       <c r="D94" t="n">
-        <v>0.275553</v>
+        <v>0.275473</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.287846</v>
+        <v>0.287914</v>
       </c>
       <c r="C95" t="n">
-        <v>0.276357</v>
+        <v>0.276385</v>
       </c>
       <c r="D95" t="n">
-        <v>0.276018</v>
+        <v>0.276061</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.288896</v>
+        <v>0.288996</v>
       </c>
       <c r="C96" t="n">
-        <v>0.27753</v>
+        <v>0.277454</v>
       </c>
       <c r="D96" t="n">
-        <v>0.276547</v>
+        <v>0.276553</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.290185</v>
+        <v>0.290125</v>
       </c>
       <c r="C97" t="n">
-        <v>0.279</v>
+        <v>0.278907</v>
       </c>
       <c r="D97" t="n">
-        <v>0.277174</v>
+        <v>0.277309</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.291536</v>
+        <v>0.291601</v>
       </c>
       <c r="C98" t="n">
-        <v>0.28084</v>
+        <v>0.280667</v>
       </c>
       <c r="D98" t="n">
-        <v>0.277994</v>
+        <v>0.277813</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.293381</v>
+        <v>0.293273</v>
       </c>
       <c r="C99" t="n">
-        <v>0.283332</v>
+        <v>0.283049</v>
       </c>
       <c r="D99" t="n">
-        <v>0.27868</v>
+        <v>0.27867</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.295699</v>
+        <v>0.295523</v>
       </c>
       <c r="C100" t="n">
-        <v>0.286523</v>
+        <v>0.286094</v>
       </c>
       <c r="D100" t="n">
-        <v>0.27977</v>
+        <v>0.279647</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.298847</v>
+        <v>0.298472</v>
       </c>
       <c r="C101" t="n">
-        <v>0.290712</v>
+        <v>0.290239</v>
       </c>
       <c r="D101" t="n">
-        <v>0.280907</v>
+        <v>0.280865</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303198</v>
+        <v>0.302667</v>
       </c>
       <c r="C102" t="n">
-        <v>0.29635</v>
+        <v>0.295956</v>
       </c>
       <c r="D102" t="n">
-        <v>0.282521</v>
+        <v>0.282512</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.309155</v>
+        <v>0.308473</v>
       </c>
       <c r="C103" t="n">
-        <v>0.304482</v>
+        <v>0.304119</v>
       </c>
       <c r="D103" t="n">
-        <v>0.284933</v>
+        <v>0.28488</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.317781</v>
+        <v>0.316934</v>
       </c>
       <c r="C104" t="n">
-        <v>0.315385</v>
+        <v>0.315218</v>
       </c>
       <c r="D104" t="n">
-        <v>0.288147</v>
+        <v>0.288032</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.330033</v>
+        <v>0.329154</v>
       </c>
       <c r="C105" t="n">
-        <v>0.330334</v>
+        <v>0.330298</v>
       </c>
       <c r="D105" t="n">
-        <v>0.292864</v>
+        <v>0.29284</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.348275</v>
+        <v>0.347367</v>
       </c>
       <c r="C106" t="n">
-        <v>0.350935</v>
+        <v>0.351039</v>
       </c>
       <c r="D106" t="n">
-        <v>0.300145</v>
+        <v>0.300235</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.376042</v>
+        <v>0.37491</v>
       </c>
       <c r="C107" t="n">
-        <v>0.381723</v>
+        <v>0.381722</v>
       </c>
       <c r="D107" t="n">
-        <v>0.31265</v>
+        <v>0.312673</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.418507</v>
+        <v>0.417279</v>
       </c>
       <c r="C108" t="n">
-        <v>0.428865</v>
+        <v>0.429082</v>
       </c>
       <c r="D108" t="n">
-        <v>0.281049</v>
+        <v>0.281209</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.480907</v>
+        <v>0.481269</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5020829999999999</v>
+        <v>0.502074</v>
       </c>
       <c r="D109" t="n">
-        <v>0.281944</v>
+        <v>0.281987</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.306791</v>
+        <v>0.306492</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297135</v>
+        <v>0.297168</v>
       </c>
       <c r="D110" t="n">
-        <v>0.282746</v>
+        <v>0.282683</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.311197</v>
+        <v>0.31125</v>
       </c>
       <c r="C111" t="n">
-        <v>0.302076</v>
+        <v>0.30266</v>
       </c>
       <c r="D111" t="n">
-        <v>0.284222</v>
+        <v>0.284096</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.317031</v>
+        <v>0.317107</v>
       </c>
       <c r="C112" t="n">
-        <v>0.308977</v>
+        <v>0.30851</v>
       </c>
       <c r="D112" t="n">
-        <v>0.285459</v>
+        <v>0.285453</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.322734</v>
+        <v>0.322496</v>
       </c>
       <c r="C113" t="n">
-        <v>0.315318</v>
+        <v>0.315754</v>
       </c>
       <c r="D113" t="n">
-        <v>0.287536</v>
+        <v>0.287147</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.329299</v>
+        <v>0.328868</v>
       </c>
       <c r="C114" t="n">
-        <v>0.322723</v>
+        <v>0.322962</v>
       </c>
       <c r="D114" t="n">
-        <v>0.290002</v>
+        <v>0.289721</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.336184</v>
+        <v>0.335956</v>
       </c>
       <c r="C115" t="n">
-        <v>0.331235</v>
+        <v>0.331336</v>
       </c>
       <c r="D115" t="n">
-        <v>0.293319</v>
+        <v>0.293596</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.344408</v>
+        <v>0.344617</v>
       </c>
       <c r="C116" t="n">
-        <v>0.340605</v>
+        <v>0.340538</v>
       </c>
       <c r="D116" t="n">
-        <v>0.297537</v>
+        <v>0.297159</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.353973</v>
+        <v>0.3544</v>
       </c>
       <c r="C117" t="n">
-        <v>0.351328</v>
+        <v>0.351517</v>
       </c>
       <c r="D117" t="n">
-        <v>0.302664</v>
+        <v>0.303338</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.365929</v>
+        <v>0.365485</v>
       </c>
       <c r="C118" t="n">
-        <v>0.364329</v>
+        <v>0.364389</v>
       </c>
       <c r="D118" t="n">
-        <v>0.309362</v>
+        <v>0.309041</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.380778</v>
+        <v>0.380677</v>
       </c>
       <c r="C119" t="n">
-        <v>0.381117</v>
+        <v>0.381227</v>
       </c>
       <c r="D119" t="n">
-        <v>0.317562</v>
+        <v>0.317724</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.401295</v>
+        <v>0.401306</v>
       </c>
       <c r="C120" t="n">
-        <v>0.403361</v>
+        <v>0.403416</v>
       </c>
       <c r="D120" t="n">
-        <v>0.328531</v>
+        <v>0.328597</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.430319</v>
+        <v>0.429824</v>
       </c>
       <c r="C121" t="n">
-        <v>0.43457</v>
+        <v>0.434292</v>
       </c>
       <c r="D121" t="n">
-        <v>0.344169</v>
+        <v>0.343958</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.473395</v>
+        <v>0.473529</v>
       </c>
       <c r="C122" t="n">
-        <v>0.481624</v>
+        <v>0.482131</v>
       </c>
       <c r="D122" t="n">
-        <v>0.367545</v>
+        <v>0.367648</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.538879</v>
+        <v>0.53922</v>
       </c>
       <c r="C123" t="n">
-        <v>0.559247</v>
+        <v>0.559427</v>
       </c>
       <c r="D123" t="n">
-        <v>0.310353</v>
+        <v>0.312279</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.358388</v>
+        <v>0.360594</v>
       </c>
       <c r="C124" t="n">
-        <v>0.345413</v>
+        <v>0.346587</v>
       </c>
       <c r="D124" t="n">
-        <v>0.313839</v>
+        <v>0.31405</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.362878</v>
+        <v>0.360911</v>
       </c>
       <c r="C125" t="n">
-        <v>0.352279</v>
+        <v>0.352921</v>
       </c>
       <c r="D125" t="n">
-        <v>0.318803</v>
+        <v>0.318604</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.365753</v>
+        <v>0.367216</v>
       </c>
       <c r="C126" t="n">
-        <v>0.355434</v>
+        <v>0.355607</v>
       </c>
       <c r="D126" t="n">
-        <v>0.321082</v>
+        <v>0.320694</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.370347</v>
+        <v>0.369999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.362581</v>
+        <v>0.36366</v>
       </c>
       <c r="D127" t="n">
-        <v>0.325522</v>
+        <v>0.326468</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.378293</v>
+        <v>0.376063</v>
       </c>
       <c r="C128" t="n">
-        <v>0.365573</v>
+        <v>0.367814</v>
       </c>
       <c r="D128" t="n">
-        <v>0.326838</v>
+        <v>0.328382</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.38486</v>
+        <v>0.384511</v>
       </c>
       <c r="C129" t="n">
-        <v>0.374595</v>
+        <v>0.377248</v>
       </c>
       <c r="D129" t="n">
-        <v>0.331924</v>
+        <v>0.334146</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.388192</v>
+        <v>0.387431</v>
       </c>
       <c r="C130" t="n">
-        <v>0.381123</v>
+        <v>0.382436</v>
       </c>
       <c r="D130" t="n">
-        <v>0.334445</v>
+        <v>0.335611</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.399103</v>
+        <v>0.403448</v>
       </c>
       <c r="C131" t="n">
-        <v>0.393691</v>
+        <v>0.393961</v>
       </c>
       <c r="D131" t="n">
-        <v>0.340112</v>
+        <v>0.340485</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.411594</v>
+        <v>0.409171</v>
       </c>
       <c r="C132" t="n">
-        <v>0.405299</v>
+        <v>0.406754</v>
       </c>
       <c r="D132" t="n">
-        <v>0.344539</v>
+        <v>0.345354</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.424039</v>
+        <v>0.426566</v>
       </c>
       <c r="C133" t="n">
-        <v>0.424909</v>
+        <v>0.423576</v>
       </c>
       <c r="D133" t="n">
-        <v>0.353337</v>
+        <v>0.351931</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.444368</v>
+        <v>0.445068</v>
       </c>
       <c r="C134" t="n">
-        <v>0.44576</v>
+        <v>0.451815</v>
       </c>
       <c r="D134" t="n">
-        <v>0.360842</v>
+        <v>0.363347</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.471717</v>
+        <v>0.47469</v>
       </c>
       <c r="C135" t="n">
-        <v>0.481347</v>
+        <v>0.484025</v>
       </c>
       <c r="D135" t="n">
-        <v>0.375391</v>
+        <v>0.377261</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.51588</v>
+        <v>0.513435</v>
       </c>
       <c r="C136" t="n">
-        <v>0.528605</v>
+        <v>0.531466</v>
       </c>
       <c r="D136" t="n">
-        <v>0.39747</v>
+        <v>0.397946</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5794550000000001</v>
+        <v>0.577668</v>
       </c>
       <c r="C137" t="n">
-        <v>0.602151</v>
+        <v>0.608071</v>
       </c>
       <c r="D137" t="n">
-        <v>0.449929</v>
+        <v>0.457004</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.522537</v>
+        <v>0.524912</v>
       </c>
       <c r="C138" t="n">
-        <v>0.496204</v>
+        <v>0.49202</v>
       </c>
       <c r="D138" t="n">
-        <v>0.452927</v>
+        <v>0.448781</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.522842</v>
+        <v>0.5226499999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.503201</v>
+        <v>0.503111</v>
       </c>
       <c r="D139" t="n">
-        <v>0.458293</v>
+        <v>0.458807</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.530818</v>
+        <v>0.524892</v>
       </c>
       <c r="C140" t="n">
-        <v>0.507722</v>
+        <v>0.504985</v>
       </c>
       <c r="D140" t="n">
-        <v>0.46155</v>
+        <v>0.45774</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.537008</v>
+        <v>0.527716</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5216769999999999</v>
+        <v>0.514729</v>
       </c>
       <c r="D141" t="n">
-        <v>0.472471</v>
+        <v>0.463687</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.544839</v>
+        <v>0.539828</v>
       </c>
       <c r="C142" t="n">
-        <v>0.529339</v>
+        <v>0.52427</v>
       </c>
       <c r="D142" t="n">
-        <v>0.476056</v>
+        <v>0.470539</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.547639</v>
+        <v>0.548588</v>
       </c>
       <c r="C143" t="n">
-        <v>0.532393</v>
+        <v>0.532667</v>
       </c>
       <c r="D143" t="n">
-        <v>0.474359</v>
+        <v>0.474041</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.236718</v>
+        <v>0.236937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238208</v>
+        <v>0.238261</v>
       </c>
       <c r="D2" t="n">
-        <v>0.225296</v>
+        <v>0.224754</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.24126</v>
+        <v>0.241649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240131</v>
+        <v>0.240628</v>
       </c>
       <c r="D3" t="n">
-        <v>0.225498</v>
+        <v>0.225452</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.24934</v>
+        <v>0.249802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.251401</v>
+        <v>0.25225</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230607</v>
+        <v>0.230244</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.261978</v>
+        <v>0.262235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265653</v>
+        <v>0.266368</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23491</v>
+        <v>0.234754</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.278517</v>
+        <v>0.278543</v>
       </c>
       <c r="C6" t="n">
-        <v>0.28325</v>
+        <v>0.284279</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240838</v>
+        <v>0.240706</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.299879</v>
+        <v>0.300199</v>
       </c>
       <c r="C7" t="n">
-        <v>0.312406</v>
+        <v>0.31322</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25296</v>
+        <v>0.252881</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.336614</v>
+        <v>0.336361</v>
       </c>
       <c r="C8" t="n">
-        <v>0.347718</v>
+        <v>0.347964</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269248</v>
+        <v>0.269034</v>
       </c>
     </row>
     <row r="9">
@@ -3346,10 +3346,10 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.391811</v>
+        <v>0.391038</v>
       </c>
       <c r="C9" t="n">
-        <v>0.404918</v>
+        <v>0.405089</v>
       </c>
       <c r="D9" t="n">
         <v>0.224391</v>
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.232819</v>
+        <v>0.232976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22599</v>
+        <v>0.226333</v>
       </c>
       <c r="D10" t="n">
-        <v>0.224473</v>
+        <v>0.224631</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.23313</v>
+        <v>0.233286</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226537</v>
+        <v>0.226835</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224337</v>
+        <v>0.224498</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.235352</v>
+        <v>0.235579</v>
       </c>
       <c r="C12" t="n">
-        <v>0.228877</v>
+        <v>0.229262</v>
       </c>
       <c r="D12" t="n">
-        <v>0.225985</v>
+        <v>0.226345</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.235169</v>
+        <v>0.235443</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229445</v>
+        <v>0.22987</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225681</v>
+        <v>0.225626</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.238084</v>
+        <v>0.238459</v>
       </c>
       <c r="C14" t="n">
-        <v>0.233534</v>
+        <v>0.234292</v>
       </c>
       <c r="D14" t="n">
-        <v>0.227224</v>
+        <v>0.227399</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.240372</v>
+        <v>0.240695</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237028</v>
+        <v>0.237426</v>
       </c>
       <c r="D15" t="n">
-        <v>0.228729</v>
+        <v>0.228842</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.243519</v>
+        <v>0.24395</v>
       </c>
       <c r="C16" t="n">
-        <v>0.241395</v>
+        <v>0.241921</v>
       </c>
       <c r="D16" t="n">
-        <v>0.229998</v>
+        <v>0.230167</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.247176</v>
+        <v>0.247504</v>
       </c>
       <c r="C17" t="n">
-        <v>0.246825</v>
+        <v>0.24726</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231433</v>
+        <v>0.231543</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.252433</v>
+        <v>0.252651</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2527</v>
+        <v>0.253352</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23289</v>
+        <v>0.233075</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.262084</v>
+        <v>0.262251</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263156</v>
+        <v>0.263895</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237036</v>
+        <v>0.237221</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273455</v>
+        <v>0.273646</v>
       </c>
       <c r="C20" t="n">
-        <v>0.278285</v>
+        <v>0.278888</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240798</v>
+        <v>0.241148</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.294484</v>
+        <v>0.295008</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2974</v>
+        <v>0.298449</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248287</v>
+        <v>0.248756</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.330374</v>
+        <v>0.330656</v>
       </c>
       <c r="C22" t="n">
-        <v>0.324919</v>
+        <v>0.32609</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261164</v>
+        <v>0.261758</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.372592</v>
+        <v>0.371838</v>
       </c>
       <c r="C23" t="n">
-        <v>0.380757</v>
+        <v>0.381347</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227348</v>
+        <v>0.227445</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236623</v>
+        <v>0.236617</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228353</v>
+        <v>0.228515</v>
       </c>
       <c r="D24" t="n">
-        <v>0.228356</v>
+        <v>0.228408</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23671</v>
+        <v>0.236811</v>
       </c>
       <c r="C25" t="n">
-        <v>0.228702</v>
+        <v>0.228998</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228119</v>
+        <v>0.228158</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.237816</v>
+        <v>0.237922</v>
       </c>
       <c r="C26" t="n">
-        <v>0.229892</v>
+        <v>0.23023</v>
       </c>
       <c r="D26" t="n">
-        <v>0.228471</v>
+        <v>0.228547</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.239259</v>
+        <v>0.239235</v>
       </c>
       <c r="C27" t="n">
-        <v>0.23147</v>
+        <v>0.231756</v>
       </c>
       <c r="D27" t="n">
-        <v>0.228786</v>
+        <v>0.22889</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.241345</v>
+        <v>0.241465</v>
       </c>
       <c r="C28" t="n">
-        <v>0.234097</v>
+        <v>0.234296</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230179</v>
+        <v>0.230262</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.242755</v>
+        <v>0.242842</v>
       </c>
       <c r="C29" t="n">
-        <v>0.236676</v>
+        <v>0.237036</v>
       </c>
       <c r="D29" t="n">
-        <v>0.230631</v>
+        <v>0.23069</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.245282</v>
+        <v>0.245272</v>
       </c>
       <c r="C30" t="n">
-        <v>0.239808</v>
+        <v>0.240232</v>
       </c>
       <c r="D30" t="n">
-        <v>0.231792</v>
+        <v>0.231894</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.248739</v>
+        <v>0.248721</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244176</v>
+        <v>0.244482</v>
       </c>
       <c r="D31" t="n">
-        <v>0.232876</v>
+        <v>0.232955</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.254414</v>
+        <v>0.254496</v>
       </c>
       <c r="C32" t="n">
-        <v>0.250761</v>
+        <v>0.251081</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235218</v>
+        <v>0.23525</v>
       </c>
     </row>
     <row r="33">
@@ -3685,10 +3685,10 @@
         <v>0.262133</v>
       </c>
       <c r="C33" t="n">
-        <v>0.260679</v>
+        <v>0.261105</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238322</v>
+        <v>0.238437</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.272125</v>
+        <v>0.272192</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272539</v>
+        <v>0.273007</v>
       </c>
       <c r="D34" t="n">
-        <v>0.242036</v>
+        <v>0.242217</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.288287</v>
+        <v>0.288389</v>
       </c>
       <c r="C35" t="n">
-        <v>0.289675</v>
+        <v>0.290026</v>
       </c>
       <c r="D35" t="n">
-        <v>0.247387</v>
+        <v>0.247679</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.313205</v>
+        <v>0.313653</v>
       </c>
       <c r="C36" t="n">
-        <v>0.317541</v>
+        <v>0.318447</v>
       </c>
       <c r="D36" t="n">
-        <v>0.258094</v>
+        <v>0.258474</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.355656</v>
+        <v>0.356044</v>
       </c>
       <c r="C37" t="n">
-        <v>0.362695</v>
+        <v>0.364</v>
       </c>
       <c r="D37" t="n">
-        <v>0.229719</v>
+        <v>0.229805</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.237846</v>
+        <v>0.237906</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229835</v>
+        <v>0.230075</v>
       </c>
       <c r="D38" t="n">
-        <v>0.229536</v>
+        <v>0.229756</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239238</v>
+        <v>0.239376</v>
       </c>
       <c r="C39" t="n">
-        <v>0.231482</v>
+        <v>0.231806</v>
       </c>
       <c r="D39" t="n">
-        <v>0.230526</v>
+        <v>0.230815</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239877</v>
+        <v>0.239996</v>
       </c>
       <c r="C40" t="n">
-        <v>0.232354</v>
+        <v>0.23259</v>
       </c>
       <c r="D40" t="n">
-        <v>0.230651</v>
+        <v>0.230809</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.241145</v>
+        <v>0.241132</v>
       </c>
       <c r="C41" t="n">
-        <v>0.23374</v>
+        <v>0.233851</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231178</v>
+        <v>0.231342</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.242969</v>
+        <v>0.243011</v>
       </c>
       <c r="C42" t="n">
-        <v>0.235417</v>
+        <v>0.235605</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231951</v>
+        <v>0.232116</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.244959</v>
+        <v>0.245055</v>
       </c>
       <c r="C43" t="n">
-        <v>0.237772</v>
+        <v>0.237964</v>
       </c>
       <c r="D43" t="n">
-        <v>0.232596</v>
+        <v>0.23283</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.247849</v>
+        <v>0.247831</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241208</v>
+        <v>0.241519</v>
       </c>
       <c r="D44" t="n">
-        <v>0.233868</v>
+        <v>0.23403</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.251297</v>
+        <v>0.251333</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245466</v>
+        <v>0.245824</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235173</v>
+        <v>0.235398</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.25641</v>
+        <v>0.256416</v>
       </c>
       <c r="C46" t="n">
-        <v>0.251536</v>
+        <v>0.251861</v>
       </c>
       <c r="D46" t="n">
-        <v>0.237308</v>
+        <v>0.237461</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263082</v>
+        <v>0.263176</v>
       </c>
       <c r="C47" t="n">
-        <v>0.259656</v>
+        <v>0.259972</v>
       </c>
       <c r="D47" t="n">
-        <v>0.239604</v>
+        <v>0.239864</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.273379</v>
+        <v>0.273493</v>
       </c>
       <c r="C48" t="n">
-        <v>0.271287</v>
+        <v>0.271844</v>
       </c>
       <c r="D48" t="n">
-        <v>0.243435</v>
+        <v>0.243713</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.288492</v>
+        <v>0.288728</v>
       </c>
       <c r="C49" t="n">
-        <v>0.287664</v>
+        <v>0.288418</v>
       </c>
       <c r="D49" t="n">
-        <v>0.24886</v>
+        <v>0.249314</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.312372</v>
+        <v>0.313036</v>
       </c>
       <c r="C50" t="n">
-        <v>0.315211</v>
+        <v>0.316628</v>
       </c>
       <c r="D50" t="n">
-        <v>0.259046</v>
+        <v>0.259562</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.349028</v>
+        <v>0.350139</v>
       </c>
       <c r="C51" t="n">
-        <v>0.352997</v>
+        <v>0.355171</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23323</v>
+        <v>0.232323</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.406439</v>
+        <v>0.4056</v>
       </c>
       <c r="C52" t="n">
-        <v>0.418371</v>
+        <v>0.419881</v>
       </c>
       <c r="D52" t="n">
-        <v>0.234008</v>
+        <v>0.232951</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242579</v>
+        <v>0.243227</v>
       </c>
       <c r="C53" t="n">
-        <v>0.236191</v>
+        <v>0.235431</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234465</v>
+        <v>0.2334</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.243314</v>
+        <v>0.244729</v>
       </c>
       <c r="C54" t="n">
-        <v>0.237432</v>
+        <v>0.236637</v>
       </c>
       <c r="D54" t="n">
-        <v>0.234944</v>
+        <v>0.233875</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.244797</v>
+        <v>0.245882</v>
       </c>
       <c r="C55" t="n">
-        <v>0.23892</v>
+        <v>0.238184</v>
       </c>
       <c r="D55" t="n">
-        <v>0.23554</v>
+        <v>0.234488</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.245916</v>
+        <v>0.247287</v>
       </c>
       <c r="C56" t="n">
-        <v>0.240755</v>
+        <v>0.239992</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236363</v>
+        <v>0.23528</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.247634</v>
+        <v>0.248963</v>
       </c>
       <c r="C57" t="n">
-        <v>0.243181</v>
+        <v>0.242438</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237243</v>
+        <v>0.236146</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.25</v>
+        <v>0.25141</v>
       </c>
       <c r="C58" t="n">
-        <v>0.246711</v>
+        <v>0.245964</v>
       </c>
       <c r="D58" t="n">
-        <v>0.238402</v>
+        <v>0.237194</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.25329</v>
+        <v>0.254679</v>
       </c>
       <c r="C59" t="n">
-        <v>0.251128</v>
+        <v>0.250495</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2397</v>
+        <v>0.238475</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.258161</v>
+        <v>0.259551</v>
       </c>
       <c r="C60" t="n">
-        <v>0.256575</v>
+        <v>0.256061</v>
       </c>
       <c r="D60" t="n">
-        <v>0.241674</v>
+        <v>0.240557</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.264888</v>
+        <v>0.266367</v>
       </c>
       <c r="C61" t="n">
-        <v>0.264076</v>
+        <v>0.263641</v>
       </c>
       <c r="D61" t="n">
-        <v>0.243896</v>
+        <v>0.242801</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.273703</v>
+        <v>0.275147</v>
       </c>
       <c r="C62" t="n">
-        <v>0.274874</v>
+        <v>0.274261</v>
       </c>
       <c r="D62" t="n">
-        <v>0.247407</v>
+        <v>0.246304</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.287084</v>
+        <v>0.288764</v>
       </c>
       <c r="C63" t="n">
-        <v>0.290257</v>
+        <v>0.290263</v>
       </c>
       <c r="D63" t="n">
-        <v>0.253253</v>
+        <v>0.252329</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.30817</v>
+        <v>0.310132</v>
       </c>
       <c r="C64" t="n">
-        <v>0.313708</v>
+        <v>0.314356</v>
       </c>
       <c r="D64" t="n">
-        <v>0.262468</v>
+        <v>0.261645</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.341113</v>
+        <v>0.343851</v>
       </c>
       <c r="C65" t="n">
-        <v>0.350203</v>
+        <v>0.351682</v>
       </c>
       <c r="D65" t="n">
-        <v>0.278767</v>
+        <v>0.278227</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.391947</v>
+        <v>0.395183</v>
       </c>
       <c r="C66" t="n">
-        <v>0.408608</v>
+        <v>0.410194</v>
       </c>
       <c r="D66" t="n">
-        <v>0.247429</v>
+        <v>0.249498</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.256636</v>
+        <v>0.256008</v>
       </c>
       <c r="C67" t="n">
-        <v>0.250123</v>
+        <v>0.252114</v>
       </c>
       <c r="D67" t="n">
-        <v>0.248259</v>
+        <v>0.25057</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.258577</v>
+        <v>0.258559</v>
       </c>
       <c r="C68" t="n">
-        <v>0.251281</v>
+        <v>0.253172</v>
       </c>
       <c r="D68" t="n">
-        <v>0.248653</v>
+        <v>0.250903</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.259784</v>
+        <v>0.259846</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252913</v>
+        <v>0.254722</v>
       </c>
       <c r="D69" t="n">
-        <v>0.249353</v>
+        <v>0.251543</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.261305</v>
+        <v>0.261304</v>
       </c>
       <c r="C70" t="n">
-        <v>0.254735</v>
+        <v>0.256472</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250007</v>
+        <v>0.252115</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.263057</v>
+        <v>0.263023</v>
       </c>
       <c r="C71" t="n">
-        <v>0.257263</v>
+        <v>0.258894</v>
       </c>
       <c r="D71" t="n">
-        <v>0.251056</v>
+        <v>0.252929</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.265601</v>
+        <v>0.265529</v>
       </c>
       <c r="C72" t="n">
-        <v>0.260394</v>
+        <v>0.261885</v>
       </c>
       <c r="D72" t="n">
-        <v>0.252171</v>
+        <v>0.254003</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.268661</v>
+        <v>0.268672</v>
       </c>
       <c r="C73" t="n">
-        <v>0.264474</v>
+        <v>0.26596</v>
       </c>
       <c r="D73" t="n">
-        <v>0.253326</v>
+        <v>0.255369</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272744</v>
+        <v>0.272783</v>
       </c>
       <c r="C74" t="n">
-        <v>0.270136</v>
+        <v>0.27157</v>
       </c>
       <c r="D74" t="n">
-        <v>0.255117</v>
+        <v>0.257201</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278554</v>
+        <v>0.278924</v>
       </c>
       <c r="C75" t="n">
-        <v>0.278009</v>
+        <v>0.279528</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257684</v>
+        <v>0.259731</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287154</v>
+        <v>0.287696</v>
       </c>
       <c r="C76" t="n">
-        <v>0.288421</v>
+        <v>0.290085</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261283</v>
+        <v>0.263355</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.29989</v>
+        <v>0.300607</v>
       </c>
       <c r="C77" t="n">
-        <v>0.303207</v>
+        <v>0.305124</v>
       </c>
       <c r="D77" t="n">
-        <v>0.266541</v>
+        <v>0.268693</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.319413</v>
+        <v>0.320685</v>
       </c>
       <c r="C78" t="n">
-        <v>0.324812</v>
+        <v>0.32724</v>
       </c>
       <c r="D78" t="n">
-        <v>0.274957</v>
+        <v>0.277292</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.348474</v>
+        <v>0.350522</v>
       </c>
       <c r="C79" t="n">
-        <v>0.358886</v>
+        <v>0.36238</v>
       </c>
       <c r="D79" t="n">
-        <v>0.289402</v>
+        <v>0.292209</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.394428</v>
+        <v>0.397563</v>
       </c>
       <c r="C80" t="n">
-        <v>0.41164</v>
+        <v>0.41588</v>
       </c>
       <c r="D80" t="n">
-        <v>0.265299</v>
+        <v>0.265748</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.276901</v>
+        <v>0.277068</v>
       </c>
       <c r="C81" t="n">
-        <v>0.265823</v>
+        <v>0.266068</v>
       </c>
       <c r="D81" t="n">
-        <v>0.265624</v>
+        <v>0.266166</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.277819</v>
+        <v>0.277828</v>
       </c>
       <c r="C82" t="n">
-        <v>0.26691</v>
+        <v>0.267136</v>
       </c>
       <c r="D82" t="n">
-        <v>0.266061</v>
+        <v>0.266554</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.278807</v>
+        <v>0.278743</v>
       </c>
       <c r="C83" t="n">
-        <v>0.26817</v>
+        <v>0.268457</v>
       </c>
       <c r="D83" t="n">
-        <v>0.26661</v>
+        <v>0.267088</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.280097</v>
+        <v>0.28003</v>
       </c>
       <c r="C84" t="n">
-        <v>0.269877</v>
+        <v>0.270166</v>
       </c>
       <c r="D84" t="n">
-        <v>0.267194</v>
+        <v>0.267727</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.281678</v>
+        <v>0.28161</v>
       </c>
       <c r="C85" t="n">
-        <v>0.27193</v>
+        <v>0.272173</v>
       </c>
       <c r="D85" t="n">
-        <v>0.267954</v>
+        <v>0.268429</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.283619</v>
+        <v>0.283577</v>
       </c>
       <c r="C86" t="n">
-        <v>0.274537</v>
+        <v>0.274824</v>
       </c>
       <c r="D86" t="n">
-        <v>0.268857</v>
+        <v>0.269392</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.286299</v>
+        <v>0.286259</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2782</v>
+        <v>0.27839</v>
       </c>
       <c r="D87" t="n">
-        <v>0.270073</v>
+        <v>0.270507</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.290081</v>
+        <v>0.290052</v>
       </c>
       <c r="C88" t="n">
-        <v>0.283163</v>
+        <v>0.283472</v>
       </c>
       <c r="D88" t="n">
-        <v>0.271662</v>
+        <v>0.27208</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.295489</v>
+        <v>0.295549</v>
       </c>
       <c r="C89" t="n">
-        <v>0.290302</v>
+        <v>0.290686</v>
       </c>
       <c r="D89" t="n">
-        <v>0.274022</v>
+        <v>0.274563</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.303388</v>
+        <v>0.303567</v>
       </c>
       <c r="C90" t="n">
-        <v>0.299901</v>
+        <v>0.300442</v>
       </c>
       <c r="D90" t="n">
-        <v>0.277175</v>
+        <v>0.277778</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.314728</v>
+        <v>0.315257</v>
       </c>
       <c r="C91" t="n">
-        <v>0.31341</v>
+        <v>0.314226</v>
       </c>
       <c r="D91" t="n">
-        <v>0.281913</v>
+        <v>0.282539</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.331923</v>
+        <v>0.332807</v>
       </c>
       <c r="C92" t="n">
-        <v>0.332569</v>
+        <v>0.333769</v>
       </c>
       <c r="D92" t="n">
-        <v>0.289261</v>
+        <v>0.289997</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.358396</v>
+        <v>0.36017</v>
       </c>
       <c r="C93" t="n">
-        <v>0.362798</v>
+        <v>0.365242</v>
       </c>
       <c r="D93" t="n">
-        <v>0.301638</v>
+        <v>0.30285</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4003</v>
+        <v>0.403605</v>
       </c>
       <c r="C94" t="n">
-        <v>0.412018</v>
+        <v>0.415858</v>
       </c>
       <c r="D94" t="n">
-        <v>0.275473</v>
+        <v>0.275628</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.287914</v>
+        <v>0.287022</v>
       </c>
       <c r="C95" t="n">
-        <v>0.276385</v>
+        <v>0.276115</v>
       </c>
       <c r="D95" t="n">
-        <v>0.276061</v>
+        <v>0.276082</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.288996</v>
+        <v>0.288084</v>
       </c>
       <c r="C96" t="n">
-        <v>0.277454</v>
+        <v>0.277433</v>
       </c>
       <c r="D96" t="n">
-        <v>0.276553</v>
+        <v>0.276562</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.290125</v>
+        <v>0.289317</v>
       </c>
       <c r="C97" t="n">
-        <v>0.278907</v>
+        <v>0.278787</v>
       </c>
       <c r="D97" t="n">
-        <v>0.277309</v>
+        <v>0.277217</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.291601</v>
+        <v>0.290759</v>
       </c>
       <c r="C98" t="n">
-        <v>0.280667</v>
+        <v>0.280697</v>
       </c>
       <c r="D98" t="n">
-        <v>0.277813</v>
+        <v>0.277864</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.293273</v>
+        <v>0.292595</v>
       </c>
       <c r="C99" t="n">
-        <v>0.283049</v>
+        <v>0.282871</v>
       </c>
       <c r="D99" t="n">
-        <v>0.27867</v>
+        <v>0.278614</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.295523</v>
+        <v>0.294734</v>
       </c>
       <c r="C100" t="n">
-        <v>0.286094</v>
+        <v>0.285933</v>
       </c>
       <c r="D100" t="n">
-        <v>0.279647</v>
+        <v>0.279721</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.298472</v>
+        <v>0.297691</v>
       </c>
       <c r="C101" t="n">
-        <v>0.290239</v>
+        <v>0.289913</v>
       </c>
       <c r="D101" t="n">
-        <v>0.280865</v>
+        <v>0.28094</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302667</v>
+        <v>0.301831</v>
       </c>
       <c r="C102" t="n">
-        <v>0.295956</v>
+        <v>0.295419</v>
       </c>
       <c r="D102" t="n">
-        <v>0.282512</v>
+        <v>0.282543</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.308473</v>
+        <v>0.307732</v>
       </c>
       <c r="C103" t="n">
-        <v>0.304119</v>
+        <v>0.30299</v>
       </c>
       <c r="D103" t="n">
-        <v>0.28488</v>
+        <v>0.284962</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.316934</v>
+        <v>0.315895</v>
       </c>
       <c r="C104" t="n">
-        <v>0.315218</v>
+        <v>0.313548</v>
       </c>
       <c r="D104" t="n">
-        <v>0.288032</v>
+        <v>0.288229</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.329154</v>
+        <v>0.327937</v>
       </c>
       <c r="C105" t="n">
-        <v>0.330298</v>
+        <v>0.328136</v>
       </c>
       <c r="D105" t="n">
-        <v>0.29284</v>
+        <v>0.293025</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.347367</v>
+        <v>0.346327</v>
       </c>
       <c r="C106" t="n">
-        <v>0.351039</v>
+        <v>0.348828</v>
       </c>
       <c r="D106" t="n">
-        <v>0.300235</v>
+        <v>0.300284</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.37491</v>
+        <v>0.374506</v>
       </c>
       <c r="C107" t="n">
-        <v>0.381722</v>
+        <v>0.380174</v>
       </c>
       <c r="D107" t="n">
-        <v>0.312673</v>
+        <v>0.31265</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.417279</v>
+        <v>0.418302</v>
       </c>
       <c r="C108" t="n">
-        <v>0.429082</v>
+        <v>0.429518</v>
       </c>
       <c r="D108" t="n">
-        <v>0.281209</v>
+        <v>0.281313</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.481269</v>
+        <v>0.487408</v>
       </c>
       <c r="C109" t="n">
-        <v>0.502074</v>
+        <v>0.507499</v>
       </c>
       <c r="D109" t="n">
-        <v>0.281987</v>
+        <v>0.2822</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.306492</v>
+        <v>0.307821</v>
       </c>
       <c r="C110" t="n">
-        <v>0.297168</v>
+        <v>0.298114</v>
       </c>
       <c r="D110" t="n">
-        <v>0.282683</v>
+        <v>0.283072</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.31125</v>
+        <v>0.311819</v>
       </c>
       <c r="C111" t="n">
-        <v>0.30266</v>
+        <v>0.303392</v>
       </c>
       <c r="D111" t="n">
-        <v>0.284096</v>
+        <v>0.284113</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.317107</v>
+        <v>0.317975</v>
       </c>
       <c r="C112" t="n">
-        <v>0.30851</v>
+        <v>0.309505</v>
       </c>
       <c r="D112" t="n">
-        <v>0.285453</v>
+        <v>0.28572</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.322496</v>
+        <v>0.324267</v>
       </c>
       <c r="C113" t="n">
-        <v>0.315754</v>
+        <v>0.317116</v>
       </c>
       <c r="D113" t="n">
-        <v>0.287147</v>
+        <v>0.287755</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328868</v>
+        <v>0.331762</v>
       </c>
       <c r="C114" t="n">
-        <v>0.322962</v>
+        <v>0.325286</v>
       </c>
       <c r="D114" t="n">
-        <v>0.289721</v>
+        <v>0.290304</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.335956</v>
+        <v>0.339774</v>
       </c>
       <c r="C115" t="n">
-        <v>0.331336</v>
+        <v>0.33397</v>
       </c>
       <c r="D115" t="n">
-        <v>0.293596</v>
+        <v>0.293511</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.344617</v>
+        <v>0.348806</v>
       </c>
       <c r="C116" t="n">
-        <v>0.340538</v>
+        <v>0.34398</v>
       </c>
       <c r="D116" t="n">
-        <v>0.297159</v>
+        <v>0.297283</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3544</v>
+        <v>0.358653</v>
       </c>
       <c r="C117" t="n">
-        <v>0.351517</v>
+        <v>0.355919</v>
       </c>
       <c r="D117" t="n">
-        <v>0.303338</v>
+        <v>0.303047</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.365485</v>
+        <v>0.371291</v>
       </c>
       <c r="C118" t="n">
-        <v>0.364389</v>
+        <v>0.369838</v>
       </c>
       <c r="D118" t="n">
-        <v>0.309041</v>
+        <v>0.309376</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.380677</v>
+        <v>0.38714</v>
       </c>
       <c r="C119" t="n">
-        <v>0.381227</v>
+        <v>0.387626</v>
       </c>
       <c r="D119" t="n">
-        <v>0.317724</v>
+        <v>0.318395</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.401306</v>
+        <v>0.408681</v>
       </c>
       <c r="C120" t="n">
-        <v>0.403416</v>
+        <v>0.411096</v>
       </c>
       <c r="D120" t="n">
-        <v>0.328597</v>
+        <v>0.329586</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.429824</v>
+        <v>0.439184</v>
       </c>
       <c r="C121" t="n">
-        <v>0.434292</v>
+        <v>0.44408</v>
       </c>
       <c r="D121" t="n">
-        <v>0.343958</v>
+        <v>0.346271</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.473529</v>
+        <v>0.485027</v>
       </c>
       <c r="C122" t="n">
-        <v>0.482131</v>
+        <v>0.49439</v>
       </c>
       <c r="D122" t="n">
-        <v>0.367648</v>
+        <v>0.371281</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.53922</v>
+        <v>0.554342</v>
       </c>
       <c r="C123" t="n">
-        <v>0.559427</v>
+        <v>0.575906</v>
       </c>
       <c r="D123" t="n">
-        <v>0.312279</v>
+        <v>0.314821</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.360594</v>
+        <v>0.365038</v>
       </c>
       <c r="C124" t="n">
-        <v>0.346587</v>
+        <v>0.352211</v>
       </c>
       <c r="D124" t="n">
-        <v>0.31405</v>
+        <v>0.315966</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.360911</v>
+        <v>0.36731</v>
       </c>
       <c r="C125" t="n">
-        <v>0.352921</v>
+        <v>0.359576</v>
       </c>
       <c r="D125" t="n">
-        <v>0.318604</v>
+        <v>0.321061</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.367216</v>
+        <v>0.375072</v>
       </c>
       <c r="C126" t="n">
-        <v>0.355607</v>
+        <v>0.36255</v>
       </c>
       <c r="D126" t="n">
-        <v>0.320694</v>
+        <v>0.323509</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.369999</v>
+        <v>0.375817</v>
       </c>
       <c r="C127" t="n">
-        <v>0.36366</v>
+        <v>0.37066</v>
       </c>
       <c r="D127" t="n">
-        <v>0.326468</v>
+        <v>0.329526</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.376063</v>
+        <v>0.385727</v>
       </c>
       <c r="C128" t="n">
-        <v>0.367814</v>
+        <v>0.375579</v>
       </c>
       <c r="D128" t="n">
-        <v>0.328382</v>
+        <v>0.332013</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.384511</v>
+        <v>0.390045</v>
       </c>
       <c r="C129" t="n">
-        <v>0.377248</v>
+        <v>0.383754</v>
       </c>
       <c r="D129" t="n">
-        <v>0.334146</v>
+        <v>0.335823</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.387431</v>
+        <v>0.397433</v>
       </c>
       <c r="C130" t="n">
-        <v>0.382436</v>
+        <v>0.391296</v>
       </c>
       <c r="D130" t="n">
-        <v>0.335611</v>
+        <v>0.339665</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.403448</v>
+        <v>0.405935</v>
       </c>
       <c r="C131" t="n">
-        <v>0.393961</v>
+        <v>0.40204</v>
       </c>
       <c r="D131" t="n">
-        <v>0.340485</v>
+        <v>0.344421</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.409171</v>
+        <v>0.417767</v>
       </c>
       <c r="C132" t="n">
-        <v>0.406754</v>
+        <v>0.416821</v>
       </c>
       <c r="D132" t="n">
-        <v>0.345354</v>
+        <v>0.350963</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.426566</v>
+        <v>0.432839</v>
       </c>
       <c r="C133" t="n">
-        <v>0.423576</v>
+        <v>0.435417</v>
       </c>
       <c r="D133" t="n">
-        <v>0.351931</v>
+        <v>0.358124</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.445068</v>
+        <v>0.455599</v>
       </c>
       <c r="C134" t="n">
-        <v>0.451815</v>
+        <v>0.459707</v>
       </c>
       <c r="D134" t="n">
-        <v>0.363347</v>
+        <v>0.368591</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.47469</v>
+        <v>0.490048</v>
       </c>
       <c r="C135" t="n">
-        <v>0.484025</v>
+        <v>0.495108</v>
       </c>
       <c r="D135" t="n">
-        <v>0.377261</v>
+        <v>0.383307</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.513435</v>
+        <v>0.529116</v>
       </c>
       <c r="C136" t="n">
-        <v>0.531466</v>
+        <v>0.544789</v>
       </c>
       <c r="D136" t="n">
-        <v>0.397946</v>
+        <v>0.404668</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.577668</v>
+        <v>0.598638</v>
       </c>
       <c r="C137" t="n">
-        <v>0.608071</v>
+        <v>0.627938</v>
       </c>
       <c r="D137" t="n">
-        <v>0.457004</v>
+        <v>0.482889</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.524912</v>
+        <v>0.5518380000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.49202</v>
+        <v>0.524643</v>
       </c>
       <c r="D138" t="n">
-        <v>0.448781</v>
+        <v>0.476554</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5226499999999999</v>
+        <v>0.55281</v>
       </c>
       <c r="C139" t="n">
-        <v>0.503111</v>
+        <v>0.532119</v>
       </c>
       <c r="D139" t="n">
-        <v>0.458807</v>
+        <v>0.48309</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.524892</v>
+        <v>0.560167</v>
       </c>
       <c r="C140" t="n">
-        <v>0.504985</v>
+        <v>0.5388269999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.45774</v>
+        <v>0.48585</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.527716</v>
+        <v>0.5740730000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.514729</v>
+        <v>0.548418</v>
       </c>
       <c r="D141" t="n">
-        <v>0.463687</v>
+        <v>0.492768</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.539828</v>
+        <v>0.572361</v>
       </c>
       <c r="C142" t="n">
-        <v>0.52427</v>
+        <v>0.552339</v>
       </c>
       <c r="D142" t="n">
-        <v>0.470539</v>
+        <v>0.490357</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.548588</v>
+        <v>0.589273</v>
       </c>
       <c r="C143" t="n">
-        <v>0.532667</v>
+        <v>0.565628</v>
       </c>
       <c r="D143" t="n">
-        <v>0.474041</v>
+        <v>0.501234</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.236937</v>
+        <v>0.232846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.238261</v>
+        <v>0.235674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.224754</v>
+        <v>0.222116</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.241649</v>
+        <v>0.237304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.240628</v>
+        <v>0.238277</v>
       </c>
       <c r="D3" t="n">
-        <v>0.225452</v>
+        <v>0.222821</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.249802</v>
+        <v>0.245486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.25225</v>
+        <v>0.249929</v>
       </c>
       <c r="D4" t="n">
-        <v>0.230244</v>
+        <v>0.227624</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.262235</v>
+        <v>0.258202</v>
       </c>
       <c r="C5" t="n">
-        <v>0.266368</v>
+        <v>0.264414</v>
       </c>
       <c r="D5" t="n">
-        <v>0.234754</v>
+        <v>0.232327</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.278543</v>
+        <v>0.274558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.284279</v>
+        <v>0.28256</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240706</v>
+        <v>0.238478</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.300199</v>
+        <v>0.295759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.31322</v>
+        <v>0.312506</v>
       </c>
       <c r="D7" t="n">
-        <v>0.252881</v>
+        <v>0.250888</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.336361</v>
+        <v>0.330767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.347964</v>
+        <v>0.347106</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269034</v>
+        <v>0.267439</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.391038</v>
+        <v>0.383943</v>
       </c>
       <c r="C9" t="n">
-        <v>0.405089</v>
+        <v>0.403286</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224391</v>
+        <v>0.221516</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.232976</v>
+        <v>0.229079</v>
       </c>
       <c r="C10" t="n">
-        <v>0.226333</v>
+        <v>0.223821</v>
       </c>
       <c r="D10" t="n">
-        <v>0.224631</v>
+        <v>0.221656</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233286</v>
+        <v>0.229456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226835</v>
+        <v>0.224187</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224498</v>
+        <v>0.22149</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.235579</v>
+        <v>0.231872</v>
       </c>
       <c r="C12" t="n">
-        <v>0.229262</v>
+        <v>0.226752</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226345</v>
+        <v>0.223469</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.235443</v>
+        <v>0.231725</v>
       </c>
       <c r="C13" t="n">
-        <v>0.22987</v>
+        <v>0.227282</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225626</v>
+        <v>0.222895</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.238459</v>
+        <v>0.234691</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234292</v>
+        <v>0.231849</v>
       </c>
       <c r="D14" t="n">
-        <v>0.227399</v>
+        <v>0.224797</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.240695</v>
+        <v>0.236832</v>
       </c>
       <c r="C15" t="n">
-        <v>0.237426</v>
+        <v>0.234874</v>
       </c>
       <c r="D15" t="n">
-        <v>0.228842</v>
+        <v>0.22609</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.24395</v>
+        <v>0.239978</v>
       </c>
       <c r="C16" t="n">
-        <v>0.241921</v>
+        <v>0.239419</v>
       </c>
       <c r="D16" t="n">
-        <v>0.230167</v>
+        <v>0.227337</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.247504</v>
+        <v>0.243379</v>
       </c>
       <c r="C17" t="n">
-        <v>0.24726</v>
+        <v>0.244725</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231543</v>
+        <v>0.228681</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.252651</v>
+        <v>0.248636</v>
       </c>
       <c r="C18" t="n">
-        <v>0.253352</v>
+        <v>0.250729</v>
       </c>
       <c r="D18" t="n">
-        <v>0.233075</v>
+        <v>0.230164</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.262251</v>
+        <v>0.258105</v>
       </c>
       <c r="C19" t="n">
-        <v>0.263895</v>
+        <v>0.261248</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237221</v>
+        <v>0.234327</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273646</v>
+        <v>0.269219</v>
       </c>
       <c r="C20" t="n">
-        <v>0.278888</v>
+        <v>0.27637</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241148</v>
+        <v>0.238281</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.295008</v>
+        <v>0.290009</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298449</v>
+        <v>0.295949</v>
       </c>
       <c r="D21" t="n">
-        <v>0.248756</v>
+        <v>0.245798</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.330656</v>
+        <v>0.324623</v>
       </c>
       <c r="C22" t="n">
-        <v>0.32609</v>
+        <v>0.323599</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261758</v>
+        <v>0.258958</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.371838</v>
+        <v>0.365919</v>
       </c>
       <c r="C23" t="n">
-        <v>0.381347</v>
+        <v>0.378872</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227445</v>
+        <v>0.224793</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236617</v>
+        <v>0.23308</v>
       </c>
       <c r="C24" t="n">
-        <v>0.228515</v>
+        <v>0.226086</v>
       </c>
       <c r="D24" t="n">
-        <v>0.228408</v>
+        <v>0.225694</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236811</v>
+        <v>0.233189</v>
       </c>
       <c r="C25" t="n">
-        <v>0.228998</v>
+        <v>0.226483</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228158</v>
+        <v>0.225346</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.237922</v>
+        <v>0.234231</v>
       </c>
       <c r="C26" t="n">
-        <v>0.23023</v>
+        <v>0.227762</v>
       </c>
       <c r="D26" t="n">
-        <v>0.228547</v>
+        <v>0.225759</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.239235</v>
+        <v>0.235723</v>
       </c>
       <c r="C27" t="n">
-        <v>0.231756</v>
+        <v>0.22931</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22889</v>
+        <v>0.226101</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.241465</v>
+        <v>0.23771</v>
       </c>
       <c r="C28" t="n">
-        <v>0.234296</v>
+        <v>0.23182</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230262</v>
+        <v>0.227487</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.242842</v>
+        <v>0.239106</v>
       </c>
       <c r="C29" t="n">
-        <v>0.237036</v>
+        <v>0.234587</v>
       </c>
       <c r="D29" t="n">
-        <v>0.23069</v>
+        <v>0.227789</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.245272</v>
+        <v>0.241516</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240232</v>
+        <v>0.2377</v>
       </c>
       <c r="D30" t="n">
-        <v>0.231894</v>
+        <v>0.228865</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.248721</v>
+        <v>0.24487</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244482</v>
+        <v>0.241955</v>
       </c>
       <c r="D31" t="n">
-        <v>0.232955</v>
+        <v>0.229951</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.254496</v>
+        <v>0.250575</v>
       </c>
       <c r="C32" t="n">
-        <v>0.251081</v>
+        <v>0.248567</v>
       </c>
       <c r="D32" t="n">
-        <v>0.23525</v>
+        <v>0.232352</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.262133</v>
+        <v>0.258098</v>
       </c>
       <c r="C33" t="n">
-        <v>0.261105</v>
+        <v>0.258575</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238437</v>
+        <v>0.235481</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.272192</v>
+        <v>0.267953</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273007</v>
+        <v>0.270345</v>
       </c>
       <c r="D34" t="n">
-        <v>0.242217</v>
+        <v>0.239178</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.288389</v>
+        <v>0.28386</v>
       </c>
       <c r="C35" t="n">
-        <v>0.290026</v>
+        <v>0.287507</v>
       </c>
       <c r="D35" t="n">
-        <v>0.247679</v>
+        <v>0.244651</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.313653</v>
+        <v>0.308218</v>
       </c>
       <c r="C36" t="n">
-        <v>0.318447</v>
+        <v>0.315867</v>
       </c>
       <c r="D36" t="n">
-        <v>0.258474</v>
+        <v>0.255459</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.356044</v>
+        <v>0.349272</v>
       </c>
       <c r="C37" t="n">
-        <v>0.364</v>
+        <v>0.361035</v>
       </c>
       <c r="D37" t="n">
-        <v>0.229805</v>
+        <v>0.22699</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.237906</v>
+        <v>0.234064</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230075</v>
+        <v>0.22751</v>
       </c>
       <c r="D38" t="n">
-        <v>0.229756</v>
+        <v>0.226786</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239376</v>
+        <v>0.235535</v>
       </c>
       <c r="C39" t="n">
-        <v>0.231806</v>
+        <v>0.229225</v>
       </c>
       <c r="D39" t="n">
-        <v>0.230815</v>
+        <v>0.227748</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.239996</v>
+        <v>0.236102</v>
       </c>
       <c r="C40" t="n">
-        <v>0.23259</v>
+        <v>0.230056</v>
       </c>
       <c r="D40" t="n">
-        <v>0.230809</v>
+        <v>0.227825</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.241132</v>
+        <v>0.237302</v>
       </c>
       <c r="C41" t="n">
-        <v>0.233851</v>
+        <v>0.231403</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231342</v>
+        <v>0.228297</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.243011</v>
+        <v>0.239103</v>
       </c>
       <c r="C42" t="n">
-        <v>0.235605</v>
+        <v>0.233182</v>
       </c>
       <c r="D42" t="n">
-        <v>0.232116</v>
+        <v>0.229139</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.245055</v>
+        <v>0.241144</v>
       </c>
       <c r="C43" t="n">
-        <v>0.237964</v>
+        <v>0.235505</v>
       </c>
       <c r="D43" t="n">
-        <v>0.23283</v>
+        <v>0.229836</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.247831</v>
+        <v>0.243943</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241519</v>
+        <v>0.239004</v>
       </c>
       <c r="D44" t="n">
-        <v>0.23403</v>
+        <v>0.231054</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.251333</v>
+        <v>0.247382</v>
       </c>
       <c r="C45" t="n">
-        <v>0.245824</v>
+        <v>0.243345</v>
       </c>
       <c r="D45" t="n">
-        <v>0.235398</v>
+        <v>0.232424</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.256416</v>
+        <v>0.252391</v>
       </c>
       <c r="C46" t="n">
-        <v>0.251861</v>
+        <v>0.249542</v>
       </c>
       <c r="D46" t="n">
-        <v>0.237461</v>
+        <v>0.234539</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.263176</v>
+        <v>0.259073</v>
       </c>
       <c r="C47" t="n">
-        <v>0.259972</v>
+        <v>0.257684</v>
       </c>
       <c r="D47" t="n">
-        <v>0.239864</v>
+        <v>0.236934</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.273493</v>
+        <v>0.269226</v>
       </c>
       <c r="C48" t="n">
-        <v>0.271844</v>
+        <v>0.269465</v>
       </c>
       <c r="D48" t="n">
-        <v>0.243713</v>
+        <v>0.240782</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.288728</v>
+        <v>0.284105</v>
       </c>
       <c r="C49" t="n">
-        <v>0.288418</v>
+        <v>0.2861</v>
       </c>
       <c r="D49" t="n">
-        <v>0.249314</v>
+        <v>0.246256</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.313036</v>
+        <v>0.307569</v>
       </c>
       <c r="C50" t="n">
-        <v>0.316628</v>
+        <v>0.313953</v>
       </c>
       <c r="D50" t="n">
-        <v>0.259562</v>
+        <v>0.25664</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.350139</v>
+        <v>0.343542</v>
       </c>
       <c r="C51" t="n">
-        <v>0.355171</v>
+        <v>0.351867</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232323</v>
+        <v>0.229465</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4056</v>
+        <v>0.398756</v>
       </c>
       <c r="C52" t="n">
-        <v>0.419881</v>
+        <v>0.415623</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232951</v>
+        <v>0.230006</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.243227</v>
+        <v>0.238864</v>
       </c>
       <c r="C53" t="n">
-        <v>0.235431</v>
+        <v>0.2324</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2334</v>
+        <v>0.230398</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.244729</v>
+        <v>0.239639</v>
       </c>
       <c r="C54" t="n">
-        <v>0.236637</v>
+        <v>0.23372</v>
       </c>
       <c r="D54" t="n">
-        <v>0.233875</v>
+        <v>0.230851</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.245882</v>
+        <v>0.240761</v>
       </c>
       <c r="C55" t="n">
-        <v>0.238184</v>
+        <v>0.235189</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234488</v>
+        <v>0.231494</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.247287</v>
+        <v>0.242134</v>
       </c>
       <c r="C56" t="n">
-        <v>0.239992</v>
+        <v>0.236998</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23528</v>
+        <v>0.232224</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.248963</v>
+        <v>0.243839</v>
       </c>
       <c r="C57" t="n">
-        <v>0.242438</v>
+        <v>0.239544</v>
       </c>
       <c r="D57" t="n">
-        <v>0.236146</v>
+        <v>0.233098</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.25141</v>
+        <v>0.246202</v>
       </c>
       <c r="C58" t="n">
-        <v>0.245964</v>
+        <v>0.243074</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237194</v>
+        <v>0.23424</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.254679</v>
+        <v>0.24972</v>
       </c>
       <c r="C59" t="n">
-        <v>0.250495</v>
+        <v>0.247549</v>
       </c>
       <c r="D59" t="n">
-        <v>0.238475</v>
+        <v>0.235554</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.259551</v>
+        <v>0.254391</v>
       </c>
       <c r="C60" t="n">
-        <v>0.256061</v>
+        <v>0.253193</v>
       </c>
       <c r="D60" t="n">
-        <v>0.240557</v>
+        <v>0.23756</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.266367</v>
+        <v>0.261118</v>
       </c>
       <c r="C61" t="n">
-        <v>0.263641</v>
+        <v>0.260687</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242801</v>
+        <v>0.239765</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275147</v>
+        <v>0.269802</v>
       </c>
       <c r="C62" t="n">
-        <v>0.274261</v>
+        <v>0.271436</v>
       </c>
       <c r="D62" t="n">
-        <v>0.246304</v>
+        <v>0.24331</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.288764</v>
+        <v>0.28319</v>
       </c>
       <c r="C63" t="n">
-        <v>0.290263</v>
+        <v>0.287252</v>
       </c>
       <c r="D63" t="n">
-        <v>0.252329</v>
+        <v>0.249178</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.310132</v>
+        <v>0.303855</v>
       </c>
       <c r="C64" t="n">
-        <v>0.314356</v>
+        <v>0.310983</v>
       </c>
       <c r="D64" t="n">
-        <v>0.261645</v>
+        <v>0.258401</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.343851</v>
+        <v>0.33625</v>
       </c>
       <c r="C65" t="n">
-        <v>0.351682</v>
+        <v>0.347756</v>
       </c>
       <c r="D65" t="n">
-        <v>0.278227</v>
+        <v>0.274743</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.395183</v>
+        <v>0.385752</v>
       </c>
       <c r="C66" t="n">
-        <v>0.410194</v>
+        <v>0.405207</v>
       </c>
       <c r="D66" t="n">
-        <v>0.249498</v>
+        <v>0.244377</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.256008</v>
+        <v>0.255023</v>
       </c>
       <c r="C67" t="n">
-        <v>0.252114</v>
+        <v>0.247372</v>
       </c>
       <c r="D67" t="n">
-        <v>0.25057</v>
+        <v>0.245198</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.258559</v>
+        <v>0.255142</v>
       </c>
       <c r="C68" t="n">
-        <v>0.253172</v>
+        <v>0.248556</v>
       </c>
       <c r="D68" t="n">
-        <v>0.250903</v>
+        <v>0.245609</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.259846</v>
+        <v>0.256418</v>
       </c>
       <c r="C69" t="n">
-        <v>0.254722</v>
+        <v>0.25032</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251543</v>
+        <v>0.246328</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.261304</v>
+        <v>0.257774</v>
       </c>
       <c r="C70" t="n">
-        <v>0.256472</v>
+        <v>0.252213</v>
       </c>
       <c r="D70" t="n">
-        <v>0.252115</v>
+        <v>0.2471</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.263023</v>
+        <v>0.259544</v>
       </c>
       <c r="C71" t="n">
-        <v>0.258894</v>
+        <v>0.254676</v>
       </c>
       <c r="D71" t="n">
-        <v>0.252929</v>
+        <v>0.247817</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.265529</v>
+        <v>0.262066</v>
       </c>
       <c r="C72" t="n">
-        <v>0.261885</v>
+        <v>0.257851</v>
       </c>
       <c r="D72" t="n">
-        <v>0.254003</v>
+        <v>0.248962</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.268672</v>
+        <v>0.265067</v>
       </c>
       <c r="C73" t="n">
-        <v>0.26596</v>
+        <v>0.261951</v>
       </c>
       <c r="D73" t="n">
-        <v>0.255369</v>
+        <v>0.250398</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.272783</v>
+        <v>0.269144</v>
       </c>
       <c r="C74" t="n">
-        <v>0.27157</v>
+        <v>0.26769</v>
       </c>
       <c r="D74" t="n">
-        <v>0.257201</v>
+        <v>0.252239</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278924</v>
+        <v>0.275082</v>
       </c>
       <c r="C75" t="n">
-        <v>0.279528</v>
+        <v>0.275711</v>
       </c>
       <c r="D75" t="n">
-        <v>0.259731</v>
+        <v>0.254884</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287696</v>
+        <v>0.283571</v>
       </c>
       <c r="C76" t="n">
-        <v>0.290085</v>
+        <v>0.286341</v>
       </c>
       <c r="D76" t="n">
-        <v>0.263355</v>
+        <v>0.258475</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.300607</v>
+        <v>0.296102</v>
       </c>
       <c r="C77" t="n">
-        <v>0.305124</v>
+        <v>0.301347</v>
       </c>
       <c r="D77" t="n">
-        <v>0.268693</v>
+        <v>0.263706</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.320685</v>
+        <v>0.315355</v>
       </c>
       <c r="C78" t="n">
-        <v>0.32724</v>
+        <v>0.323317</v>
       </c>
       <c r="D78" t="n">
-        <v>0.277292</v>
+        <v>0.272315</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.350522</v>
+        <v>0.343788</v>
       </c>
       <c r="C79" t="n">
-        <v>0.36238</v>
+        <v>0.357804</v>
       </c>
       <c r="D79" t="n">
-        <v>0.292209</v>
+        <v>0.286793</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.397563</v>
+        <v>0.388628</v>
       </c>
       <c r="C80" t="n">
-        <v>0.41588</v>
+        <v>0.410493</v>
       </c>
       <c r="D80" t="n">
-        <v>0.265748</v>
+        <v>0.263208</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.277068</v>
+        <v>0.274025</v>
       </c>
       <c r="C81" t="n">
-        <v>0.266068</v>
+        <v>0.263752</v>
       </c>
       <c r="D81" t="n">
-        <v>0.266166</v>
+        <v>0.263606</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.277828</v>
+        <v>0.274727</v>
       </c>
       <c r="C82" t="n">
-        <v>0.267136</v>
+        <v>0.26482</v>
       </c>
       <c r="D82" t="n">
-        <v>0.266554</v>
+        <v>0.263949</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.278743</v>
+        <v>0.27567</v>
       </c>
       <c r="C83" t="n">
-        <v>0.268457</v>
+        <v>0.266108</v>
       </c>
       <c r="D83" t="n">
-        <v>0.267088</v>
+        <v>0.264532</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.28003</v>
+        <v>0.276928</v>
       </c>
       <c r="C84" t="n">
-        <v>0.270166</v>
+        <v>0.267897</v>
       </c>
       <c r="D84" t="n">
-        <v>0.267727</v>
+        <v>0.265179</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.28161</v>
+        <v>0.278514</v>
       </c>
       <c r="C85" t="n">
-        <v>0.272173</v>
+        <v>0.269961</v>
       </c>
       <c r="D85" t="n">
-        <v>0.268429</v>
+        <v>0.265853</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.283577</v>
+        <v>0.2805</v>
       </c>
       <c r="C86" t="n">
-        <v>0.274824</v>
+        <v>0.272595</v>
       </c>
       <c r="D86" t="n">
-        <v>0.269392</v>
+        <v>0.266785</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.286259</v>
+        <v>0.283086</v>
       </c>
       <c r="C87" t="n">
-        <v>0.27839</v>
+        <v>0.276232</v>
       </c>
       <c r="D87" t="n">
-        <v>0.270507</v>
+        <v>0.268026</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.290052</v>
+        <v>0.286853</v>
       </c>
       <c r="C88" t="n">
-        <v>0.283472</v>
+        <v>0.281315</v>
       </c>
       <c r="D88" t="n">
-        <v>0.27208</v>
+        <v>0.269603</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.295549</v>
+        <v>0.292129</v>
       </c>
       <c r="C89" t="n">
-        <v>0.290686</v>
+        <v>0.28854</v>
       </c>
       <c r="D89" t="n">
-        <v>0.274563</v>
+        <v>0.271936</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.303567</v>
+        <v>0.300124</v>
       </c>
       <c r="C90" t="n">
-        <v>0.300442</v>
+        <v>0.298272</v>
       </c>
       <c r="D90" t="n">
-        <v>0.277778</v>
+        <v>0.275208</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.315257</v>
+        <v>0.311389</v>
       </c>
       <c r="C91" t="n">
-        <v>0.314226</v>
+        <v>0.311946</v>
       </c>
       <c r="D91" t="n">
-        <v>0.282539</v>
+        <v>0.279985</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.332807</v>
+        <v>0.328306</v>
       </c>
       <c r="C92" t="n">
-        <v>0.333769</v>
+        <v>0.33155</v>
       </c>
       <c r="D92" t="n">
-        <v>0.289997</v>
+        <v>0.287423</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.36017</v>
+        <v>0.354273</v>
       </c>
       <c r="C93" t="n">
-        <v>0.365242</v>
+        <v>0.362265</v>
       </c>
       <c r="D93" t="n">
-        <v>0.30285</v>
+        <v>0.299778</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.403605</v>
+        <v>0.395113</v>
       </c>
       <c r="C94" t="n">
-        <v>0.415858</v>
+        <v>0.411476</v>
       </c>
       <c r="D94" t="n">
-        <v>0.275628</v>
+        <v>0.273172</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.287022</v>
+        <v>0.284696</v>
       </c>
       <c r="C95" t="n">
-        <v>0.276115</v>
+        <v>0.274003</v>
       </c>
       <c r="D95" t="n">
-        <v>0.276082</v>
+        <v>0.273561</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.288084</v>
+        <v>0.285804</v>
       </c>
       <c r="C96" t="n">
-        <v>0.277433</v>
+        <v>0.275279</v>
       </c>
       <c r="D96" t="n">
-        <v>0.276562</v>
+        <v>0.274108</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.289317</v>
+        <v>0.287052</v>
       </c>
       <c r="C97" t="n">
-        <v>0.278787</v>
+        <v>0.276869</v>
       </c>
       <c r="D97" t="n">
-        <v>0.277217</v>
+        <v>0.274763</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.290759</v>
+        <v>0.288432</v>
       </c>
       <c r="C98" t="n">
-        <v>0.280697</v>
+        <v>0.278844</v>
       </c>
       <c r="D98" t="n">
-        <v>0.277864</v>
+        <v>0.275399</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.292595</v>
+        <v>0.290232</v>
       </c>
       <c r="C99" t="n">
-        <v>0.282871</v>
+        <v>0.281413</v>
       </c>
       <c r="D99" t="n">
-        <v>0.278614</v>
+        <v>0.276217</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.294734</v>
+        <v>0.292519</v>
       </c>
       <c r="C100" t="n">
-        <v>0.285933</v>
+        <v>0.284668</v>
       </c>
       <c r="D100" t="n">
-        <v>0.279721</v>
+        <v>0.27722</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.297691</v>
+        <v>0.295639</v>
       </c>
       <c r="C101" t="n">
-        <v>0.289913</v>
+        <v>0.289096</v>
       </c>
       <c r="D101" t="n">
-        <v>0.28094</v>
+        <v>0.278475</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301831</v>
+        <v>0.299898</v>
       </c>
       <c r="C102" t="n">
-        <v>0.295419</v>
+        <v>0.295047</v>
       </c>
       <c r="D102" t="n">
-        <v>0.282543</v>
+        <v>0.280136</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.307732</v>
+        <v>0.30593</v>
       </c>
       <c r="C103" t="n">
-        <v>0.30299</v>
+        <v>0.303254</v>
       </c>
       <c r="D103" t="n">
-        <v>0.284962</v>
+        <v>0.282533</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.315895</v>
+        <v>0.314385</v>
       </c>
       <c r="C104" t="n">
-        <v>0.313548</v>
+        <v>0.314252</v>
       </c>
       <c r="D104" t="n">
-        <v>0.288229</v>
+        <v>0.285931</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.327937</v>
+        <v>0.326382</v>
       </c>
       <c r="C105" t="n">
-        <v>0.328136</v>
+        <v>0.329311</v>
       </c>
       <c r="D105" t="n">
-        <v>0.293025</v>
+        <v>0.29082</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.346327</v>
+        <v>0.344249</v>
       </c>
       <c r="C106" t="n">
-        <v>0.348828</v>
+        <v>0.350084</v>
       </c>
       <c r="D106" t="n">
-        <v>0.300284</v>
+        <v>0.298314</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.374506</v>
+        <v>0.371181</v>
       </c>
       <c r="C107" t="n">
-        <v>0.380174</v>
+        <v>0.381179</v>
       </c>
       <c r="D107" t="n">
-        <v>0.31265</v>
+        <v>0.310837</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.418302</v>
+        <v>0.412472</v>
       </c>
       <c r="C108" t="n">
-        <v>0.429518</v>
+        <v>0.428496</v>
       </c>
       <c r="D108" t="n">
-        <v>0.281313</v>
+        <v>0.278884</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.487408</v>
+        <v>0.474567</v>
       </c>
       <c r="C109" t="n">
-        <v>0.507499</v>
+        <v>0.500427</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2822</v>
+        <v>0.279579</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.307821</v>
+        <v>0.303571</v>
       </c>
       <c r="C110" t="n">
-        <v>0.298114</v>
+        <v>0.295397</v>
       </c>
       <c r="D110" t="n">
-        <v>0.283072</v>
+        <v>0.280548</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.311819</v>
+        <v>0.30846</v>
       </c>
       <c r="C111" t="n">
-        <v>0.303392</v>
+        <v>0.300726</v>
       </c>
       <c r="D111" t="n">
-        <v>0.284113</v>
+        <v>0.281604</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.317975</v>
+        <v>0.313753</v>
       </c>
       <c r="C112" t="n">
-        <v>0.309505</v>
+        <v>0.306708</v>
       </c>
       <c r="D112" t="n">
-        <v>0.28572</v>
+        <v>0.283331</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.324267</v>
+        <v>0.319702</v>
       </c>
       <c r="C113" t="n">
-        <v>0.317116</v>
+        <v>0.313996</v>
       </c>
       <c r="D113" t="n">
-        <v>0.287755</v>
+        <v>0.285127</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.331762</v>
+        <v>0.325862</v>
       </c>
       <c r="C114" t="n">
-        <v>0.325286</v>
+        <v>0.321153</v>
       </c>
       <c r="D114" t="n">
-        <v>0.290304</v>
+        <v>0.288026</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.339774</v>
+        <v>0.333363</v>
       </c>
       <c r="C115" t="n">
-        <v>0.33397</v>
+        <v>0.329054</v>
       </c>
       <c r="D115" t="n">
-        <v>0.293511</v>
+        <v>0.29085</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.348806</v>
+        <v>0.341184</v>
       </c>
       <c r="C116" t="n">
-        <v>0.34398</v>
+        <v>0.338665</v>
       </c>
       <c r="D116" t="n">
-        <v>0.297283</v>
+        <v>0.295339</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.358653</v>
+        <v>0.350817</v>
       </c>
       <c r="C117" t="n">
-        <v>0.355919</v>
+        <v>0.349286</v>
       </c>
       <c r="D117" t="n">
-        <v>0.303047</v>
+        <v>0.300543</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.371291</v>
+        <v>0.362587</v>
       </c>
       <c r="C118" t="n">
-        <v>0.369838</v>
+        <v>0.362442</v>
       </c>
       <c r="D118" t="n">
-        <v>0.309376</v>
+        <v>0.307156</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.38714</v>
+        <v>0.378122</v>
       </c>
       <c r="C119" t="n">
-        <v>0.387626</v>
+        <v>0.379152</v>
       </c>
       <c r="D119" t="n">
-        <v>0.318395</v>
+        <v>0.315583</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.408681</v>
+        <v>0.398106</v>
       </c>
       <c r="C120" t="n">
-        <v>0.411096</v>
+        <v>0.401737</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329586</v>
+        <v>0.326621</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.439184</v>
+        <v>0.42628</v>
       </c>
       <c r="C121" t="n">
-        <v>0.44408</v>
+        <v>0.432942</v>
       </c>
       <c r="D121" t="n">
-        <v>0.346271</v>
+        <v>0.342014</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.485027</v>
+        <v>0.468795</v>
       </c>
       <c r="C122" t="n">
-        <v>0.49439</v>
+        <v>0.481544</v>
       </c>
       <c r="D122" t="n">
-        <v>0.371281</v>
+        <v>0.365859</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.554342</v>
+        <v>0.533115</v>
       </c>
       <c r="C123" t="n">
-        <v>0.575906</v>
+        <v>0.558489</v>
       </c>
       <c r="D123" t="n">
-        <v>0.314821</v>
+        <v>0.309007</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.365038</v>
+        <v>0.354553</v>
       </c>
       <c r="C124" t="n">
-        <v>0.352211</v>
+        <v>0.342942</v>
       </c>
       <c r="D124" t="n">
-        <v>0.315966</v>
+        <v>0.311062</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.36731</v>
+        <v>0.3597</v>
       </c>
       <c r="C125" t="n">
-        <v>0.359576</v>
+        <v>0.350945</v>
       </c>
       <c r="D125" t="n">
-        <v>0.321061</v>
+        <v>0.317202</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.375072</v>
+        <v>0.361328</v>
       </c>
       <c r="C126" t="n">
-        <v>0.36255</v>
+        <v>0.352675</v>
       </c>
       <c r="D126" t="n">
-        <v>0.323509</v>
+        <v>0.317974</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.375817</v>
+        <v>0.36769</v>
       </c>
       <c r="C127" t="n">
-        <v>0.37066</v>
+        <v>0.359201</v>
       </c>
       <c r="D127" t="n">
-        <v>0.329526</v>
+        <v>0.321887</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.385727</v>
+        <v>0.374176</v>
       </c>
       <c r="C128" t="n">
-        <v>0.375579</v>
+        <v>0.364271</v>
       </c>
       <c r="D128" t="n">
-        <v>0.332013</v>
+        <v>0.324929</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.390045</v>
+        <v>0.376803</v>
       </c>
       <c r="C129" t="n">
-        <v>0.383754</v>
+        <v>0.372187</v>
       </c>
       <c r="D129" t="n">
-        <v>0.335823</v>
+        <v>0.328793</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.397433</v>
+        <v>0.38838</v>
       </c>
       <c r="C130" t="n">
-        <v>0.391296</v>
+        <v>0.379321</v>
       </c>
       <c r="D130" t="n">
-        <v>0.339665</v>
+        <v>0.332457</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.405935</v>
+        <v>0.39684</v>
       </c>
       <c r="C131" t="n">
-        <v>0.40204</v>
+        <v>0.390998</v>
       </c>
       <c r="D131" t="n">
-        <v>0.344421</v>
+        <v>0.337465</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.417767</v>
+        <v>0.404594</v>
       </c>
       <c r="C132" t="n">
-        <v>0.416821</v>
+        <v>0.405985</v>
       </c>
       <c r="D132" t="n">
-        <v>0.350963</v>
+        <v>0.344094</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.432839</v>
+        <v>0.420976</v>
       </c>
       <c r="C133" t="n">
-        <v>0.435417</v>
+        <v>0.426277</v>
       </c>
       <c r="D133" t="n">
-        <v>0.358124</v>
+        <v>0.353743</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.455599</v>
+        <v>0.44263</v>
       </c>
       <c r="C134" t="n">
-        <v>0.459707</v>
+        <v>0.445129</v>
       </c>
       <c r="D134" t="n">
-        <v>0.368591</v>
+        <v>0.358864</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.490048</v>
+        <v>0.471958</v>
       </c>
       <c r="C135" t="n">
-        <v>0.495108</v>
+        <v>0.483261</v>
       </c>
       <c r="D135" t="n">
-        <v>0.383307</v>
+        <v>0.377645</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.529116</v>
+        <v>0.511168</v>
       </c>
       <c r="C136" t="n">
-        <v>0.544789</v>
+        <v>0.529165</v>
       </c>
       <c r="D136" t="n">
-        <v>0.404668</v>
+        <v>0.396405</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.598638</v>
+        <v>0.5757370000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.627938</v>
+        <v>0.603129</v>
       </c>
       <c r="D137" t="n">
-        <v>0.482889</v>
+        <v>0.456172</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5518380000000001</v>
+        <v>0.519919</v>
       </c>
       <c r="C138" t="n">
-        <v>0.524643</v>
+        <v>0.497003</v>
       </c>
       <c r="D138" t="n">
-        <v>0.476554</v>
+        <v>0.454787</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.55281</v>
+        <v>0.5249740000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.532119</v>
+        <v>0.498945</v>
       </c>
       <c r="D139" t="n">
-        <v>0.48309</v>
+        <v>0.45264</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.560167</v>
+        <v>0.527103</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5388269999999999</v>
+        <v>0.505295</v>
       </c>
       <c r="D140" t="n">
-        <v>0.48585</v>
+        <v>0.457744</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5740730000000001</v>
+        <v>0.530776</v>
       </c>
       <c r="C141" t="n">
-        <v>0.548418</v>
+        <v>0.51759</v>
       </c>
       <c r="D141" t="n">
-        <v>0.492768</v>
+        <v>0.468694</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.572361</v>
+        <v>0.5340859999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>0.552339</v>
+        <v>0.524779</v>
       </c>
       <c r="D142" t="n">
-        <v>0.490357</v>
+        <v>0.472126</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.589273</v>
+        <v>0.54262</v>
       </c>
       <c r="C143" t="n">
-        <v>0.565628</v>
+        <v>0.531291</v>
       </c>
       <c r="D143" t="n">
-        <v>0.501234</v>
+        <v>0.472692</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.232846</v>
+        <v>0.103447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.235674</v>
+        <v>0.0985949</v>
       </c>
       <c r="D2" t="n">
-        <v>0.222116</v>
+        <v>0.09272270000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.237304</v>
+        <v>0.107448</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238277</v>
+        <v>0.104783</v>
       </c>
       <c r="D3" t="n">
-        <v>0.222821</v>
+        <v>0.0942732</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.245486</v>
+        <v>0.1165</v>
       </c>
       <c r="C4" t="n">
-        <v>0.249929</v>
+        <v>0.116989</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227624</v>
+        <v>0.0990554</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.258202</v>
+        <v>0.126301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.264414</v>
+        <v>0.134551</v>
       </c>
       <c r="D5" t="n">
-        <v>0.232327</v>
+        <v>0.105744</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.274558</v>
+        <v>0.139491</v>
       </c>
       <c r="C6" t="n">
-        <v>0.28256</v>
+        <v>0.151993</v>
       </c>
       <c r="D6" t="n">
-        <v>0.238478</v>
+        <v>0.110206</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.295759</v>
+        <v>0.161018</v>
       </c>
       <c r="C7" t="n">
-        <v>0.312506</v>
+        <v>0.174233</v>
       </c>
       <c r="D7" t="n">
-        <v>0.250888</v>
+        <v>0.119053</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.330767</v>
+        <v>0.192608</v>
       </c>
       <c r="C8" t="n">
-        <v>0.347106</v>
+        <v>0.212715</v>
       </c>
       <c r="D8" t="n">
-        <v>0.267439</v>
+        <v>0.136033</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.383943</v>
+        <v>0.236332</v>
       </c>
       <c r="C9" t="n">
-        <v>0.403286</v>
+        <v>0.256873</v>
       </c>
       <c r="D9" t="n">
-        <v>0.221516</v>
+        <v>0.09822309999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229079</v>
+        <v>0.101792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.223821</v>
+        <v>0.09695869999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.221656</v>
+        <v>0.0987705</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.229456</v>
+        <v>0.102734</v>
       </c>
       <c r="C11" t="n">
-        <v>0.224187</v>
+        <v>0.09789970000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22149</v>
+        <v>0.0990649</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.231872</v>
+        <v>0.105197</v>
       </c>
       <c r="C12" t="n">
-        <v>0.226752</v>
+        <v>0.100269</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223469</v>
+        <v>0.100707</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.231725</v>
+        <v>0.106365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.227282</v>
+        <v>0.101553</v>
       </c>
       <c r="D13" t="n">
-        <v>0.222895</v>
+        <v>0.100976</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.234691</v>
+        <v>0.108804</v>
       </c>
       <c r="C14" t="n">
-        <v>0.231849</v>
+        <v>0.10509</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224797</v>
+        <v>0.102585</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.236832</v>
+        <v>0.110942</v>
       </c>
       <c r="C15" t="n">
-        <v>0.234874</v>
+        <v>0.108783</v>
       </c>
       <c r="D15" t="n">
-        <v>0.22609</v>
+        <v>0.103838</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.239978</v>
+        <v>0.113848</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239419</v>
+        <v>0.112723</v>
       </c>
       <c r="D16" t="n">
-        <v>0.227337</v>
+        <v>0.104894</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.243379</v>
+        <v>0.117787</v>
       </c>
       <c r="C17" t="n">
-        <v>0.244725</v>
+        <v>0.118963</v>
       </c>
       <c r="D17" t="n">
-        <v>0.228681</v>
+        <v>0.106582</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.248636</v>
+        <v>0.123116</v>
       </c>
       <c r="C18" t="n">
-        <v>0.250729</v>
+        <v>0.125924</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230164</v>
+        <v>0.108728</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.258105</v>
+        <v>0.132924</v>
       </c>
       <c r="C19" t="n">
-        <v>0.261248</v>
+        <v>0.136606</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234327</v>
+        <v>0.113026</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269219</v>
+        <v>0.143709</v>
       </c>
       <c r="C20" t="n">
-        <v>0.27637</v>
+        <v>0.150735</v>
       </c>
       <c r="D20" t="n">
-        <v>0.238281</v>
+        <v>0.117022</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.290009</v>
+        <v>0.160905</v>
       </c>
       <c r="C21" t="n">
-        <v>0.295949</v>
+        <v>0.173691</v>
       </c>
       <c r="D21" t="n">
-        <v>0.245798</v>
+        <v>0.12502</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.324623</v>
+        <v>0.185286</v>
       </c>
       <c r="C22" t="n">
-        <v>0.323599</v>
+        <v>0.206836</v>
       </c>
       <c r="D22" t="n">
-        <v>0.258958</v>
+        <v>0.138528</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.365919</v>
+        <v>0.22806</v>
       </c>
       <c r="C23" t="n">
-        <v>0.378872</v>
+        <v>0.252992</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224793</v>
+        <v>0.10392</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.23308</v>
+        <v>0.108397</v>
       </c>
       <c r="C24" t="n">
-        <v>0.226086</v>
+        <v>0.103607</v>
       </c>
       <c r="D24" t="n">
-        <v>0.225694</v>
+        <v>0.104674</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.233189</v>
+        <v>0.109053</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226483</v>
+        <v>0.104254</v>
       </c>
       <c r="D25" t="n">
-        <v>0.225346</v>
+        <v>0.104689</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.234231</v>
+        <v>0.109997</v>
       </c>
       <c r="C26" t="n">
-        <v>0.227762</v>
+        <v>0.105284</v>
       </c>
       <c r="D26" t="n">
-        <v>0.225759</v>
+        <v>0.105086</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.235723</v>
+        <v>0.111049</v>
       </c>
       <c r="C27" t="n">
-        <v>0.22931</v>
+        <v>0.106791</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226101</v>
+        <v>0.105533</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.23771</v>
+        <v>0.112598</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23182</v>
+        <v>0.109117</v>
       </c>
       <c r="D28" t="n">
-        <v>0.227487</v>
+        <v>0.106557</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.239106</v>
+        <v>0.114108</v>
       </c>
       <c r="C29" t="n">
-        <v>0.234587</v>
+        <v>0.112038</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227789</v>
+        <v>0.107116</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.241516</v>
+        <v>0.116521</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2377</v>
+        <v>0.115587</v>
       </c>
       <c r="D30" t="n">
-        <v>0.228865</v>
+        <v>0.108102</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.24487</v>
+        <v>0.119686</v>
       </c>
       <c r="C31" t="n">
-        <v>0.241955</v>
+        <v>0.120482</v>
       </c>
       <c r="D31" t="n">
-        <v>0.229951</v>
+        <v>0.109482</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.250575</v>
+        <v>0.124901</v>
       </c>
       <c r="C32" t="n">
-        <v>0.248567</v>
+        <v>0.126684</v>
       </c>
       <c r="D32" t="n">
-        <v>0.232352</v>
+        <v>0.111484</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.258098</v>
+        <v>0.131522</v>
       </c>
       <c r="C33" t="n">
-        <v>0.258575</v>
+        <v>0.135427</v>
       </c>
       <c r="D33" t="n">
-        <v>0.235481</v>
+        <v>0.114115</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.267953</v>
+        <v>0.142399</v>
       </c>
       <c r="C34" t="n">
-        <v>0.270345</v>
+        <v>0.148207</v>
       </c>
       <c r="D34" t="n">
-        <v>0.239178</v>
+        <v>0.117833</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.28386</v>
+        <v>0.156375</v>
       </c>
       <c r="C35" t="n">
-        <v>0.287507</v>
+        <v>0.167458</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244651</v>
+        <v>0.123991</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.308218</v>
+        <v>0.178236</v>
       </c>
       <c r="C36" t="n">
-        <v>0.315867</v>
+        <v>0.196896</v>
       </c>
       <c r="D36" t="n">
-        <v>0.255459</v>
+        <v>0.13462</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.349272</v>
+        <v>0.215022</v>
       </c>
       <c r="C37" t="n">
-        <v>0.361035</v>
+        <v>0.241589</v>
       </c>
       <c r="D37" t="n">
-        <v>0.22699</v>
+        <v>0.105782</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.234064</v>
+        <v>0.109175</v>
       </c>
       <c r="C38" t="n">
-        <v>0.22751</v>
+        <v>0.105109</v>
       </c>
       <c r="D38" t="n">
-        <v>0.226786</v>
+        <v>0.106239</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235535</v>
+        <v>0.110698</v>
       </c>
       <c r="C39" t="n">
-        <v>0.229225</v>
+        <v>0.106016</v>
       </c>
       <c r="D39" t="n">
-        <v>0.227748</v>
+        <v>0.10674</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.236102</v>
+        <v>0.111516</v>
       </c>
       <c r="C40" t="n">
-        <v>0.230056</v>
+        <v>0.107153</v>
       </c>
       <c r="D40" t="n">
-        <v>0.227825</v>
+        <v>0.106959</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.237302</v>
+        <v>0.112556</v>
       </c>
       <c r="C41" t="n">
-        <v>0.231403</v>
+        <v>0.108438</v>
       </c>
       <c r="D41" t="n">
-        <v>0.228297</v>
+        <v>0.10727</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.239103</v>
+        <v>0.113841</v>
       </c>
       <c r="C42" t="n">
-        <v>0.233182</v>
+        <v>0.109993</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229139</v>
+        <v>0.10791</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.241144</v>
+        <v>0.115375</v>
       </c>
       <c r="C43" t="n">
-        <v>0.235505</v>
+        <v>0.112236</v>
       </c>
       <c r="D43" t="n">
-        <v>0.229836</v>
+        <v>0.108597</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.243943</v>
+        <v>0.117537</v>
       </c>
       <c r="C44" t="n">
-        <v>0.239004</v>
+        <v>0.115603</v>
       </c>
       <c r="D44" t="n">
-        <v>0.231054</v>
+        <v>0.109484</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.247382</v>
+        <v>0.120496</v>
       </c>
       <c r="C45" t="n">
-        <v>0.243345</v>
+        <v>0.119503</v>
       </c>
       <c r="D45" t="n">
-        <v>0.232424</v>
+        <v>0.110649</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.252391</v>
+        <v>0.125169</v>
       </c>
       <c r="C46" t="n">
-        <v>0.249542</v>
+        <v>0.126357</v>
       </c>
       <c r="D46" t="n">
-        <v>0.234539</v>
+        <v>0.112474</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.259073</v>
+        <v>0.131857</v>
       </c>
       <c r="C47" t="n">
-        <v>0.257684</v>
+        <v>0.134827</v>
       </c>
       <c r="D47" t="n">
-        <v>0.236934</v>
+        <v>0.114911</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.269226</v>
+        <v>0.140935</v>
       </c>
       <c r="C48" t="n">
-        <v>0.269465</v>
+        <v>0.146562</v>
       </c>
       <c r="D48" t="n">
-        <v>0.240782</v>
+        <v>0.118815</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.284105</v>
+        <v>0.154198</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2861</v>
+        <v>0.16394</v>
       </c>
       <c r="D49" t="n">
-        <v>0.246256</v>
+        <v>0.124552</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.307569</v>
+        <v>0.175865</v>
       </c>
       <c r="C50" t="n">
-        <v>0.313953</v>
+        <v>0.190266</v>
       </c>
       <c r="D50" t="n">
-        <v>0.25664</v>
+        <v>0.13366</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.343542</v>
+        <v>0.208405</v>
       </c>
       <c r="C51" t="n">
-        <v>0.351867</v>
+        <v>0.226441</v>
       </c>
       <c r="D51" t="n">
-        <v>0.229465</v>
+        <v>0.107513</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.398756</v>
+        <v>0.259865</v>
       </c>
       <c r="C52" t="n">
-        <v>0.415623</v>
+        <v>0.282975</v>
       </c>
       <c r="D52" t="n">
-        <v>0.230006</v>
+        <v>0.108065</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.238864</v>
+        <v>0.111425</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2324</v>
+        <v>0.107377</v>
       </c>
       <c r="D53" t="n">
-        <v>0.230398</v>
+        <v>0.108302</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239639</v>
+        <v>0.112491</v>
       </c>
       <c r="C54" t="n">
-        <v>0.23372</v>
+        <v>0.108342</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230851</v>
+        <v>0.108666</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.240761</v>
+        <v>0.113397</v>
       </c>
       <c r="C55" t="n">
-        <v>0.235189</v>
+        <v>0.109494</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231494</v>
+        <v>0.109119</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.242134</v>
+        <v>0.114706</v>
       </c>
       <c r="C56" t="n">
-        <v>0.236998</v>
+        <v>0.11151</v>
       </c>
       <c r="D56" t="n">
-        <v>0.232224</v>
+        <v>0.109656</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.243839</v>
+        <v>0.116344</v>
       </c>
       <c r="C57" t="n">
-        <v>0.239544</v>
+        <v>0.113709</v>
       </c>
       <c r="D57" t="n">
-        <v>0.233098</v>
+        <v>0.110253</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.246202</v>
+        <v>0.118403</v>
       </c>
       <c r="C58" t="n">
-        <v>0.243074</v>
+        <v>0.116457</v>
       </c>
       <c r="D58" t="n">
-        <v>0.23424</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.24972</v>
+        <v>0.121314</v>
       </c>
       <c r="C59" t="n">
-        <v>0.247549</v>
+        <v>0.120524</v>
       </c>
       <c r="D59" t="n">
-        <v>0.235554</v>
+        <v>0.112167</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.254391</v>
+        <v>0.125268</v>
       </c>
       <c r="C60" t="n">
-        <v>0.253193</v>
+        <v>0.126539</v>
       </c>
       <c r="D60" t="n">
-        <v>0.23756</v>
+        <v>0.114041</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.261118</v>
+        <v>0.131188</v>
       </c>
       <c r="C61" t="n">
-        <v>0.260687</v>
+        <v>0.134331</v>
       </c>
       <c r="D61" t="n">
-        <v>0.239765</v>
+        <v>0.116424</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.269802</v>
+        <v>0.139951</v>
       </c>
       <c r="C62" t="n">
-        <v>0.271436</v>
+        <v>0.145556</v>
       </c>
       <c r="D62" t="n">
-        <v>0.24331</v>
+        <v>0.119772</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.28319</v>
+        <v>0.153025</v>
       </c>
       <c r="C63" t="n">
-        <v>0.287252</v>
+        <v>0.161114</v>
       </c>
       <c r="D63" t="n">
-        <v>0.249178</v>
+        <v>0.124784</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.303855</v>
+        <v>0.173482</v>
       </c>
       <c r="C64" t="n">
-        <v>0.310983</v>
+        <v>0.184409</v>
       </c>
       <c r="D64" t="n">
-        <v>0.258401</v>
+        <v>0.133263</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.33625</v>
+        <v>0.203858</v>
       </c>
       <c r="C65" t="n">
-        <v>0.347756</v>
+        <v>0.22199</v>
       </c>
       <c r="D65" t="n">
-        <v>0.274743</v>
+        <v>0.147926</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.385752</v>
+        <v>0.250134</v>
       </c>
       <c r="C66" t="n">
-        <v>0.405207</v>
+        <v>0.273983</v>
       </c>
       <c r="D66" t="n">
-        <v>0.244377</v>
+        <v>0.114475</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.255023</v>
+        <v>0.121017</v>
       </c>
       <c r="C67" t="n">
-        <v>0.247372</v>
+        <v>0.113001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.245198</v>
+        <v>0.114813</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.255142</v>
+        <v>0.121751</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248556</v>
+        <v>0.114015</v>
       </c>
       <c r="D68" t="n">
-        <v>0.245609</v>
+        <v>0.115215</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.256418</v>
+        <v>0.122908</v>
       </c>
       <c r="C69" t="n">
-        <v>0.25032</v>
+        <v>0.115455</v>
       </c>
       <c r="D69" t="n">
-        <v>0.246328</v>
+        <v>0.115719</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.257774</v>
+        <v>0.124015</v>
       </c>
       <c r="C70" t="n">
-        <v>0.252213</v>
+        <v>0.116918</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2471</v>
+        <v>0.116169</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.259544</v>
+        <v>0.125534</v>
       </c>
       <c r="C71" t="n">
-        <v>0.254676</v>
+        <v>0.118884</v>
       </c>
       <c r="D71" t="n">
-        <v>0.247817</v>
+        <v>0.116831</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.262066</v>
+        <v>0.127496</v>
       </c>
       <c r="C72" t="n">
-        <v>0.257851</v>
+        <v>0.121671</v>
       </c>
       <c r="D72" t="n">
-        <v>0.248962</v>
+        <v>0.117682</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.265067</v>
+        <v>0.129936</v>
       </c>
       <c r="C73" t="n">
-        <v>0.261951</v>
+        <v>0.125067</v>
       </c>
       <c r="D73" t="n">
-        <v>0.250398</v>
+        <v>0.118773</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.269144</v>
+        <v>0.133603</v>
       </c>
       <c r="C74" t="n">
-        <v>0.26769</v>
+        <v>0.130134</v>
       </c>
       <c r="D74" t="n">
-        <v>0.252239</v>
+        <v>0.120272</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.275082</v>
+        <v>0.138657</v>
       </c>
       <c r="C75" t="n">
-        <v>0.275711</v>
+        <v>0.136847</v>
       </c>
       <c r="D75" t="n">
-        <v>0.254884</v>
+        <v>0.122293</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.283571</v>
+        <v>0.146343</v>
       </c>
       <c r="C76" t="n">
-        <v>0.286341</v>
+        <v>0.147484</v>
       </c>
       <c r="D76" t="n">
-        <v>0.258475</v>
+        <v>0.12539</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.296102</v>
+        <v>0.15788</v>
       </c>
       <c r="C77" t="n">
-        <v>0.301347</v>
+        <v>0.161868</v>
       </c>
       <c r="D77" t="n">
-        <v>0.263706</v>
+        <v>0.130365</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.315355</v>
+        <v>0.175109</v>
       </c>
       <c r="C78" t="n">
-        <v>0.323317</v>
+        <v>0.183051</v>
       </c>
       <c r="D78" t="n">
-        <v>0.272315</v>
+        <v>0.13794</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.343788</v>
+        <v>0.203173</v>
       </c>
       <c r="C79" t="n">
-        <v>0.357804</v>
+        <v>0.215734</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286793</v>
+        <v>0.150879</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.388628</v>
+        <v>0.248011</v>
       </c>
       <c r="C80" t="n">
-        <v>0.410493</v>
+        <v>0.265485</v>
       </c>
       <c r="D80" t="n">
-        <v>0.263208</v>
+        <v>0.122487</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.274025</v>
+        <v>0.127933</v>
       </c>
       <c r="C81" t="n">
-        <v>0.263752</v>
+        <v>0.119943</v>
       </c>
       <c r="D81" t="n">
-        <v>0.263606</v>
+        <v>0.122804</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.274727</v>
+        <v>0.128565</v>
       </c>
       <c r="C82" t="n">
-        <v>0.26482</v>
+        <v>0.120908</v>
       </c>
       <c r="D82" t="n">
-        <v>0.263949</v>
+        <v>0.123137</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.27567</v>
+        <v>0.129445</v>
       </c>
       <c r="C83" t="n">
-        <v>0.266108</v>
+        <v>0.122046</v>
       </c>
       <c r="D83" t="n">
-        <v>0.264532</v>
+        <v>0.123647</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.276928</v>
+        <v>0.130587</v>
       </c>
       <c r="C84" t="n">
-        <v>0.267897</v>
+        <v>0.123337</v>
       </c>
       <c r="D84" t="n">
-        <v>0.265179</v>
+        <v>0.124123</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.278514</v>
+        <v>0.131954</v>
       </c>
       <c r="C85" t="n">
-        <v>0.269961</v>
+        <v>0.12514</v>
       </c>
       <c r="D85" t="n">
-        <v>0.265853</v>
+        <v>0.124843</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2805</v>
+        <v>0.133688</v>
       </c>
       <c r="C86" t="n">
-        <v>0.272595</v>
+        <v>0.127558</v>
       </c>
       <c r="D86" t="n">
-        <v>0.266785</v>
+        <v>0.125588</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.283086</v>
+        <v>0.136208</v>
       </c>
       <c r="C87" t="n">
-        <v>0.276232</v>
+        <v>0.130929</v>
       </c>
       <c r="D87" t="n">
-        <v>0.268026</v>
+        <v>0.126627</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.286853</v>
+        <v>0.139565</v>
       </c>
       <c r="C88" t="n">
-        <v>0.281315</v>
+        <v>0.135669</v>
       </c>
       <c r="D88" t="n">
-        <v>0.269603</v>
+        <v>0.128007</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.292129</v>
+        <v>0.144306</v>
       </c>
       <c r="C89" t="n">
-        <v>0.28854</v>
+        <v>0.142197</v>
       </c>
       <c r="D89" t="n">
-        <v>0.271936</v>
+        <v>0.129991</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.300124</v>
+        <v>0.151375</v>
       </c>
       <c r="C90" t="n">
-        <v>0.298272</v>
+        <v>0.15137</v>
       </c>
       <c r="D90" t="n">
-        <v>0.275208</v>
+        <v>0.132928</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.311389</v>
+        <v>0.161763</v>
       </c>
       <c r="C91" t="n">
-        <v>0.311946</v>
+        <v>0.164544</v>
       </c>
       <c r="D91" t="n">
-        <v>0.279985</v>
+        <v>0.137299</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.328306</v>
+        <v>0.177352</v>
       </c>
       <c r="C92" t="n">
-        <v>0.33155</v>
+        <v>0.183721</v>
       </c>
       <c r="D92" t="n">
-        <v>0.287423</v>
+        <v>0.144263</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.354273</v>
+        <v>0.201905</v>
       </c>
       <c r="C93" t="n">
-        <v>0.362265</v>
+        <v>0.21416</v>
       </c>
       <c r="D93" t="n">
-        <v>0.299778</v>
+        <v>0.156142</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.395113</v>
+        <v>0.240751</v>
       </c>
       <c r="C94" t="n">
-        <v>0.411476</v>
+        <v>0.259318</v>
       </c>
       <c r="D94" t="n">
-        <v>0.273172</v>
+        <v>0.127095</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.284696</v>
+        <v>0.133184</v>
       </c>
       <c r="C95" t="n">
-        <v>0.274003</v>
+        <v>0.124326</v>
       </c>
       <c r="D95" t="n">
-        <v>0.273561</v>
+        <v>0.127492</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.285804</v>
+        <v>0.134074</v>
       </c>
       <c r="C96" t="n">
-        <v>0.275279</v>
+        <v>0.125392</v>
       </c>
       <c r="D96" t="n">
-        <v>0.274108</v>
+        <v>0.127958</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.287052</v>
+        <v>0.135133</v>
       </c>
       <c r="C97" t="n">
-        <v>0.276869</v>
+        <v>0.12663</v>
       </c>
       <c r="D97" t="n">
-        <v>0.274763</v>
+        <v>0.12842</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.288432</v>
+        <v>0.136401</v>
       </c>
       <c r="C98" t="n">
-        <v>0.278844</v>
+        <v>0.128151</v>
       </c>
       <c r="D98" t="n">
-        <v>0.275399</v>
+        <v>0.129015</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.290232</v>
+        <v>0.137877</v>
       </c>
       <c r="C99" t="n">
-        <v>0.281413</v>
+        <v>0.129998</v>
       </c>
       <c r="D99" t="n">
-        <v>0.276217</v>
+        <v>0.129755</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.292519</v>
+        <v>0.139895</v>
       </c>
       <c r="C100" t="n">
-        <v>0.284668</v>
+        <v>0.132715</v>
       </c>
       <c r="D100" t="n">
-        <v>0.27722</v>
+        <v>0.130633</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.295639</v>
+        <v>0.142514</v>
       </c>
       <c r="C101" t="n">
-        <v>0.289096</v>
+        <v>0.136634</v>
       </c>
       <c r="D101" t="n">
-        <v>0.278475</v>
+        <v>0.131708</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.299898</v>
+        <v>0.14618</v>
       </c>
       <c r="C102" t="n">
-        <v>0.295047</v>
+        <v>0.141925</v>
       </c>
       <c r="D102" t="n">
-        <v>0.280136</v>
+        <v>0.133171</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.30593</v>
+        <v>0.151349</v>
       </c>
       <c r="C103" t="n">
-        <v>0.303254</v>
+        <v>0.149079</v>
       </c>
       <c r="D103" t="n">
-        <v>0.282533</v>
+        <v>0.135277</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.314385</v>
+        <v>0.158813</v>
       </c>
       <c r="C104" t="n">
-        <v>0.314252</v>
+        <v>0.159217</v>
       </c>
       <c r="D104" t="n">
-        <v>0.285931</v>
+        <v>0.138157</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.326382</v>
+        <v>0.169582</v>
       </c>
       <c r="C105" t="n">
-        <v>0.329311</v>
+        <v>0.173389</v>
       </c>
       <c r="D105" t="n">
-        <v>0.29082</v>
+        <v>0.142501</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.344249</v>
+        <v>0.18557</v>
       </c>
       <c r="C106" t="n">
-        <v>0.350084</v>
+        <v>0.193258</v>
       </c>
       <c r="D106" t="n">
-        <v>0.298314</v>
+        <v>0.149343</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.371181</v>
+        <v>0.208945</v>
       </c>
       <c r="C107" t="n">
-        <v>0.381179</v>
+        <v>0.22206</v>
       </c>
       <c r="D107" t="n">
-        <v>0.310837</v>
+        <v>0.160422</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.412472</v>
+        <v>0.246283</v>
       </c>
       <c r="C108" t="n">
-        <v>0.428496</v>
+        <v>0.26566</v>
       </c>
       <c r="D108" t="n">
-        <v>0.278884</v>
+        <v>0.130322</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.474567</v>
+        <v>0.302324</v>
       </c>
       <c r="C109" t="n">
-        <v>0.500427</v>
+        <v>0.326205</v>
       </c>
       <c r="D109" t="n">
-        <v>0.279579</v>
+        <v>0.130901</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.303571</v>
+        <v>0.14791</v>
       </c>
       <c r="C110" t="n">
-        <v>0.295397</v>
+        <v>0.141462</v>
       </c>
       <c r="D110" t="n">
-        <v>0.280548</v>
+        <v>0.131675</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.30846</v>
+        <v>0.152186</v>
       </c>
       <c r="C111" t="n">
-        <v>0.300726</v>
+        <v>0.146105</v>
       </c>
       <c r="D111" t="n">
-        <v>0.281604</v>
+        <v>0.133056</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.313753</v>
+        <v>0.156756</v>
       </c>
       <c r="C112" t="n">
-        <v>0.306708</v>
+        <v>0.150314</v>
       </c>
       <c r="D112" t="n">
-        <v>0.283331</v>
+        <v>0.13391</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.319702</v>
+        <v>0.1618</v>
       </c>
       <c r="C113" t="n">
-        <v>0.313996</v>
+        <v>0.155009</v>
       </c>
       <c r="D113" t="n">
-        <v>0.285127</v>
+        <v>0.135809</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.325862</v>
+        <v>0.167166</v>
       </c>
       <c r="C114" t="n">
-        <v>0.321153</v>
+        <v>0.160852</v>
       </c>
       <c r="D114" t="n">
-        <v>0.288026</v>
+        <v>0.137873</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.333363</v>
+        <v>0.173242</v>
       </c>
       <c r="C115" t="n">
-        <v>0.329054</v>
+        <v>0.167509</v>
       </c>
       <c r="D115" t="n">
-        <v>0.29085</v>
+        <v>0.140371</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.341184</v>
+        <v>0.180083</v>
       </c>
       <c r="C116" t="n">
-        <v>0.338665</v>
+        <v>0.17527</v>
       </c>
       <c r="D116" t="n">
-        <v>0.295339</v>
+        <v>0.144074</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.350817</v>
+        <v>0.187878</v>
       </c>
       <c r="C117" t="n">
-        <v>0.349286</v>
+        <v>0.183696</v>
       </c>
       <c r="D117" t="n">
-        <v>0.300543</v>
+        <v>0.148328</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.362587</v>
+        <v>0.19734</v>
       </c>
       <c r="C118" t="n">
-        <v>0.362442</v>
+        <v>0.194976</v>
       </c>
       <c r="D118" t="n">
-        <v>0.307156</v>
+        <v>0.154487</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.378122</v>
+        <v>0.209344</v>
       </c>
       <c r="C119" t="n">
-        <v>0.379152</v>
+        <v>0.208717</v>
       </c>
       <c r="D119" t="n">
-        <v>0.315583</v>
+        <v>0.161602</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.398106</v>
+        <v>0.225611</v>
       </c>
       <c r="C120" t="n">
-        <v>0.401737</v>
+        <v>0.227483</v>
       </c>
       <c r="D120" t="n">
-        <v>0.326621</v>
+        <v>0.171956</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.42628</v>
+        <v>0.24798</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432942</v>
+        <v>0.254544</v>
       </c>
       <c r="D121" t="n">
-        <v>0.342014</v>
+        <v>0.18557</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.468795</v>
+        <v>0.28183</v>
       </c>
       <c r="C122" t="n">
-        <v>0.481544</v>
+        <v>0.295279</v>
       </c>
       <c r="D122" t="n">
-        <v>0.365859</v>
+        <v>0.206989</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.533115</v>
+        <v>0.334926</v>
       </c>
       <c r="C123" t="n">
-        <v>0.558489</v>
+        <v>0.356248</v>
       </c>
       <c r="D123" t="n">
-        <v>0.309007</v>
+        <v>0.154502</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.354553</v>
+        <v>0.186559</v>
       </c>
       <c r="C124" t="n">
-        <v>0.342942</v>
+        <v>0.177976</v>
       </c>
       <c r="D124" t="n">
-        <v>0.311062</v>
+        <v>0.157465</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3597</v>
+        <v>0.190433</v>
       </c>
       <c r="C125" t="n">
-        <v>0.350945</v>
+        <v>0.18013</v>
       </c>
       <c r="D125" t="n">
-        <v>0.317202</v>
+        <v>0.159531</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.361328</v>
+        <v>0.195377</v>
       </c>
       <c r="C126" t="n">
-        <v>0.352675</v>
+        <v>0.184435</v>
       </c>
       <c r="D126" t="n">
-        <v>0.317974</v>
+        <v>0.163147</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.36769</v>
+        <v>0.196722</v>
       </c>
       <c r="C127" t="n">
-        <v>0.359201</v>
+        <v>0.186832</v>
       </c>
       <c r="D127" t="n">
-        <v>0.321887</v>
+        <v>0.16496</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.374176</v>
+        <v>0.205192</v>
       </c>
       <c r="C128" t="n">
-        <v>0.364271</v>
+        <v>0.191516</v>
       </c>
       <c r="D128" t="n">
-        <v>0.324929</v>
+        <v>0.167855</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.376803</v>
+        <v>0.207271</v>
       </c>
       <c r="C129" t="n">
-        <v>0.372187</v>
+        <v>0.198781</v>
       </c>
       <c r="D129" t="n">
-        <v>0.328793</v>
+        <v>0.173301</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.38838</v>
+        <v>0.211911</v>
       </c>
       <c r="C130" t="n">
-        <v>0.379321</v>
+        <v>0.203287</v>
       </c>
       <c r="D130" t="n">
-        <v>0.332457</v>
+        <v>0.174517</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.39684</v>
+        <v>0.220058</v>
       </c>
       <c r="C131" t="n">
-        <v>0.390998</v>
+        <v>0.210594</v>
       </c>
       <c r="D131" t="n">
-        <v>0.337465</v>
+        <v>0.17778</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.404594</v>
+        <v>0.226281</v>
       </c>
       <c r="C132" t="n">
-        <v>0.405985</v>
+        <v>0.219895</v>
       </c>
       <c r="D132" t="n">
-        <v>0.344094</v>
+        <v>0.18209</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.420976</v>
+        <v>0.238056</v>
       </c>
       <c r="C133" t="n">
-        <v>0.426277</v>
+        <v>0.234928</v>
       </c>
       <c r="D133" t="n">
-        <v>0.353743</v>
+        <v>0.18934</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.44263</v>
+        <v>0.251006</v>
       </c>
       <c r="C134" t="n">
-        <v>0.445129</v>
+        <v>0.254016</v>
       </c>
       <c r="D134" t="n">
-        <v>0.358864</v>
+        <v>0.199072</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.471958</v>
+        <v>0.275299</v>
       </c>
       <c r="C135" t="n">
-        <v>0.483261</v>
+        <v>0.27772</v>
       </c>
       <c r="D135" t="n">
-        <v>0.377645</v>
+        <v>0.20762</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.511168</v>
+        <v>0.304793</v>
       </c>
       <c r="C136" t="n">
-        <v>0.529165</v>
+        <v>0.318845</v>
       </c>
       <c r="D136" t="n">
-        <v>0.396405</v>
+        <v>0.229811</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5757370000000001</v>
+        <v>0.353497</v>
       </c>
       <c r="C137" t="n">
-        <v>0.603129</v>
+        <v>0.376148</v>
       </c>
       <c r="D137" t="n">
-        <v>0.456172</v>
+        <v>0.242211</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.519919</v>
+        <v>0.275726</v>
       </c>
       <c r="C138" t="n">
-        <v>0.497003</v>
+        <v>0.260319</v>
       </c>
       <c r="D138" t="n">
-        <v>0.454787</v>
+        <v>0.247962</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5249740000000001</v>
+        <v>0.277048</v>
       </c>
       <c r="C139" t="n">
-        <v>0.498945</v>
+        <v>0.261498</v>
       </c>
       <c r="D139" t="n">
-        <v>0.45264</v>
+        <v>0.247139</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.527103</v>
+        <v>0.280934</v>
       </c>
       <c r="C140" t="n">
-        <v>0.505295</v>
+        <v>0.266035</v>
       </c>
       <c r="D140" t="n">
-        <v>0.457744</v>
+        <v>0.251001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.530776</v>
+        <v>0.282353</v>
       </c>
       <c r="C141" t="n">
-        <v>0.51759</v>
+        <v>0.269261</v>
       </c>
       <c r="D141" t="n">
-        <v>0.468694</v>
+        <v>0.252708</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5340859999999999</v>
+        <v>0.286497</v>
       </c>
       <c r="C142" t="n">
-        <v>0.524779</v>
+        <v>0.273705</v>
       </c>
       <c r="D142" t="n">
-        <v>0.472126</v>
+        <v>0.256008</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.54262</v>
+        <v>0.289942</v>
       </c>
       <c r="C143" t="n">
-        <v>0.531291</v>
+        <v>0.275181</v>
       </c>
       <c r="D143" t="n">
-        <v>0.472692</v>
+        <v>0.254318</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103447</v>
+        <v>0.102964</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0985949</v>
+        <v>0.0985113</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09272270000000001</v>
+        <v>0.0937471</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.107448</v>
+        <v>0.108837</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104783</v>
+        <v>0.104407</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0942732</v>
+        <v>0.09513820000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1165</v>
+        <v>0.117054</v>
       </c>
       <c r="C4" t="n">
-        <v>0.116989</v>
+        <v>0.117091</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0990554</v>
+        <v>0.100029</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.126301</v>
+        <v>0.132257</v>
       </c>
       <c r="C5" t="n">
-        <v>0.134551</v>
+        <v>0.133952</v>
       </c>
       <c r="D5" t="n">
-        <v>0.105744</v>
+        <v>0.10587</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.139491</v>
+        <v>0.147043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.151993</v>
+        <v>0.150815</v>
       </c>
       <c r="D6" t="n">
-        <v>0.110206</v>
+        <v>0.110168</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.161018</v>
+        <v>0.167222</v>
       </c>
       <c r="C7" t="n">
-        <v>0.174233</v>
+        <v>0.173213</v>
       </c>
       <c r="D7" t="n">
-        <v>0.119053</v>
+        <v>0.120199</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.192608</v>
+        <v>0.203897</v>
       </c>
       <c r="C8" t="n">
-        <v>0.212715</v>
+        <v>0.211159</v>
       </c>
       <c r="D8" t="n">
-        <v>0.136033</v>
+        <v>0.137295</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.236332</v>
+        <v>0.246875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.256873</v>
+        <v>0.25542</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09822309999999999</v>
+        <v>0.0979718</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.101792</v>
+        <v>0.103551</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09695869999999999</v>
+        <v>0.0964407</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0987705</v>
+        <v>0.09883550000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.102734</v>
+        <v>0.104834</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09789970000000001</v>
+        <v>0.0975583</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0990649</v>
+        <v>0.09927179999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.105197</v>
+        <v>0.107075</v>
       </c>
       <c r="C12" t="n">
-        <v>0.100269</v>
+        <v>0.09998750000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.100707</v>
+        <v>0.100988</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.106365</v>
+        <v>0.10789</v>
       </c>
       <c r="C13" t="n">
-        <v>0.101553</v>
+        <v>0.101077</v>
       </c>
       <c r="D13" t="n">
-        <v>0.100976</v>
+        <v>0.101201</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.108804</v>
+        <v>0.110915</v>
       </c>
       <c r="C14" t="n">
-        <v>0.10509</v>
+        <v>0.104734</v>
       </c>
       <c r="D14" t="n">
-        <v>0.102585</v>
+        <v>0.102898</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.110942</v>
+        <v>0.113595</v>
       </c>
       <c r="C15" t="n">
-        <v>0.108783</v>
+        <v>0.108182</v>
       </c>
       <c r="D15" t="n">
-        <v>0.103838</v>
+        <v>0.104018</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.113848</v>
+        <v>0.117015</v>
       </c>
       <c r="C16" t="n">
-        <v>0.112723</v>
+        <v>0.112039</v>
       </c>
       <c r="D16" t="n">
-        <v>0.104894</v>
+        <v>0.105427</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.117787</v>
+        <v>0.12124</v>
       </c>
       <c r="C17" t="n">
-        <v>0.118963</v>
+        <v>0.11852</v>
       </c>
       <c r="D17" t="n">
-        <v>0.106582</v>
+        <v>0.106919</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.123116</v>
+        <v>0.127206</v>
       </c>
       <c r="C18" t="n">
-        <v>0.125924</v>
+        <v>0.125199</v>
       </c>
       <c r="D18" t="n">
-        <v>0.108728</v>
+        <v>0.109233</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132924</v>
+        <v>0.136169</v>
       </c>
       <c r="C19" t="n">
-        <v>0.136606</v>
+        <v>0.135615</v>
       </c>
       <c r="D19" t="n">
-        <v>0.113026</v>
+        <v>0.113389</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.143709</v>
+        <v>0.148646</v>
       </c>
       <c r="C20" t="n">
-        <v>0.150735</v>
+        <v>0.149302</v>
       </c>
       <c r="D20" t="n">
-        <v>0.117022</v>
+        <v>0.117409</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.160905</v>
+        <v>0.166871</v>
       </c>
       <c r="C21" t="n">
-        <v>0.173691</v>
+        <v>0.171766</v>
       </c>
       <c r="D21" t="n">
-        <v>0.12502</v>
+        <v>0.125569</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.185286</v>
+        <v>0.197054</v>
       </c>
       <c r="C22" t="n">
-        <v>0.206836</v>
+        <v>0.204517</v>
       </c>
       <c r="D22" t="n">
-        <v>0.138528</v>
+        <v>0.13918</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.22806</v>
+        <v>0.24337</v>
       </c>
       <c r="C23" t="n">
-        <v>0.252992</v>
+        <v>0.250484</v>
       </c>
       <c r="D23" t="n">
-        <v>0.10392</v>
+        <v>0.103974</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.108397</v>
+        <v>0.109557</v>
       </c>
       <c r="C24" t="n">
-        <v>0.103607</v>
+        <v>0.103321</v>
       </c>
       <c r="D24" t="n">
-        <v>0.104674</v>
+        <v>0.104859</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.109053</v>
+        <v>0.110253</v>
       </c>
       <c r="C25" t="n">
-        <v>0.104254</v>
+        <v>0.103916</v>
       </c>
       <c r="D25" t="n">
-        <v>0.104689</v>
+        <v>0.104825</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.109997</v>
+        <v>0.111137</v>
       </c>
       <c r="C26" t="n">
-        <v>0.105284</v>
+        <v>0.104943</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105086</v>
+        <v>0.105353</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.111049</v>
+        <v>0.11224</v>
       </c>
       <c r="C27" t="n">
-        <v>0.106791</v>
+        <v>0.106394</v>
       </c>
       <c r="D27" t="n">
-        <v>0.105533</v>
+        <v>0.105747</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.112598</v>
+        <v>0.114014</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109117</v>
+        <v>0.108823</v>
       </c>
       <c r="D28" t="n">
-        <v>0.106557</v>
+        <v>0.106877</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.114108</v>
+        <v>0.115615</v>
       </c>
       <c r="C29" t="n">
-        <v>0.112038</v>
+        <v>0.111676</v>
       </c>
       <c r="D29" t="n">
-        <v>0.107116</v>
+        <v>0.107583</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.116521</v>
+        <v>0.118128</v>
       </c>
       <c r="C30" t="n">
-        <v>0.115587</v>
+        <v>0.115262</v>
       </c>
       <c r="D30" t="n">
-        <v>0.108102</v>
+        <v>0.10851</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.119686</v>
+        <v>0.121593</v>
       </c>
       <c r="C31" t="n">
-        <v>0.120482</v>
+        <v>0.12009</v>
       </c>
       <c r="D31" t="n">
-        <v>0.109482</v>
+        <v>0.109716</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.124901</v>
+        <v>0.126831</v>
       </c>
       <c r="C32" t="n">
-        <v>0.126684</v>
+        <v>0.126267</v>
       </c>
       <c r="D32" t="n">
-        <v>0.111484</v>
+        <v>0.111877</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.131522</v>
+        <v>0.134967</v>
       </c>
       <c r="C33" t="n">
-        <v>0.135427</v>
+        <v>0.134695</v>
       </c>
       <c r="D33" t="n">
-        <v>0.114115</v>
+        <v>0.114418</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.142399</v>
+        <v>0.146275</v>
       </c>
       <c r="C34" t="n">
-        <v>0.148207</v>
+        <v>0.147447</v>
       </c>
       <c r="D34" t="n">
-        <v>0.117833</v>
+        <v>0.118219</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.156375</v>
+        <v>0.163162</v>
       </c>
       <c r="C35" t="n">
-        <v>0.167458</v>
+        <v>0.166123</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123991</v>
+        <v>0.124461</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178236</v>
+        <v>0.186425</v>
       </c>
       <c r="C36" t="n">
-        <v>0.196896</v>
+        <v>0.195064</v>
       </c>
       <c r="D36" t="n">
-        <v>0.13462</v>
+        <v>0.13511</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.215022</v>
+        <v>0.229789</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241589</v>
+        <v>0.239668</v>
       </c>
       <c r="D37" t="n">
-        <v>0.105782</v>
+        <v>0.106005</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.109175</v>
+        <v>0.110618</v>
       </c>
       <c r="C38" t="n">
-        <v>0.105109</v>
+        <v>0.104466</v>
       </c>
       <c r="D38" t="n">
-        <v>0.106239</v>
+        <v>0.106411</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.110698</v>
+        <v>0.112016</v>
       </c>
       <c r="C39" t="n">
-        <v>0.106016</v>
+        <v>0.105539</v>
       </c>
       <c r="D39" t="n">
-        <v>0.10674</v>
+        <v>0.106926</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.111516</v>
+        <v>0.112724</v>
       </c>
       <c r="C40" t="n">
-        <v>0.107153</v>
+        <v>0.106641</v>
       </c>
       <c r="D40" t="n">
-        <v>0.106959</v>
+        <v>0.107105</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.112556</v>
+        <v>0.113916</v>
       </c>
       <c r="C41" t="n">
-        <v>0.108438</v>
+        <v>0.107885</v>
       </c>
       <c r="D41" t="n">
-        <v>0.10727</v>
+        <v>0.10745</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.113841</v>
+        <v>0.115203</v>
       </c>
       <c r="C42" t="n">
-        <v>0.109993</v>
+        <v>0.109491</v>
       </c>
       <c r="D42" t="n">
-        <v>0.10791</v>
+        <v>0.108104</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.115375</v>
+        <v>0.116653</v>
       </c>
       <c r="C43" t="n">
-        <v>0.112236</v>
+        <v>0.111841</v>
       </c>
       <c r="D43" t="n">
-        <v>0.108597</v>
+        <v>0.108797</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.117537</v>
+        <v>0.118909</v>
       </c>
       <c r="C44" t="n">
-        <v>0.115603</v>
+        <v>0.115181</v>
       </c>
       <c r="D44" t="n">
-        <v>0.109484</v>
+        <v>0.109718</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.120496</v>
+        <v>0.121978</v>
       </c>
       <c r="C45" t="n">
-        <v>0.119503</v>
+        <v>0.119016</v>
       </c>
       <c r="D45" t="n">
-        <v>0.110649</v>
+        <v>0.110829</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.125169</v>
+        <v>0.12679</v>
       </c>
       <c r="C46" t="n">
-        <v>0.126357</v>
+        <v>0.125693</v>
       </c>
       <c r="D46" t="n">
-        <v>0.112474</v>
+        <v>0.112617</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.131857</v>
+        <v>0.132893</v>
       </c>
       <c r="C47" t="n">
-        <v>0.134827</v>
+        <v>0.134073</v>
       </c>
       <c r="D47" t="n">
-        <v>0.114911</v>
+        <v>0.115077</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.140935</v>
+        <v>0.142871</v>
       </c>
       <c r="C48" t="n">
-        <v>0.146562</v>
+        <v>0.145697</v>
       </c>
       <c r="D48" t="n">
-        <v>0.118815</v>
+        <v>0.118951</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.154198</v>
+        <v>0.156545</v>
       </c>
       <c r="C49" t="n">
-        <v>0.16394</v>
+        <v>0.162567</v>
       </c>
       <c r="D49" t="n">
-        <v>0.124552</v>
+        <v>0.124758</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.175865</v>
+        <v>0.177533</v>
       </c>
       <c r="C50" t="n">
-        <v>0.190266</v>
+        <v>0.188497</v>
       </c>
       <c r="D50" t="n">
-        <v>0.13366</v>
+        <v>0.134044</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.208405</v>
+        <v>0.21063</v>
       </c>
       <c r="C51" t="n">
-        <v>0.226441</v>
+        <v>0.224242</v>
       </c>
       <c r="D51" t="n">
-        <v>0.107513</v>
+        <v>0.107275</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.259865</v>
+        <v>0.263669</v>
       </c>
       <c r="C52" t="n">
-        <v>0.282975</v>
+        <v>0.281554</v>
       </c>
       <c r="D52" t="n">
-        <v>0.108065</v>
+        <v>0.107722</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.111425</v>
+        <v>0.113443</v>
       </c>
       <c r="C53" t="n">
-        <v>0.107377</v>
+        <v>0.106611</v>
       </c>
       <c r="D53" t="n">
-        <v>0.108302</v>
+        <v>0.107961</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.112491</v>
+        <v>0.114464</v>
       </c>
       <c r="C54" t="n">
-        <v>0.108342</v>
+        <v>0.107597</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108666</v>
+        <v>0.108318</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113397</v>
+        <v>0.115633</v>
       </c>
       <c r="C55" t="n">
-        <v>0.109494</v>
+        <v>0.108859</v>
       </c>
       <c r="D55" t="n">
-        <v>0.109119</v>
+        <v>0.108769</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.114706</v>
+        <v>0.116967</v>
       </c>
       <c r="C56" t="n">
-        <v>0.11151</v>
+        <v>0.110663</v>
       </c>
       <c r="D56" t="n">
-        <v>0.109656</v>
+        <v>0.109383</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.116344</v>
+        <v>0.118568</v>
       </c>
       <c r="C57" t="n">
-        <v>0.113709</v>
+        <v>0.112952</v>
       </c>
       <c r="D57" t="n">
-        <v>0.110253</v>
+        <v>0.110039</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.118403</v>
+        <v>0.120803</v>
       </c>
       <c r="C58" t="n">
-        <v>0.116457</v>
+        <v>0.115831</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1111</v>
+        <v>0.110906</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.121314</v>
+        <v>0.123587</v>
       </c>
       <c r="C59" t="n">
-        <v>0.120524</v>
+        <v>0.119853</v>
       </c>
       <c r="D59" t="n">
-        <v>0.112167</v>
+        <v>0.112019</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125268</v>
+        <v>0.127477</v>
       </c>
       <c r="C60" t="n">
-        <v>0.126539</v>
+        <v>0.125903</v>
       </c>
       <c r="D60" t="n">
-        <v>0.114041</v>
+        <v>0.113866</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.131188</v>
+        <v>0.133464</v>
       </c>
       <c r="C61" t="n">
-        <v>0.134331</v>
+        <v>0.133461</v>
       </c>
       <c r="D61" t="n">
-        <v>0.116424</v>
+        <v>0.116335</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.139951</v>
+        <v>0.14204</v>
       </c>
       <c r="C62" t="n">
-        <v>0.145556</v>
+        <v>0.144534</v>
       </c>
       <c r="D62" t="n">
-        <v>0.119772</v>
+        <v>0.119641</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.153025</v>
+        <v>0.155154</v>
       </c>
       <c r="C63" t="n">
-        <v>0.161114</v>
+        <v>0.15986</v>
       </c>
       <c r="D63" t="n">
-        <v>0.124784</v>
+        <v>0.124753</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.173482</v>
+        <v>0.174386</v>
       </c>
       <c r="C64" t="n">
-        <v>0.184409</v>
+        <v>0.182694</v>
       </c>
       <c r="D64" t="n">
-        <v>0.133263</v>
+        <v>0.133411</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.203858</v>
+        <v>0.204911</v>
       </c>
       <c r="C65" t="n">
-        <v>0.22199</v>
+        <v>0.219874</v>
       </c>
       <c r="D65" t="n">
-        <v>0.147926</v>
+        <v>0.148377</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.250134</v>
+        <v>0.252132</v>
       </c>
       <c r="C66" t="n">
-        <v>0.273983</v>
+        <v>0.272063</v>
       </c>
       <c r="D66" t="n">
-        <v>0.114475</v>
+        <v>0.115525</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121017</v>
+        <v>0.121338</v>
       </c>
       <c r="C67" t="n">
-        <v>0.113001</v>
+        <v>0.113026</v>
       </c>
       <c r="D67" t="n">
-        <v>0.114813</v>
+        <v>0.115797</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.121751</v>
+        <v>0.122101</v>
       </c>
       <c r="C68" t="n">
-        <v>0.114015</v>
+        <v>0.113969</v>
       </c>
       <c r="D68" t="n">
-        <v>0.115215</v>
+        <v>0.116236</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.122908</v>
+        <v>0.123099</v>
       </c>
       <c r="C69" t="n">
-        <v>0.115455</v>
+        <v>0.115218</v>
       </c>
       <c r="D69" t="n">
-        <v>0.115719</v>
+        <v>0.116665</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.124015</v>
+        <v>0.124148</v>
       </c>
       <c r="C70" t="n">
-        <v>0.116918</v>
+        <v>0.116637</v>
       </c>
       <c r="D70" t="n">
-        <v>0.116169</v>
+        <v>0.117162</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.125534</v>
+        <v>0.125684</v>
       </c>
       <c r="C71" t="n">
-        <v>0.118884</v>
+        <v>0.118566</v>
       </c>
       <c r="D71" t="n">
-        <v>0.116831</v>
+        <v>0.117772</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.127496</v>
+        <v>0.127607</v>
       </c>
       <c r="C72" t="n">
-        <v>0.121671</v>
+        <v>0.121089</v>
       </c>
       <c r="D72" t="n">
-        <v>0.117682</v>
+        <v>0.118622</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.129936</v>
+        <v>0.130209</v>
       </c>
       <c r="C73" t="n">
-        <v>0.125067</v>
+        <v>0.124698</v>
       </c>
       <c r="D73" t="n">
-        <v>0.118773</v>
+        <v>0.119722</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.133603</v>
+        <v>0.133973</v>
       </c>
       <c r="C74" t="n">
-        <v>0.130134</v>
+        <v>0.129686</v>
       </c>
       <c r="D74" t="n">
-        <v>0.120272</v>
+        <v>0.121218</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.138657</v>
+        <v>0.139187</v>
       </c>
       <c r="C75" t="n">
-        <v>0.136847</v>
+        <v>0.136245</v>
       </c>
       <c r="D75" t="n">
-        <v>0.122293</v>
+        <v>0.123276</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.146343</v>
+        <v>0.147216</v>
       </c>
       <c r="C76" t="n">
-        <v>0.147484</v>
+        <v>0.146551</v>
       </c>
       <c r="D76" t="n">
-        <v>0.12539</v>
+        <v>0.126476</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.15788</v>
+        <v>0.158797</v>
       </c>
       <c r="C77" t="n">
-        <v>0.161868</v>
+        <v>0.16073</v>
       </c>
       <c r="D77" t="n">
-        <v>0.130365</v>
+        <v>0.1313</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.175109</v>
+        <v>0.176057</v>
       </c>
       <c r="C78" t="n">
-        <v>0.183051</v>
+        <v>0.181322</v>
       </c>
       <c r="D78" t="n">
-        <v>0.13794</v>
+        <v>0.138981</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.203173</v>
+        <v>0.203</v>
       </c>
       <c r="C79" t="n">
-        <v>0.215734</v>
+        <v>0.213395</v>
       </c>
       <c r="D79" t="n">
-        <v>0.150879</v>
+        <v>0.152034</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.248011</v>
+        <v>0.245331</v>
       </c>
       <c r="C80" t="n">
-        <v>0.265485</v>
+        <v>0.263096</v>
       </c>
       <c r="D80" t="n">
-        <v>0.122487</v>
+        <v>0.12287</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.127933</v>
+        <v>0.128573</v>
       </c>
       <c r="C81" t="n">
-        <v>0.119943</v>
+        <v>0.119377</v>
       </c>
       <c r="D81" t="n">
-        <v>0.122804</v>
+        <v>0.123203</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.128565</v>
+        <v>0.129335</v>
       </c>
       <c r="C82" t="n">
-        <v>0.120908</v>
+        <v>0.120316</v>
       </c>
       <c r="D82" t="n">
-        <v>0.123137</v>
+        <v>0.123606</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.129445</v>
+        <v>0.130373</v>
       </c>
       <c r="C83" t="n">
-        <v>0.122046</v>
+        <v>0.121437</v>
       </c>
       <c r="D83" t="n">
-        <v>0.123647</v>
+        <v>0.124012</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.130587</v>
+        <v>0.131455</v>
       </c>
       <c r="C84" t="n">
-        <v>0.123337</v>
+        <v>0.122656</v>
       </c>
       <c r="D84" t="n">
-        <v>0.124123</v>
+        <v>0.124595</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.131954</v>
+        <v>0.132933</v>
       </c>
       <c r="C85" t="n">
-        <v>0.12514</v>
+        <v>0.124476</v>
       </c>
       <c r="D85" t="n">
-        <v>0.124843</v>
+        <v>0.12529</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.133688</v>
+        <v>0.13479</v>
       </c>
       <c r="C86" t="n">
-        <v>0.127558</v>
+        <v>0.126947</v>
       </c>
       <c r="D86" t="n">
-        <v>0.125588</v>
+        <v>0.125985</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136208</v>
+        <v>0.137108</v>
       </c>
       <c r="C87" t="n">
-        <v>0.130929</v>
+        <v>0.130296</v>
       </c>
       <c r="D87" t="n">
-        <v>0.126627</v>
+        <v>0.127061</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.139565</v>
+        <v>0.140445</v>
       </c>
       <c r="C88" t="n">
-        <v>0.135669</v>
+        <v>0.13483</v>
       </c>
       <c r="D88" t="n">
-        <v>0.128007</v>
+        <v>0.128461</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.144306</v>
+        <v>0.145243</v>
       </c>
       <c r="C89" t="n">
-        <v>0.142197</v>
+        <v>0.141353</v>
       </c>
       <c r="D89" t="n">
-        <v>0.129991</v>
+        <v>0.13055</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.151375</v>
+        <v>0.15231</v>
       </c>
       <c r="C90" t="n">
-        <v>0.15137</v>
+        <v>0.15058</v>
       </c>
       <c r="D90" t="n">
-        <v>0.132928</v>
+        <v>0.133445</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.161763</v>
+        <v>0.162853</v>
       </c>
       <c r="C91" t="n">
-        <v>0.164544</v>
+        <v>0.16357</v>
       </c>
       <c r="D91" t="n">
-        <v>0.137299</v>
+        <v>0.137887</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.177352</v>
+        <v>0.178005</v>
       </c>
       <c r="C92" t="n">
-        <v>0.183721</v>
+        <v>0.182489</v>
       </c>
       <c r="D92" t="n">
-        <v>0.144263</v>
+        <v>0.145024</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.201905</v>
+        <v>0.202466</v>
       </c>
       <c r="C93" t="n">
-        <v>0.21416</v>
+        <v>0.212463</v>
       </c>
       <c r="D93" t="n">
-        <v>0.156142</v>
+        <v>0.156921</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240751</v>
+        <v>0.24141</v>
       </c>
       <c r="C94" t="n">
-        <v>0.259318</v>
+        <v>0.257369</v>
       </c>
       <c r="D94" t="n">
-        <v>0.127095</v>
+        <v>0.127882</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.133184</v>
+        <v>0.13377</v>
       </c>
       <c r="C95" t="n">
-        <v>0.124326</v>
+        <v>0.124191</v>
       </c>
       <c r="D95" t="n">
-        <v>0.127492</v>
+        <v>0.128223</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.134074</v>
+        <v>0.134777</v>
       </c>
       <c r="C96" t="n">
-        <v>0.125392</v>
+        <v>0.125233</v>
       </c>
       <c r="D96" t="n">
-        <v>0.127958</v>
+        <v>0.128637</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.135133</v>
+        <v>0.135882</v>
       </c>
       <c r="C97" t="n">
-        <v>0.12663</v>
+        <v>0.126404</v>
       </c>
       <c r="D97" t="n">
-        <v>0.12842</v>
+        <v>0.12909</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.136401</v>
+        <v>0.137041</v>
       </c>
       <c r="C98" t="n">
-        <v>0.128151</v>
+        <v>0.127862</v>
       </c>
       <c r="D98" t="n">
-        <v>0.129015</v>
+        <v>0.129673</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.137877</v>
+        <v>0.138639</v>
       </c>
       <c r="C99" t="n">
-        <v>0.129998</v>
+        <v>0.129754</v>
       </c>
       <c r="D99" t="n">
-        <v>0.129755</v>
+        <v>0.130399</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.139895</v>
+        <v>0.14068</v>
       </c>
       <c r="C100" t="n">
-        <v>0.132715</v>
+        <v>0.132288</v>
       </c>
       <c r="D100" t="n">
-        <v>0.130633</v>
+        <v>0.131308</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.142514</v>
+        <v>0.143282</v>
       </c>
       <c r="C101" t="n">
-        <v>0.136634</v>
+        <v>0.135777</v>
       </c>
       <c r="D101" t="n">
-        <v>0.131708</v>
+        <v>0.13243</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.14618</v>
+        <v>0.147027</v>
       </c>
       <c r="C102" t="n">
-        <v>0.141925</v>
+        <v>0.140628</v>
       </c>
       <c r="D102" t="n">
-        <v>0.133171</v>
+        <v>0.133833</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.151349</v>
+        <v>0.152344</v>
       </c>
       <c r="C103" t="n">
-        <v>0.149079</v>
+        <v>0.147301</v>
       </c>
       <c r="D103" t="n">
-        <v>0.135277</v>
+        <v>0.135893</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.158813</v>
+        <v>0.159915</v>
       </c>
       <c r="C104" t="n">
-        <v>0.159217</v>
+        <v>0.156732</v>
       </c>
       <c r="D104" t="n">
-        <v>0.138157</v>
+        <v>0.138805</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.169582</v>
+        <v>0.171052</v>
       </c>
       <c r="C105" t="n">
-        <v>0.173389</v>
+        <v>0.170072</v>
       </c>
       <c r="D105" t="n">
-        <v>0.142501</v>
+        <v>0.1432</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.18557</v>
+        <v>0.187217</v>
       </c>
       <c r="C106" t="n">
-        <v>0.193258</v>
+        <v>0.189144</v>
       </c>
       <c r="D106" t="n">
-        <v>0.149343</v>
+        <v>0.149918</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208945</v>
+        <v>0.210982</v>
       </c>
       <c r="C107" t="n">
-        <v>0.22206</v>
+        <v>0.217668</v>
       </c>
       <c r="D107" t="n">
-        <v>0.160422</v>
+        <v>0.160841</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.246283</v>
+        <v>0.247831</v>
       </c>
       <c r="C108" t="n">
-        <v>0.26566</v>
+        <v>0.261866</v>
       </c>
       <c r="D108" t="n">
-        <v>0.130322</v>
+        <v>0.130988</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.302324</v>
+        <v>0.305755</v>
       </c>
       <c r="C109" t="n">
-        <v>0.326205</v>
+        <v>0.325201</v>
       </c>
       <c r="D109" t="n">
-        <v>0.130901</v>
+        <v>0.131332</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.14791</v>
+        <v>0.149111</v>
       </c>
       <c r="C110" t="n">
-        <v>0.141462</v>
+        <v>0.139136</v>
       </c>
       <c r="D110" t="n">
-        <v>0.131675</v>
+        <v>0.132353</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.152186</v>
+        <v>0.152039</v>
       </c>
       <c r="C111" t="n">
-        <v>0.146105</v>
+        <v>0.142817</v>
       </c>
       <c r="D111" t="n">
-        <v>0.133056</v>
+        <v>0.132982</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.156756</v>
+        <v>0.157665</v>
       </c>
       <c r="C112" t="n">
-        <v>0.150314</v>
+        <v>0.147913</v>
       </c>
       <c r="D112" t="n">
-        <v>0.13391</v>
+        <v>0.134331</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1618</v>
+        <v>0.162265</v>
       </c>
       <c r="C113" t="n">
-        <v>0.155009</v>
+        <v>0.152583</v>
       </c>
       <c r="D113" t="n">
-        <v>0.135809</v>
+        <v>0.135391</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.167166</v>
+        <v>0.167855</v>
       </c>
       <c r="C114" t="n">
-        <v>0.160852</v>
+        <v>0.159214</v>
       </c>
       <c r="D114" t="n">
-        <v>0.137873</v>
+        <v>0.137684</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.173242</v>
+        <v>0.173883</v>
       </c>
       <c r="C115" t="n">
-        <v>0.167509</v>
+        <v>0.16532</v>
       </c>
       <c r="D115" t="n">
-        <v>0.140371</v>
+        <v>0.139885</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.180083</v>
+        <v>0.180978</v>
       </c>
       <c r="C116" t="n">
-        <v>0.17527</v>
+        <v>0.173179</v>
       </c>
       <c r="D116" t="n">
-        <v>0.144074</v>
+        <v>0.14301</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.187878</v>
+        <v>0.188629</v>
       </c>
       <c r="C117" t="n">
-        <v>0.183696</v>
+        <v>0.182521</v>
       </c>
       <c r="D117" t="n">
-        <v>0.148328</v>
+        <v>0.147003</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.19734</v>
+        <v>0.19849</v>
       </c>
       <c r="C118" t="n">
-        <v>0.194976</v>
+        <v>0.193552</v>
       </c>
       <c r="D118" t="n">
-        <v>0.154487</v>
+        <v>0.152603</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.209344</v>
+        <v>0.210295</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208717</v>
+        <v>0.208032</v>
       </c>
       <c r="D119" t="n">
-        <v>0.161602</v>
+        <v>0.159774</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.225611</v>
+        <v>0.22676</v>
       </c>
       <c r="C120" t="n">
-        <v>0.227483</v>
+        <v>0.226657</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171956</v>
+        <v>0.169616</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.24798</v>
+        <v>0.249628</v>
       </c>
       <c r="C121" t="n">
-        <v>0.254544</v>
+        <v>0.253867</v>
       </c>
       <c r="D121" t="n">
-        <v>0.18557</v>
+        <v>0.183655</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.28183</v>
+        <v>0.283133</v>
       </c>
       <c r="C122" t="n">
-        <v>0.295279</v>
+        <v>0.294548</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206989</v>
+        <v>0.205987</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.334926</v>
+        <v>0.335687</v>
       </c>
       <c r="C123" t="n">
-        <v>0.356248</v>
+        <v>0.356432</v>
       </c>
       <c r="D123" t="n">
-        <v>0.154502</v>
+        <v>0.153534</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.186559</v>
+        <v>0.189449</v>
       </c>
       <c r="C124" t="n">
-        <v>0.177976</v>
+        <v>0.176678</v>
       </c>
       <c r="D124" t="n">
-        <v>0.157465</v>
+        <v>0.156823</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.190433</v>
+        <v>0.19425</v>
       </c>
       <c r="C125" t="n">
-        <v>0.18013</v>
+        <v>0.179661</v>
       </c>
       <c r="D125" t="n">
-        <v>0.159531</v>
+        <v>0.159248</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.195377</v>
+        <v>0.194466</v>
       </c>
       <c r="C126" t="n">
-        <v>0.184435</v>
+        <v>0.183007</v>
       </c>
       <c r="D126" t="n">
-        <v>0.163147</v>
+        <v>0.162101</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.196722</v>
+        <v>0.199782</v>
       </c>
       <c r="C127" t="n">
-        <v>0.186832</v>
+        <v>0.187649</v>
       </c>
       <c r="D127" t="n">
-        <v>0.16496</v>
+        <v>0.165614</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.205192</v>
+        <v>0.205147</v>
       </c>
       <c r="C128" t="n">
-        <v>0.191516</v>
+        <v>0.190807</v>
       </c>
       <c r="D128" t="n">
-        <v>0.167855</v>
+        <v>0.1678</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.207271</v>
+        <v>0.208418</v>
       </c>
       <c r="C129" t="n">
-        <v>0.198781</v>
+        <v>0.196387</v>
       </c>
       <c r="D129" t="n">
-        <v>0.173301</v>
+        <v>0.171122</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211911</v>
+        <v>0.212098</v>
       </c>
       <c r="C130" t="n">
-        <v>0.203287</v>
+        <v>0.203184</v>
       </c>
       <c r="D130" t="n">
-        <v>0.174517</v>
+        <v>0.17533</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.220058</v>
+        <v>0.217925</v>
       </c>
       <c r="C131" t="n">
-        <v>0.210594</v>
+        <v>0.210065</v>
       </c>
       <c r="D131" t="n">
-        <v>0.17778</v>
+        <v>0.178205</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.226281</v>
+        <v>0.22824</v>
       </c>
       <c r="C132" t="n">
-        <v>0.219895</v>
+        <v>0.219894</v>
       </c>
       <c r="D132" t="n">
-        <v>0.18209</v>
+        <v>0.183326</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.238056</v>
+        <v>0.238882</v>
       </c>
       <c r="C133" t="n">
-        <v>0.234928</v>
+        <v>0.233021</v>
       </c>
       <c r="D133" t="n">
-        <v>0.18934</v>
+        <v>0.189265</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.251006</v>
+        <v>0.253668</v>
       </c>
       <c r="C134" t="n">
-        <v>0.254016</v>
+        <v>0.252172</v>
       </c>
       <c r="D134" t="n">
-        <v>0.199072</v>
+        <v>0.198551</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.275299</v>
+        <v>0.273358</v>
       </c>
       <c r="C135" t="n">
-        <v>0.27772</v>
+        <v>0.276479</v>
       </c>
       <c r="D135" t="n">
-        <v>0.20762</v>
+        <v>0.20982</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.304793</v>
+        <v>0.305752</v>
       </c>
       <c r="C136" t="n">
-        <v>0.318845</v>
+        <v>0.313105</v>
       </c>
       <c r="D136" t="n">
-        <v>0.229811</v>
+        <v>0.22734</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.353497</v>
+        <v>0.354588</v>
       </c>
       <c r="C137" t="n">
-        <v>0.376148</v>
+        <v>0.374456</v>
       </c>
       <c r="D137" t="n">
-        <v>0.242211</v>
+        <v>0.251472</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.275726</v>
+        <v>0.278715</v>
       </c>
       <c r="C138" t="n">
-        <v>0.260319</v>
+        <v>0.258853</v>
       </c>
       <c r="D138" t="n">
-        <v>0.247962</v>
+        <v>0.255441</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.277048</v>
+        <v>0.279769</v>
       </c>
       <c r="C139" t="n">
-        <v>0.261498</v>
+        <v>0.262242</v>
       </c>
       <c r="D139" t="n">
-        <v>0.247139</v>
+        <v>0.257794</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.280934</v>
+        <v>0.282649</v>
       </c>
       <c r="C140" t="n">
-        <v>0.266035</v>
+        <v>0.263565</v>
       </c>
       <c r="D140" t="n">
-        <v>0.251001</v>
+        <v>0.256667</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.282353</v>
+        <v>0.285311</v>
       </c>
       <c r="C141" t="n">
-        <v>0.269261</v>
+        <v>0.268092</v>
       </c>
       <c r="D141" t="n">
-        <v>0.252708</v>
+        <v>0.260946</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.286497</v>
+        <v>0.290233</v>
       </c>
       <c r="C142" t="n">
-        <v>0.273705</v>
+        <v>0.271389</v>
       </c>
       <c r="D142" t="n">
-        <v>0.256008</v>
+        <v>0.262651</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.289942</v>
+        <v>0.293815</v>
       </c>
       <c r="C143" t="n">
-        <v>0.275181</v>
+        <v>0.277395</v>
       </c>
       <c r="D143" t="n">
-        <v>0.254318</v>
+        <v>0.267914</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.102964</v>
+        <v>0.0321236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0985113</v>
+        <v>0.0197396</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0937471</v>
+        <v>0.0269163</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.108837</v>
+        <v>0.0339617</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104407</v>
+        <v>0.0210167</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09513820000000001</v>
+        <v>0.027308</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117054</v>
+        <v>0.0369038</v>
       </c>
       <c r="C4" t="n">
-        <v>0.117091</v>
+        <v>0.0249682</v>
       </c>
       <c r="D4" t="n">
-        <v>0.100029</v>
+        <v>0.0263304</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.132257</v>
+        <v>0.0424687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.133952</v>
+        <v>0.0375745</v>
       </c>
       <c r="D5" t="n">
-        <v>0.10587</v>
+        <v>0.0254942</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147043</v>
+        <v>0.0570943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.150815</v>
+        <v>0.0588723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.110168</v>
+        <v>0.0264811</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.167222</v>
+        <v>0.08003010000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.173213</v>
+        <v>0.0857058</v>
       </c>
       <c r="D7" t="n">
-        <v>0.120199</v>
+        <v>0.0315897</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.203897</v>
+        <v>0.109035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.211159</v>
+        <v>0.115394</v>
       </c>
       <c r="D8" t="n">
-        <v>0.137295</v>
+        <v>0.0467869</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.246875</v>
+        <v>0.149978</v>
       </c>
       <c r="C9" t="n">
-        <v>0.25542</v>
+        <v>0.164519</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0979718</v>
+        <v>0.0265168</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.103551</v>
+        <v>0.0308436</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0964407</v>
+        <v>0.0233851</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09883550000000001</v>
+        <v>0.0267392</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.104834</v>
+        <v>0.0309198</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0975583</v>
+        <v>0.0233759</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09927179999999999</v>
+        <v>0.0267441</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.107075</v>
+        <v>0.0313643</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09998750000000001</v>
+        <v>0.0232431</v>
       </c>
       <c r="D12" t="n">
-        <v>0.100988</v>
+        <v>0.0269718</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.10789</v>
+        <v>0.0319591</v>
       </c>
       <c r="C13" t="n">
-        <v>0.101077</v>
+        <v>0.0233156</v>
       </c>
       <c r="D13" t="n">
-        <v>0.101201</v>
+        <v>0.0271759</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.110915</v>
+        <v>0.0326352</v>
       </c>
       <c r="C14" t="n">
-        <v>0.104734</v>
+        <v>0.023757</v>
       </c>
       <c r="D14" t="n">
-        <v>0.102898</v>
+        <v>0.0273026</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.113595</v>
+        <v>0.0337296</v>
       </c>
       <c r="C15" t="n">
-        <v>0.108182</v>
+        <v>0.0227813</v>
       </c>
       <c r="D15" t="n">
-        <v>0.104018</v>
+        <v>0.0275849</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.117015</v>
+        <v>0.0344909</v>
       </c>
       <c r="C16" t="n">
-        <v>0.112039</v>
+        <v>0.0263162</v>
       </c>
       <c r="D16" t="n">
-        <v>0.105427</v>
+        <v>0.0275022</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.12124</v>
+        <v>0.0371767</v>
       </c>
       <c r="C17" t="n">
-        <v>0.11852</v>
+        <v>0.0313232</v>
       </c>
       <c r="D17" t="n">
-        <v>0.106919</v>
+        <v>0.0280484</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.127206</v>
+        <v>0.0413851</v>
       </c>
       <c r="C18" t="n">
-        <v>0.125199</v>
+        <v>0.0419667</v>
       </c>
       <c r="D18" t="n">
-        <v>0.109233</v>
+        <v>0.0277178</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.136169</v>
+        <v>0.0482893</v>
       </c>
       <c r="C19" t="n">
-        <v>0.135615</v>
+        <v>0.0529505</v>
       </c>
       <c r="D19" t="n">
-        <v>0.113389</v>
+        <v>0.0277742</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.148646</v>
+        <v>0.0599626</v>
       </c>
       <c r="C20" t="n">
-        <v>0.149302</v>
+        <v>0.0664849</v>
       </c>
       <c r="D20" t="n">
-        <v>0.117409</v>
+        <v>0.0299966</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.166871</v>
+        <v>0.0785888</v>
       </c>
       <c r="C21" t="n">
-        <v>0.171766</v>
+        <v>0.0872189</v>
       </c>
       <c r="D21" t="n">
-        <v>0.125569</v>
+        <v>0.0410011</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.197054</v>
+        <v>0.107709</v>
       </c>
       <c r="C22" t="n">
-        <v>0.204517</v>
+        <v>0.115175</v>
       </c>
       <c r="D22" t="n">
-        <v>0.13918</v>
+        <v>0.0552757</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.24337</v>
+        <v>0.140631</v>
       </c>
       <c r="C23" t="n">
-        <v>0.250484</v>
+        <v>0.161186</v>
       </c>
       <c r="D23" t="n">
-        <v>0.103974</v>
+        <v>0.0275884</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.109557</v>
+        <v>0.0323103</v>
       </c>
       <c r="C24" t="n">
-        <v>0.103321</v>
+        <v>0.0252684</v>
       </c>
       <c r="D24" t="n">
-        <v>0.104859</v>
+        <v>0.0278092</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.110253</v>
+        <v>0.0329741</v>
       </c>
       <c r="C25" t="n">
-        <v>0.103916</v>
+        <v>0.0256563</v>
       </c>
       <c r="D25" t="n">
-        <v>0.104825</v>
+        <v>0.0280123</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.111137</v>
+        <v>0.0334879</v>
       </c>
       <c r="C26" t="n">
-        <v>0.104943</v>
+        <v>0.0260509</v>
       </c>
       <c r="D26" t="n">
-        <v>0.105353</v>
+        <v>0.028311</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.11224</v>
+        <v>0.0341085</v>
       </c>
       <c r="C27" t="n">
-        <v>0.106394</v>
+        <v>0.0271916</v>
       </c>
       <c r="D27" t="n">
-        <v>0.105747</v>
+        <v>0.0285959</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.114014</v>
+        <v>0.035159</v>
       </c>
       <c r="C28" t="n">
-        <v>0.108823</v>
+        <v>0.0277461</v>
       </c>
       <c r="D28" t="n">
-        <v>0.106877</v>
+        <v>0.0290075</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.115615</v>
+        <v>0.0365436</v>
       </c>
       <c r="C29" t="n">
-        <v>0.111676</v>
+        <v>0.0296308</v>
       </c>
       <c r="D29" t="n">
-        <v>0.107583</v>
+        <v>0.0291937</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118128</v>
+        <v>0.0389109</v>
       </c>
       <c r="C30" t="n">
-        <v>0.115262</v>
+        <v>0.0350424</v>
       </c>
       <c r="D30" t="n">
-        <v>0.10851</v>
+        <v>0.0294651</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.121593</v>
+        <v>0.0422454</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12009</v>
+        <v>0.0399201</v>
       </c>
       <c r="D31" t="n">
-        <v>0.109716</v>
+        <v>0.0302723</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.126831</v>
+        <v>0.0468422</v>
       </c>
       <c r="C32" t="n">
-        <v>0.126267</v>
+        <v>0.0470248</v>
       </c>
       <c r="D32" t="n">
-        <v>0.111877</v>
+        <v>0.0307706</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.134967</v>
+        <v>0.0542247</v>
       </c>
       <c r="C33" t="n">
-        <v>0.134695</v>
+        <v>0.0556217</v>
       </c>
       <c r="D33" t="n">
-        <v>0.114418</v>
+        <v>0.0322999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.146275</v>
+        <v>0.0641523</v>
       </c>
       <c r="C34" t="n">
-        <v>0.147447</v>
+        <v>0.06654690000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.118219</v>
+        <v>0.0378025</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.163162</v>
+        <v>0.07753740000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.166123</v>
+        <v>0.08118640000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.124461</v>
+        <v>0.0455912</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.186425</v>
+        <v>0.0972338</v>
       </c>
       <c r="C36" t="n">
-        <v>0.195064</v>
+        <v>0.110434</v>
       </c>
       <c r="D36" t="n">
-        <v>0.13511</v>
+        <v>0.0567998</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.229789</v>
+        <v>0.13211</v>
       </c>
       <c r="C37" t="n">
-        <v>0.239668</v>
+        <v>0.152521</v>
       </c>
       <c r="D37" t="n">
-        <v>0.106005</v>
+        <v>0.028556</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.110618</v>
+        <v>0.0331309</v>
       </c>
       <c r="C38" t="n">
-        <v>0.104466</v>
+        <v>0.0278899</v>
       </c>
       <c r="D38" t="n">
-        <v>0.106411</v>
+        <v>0.0288532</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.112016</v>
+        <v>0.0339527</v>
       </c>
       <c r="C39" t="n">
-        <v>0.105539</v>
+        <v>0.0285809</v>
       </c>
       <c r="D39" t="n">
-        <v>0.106926</v>
+        <v>0.0291162</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.112724</v>
+        <v>0.0346307</v>
       </c>
       <c r="C40" t="n">
-        <v>0.106641</v>
+        <v>0.0294545</v>
       </c>
       <c r="D40" t="n">
-        <v>0.107105</v>
+        <v>0.0292838</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.113916</v>
+        <v>0.035409</v>
       </c>
       <c r="C41" t="n">
-        <v>0.107885</v>
+        <v>0.0305874</v>
       </c>
       <c r="D41" t="n">
-        <v>0.10745</v>
+        <v>0.0296333</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115203</v>
+        <v>0.0365121</v>
       </c>
       <c r="C42" t="n">
-        <v>0.109491</v>
+        <v>0.0323867</v>
       </c>
       <c r="D42" t="n">
-        <v>0.108104</v>
+        <v>0.0300382</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116653</v>
+        <v>0.0378833</v>
       </c>
       <c r="C43" t="n">
-        <v>0.111841</v>
+        <v>0.0349255</v>
       </c>
       <c r="D43" t="n">
-        <v>0.108797</v>
+        <v>0.0305707</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.118909</v>
+        <v>0.0400956</v>
       </c>
       <c r="C44" t="n">
-        <v>0.115181</v>
+        <v>0.0378229</v>
       </c>
       <c r="D44" t="n">
-        <v>0.109718</v>
+        <v>0.0312789</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.121978</v>
+        <v>0.0429392</v>
       </c>
       <c r="C45" t="n">
-        <v>0.119016</v>
+        <v>0.0422109</v>
       </c>
       <c r="D45" t="n">
-        <v>0.110829</v>
+        <v>0.0321903</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.12679</v>
+        <v>0.0468033</v>
       </c>
       <c r="C46" t="n">
-        <v>0.125693</v>
+        <v>0.0478438</v>
       </c>
       <c r="D46" t="n">
-        <v>0.112617</v>
+        <v>0.033891</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.132893</v>
+        <v>0.0526496</v>
       </c>
       <c r="C47" t="n">
-        <v>0.134073</v>
+        <v>0.0544879</v>
       </c>
       <c r="D47" t="n">
-        <v>0.115077</v>
+        <v>0.0363922</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.142871</v>
+        <v>0.0612233</v>
       </c>
       <c r="C48" t="n">
-        <v>0.145697</v>
+        <v>0.0644985</v>
       </c>
       <c r="D48" t="n">
-        <v>0.118951</v>
+        <v>0.0404873</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.156545</v>
+        <v>0.0738665</v>
       </c>
       <c r="C49" t="n">
-        <v>0.162567</v>
+        <v>0.0800641</v>
       </c>
       <c r="D49" t="n">
-        <v>0.124758</v>
+        <v>0.0459605</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.177533</v>
+        <v>0.09281159999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.188497</v>
+        <v>0.10252</v>
       </c>
       <c r="D50" t="n">
-        <v>0.134044</v>
+        <v>0.0543846</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.21063</v>
+        <v>0.121437</v>
       </c>
       <c r="C51" t="n">
-        <v>0.224242</v>
+        <v>0.139603</v>
       </c>
       <c r="D51" t="n">
-        <v>0.107275</v>
+        <v>0.0314201</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.263669</v>
+        <v>0.165872</v>
       </c>
       <c r="C52" t="n">
-        <v>0.281554</v>
+        <v>0.188744</v>
       </c>
       <c r="D52" t="n">
-        <v>0.107722</v>
+        <v>0.0312001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.113443</v>
+        <v>0.0360263</v>
       </c>
       <c r="C53" t="n">
-        <v>0.106611</v>
+        <v>0.031447</v>
       </c>
       <c r="D53" t="n">
-        <v>0.107961</v>
+        <v>0.0314821</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.114464</v>
+        <v>0.0366417</v>
       </c>
       <c r="C54" t="n">
-        <v>0.107597</v>
+        <v>0.0323609</v>
       </c>
       <c r="D54" t="n">
-        <v>0.108318</v>
+        <v>0.0318573</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.115633</v>
+        <v>0.0375014</v>
       </c>
       <c r="C55" t="n">
-        <v>0.108859</v>
+        <v>0.0335454</v>
       </c>
       <c r="D55" t="n">
-        <v>0.108769</v>
+        <v>0.0321798</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116967</v>
+        <v>0.0385896</v>
       </c>
       <c r="C56" t="n">
-        <v>0.110663</v>
+        <v>0.0348788</v>
       </c>
       <c r="D56" t="n">
-        <v>0.109383</v>
+        <v>0.0326076</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.118568</v>
+        <v>0.0400209</v>
       </c>
       <c r="C57" t="n">
-        <v>0.112952</v>
+        <v>0.0367678</v>
       </c>
       <c r="D57" t="n">
-        <v>0.110039</v>
+        <v>0.03324</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.120803</v>
+        <v>0.0417886</v>
       </c>
       <c r="C58" t="n">
-        <v>0.115831</v>
+        <v>0.0393265</v>
       </c>
       <c r="D58" t="n">
-        <v>0.110906</v>
+        <v>0.0340453</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.123587</v>
+        <v>0.044384</v>
       </c>
       <c r="C59" t="n">
-        <v>0.119853</v>
+        <v>0.0422706</v>
       </c>
       <c r="D59" t="n">
-        <v>0.112019</v>
+        <v>0.0350796</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127477</v>
+        <v>0.0478542</v>
       </c>
       <c r="C60" t="n">
-        <v>0.125903</v>
+        <v>0.0466853</v>
       </c>
       <c r="D60" t="n">
-        <v>0.113866</v>
+        <v>0.0364456</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.133464</v>
+        <v>0.0532074</v>
       </c>
       <c r="C61" t="n">
-        <v>0.133461</v>
+        <v>0.053455</v>
       </c>
       <c r="D61" t="n">
-        <v>0.116335</v>
+        <v>0.0385847</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.14204</v>
+        <v>0.0609101</v>
       </c>
       <c r="C62" t="n">
-        <v>0.144534</v>
+        <v>0.0628026</v>
       </c>
       <c r="D62" t="n">
-        <v>0.119641</v>
+        <v>0.0416985</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.155154</v>
+        <v>0.0722067</v>
       </c>
       <c r="C63" t="n">
-        <v>0.15986</v>
+        <v>0.07664990000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.124753</v>
+        <v>0.0466059</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.174386</v>
+        <v>0.08973200000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.182694</v>
+        <v>0.09685530000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.133411</v>
+        <v>0.0543621</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.204911</v>
+        <v>0.117784</v>
       </c>
       <c r="C65" t="n">
-        <v>0.219874</v>
+        <v>0.130962</v>
       </c>
       <c r="D65" t="n">
-        <v>0.148377</v>
+        <v>0.067826</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.252132</v>
+        <v>0.157744</v>
       </c>
       <c r="C66" t="n">
-        <v>0.272063</v>
+        <v>0.179871</v>
       </c>
       <c r="D66" t="n">
-        <v>0.115525</v>
+        <v>0.0366295</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121338</v>
+        <v>0.0400388</v>
       </c>
       <c r="C67" t="n">
-        <v>0.113026</v>
+        <v>0.035653</v>
       </c>
       <c r="D67" t="n">
-        <v>0.115797</v>
+        <v>0.0368625</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.122101</v>
+        <v>0.0405172</v>
       </c>
       <c r="C68" t="n">
-        <v>0.113969</v>
+        <v>0.0364729</v>
       </c>
       <c r="D68" t="n">
-        <v>0.116236</v>
+        <v>0.0372386</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.123099</v>
+        <v>0.0413063</v>
       </c>
       <c r="C69" t="n">
-        <v>0.115218</v>
+        <v>0.0375233</v>
       </c>
       <c r="D69" t="n">
-        <v>0.116665</v>
+        <v>0.0377043</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.124148</v>
+        <v>0.0424556</v>
       </c>
       <c r="C70" t="n">
-        <v>0.116637</v>
+        <v>0.038691</v>
       </c>
       <c r="D70" t="n">
-        <v>0.117162</v>
+        <v>0.0381609</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.125684</v>
+        <v>0.0437534</v>
       </c>
       <c r="C71" t="n">
-        <v>0.118566</v>
+        <v>0.040106</v>
       </c>
       <c r="D71" t="n">
-        <v>0.117772</v>
+        <v>0.0387322</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.127607</v>
+        <v>0.0454444</v>
       </c>
       <c r="C72" t="n">
-        <v>0.121089</v>
+        <v>0.0421919</v>
       </c>
       <c r="D72" t="n">
-        <v>0.118622</v>
+        <v>0.0394453</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.130209</v>
+        <v>0.0476782</v>
       </c>
       <c r="C73" t="n">
-        <v>0.124698</v>
+        <v>0.0450722</v>
       </c>
       <c r="D73" t="n">
-        <v>0.119722</v>
+        <v>0.0403747</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.133973</v>
+        <v>0.0509159</v>
       </c>
       <c r="C74" t="n">
-        <v>0.129686</v>
+        <v>0.0491508</v>
       </c>
       <c r="D74" t="n">
-        <v>0.121218</v>
+        <v>0.0416018</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.139187</v>
+        <v>0.0554535</v>
       </c>
       <c r="C75" t="n">
-        <v>0.136245</v>
+        <v>0.0552287</v>
       </c>
       <c r="D75" t="n">
-        <v>0.123276</v>
+        <v>0.0434531</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.147216</v>
+        <v>0.0620364</v>
       </c>
       <c r="C76" t="n">
-        <v>0.146551</v>
+        <v>0.0636617</v>
       </c>
       <c r="D76" t="n">
-        <v>0.126476</v>
+        <v>0.0460808</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.158797</v>
+        <v>0.072043</v>
       </c>
       <c r="C77" t="n">
-        <v>0.16073</v>
+        <v>0.0760946</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1313</v>
+        <v>0.0502187</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.176057</v>
+        <v>0.0878014</v>
       </c>
       <c r="C78" t="n">
-        <v>0.181322</v>
+        <v>0.0935844</v>
       </c>
       <c r="D78" t="n">
-        <v>0.138981</v>
+        <v>0.0567421</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.203</v>
+        <v>0.111545</v>
       </c>
       <c r="C79" t="n">
-        <v>0.213395</v>
+        <v>0.122351</v>
       </c>
       <c r="D79" t="n">
-        <v>0.152034</v>
+        <v>0.0681249</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.245331</v>
+        <v>0.150763</v>
       </c>
       <c r="C80" t="n">
-        <v>0.263096</v>
+        <v>0.167647</v>
       </c>
       <c r="D80" t="n">
-        <v>0.12287</v>
+        <v>0.04053</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.128573</v>
+        <v>0.0446422</v>
       </c>
       <c r="C81" t="n">
-        <v>0.119377</v>
+        <v>0.0395278</v>
       </c>
       <c r="D81" t="n">
-        <v>0.123203</v>
+        <v>0.0408785</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.129335</v>
+        <v>0.0453352</v>
       </c>
       <c r="C82" t="n">
-        <v>0.120316</v>
+        <v>0.0403804</v>
       </c>
       <c r="D82" t="n">
-        <v>0.123606</v>
+        <v>0.0412859</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.130373</v>
+        <v>0.0462031</v>
       </c>
       <c r="C83" t="n">
-        <v>0.121437</v>
+        <v>0.0413673</v>
       </c>
       <c r="D83" t="n">
-        <v>0.124012</v>
+        <v>0.0417431</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.131455</v>
+        <v>0.0473809</v>
       </c>
       <c r="C84" t="n">
-        <v>0.122656</v>
+        <v>0.042716</v>
       </c>
       <c r="D84" t="n">
-        <v>0.124595</v>
+        <v>0.0422631</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.132933</v>
+        <v>0.0486733</v>
       </c>
       <c r="C85" t="n">
-        <v>0.124476</v>
+        <v>0.0444059</v>
       </c>
       <c r="D85" t="n">
-        <v>0.12529</v>
+        <v>0.0428571</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.13479</v>
+        <v>0.0504862</v>
       </c>
       <c r="C86" t="n">
-        <v>0.126947</v>
+        <v>0.046562</v>
       </c>
       <c r="D86" t="n">
-        <v>0.125985</v>
+        <v>0.0436024</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.137108</v>
+        <v>0.0531178</v>
       </c>
       <c r="C87" t="n">
-        <v>0.130296</v>
+        <v>0.0496524</v>
       </c>
       <c r="D87" t="n">
-        <v>0.127061</v>
+        <v>0.0445083</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.140445</v>
+        <v>0.0563398</v>
       </c>
       <c r="C88" t="n">
-        <v>0.13483</v>
+        <v>0.0540741</v>
       </c>
       <c r="D88" t="n">
-        <v>0.128461</v>
+        <v>0.0458035</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.145243</v>
+        <v>0.0612518</v>
       </c>
       <c r="C89" t="n">
-        <v>0.141353</v>
+        <v>0.0601862</v>
       </c>
       <c r="D89" t="n">
-        <v>0.13055</v>
+        <v>0.0476387</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.15231</v>
+        <v>0.06828969999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.15058</v>
+        <v>0.0690337</v>
       </c>
       <c r="D90" t="n">
-        <v>0.133445</v>
+        <v>0.0506487</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.162853</v>
+        <v>0.0781526</v>
       </c>
       <c r="C91" t="n">
-        <v>0.16357</v>
+        <v>0.0807621</v>
       </c>
       <c r="D91" t="n">
-        <v>0.137887</v>
+        <v>0.0549682</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.178005</v>
+        <v>0.0924649</v>
       </c>
       <c r="C92" t="n">
-        <v>0.182489</v>
+        <v>0.09764780000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145024</v>
+        <v>0.0616811</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.202466</v>
+        <v>0.114454</v>
       </c>
       <c r="C93" t="n">
-        <v>0.212463</v>
+        <v>0.123969</v>
       </c>
       <c r="D93" t="n">
-        <v>0.156921</v>
+        <v>0.0731924</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.24141</v>
+        <v>0.149937</v>
       </c>
       <c r="C94" t="n">
-        <v>0.257369</v>
+        <v>0.1649</v>
       </c>
       <c r="D94" t="n">
-        <v>0.127882</v>
+        <v>0.0443711</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.13377</v>
+        <v>0.054485</v>
       </c>
       <c r="C95" t="n">
-        <v>0.124191</v>
+        <v>0.0500732</v>
       </c>
       <c r="D95" t="n">
-        <v>0.128223</v>
+        <v>0.0452772</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.134777</v>
+        <v>0.0572993</v>
       </c>
       <c r="C96" t="n">
-        <v>0.125233</v>
+        <v>0.0530723</v>
       </c>
       <c r="D96" t="n">
-        <v>0.128637</v>
+        <v>0.0466682</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.135882</v>
+        <v>0.0607895</v>
       </c>
       <c r="C97" t="n">
-        <v>0.126404</v>
+        <v>0.0565032</v>
       </c>
       <c r="D97" t="n">
-        <v>0.12909</v>
+        <v>0.0482075</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137041</v>
+        <v>0.0648671</v>
       </c>
       <c r="C98" t="n">
-        <v>0.127862</v>
+        <v>0.0606144</v>
       </c>
       <c r="D98" t="n">
-        <v>0.129673</v>
+        <v>0.0502337</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.138639</v>
+        <v>0.0691007</v>
       </c>
       <c r="C99" t="n">
-        <v>0.129754</v>
+        <v>0.065053</v>
       </c>
       <c r="D99" t="n">
-        <v>0.130399</v>
+        <v>0.0526778</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.14068</v>
+        <v>0.07376099999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.132288</v>
+        <v>0.0696338</v>
       </c>
       <c r="D100" t="n">
-        <v>0.131308</v>
+        <v>0.0552917</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.143282</v>
+        <v>0.0787902</v>
       </c>
       <c r="C101" t="n">
-        <v>0.135777</v>
+        <v>0.07492699999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.13243</v>
+        <v>0.05849</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.147027</v>
+        <v>0.08439049999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.140628</v>
+        <v>0.0811302</v>
       </c>
       <c r="D102" t="n">
-        <v>0.133833</v>
+        <v>0.0621537</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.152344</v>
+        <v>0.09114609999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.147301</v>
+        <v>0.0883072</v>
       </c>
       <c r="D103" t="n">
-        <v>0.135893</v>
+        <v>0.0662818</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.159915</v>
+        <v>0.0987972</v>
       </c>
       <c r="C104" t="n">
-        <v>0.156732</v>
+        <v>0.09721150000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.138805</v>
+        <v>0.0714239</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.171052</v>
+        <v>0.10856</v>
       </c>
       <c r="C105" t="n">
-        <v>0.170072</v>
+        <v>0.107307</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1432</v>
+        <v>0.0774257</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.187217</v>
+        <v>0.121249</v>
       </c>
       <c r="C106" t="n">
-        <v>0.189144</v>
+        <v>0.121769</v>
       </c>
       <c r="D106" t="n">
-        <v>0.149918</v>
+        <v>0.08577899999999999</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.210982</v>
+        <v>0.139482</v>
       </c>
       <c r="C107" t="n">
-        <v>0.217668</v>
+        <v>0.143049</v>
       </c>
       <c r="D107" t="n">
-        <v>0.160841</v>
+        <v>0.0969998</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.247831</v>
+        <v>0.167201</v>
       </c>
       <c r="C108" t="n">
-        <v>0.261866</v>
+        <v>0.178309</v>
       </c>
       <c r="D108" t="n">
-        <v>0.130988</v>
+        <v>0.0640961</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.305755</v>
+        <v>0.209835</v>
       </c>
       <c r="C109" t="n">
-        <v>0.325201</v>
+        <v>0.23689</v>
       </c>
       <c r="D109" t="n">
-        <v>0.131332</v>
+        <v>0.06602280000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.149111</v>
+        <v>0.08737929999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.139136</v>
+        <v>0.0804183</v>
       </c>
       <c r="D110" t="n">
-        <v>0.132353</v>
+        <v>0.06804250000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.152039</v>
+        <v>0.0899406</v>
       </c>
       <c r="C111" t="n">
-        <v>0.142817</v>
+        <v>0.0827615</v>
       </c>
       <c r="D111" t="n">
-        <v>0.132982</v>
+        <v>0.07001400000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.157665</v>
+        <v>0.0924329</v>
       </c>
       <c r="C112" t="n">
-        <v>0.147913</v>
+        <v>0.08543439999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.134331</v>
+        <v>0.07204290000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.162265</v>
+        <v>0.0951718</v>
       </c>
       <c r="C113" t="n">
-        <v>0.152583</v>
+        <v>0.0882867</v>
       </c>
       <c r="D113" t="n">
-        <v>0.135391</v>
+        <v>0.07397960000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.167855</v>
+        <v>0.0982635</v>
       </c>
       <c r="C114" t="n">
-        <v>0.159214</v>
+        <v>0.091534</v>
       </c>
       <c r="D114" t="n">
-        <v>0.137684</v>
+        <v>0.0762079</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.173883</v>
+        <v>0.101475</v>
       </c>
       <c r="C115" t="n">
-        <v>0.16532</v>
+        <v>0.0954749</v>
       </c>
       <c r="D115" t="n">
-        <v>0.139885</v>
+        <v>0.0783378</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.180978</v>
+        <v>0.106144</v>
       </c>
       <c r="C116" t="n">
-        <v>0.173179</v>
+        <v>0.10059</v>
       </c>
       <c r="D116" t="n">
-        <v>0.14301</v>
+        <v>0.0810757</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.188629</v>
+        <v>0.111355</v>
       </c>
       <c r="C117" t="n">
-        <v>0.182521</v>
+        <v>0.106708</v>
       </c>
       <c r="D117" t="n">
-        <v>0.147003</v>
+        <v>0.08411159999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.19849</v>
+        <v>0.117731</v>
       </c>
       <c r="C118" t="n">
-        <v>0.193552</v>
+        <v>0.114762</v>
       </c>
       <c r="D118" t="n">
-        <v>0.152603</v>
+        <v>0.088218</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.210295</v>
+        <v>0.126504</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208032</v>
+        <v>0.124636</v>
       </c>
       <c r="D119" t="n">
-        <v>0.159774</v>
+        <v>0.0932988</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.22676</v>
+        <v>0.138597</v>
       </c>
       <c r="C120" t="n">
-        <v>0.226657</v>
+        <v>0.138455</v>
       </c>
       <c r="D120" t="n">
-        <v>0.169616</v>
+        <v>0.100513</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.249628</v>
+        <v>0.155354</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253867</v>
+        <v>0.158612</v>
       </c>
       <c r="D121" t="n">
-        <v>0.183655</v>
+        <v>0.111037</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.283133</v>
+        <v>0.18057</v>
       </c>
       <c r="C122" t="n">
-        <v>0.294548</v>
+        <v>0.190657</v>
       </c>
       <c r="D122" t="n">
-        <v>0.205987</v>
+        <v>0.128031</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.335687</v>
+        <v>0.220276</v>
       </c>
       <c r="C123" t="n">
-        <v>0.356432</v>
+        <v>0.244638</v>
       </c>
       <c r="D123" t="n">
-        <v>0.153534</v>
+        <v>0.0812645</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.189449</v>
+        <v>0.100432</v>
       </c>
       <c r="C124" t="n">
-        <v>0.176678</v>
+        <v>0.0944817</v>
       </c>
       <c r="D124" t="n">
-        <v>0.156823</v>
+        <v>0.0809792</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.19425</v>
+        <v>0.104517</v>
       </c>
       <c r="C125" t="n">
-        <v>0.179661</v>
+        <v>0.0974381</v>
       </c>
       <c r="D125" t="n">
-        <v>0.159248</v>
+        <v>0.0831504</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.194466</v>
+        <v>0.103969</v>
       </c>
       <c r="C126" t="n">
-        <v>0.183007</v>
+        <v>0.0998931</v>
       </c>
       <c r="D126" t="n">
-        <v>0.162101</v>
+        <v>0.0854896</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.199782</v>
+        <v>0.107835</v>
       </c>
       <c r="C127" t="n">
-        <v>0.187649</v>
+        <v>0.101341</v>
       </c>
       <c r="D127" t="n">
-        <v>0.165614</v>
+        <v>0.0847643</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.205147</v>
+        <v>0.110814</v>
       </c>
       <c r="C128" t="n">
-        <v>0.190807</v>
+        <v>0.105044</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1678</v>
+        <v>0.0874481</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.208418</v>
+        <v>0.116359</v>
       </c>
       <c r="C129" t="n">
-        <v>0.196387</v>
+        <v>0.110105</v>
       </c>
       <c r="D129" t="n">
-        <v>0.171122</v>
+        <v>0.0916723</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.212098</v>
+        <v>0.118389</v>
       </c>
       <c r="C130" t="n">
-        <v>0.203184</v>
+        <v>0.113892</v>
       </c>
       <c r="D130" t="n">
-        <v>0.17533</v>
+        <v>0.092376</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.217925</v>
+        <v>0.123609</v>
       </c>
       <c r="C131" t="n">
-        <v>0.210065</v>
+        <v>0.119551</v>
       </c>
       <c r="D131" t="n">
-        <v>0.178205</v>
+        <v>0.0949234</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.22824</v>
+        <v>0.131627</v>
       </c>
       <c r="C132" t="n">
-        <v>0.219894</v>
+        <v>0.127414</v>
       </c>
       <c r="D132" t="n">
-        <v>0.183326</v>
+        <v>0.0989935</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.238882</v>
+        <v>0.136864</v>
       </c>
       <c r="C133" t="n">
-        <v>0.233021</v>
+        <v>0.138151</v>
       </c>
       <c r="D133" t="n">
-        <v>0.189265</v>
+        <v>0.104941</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.253668</v>
+        <v>0.149674</v>
       </c>
       <c r="C134" t="n">
-        <v>0.252172</v>
+        <v>0.152403</v>
       </c>
       <c r="D134" t="n">
-        <v>0.198551</v>
+        <v>0.112106</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.273358</v>
+        <v>0.165158</v>
       </c>
       <c r="C135" t="n">
-        <v>0.276479</v>
+        <v>0.171108</v>
       </c>
       <c r="D135" t="n">
-        <v>0.20982</v>
+        <v>0.121119</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.305752</v>
+        <v>0.190894</v>
       </c>
       <c r="C136" t="n">
-        <v>0.313105</v>
+        <v>0.202833</v>
       </c>
       <c r="D136" t="n">
-        <v>0.22734</v>
+        <v>0.13899</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.354588</v>
+        <v>0.228036</v>
       </c>
       <c r="C137" t="n">
-        <v>0.374456</v>
+        <v>0.251298</v>
       </c>
       <c r="D137" t="n">
-        <v>0.251472</v>
+        <v>0.154209</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.278715</v>
+        <v>0.162152</v>
       </c>
       <c r="C138" t="n">
-        <v>0.258853</v>
+        <v>0.148844</v>
       </c>
       <c r="D138" t="n">
-        <v>0.255441</v>
+        <v>0.155706</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.279769</v>
+        <v>0.164322</v>
       </c>
       <c r="C139" t="n">
-        <v>0.262242</v>
+        <v>0.150353</v>
       </c>
       <c r="D139" t="n">
-        <v>0.257794</v>
+        <v>0.156406</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.282649</v>
+        <v>0.164637</v>
       </c>
       <c r="C140" t="n">
-        <v>0.263565</v>
+        <v>0.153671</v>
       </c>
       <c r="D140" t="n">
-        <v>0.256667</v>
+        <v>0.15978</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.285311</v>
+        <v>0.167054</v>
       </c>
       <c r="C141" t="n">
-        <v>0.268092</v>
+        <v>0.155729</v>
       </c>
       <c r="D141" t="n">
-        <v>0.260946</v>
+        <v>0.160617</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.290233</v>
+        <v>0.169479</v>
       </c>
       <c r="C142" t="n">
-        <v>0.271389</v>
+        <v>0.157697</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262651</v>
+        <v>0.16046</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.293815</v>
+        <v>0.172627</v>
       </c>
       <c r="C143" t="n">
-        <v>0.277395</v>
+        <v>0.161238</v>
       </c>
       <c r="D143" t="n">
-        <v>0.267914</v>
+        <v>0.162574</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0321236</v>
+        <v>0.0322678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0197396</v>
+        <v>0.0200546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0269163</v>
+        <v>0.0270577</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0339617</v>
+        <v>0.0333155</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0210167</v>
+        <v>0.021298</v>
       </c>
       <c r="D3" t="n">
-        <v>0.027308</v>
+        <v>0.0270447</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0369038</v>
+        <v>0.0361651</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0249682</v>
+        <v>0.0247265</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0263304</v>
+        <v>0.0270552</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0424687</v>
+        <v>0.0417017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0375745</v>
+        <v>0.0381909</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0254942</v>
+        <v>0.026391</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0570943</v>
+        <v>0.0557614</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0588723</v>
+        <v>0.0584424</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0264811</v>
+        <v>0.0275612</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08003010000000001</v>
+        <v>0.0765034</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0857058</v>
+        <v>0.0862113</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0315897</v>
+        <v>0.031546</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.109035</v>
+        <v>0.106965</v>
       </c>
       <c r="C8" t="n">
-        <v>0.115394</v>
+        <v>0.11692</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0467869</v>
+        <v>0.0481009</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149978</v>
+        <v>0.14904</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164519</v>
+        <v>0.165562</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0265168</v>
+        <v>0.0267113</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0308436</v>
+        <v>0.0307229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0233851</v>
+        <v>0.02381</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0267392</v>
+        <v>0.0268497</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0309198</v>
+        <v>0.0314128</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0233759</v>
+        <v>0.023849</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0267441</v>
+        <v>0.0270936</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313643</v>
+        <v>0.0317475</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0232431</v>
+        <v>0.0242833</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0269718</v>
+        <v>0.0272623</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0319591</v>
+        <v>0.0324228</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0233156</v>
+        <v>0.0242879</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0271759</v>
+        <v>0.027476</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0326352</v>
+        <v>0.0330699</v>
       </c>
       <c r="C14" t="n">
-        <v>0.023757</v>
+        <v>0.0248155</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0273026</v>
+        <v>0.0276819</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0337296</v>
+        <v>0.0342775</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0227813</v>
+        <v>0.0244603</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0275849</v>
+        <v>0.0280534</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0344909</v>
+        <v>0.0352408</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0263162</v>
+        <v>0.0272835</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0275022</v>
+        <v>0.0282643</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0371767</v>
+        <v>0.0381647</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0313232</v>
+        <v>0.0325871</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0280484</v>
+        <v>0.0286135</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0413851</v>
+        <v>0.0418045</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0419667</v>
+        <v>0.0431025</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0277178</v>
+        <v>0.0291888</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0482893</v>
+        <v>0.0499973</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0529505</v>
+        <v>0.0537113</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0277742</v>
+        <v>0.029389</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0599626</v>
+        <v>0.0604781</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0664849</v>
+        <v>0.0669054</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0299966</v>
+        <v>0.032039</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0785888</v>
+        <v>0.0775604</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0872189</v>
+        <v>0.08830789999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0410011</v>
+        <v>0.0419185</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.107709</v>
+        <v>0.100705</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115175</v>
+        <v>0.116699</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0552757</v>
+        <v>0.0560964</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140631</v>
+        <v>0.139144</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161186</v>
+        <v>0.163077</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0275884</v>
+        <v>0.0276535</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0323103</v>
+        <v>0.0320393</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0252684</v>
+        <v>0.0249474</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0278092</v>
+        <v>0.0281307</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0329741</v>
+        <v>0.0325887</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0256563</v>
+        <v>0.0254779</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0280123</v>
+        <v>0.0282944</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0334879</v>
+        <v>0.0334842</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0260509</v>
+        <v>0.0262898</v>
       </c>
       <c r="D26" t="n">
-        <v>0.028311</v>
+        <v>0.0285183</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0341085</v>
+        <v>0.0342719</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0271916</v>
+        <v>0.0271061</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0285959</v>
+        <v>0.0290701</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.035159</v>
+        <v>0.0351402</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0277461</v>
+        <v>0.0276603</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0290075</v>
+        <v>0.0293261</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0365436</v>
+        <v>0.0365486</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0296308</v>
+        <v>0.0308004</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0291937</v>
+        <v>0.0295592</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0389109</v>
+        <v>0.0388065</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0350424</v>
+        <v>0.0349229</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0294651</v>
+        <v>0.0300779</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0422454</v>
+        <v>0.0418429</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0399201</v>
+        <v>0.0402106</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0302723</v>
+        <v>0.030799</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0468422</v>
+        <v>0.0464954</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0470248</v>
+        <v>0.0475104</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0307706</v>
+        <v>0.0317184</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0542247</v>
+        <v>0.0527481</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0556217</v>
+        <v>0.0560062</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0322999</v>
+        <v>0.033719</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0641523</v>
+        <v>0.06333510000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06654690000000001</v>
+        <v>0.0670042</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0378025</v>
+        <v>0.0382891</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07753740000000001</v>
+        <v>0.0771231</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08118640000000001</v>
+        <v>0.0820767</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0455912</v>
+        <v>0.0457331</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0972338</v>
+        <v>0.097705</v>
       </c>
       <c r="C36" t="n">
-        <v>0.110434</v>
+        <v>0.111532</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0567998</v>
+        <v>0.05717</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.13211</v>
+        <v>0.13097</v>
       </c>
       <c r="C37" t="n">
-        <v>0.152521</v>
+        <v>0.154826</v>
       </c>
       <c r="D37" t="n">
-        <v>0.028556</v>
+        <v>0.0294638</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0331309</v>
+        <v>0.0332456</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0278899</v>
+        <v>0.0283814</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0288532</v>
+        <v>0.030118</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339527</v>
+        <v>0.03382</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0285809</v>
+        <v>0.029034</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0291162</v>
+        <v>0.0294982</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0346307</v>
+        <v>0.0344824</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0294545</v>
+        <v>0.0301527</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0292838</v>
+        <v>0.0298025</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.035409</v>
+        <v>0.0352359</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0305874</v>
+        <v>0.0312775</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0296333</v>
+        <v>0.0301653</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0365121</v>
+        <v>0.0362935</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0323867</v>
+        <v>0.0330654</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0300382</v>
+        <v>0.0307258</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0378833</v>
+        <v>0.0375445</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0349255</v>
+        <v>0.0357262</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0305707</v>
+        <v>0.0313763</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0400956</v>
+        <v>0.039619</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0378229</v>
+        <v>0.0385082</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0312789</v>
+        <v>0.0319311</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0429392</v>
+        <v>0.0425618</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0422109</v>
+        <v>0.0428063</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0321903</v>
+        <v>0.0330158</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0468033</v>
+        <v>0.0468675</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0478438</v>
+        <v>0.0487768</v>
       </c>
       <c r="D46" t="n">
-        <v>0.033891</v>
+        <v>0.0344087</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0526496</v>
+        <v>0.0527038</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0544879</v>
+        <v>0.0549597</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0363922</v>
+        <v>0.037177</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0612233</v>
+        <v>0.0605666</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0644985</v>
+        <v>0.0651341</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0404873</v>
+        <v>0.0410107</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0738665</v>
+        <v>0.07351480000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0800641</v>
+        <v>0.0810096</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0459605</v>
+        <v>0.0464721</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09281159999999999</v>
+        <v>0.0907791</v>
       </c>
       <c r="C50" t="n">
-        <v>0.10252</v>
+        <v>0.104136</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0543846</v>
+        <v>0.054773</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.121437</v>
+        <v>0.122032</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139603</v>
+        <v>0.142606</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0314201</v>
+        <v>0.03459</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165872</v>
+        <v>0.167465</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188744</v>
+        <v>0.191032</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0312001</v>
+        <v>0.0351087</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0360263</v>
+        <v>0.0354524</v>
       </c>
       <c r="C53" t="n">
-        <v>0.031447</v>
+        <v>0.0339223</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0314821</v>
+        <v>0.0357363</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0366417</v>
+        <v>0.0362741</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0323609</v>
+        <v>0.0347703</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0318573</v>
+        <v>0.0359729</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0375014</v>
+        <v>0.0371895</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0335454</v>
+        <v>0.0359695</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0321798</v>
+        <v>0.0359526</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0385896</v>
+        <v>0.0383245</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0348788</v>
+        <v>0.037139</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0326076</v>
+        <v>0.0362514</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0400209</v>
+        <v>0.039772</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0367678</v>
+        <v>0.0390265</v>
       </c>
       <c r="D57" t="n">
-        <v>0.03324</v>
+        <v>0.0365871</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0417886</v>
+        <v>0.0416802</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0393265</v>
+        <v>0.0415181</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0340453</v>
+        <v>0.0374473</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.044384</v>
+        <v>0.0442222</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0422706</v>
+        <v>0.0444597</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0350796</v>
+        <v>0.038519</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0478542</v>
+        <v>0.0478201</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0466853</v>
+        <v>0.0487892</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0364456</v>
+        <v>0.0398153</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0532074</v>
+        <v>0.0531219</v>
       </c>
       <c r="C61" t="n">
-        <v>0.053455</v>
+        <v>0.0555504</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0385847</v>
+        <v>0.0418553</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0609101</v>
+        <v>0.060859</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0628026</v>
+        <v>0.0649221</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0416985</v>
+        <v>0.0448718</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0722067</v>
+        <v>0.0724834</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07664990000000001</v>
+        <v>0.07890949999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0466059</v>
+        <v>0.0497981</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08973200000000001</v>
+        <v>0.0896999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09685530000000001</v>
+        <v>0.0999584</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0543621</v>
+        <v>0.0574994</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117784</v>
+        <v>0.118167</v>
       </c>
       <c r="C65" t="n">
-        <v>0.130962</v>
+        <v>0.135698</v>
       </c>
       <c r="D65" t="n">
-        <v>0.067826</v>
+        <v>0.0711297</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157744</v>
+        <v>0.159194</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179871</v>
+        <v>0.185149</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0366295</v>
+        <v>0.0393856</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0400388</v>
+        <v>0.0411465</v>
       </c>
       <c r="C67" t="n">
-        <v>0.035653</v>
+        <v>0.0383289</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0368625</v>
+        <v>0.0398254</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0405172</v>
+        <v>0.0415427</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0364729</v>
+        <v>0.0392262</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0372386</v>
+        <v>0.0401806</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0413063</v>
+        <v>0.0425779</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0375233</v>
+        <v>0.0402631</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0377043</v>
+        <v>0.0406417</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0424556</v>
+        <v>0.0436219</v>
       </c>
       <c r="C70" t="n">
-        <v>0.038691</v>
+        <v>0.0414629</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0381609</v>
+        <v>0.0411051</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0437534</v>
+        <v>0.0449703</v>
       </c>
       <c r="C71" t="n">
-        <v>0.040106</v>
+        <v>0.042975</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0387322</v>
+        <v>0.0417355</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0454444</v>
+        <v>0.0465019</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0421919</v>
+        <v>0.0451592</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0394453</v>
+        <v>0.0427075</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0476782</v>
+        <v>0.0487239</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0450722</v>
+        <v>0.0482809</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0403747</v>
+        <v>0.0435337</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0509159</v>
+        <v>0.0516996</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0491508</v>
+        <v>0.0525305</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0416018</v>
+        <v>0.0446867</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0554535</v>
+        <v>0.0562562</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0552287</v>
+        <v>0.0586634</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0434531</v>
+        <v>0.0464981</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0620364</v>
+        <v>0.0630642</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0636617</v>
+        <v>0.0675755</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0460808</v>
+        <v>0.0492105</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.072043</v>
+        <v>0.07295840000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0760946</v>
+        <v>0.0803934</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0502187</v>
+        <v>0.0535357</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0878014</v>
+        <v>0.0889842</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0935844</v>
+        <v>0.098686</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0567421</v>
+        <v>0.0607764</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111545</v>
+        <v>0.114123</v>
       </c>
       <c r="C79" t="n">
-        <v>0.122351</v>
+        <v>0.129187</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0681249</v>
+        <v>0.0730456</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.150763</v>
+        <v>0.155024</v>
       </c>
       <c r="C80" t="n">
-        <v>0.167647</v>
+        <v>0.176164</v>
       </c>
       <c r="D80" t="n">
-        <v>0.04053</v>
+        <v>0.0430259</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0446422</v>
+        <v>0.0461402</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0395278</v>
+        <v>0.0426441</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0408785</v>
+        <v>0.0426277</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0453352</v>
+        <v>0.0468543</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0403804</v>
+        <v>0.0449808</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0412859</v>
+        <v>0.0431822</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0462031</v>
+        <v>0.047767</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0413673</v>
+        <v>0.047954</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0417431</v>
+        <v>0.0437178</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0473809</v>
+        <v>0.048895</v>
       </c>
       <c r="C84" t="n">
-        <v>0.042716</v>
+        <v>0.0516782</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0422631</v>
+        <v>0.0441119</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0486733</v>
+        <v>0.0503552</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0444059</v>
+        <v>0.055695</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0428571</v>
+        <v>0.0451364</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0504862</v>
+        <v>0.0525686</v>
       </c>
       <c r="C86" t="n">
-        <v>0.046562</v>
+        <v>0.0597761</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0436024</v>
+        <v>0.0457447</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0531178</v>
+        <v>0.0554759</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0496524</v>
+        <v>0.0651166</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0445083</v>
+        <v>0.0470431</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0563398</v>
+        <v>0.0594002</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0540741</v>
+        <v>0.0718014</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0458035</v>
+        <v>0.05006</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0612518</v>
+        <v>0.0652133</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0601862</v>
+        <v>0.07950169999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0476387</v>
+        <v>0.0544909</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.06828969999999999</v>
+        <v>0.073809</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0690337</v>
+        <v>0.0902665</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0506487</v>
+        <v>0.0596898</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0781526</v>
+        <v>0.08612110000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0807621</v>
+        <v>0.103827</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0549682</v>
+        <v>0.0656856</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0924649</v>
+        <v>0.104303</v>
       </c>
       <c r="C92" t="n">
-        <v>0.09764780000000001</v>
+        <v>0.122494</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0616811</v>
+        <v>0.0746556</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.114454</v>
+        <v>0.130885</v>
       </c>
       <c r="C93" t="n">
-        <v>0.123969</v>
+        <v>0.151266</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0731924</v>
+        <v>0.0878536</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.149937</v>
+        <v>0.171292</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1649</v>
+        <v>0.19409</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0443711</v>
+        <v>0.0512108</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.054485</v>
+        <v>0.0595791</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0500732</v>
+        <v>0.0713598</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0452772</v>
+        <v>0.0535348</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0572993</v>
+        <v>0.0632754</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0530723</v>
+        <v>0.07538350000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0466682</v>
+        <v>0.0569241</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0607895</v>
+        <v>0.0680495</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0565032</v>
+        <v>0.0791659</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0482075</v>
+        <v>0.0604935</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0648671</v>
+        <v>0.07317709999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0606144</v>
+        <v>0.0829225</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0502337</v>
+        <v>0.06428200000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0691007</v>
+        <v>0.07874059999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.065053</v>
+        <v>0.0867136</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0526778</v>
+        <v>0.06785099999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.07376099999999999</v>
+        <v>0.08498410000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0696338</v>
+        <v>0.0911352</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0552917</v>
+        <v>0.07116359999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0787902</v>
+        <v>0.0920319</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07492699999999999</v>
+        <v>0.0961636</v>
       </c>
       <c r="D101" t="n">
-        <v>0.05849</v>
+        <v>0.0750146</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08439049999999999</v>
+        <v>0.099315</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0811302</v>
+        <v>0.103021</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0621537</v>
+        <v>0.0782506</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09114609999999999</v>
+        <v>0.108311</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0883072</v>
+        <v>0.110508</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0662818</v>
+        <v>0.08202719999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0987972</v>
+        <v>0.11785</v>
       </c>
       <c r="C104" t="n">
-        <v>0.09721150000000001</v>
+        <v>0.121782</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0714239</v>
+        <v>0.0871064</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.10856</v>
+        <v>0.129358</v>
       </c>
       <c r="C105" t="n">
-        <v>0.107307</v>
+        <v>0.134891</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0774257</v>
+        <v>0.09326710000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.121249</v>
+        <v>0.144897</v>
       </c>
       <c r="C106" t="n">
-        <v>0.121769</v>
+        <v>0.152232</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08577899999999999</v>
+        <v>0.102076</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.139482</v>
+        <v>0.165812</v>
       </c>
       <c r="C107" t="n">
-        <v>0.143049</v>
+        <v>0.177483</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0969998</v>
+        <v>0.115278</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.167201</v>
+        <v>0.195722</v>
       </c>
       <c r="C108" t="n">
-        <v>0.178309</v>
+        <v>0.216876</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0640961</v>
+        <v>0.07088079999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.209835</v>
+        <v>0.241633</v>
       </c>
       <c r="C109" t="n">
-        <v>0.23689</v>
+        <v>0.279262</v>
       </c>
       <c r="D109" t="n">
-        <v>0.06602280000000001</v>
+        <v>0.0726864</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08737929999999999</v>
+        <v>0.09783119999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0804183</v>
+        <v>0.0910512</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06804250000000001</v>
+        <v>0.0745849</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0899406</v>
+        <v>0.10047</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0827615</v>
+        <v>0.0936838</v>
       </c>
       <c r="D111" t="n">
-        <v>0.07001400000000001</v>
+        <v>0.0766038</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0924329</v>
+        <v>0.103582</v>
       </c>
       <c r="C112" t="n">
-        <v>0.08543439999999999</v>
+        <v>0.0970509</v>
       </c>
       <c r="D112" t="n">
-        <v>0.07204290000000001</v>
+        <v>0.0789082</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0951718</v>
+        <v>0.106881</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0882867</v>
+        <v>0.101391</v>
       </c>
       <c r="D113" t="n">
-        <v>0.07397960000000001</v>
+        <v>0.0824233</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0982635</v>
+        <v>0.110218</v>
       </c>
       <c r="C114" t="n">
-        <v>0.091534</v>
+        <v>0.104658</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0762079</v>
+        <v>0.0839375</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.101475</v>
+        <v>0.114386</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0954749</v>
+        <v>0.109432</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0783378</v>
+        <v>0.0865061</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106144</v>
+        <v>0.119292</v>
       </c>
       <c r="C116" t="n">
-        <v>0.10059</v>
+        <v>0.115721</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0810757</v>
+        <v>0.0890933</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.111355</v>
+        <v>0.125221</v>
       </c>
       <c r="C117" t="n">
-        <v>0.106708</v>
+        <v>0.123906</v>
       </c>
       <c r="D117" t="n">
-        <v>0.08411159999999999</v>
+        <v>0.0929093</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.117731</v>
+        <v>0.13267</v>
       </c>
       <c r="C118" t="n">
-        <v>0.114762</v>
+        <v>0.134365</v>
       </c>
       <c r="D118" t="n">
-        <v>0.088218</v>
+        <v>0.0974749</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.126504</v>
+        <v>0.142908</v>
       </c>
       <c r="C119" t="n">
-        <v>0.124636</v>
+        <v>0.14722</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0932988</v>
+        <v>0.103739</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.138597</v>
+        <v>0.156214</v>
       </c>
       <c r="C120" t="n">
-        <v>0.138455</v>
+        <v>0.164157</v>
       </c>
       <c r="D120" t="n">
-        <v>0.100513</v>
+        <v>0.112127</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.155354</v>
+        <v>0.175026</v>
       </c>
       <c r="C121" t="n">
-        <v>0.158612</v>
+        <v>0.18764</v>
       </c>
       <c r="D121" t="n">
-        <v>0.111037</v>
+        <v>0.124945</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.18057</v>
+        <v>0.202748</v>
       </c>
       <c r="C122" t="n">
-        <v>0.190657</v>
+        <v>0.223559</v>
       </c>
       <c r="D122" t="n">
-        <v>0.128031</v>
+        <v>0.144906</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.220276</v>
+        <v>0.244553</v>
       </c>
       <c r="C123" t="n">
-        <v>0.244638</v>
+        <v>0.281059</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0812645</v>
+        <v>0.09338730000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.100432</v>
+        <v>0.109654</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0944817</v>
+        <v>0.112197</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0809792</v>
+        <v>0.0919972</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104517</v>
+        <v>0.114686</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0974381</v>
+        <v>0.115896</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0831504</v>
+        <v>0.0951578</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.103969</v>
+        <v>0.11693</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0998931</v>
+        <v>0.11845</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0854896</v>
+        <v>0.0972046</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.107835</v>
+        <v>0.118546</v>
       </c>
       <c r="C127" t="n">
-        <v>0.101341</v>
+        <v>0.12574</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0847643</v>
+        <v>0.104674</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.110814</v>
+        <v>0.121706</v>
       </c>
       <c r="C128" t="n">
-        <v>0.105044</v>
+        <v>0.127075</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0874481</v>
+        <v>0.103026</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116359</v>
+        <v>0.124865</v>
       </c>
       <c r="C129" t="n">
-        <v>0.110105</v>
+        <v>0.1322</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0916723</v>
+        <v>0.104785</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.118389</v>
+        <v>0.130843</v>
       </c>
       <c r="C130" t="n">
-        <v>0.113892</v>
+        <v>0.137284</v>
       </c>
       <c r="D130" t="n">
-        <v>0.092376</v>
+        <v>0.106429</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.123609</v>
+        <v>0.13488</v>
       </c>
       <c r="C131" t="n">
-        <v>0.119551</v>
+        <v>0.145411</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0949234</v>
+        <v>0.111738</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.131627</v>
+        <v>0.144505</v>
       </c>
       <c r="C132" t="n">
-        <v>0.127414</v>
+        <v>0.156485</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0989935</v>
+        <v>0.118613</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.136864</v>
+        <v>0.152572</v>
       </c>
       <c r="C133" t="n">
-        <v>0.138151</v>
+        <v>0.166974</v>
       </c>
       <c r="D133" t="n">
-        <v>0.104941</v>
+        <v>0.121266</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.149674</v>
+        <v>0.165262</v>
       </c>
       <c r="C134" t="n">
-        <v>0.152403</v>
+        <v>0.184774</v>
       </c>
       <c r="D134" t="n">
-        <v>0.112106</v>
+        <v>0.132339</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.165158</v>
+        <v>0.18355</v>
       </c>
       <c r="C135" t="n">
-        <v>0.171108</v>
+        <v>0.206579</v>
       </c>
       <c r="D135" t="n">
-        <v>0.121119</v>
+        <v>0.142422</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.190894</v>
+        <v>0.208591</v>
       </c>
       <c r="C136" t="n">
-        <v>0.202833</v>
+        <v>0.241451</v>
       </c>
       <c r="D136" t="n">
-        <v>0.13899</v>
+        <v>0.161463</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.228036</v>
+        <v>0.248234</v>
       </c>
       <c r="C137" t="n">
-        <v>0.251298</v>
+        <v>0.293489</v>
       </c>
       <c r="D137" t="n">
-        <v>0.154209</v>
+        <v>0.184754</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.162152</v>
+        <v>0.185152</v>
       </c>
       <c r="C138" t="n">
-        <v>0.148844</v>
+        <v>0.180573</v>
       </c>
       <c r="D138" t="n">
-        <v>0.155706</v>
+        <v>0.187355</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.164322</v>
+        <v>0.186629</v>
       </c>
       <c r="C139" t="n">
-        <v>0.150353</v>
+        <v>0.182826</v>
       </c>
       <c r="D139" t="n">
-        <v>0.156406</v>
+        <v>0.18824</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.164637</v>
+        <v>0.188412</v>
       </c>
       <c r="C140" t="n">
-        <v>0.153671</v>
+        <v>0.186561</v>
       </c>
       <c r="D140" t="n">
-        <v>0.15978</v>
+        <v>0.191482</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.167054</v>
+        <v>0.192238</v>
       </c>
       <c r="C141" t="n">
-        <v>0.155729</v>
+        <v>0.189511</v>
       </c>
       <c r="D141" t="n">
-        <v>0.160617</v>
+        <v>0.193467</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.169479</v>
+        <v>0.192968</v>
       </c>
       <c r="C142" t="n">
-        <v>0.157697</v>
+        <v>0.193501</v>
       </c>
       <c r="D142" t="n">
-        <v>0.16046</v>
+        <v>0.195648</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.172627</v>
+        <v>0.195168</v>
       </c>
       <c r="C143" t="n">
-        <v>0.161238</v>
+        <v>0.1981</v>
       </c>
       <c r="D143" t="n">
-        <v>0.162574</v>
+        <v>0.199031</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0199746</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0223711</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0279843</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0374557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0541003</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0739308</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0908332</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.119418</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.0160955</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0165233</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0170052</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0176545</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.018734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.020118</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0231423</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0275752</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0337269</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.0441174</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0560327</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0735251</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.09810720000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.118682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0168617</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.017117</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0179684</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.018842</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.020762</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0229493</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0261253</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0299548</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0351932</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0437828</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0554948</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.07231650000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.09074749999999999</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.117374</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0170956</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0178543</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0189841</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0200948</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0217684</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0244338</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.0277674</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0324631</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0387566</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.044976</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0559175</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0710027</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0908212</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.117424</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.140864</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0189027</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0201008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.021583</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0235148</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0261005</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0293833</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0337692</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0392899</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.046662</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0562823</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0701638</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0890341</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.114833</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.144939</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0197502</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0210028</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0227789</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.0246593</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0270269</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302493</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.0342455</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.0395435</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0466214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0559597</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0685593</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0867699</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.111201</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.141494</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0200207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0212269</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0226945</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0246895</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0274303</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0301632</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.0343383</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.0393209</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0454285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0543419</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.06590409999999999</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.08316999999999999</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.106615</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.136838</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.0207148</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0218231</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.0235618</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.0254205</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0277238</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.0309717</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.034493</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0401348</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0464552</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0546064</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.065411</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.08111790000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.10261</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.131855</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.167859</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.0308739</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.032613</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.034221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.0360225</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.0383657</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.0408546</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.0441552</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.0485179</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.0552273</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.06492580000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.0791367</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.0999347</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.128094</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.163548</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.0346339</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.0355354</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.0372352</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.0385047</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.0411049</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.0439798</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.04739</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.0521658</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.0586895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.0680711</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.0820838</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.101855</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.12951</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.163867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.0468922</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.0482012</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.0491648</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.0527207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.0528154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.055782</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.0185839</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0180835</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0186575</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0219409</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0348619</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.046746</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0887013</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.119804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0180709</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0184204</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0189457</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0193755</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.020306</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.0209034</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0227075</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0253999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0319034</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0383341</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0568493</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.0838647</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.131653</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0187591</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.0191409</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0197405</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.020439</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0212415</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0219892</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0234121</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0264304</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0302305</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0366198</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0459437</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0594599</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0878531</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.129282</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0198852</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0203496</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0210131</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0216736</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0228112</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0240973</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0257658</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0290975</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.0349767</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0398391</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0491529</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.06340750000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0843724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.121267</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.167097</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0213247</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0219345</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.022889</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0238477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0253224</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0275992</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.0302451</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0345438</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0408319</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0492235</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.061553</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0805206</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.113447</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.161291</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.0217627</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.022553</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0235574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0246975</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0260874</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0279758</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.030811</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.034622</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0402214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.047952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0592906</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.07559440000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.103124</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.148399</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0223391</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0231769</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0241129</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0252673</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0268372</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0286828</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0310672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0345672</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.0394295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0468561</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0569589</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.07245</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.09784569999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.139669</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.0237499</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0249294</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0266465</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.0293475</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0325618</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0359918</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.0391962</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0423199</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0459227</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0516739</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.0586182</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.07141210000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.09303640000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.131746</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.183631</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0382801</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0392846</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.040221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0413197</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.0426685</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.0443478</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0465075</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0495102</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.0538235</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.0601526</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.0710412</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.0895113</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.122948</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.172866</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.0424721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.0434258</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.044818</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.0458006</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.0473031</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.0493497</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.0516778</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.0546998</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.0591634</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.0653265</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.0752591</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.0919177</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.121142</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.1684</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.0552701</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.0564094</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.0574369</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.0586381</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.0601686</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.0620335</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0201621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0205927</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0213328</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0224255</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0228236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.0246502</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0289321</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.0176491</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.0179043</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0181965</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0185586</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0189253</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0192987</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0198485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0203825</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.0208815</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0220019</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.022769</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0243123</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0273683</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0323586</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.017563</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0179077</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0181191</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0185128</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0188997</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0193475</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0197701</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0202878</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0211156</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0221556</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249746</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0282488</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0352729</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.017949</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0182123</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0184241</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0187582</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0191191</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0195615</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0201191</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0206961</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0215587</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0226734</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0242101</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0265092</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0299203</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0362318</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.018616</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0188728</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0191354</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0194676</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0198285</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0202084</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.0207233</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0213995</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0222513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.023328</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0249404</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0313116</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0376983</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.0489477</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.019011</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0193203</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0197232</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0201442</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0205764</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0210852</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0217122</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.022629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0237333</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0254197</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0277608</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0313383</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.037026</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0465119</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0192382</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0195643</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0199296</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0204282</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0208927</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.021538</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0222851</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.0232149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0244507</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0259784</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0282943</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0314579</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0365879</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0450952</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.0208871</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.0214555</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0220137</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.0225922</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.0232915</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0246113</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0266287</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0293725</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.0323838</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0353862</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0384466</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.0416202</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.0456443</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0519131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0324166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0334394</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0342435</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.0350556</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.0358717</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.0366873</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.0376708</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.0386302</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.0398146</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.0412212</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.0429427</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.0455556</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.0491536</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.054736</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.0644487</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.0379716</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.0387374</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.039425</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.0400483</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.0410584</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.0419449</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.0429313</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.0441977</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.0457638</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.0475294</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.0500786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.0536186</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.0591599</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.0689019</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.0534654</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.0539555</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.0548494</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.0553747</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.0561235</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.0611306</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.0579442</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0322678</v>
+        <v>0.032299</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0200546</v>
+        <v>0.0199417</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0270577</v>
+        <v>0.0269949</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0333155</v>
+        <v>0.0331823</v>
       </c>
       <c r="C3" t="n">
-        <v>0.021298</v>
+        <v>0.0217671</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0270447</v>
+        <v>0.0268528</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0361651</v>
+        <v>0.0364355</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0247265</v>
+        <v>0.0254846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0270552</v>
+        <v>0.0248821</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0417017</v>
+        <v>0.0418978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0381909</v>
+        <v>0.0385877</v>
       </c>
       <c r="D5" t="n">
-        <v>0.026391</v>
+        <v>0.0258289</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0557614</v>
+        <v>0.0562166</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0584424</v>
+        <v>0.0594382</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0275612</v>
+        <v>0.0274489</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0765034</v>
+        <v>0.07665719999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0862113</v>
+        <v>0.08570700000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.031546</v>
+        <v>0.0316922</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.106965</v>
+        <v>0.106749</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11692</v>
+        <v>0.116236</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0481009</v>
+        <v>0.0478499</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14904</v>
+        <v>0.14846</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165562</v>
+        <v>0.16501</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0267113</v>
+        <v>0.0264743</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0307229</v>
+        <v>0.0306779</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02381</v>
+        <v>0.0233015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0268497</v>
+        <v>0.0268802</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0314128</v>
+        <v>0.0313871</v>
       </c>
       <c r="C11" t="n">
-        <v>0.023849</v>
+        <v>0.0235925</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0270936</v>
+        <v>0.0267598</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0317475</v>
+        <v>0.0317841</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0242833</v>
+        <v>0.0235507</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0272623</v>
+        <v>0.0274111</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0324228</v>
+        <v>0.0323046</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0242879</v>
+        <v>0.0235812</v>
       </c>
       <c r="D13" t="n">
-        <v>0.027476</v>
+        <v>0.0270715</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0330699</v>
+        <v>0.0329672</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0248155</v>
+        <v>0.0236787</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0276819</v>
+        <v>0.027473</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0342775</v>
+        <v>0.0341584</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0244603</v>
+        <v>0.0233908</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0280534</v>
+        <v>0.0276201</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0352408</v>
+        <v>0.0351699</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0272835</v>
+        <v>0.02602</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0282643</v>
+        <v>0.0277324</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0381647</v>
+        <v>0.0381996</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0325871</v>
+        <v>0.0314839</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0286135</v>
+        <v>0.02814</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0418045</v>
+        <v>0.0417152</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0431025</v>
+        <v>0.042952</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0291888</v>
+        <v>0.0280739</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0499973</v>
+        <v>0.0498198</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0537113</v>
+        <v>0.0530605</v>
       </c>
       <c r="D19" t="n">
-        <v>0.029389</v>
+        <v>0.0284143</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0604781</v>
+        <v>0.0605054</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0669054</v>
+        <v>0.0663561</v>
       </c>
       <c r="D20" t="n">
-        <v>0.032039</v>
+        <v>0.0304987</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0775604</v>
+        <v>0.07760740000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08830789999999999</v>
+        <v>0.0876648</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0419185</v>
+        <v>0.0412114</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100705</v>
+        <v>0.100738</v>
       </c>
       <c r="C22" t="n">
-        <v>0.116699</v>
+        <v>0.116115</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0560964</v>
+        <v>0.055449</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139144</v>
+        <v>0.139363</v>
       </c>
       <c r="C23" t="n">
-        <v>0.163077</v>
+        <v>0.161683</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0276535</v>
+        <v>0.0275323</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0320393</v>
+        <v>0.0319484</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0249474</v>
+        <v>0.0257607</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0281307</v>
+        <v>0.0279579</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0325887</v>
+        <v>0.0325526</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0254779</v>
+        <v>0.0260301</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0282944</v>
+        <v>0.0283929</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0334842</v>
+        <v>0.0334426</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0262898</v>
+        <v>0.0259946</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0285183</v>
+        <v>0.028646</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0342719</v>
+        <v>0.0343221</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0271061</v>
+        <v>0.0275052</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0290701</v>
+        <v>0.0288326</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351402</v>
+        <v>0.0351225</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0276603</v>
+        <v>0.0285558</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0293261</v>
+        <v>0.0291901</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0365486</v>
+        <v>0.0366608</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0308004</v>
+        <v>0.0313266</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0295592</v>
+        <v>0.0295205</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0388065</v>
+        <v>0.0388191</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0349229</v>
+        <v>0.0351924</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0300779</v>
+        <v>0.030173</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0418429</v>
+        <v>0.0417769</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0402106</v>
+        <v>0.0401434</v>
       </c>
       <c r="D31" t="n">
-        <v>0.030799</v>
+        <v>0.0304631</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0464954</v>
+        <v>0.0464726</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0475104</v>
+        <v>0.047235</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0317184</v>
+        <v>0.0314281</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0527481</v>
+        <v>0.0527625</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0560062</v>
+        <v>0.0557007</v>
       </c>
       <c r="D33" t="n">
-        <v>0.033719</v>
+        <v>0.0330741</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06333510000000001</v>
+        <v>0.0632805</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0670042</v>
+        <v>0.06674430000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0382891</v>
+        <v>0.0379491</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0771231</v>
+        <v>0.0771323</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0820767</v>
+        <v>0.0815211</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0457331</v>
+        <v>0.0456226</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.097705</v>
+        <v>0.0976553</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111532</v>
+        <v>0.11126</v>
       </c>
       <c r="D36" t="n">
-        <v>0.05717</v>
+        <v>0.0567623</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.13097</v>
+        <v>0.130974</v>
       </c>
       <c r="C37" t="n">
-        <v>0.154826</v>
+        <v>0.15444</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0294638</v>
+        <v>0.0289356</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0332456</v>
+        <v>0.0334311</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0283814</v>
+        <v>0.0285009</v>
       </c>
       <c r="D38" t="n">
-        <v>0.030118</v>
+        <v>0.0292768</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03382</v>
+        <v>0.0341481</v>
       </c>
       <c r="C39" t="n">
-        <v>0.029034</v>
+        <v>0.0290467</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0294982</v>
+        <v>0.0292913</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0344824</v>
+        <v>0.0346963</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0301527</v>
+        <v>0.0301236</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0298025</v>
+        <v>0.0304789</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0352359</v>
+        <v>0.0354601</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0312775</v>
+        <v>0.0311621</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0301653</v>
+        <v>0.0305236</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0362935</v>
+        <v>0.0365475</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0330654</v>
+        <v>0.0326462</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0307258</v>
+        <v>0.0309725</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0375445</v>
+        <v>0.0377748</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0357262</v>
+        <v>0.0352277</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0313763</v>
+        <v>0.0311062</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.039619</v>
+        <v>0.0398546</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0385082</v>
+        <v>0.0380595</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0319311</v>
+        <v>0.0317772</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0425618</v>
+        <v>0.0428236</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0428063</v>
+        <v>0.0423848</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0330158</v>
+        <v>0.0324712</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0468675</v>
+        <v>0.0470068</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0487768</v>
+        <v>0.0479833</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0344087</v>
+        <v>0.0339859</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0527038</v>
+        <v>0.0527996</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0549597</v>
+        <v>0.0545761</v>
       </c>
       <c r="D47" t="n">
-        <v>0.037177</v>
+        <v>0.0366147</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0605666</v>
+        <v>0.0606073</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0651341</v>
+        <v>0.06463389999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0410107</v>
+        <v>0.040544</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07351480000000001</v>
+        <v>0.0735099</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0810096</v>
+        <v>0.0804267</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0464721</v>
+        <v>0.0459432</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0907791</v>
+        <v>0.0903873</v>
       </c>
       <c r="C50" t="n">
-        <v>0.104136</v>
+        <v>0.103569</v>
       </c>
       <c r="D50" t="n">
-        <v>0.054773</v>
+        <v>0.0543547</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122032</v>
+        <v>0.122</v>
       </c>
       <c r="C51" t="n">
-        <v>0.142606</v>
+        <v>0.14193</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03459</v>
+        <v>0.0342426</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167465</v>
+        <v>0.16751</v>
       </c>
       <c r="C52" t="n">
-        <v>0.191032</v>
+        <v>0.190097</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0351087</v>
+        <v>0.0343142</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0354524</v>
+        <v>0.0352966</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0339223</v>
+        <v>0.0336909</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0357363</v>
+        <v>0.0345535</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0362741</v>
+        <v>0.0360519</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0347703</v>
+        <v>0.0344382</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0359729</v>
+        <v>0.0353996</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0371895</v>
+        <v>0.0369201</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0359695</v>
+        <v>0.0355434</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0359526</v>
+        <v>0.0359678</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0383245</v>
+        <v>0.0381461</v>
       </c>
       <c r="C56" t="n">
-        <v>0.037139</v>
+        <v>0.0367975</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0362514</v>
+        <v>0.0360595</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.039772</v>
+        <v>0.0395579</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0390265</v>
+        <v>0.0385696</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0365871</v>
+        <v>0.0367338</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0416802</v>
+        <v>0.0415304</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0415181</v>
+        <v>0.0410919</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0374473</v>
+        <v>0.0371894</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0442222</v>
+        <v>0.0440163</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0444597</v>
+        <v>0.0439898</v>
       </c>
       <c r="D59" t="n">
-        <v>0.038519</v>
+        <v>0.037869</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0478201</v>
+        <v>0.0476212</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0487892</v>
+        <v>0.0483255</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0398153</v>
+        <v>0.039112</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0531219</v>
+        <v>0.0529322</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0555504</v>
+        <v>0.0550414</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0418553</v>
+        <v>0.0411514</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.060859</v>
+        <v>0.0606661</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0649221</v>
+        <v>0.0644348</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0448718</v>
+        <v>0.044256</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0724834</v>
+        <v>0.07217419999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07890949999999999</v>
+        <v>0.0783322</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0497981</v>
+        <v>0.0490868</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0896999</v>
+        <v>0.089437</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0999584</v>
+        <v>0.099296</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0574994</v>
+        <v>0.0568322</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.118167</v>
+        <v>0.117633</v>
       </c>
       <c r="C65" t="n">
-        <v>0.135698</v>
+        <v>0.134965</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0711297</v>
+        <v>0.07049179999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.159194</v>
+        <v>0.158797</v>
       </c>
       <c r="C66" t="n">
-        <v>0.185149</v>
+        <v>0.184095</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0393856</v>
+        <v>0.0385142</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0411465</v>
+        <v>0.0410273</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0383289</v>
+        <v>0.036773</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0398254</v>
+        <v>0.0377691</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0415427</v>
+        <v>0.0416269</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0392262</v>
+        <v>0.0376086</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0401806</v>
+        <v>0.0383627</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0425779</v>
+        <v>0.0425181</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0402631</v>
+        <v>0.0385873</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0406417</v>
+        <v>0.0388598</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0436219</v>
+        <v>0.0435845</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0414629</v>
+        <v>0.0398064</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0411051</v>
+        <v>0.0393633</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0449703</v>
+        <v>0.0449661</v>
       </c>
       <c r="C71" t="n">
-        <v>0.042975</v>
+        <v>0.0412509</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0417355</v>
+        <v>0.0398871</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465019</v>
+        <v>0.0465574</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0451592</v>
+        <v>0.0433382</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0427075</v>
+        <v>0.0409102</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0487239</v>
+        <v>0.0487616</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0482809</v>
+        <v>0.0462366</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0435337</v>
+        <v>0.04188</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0516996</v>
+        <v>0.0517853</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0525305</v>
+        <v>0.050283</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0446867</v>
+        <v>0.0423734</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0562562</v>
+        <v>0.0562244</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0586634</v>
+        <v>0.0563703</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0464981</v>
+        <v>0.0442576</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0630642</v>
+        <v>0.06305230000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0675755</v>
+        <v>0.06492000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0492105</v>
+        <v>0.0468724</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07295840000000001</v>
+        <v>0.0729523</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0803934</v>
+        <v>0.0775103</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0535357</v>
+        <v>0.0511079</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0889842</v>
+        <v>0.0886786</v>
       </c>
       <c r="C78" t="n">
-        <v>0.098686</v>
+        <v>0.0955797</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0607764</v>
+        <v>0.0577539</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.114123</v>
+        <v>0.113498</v>
       </c>
       <c r="C79" t="n">
-        <v>0.129187</v>
+        <v>0.125802</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0730456</v>
+        <v>0.0693372</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.155024</v>
+        <v>0.154541</v>
       </c>
       <c r="C80" t="n">
-        <v>0.176164</v>
+        <v>0.171983</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0430259</v>
+        <v>0.041629</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0461402</v>
+        <v>0.0460072</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0426441</v>
+        <v>0.0416703</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0426277</v>
+        <v>0.0420155</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0468543</v>
+        <v>0.0468295</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0449808</v>
+        <v>0.0429591</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0431822</v>
+        <v>0.042479</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.047767</v>
+        <v>0.0477205</v>
       </c>
       <c r="C83" t="n">
-        <v>0.047954</v>
+        <v>0.0444143</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0437178</v>
+        <v>0.0431968</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.048895</v>
+        <v>0.048827</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0516782</v>
+        <v>0.0464397</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0441119</v>
+        <v>0.0435562</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0503552</v>
+        <v>0.0501857</v>
       </c>
       <c r="C85" t="n">
-        <v>0.055695</v>
+        <v>0.0492046</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0451364</v>
+        <v>0.0453183</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0525686</v>
+        <v>0.0520886</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0597761</v>
+        <v>0.0526015</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0457447</v>
+        <v>0.0457035</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0554759</v>
+        <v>0.0549725</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0651166</v>
+        <v>0.0568697</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0470431</v>
+        <v>0.0460232</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0594002</v>
+        <v>0.0588973</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0718014</v>
+        <v>0.063169</v>
       </c>
       <c r="D88" t="n">
-        <v>0.05006</v>
+        <v>0.048116</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0652133</v>
+        <v>0.06489449999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07950169999999999</v>
+        <v>0.0709468</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0544909</v>
+        <v>0.0495363</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.073809</v>
+        <v>0.0735838</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0902665</v>
+        <v>0.0814115</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0596898</v>
+        <v>0.0527385</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.08612110000000001</v>
+        <v>0.08579100000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.103827</v>
+        <v>0.0951157</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0656856</v>
+        <v>0.0577372</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.104303</v>
+        <v>0.103631</v>
       </c>
       <c r="C92" t="n">
-        <v>0.122494</v>
+        <v>0.113791</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0746556</v>
+        <v>0.06581770000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.130885</v>
+        <v>0.13076</v>
       </c>
       <c r="C93" t="n">
-        <v>0.151266</v>
+        <v>0.144406</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0878536</v>
+        <v>0.0794333</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171292</v>
+        <v>0.171255</v>
       </c>
       <c r="C94" t="n">
-        <v>0.19409</v>
+        <v>0.189071</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0512108</v>
+        <v>0.046141</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0595791</v>
+        <v>0.0591801</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0713598</v>
+        <v>0.0648108</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0535348</v>
+        <v>0.0476275</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0632754</v>
+        <v>0.06335880000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07538350000000001</v>
+        <v>0.06859709999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0569241</v>
+        <v>0.0493717</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0680495</v>
+        <v>0.06777179999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0791659</v>
+        <v>0.07273209999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0604935</v>
+        <v>0.0521459</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07317709999999999</v>
+        <v>0.0734191</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0829225</v>
+        <v>0.07687910000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.06428200000000001</v>
+        <v>0.0547484</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07874059999999999</v>
+        <v>0.07928259999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0867136</v>
+        <v>0.08114209999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06785099999999999</v>
+        <v>0.0573728</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08498410000000001</v>
+        <v>0.0858786</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0911352</v>
+        <v>0.08604580000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.07116359999999999</v>
+        <v>0.0620188</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0920319</v>
+        <v>0.092352</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0961636</v>
+        <v>0.091568</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0750146</v>
+        <v>0.065485</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.099315</v>
+        <v>0.09985330000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.103021</v>
+        <v>0.0979005</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0782506</v>
+        <v>0.07044499999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.108311</v>
+        <v>0.108041</v>
       </c>
       <c r="C103" t="n">
-        <v>0.110508</v>
+        <v>0.106034</v>
       </c>
       <c r="D103" t="n">
-        <v>0.08202719999999999</v>
+        <v>0.0758901</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.11785</v>
+        <v>0.11798</v>
       </c>
       <c r="C104" t="n">
-        <v>0.121782</v>
+        <v>0.11634</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0871064</v>
+        <v>0.0819535</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.129358</v>
+        <v>0.129514</v>
       </c>
       <c r="C105" t="n">
-        <v>0.134891</v>
+        <v>0.129097</v>
       </c>
       <c r="D105" t="n">
-        <v>0.09326710000000001</v>
+        <v>0.0899249</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.144897</v>
+        <v>0.145773</v>
       </c>
       <c r="C106" t="n">
-        <v>0.152232</v>
+        <v>0.14634</v>
       </c>
       <c r="D106" t="n">
-        <v>0.102076</v>
+        <v>0.099268</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.165812</v>
+        <v>0.1653</v>
       </c>
       <c r="C107" t="n">
-        <v>0.177483</v>
+        <v>0.17214</v>
       </c>
       <c r="D107" t="n">
-        <v>0.115278</v>
+        <v>0.112373</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.195722</v>
+        <v>0.195831</v>
       </c>
       <c r="C108" t="n">
-        <v>0.216876</v>
+        <v>0.213235</v>
       </c>
       <c r="D108" t="n">
-        <v>0.07088079999999999</v>
+        <v>0.068277</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.241633</v>
+        <v>0.242081</v>
       </c>
       <c r="C109" t="n">
-        <v>0.279262</v>
+        <v>0.27577</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0726864</v>
+        <v>0.0701889</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09783119999999999</v>
+        <v>0.0975374</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0910512</v>
+        <v>0.09032270000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0745849</v>
+        <v>0.07285030000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.10047</v>
+        <v>0.100793</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0936838</v>
+        <v>0.0934364</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0766038</v>
+        <v>0.0752589</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.103582</v>
+        <v>0.103449</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0970509</v>
+        <v>0.096752</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0789082</v>
+        <v>0.07771889999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.106881</v>
+        <v>0.10665</v>
       </c>
       <c r="C113" t="n">
-        <v>0.101391</v>
+        <v>0.100032</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0824233</v>
+        <v>0.0800855</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.110218</v>
+        <v>0.109848</v>
       </c>
       <c r="C114" t="n">
-        <v>0.104658</v>
+        <v>0.103936</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0839375</v>
+        <v>0.0827562</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.114386</v>
+        <v>0.114327</v>
       </c>
       <c r="C115" t="n">
-        <v>0.109432</v>
+        <v>0.1086</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0865061</v>
+        <v>0.0851431</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.119292</v>
+        <v>0.118925</v>
       </c>
       <c r="C116" t="n">
-        <v>0.115721</v>
+        <v>0.114279</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0890933</v>
+        <v>0.0882785</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125221</v>
+        <v>0.125112</v>
       </c>
       <c r="C117" t="n">
-        <v>0.123906</v>
+        <v>0.121244</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0929093</v>
+        <v>0.09216770000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.13267</v>
+        <v>0.132476</v>
       </c>
       <c r="C118" t="n">
-        <v>0.134365</v>
+        <v>0.130236</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0974749</v>
+        <v>0.0966877</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.142908</v>
+        <v>0.14261</v>
       </c>
       <c r="C119" t="n">
-        <v>0.14722</v>
+        <v>0.141872</v>
       </c>
       <c r="D119" t="n">
-        <v>0.103739</v>
+        <v>0.102597</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.156214</v>
+        <v>0.156167</v>
       </c>
       <c r="C120" t="n">
-        <v>0.164157</v>
+        <v>0.158312</v>
       </c>
       <c r="D120" t="n">
-        <v>0.112127</v>
+        <v>0.110719</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.175026</v>
+        <v>0.175097</v>
       </c>
       <c r="C121" t="n">
-        <v>0.18764</v>
+        <v>0.182169</v>
       </c>
       <c r="D121" t="n">
-        <v>0.124945</v>
+        <v>0.122313</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.202748</v>
+        <v>0.202537</v>
       </c>
       <c r="C122" t="n">
-        <v>0.223559</v>
+        <v>0.21831</v>
       </c>
       <c r="D122" t="n">
-        <v>0.144906</v>
+        <v>0.141669</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.244553</v>
+        <v>0.244119</v>
       </c>
       <c r="C123" t="n">
-        <v>0.281059</v>
+        <v>0.276313</v>
       </c>
       <c r="D123" t="n">
-        <v>0.09338730000000001</v>
+        <v>0.08580260000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.109654</v>
+        <v>0.108842</v>
       </c>
       <c r="C124" t="n">
-        <v>0.112197</v>
+        <v>0.108212</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0919972</v>
+        <v>0.09118560000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.114686</v>
+        <v>0.111968</v>
       </c>
       <c r="C125" t="n">
-        <v>0.115896</v>
+        <v>0.109299</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0951578</v>
+        <v>0.0903094</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.11693</v>
+        <v>0.114518</v>
       </c>
       <c r="C126" t="n">
-        <v>0.11845</v>
+        <v>0.110628</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0972046</v>
+        <v>0.0904331</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.118546</v>
+        <v>0.116943</v>
       </c>
       <c r="C127" t="n">
-        <v>0.12574</v>
+        <v>0.113977</v>
       </c>
       <c r="D127" t="n">
-        <v>0.104674</v>
+        <v>0.0920328</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.121706</v>
+        <v>0.123494</v>
       </c>
       <c r="C128" t="n">
-        <v>0.127075</v>
+        <v>0.120089</v>
       </c>
       <c r="D128" t="n">
-        <v>0.103026</v>
+        <v>0.0973691</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.124865</v>
+        <v>0.124146</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1322</v>
+        <v>0.122698</v>
       </c>
       <c r="D129" t="n">
-        <v>0.104785</v>
+        <v>0.09652860000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.130843</v>
+        <v>0.129923</v>
       </c>
       <c r="C130" t="n">
-        <v>0.137284</v>
+        <v>0.128951</v>
       </c>
       <c r="D130" t="n">
-        <v>0.106429</v>
+        <v>0.100814</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.13488</v>
+        <v>0.134506</v>
       </c>
       <c r="C131" t="n">
-        <v>0.145411</v>
+        <v>0.136499</v>
       </c>
       <c r="D131" t="n">
-        <v>0.111738</v>
+        <v>0.105944</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.144505</v>
+        <v>0.140714</v>
       </c>
       <c r="C132" t="n">
-        <v>0.156485</v>
+        <v>0.144188</v>
       </c>
       <c r="D132" t="n">
-        <v>0.118613</v>
+        <v>0.108376</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.152572</v>
+        <v>0.152608</v>
       </c>
       <c r="C133" t="n">
-        <v>0.166974</v>
+        <v>0.155821</v>
       </c>
       <c r="D133" t="n">
-        <v>0.121266</v>
+        <v>0.114273</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.165262</v>
+        <v>0.164651</v>
       </c>
       <c r="C134" t="n">
-        <v>0.184774</v>
+        <v>0.171442</v>
       </c>
       <c r="D134" t="n">
-        <v>0.132339</v>
+        <v>0.120995</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18355</v>
+        <v>0.183625</v>
       </c>
       <c r="C135" t="n">
-        <v>0.206579</v>
+        <v>0.194899</v>
       </c>
       <c r="D135" t="n">
-        <v>0.142422</v>
+        <v>0.134296</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.208591</v>
+        <v>0.20874</v>
       </c>
       <c r="C136" t="n">
-        <v>0.241451</v>
+        <v>0.227096</v>
       </c>
       <c r="D136" t="n">
-        <v>0.161463</v>
+        <v>0.150544</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.248234</v>
+        <v>0.247081</v>
       </c>
       <c r="C137" t="n">
-        <v>0.293489</v>
+        <v>0.281233</v>
       </c>
       <c r="D137" t="n">
-        <v>0.184754</v>
+        <v>0.177103</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.185152</v>
+        <v>0.185685</v>
       </c>
       <c r="C138" t="n">
-        <v>0.180573</v>
+        <v>0.17116</v>
       </c>
       <c r="D138" t="n">
-        <v>0.187355</v>
+        <v>0.177938</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.186629</v>
+        <v>0.185475</v>
       </c>
       <c r="C139" t="n">
-        <v>0.182826</v>
+        <v>0.173449</v>
       </c>
       <c r="D139" t="n">
-        <v>0.18824</v>
+        <v>0.179085</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.188412</v>
+        <v>0.188618</v>
       </c>
       <c r="C140" t="n">
-        <v>0.186561</v>
+        <v>0.176127</v>
       </c>
       <c r="D140" t="n">
-        <v>0.191482</v>
+        <v>0.180776</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.192238</v>
+        <v>0.190248</v>
       </c>
       <c r="C141" t="n">
-        <v>0.189511</v>
+        <v>0.178128</v>
       </c>
       <c r="D141" t="n">
-        <v>0.193467</v>
+        <v>0.182667</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.192968</v>
+        <v>0.193316</v>
       </c>
       <c r="C142" t="n">
-        <v>0.193501</v>
+        <v>0.182044</v>
       </c>
       <c r="D142" t="n">
-        <v>0.195648</v>
+        <v>0.185204</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.195168</v>
+        <v>0.196615</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1981</v>
+        <v>0.186978</v>
       </c>
       <c r="D143" t="n">
-        <v>0.199031</v>
+        <v>0.187645</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032299</v>
+        <v>0.0322803</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0199417</v>
+        <v>0.0197196</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0269949</v>
+        <v>0.0269583</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0331823</v>
+        <v>0.0334597</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0217671</v>
+        <v>0.0208198</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0268528</v>
+        <v>0.0268368</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0364355</v>
+        <v>0.0360132</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0254846</v>
+        <v>0.0242969</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0248821</v>
+        <v>0.0272299</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0418978</v>
+        <v>0.0417153</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0385877</v>
+        <v>0.038125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0258289</v>
+        <v>0.0255873</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0562166</v>
+        <v>0.0564434</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0594382</v>
+        <v>0.0591946</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0274489</v>
+        <v>0.0271749</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07665719999999999</v>
+        <v>0.07693800000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08570700000000001</v>
+        <v>0.0856537</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0316922</v>
+        <v>0.0315155</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.106749</v>
+        <v>0.106967</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116236</v>
+        <v>0.116737</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0478499</v>
+        <v>0.0482045</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14846</v>
+        <v>0.148745</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16501</v>
+        <v>0.165121</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0264743</v>
+        <v>0.0264596</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0306779</v>
+        <v>0.0308977</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0233015</v>
+        <v>0.0232982</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0268802</v>
+        <v>0.0269358</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0313871</v>
+        <v>0.0315492</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0235925</v>
+        <v>0.0234339</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0267598</v>
+        <v>0.0268457</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0317841</v>
+        <v>0.0318815</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0235507</v>
+        <v>0.0235886</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0274111</v>
+        <v>0.0269558</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323046</v>
+        <v>0.032451</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0235812</v>
+        <v>0.023947</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0270715</v>
+        <v>0.0270478</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0329672</v>
+        <v>0.0329745</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0236787</v>
+        <v>0.0240643</v>
       </c>
       <c r="D14" t="n">
-        <v>0.027473</v>
+        <v>0.0275764</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341584</v>
+        <v>0.0342643</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0233908</v>
+        <v>0.0233882</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0276201</v>
+        <v>0.0278261</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0351699</v>
+        <v>0.0351191</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02602</v>
+        <v>0.0264654</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0277324</v>
+        <v>0.0277822</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0381996</v>
+        <v>0.0381609</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0314839</v>
+        <v>0.0313794</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02814</v>
+        <v>0.0280484</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0417152</v>
+        <v>0.0415097</v>
       </c>
       <c r="C18" t="n">
-        <v>0.042952</v>
+        <v>0.0425579</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0280739</v>
+        <v>0.0280469</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0498198</v>
+        <v>0.0499256</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0530605</v>
+        <v>0.0529372</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0284143</v>
+        <v>0.0284337</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0605054</v>
+        <v>0.0605259</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0663561</v>
+        <v>0.0663371</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0304987</v>
+        <v>0.030465</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07760740000000001</v>
+        <v>0.07779419999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0876648</v>
+        <v>0.0876035</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0412114</v>
+        <v>0.041119</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100738</v>
+        <v>0.100784</v>
       </c>
       <c r="C22" t="n">
-        <v>0.116115</v>
+        <v>0.11571</v>
       </c>
       <c r="D22" t="n">
-        <v>0.055449</v>
+        <v>0.0555955</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139363</v>
+        <v>0.139144</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161683</v>
+        <v>0.161589</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0275323</v>
+        <v>0.0277957</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0319484</v>
+        <v>0.0321987</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0257607</v>
+        <v>0.0256351</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0279579</v>
+        <v>0.0279114</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0325526</v>
+        <v>0.032774</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0260301</v>
+        <v>0.025868</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0283929</v>
+        <v>0.0287561</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0334426</v>
+        <v>0.0337203</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0259946</v>
+        <v>0.0261773</v>
       </c>
       <c r="D26" t="n">
-        <v>0.028646</v>
+        <v>0.0293129</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343221</v>
+        <v>0.0343265</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0275052</v>
+        <v>0.0269188</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0288326</v>
+        <v>0.0287859</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351225</v>
+        <v>0.035332</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0285558</v>
+        <v>0.0279084</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0291901</v>
+        <v>0.0290104</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0366608</v>
+        <v>0.0366783</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0313266</v>
+        <v>0.0311114</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0295205</v>
+        <v>0.0293335</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0388191</v>
+        <v>0.0389261</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0351924</v>
+        <v>0.0350339</v>
       </c>
       <c r="D30" t="n">
-        <v>0.030173</v>
+        <v>0.0295935</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0417769</v>
+        <v>0.0418298</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0401434</v>
+        <v>0.0400524</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0304631</v>
+        <v>0.0303017</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0464726</v>
+        <v>0.0465226</v>
       </c>
       <c r="C32" t="n">
-        <v>0.047235</v>
+        <v>0.0472343</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0314281</v>
+        <v>0.0311742</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0527625</v>
+        <v>0.0527754</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0557007</v>
+        <v>0.0556844</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0330741</v>
+        <v>0.0327376</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0632805</v>
+        <v>0.0632862</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06674430000000001</v>
+        <v>0.06674140000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0379491</v>
+        <v>0.0377294</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0771323</v>
+        <v>0.0769707</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0815211</v>
+        <v>0.0811873</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0456226</v>
+        <v>0.04551</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0976553</v>
+        <v>0.09725789999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11126</v>
+        <v>0.111166</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0567623</v>
+        <v>0.0566446</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130974</v>
+        <v>0.12994</v>
       </c>
       <c r="C37" t="n">
-        <v>0.15444</v>
+        <v>0.154022</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0289356</v>
+        <v>0.0287706</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0334311</v>
+        <v>0.0331289</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0285009</v>
+        <v>0.0284765</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0292768</v>
+        <v>0.0291319</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0341481</v>
+        <v>0.0339468</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0290467</v>
+        <v>0.0290512</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0292913</v>
+        <v>0.0294861</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0346963</v>
+        <v>0.0345766</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0301236</v>
+        <v>0.0300624</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0304789</v>
+        <v>0.030447</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0354601</v>
+        <v>0.0353617</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0311621</v>
+        <v>0.0311423</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0305236</v>
+        <v>0.02982</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0365475</v>
+        <v>0.036302</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0326462</v>
+        <v>0.0327553</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0309725</v>
+        <v>0.0301498</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0377748</v>
+        <v>0.0376856</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0352277</v>
+        <v>0.0351895</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0311062</v>
+        <v>0.0306673</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0398546</v>
+        <v>0.0397671</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0380595</v>
+        <v>0.0380673</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0317772</v>
+        <v>0.0317353</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0428236</v>
+        <v>0.042803</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0423848</v>
+        <v>0.0423673</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0324712</v>
+        <v>0.0323235</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0470068</v>
+        <v>0.0469137</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0479833</v>
+        <v>0.0479948</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0339859</v>
+        <v>0.0339646</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0527996</v>
+        <v>0.0527373</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0545761</v>
+        <v>0.0545874</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0366147</v>
+        <v>0.0364607</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0606073</v>
+        <v>0.0605737</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06463389999999999</v>
+        <v>0.0646201</v>
       </c>
       <c r="D48" t="n">
-        <v>0.040544</v>
+        <v>0.0405184</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0735099</v>
+        <v>0.0734578</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0804267</v>
+        <v>0.0800626</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0459432</v>
+        <v>0.0459031</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0903873</v>
+        <v>0.0904103</v>
       </c>
       <c r="C50" t="n">
-        <v>0.103569</v>
+        <v>0.103175</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0543547</v>
+        <v>0.0542823</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122</v>
+        <v>0.120581</v>
       </c>
       <c r="C51" t="n">
-        <v>0.14193</v>
+        <v>0.140494</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0342426</v>
+        <v>0.0301753</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16751</v>
+        <v>0.165696</v>
       </c>
       <c r="C52" t="n">
-        <v>0.190097</v>
+        <v>0.189739</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0343142</v>
+        <v>0.0305374</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0352966</v>
+        <v>0.0352334</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0336909</v>
+        <v>0.0310607</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0345535</v>
+        <v>0.0304319</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0360519</v>
+        <v>0.0359661</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0344382</v>
+        <v>0.0318609</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0353996</v>
+        <v>0.0308227</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0369201</v>
+        <v>0.0368778</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0355434</v>
+        <v>0.0330359</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0359678</v>
+        <v>0.0311777</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0381461</v>
+        <v>0.038104</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0367975</v>
+        <v>0.0342858</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0360595</v>
+        <v>0.0316677</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0395579</v>
+        <v>0.0395677</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0385696</v>
+        <v>0.0361867</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0367338</v>
+        <v>0.0322883</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0415304</v>
+        <v>0.0416163</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0410919</v>
+        <v>0.0388219</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0371894</v>
+        <v>0.0329868</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0440163</v>
+        <v>0.0440753</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0439898</v>
+        <v>0.0418498</v>
       </c>
       <c r="D59" t="n">
-        <v>0.037869</v>
+        <v>0.0340815</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0476212</v>
+        <v>0.0476576</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0483255</v>
+        <v>0.0462636</v>
       </c>
       <c r="D60" t="n">
-        <v>0.039112</v>
+        <v>0.0355175</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0529322</v>
+        <v>0.0529933</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0550414</v>
+        <v>0.0531068</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0411514</v>
+        <v>0.0376048</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0606661</v>
+        <v>0.0607148</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0644348</v>
+        <v>0.0624777</v>
       </c>
       <c r="D62" t="n">
-        <v>0.044256</v>
+        <v>0.0408641</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07217419999999999</v>
+        <v>0.0721102</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0783322</v>
+        <v>0.0761894</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0490868</v>
+        <v>0.0458803</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.089437</v>
+        <v>0.089002</v>
       </c>
       <c r="C64" t="n">
-        <v>0.099296</v>
+        <v>0.0966581</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0568322</v>
+        <v>0.0537037</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117633</v>
+        <v>0.116639</v>
       </c>
       <c r="C65" t="n">
-        <v>0.134965</v>
+        <v>0.131259</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07049179999999999</v>
+        <v>0.0671461</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158797</v>
+        <v>0.156638</v>
       </c>
       <c r="C66" t="n">
-        <v>0.184095</v>
+        <v>0.179218</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0385142</v>
+        <v>0.036654</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0410273</v>
+        <v>0.0410703</v>
       </c>
       <c r="C67" t="n">
-        <v>0.036773</v>
+        <v>0.0365478</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0377691</v>
+        <v>0.0370995</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0416269</v>
+        <v>0.0416024</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0376086</v>
+        <v>0.0373587</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0383627</v>
+        <v>0.0374119</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0425181</v>
+        <v>0.0424976</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0385873</v>
+        <v>0.0385033</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0388598</v>
+        <v>0.0379307</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0435845</v>
+        <v>0.0436793</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0398064</v>
+        <v>0.0397912</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0393633</v>
+        <v>0.0383242</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0449661</v>
+        <v>0.0450499</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0412509</v>
+        <v>0.0412946</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0398871</v>
+        <v>0.0388828</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465574</v>
+        <v>0.0469261</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0433382</v>
+        <v>0.0436675</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0409102</v>
+        <v>0.0398485</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0487616</v>
+        <v>0.0493432</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0462366</v>
+        <v>0.0467441</v>
       </c>
       <c r="D73" t="n">
-        <v>0.04188</v>
+        <v>0.0408694</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0517853</v>
+        <v>0.0525163</v>
       </c>
       <c r="C74" t="n">
-        <v>0.050283</v>
+        <v>0.0509317</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0423734</v>
+        <v>0.042209</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0562244</v>
+        <v>0.0570614</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0563703</v>
+        <v>0.0571523</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0442576</v>
+        <v>0.0441784</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06305230000000001</v>
+        <v>0.0640201</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06492000000000001</v>
+        <v>0.0658503</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0468724</v>
+        <v>0.0468473</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0729523</v>
+        <v>0.0739409</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0775103</v>
+        <v>0.07837619999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0511079</v>
+        <v>0.0510657</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0886786</v>
+        <v>0.08937440000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0955797</v>
+        <v>0.09620670000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0577539</v>
+        <v>0.057837</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113498</v>
+        <v>0.113485</v>
       </c>
       <c r="C79" t="n">
-        <v>0.125802</v>
+        <v>0.125423</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0693372</v>
+        <v>0.069746</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.154541</v>
+        <v>0.151922</v>
       </c>
       <c r="C80" t="n">
-        <v>0.171983</v>
+        <v>0.170167</v>
       </c>
       <c r="D80" t="n">
-        <v>0.041629</v>
+        <v>0.0419063</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0460072</v>
+        <v>0.0481473</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0416703</v>
+        <v>0.0445213</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0420155</v>
+        <v>0.042548</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0468295</v>
+        <v>0.0492467</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0429591</v>
+        <v>0.0463342</v>
       </c>
       <c r="D82" t="n">
-        <v>0.042479</v>
+        <v>0.0431733</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0477205</v>
+        <v>0.0506089</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0444143</v>
+        <v>0.0483131</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0431968</v>
+        <v>0.0438181</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.048827</v>
+        <v>0.0525458</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0464397</v>
+        <v>0.0509463</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0435562</v>
+        <v>0.0446585</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0501857</v>
+        <v>0.0550324</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0492046</v>
+        <v>0.054146</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0453183</v>
+        <v>0.0458663</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0520886</v>
+        <v>0.0583456</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0526015</v>
+        <v>0.0577225</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0457035</v>
+        <v>0.047348</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0549725</v>
+        <v>0.0621002</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0568697</v>
+        <v>0.0623018</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0460232</v>
+        <v>0.0492384</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0588973</v>
+        <v>0.06702710000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.063169</v>
+        <v>0.0683743</v>
       </c>
       <c r="D88" t="n">
-        <v>0.048116</v>
+        <v>0.0516184</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06489449999999999</v>
+        <v>0.073601</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0709468</v>
+        <v>0.0756192</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0495363</v>
+        <v>0.0547623</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0735838</v>
+        <v>0.0820174</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0814115</v>
+        <v>0.08541070000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0527385</v>
+        <v>0.0591633</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.08579100000000001</v>
+        <v>0.093473</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0951157</v>
+        <v>0.0976327</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0577372</v>
+        <v>0.0652876</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.103631</v>
+        <v>0.108441</v>
       </c>
       <c r="C92" t="n">
-        <v>0.113791</v>
+        <v>0.114291</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06581770000000001</v>
+        <v>0.07364850000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.13076</v>
+        <v>0.130011</v>
       </c>
       <c r="C93" t="n">
-        <v>0.144406</v>
+        <v>0.139588</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0794333</v>
+        <v>0.0864222</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171255</v>
+        <v>0.163507</v>
       </c>
       <c r="C94" t="n">
-        <v>0.189071</v>
+        <v>0.179184</v>
       </c>
       <c r="D94" t="n">
-        <v>0.046141</v>
+        <v>0.0517012</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0591801</v>
+        <v>0.0674275</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0648108</v>
+        <v>0.0630212</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0476275</v>
+        <v>0.053448</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06335880000000001</v>
+        <v>0.0704848</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06859709999999999</v>
+        <v>0.0654053</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0493717</v>
+        <v>0.0551243</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06777179999999999</v>
+        <v>0.07260170000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.07273209999999999</v>
+        <v>0.06781619999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0521459</v>
+        <v>0.0573375</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0734191</v>
+        <v>0.0750965</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07687910000000001</v>
+        <v>0.0712634</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0547484</v>
+        <v>0.0590937</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07928259999999999</v>
+        <v>0.0786246</v>
       </c>
       <c r="C99" t="n">
-        <v>0.08114209999999999</v>
+        <v>0.0747994</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0573728</v>
+        <v>0.0611145</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0858786</v>
+        <v>0.08132490000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.08604580000000001</v>
+        <v>0.0790824</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0620188</v>
+        <v>0.0634837</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.092352</v>
+        <v>0.0851899</v>
       </c>
       <c r="C101" t="n">
-        <v>0.091568</v>
+        <v>0.0836581</v>
       </c>
       <c r="D101" t="n">
-        <v>0.065485</v>
+        <v>0.0652208</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09985330000000001</v>
+        <v>0.0891156</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0979005</v>
+        <v>0.088976</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07044499999999999</v>
+        <v>0.067791</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.108041</v>
+        <v>0.09487139999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.106034</v>
+        <v>0.0964045</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0758901</v>
+        <v>0.0706447</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.11798</v>
+        <v>0.102322</v>
       </c>
       <c r="C104" t="n">
-        <v>0.11634</v>
+        <v>0.105654</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0819535</v>
+        <v>0.0747799</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.129514</v>
+        <v>0.112768</v>
       </c>
       <c r="C105" t="n">
-        <v>0.129097</v>
+        <v>0.117075</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0899249</v>
+        <v>0.0802442</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.145773</v>
+        <v>0.127399</v>
       </c>
       <c r="C106" t="n">
-        <v>0.14634</v>
+        <v>0.132585</v>
       </c>
       <c r="D106" t="n">
-        <v>0.099268</v>
+        <v>0.087716</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1653</v>
+        <v>0.147976</v>
       </c>
       <c r="C107" t="n">
-        <v>0.17214</v>
+        <v>0.156295</v>
       </c>
       <c r="D107" t="n">
-        <v>0.112373</v>
+        <v>0.09953149999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.195831</v>
+        <v>0.177331</v>
       </c>
       <c r="C108" t="n">
-        <v>0.213235</v>
+        <v>0.193919</v>
       </c>
       <c r="D108" t="n">
-        <v>0.068277</v>
+        <v>0.059685</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.242081</v>
+        <v>0.222908</v>
       </c>
       <c r="C109" t="n">
-        <v>0.27577</v>
+        <v>0.255225</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0701889</v>
+        <v>0.0607237</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0975374</v>
+        <v>0.0804585</v>
       </c>
       <c r="C110" t="n">
-        <v>0.09032270000000001</v>
+        <v>0.08114830000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.07285030000000001</v>
+        <v>0.0620246</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.100793</v>
+        <v>0.0833372</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0934364</v>
+        <v>0.0836885</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0752589</v>
+        <v>0.06376329999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.103449</v>
+        <v>0.0865124</v>
       </c>
       <c r="C112" t="n">
-        <v>0.096752</v>
+        <v>0.0863299</v>
       </c>
       <c r="D112" t="n">
-        <v>0.07771889999999999</v>
+        <v>0.0653053</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.10665</v>
+        <v>0.0904958</v>
       </c>
       <c r="C113" t="n">
-        <v>0.100032</v>
+        <v>0.0892703</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0800855</v>
+        <v>0.0669931</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.109848</v>
+        <v>0.0947456</v>
       </c>
       <c r="C114" t="n">
-        <v>0.103936</v>
+        <v>0.0931555</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0827562</v>
+        <v>0.06991120000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.114327</v>
+        <v>0.099984</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1086</v>
+        <v>0.09765359999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0851431</v>
+        <v>0.0726489</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.118925</v>
+        <v>0.105764</v>
       </c>
       <c r="C116" t="n">
-        <v>0.114279</v>
+        <v>0.103279</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0882785</v>
+        <v>0.0765359</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125112</v>
+        <v>0.112634</v>
       </c>
       <c r="C117" t="n">
-        <v>0.121244</v>
+        <v>0.110097</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09216770000000001</v>
+        <v>0.0803995</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.132476</v>
+        <v>0.120539</v>
       </c>
       <c r="C118" t="n">
-        <v>0.130236</v>
+        <v>0.119346</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0966877</v>
+        <v>0.0865211</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.14261</v>
+        <v>0.130301</v>
       </c>
       <c r="C119" t="n">
-        <v>0.141872</v>
+        <v>0.130408</v>
       </c>
       <c r="D119" t="n">
-        <v>0.102597</v>
+        <v>0.0929953</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.156167</v>
+        <v>0.143355</v>
       </c>
       <c r="C120" t="n">
-        <v>0.158312</v>
+        <v>0.145842</v>
       </c>
       <c r="D120" t="n">
-        <v>0.110719</v>
+        <v>0.101463</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.175097</v>
+        <v>0.161735</v>
       </c>
       <c r="C121" t="n">
-        <v>0.182169</v>
+        <v>0.167236</v>
       </c>
       <c r="D121" t="n">
-        <v>0.122313</v>
+        <v>0.113496</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.202537</v>
+        <v>0.1877</v>
       </c>
       <c r="C122" t="n">
-        <v>0.21831</v>
+        <v>0.200734</v>
       </c>
       <c r="D122" t="n">
-        <v>0.141669</v>
+        <v>0.132057</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.244119</v>
+        <v>0.227612</v>
       </c>
       <c r="C123" t="n">
-        <v>0.276313</v>
+        <v>0.256048</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08580260000000001</v>
+        <v>0.0825369</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.108842</v>
+        <v>0.102859</v>
       </c>
       <c r="C124" t="n">
-        <v>0.108212</v>
+        <v>0.100787</v>
       </c>
       <c r="D124" t="n">
-        <v>0.09118560000000001</v>
+        <v>0.0876164</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.111968</v>
+        <v>0.106558</v>
       </c>
       <c r="C125" t="n">
-        <v>0.109299</v>
+        <v>0.102151</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0903094</v>
+        <v>0.0877416</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.114518</v>
+        <v>0.107648</v>
       </c>
       <c r="C126" t="n">
-        <v>0.110628</v>
+        <v>0.103085</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0904331</v>
+        <v>0.0865406</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.116943</v>
+        <v>0.111843</v>
       </c>
       <c r="C127" t="n">
-        <v>0.113977</v>
+        <v>0.10708</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0920328</v>
+        <v>0.0894992</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.123494</v>
+        <v>0.114401</v>
       </c>
       <c r="C128" t="n">
-        <v>0.120089</v>
+        <v>0.111204</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0973691</v>
+        <v>0.0928495</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.124146</v>
+        <v>0.116348</v>
       </c>
       <c r="C129" t="n">
-        <v>0.122698</v>
+        <v>0.115943</v>
       </c>
       <c r="D129" t="n">
-        <v>0.09652860000000001</v>
+        <v>0.0954923</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.129923</v>
+        <v>0.122426</v>
       </c>
       <c r="C130" t="n">
-        <v>0.128951</v>
+        <v>0.120464</v>
       </c>
       <c r="D130" t="n">
-        <v>0.100814</v>
+        <v>0.0968272</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.134506</v>
+        <v>0.128211</v>
       </c>
       <c r="C131" t="n">
-        <v>0.136499</v>
+        <v>0.127323</v>
       </c>
       <c r="D131" t="n">
-        <v>0.105944</v>
+        <v>0.100668</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.140714</v>
+        <v>0.133381</v>
       </c>
       <c r="C132" t="n">
-        <v>0.144188</v>
+        <v>0.134395</v>
       </c>
       <c r="D132" t="n">
-        <v>0.108376</v>
+        <v>0.103572</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.152608</v>
+        <v>0.140235</v>
       </c>
       <c r="C133" t="n">
-        <v>0.155821</v>
+        <v>0.143432</v>
       </c>
       <c r="D133" t="n">
-        <v>0.114273</v>
+        <v>0.106728</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.164651</v>
+        <v>0.153302</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171442</v>
+        <v>0.158334</v>
       </c>
       <c r="D134" t="n">
-        <v>0.120995</v>
+        <v>0.115195</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.183625</v>
+        <v>0.168881</v>
       </c>
       <c r="C135" t="n">
-        <v>0.194899</v>
+        <v>0.178161</v>
       </c>
       <c r="D135" t="n">
-        <v>0.134296</v>
+        <v>0.124721</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.20874</v>
+        <v>0.194675</v>
       </c>
       <c r="C136" t="n">
-        <v>0.227096</v>
+        <v>0.208598</v>
       </c>
       <c r="D136" t="n">
-        <v>0.150544</v>
+        <v>0.140212</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.247081</v>
+        <v>0.230901</v>
       </c>
       <c r="C137" t="n">
-        <v>0.281233</v>
+        <v>0.26</v>
       </c>
       <c r="D137" t="n">
-        <v>0.177103</v>
+        <v>0.158234</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.185685</v>
+        <v>0.166833</v>
       </c>
       <c r="C138" t="n">
-        <v>0.17116</v>
+        <v>0.154254</v>
       </c>
       <c r="D138" t="n">
-        <v>0.177938</v>
+        <v>0.160316</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.185475</v>
+        <v>0.168414</v>
       </c>
       <c r="C139" t="n">
-        <v>0.173449</v>
+        <v>0.15622</v>
       </c>
       <c r="D139" t="n">
-        <v>0.179085</v>
+        <v>0.162208</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.188618</v>
+        <v>0.170481</v>
       </c>
       <c r="C140" t="n">
-        <v>0.176127</v>
+        <v>0.159096</v>
       </c>
       <c r="D140" t="n">
-        <v>0.180776</v>
+        <v>0.163374</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.190248</v>
+        <v>0.172044</v>
       </c>
       <c r="C141" t="n">
-        <v>0.178128</v>
+        <v>0.161454</v>
       </c>
       <c r="D141" t="n">
-        <v>0.182667</v>
+        <v>0.16588</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.193316</v>
+        <v>0.174368</v>
       </c>
       <c r="C142" t="n">
-        <v>0.182044</v>
+        <v>0.164743</v>
       </c>
       <c r="D142" t="n">
-        <v>0.185204</v>
+        <v>0.166737</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.196615</v>
+        <v>0.175707</v>
       </c>
       <c r="C143" t="n">
-        <v>0.186978</v>
+        <v>0.169161</v>
       </c>
       <c r="D143" t="n">
-        <v>0.187645</v>
+        <v>0.169532</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0322803</v>
+        <v>0.0323219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0197196</v>
+        <v>0.0197729</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0269583</v>
+        <v>0.0269555</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0334597</v>
+        <v>0.0332414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0208198</v>
+        <v>0.0210609</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0268368</v>
+        <v>0.0269495</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0360132</v>
+        <v>0.0361288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0242969</v>
+        <v>0.025057</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0272299</v>
+        <v>0.0273948</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0417153</v>
+        <v>0.0419976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.038125</v>
+        <v>0.0384145</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0255873</v>
+        <v>0.0256612</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0564434</v>
+        <v>0.056708</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0591946</v>
+        <v>0.0597567</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0271749</v>
+        <v>0.0271008</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07693800000000001</v>
+        <v>0.0767673</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0856537</v>
+        <v>0.0851671</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0315155</v>
+        <v>0.0308444</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.106967</v>
+        <v>0.106879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116737</v>
+        <v>0.11625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0482045</v>
+        <v>0.0479629</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148745</v>
+        <v>0.148674</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165121</v>
+        <v>0.164844</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0264596</v>
+        <v>0.0264437</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0308977</v>
+        <v>0.0307191</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0232982</v>
+        <v>0.0232577</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0269358</v>
+        <v>0.026624</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0315492</v>
+        <v>0.0313902</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0234339</v>
+        <v>0.0234965</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0268457</v>
+        <v>0.026777</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0318815</v>
+        <v>0.0316114</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0235886</v>
+        <v>0.0235733</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0269558</v>
+        <v>0.0269372</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.032451</v>
+        <v>0.0323941</v>
       </c>
       <c r="C13" t="n">
-        <v>0.023947</v>
+        <v>0.0238108</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0270478</v>
+        <v>0.0272175</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0329745</v>
+        <v>0.0330209</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0240643</v>
+        <v>0.0241034</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0275764</v>
+        <v>0.027597</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0342643</v>
+        <v>0.03405</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0233882</v>
+        <v>0.0237546</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0278261</v>
+        <v>0.0278332</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0351191</v>
+        <v>0.034865</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0264654</v>
+        <v>0.0261527</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0277822</v>
+        <v>0.0278952</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0381609</v>
+        <v>0.0380822</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0313794</v>
+        <v>0.031419</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0280484</v>
+        <v>0.0282082</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0415097</v>
+        <v>0.0412368</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0425579</v>
+        <v>0.0428863</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0280469</v>
+        <v>0.0282505</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0499256</v>
+        <v>0.0497506</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0529372</v>
+        <v>0.0529024</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0284337</v>
+        <v>0.0284224</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0605259</v>
+        <v>0.0601163</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0663371</v>
+        <v>0.06619609999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.030465</v>
+        <v>0.0302729</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07779419999999999</v>
+        <v>0.0775926</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0876035</v>
+        <v>0.0877711</v>
       </c>
       <c r="D21" t="n">
-        <v>0.041119</v>
+        <v>0.0412815</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100784</v>
+        <v>0.100664</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11571</v>
+        <v>0.115546</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0555955</v>
+        <v>0.0551684</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139144</v>
+        <v>0.139063</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161589</v>
+        <v>0.16199</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0277957</v>
+        <v>0.0278737</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0321987</v>
+        <v>0.0320496</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0256351</v>
+        <v>0.0256027</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0279114</v>
+        <v>0.0282007</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.032774</v>
+        <v>0.0327471</v>
       </c>
       <c r="C25" t="n">
-        <v>0.025868</v>
+        <v>0.0257025</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0287561</v>
+        <v>0.0283163</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0337203</v>
+        <v>0.0336054</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0261773</v>
+        <v>0.0261845</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0293129</v>
+        <v>0.0291437</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343265</v>
+        <v>0.0342808</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0269188</v>
+        <v>0.0270969</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0287859</v>
+        <v>0.0289432</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.035332</v>
+        <v>0.0351808</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0279084</v>
+        <v>0.0282626</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0290104</v>
+        <v>0.0292376</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0366783</v>
+        <v>0.036633</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0311114</v>
+        <v>0.0312051</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0293335</v>
+        <v>0.029441</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0389261</v>
+        <v>0.0388492</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0350339</v>
+        <v>0.0350599</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0295935</v>
+        <v>0.029935</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0418298</v>
+        <v>0.0417456</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0400524</v>
+        <v>0.0401153</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0303017</v>
+        <v>0.0303826</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0465226</v>
+        <v>0.0463004</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0472343</v>
+        <v>0.0472777</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0311742</v>
+        <v>0.0312912</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0527754</v>
+        <v>0.052677</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0556844</v>
+        <v>0.055785</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0327376</v>
+        <v>0.0328047</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0632862</v>
+        <v>0.0631104</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06674140000000001</v>
+        <v>0.0668401</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0377294</v>
+        <v>0.0378966</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0769707</v>
+        <v>0.0768702</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0811873</v>
+        <v>0.0816187</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04551</v>
+        <v>0.0455521</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09725789999999999</v>
+        <v>0.0971008</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111166</v>
+        <v>0.111028</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0566446</v>
+        <v>0.0567811</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.12994</v>
+        <v>0.129982</v>
       </c>
       <c r="C37" t="n">
-        <v>0.154022</v>
+        <v>0.153127</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0287706</v>
+        <v>0.0289093</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0331289</v>
+        <v>0.0330174</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0284765</v>
+        <v>0.0283982</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0291319</v>
+        <v>0.0291215</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339468</v>
+        <v>0.0338582</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0290512</v>
+        <v>0.0289901</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0294861</v>
+        <v>0.0295912</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0345766</v>
+        <v>0.0345177</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0300624</v>
+        <v>0.0300255</v>
       </c>
       <c r="D40" t="n">
-        <v>0.030447</v>
+        <v>0.0305637</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0353617</v>
+        <v>0.0352414</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0311423</v>
+        <v>0.0310533</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02982</v>
+        <v>0.0297672</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.036302</v>
+        <v>0.0362534</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0327553</v>
+        <v>0.0327733</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0301498</v>
+        <v>0.030252</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0376856</v>
+        <v>0.0375699</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0351895</v>
+        <v>0.0351042</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0306673</v>
+        <v>0.0308429</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0397671</v>
+        <v>0.0396816</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0380673</v>
+        <v>0.0380073</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0317353</v>
+        <v>0.0315901</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.042803</v>
+        <v>0.0426901</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0423673</v>
+        <v>0.0424052</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0323235</v>
+        <v>0.0324497</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0469137</v>
+        <v>0.0468075</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0479948</v>
+        <v>0.0479438</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0339646</v>
+        <v>0.033781</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0527373</v>
+        <v>0.0526668</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0545874</v>
+        <v>0.0545814</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0364607</v>
+        <v>0.036456</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0605737</v>
+        <v>0.0605214</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0646201</v>
+        <v>0.06465899999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0405184</v>
+        <v>0.0405797</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0734578</v>
+        <v>0.07335999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0800626</v>
+        <v>0.08031199999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0459031</v>
+        <v>0.0459875</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0904103</v>
+        <v>0.09035609999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.103175</v>
+        <v>0.103277</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0542823</v>
+        <v>0.0543861</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120581</v>
+        <v>0.120508</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140494</v>
+        <v>0.14156</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0301753</v>
+        <v>0.0315973</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165696</v>
+        <v>0.165486</v>
       </c>
       <c r="C52" t="n">
-        <v>0.189739</v>
+        <v>0.189894</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0305374</v>
+        <v>0.0317384</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0352334</v>
+        <v>0.0362972</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0310607</v>
+        <v>0.0320066</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0304319</v>
+        <v>0.031838</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0359661</v>
+        <v>0.0369699</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0318609</v>
+        <v>0.0326806</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0308227</v>
+        <v>0.0322721</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0368778</v>
+        <v>0.037918</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0330359</v>
+        <v>0.0338373</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0311777</v>
+        <v>0.0325876</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.038104</v>
+        <v>0.0390387</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0342858</v>
+        <v>0.0350228</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0316677</v>
+        <v>0.0330093</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0395677</v>
+        <v>0.0404117</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0361867</v>
+        <v>0.036877</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0322883</v>
+        <v>0.0340533</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0416163</v>
+        <v>0.0423105</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0388219</v>
+        <v>0.0394755</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0329868</v>
+        <v>0.034686</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0440753</v>
+        <v>0.0447069</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0418498</v>
+        <v>0.0424302</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0340815</v>
+        <v>0.0353931</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0476576</v>
+        <v>0.0482271</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0462636</v>
+        <v>0.0467601</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0355175</v>
+        <v>0.0366584</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0529933</v>
+        <v>0.0534877</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0531068</v>
+        <v>0.0535587</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0376048</v>
+        <v>0.0387263</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0607148</v>
+        <v>0.0611053</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0624777</v>
+        <v>0.06286319999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0408641</v>
+        <v>0.0417962</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0721102</v>
+        <v>0.0724335</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0761894</v>
+        <v>0.0765352</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0458803</v>
+        <v>0.0467775</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.089002</v>
+        <v>0.0892858</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0966581</v>
+        <v>0.096849</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0537037</v>
+        <v>0.0545387</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116639</v>
+        <v>0.116967</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131259</v>
+        <v>0.132461</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0671461</v>
+        <v>0.068004</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156638</v>
+        <v>0.157123</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179218</v>
+        <v>0.179397</v>
       </c>
       <c r="D66" t="n">
-        <v>0.036654</v>
+        <v>0.0376999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0410703</v>
+        <v>0.0409031</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0365478</v>
+        <v>0.0363698</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0370995</v>
+        <v>0.0370994</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0416024</v>
+        <v>0.0414805</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0373587</v>
+        <v>0.0371218</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0374119</v>
+        <v>0.0375014</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0424976</v>
+        <v>0.0423311</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0385033</v>
+        <v>0.038185</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0379307</v>
+        <v>0.038127</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0436793</v>
+        <v>0.0434701</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0397912</v>
+        <v>0.0394183</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0383242</v>
+        <v>0.0385808</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0450499</v>
+        <v>0.0448201</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0412946</v>
+        <v>0.0408917</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0388828</v>
+        <v>0.0401442</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0469261</v>
+        <v>0.0463801</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0436675</v>
+        <v>0.0430212</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0398485</v>
+        <v>0.0398773</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0493432</v>
+        <v>0.0485478</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0467441</v>
+        <v>0.0459986</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0408694</v>
+        <v>0.0407151</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0525163</v>
+        <v>0.0515863</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0509317</v>
+        <v>0.0500537</v>
       </c>
       <c r="D74" t="n">
-        <v>0.042209</v>
+        <v>0.0419155</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0570614</v>
+        <v>0.0561988</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0571523</v>
+        <v>0.0560782</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0441784</v>
+        <v>0.0438161</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0640201</v>
+        <v>0.0631084</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0658503</v>
+        <v>0.0647591</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0468473</v>
+        <v>0.0464202</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0739409</v>
+        <v>0.0729976</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07837619999999999</v>
+        <v>0.0773221</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0510657</v>
+        <v>0.0505961</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08937440000000001</v>
+        <v>0.08840389999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09620670000000001</v>
+        <v>0.0951906</v>
       </c>
       <c r="D78" t="n">
-        <v>0.057837</v>
+        <v>0.0572204</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113485</v>
+        <v>0.112261</v>
       </c>
       <c r="C79" t="n">
-        <v>0.125423</v>
+        <v>0.124486</v>
       </c>
       <c r="D79" t="n">
-        <v>0.069746</v>
+        <v>0.0689298</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151922</v>
+        <v>0.150995</v>
       </c>
       <c r="C80" t="n">
-        <v>0.170167</v>
+        <v>0.169645</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0419063</v>
+        <v>0.0417733</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0481473</v>
+        <v>0.0475829</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0445213</v>
+        <v>0.0445281</v>
       </c>
       <c r="D81" t="n">
-        <v>0.042548</v>
+        <v>0.0424366</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0492467</v>
+        <v>0.048812</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0463342</v>
+        <v>0.0464534</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0431733</v>
+        <v>0.0431561</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0506089</v>
+        <v>0.0502159</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0483131</v>
+        <v>0.0485093</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0438181</v>
+        <v>0.0440954</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0525458</v>
+        <v>0.0523415</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0509463</v>
+        <v>0.051017</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0446585</v>
+        <v>0.0458118</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0550324</v>
+        <v>0.0546667</v>
       </c>
       <c r="C85" t="n">
-        <v>0.054146</v>
+        <v>0.0540323</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0458663</v>
+        <v>0.0460526</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0583456</v>
+        <v>0.0580317</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0577225</v>
+        <v>0.0576617</v>
       </c>
       <c r="D86" t="n">
-        <v>0.047348</v>
+        <v>0.0475455</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0621002</v>
+        <v>0.0618295</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0623018</v>
+        <v>0.0621996</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0492384</v>
+        <v>0.049213</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06702710000000001</v>
+        <v>0.0669131</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0683743</v>
+        <v>0.0681775</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0516184</v>
+        <v>0.0517524</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.073601</v>
+        <v>0.0733396</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0756192</v>
+        <v>0.07536080000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0547623</v>
+        <v>0.0549097</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0820174</v>
+        <v>0.0818811</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08541070000000001</v>
+        <v>0.0852632</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0591633</v>
+        <v>0.0593637</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.093473</v>
+        <v>0.0927293</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0976327</v>
+        <v>0.0974237</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0652876</v>
+        <v>0.0652039</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.108441</v>
+        <v>0.107483</v>
       </c>
       <c r="C92" t="n">
-        <v>0.114291</v>
+        <v>0.114214</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07364850000000001</v>
+        <v>0.07342170000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.130011</v>
+        <v>0.129209</v>
       </c>
       <c r="C93" t="n">
-        <v>0.139588</v>
+        <v>0.139728</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0864222</v>
+        <v>0.0864055</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.163507</v>
+        <v>0.162913</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179184</v>
+        <v>0.179438</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0517012</v>
+        <v>0.0522334</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0674275</v>
+        <v>0.0669395</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0630212</v>
+        <v>0.0627472</v>
       </c>
       <c r="D95" t="n">
-        <v>0.053448</v>
+        <v>0.0538958</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0704848</v>
+        <v>0.0696252</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0654053</v>
+        <v>0.0649991</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0551243</v>
+        <v>0.055299</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07260170000000001</v>
+        <v>0.0726599</v>
       </c>
       <c r="C97" t="n">
-        <v>0.06781619999999999</v>
+        <v>0.0680592</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0573375</v>
+        <v>0.0578166</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0750965</v>
+        <v>0.0748172</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0712634</v>
+        <v>0.0710253</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0590937</v>
+        <v>0.0597786</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0786246</v>
+        <v>0.0783589</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0747994</v>
+        <v>0.0749692</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0611145</v>
+        <v>0.0616162</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08132490000000001</v>
+        <v>0.08187120000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0790824</v>
+        <v>0.0791712</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0634837</v>
+        <v>0.06326909999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0851899</v>
+        <v>0.0854823</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0836581</v>
+        <v>0.0841215</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0652208</v>
+        <v>0.0653128</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0891156</v>
+        <v>0.0893808</v>
       </c>
       <c r="C102" t="n">
-        <v>0.088976</v>
+        <v>0.08955399999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.067791</v>
+        <v>0.0677799</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09487139999999999</v>
+        <v>0.09484099999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0964045</v>
+        <v>0.0965109</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0706447</v>
+        <v>0.07063609999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102322</v>
+        <v>0.10325</v>
       </c>
       <c r="C104" t="n">
-        <v>0.105654</v>
+        <v>0.105775</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0747799</v>
+        <v>0.07464700000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.112768</v>
+        <v>0.113402</v>
       </c>
       <c r="C105" t="n">
-        <v>0.117075</v>
+        <v>0.117521</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0802442</v>
+        <v>0.0798982</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.127399</v>
+        <v>0.128398</v>
       </c>
       <c r="C106" t="n">
-        <v>0.132585</v>
+        <v>0.133659</v>
       </c>
       <c r="D106" t="n">
-        <v>0.087716</v>
+        <v>0.08765000000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.147976</v>
+        <v>0.148828</v>
       </c>
       <c r="C107" t="n">
-        <v>0.156295</v>
+        <v>0.156939</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09953149999999999</v>
+        <v>0.09981859999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.177331</v>
+        <v>0.178961</v>
       </c>
       <c r="C108" t="n">
-        <v>0.193919</v>
+        <v>0.194889</v>
       </c>
       <c r="D108" t="n">
-        <v>0.059685</v>
+        <v>0.0596151</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.222908</v>
+        <v>0.223875</v>
       </c>
       <c r="C109" t="n">
-        <v>0.255225</v>
+        <v>0.256305</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0607237</v>
+        <v>0.0612891</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0804585</v>
+        <v>0.0808721</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08114830000000001</v>
+        <v>0.0810289</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0620246</v>
+        <v>0.0624307</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0833372</v>
+        <v>0.0831687</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0836885</v>
+        <v>0.0832774</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06376329999999999</v>
+        <v>0.0635067</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0865124</v>
+        <v>0.08644739999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0863299</v>
+        <v>0.0862391</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0653053</v>
+        <v>0.0650908</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0904958</v>
+        <v>0.0904742</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0892703</v>
+        <v>0.089253</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0669931</v>
+        <v>0.0672141</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0947456</v>
+        <v>0.0946726</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0931555</v>
+        <v>0.0929345</v>
       </c>
       <c r="D114" t="n">
-        <v>0.06991120000000001</v>
+        <v>0.0698817</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.099984</v>
+        <v>0.100194</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09765359999999999</v>
+        <v>0.09758169999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0726489</v>
+        <v>0.0727124</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.105764</v>
+        <v>0.106063</v>
       </c>
       <c r="C116" t="n">
-        <v>0.103279</v>
+        <v>0.102866</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0765359</v>
+        <v>0.07634639999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.112634</v>
+        <v>0.112769</v>
       </c>
       <c r="C117" t="n">
-        <v>0.110097</v>
+        <v>0.109992</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0803995</v>
+        <v>0.0804274</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120539</v>
+        <v>0.120634</v>
       </c>
       <c r="C118" t="n">
-        <v>0.119346</v>
+        <v>0.119004</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0865211</v>
+        <v>0.0860122</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.130301</v>
+        <v>0.130324</v>
       </c>
       <c r="C119" t="n">
-        <v>0.130408</v>
+        <v>0.130217</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0929953</v>
+        <v>0.09277729999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.143355</v>
+        <v>0.143205</v>
       </c>
       <c r="C120" t="n">
-        <v>0.145842</v>
+        <v>0.145489</v>
       </c>
       <c r="D120" t="n">
-        <v>0.101463</v>
+        <v>0.101251</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.161735</v>
+        <v>0.161589</v>
       </c>
       <c r="C121" t="n">
-        <v>0.167236</v>
+        <v>0.167164</v>
       </c>
       <c r="D121" t="n">
-        <v>0.113496</v>
+        <v>0.113387</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1877</v>
+        <v>0.187485</v>
       </c>
       <c r="C122" t="n">
-        <v>0.200734</v>
+        <v>0.200584</v>
       </c>
       <c r="D122" t="n">
-        <v>0.132057</v>
+        <v>0.131741</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.227612</v>
+        <v>0.227711</v>
       </c>
       <c r="C123" t="n">
-        <v>0.256048</v>
+        <v>0.255824</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0825369</v>
+        <v>0.0802404</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102859</v>
+        <v>0.101713</v>
       </c>
       <c r="C124" t="n">
-        <v>0.100787</v>
+        <v>0.09823320000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0876164</v>
+        <v>0.0829738</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106558</v>
+        <v>0.106011</v>
       </c>
       <c r="C125" t="n">
-        <v>0.102151</v>
+        <v>0.101819</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0877416</v>
+        <v>0.0865291</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107648</v>
+        <v>0.106724</v>
       </c>
       <c r="C126" t="n">
-        <v>0.103085</v>
+        <v>0.105158</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0865406</v>
+        <v>0.08912390000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111843</v>
+        <v>0.109679</v>
       </c>
       <c r="C127" t="n">
-        <v>0.10708</v>
+        <v>0.107361</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0894992</v>
+        <v>0.0895575</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114401</v>
+        <v>0.115381</v>
       </c>
       <c r="C128" t="n">
-        <v>0.111204</v>
+        <v>0.111747</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0928495</v>
+        <v>0.0933233</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116348</v>
+        <v>0.118923</v>
       </c>
       <c r="C129" t="n">
-        <v>0.115943</v>
+        <v>0.115708</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0954923</v>
+        <v>0.0949281</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122426</v>
+        <v>0.120667</v>
       </c>
       <c r="C130" t="n">
-        <v>0.120464</v>
+        <v>0.120674</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0968272</v>
+        <v>0.09719849999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.128211</v>
+        <v>0.126582</v>
       </c>
       <c r="C131" t="n">
-        <v>0.127323</v>
+        <v>0.125326</v>
       </c>
       <c r="D131" t="n">
-        <v>0.100668</v>
+        <v>0.09805030000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133381</v>
+        <v>0.133286</v>
       </c>
       <c r="C132" t="n">
-        <v>0.134395</v>
+        <v>0.134692</v>
       </c>
       <c r="D132" t="n">
-        <v>0.103572</v>
+        <v>0.103583</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.140235</v>
+        <v>0.14235</v>
       </c>
       <c r="C133" t="n">
-        <v>0.143432</v>
+        <v>0.144444</v>
       </c>
       <c r="D133" t="n">
-        <v>0.106728</v>
+        <v>0.108439</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153302</v>
+        <v>0.154297</v>
       </c>
       <c r="C134" t="n">
-        <v>0.158334</v>
+        <v>0.158948</v>
       </c>
       <c r="D134" t="n">
-        <v>0.115195</v>
+        <v>0.115677</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.168881</v>
+        <v>0.168496</v>
       </c>
       <c r="C135" t="n">
-        <v>0.178161</v>
+        <v>0.179113</v>
       </c>
       <c r="D135" t="n">
-        <v>0.124721</v>
+        <v>0.126237</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194675</v>
+        <v>0.194516</v>
       </c>
       <c r="C136" t="n">
-        <v>0.208598</v>
+        <v>0.209012</v>
       </c>
       <c r="D136" t="n">
-        <v>0.140212</v>
+        <v>0.140079</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.230901</v>
+        <v>0.230344</v>
       </c>
       <c r="C137" t="n">
-        <v>0.26</v>
+        <v>0.258745</v>
       </c>
       <c r="D137" t="n">
-        <v>0.158234</v>
+        <v>0.158782</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166833</v>
+        <v>0.166628</v>
       </c>
       <c r="C138" t="n">
-        <v>0.154254</v>
+        <v>0.154202</v>
       </c>
       <c r="D138" t="n">
-        <v>0.160316</v>
+        <v>0.161059</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.168414</v>
+        <v>0.167489</v>
       </c>
       <c r="C139" t="n">
-        <v>0.15622</v>
+        <v>0.157028</v>
       </c>
       <c r="D139" t="n">
-        <v>0.162208</v>
+        <v>0.163101</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.170481</v>
+        <v>0.169849</v>
       </c>
       <c r="C140" t="n">
-        <v>0.159096</v>
+        <v>0.159279</v>
       </c>
       <c r="D140" t="n">
-        <v>0.163374</v>
+        <v>0.164647</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172044</v>
+        <v>0.171906</v>
       </c>
       <c r="C141" t="n">
-        <v>0.161454</v>
+        <v>0.161764</v>
       </c>
       <c r="D141" t="n">
-        <v>0.16588</v>
+        <v>0.165241</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174368</v>
+        <v>0.174088</v>
       </c>
       <c r="C142" t="n">
-        <v>0.164743</v>
+        <v>0.164509</v>
       </c>
       <c r="D142" t="n">
-        <v>0.166737</v>
+        <v>0.166834</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.175707</v>
+        <v>0.175806</v>
       </c>
       <c r="C143" t="n">
-        <v>0.169161</v>
+        <v>0.167439</v>
       </c>
       <c r="D143" t="n">
-        <v>0.169532</v>
+        <v>0.167186</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0323219</v>
+        <v>0.0324054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0197729</v>
+        <v>0.0195676</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0269555</v>
+        <v>0.0270667</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0332414</v>
+        <v>0.0333617</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0210609</v>
+        <v>0.0212946</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0269495</v>
+        <v>0.0269303</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0361288</v>
+        <v>0.0361889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.025057</v>
+        <v>0.0242116</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0273948</v>
+        <v>0.0261594</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0419976</v>
+        <v>0.0415759</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0384145</v>
+        <v>0.0385476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0256612</v>
+        <v>0.0258752</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.056708</v>
+        <v>0.0563828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0597567</v>
+        <v>0.0592904</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0271008</v>
+        <v>0.0273407</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0767673</v>
+        <v>0.0764883</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0851671</v>
+        <v>0.0854781</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0308444</v>
+        <v>0.0307198</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.106879</v>
+        <v>0.107282</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11625</v>
+        <v>0.116744</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0479629</v>
+        <v>0.0474634</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148674</v>
+        <v>0.149043</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164844</v>
+        <v>0.165796</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0264437</v>
+        <v>0.0265235</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0307191</v>
+        <v>0.0306885</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0232577</v>
+        <v>0.0235012</v>
       </c>
       <c r="D10" t="n">
-        <v>0.026624</v>
+        <v>0.0269379</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0313902</v>
+        <v>0.0312767</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0234965</v>
+        <v>0.0234213</v>
       </c>
       <c r="D11" t="n">
-        <v>0.026777</v>
+        <v>0.0268149</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0316114</v>
+        <v>0.0316101</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0235733</v>
+        <v>0.0237642</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0269372</v>
+        <v>0.0270247</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323941</v>
+        <v>0.0320836</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0238108</v>
+        <v>0.023886</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0272175</v>
+        <v>0.0270851</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0330209</v>
+        <v>0.0327105</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0241034</v>
+        <v>0.024161</v>
       </c>
       <c r="D14" t="n">
-        <v>0.027597</v>
+        <v>0.0273482</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03405</v>
+        <v>0.0339034</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0237546</v>
+        <v>0.0233707</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0278332</v>
+        <v>0.0277489</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.034865</v>
+        <v>0.0349121</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0261527</v>
+        <v>0.0261724</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0278952</v>
+        <v>0.0278329</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0380822</v>
+        <v>0.0379194</v>
       </c>
       <c r="C17" t="n">
-        <v>0.031419</v>
+        <v>0.0309366</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0282082</v>
+        <v>0.0282429</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0412368</v>
+        <v>0.0414001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0428863</v>
+        <v>0.0426157</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0282505</v>
+        <v>0.0284395</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0497506</v>
+        <v>0.0496496</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0529024</v>
+        <v>0.0527934</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0284224</v>
+        <v>0.0284318</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0601163</v>
+        <v>0.0601865</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06619609999999999</v>
+        <v>0.06625200000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0302729</v>
+        <v>0.0304726</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0775926</v>
+        <v>0.0772823</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0877711</v>
+        <v>0.0874701</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0412815</v>
+        <v>0.0406087</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100664</v>
+        <v>0.100283</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115546</v>
+        <v>0.1157</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0551684</v>
+        <v>0.05512</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139063</v>
+        <v>0.138722</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16199</v>
+        <v>0.161497</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0278737</v>
+        <v>0.0277789</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0320496</v>
+        <v>0.0321294</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0256027</v>
+        <v>0.0256201</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0282007</v>
+        <v>0.0280141</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0327471</v>
+        <v>0.0327688</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0257025</v>
+        <v>0.0260682</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0283163</v>
+        <v>0.0282488</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0336054</v>
+        <v>0.0335934</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0261845</v>
+        <v>0.0262137</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0291437</v>
+        <v>0.0285432</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0342808</v>
+        <v>0.0343047</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0270969</v>
+        <v>0.0270393</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0289432</v>
+        <v>0.0287995</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351808</v>
+        <v>0.0351123</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0282626</v>
+        <v>0.0280398</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0292376</v>
+        <v>0.0291609</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.036633</v>
+        <v>0.036637</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0312051</v>
+        <v>0.0311444</v>
       </c>
       <c r="D29" t="n">
-        <v>0.029441</v>
+        <v>0.0293922</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0388492</v>
+        <v>0.0387608</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0350599</v>
+        <v>0.03518</v>
       </c>
       <c r="D30" t="n">
-        <v>0.029935</v>
+        <v>0.0296828</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0417456</v>
+        <v>0.0418259</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0401153</v>
+        <v>0.040059</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0303826</v>
+        <v>0.0303996</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0463004</v>
+        <v>0.0463424</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0472777</v>
+        <v>0.0472452</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0312912</v>
+        <v>0.0311252</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.052677</v>
+        <v>0.0527037</v>
       </c>
       <c r="C33" t="n">
-        <v>0.055785</v>
+        <v>0.0556612</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0328047</v>
+        <v>0.032789</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0631104</v>
+        <v>0.0631208</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0668401</v>
+        <v>0.06663280000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0378966</v>
+        <v>0.0378664</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0768702</v>
+        <v>0.0768399</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0816187</v>
+        <v>0.0811687</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0455521</v>
+        <v>0.0455744</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0971008</v>
+        <v>0.0971822</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111028</v>
+        <v>0.11045</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0567811</v>
+        <v>0.056707</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.129982</v>
+        <v>0.129972</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153127</v>
+        <v>0.153027</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0289093</v>
+        <v>0.0286066</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0330174</v>
+        <v>0.0329679</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0283982</v>
+        <v>0.0281394</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0291215</v>
+        <v>0.0287286</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0338582</v>
+        <v>0.0338122</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0289901</v>
+        <v>0.0287408</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0295912</v>
+        <v>0.0289891</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0345177</v>
+        <v>0.0344684</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0300255</v>
+        <v>0.0297889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0305637</v>
+        <v>0.0292699</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0352414</v>
+        <v>0.035204</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0310533</v>
+        <v>0.0308937</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0297672</v>
+        <v>0.0293921</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0362534</v>
+        <v>0.0362085</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0327733</v>
+        <v>0.0326598</v>
       </c>
       <c r="D42" t="n">
-        <v>0.030252</v>
+        <v>0.0299819</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0375699</v>
+        <v>0.0375615</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0351042</v>
+        <v>0.0349871</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0308429</v>
+        <v>0.0305177</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0396816</v>
+        <v>0.0396339</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0380073</v>
+        <v>0.0378615</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0315901</v>
+        <v>0.0312121</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0426901</v>
+        <v>0.0426515</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0424052</v>
+        <v>0.0423738</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0324497</v>
+        <v>0.0321793</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0468075</v>
+        <v>0.0468062</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0479438</v>
+        <v>0.0479699</v>
       </c>
       <c r="D46" t="n">
-        <v>0.033781</v>
+        <v>0.033764</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0526668</v>
+        <v>0.0526052</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0545814</v>
+        <v>0.0546114</v>
       </c>
       <c r="D47" t="n">
-        <v>0.036456</v>
+        <v>0.0363858</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0605214</v>
+        <v>0.0604306</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06465899999999999</v>
+        <v>0.06461600000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0405797</v>
+        <v>0.0405158</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07335999999999999</v>
+        <v>0.0732458</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08031199999999999</v>
+        <v>0.0800802</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0459875</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09035609999999999</v>
+        <v>0.0902515</v>
       </c>
       <c r="C50" t="n">
-        <v>0.103277</v>
+        <v>0.102664</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0543861</v>
+        <v>0.0542667</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120508</v>
+        <v>0.120447</v>
       </c>
       <c r="C51" t="n">
-        <v>0.14156</v>
+        <v>0.140137</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0315973</v>
+        <v>0.0301602</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165486</v>
+        <v>0.166789</v>
       </c>
       <c r="C52" t="n">
-        <v>0.189894</v>
+        <v>0.188128</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0317384</v>
+        <v>0.030267</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0362972</v>
+        <v>0.0353772</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0320066</v>
+        <v>0.0308246</v>
       </c>
       <c r="D53" t="n">
-        <v>0.031838</v>
+        <v>0.030614</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0369699</v>
+        <v>0.0359624</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0326806</v>
+        <v>0.0315918</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0322721</v>
+        <v>0.0309856</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.037918</v>
+        <v>0.0368502</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0338373</v>
+        <v>0.0328777</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0325876</v>
+        <v>0.031111</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0390387</v>
+        <v>0.0381004</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0350228</v>
+        <v>0.0341453</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0330093</v>
+        <v>0.031885</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0404117</v>
+        <v>0.0395485</v>
       </c>
       <c r="C57" t="n">
-        <v>0.036877</v>
+        <v>0.0361244</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0340533</v>
+        <v>0.0321842</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0423105</v>
+        <v>0.0415339</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0394755</v>
+        <v>0.0387393</v>
       </c>
       <c r="D58" t="n">
-        <v>0.034686</v>
+        <v>0.0330392</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0447069</v>
+        <v>0.0439936</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0424302</v>
+        <v>0.0416649</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0353931</v>
+        <v>0.0339898</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0482271</v>
+        <v>0.0475381</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0467601</v>
+        <v>0.0461916</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0366584</v>
+        <v>0.035633</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0534877</v>
+        <v>0.0528734</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0535587</v>
+        <v>0.0529807</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0387263</v>
+        <v>0.0377588</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0611053</v>
+        <v>0.0605174</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06286319999999999</v>
+        <v>0.0623527</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0417962</v>
+        <v>0.0407513</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0724335</v>
+        <v>0.07188170000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0765352</v>
+        <v>0.0762284</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0467775</v>
+        <v>0.0458009</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0892858</v>
+        <v>0.08873010000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.096849</v>
+        <v>0.09738620000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0545387</v>
+        <v>0.0539102</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116967</v>
+        <v>0.116465</v>
       </c>
       <c r="C65" t="n">
-        <v>0.132461</v>
+        <v>0.130926</v>
       </c>
       <c r="D65" t="n">
-        <v>0.068004</v>
+        <v>0.06702180000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157123</v>
+        <v>0.156485</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179397</v>
+        <v>0.17882</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0376999</v>
+        <v>0.0369508</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0409031</v>
+        <v>0.0409587</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0363698</v>
+        <v>0.0362921</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0370994</v>
+        <v>0.0372494</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0414805</v>
+        <v>0.0415685</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0371218</v>
+        <v>0.0371205</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0375014</v>
+        <v>0.0377379</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0423311</v>
+        <v>0.0424616</v>
       </c>
       <c r="C69" t="n">
-        <v>0.038185</v>
+        <v>0.0381937</v>
       </c>
       <c r="D69" t="n">
-        <v>0.038127</v>
+        <v>0.0381476</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0434701</v>
+        <v>0.0436485</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0394183</v>
+        <v>0.0394274</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0385808</v>
+        <v>0.0385608</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0448201</v>
+        <v>0.0449493</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0408917</v>
+        <v>0.0409212</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0401442</v>
+        <v>0.039122</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0463801</v>
+        <v>0.0464851</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0430212</v>
+        <v>0.0430613</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0398773</v>
+        <v>0.0398273</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0485478</v>
+        <v>0.0487459</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0459986</v>
+        <v>0.0461713</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0407151</v>
+        <v>0.0408116</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0515863</v>
+        <v>0.0517505</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0500537</v>
+        <v>0.050417</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0419155</v>
+        <v>0.0421084</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0561988</v>
+        <v>0.0562396</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0560782</v>
+        <v>0.0566779</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0438161</v>
+        <v>0.0440984</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0631084</v>
+        <v>0.06314889999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0647591</v>
+        <v>0.0654666</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0464202</v>
+        <v>0.0467584</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0729976</v>
+        <v>0.07303519999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0773221</v>
+        <v>0.0782183</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0505961</v>
+        <v>0.0509976</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08840389999999999</v>
+        <v>0.0886053</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0951906</v>
+        <v>0.0961417</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0572204</v>
+        <v>0.057734</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112261</v>
+        <v>0.113224</v>
       </c>
       <c r="C79" t="n">
-        <v>0.124486</v>
+        <v>0.125476</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0689298</v>
+        <v>0.0692859</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.150995</v>
+        <v>0.152141</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169645</v>
+        <v>0.170587</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0417733</v>
+        <v>0.041567</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0475829</v>
+        <v>0.0472506</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0445281</v>
+        <v>0.0440537</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0424366</v>
+        <v>0.0423378</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.048812</v>
+        <v>0.048541</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0464534</v>
+        <v>0.0459163</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0431561</v>
+        <v>0.0429672</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0502159</v>
+        <v>0.0502399</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0485093</v>
+        <v>0.048127</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0440954</v>
+        <v>0.0438361</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0523415</v>
+        <v>0.0525243</v>
       </c>
       <c r="C84" t="n">
-        <v>0.051017</v>
+        <v>0.0508026</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0458118</v>
+        <v>0.0448115</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0546667</v>
+        <v>0.0553339</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0540323</v>
+        <v>0.0538567</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0460526</v>
+        <v>0.046037</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0580317</v>
+        <v>0.0587147</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0576617</v>
+        <v>0.0574236</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0475455</v>
+        <v>0.0473943</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0618295</v>
+        <v>0.0624566</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0621996</v>
+        <v>0.0620886</v>
       </c>
       <c r="D87" t="n">
-        <v>0.049213</v>
+        <v>0.0493029</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0669131</v>
+        <v>0.0673135</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0681775</v>
+        <v>0.06827</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0517524</v>
+        <v>0.0515861</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0733396</v>
+        <v>0.0734987</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07536080000000001</v>
+        <v>0.0756675</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0549097</v>
+        <v>0.0547341</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0818811</v>
+        <v>0.0819554</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0852632</v>
+        <v>0.08554390000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0593637</v>
+        <v>0.0590671</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0927293</v>
+        <v>0.0930417</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0974237</v>
+        <v>0.09792380000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0652039</v>
+        <v>0.0650139</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107483</v>
+        <v>0.107977</v>
       </c>
       <c r="C92" t="n">
-        <v>0.114214</v>
+        <v>0.114834</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07342170000000001</v>
+        <v>0.0733592</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129209</v>
+        <v>0.129969</v>
       </c>
       <c r="C93" t="n">
-        <v>0.139728</v>
+        <v>0.1404</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0864055</v>
+        <v>0.0865282</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.162913</v>
+        <v>0.164106</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179438</v>
+        <v>0.180409</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0522334</v>
+        <v>0.0515979</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0669395</v>
+        <v>0.0662659</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0627472</v>
+        <v>0.0630517</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0538958</v>
+        <v>0.0536702</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0696252</v>
+        <v>0.0689647</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0649991</v>
+        <v>0.0654863</v>
       </c>
       <c r="D96" t="n">
-        <v>0.055299</v>
+        <v>0.0554638</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0726599</v>
+        <v>0.0718669</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0680592</v>
+        <v>0.06677420000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0578166</v>
+        <v>0.0571194</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0748172</v>
+        <v>0.0745931</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0710253</v>
+        <v>0.07144300000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0597786</v>
+        <v>0.05808</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0783589</v>
+        <v>0.077749</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0749692</v>
+        <v>0.07527</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0616162</v>
+        <v>0.0612469</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08187120000000001</v>
+        <v>0.08130800000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0791712</v>
+        <v>0.079835</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06326909999999999</v>
+        <v>0.0631684</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0854823</v>
+        <v>0.0853207</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0841215</v>
+        <v>0.0826267</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0653128</v>
+        <v>0.0654988</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0893808</v>
+        <v>0.0897004</v>
       </c>
       <c r="C102" t="n">
-        <v>0.08955399999999999</v>
+        <v>0.09025610000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0677799</v>
+        <v>0.06647989999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09484099999999999</v>
+        <v>0.0954532</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0965109</v>
+        <v>0.0966096</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07063609999999999</v>
+        <v>0.0708231</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.10325</v>
+        <v>0.103503</v>
       </c>
       <c r="C104" t="n">
-        <v>0.105775</v>
+        <v>0.106428</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07464700000000001</v>
+        <v>0.07530630000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113402</v>
+        <v>0.113656</v>
       </c>
       <c r="C105" t="n">
-        <v>0.117521</v>
+        <v>0.117637</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0798982</v>
+        <v>0.0800554</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128398</v>
+        <v>0.128597</v>
       </c>
       <c r="C106" t="n">
-        <v>0.133659</v>
+        <v>0.133882</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08765000000000001</v>
+        <v>0.0883693</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.148828</v>
+        <v>0.148812</v>
       </c>
       <c r="C107" t="n">
-        <v>0.156939</v>
+        <v>0.157089</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09981859999999999</v>
+        <v>0.100268</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.178961</v>
+        <v>0.178985</v>
       </c>
       <c r="C108" t="n">
-        <v>0.194889</v>
+        <v>0.195029</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0596151</v>
+        <v>0.0599939</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.223875</v>
+        <v>0.224235</v>
       </c>
       <c r="C109" t="n">
-        <v>0.256305</v>
+        <v>0.256578</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0612891</v>
+        <v>0.0611174</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0808721</v>
+        <v>0.08067580000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0810289</v>
+        <v>0.0819385</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0624307</v>
+        <v>0.0626442</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0831687</v>
+        <v>0.08351600000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0832774</v>
+        <v>0.08449180000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0635067</v>
+        <v>0.0643813</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.08644739999999999</v>
+        <v>0.0866189</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0862391</v>
+        <v>0.0873492</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0650908</v>
+        <v>0.0663989</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0904742</v>
+        <v>0.0909257</v>
       </c>
       <c r="C113" t="n">
-        <v>0.089253</v>
+        <v>0.0903785</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0672141</v>
+        <v>0.0681761</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0946726</v>
+        <v>0.0954488</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0929345</v>
+        <v>0.0941143</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0698817</v>
+        <v>0.0709489</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100194</v>
+        <v>0.100994</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09758169999999999</v>
+        <v>0.09857589999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0727124</v>
+        <v>0.0731414</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106063</v>
+        <v>0.106764</v>
       </c>
       <c r="C116" t="n">
-        <v>0.102866</v>
+        <v>0.104026</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07634639999999999</v>
+        <v>0.07760060000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.112769</v>
+        <v>0.113391</v>
       </c>
       <c r="C117" t="n">
-        <v>0.109992</v>
+        <v>0.11131</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0804274</v>
+        <v>0.0815623</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120634</v>
+        <v>0.121495</v>
       </c>
       <c r="C118" t="n">
-        <v>0.119004</v>
+        <v>0.120305</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0860122</v>
+        <v>0.08683730000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.130324</v>
+        <v>0.131084</v>
       </c>
       <c r="C119" t="n">
-        <v>0.130217</v>
+        <v>0.131638</v>
       </c>
       <c r="D119" t="n">
-        <v>0.09277729999999999</v>
+        <v>0.0938344</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.143205</v>
+        <v>0.144601</v>
       </c>
       <c r="C120" t="n">
-        <v>0.145489</v>
+        <v>0.147005</v>
       </c>
       <c r="D120" t="n">
-        <v>0.101251</v>
+        <v>0.102188</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.161589</v>
+        <v>0.162838</v>
       </c>
       <c r="C121" t="n">
-        <v>0.167164</v>
+        <v>0.168582</v>
       </c>
       <c r="D121" t="n">
-        <v>0.113387</v>
+        <v>0.114516</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.187485</v>
+        <v>0.189109</v>
       </c>
       <c r="C122" t="n">
-        <v>0.200584</v>
+        <v>0.201928</v>
       </c>
       <c r="D122" t="n">
-        <v>0.131741</v>
+        <v>0.132798</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.227711</v>
+        <v>0.229493</v>
       </c>
       <c r="C123" t="n">
-        <v>0.255824</v>
+        <v>0.257427</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0802404</v>
+        <v>0.08174049999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.101713</v>
+        <v>0.102933</v>
       </c>
       <c r="C124" t="n">
-        <v>0.09823320000000001</v>
+        <v>0.09954010000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0829738</v>
+        <v>0.0844915</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106011</v>
+        <v>0.106641</v>
       </c>
       <c r="C125" t="n">
-        <v>0.101819</v>
+        <v>0.102361</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0865291</v>
+        <v>0.0867435</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.106724</v>
+        <v>0.109853</v>
       </c>
       <c r="C126" t="n">
-        <v>0.105158</v>
+        <v>0.105658</v>
       </c>
       <c r="D126" t="n">
-        <v>0.08912390000000001</v>
+        <v>0.08897620000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.109679</v>
+        <v>0.11334</v>
       </c>
       <c r="C127" t="n">
-        <v>0.107361</v>
+        <v>0.110053</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0895575</v>
+        <v>0.09353359999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115381</v>
+        <v>0.116968</v>
       </c>
       <c r="C128" t="n">
-        <v>0.111747</v>
+        <v>0.111845</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0933233</v>
+        <v>0.0919382</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118923</v>
+        <v>0.119121</v>
       </c>
       <c r="C129" t="n">
-        <v>0.115708</v>
+        <v>0.116798</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0949281</v>
+        <v>0.0953157</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120667</v>
+        <v>0.124285</v>
       </c>
       <c r="C130" t="n">
-        <v>0.120674</v>
+        <v>0.12108</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09719849999999999</v>
+        <v>0.09710870000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126582</v>
+        <v>0.127259</v>
       </c>
       <c r="C131" t="n">
-        <v>0.125326</v>
+        <v>0.128763</v>
       </c>
       <c r="D131" t="n">
-        <v>0.09805030000000001</v>
+        <v>0.102391</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133286</v>
+        <v>0.134416</v>
       </c>
       <c r="C132" t="n">
-        <v>0.134692</v>
+        <v>0.136175</v>
       </c>
       <c r="D132" t="n">
-        <v>0.103583</v>
+        <v>0.104824</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.14235</v>
+        <v>0.142871</v>
       </c>
       <c r="C133" t="n">
-        <v>0.144444</v>
+        <v>0.145452</v>
       </c>
       <c r="D133" t="n">
-        <v>0.108439</v>
+        <v>0.108815</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154297</v>
+        <v>0.15411</v>
       </c>
       <c r="C134" t="n">
-        <v>0.158948</v>
+        <v>0.160742</v>
       </c>
       <c r="D134" t="n">
-        <v>0.115677</v>
+        <v>0.117414</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.168496</v>
+        <v>0.17134</v>
       </c>
       <c r="C135" t="n">
-        <v>0.179113</v>
+        <v>0.180069</v>
       </c>
       <c r="D135" t="n">
-        <v>0.126237</v>
+        <v>0.125891</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194516</v>
+        <v>0.195822</v>
       </c>
       <c r="C136" t="n">
-        <v>0.209012</v>
+        <v>0.210967</v>
       </c>
       <c r="D136" t="n">
-        <v>0.140079</v>
+        <v>0.142589</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.230344</v>
+        <v>0.232659</v>
       </c>
       <c r="C137" t="n">
-        <v>0.258745</v>
+        <v>0.260009</v>
       </c>
       <c r="D137" t="n">
-        <v>0.158782</v>
+        <v>0.159793</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.166628</v>
+        <v>0.171532</v>
       </c>
       <c r="C138" t="n">
-        <v>0.154202</v>
+        <v>0.155443</v>
       </c>
       <c r="D138" t="n">
-        <v>0.161059</v>
+        <v>0.16112</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.167489</v>
+        <v>0.17301</v>
       </c>
       <c r="C139" t="n">
-        <v>0.157028</v>
+        <v>0.157896</v>
       </c>
       <c r="D139" t="n">
-        <v>0.163101</v>
+        <v>0.163241</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.169849</v>
+        <v>0.175503</v>
       </c>
       <c r="C140" t="n">
-        <v>0.159279</v>
+        <v>0.1596</v>
       </c>
       <c r="D140" t="n">
-        <v>0.164647</v>
+        <v>0.163208</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.171906</v>
+        <v>0.176744</v>
       </c>
       <c r="C141" t="n">
-        <v>0.161764</v>
+        <v>0.163355</v>
       </c>
       <c r="D141" t="n">
-        <v>0.165241</v>
+        <v>0.167423</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.174088</v>
+        <v>0.177576</v>
       </c>
       <c r="C142" t="n">
-        <v>0.164509</v>
+        <v>0.165625</v>
       </c>
       <c r="D142" t="n">
-        <v>0.166834</v>
+        <v>0.166805</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.175806</v>
+        <v>0.179766</v>
       </c>
       <c r="C143" t="n">
-        <v>0.167439</v>
+        <v>0.169667</v>
       </c>
       <c r="D143" t="n">
-        <v>0.167186</v>
+        <v>0.16968</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0324054</v>
+        <v>0.032357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0195676</v>
+        <v>0.0197358</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0270667</v>
+        <v>0.0270931</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0333617</v>
+        <v>0.0334521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0212946</v>
+        <v>0.0207329</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0269303</v>
+        <v>0.0267938</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0361889</v>
+        <v>0.0358417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0242116</v>
+        <v>0.0234747</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0261594</v>
+        <v>0.0270882</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0415759</v>
+        <v>0.0416454</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0385476</v>
+        <v>0.0374491</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0258752</v>
+        <v>0.0257118</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0563828</v>
+        <v>0.0561712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0592904</v>
+        <v>0.0583387</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0273407</v>
+        <v>0.027209</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0764883</v>
+        <v>0.07600899999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0854781</v>
+        <v>0.08545170000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0307198</v>
+        <v>0.0312725</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107282</v>
+        <v>0.10688</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116744</v>
+        <v>0.116966</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0474634</v>
+        <v>0.0470717</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149043</v>
+        <v>0.148912</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165796</v>
+        <v>0.165216</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0265235</v>
+        <v>0.0265346</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0306885</v>
+        <v>0.0308019</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0235012</v>
+        <v>0.0235448</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0269379</v>
+        <v>0.0267116</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0312767</v>
+        <v>0.0314651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0234213</v>
+        <v>0.0235666</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0268149</v>
+        <v>0.0268657</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0316101</v>
+        <v>0.0318561</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0237642</v>
+        <v>0.0239594</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0270247</v>
+        <v>0.0270465</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0320836</v>
+        <v>0.0323257</v>
       </c>
       <c r="C13" t="n">
-        <v>0.023886</v>
+        <v>0.0239024</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0270851</v>
+        <v>0.0272354</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0327105</v>
+        <v>0.0330098</v>
       </c>
       <c r="C14" t="n">
-        <v>0.024161</v>
+        <v>0.0236714</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0273482</v>
+        <v>0.0274943</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0339034</v>
+        <v>0.0342224</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0233707</v>
+        <v>0.0235971</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0277489</v>
+        <v>0.0277515</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0349121</v>
+        <v>0.0351726</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0261724</v>
+        <v>0.0260063</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0278329</v>
+        <v>0.0278535</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0379194</v>
+        <v>0.0381406</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0309366</v>
+        <v>0.0314333</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0282429</v>
+        <v>0.0281862</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0414001</v>
+        <v>0.0414752</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0426157</v>
+        <v>0.0428644</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0284395</v>
+        <v>0.0280963</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0496496</v>
+        <v>0.0499822</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0527934</v>
+        <v>0.0530447</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0284318</v>
+        <v>0.02819</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0601865</v>
+        <v>0.0603713</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06625200000000001</v>
+        <v>0.0663484</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0304726</v>
+        <v>0.0305042</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0772823</v>
+        <v>0.077584</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0874701</v>
+        <v>0.0877816</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0406087</v>
+        <v>0.0411841</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100283</v>
+        <v>0.100809</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1157</v>
+        <v>0.11596</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05512</v>
+        <v>0.05549</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138722</v>
+        <v>0.139137</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161497</v>
+        <v>0.161798</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0277789</v>
+        <v>0.0276905</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0321294</v>
+        <v>0.0320377</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0256201</v>
+        <v>0.0255611</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0280141</v>
+        <v>0.027961</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0327688</v>
+        <v>0.0326642</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0260682</v>
+        <v>0.025916</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0282488</v>
+        <v>0.0280212</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0335934</v>
+        <v>0.0334657</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0262137</v>
+        <v>0.025742</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0285432</v>
+        <v>0.0284299</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343047</v>
+        <v>0.0342093</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0270393</v>
+        <v>0.0271108</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0287995</v>
+        <v>0.028831</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351123</v>
+        <v>0.0350751</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0280398</v>
+        <v>0.0278093</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0291609</v>
+        <v>0.0290171</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.036637</v>
+        <v>0.036586</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0311444</v>
+        <v>0.0311477</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0293922</v>
+        <v>0.0300882</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0387608</v>
+        <v>0.0387677</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03518</v>
+        <v>0.0350145</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0296828</v>
+        <v>0.0296146</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0418259</v>
+        <v>0.0417877</v>
       </c>
       <c r="C31" t="n">
-        <v>0.040059</v>
+        <v>0.0400339</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0303996</v>
+        <v>0.0302425</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0463424</v>
+        <v>0.0463894</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0472452</v>
+        <v>0.0471819</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0311252</v>
+        <v>0.0311751</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0527037</v>
+        <v>0.0527161</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0556612</v>
+        <v>0.055686</v>
       </c>
       <c r="D33" t="n">
-        <v>0.032789</v>
+        <v>0.032824</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0631208</v>
+        <v>0.0633209</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06663280000000001</v>
+        <v>0.06686979999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0378664</v>
+        <v>0.0377529</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0768399</v>
+        <v>0.07716199999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0811687</v>
+        <v>0.0816788</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0455744</v>
+        <v>0.0455837</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0971822</v>
+        <v>0.0976962</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11045</v>
+        <v>0.111231</v>
       </c>
       <c r="D36" t="n">
-        <v>0.056707</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.129972</v>
+        <v>0.131138</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153027</v>
+        <v>0.154355</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0286066</v>
+        <v>0.0288901</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0329679</v>
+        <v>0.0340214</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0281394</v>
+        <v>0.028115</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0287286</v>
+        <v>0.0287159</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0338122</v>
+        <v>0.0345322</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0287408</v>
+        <v>0.028631</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0289891</v>
+        <v>0.0289024</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0344684</v>
+        <v>0.0351898</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0297889</v>
+        <v>0.0297143</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0292699</v>
+        <v>0.0292414</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.035204</v>
+        <v>0.0359538</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0308937</v>
+        <v>0.0306433</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0293921</v>
+        <v>0.0294748</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0362085</v>
+        <v>0.0369288</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0326598</v>
+        <v>0.0325586</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0299819</v>
+        <v>0.0299445</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0375615</v>
+        <v>0.0381898</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0349871</v>
+        <v>0.0349656</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0305177</v>
+        <v>0.0305642</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0396339</v>
+        <v>0.0402443</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0378615</v>
+        <v>0.0378405</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0312121</v>
+        <v>0.0313456</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0426515</v>
+        <v>0.0432014</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0423738</v>
+        <v>0.0422644</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0321793</v>
+        <v>0.0325098</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0468062</v>
+        <v>0.0472437</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0479699</v>
+        <v>0.0478661</v>
       </c>
       <c r="D46" t="n">
-        <v>0.033764</v>
+        <v>0.0337571</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0526052</v>
+        <v>0.0529864</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0546114</v>
+        <v>0.0545792</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0363858</v>
+        <v>0.0363681</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0604306</v>
+        <v>0.060828</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06461600000000001</v>
+        <v>0.06468640000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0405158</v>
+        <v>0.0404548</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0732458</v>
+        <v>0.0736822</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0800802</v>
+        <v>0.0804564</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0459</v>
+        <v>0.0458398</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0902515</v>
+        <v>0.09104329999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102664</v>
+        <v>0.103499</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0542667</v>
+        <v>0.0543191</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120447</v>
+        <v>0.122282</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140137</v>
+        <v>0.14166</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0301602</v>
+        <v>0.0309727</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.166789</v>
+        <v>0.167832</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188128</v>
+        <v>0.190063</v>
       </c>
       <c r="D52" t="n">
-        <v>0.030267</v>
+        <v>0.0312535</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0353772</v>
+        <v>0.034889</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0308246</v>
+        <v>0.0311893</v>
       </c>
       <c r="D53" t="n">
-        <v>0.030614</v>
+        <v>0.0314492</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0359624</v>
+        <v>0.0356183</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0315918</v>
+        <v>0.0320117</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0309856</v>
+        <v>0.0321027</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0368502</v>
+        <v>0.0365463</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0328777</v>
+        <v>0.0332559</v>
       </c>
       <c r="D55" t="n">
-        <v>0.031111</v>
+        <v>0.0321143</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0381004</v>
+        <v>0.0378367</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0341453</v>
+        <v>0.0345327</v>
       </c>
       <c r="D56" t="n">
-        <v>0.031885</v>
+        <v>0.0331677</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0395485</v>
+        <v>0.0393</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0361244</v>
+        <v>0.0363684</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0321842</v>
+        <v>0.0334762</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0415339</v>
+        <v>0.0412817</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0387393</v>
+        <v>0.0389884</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0330392</v>
+        <v>0.0339529</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0439936</v>
+        <v>0.0437819</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0416649</v>
+        <v>0.0420385</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0339898</v>
+        <v>0.0348993</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0475381</v>
+        <v>0.0474165</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0461916</v>
+        <v>0.0464916</v>
       </c>
       <c r="D60" t="n">
-        <v>0.035633</v>
+        <v>0.0363299</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0528734</v>
+        <v>0.0527792</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0529807</v>
+        <v>0.0533157</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0377588</v>
+        <v>0.038369</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0605174</v>
+        <v>0.0605484</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0623527</v>
+        <v>0.06283229999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0407513</v>
+        <v>0.0415323</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07188170000000001</v>
+        <v>0.07211629999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0762284</v>
+        <v>0.07681159999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0458009</v>
+        <v>0.0464786</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08873010000000001</v>
+        <v>0.0892942</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09738620000000001</v>
+        <v>0.0977389</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0539102</v>
+        <v>0.0542923</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116465</v>
+        <v>0.117916</v>
       </c>
       <c r="C65" t="n">
-        <v>0.130926</v>
+        <v>0.132993</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06702180000000001</v>
+        <v>0.0678528</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156485</v>
+        <v>0.158786</v>
       </c>
       <c r="C66" t="n">
-        <v>0.17882</v>
+        <v>0.181513</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0369508</v>
+        <v>0.0379035</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0409587</v>
+        <v>0.0409581</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0362921</v>
+        <v>0.03573</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0372494</v>
+        <v>0.0368313</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0415685</v>
+        <v>0.0415969</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0371205</v>
+        <v>0.0365127</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0377379</v>
+        <v>0.037643</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0424616</v>
+        <v>0.0424854</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0381937</v>
+        <v>0.0376522</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0381476</v>
+        <v>0.0383775</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0436485</v>
+        <v>0.0435781</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0394274</v>
+        <v>0.0389237</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0385608</v>
+        <v>0.0386345</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0449493</v>
+        <v>0.0447782</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0409212</v>
+        <v>0.0404109</v>
       </c>
       <c r="D71" t="n">
-        <v>0.039122</v>
+        <v>0.0396241</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0464851</v>
+        <v>0.0464464</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0430613</v>
+        <v>0.0424854</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0398273</v>
+        <v>0.0411607</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0487459</v>
+        <v>0.048849</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0461713</v>
+        <v>0.0454787</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0408116</v>
+        <v>0.0404784</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0517505</v>
+        <v>0.0523766</v>
       </c>
       <c r="C74" t="n">
-        <v>0.050417</v>
+        <v>0.0498245</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0421084</v>
+        <v>0.0417663</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0562396</v>
+        <v>0.0571403</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0566779</v>
+        <v>0.0559689</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0440984</v>
+        <v>0.0437081</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06314889999999999</v>
+        <v>0.06404550000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0654666</v>
+        <v>0.06488439999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0467584</v>
+        <v>0.0464044</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07303519999999999</v>
+        <v>0.0741786</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0782183</v>
+        <v>0.0778741</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0509976</v>
+        <v>0.050748</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0886053</v>
+        <v>0.0901137</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0961417</v>
+        <v>0.0960863</v>
       </c>
       <c r="D78" t="n">
-        <v>0.057734</v>
+        <v>0.0574331</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113224</v>
+        <v>0.11545</v>
       </c>
       <c r="C79" t="n">
-        <v>0.125476</v>
+        <v>0.126539</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0692859</v>
+        <v>0.0697084</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.152141</v>
+        <v>0.15568</v>
       </c>
       <c r="C80" t="n">
-        <v>0.170587</v>
+        <v>0.17312</v>
       </c>
       <c r="D80" t="n">
-        <v>0.041567</v>
+        <v>0.0421399</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0472506</v>
+        <v>0.0475565</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0440537</v>
+        <v>0.0444221</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0423378</v>
+        <v>0.0427502</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.048541</v>
+        <v>0.0491192</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0459163</v>
+        <v>0.0466058</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0429672</v>
+        <v>0.0440358</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0502399</v>
+        <v>0.0506087</v>
       </c>
       <c r="C83" t="n">
-        <v>0.048127</v>
+        <v>0.0487581</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0438361</v>
+        <v>0.0442153</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0525243</v>
+        <v>0.0530791</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0508026</v>
+        <v>0.0517442</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0448115</v>
+        <v>0.0456214</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0553339</v>
+        <v>0.0557053</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0538567</v>
+        <v>0.055141</v>
       </c>
       <c r="D85" t="n">
-        <v>0.046037</v>
+        <v>0.0467295</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0587147</v>
+        <v>0.0591134</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0574236</v>
+        <v>0.0591151</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0473943</v>
+        <v>0.0482267</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0624566</v>
+        <v>0.06342739999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0620886</v>
+        <v>0.0638205</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0493029</v>
+        <v>0.0504104</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0673135</v>
+        <v>0.06878670000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.06827</v>
+        <v>0.0702783</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0515861</v>
+        <v>0.0530341</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0734987</v>
+        <v>0.0758689</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0756675</v>
+        <v>0.0777838</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0547341</v>
+        <v>0.0559153</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0819554</v>
+        <v>0.08455849999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08554390000000001</v>
+        <v>0.0881208</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0590671</v>
+        <v>0.0608085</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0930417</v>
+        <v>0.0961838</v>
       </c>
       <c r="C91" t="n">
-        <v>0.09792380000000001</v>
+        <v>0.101024</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0650139</v>
+        <v>0.0671292</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107977</v>
+        <v>0.112996</v>
       </c>
       <c r="C92" t="n">
-        <v>0.114834</v>
+        <v>0.119061</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0733592</v>
+        <v>0.0757505</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129969</v>
+        <v>0.137401</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1404</v>
+        <v>0.148099</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0865282</v>
+        <v>0.0888328</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.164106</v>
+        <v>0.174116</v>
       </c>
       <c r="C94" t="n">
-        <v>0.180409</v>
+        <v>0.191099</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0515979</v>
+        <v>0.0537612</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0662659</v>
+        <v>0.0693846</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0630517</v>
+        <v>0.06577139999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0536702</v>
+        <v>0.054095</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0689647</v>
+        <v>0.0723256</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0654863</v>
+        <v>0.06878239999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0554638</v>
+        <v>0.0571176</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0718669</v>
+        <v>0.07441490000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.06677420000000001</v>
+        <v>0.0718196</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0571194</v>
+        <v>0.0596328</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0745931</v>
+        <v>0.0773066</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07144300000000001</v>
+        <v>0.075299</v>
       </c>
       <c r="D98" t="n">
-        <v>0.05808</v>
+        <v>0.0604448</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.077749</v>
+        <v>0.0814337</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07527</v>
+        <v>0.0777915</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0612469</v>
+        <v>0.06337039999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08130800000000001</v>
+        <v>0.0843434</v>
       </c>
       <c r="C100" t="n">
-        <v>0.079835</v>
+        <v>0.0839236</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0631684</v>
+        <v>0.0661693</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0853207</v>
+        <v>0.0890953</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0826267</v>
+        <v>0.08932279999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0654988</v>
+        <v>0.0665041</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0897004</v>
+        <v>0.0937438</v>
       </c>
       <c r="C102" t="n">
-        <v>0.09025610000000001</v>
+        <v>0.0950544</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06647989999999999</v>
+        <v>0.07097009999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0954532</v>
+        <v>0.098681</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0966096</v>
+        <v>0.100271</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0708231</v>
+        <v>0.0738278</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.103503</v>
+        <v>0.107013</v>
       </c>
       <c r="C104" t="n">
-        <v>0.106428</v>
+        <v>0.110021</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07530630000000001</v>
+        <v>0.0780028</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113656</v>
+        <v>0.117954</v>
       </c>
       <c r="C105" t="n">
-        <v>0.117637</v>
+        <v>0.12451</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0800554</v>
+        <v>0.0835475</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128597</v>
+        <v>0.135754</v>
       </c>
       <c r="C106" t="n">
-        <v>0.133882</v>
+        <v>0.141078</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0883693</v>
+        <v>0.0916105</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.148812</v>
+        <v>0.156977</v>
       </c>
       <c r="C107" t="n">
-        <v>0.157089</v>
+        <v>0.16576</v>
       </c>
       <c r="D107" t="n">
-        <v>0.100268</v>
+        <v>0.104172</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.178985</v>
+        <v>0.188493</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195029</v>
+        <v>0.205494</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0599939</v>
+        <v>0.0634537</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.224235</v>
+        <v>0.234384</v>
       </c>
       <c r="C109" t="n">
-        <v>0.256578</v>
+        <v>0.263615</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0611174</v>
+        <v>0.06465559999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08067580000000001</v>
+        <v>0.0846351</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0819385</v>
+        <v>0.0866236</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0626442</v>
+        <v>0.06669319999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08351600000000001</v>
+        <v>0.08963790000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08449180000000001</v>
+        <v>0.08934599999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0643813</v>
+        <v>0.068935</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0866189</v>
+        <v>0.09352190000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0873492</v>
+        <v>0.09270829999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0663989</v>
+        <v>0.0713425</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0909257</v>
+        <v>0.0996095</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0903785</v>
+        <v>0.09657399999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0681761</v>
+        <v>0.07467360000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0954488</v>
+        <v>0.105439</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0941143</v>
+        <v>0.101307</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0709489</v>
+        <v>0.07900020000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100994</v>
+        <v>0.111155</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09857589999999999</v>
+        <v>0.106136</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0731414</v>
+        <v>0.0826822</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106764</v>
+        <v>0.1166</v>
       </c>
       <c r="C116" t="n">
-        <v>0.104026</v>
+        <v>0.112724</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07760060000000001</v>
+        <v>0.0869291</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113391</v>
+        <v>0.123008</v>
       </c>
       <c r="C117" t="n">
-        <v>0.11131</v>
+        <v>0.119908</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0815623</v>
+        <v>0.0910547</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121495</v>
+        <v>0.129107</v>
       </c>
       <c r="C118" t="n">
-        <v>0.120305</v>
+        <v>0.128753</v>
       </c>
       <c r="D118" t="n">
-        <v>0.08683730000000001</v>
+        <v>0.0958155</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131084</v>
+        <v>0.138312</v>
       </c>
       <c r="C119" t="n">
-        <v>0.131638</v>
+        <v>0.140255</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0938344</v>
+        <v>0.101848</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144601</v>
+        <v>0.153052</v>
       </c>
       <c r="C120" t="n">
-        <v>0.147005</v>
+        <v>0.155793</v>
       </c>
       <c r="D120" t="n">
-        <v>0.102188</v>
+        <v>0.109606</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.162838</v>
+        <v>0.171582</v>
       </c>
       <c r="C121" t="n">
-        <v>0.168582</v>
+        <v>0.177969</v>
       </c>
       <c r="D121" t="n">
-        <v>0.114516</v>
+        <v>0.121304</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189109</v>
+        <v>0.199431</v>
       </c>
       <c r="C122" t="n">
-        <v>0.201928</v>
+        <v>0.212583</v>
       </c>
       <c r="D122" t="n">
-        <v>0.132798</v>
+        <v>0.139911</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.229493</v>
+        <v>0.237199</v>
       </c>
       <c r="C123" t="n">
-        <v>0.257427</v>
+        <v>0.270322</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08174049999999999</v>
+        <v>0.08659749999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102933</v>
+        <v>0.109146</v>
       </c>
       <c r="C124" t="n">
-        <v>0.09954010000000001</v>
+        <v>0.108026</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0844915</v>
+        <v>0.0936924</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106641</v>
+        <v>0.110651</v>
       </c>
       <c r="C125" t="n">
-        <v>0.102361</v>
+        <v>0.108546</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0867435</v>
+        <v>0.09180430000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.109853</v>
+        <v>0.112136</v>
       </c>
       <c r="C126" t="n">
-        <v>0.105658</v>
+        <v>0.113702</v>
       </c>
       <c r="D126" t="n">
-        <v>0.08897620000000001</v>
+        <v>0.0959222</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.11334</v>
+        <v>0.11325</v>
       </c>
       <c r="C127" t="n">
-        <v>0.110053</v>
+        <v>0.114729</v>
       </c>
       <c r="D127" t="n">
-        <v>0.09353359999999999</v>
+        <v>0.0951335</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.116968</v>
+        <v>0.118663</v>
       </c>
       <c r="C128" t="n">
-        <v>0.111845</v>
+        <v>0.119811</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0919382</v>
+        <v>0.0976009</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.119121</v>
+        <v>0.12098</v>
       </c>
       <c r="C129" t="n">
-        <v>0.116798</v>
+        <v>0.123448</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0953157</v>
+        <v>0.09915599999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.124285</v>
+        <v>0.127923</v>
       </c>
       <c r="C130" t="n">
-        <v>0.12108</v>
+        <v>0.129601</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09710870000000001</v>
+        <v>0.103016</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127259</v>
+        <v>0.132607</v>
       </c>
       <c r="C131" t="n">
-        <v>0.128763</v>
+        <v>0.135803</v>
       </c>
       <c r="D131" t="n">
-        <v>0.102391</v>
+        <v>0.105472</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.134416</v>
+        <v>0.139402</v>
       </c>
       <c r="C132" t="n">
-        <v>0.136175</v>
+        <v>0.142952</v>
       </c>
       <c r="D132" t="n">
-        <v>0.104824</v>
+        <v>0.107138</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142871</v>
+        <v>0.14938</v>
       </c>
       <c r="C133" t="n">
-        <v>0.145452</v>
+        <v>0.154979</v>
       </c>
       <c r="D133" t="n">
-        <v>0.108815</v>
+        <v>0.113966</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.15411</v>
+        <v>0.162382</v>
       </c>
       <c r="C134" t="n">
-        <v>0.160742</v>
+        <v>0.168646</v>
       </c>
       <c r="D134" t="n">
-        <v>0.117414</v>
+        <v>0.119738</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.17134</v>
+        <v>0.179249</v>
       </c>
       <c r="C135" t="n">
-        <v>0.180069</v>
+        <v>0.190708</v>
       </c>
       <c r="D135" t="n">
-        <v>0.125891</v>
+        <v>0.130848</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.195822</v>
+        <v>0.204893</v>
       </c>
       <c r="C136" t="n">
-        <v>0.210967</v>
+        <v>0.222787</v>
       </c>
       <c r="D136" t="n">
-        <v>0.142589</v>
+        <v>0.148519</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232659</v>
+        <v>0.243953</v>
       </c>
       <c r="C137" t="n">
-        <v>0.260009</v>
+        <v>0.274852</v>
       </c>
       <c r="D137" t="n">
-        <v>0.159793</v>
+        <v>0.177295</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.171532</v>
+        <v>0.182897</v>
       </c>
       <c r="C138" t="n">
-        <v>0.155443</v>
+        <v>0.170376</v>
       </c>
       <c r="D138" t="n">
-        <v>0.16112</v>
+        <v>0.178608</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.17301</v>
+        <v>0.183154</v>
       </c>
       <c r="C139" t="n">
-        <v>0.157896</v>
+        <v>0.172662</v>
       </c>
       <c r="D139" t="n">
-        <v>0.163241</v>
+        <v>0.178496</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.175503</v>
+        <v>0.187524</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1596</v>
+        <v>0.175131</v>
       </c>
       <c r="D140" t="n">
-        <v>0.163208</v>
+        <v>0.17979</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.176744</v>
+        <v>0.189795</v>
       </c>
       <c r="C141" t="n">
-        <v>0.163355</v>
+        <v>0.178236</v>
       </c>
       <c r="D141" t="n">
-        <v>0.167423</v>
+        <v>0.181526</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.177576</v>
+        <v>0.183798</v>
       </c>
       <c r="C142" t="n">
-        <v>0.165625</v>
+        <v>0.181845</v>
       </c>
       <c r="D142" t="n">
-        <v>0.166805</v>
+        <v>0.183855</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.179766</v>
+        <v>0.196481</v>
       </c>
       <c r="C143" t="n">
-        <v>0.169667</v>
+        <v>0.185331</v>
       </c>
       <c r="D143" t="n">
-        <v>0.16968</v>
+        <v>0.185004</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032357</v>
+        <v>0.0324602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0197358</v>
+        <v>0.0198091</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0270931</v>
+        <v>0.02713</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0334521</v>
+        <v>0.0333719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0207329</v>
+        <v>0.0209571</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0267938</v>
+        <v>0.0269339</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0358417</v>
+        <v>0.0365893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0234747</v>
+        <v>0.0242497</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0270882</v>
+        <v>0.0271478</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0416454</v>
+        <v>0.042164</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0374491</v>
+        <v>0.0385665</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0257118</v>
+        <v>0.0255988</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0561712</v>
+        <v>0.0564561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0583387</v>
+        <v>0.059665</v>
       </c>
       <c r="D6" t="n">
-        <v>0.027209</v>
+        <v>0.0269012</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07600899999999999</v>
+        <v>0.07649789999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08545170000000001</v>
+        <v>0.085992</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0312725</v>
+        <v>0.0312656</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.10688</v>
+        <v>0.107314</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116966</v>
+        <v>0.116865</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0470717</v>
+        <v>0.0476118</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148912</v>
+        <v>0.149039</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165216</v>
+        <v>0.1656</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0265346</v>
+        <v>0.0266645</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0308019</v>
+        <v>0.0306507</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0235448</v>
+        <v>0.0233309</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0267116</v>
+        <v>0.0269525</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0314651</v>
+        <v>0.0313454</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0235666</v>
+        <v>0.0232746</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0268657</v>
+        <v>0.0267165</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0318561</v>
+        <v>0.0315956</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0239594</v>
+        <v>0.0236923</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0270465</v>
+        <v>0.0269293</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323257</v>
+        <v>0.0322567</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0239024</v>
+        <v>0.0238899</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0272354</v>
+        <v>0.0271335</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0330098</v>
+        <v>0.032857</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0236714</v>
+        <v>0.0242559</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0274943</v>
+        <v>0.0274718</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0342224</v>
+        <v>0.0341151</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0235971</v>
+        <v>0.0234197</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0277515</v>
+        <v>0.0277366</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0351726</v>
+        <v>0.0351297</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0260063</v>
+        <v>0.0259115</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0278535</v>
+        <v>0.0278313</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0381406</v>
+        <v>0.0378775</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0314333</v>
+        <v>0.0313786</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0281862</v>
+        <v>0.0281214</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0414752</v>
+        <v>0.0416901</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0428644</v>
+        <v>0.0426744</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0280963</v>
+        <v>0.0282199</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0499822</v>
+        <v>0.0497586</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0530447</v>
+        <v>0.0527149</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02819</v>
+        <v>0.0286675</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0603713</v>
+        <v>0.0602296</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0663484</v>
+        <v>0.06617820000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0305042</v>
+        <v>0.030844</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.077584</v>
+        <v>0.0772919</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0877816</v>
+        <v>0.08753859999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0411841</v>
+        <v>0.0414619</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100809</v>
+        <v>0.100445</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11596</v>
+        <v>0.115504</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05549</v>
+        <v>0.0552617</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.139137</v>
+        <v>0.138744</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161798</v>
+        <v>0.161425</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0276905</v>
+        <v>0.0277754</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0320377</v>
+        <v>0.0323188</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0255611</v>
+        <v>0.0256712</v>
       </c>
       <c r="D24" t="n">
-        <v>0.027961</v>
+        <v>0.0286725</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0326642</v>
+        <v>0.0329178</v>
       </c>
       <c r="C25" t="n">
-        <v>0.025916</v>
+        <v>0.0258141</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0280212</v>
+        <v>0.0282736</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0334657</v>
+        <v>0.0337667</v>
       </c>
       <c r="C26" t="n">
-        <v>0.025742</v>
+        <v>0.0262914</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0284299</v>
+        <v>0.0294326</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0342093</v>
+        <v>0.0345388</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0271108</v>
+        <v>0.0273202</v>
       </c>
       <c r="D27" t="n">
-        <v>0.028831</v>
+        <v>0.0296418</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0350751</v>
+        <v>0.0353142</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0278093</v>
+        <v>0.0280444</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0290171</v>
+        <v>0.0292184</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.036586</v>
+        <v>0.036822</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0311477</v>
+        <v>0.0312604</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0300882</v>
+        <v>0.029537</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0387677</v>
+        <v>0.0389081</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0350145</v>
+        <v>0.03509</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0296146</v>
+        <v>0.0297148</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0417877</v>
+        <v>0.041899</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0400339</v>
+        <v>0.040076</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0302425</v>
+        <v>0.0303654</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0463894</v>
+        <v>0.0464668</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0471819</v>
+        <v>0.047159</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0311751</v>
+        <v>0.0311764</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0527161</v>
+        <v>0.0527805</v>
       </c>
       <c r="C33" t="n">
-        <v>0.055686</v>
+        <v>0.0557181</v>
       </c>
       <c r="D33" t="n">
-        <v>0.032824</v>
+        <v>0.0327893</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0633209</v>
+        <v>0.0631887</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06686979999999999</v>
+        <v>0.0667331</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0377529</v>
+        <v>0.0378136</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07716199999999999</v>
+        <v>0.07699259999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0816788</v>
+        <v>0.0813454</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0455837</v>
+        <v>0.0455325</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0976962</v>
+        <v>0.0972702</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111231</v>
+        <v>0.110654</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0568</v>
+        <v>0.0566806</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.131138</v>
+        <v>0.129938</v>
       </c>
       <c r="C37" t="n">
-        <v>0.154355</v>
+        <v>0.153241</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0288901</v>
+        <v>0.0285854</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0340214</v>
+        <v>0.0331278</v>
       </c>
       <c r="C38" t="n">
-        <v>0.028115</v>
+        <v>0.028325</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0287159</v>
+        <v>0.0293241</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0345322</v>
+        <v>0.0339452</v>
       </c>
       <c r="C39" t="n">
-        <v>0.028631</v>
+        <v>0.0289612</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0289024</v>
+        <v>0.0289894</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0351898</v>
+        <v>0.0346016</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0297143</v>
+        <v>0.0299427</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0292414</v>
+        <v>0.0292825</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0359538</v>
+        <v>0.0353358</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0306433</v>
+        <v>0.0309888</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0294748</v>
+        <v>0.0295157</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0369288</v>
+        <v>0.0364118</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0325586</v>
+        <v>0.0325071</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0299445</v>
+        <v>0.0301166</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0381898</v>
+        <v>0.0376325</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0349656</v>
+        <v>0.035091</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0305642</v>
+        <v>0.0304919</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0402443</v>
+        <v>0.0397712</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0378405</v>
+        <v>0.0378887</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0313456</v>
+        <v>0.0311643</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0432014</v>
+        <v>0.0427059</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0422644</v>
+        <v>0.0424058</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0325098</v>
+        <v>0.0321143</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0472437</v>
+        <v>0.0468597</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0478661</v>
+        <v>0.0478899</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0337571</v>
+        <v>0.033625</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0529864</v>
+        <v>0.0527212</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0545792</v>
+        <v>0.0545648</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0363681</v>
+        <v>0.0363689</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.060828</v>
+        <v>0.0605333</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06468640000000001</v>
+        <v>0.0645215</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0404548</v>
+        <v>0.0404353</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0736822</v>
+        <v>0.0733781</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0804564</v>
+        <v>0.0799916</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0458398</v>
+        <v>0.0458755</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09104329999999999</v>
+        <v>0.0903581</v>
       </c>
       <c r="C50" t="n">
-        <v>0.103499</v>
+        <v>0.102796</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0543191</v>
+        <v>0.0542957</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122282</v>
+        <v>0.120609</v>
       </c>
       <c r="C51" t="n">
-        <v>0.14166</v>
+        <v>0.140686</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0309727</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167832</v>
+        <v>0.165627</v>
       </c>
       <c r="C52" t="n">
-        <v>0.190063</v>
+        <v>0.190075</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0312535</v>
+        <v>0.0304347</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.034889</v>
+        <v>0.0352782</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0311893</v>
+        <v>0.0312171</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0314492</v>
+        <v>0.0305955</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0356183</v>
+        <v>0.035887</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0320117</v>
+        <v>0.0319669</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0321027</v>
+        <v>0.0309983</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0365463</v>
+        <v>0.0367948</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0332559</v>
+        <v>0.033055</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0321143</v>
+        <v>0.0312457</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0378367</v>
+        <v>0.0380703</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0345327</v>
+        <v>0.0343082</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0331677</v>
+        <v>0.0318201</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0393</v>
+        <v>0.0394921</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0363684</v>
+        <v>0.0362336</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0334762</v>
+        <v>0.0324043</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0412817</v>
+        <v>0.0414985</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0389884</v>
+        <v>0.0388941</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0339529</v>
+        <v>0.0331163</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0437819</v>
+        <v>0.0439839</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0420385</v>
+        <v>0.0418773</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0348993</v>
+        <v>0.0341779</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0474165</v>
+        <v>0.0475956</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0464916</v>
+        <v>0.0463277</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0363299</v>
+        <v>0.0355666</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0527792</v>
+        <v>0.0529374</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0533157</v>
+        <v>0.053097</v>
       </c>
       <c r="D61" t="n">
-        <v>0.038369</v>
+        <v>0.0376754</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0605484</v>
+        <v>0.0605575</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06283229999999999</v>
+        <v>0.0624815</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0415323</v>
+        <v>0.0408561</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07211629999999999</v>
+        <v>0.0719804</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07681159999999999</v>
+        <v>0.07622139999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0464786</v>
+        <v>0.0458607</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0892942</v>
+        <v>0.088826</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0977389</v>
+        <v>0.09750250000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0542923</v>
+        <v>0.0537402</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117916</v>
+        <v>0.116483</v>
       </c>
       <c r="C65" t="n">
-        <v>0.132993</v>
+        <v>0.132085</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0678528</v>
+        <v>0.06718010000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.158786</v>
+        <v>0.156383</v>
       </c>
       <c r="C66" t="n">
-        <v>0.181513</v>
+        <v>0.179309</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0379035</v>
+        <v>0.0368855</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0409581</v>
+        <v>0.0406364</v>
       </c>
       <c r="C67" t="n">
-        <v>0.03573</v>
+        <v>0.0360202</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0368313</v>
+        <v>0.0366453</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0415969</v>
+        <v>0.041223</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0365127</v>
+        <v>0.0369009</v>
       </c>
       <c r="D68" t="n">
-        <v>0.037643</v>
+        <v>0.0370102</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0424854</v>
+        <v>0.0420632</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0376522</v>
+        <v>0.0379055</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0383775</v>
+        <v>0.0378752</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0435781</v>
+        <v>0.0432865</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0389237</v>
+        <v>0.0391566</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0386345</v>
+        <v>0.0378518</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447782</v>
+        <v>0.0445823</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0404109</v>
+        <v>0.0407123</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0396241</v>
+        <v>0.0393523</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0464464</v>
+        <v>0.0463592</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0424854</v>
+        <v>0.0429125</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0411607</v>
+        <v>0.0393411</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.048849</v>
+        <v>0.0485632</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0454787</v>
+        <v>0.0458475</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0404784</v>
+        <v>0.0402732</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0523766</v>
+        <v>0.0516514</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0498245</v>
+        <v>0.0500862</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0417663</v>
+        <v>0.0415598</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0571403</v>
+        <v>0.0561743</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0559689</v>
+        <v>0.056137</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0437081</v>
+        <v>0.0434182</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06404550000000001</v>
+        <v>0.0629749</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06488439999999999</v>
+        <v>0.0649574</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0464044</v>
+        <v>0.0460576</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0741786</v>
+        <v>0.07276249999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0778741</v>
+        <v>0.07762289999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.050748</v>
+        <v>0.0502549</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0901137</v>
+        <v>0.0883058</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0960863</v>
+        <v>0.0955491</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0574331</v>
+        <v>0.0569848</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.11545</v>
+        <v>0.112446</v>
       </c>
       <c r="C79" t="n">
-        <v>0.126539</v>
+        <v>0.124556</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0697084</v>
+        <v>0.0683496</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.15568</v>
+        <v>0.151061</v>
       </c>
       <c r="C80" t="n">
-        <v>0.17312</v>
+        <v>0.169716</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0421399</v>
+        <v>0.0415395</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0475565</v>
+        <v>0.0470271</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0444221</v>
+        <v>0.0437784</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0427502</v>
+        <v>0.0420572</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0491192</v>
+        <v>0.0482584</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0466058</v>
+        <v>0.0457301</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0440358</v>
+        <v>0.042781</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0506087</v>
+        <v>0.049423</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0487581</v>
+        <v>0.0477113</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0442153</v>
+        <v>0.0434738</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0530791</v>
+        <v>0.0514572</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0517442</v>
+        <v>0.0504377</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0456214</v>
+        <v>0.0448881</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0557053</v>
+        <v>0.0538801</v>
       </c>
       <c r="C85" t="n">
-        <v>0.055141</v>
+        <v>0.0536356</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0467295</v>
+        <v>0.0453901</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0591134</v>
+        <v>0.0570315</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0591151</v>
+        <v>0.0572702</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0482267</v>
+        <v>0.0468221</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.06342739999999999</v>
+        <v>0.0611926</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0638205</v>
+        <v>0.0620201</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0504104</v>
+        <v>0.0487153</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06878670000000001</v>
+        <v>0.06657159999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0702783</v>
+        <v>0.068103</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0530341</v>
+        <v>0.0512138</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0758689</v>
+        <v>0.073473</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0777838</v>
+        <v>0.07569529999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0559153</v>
+        <v>0.0546408</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08455849999999999</v>
+        <v>0.0818878</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0881208</v>
+        <v>0.08540540000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0608085</v>
+        <v>0.059235</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0961838</v>
+        <v>0.0928552</v>
       </c>
       <c r="C91" t="n">
-        <v>0.101024</v>
+        <v>0.0977797</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0671292</v>
+        <v>0.0654841</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.112996</v>
+        <v>0.107653</v>
       </c>
       <c r="C92" t="n">
-        <v>0.119061</v>
+        <v>0.114357</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0757505</v>
+        <v>0.0739004</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.137401</v>
+        <v>0.129429</v>
       </c>
       <c r="C93" t="n">
-        <v>0.148099</v>
+        <v>0.139796</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0888328</v>
+        <v>0.08677260000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.174116</v>
+        <v>0.163113</v>
       </c>
       <c r="C94" t="n">
-        <v>0.191099</v>
+        <v>0.179826</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0537612</v>
+        <v>0.0517549</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0693846</v>
+        <v>0.0675321</v>
       </c>
       <c r="C95" t="n">
-        <v>0.06577139999999999</v>
+        <v>0.06348860000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.054095</v>
+        <v>0.0541597</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0723256</v>
+        <v>0.0699072</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06878239999999999</v>
+        <v>0.0655012</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0571176</v>
+        <v>0.0549499</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07441490000000001</v>
+        <v>0.07245169999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0718196</v>
+        <v>0.0685221</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0596328</v>
+        <v>0.0567673</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0773066</v>
+        <v>0.0752053</v>
       </c>
       <c r="C98" t="n">
-        <v>0.075299</v>
+        <v>0.069745</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0604448</v>
+        <v>0.0595918</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0814337</v>
+        <v>0.0775303</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0777915</v>
+        <v>0.07344920000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06337039999999999</v>
+        <v>0.0613013</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0843434</v>
+        <v>0.0810681</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0839236</v>
+        <v>0.079217</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0661693</v>
+        <v>0.0632587</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0890953</v>
+        <v>0.0846329</v>
       </c>
       <c r="C101" t="n">
-        <v>0.08932279999999999</v>
+        <v>0.0821223</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0665041</v>
+        <v>0.06526129999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0937438</v>
+        <v>0.0892148</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0950544</v>
+        <v>0.08954239999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.07097009999999999</v>
+        <v>0.06786</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.098681</v>
+        <v>0.0934096</v>
       </c>
       <c r="C103" t="n">
-        <v>0.100271</v>
+        <v>0.0967664</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0738278</v>
+        <v>0.070727</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.107013</v>
+        <v>0.102907</v>
       </c>
       <c r="C104" t="n">
-        <v>0.110021</v>
+        <v>0.106054</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0780028</v>
+        <v>0.0745832</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.117954</v>
+        <v>0.1133</v>
       </c>
       <c r="C105" t="n">
-        <v>0.12451</v>
+        <v>0.117737</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0835475</v>
+        <v>0.08007</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.135754</v>
+        <v>0.12911</v>
       </c>
       <c r="C106" t="n">
-        <v>0.141078</v>
+        <v>0.130894</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0916105</v>
+        <v>0.087436</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.156977</v>
+        <v>0.149204</v>
       </c>
       <c r="C107" t="n">
-        <v>0.16576</v>
+        <v>0.15738</v>
       </c>
       <c r="D107" t="n">
-        <v>0.104172</v>
+        <v>0.09978720000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.188493</v>
+        <v>0.179461</v>
       </c>
       <c r="C108" t="n">
-        <v>0.205494</v>
+        <v>0.191838</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0634537</v>
+        <v>0.0600716</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.234384</v>
+        <v>0.22471</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263615</v>
+        <v>0.252461</v>
       </c>
       <c r="D109" t="n">
-        <v>0.06465559999999999</v>
+        <v>0.0614613</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0846351</v>
+        <v>0.0806197</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0866236</v>
+        <v>0.08106149999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06669319999999999</v>
+        <v>0.06326229999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08963790000000001</v>
+        <v>0.0834032</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08934599999999999</v>
+        <v>0.08377660000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.068935</v>
+        <v>0.06449920000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.09352190000000001</v>
+        <v>0.0866387</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09270829999999999</v>
+        <v>0.0867173</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0713425</v>
+        <v>0.0661051</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0996095</v>
+        <v>0.090988</v>
       </c>
       <c r="C113" t="n">
-        <v>0.09657399999999999</v>
+        <v>0.0898352</v>
       </c>
       <c r="D113" t="n">
-        <v>0.07467360000000001</v>
+        <v>0.068402</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.105439</v>
+        <v>0.0941154</v>
       </c>
       <c r="C114" t="n">
-        <v>0.101307</v>
+        <v>0.0934982</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07900020000000001</v>
+        <v>0.0704143</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.111155</v>
+        <v>0.100631</v>
       </c>
       <c r="C115" t="n">
-        <v>0.106136</v>
+        <v>0.09811400000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0826822</v>
+        <v>0.0731386</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1166</v>
+        <v>0.106525</v>
       </c>
       <c r="C116" t="n">
-        <v>0.112724</v>
+        <v>0.103594</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0869291</v>
+        <v>0.0762627</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.123008</v>
+        <v>0.111404</v>
       </c>
       <c r="C117" t="n">
-        <v>0.119908</v>
+        <v>0.110651</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0910547</v>
+        <v>0.0804204</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.129107</v>
+        <v>0.119788</v>
       </c>
       <c r="C118" t="n">
-        <v>0.128753</v>
+        <v>0.119843</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0958155</v>
+        <v>0.0858892</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.138312</v>
+        <v>0.129532</v>
       </c>
       <c r="C119" t="n">
-        <v>0.140255</v>
+        <v>0.131195</v>
       </c>
       <c r="D119" t="n">
-        <v>0.101848</v>
+        <v>0.0932365</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.153052</v>
+        <v>0.144375</v>
       </c>
       <c r="C120" t="n">
-        <v>0.155793</v>
+        <v>0.145515</v>
       </c>
       <c r="D120" t="n">
-        <v>0.109606</v>
+        <v>0.101618</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.171582</v>
+        <v>0.16256</v>
       </c>
       <c r="C121" t="n">
-        <v>0.177969</v>
+        <v>0.166825</v>
       </c>
       <c r="D121" t="n">
-        <v>0.121304</v>
+        <v>0.113926</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.199431</v>
+        <v>0.188852</v>
       </c>
       <c r="C122" t="n">
-        <v>0.212583</v>
+        <v>0.200325</v>
       </c>
       <c r="D122" t="n">
-        <v>0.139911</v>
+        <v>0.132325</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.237199</v>
+        <v>0.228927</v>
       </c>
       <c r="C123" t="n">
-        <v>0.270322</v>
+        <v>0.255426</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08659749999999999</v>
+        <v>0.08008899999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.109146</v>
+        <v>0.101831</v>
       </c>
       <c r="C124" t="n">
-        <v>0.108026</v>
+        <v>0.0993696</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0936924</v>
+        <v>0.08441849999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.110651</v>
+        <v>0.104728</v>
       </c>
       <c r="C125" t="n">
-        <v>0.108546</v>
+        <v>0.101216</v>
       </c>
       <c r="D125" t="n">
-        <v>0.09180430000000001</v>
+        <v>0.0854862</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.112136</v>
+        <v>0.107406</v>
       </c>
       <c r="C126" t="n">
-        <v>0.113702</v>
+        <v>0.107319</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0959222</v>
+        <v>0.09161950000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.11325</v>
+        <v>0.11267</v>
       </c>
       <c r="C127" t="n">
-        <v>0.114729</v>
+        <v>0.107987</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0951335</v>
+        <v>0.0903718</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.118663</v>
+        <v>0.112925</v>
       </c>
       <c r="C128" t="n">
-        <v>0.119811</v>
+        <v>0.112995</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0976009</v>
+        <v>0.09414160000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.12098</v>
+        <v>0.119583</v>
       </c>
       <c r="C129" t="n">
-        <v>0.123448</v>
+        <v>0.116204</v>
       </c>
       <c r="D129" t="n">
-        <v>0.09915599999999999</v>
+        <v>0.0944778</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.127923</v>
+        <v>0.120704</v>
       </c>
       <c r="C130" t="n">
-        <v>0.129601</v>
+        <v>0.121357</v>
       </c>
       <c r="D130" t="n">
-        <v>0.103016</v>
+        <v>0.09789630000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.132607</v>
+        <v>0.127499</v>
       </c>
       <c r="C131" t="n">
-        <v>0.135803</v>
+        <v>0.128128</v>
       </c>
       <c r="D131" t="n">
-        <v>0.105472</v>
+        <v>0.101661</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.139402</v>
+        <v>0.132267</v>
       </c>
       <c r="C132" t="n">
-        <v>0.142952</v>
+        <v>0.13594</v>
       </c>
       <c r="D132" t="n">
-        <v>0.107138</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.14938</v>
+        <v>0.142317</v>
       </c>
       <c r="C133" t="n">
-        <v>0.154979</v>
+        <v>0.145708</v>
       </c>
       <c r="D133" t="n">
-        <v>0.113966</v>
+        <v>0.108845</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.162382</v>
+        <v>0.154111</v>
       </c>
       <c r="C134" t="n">
-        <v>0.168646</v>
+        <v>0.160552</v>
       </c>
       <c r="D134" t="n">
-        <v>0.119738</v>
+        <v>0.117151</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.179249</v>
+        <v>0.169881</v>
       </c>
       <c r="C135" t="n">
-        <v>0.190708</v>
+        <v>0.180458</v>
       </c>
       <c r="D135" t="n">
-        <v>0.130848</v>
+        <v>0.126596</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.204893</v>
+        <v>0.194986</v>
       </c>
       <c r="C136" t="n">
-        <v>0.222787</v>
+        <v>0.210469</v>
       </c>
       <c r="D136" t="n">
-        <v>0.148519</v>
+        <v>0.142399</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.243953</v>
+        <v>0.232843</v>
       </c>
       <c r="C137" t="n">
-        <v>0.274852</v>
+        <v>0.26025</v>
       </c>
       <c r="D137" t="n">
-        <v>0.177295</v>
+        <v>0.159414</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.182897</v>
+        <v>0.172275</v>
       </c>
       <c r="C138" t="n">
-        <v>0.170376</v>
+        <v>0.154783</v>
       </c>
       <c r="D138" t="n">
-        <v>0.178608</v>
+        <v>0.160419</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.183154</v>
+        <v>0.173019</v>
       </c>
       <c r="C139" t="n">
-        <v>0.172662</v>
+        <v>0.15705</v>
       </c>
       <c r="D139" t="n">
-        <v>0.178496</v>
+        <v>0.162014</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.187524</v>
+        <v>0.17332</v>
       </c>
       <c r="C140" t="n">
-        <v>0.175131</v>
+        <v>0.159135</v>
       </c>
       <c r="D140" t="n">
-        <v>0.17979</v>
+        <v>0.162926</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.189795</v>
+        <v>0.172434</v>
       </c>
       <c r="C141" t="n">
-        <v>0.178236</v>
+        <v>0.162158</v>
       </c>
       <c r="D141" t="n">
-        <v>0.181526</v>
+        <v>0.16518</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.183798</v>
+        <v>0.171437</v>
       </c>
       <c r="C142" t="n">
-        <v>0.181845</v>
+        <v>0.16494</v>
       </c>
       <c r="D142" t="n">
-        <v>0.183855</v>
+        <v>0.165927</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.196481</v>
+        <v>0.181654</v>
       </c>
       <c r="C143" t="n">
-        <v>0.185331</v>
+        <v>0.169713</v>
       </c>
       <c r="D143" t="n">
-        <v>0.185004</v>
+        <v>0.169604</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0324602</v>
+        <v>0.0322793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0198091</v>
+        <v>0.0196588</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02713</v>
+        <v>0.0269866</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0333719</v>
+        <v>0.0335206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0209571</v>
+        <v>0.0210252</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0269339</v>
+        <v>0.0269063</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0365893</v>
+        <v>0.036156</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0242497</v>
+        <v>0.024153</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0271478</v>
+        <v>0.0273288</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.042164</v>
+        <v>0.0419518</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0385665</v>
+        <v>0.0388904</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0255988</v>
+        <v>0.0258165</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0564561</v>
+        <v>0.0563076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.059665</v>
+        <v>0.0598356</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0269012</v>
+        <v>0.0275968</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07649789999999999</v>
+        <v>0.0761628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.085992</v>
+        <v>0.0856157</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0312656</v>
+        <v>0.0318722</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107314</v>
+        <v>0.107057</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116865</v>
+        <v>0.116824</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0476118</v>
+        <v>0.048272</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149039</v>
+        <v>0.149162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1656</v>
+        <v>0.165561</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0266645</v>
+        <v>0.0265119</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0306507</v>
+        <v>0.0305991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0233309</v>
+        <v>0.023334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0269525</v>
+        <v>0.026631</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0313454</v>
+        <v>0.0312928</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0232746</v>
+        <v>0.0232827</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0267165</v>
+        <v>0.0266858</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0315956</v>
+        <v>0.0316318</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0236923</v>
+        <v>0.0234621</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0269293</v>
+        <v>0.0268725</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0322567</v>
+        <v>0.0321592</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0238899</v>
+        <v>0.0239352</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0271335</v>
+        <v>0.0270901</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.032857</v>
+        <v>0.0328057</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0242559</v>
+        <v>0.0241228</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0274718</v>
+        <v>0.0275014</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341151</v>
+        <v>0.034003</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0234197</v>
+        <v>0.0235759</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0277366</v>
+        <v>0.0277301</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0351297</v>
+        <v>0.0350818</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0259115</v>
+        <v>0.0259095</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0278313</v>
+        <v>0.0278573</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0378775</v>
+        <v>0.0380637</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0313786</v>
+        <v>0.0309697</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0281214</v>
+        <v>0.027971</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0416901</v>
+        <v>0.0413751</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0426744</v>
+        <v>0.042483</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0282199</v>
+        <v>0.0281621</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0497586</v>
+        <v>0.0497897</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0527149</v>
+        <v>0.0529404</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0286675</v>
+        <v>0.0282843</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0602296</v>
+        <v>0.0600975</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06617820000000001</v>
+        <v>0.0661437</v>
       </c>
       <c r="D20" t="n">
-        <v>0.030844</v>
+        <v>0.0311388</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0772919</v>
+        <v>0.0773321</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08753859999999999</v>
+        <v>0.08731510000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0414619</v>
+        <v>0.041159</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100445</v>
+        <v>0.100408</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115504</v>
+        <v>0.115567</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0552617</v>
+        <v>0.0552607</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138744</v>
+        <v>0.138861</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161425</v>
+        <v>0.161561</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0277754</v>
+        <v>0.0277949</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0323188</v>
+        <v>0.0320865</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0256712</v>
+        <v>0.0255737</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0286725</v>
+        <v>0.0284904</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0329178</v>
+        <v>0.0327864</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0258141</v>
+        <v>0.0258484</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0282736</v>
+        <v>0.0282007</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0337667</v>
+        <v>0.0335874</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0262914</v>
+        <v>0.0260495</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0294326</v>
+        <v>0.0284999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0345388</v>
+        <v>0.034363</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0273202</v>
+        <v>0.0267433</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0296418</v>
+        <v>0.0288836</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0353142</v>
+        <v>0.0352774</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0280444</v>
+        <v>0.027986</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0292184</v>
+        <v>0.0291172</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.036822</v>
+        <v>0.0367031</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0312604</v>
+        <v>0.0309979</v>
       </c>
       <c r="D29" t="n">
-        <v>0.029537</v>
+        <v>0.029348</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0389081</v>
+        <v>0.0389513</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03509</v>
+        <v>0.0351091</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0297148</v>
+        <v>0.0296349</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.041899</v>
+        <v>0.0418467</v>
       </c>
       <c r="C31" t="n">
-        <v>0.040076</v>
+        <v>0.0399862</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0303654</v>
+        <v>0.0303179</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0464668</v>
+        <v>0.0464757</v>
       </c>
       <c r="C32" t="n">
-        <v>0.047159</v>
+        <v>0.0471382</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0311764</v>
+        <v>0.0311402</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0527805</v>
+        <v>0.052724</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0557181</v>
+        <v>0.0556719</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0327893</v>
+        <v>0.0327179</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0631887</v>
+        <v>0.06321649999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0667331</v>
+        <v>0.0665975</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0378136</v>
+        <v>0.0378332</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07699259999999999</v>
+        <v>0.07689940000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0813454</v>
+        <v>0.0812469</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0455325</v>
+        <v>0.0455008</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0972702</v>
+        <v>0.09728920000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.110654</v>
+        <v>0.110489</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0566806</v>
+        <v>0.0566404</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.129938</v>
+        <v>0.130118</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153241</v>
+        <v>0.153249</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0285854</v>
+        <v>0.0285329</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0331278</v>
+        <v>0.0333065</v>
       </c>
       <c r="C38" t="n">
-        <v>0.028325</v>
+        <v>0.0282587</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0293241</v>
+        <v>0.0288146</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339452</v>
+        <v>0.0340312</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0289612</v>
+        <v>0.0289755</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0289894</v>
+        <v>0.0296762</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0346016</v>
+        <v>0.0346588</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0299427</v>
+        <v>0.0298391</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0292825</v>
+        <v>0.0293433</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0353358</v>
+        <v>0.0354109</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0309888</v>
+        <v>0.0309926</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0295157</v>
+        <v>0.0294261</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0364118</v>
+        <v>0.0364074</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0325071</v>
+        <v>0.0326203</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0301166</v>
+        <v>0.0305411</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0376325</v>
+        <v>0.0376846</v>
       </c>
       <c r="C43" t="n">
-        <v>0.035091</v>
+        <v>0.03505</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0304919</v>
+        <v>0.0305722</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0397712</v>
+        <v>0.0397999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0378887</v>
+        <v>0.0379366</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0311643</v>
+        <v>0.0311188</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0427059</v>
+        <v>0.0427869</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0424058</v>
+        <v>0.0423473</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0321143</v>
+        <v>0.032241</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0468597</v>
+        <v>0.0469016</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0478899</v>
+        <v>0.0479227</v>
       </c>
       <c r="D46" t="n">
-        <v>0.033625</v>
+        <v>0.0339537</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0527212</v>
+        <v>0.0527861</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0545648</v>
+        <v>0.0545337</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0363689</v>
+        <v>0.0363695</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0605333</v>
+        <v>0.0606287</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0645215</v>
+        <v>0.06451</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0404353</v>
+        <v>0.0404686</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0733781</v>
+        <v>0.0734617</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0799916</v>
+        <v>0.0800215</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0458755</v>
+        <v>0.0458437</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0903581</v>
+        <v>0.09039469999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102796</v>
+        <v>0.102747</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0542957</v>
+        <v>0.0541967</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120609</v>
+        <v>0.120633</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140686</v>
+        <v>0.141156</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0302</v>
+        <v>0.0305852</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165627</v>
+        <v>0.165661</v>
       </c>
       <c r="C52" t="n">
-        <v>0.190075</v>
+        <v>0.190104</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0304347</v>
+        <v>0.0308507</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0352782</v>
+        <v>0.0348267</v>
       </c>
       <c r="C53" t="n">
         <v>0.0312171</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0305955</v>
+        <v>0.0307669</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.035887</v>
+        <v>0.0356964</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0319669</v>
+        <v>0.03199</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0309983</v>
+        <v>0.0312001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0367948</v>
+        <v>0.0366086</v>
       </c>
       <c r="C55" t="n">
-        <v>0.033055</v>
+        <v>0.0331916</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0312457</v>
+        <v>0.031554</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0380703</v>
+        <v>0.037827</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0343082</v>
+        <v>0.034449</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0318201</v>
+        <v>0.0320539</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0394921</v>
+        <v>0.0393407</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0362336</v>
+        <v>0.0363209</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0324043</v>
+        <v>0.0326105</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0414985</v>
+        <v>0.0413042</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0388941</v>
+        <v>0.038939</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0331163</v>
+        <v>0.0333717</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0439839</v>
+        <v>0.0438084</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0418773</v>
+        <v>0.0419215</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0341779</v>
+        <v>0.0344189</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0475956</v>
+        <v>0.0474909</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0463277</v>
+        <v>0.0463235</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0355666</v>
+        <v>0.0357693</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0529374</v>
+        <v>0.0528031</v>
       </c>
       <c r="C61" t="n">
-        <v>0.053097</v>
+        <v>0.0531289</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0376754</v>
+        <v>0.0378224</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0605575</v>
+        <v>0.0605495</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0624815</v>
+        <v>0.0624831</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0408561</v>
+        <v>0.0410206</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0719804</v>
+        <v>0.0719775</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07622139999999999</v>
+        <v>0.07626330000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0458607</v>
+        <v>0.0460055</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.088826</v>
+        <v>0.08885940000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09750250000000001</v>
+        <v>0.0966878</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0537402</v>
+        <v>0.0538333</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116483</v>
+        <v>0.116512</v>
       </c>
       <c r="C65" t="n">
-        <v>0.132085</v>
+        <v>0.131145</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06718010000000001</v>
+        <v>0.0672261</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156383</v>
+        <v>0.15646</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179309</v>
+        <v>0.179155</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0368855</v>
+        <v>0.0368605</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0406364</v>
+        <v>0.0411713</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0360202</v>
+        <v>0.036077</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0366453</v>
+        <v>0.0366081</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.041223</v>
+        <v>0.0417838</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0369009</v>
+        <v>0.0369137</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0370102</v>
+        <v>0.0369714</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0420632</v>
+        <v>0.0427037</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0379055</v>
+        <v>0.0380472</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0378752</v>
+        <v>0.0374588</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0432865</v>
+        <v>0.0438079</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0391566</v>
+        <v>0.039258</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0378518</v>
+        <v>0.0381269</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0445823</v>
+        <v>0.0451913</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0407123</v>
+        <v>0.0408047</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0393523</v>
+        <v>0.0391476</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0463592</v>
+        <v>0.0467924</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0429125</v>
+        <v>0.0429191</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0393411</v>
+        <v>0.0391806</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0485632</v>
+        <v>0.0490991</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0458475</v>
+        <v>0.045897</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0402732</v>
+        <v>0.0403077</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0516514</v>
+        <v>0.0521545</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0500862</v>
+        <v>0.0500461</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0415598</v>
+        <v>0.0415472</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0561743</v>
+        <v>0.0567544</v>
       </c>
       <c r="C75" t="n">
-        <v>0.056137</v>
+        <v>0.0563913</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0434182</v>
+        <v>0.0434781</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0629749</v>
+        <v>0.0635952</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0649574</v>
+        <v>0.0650728</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0460576</v>
+        <v>0.0461881</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07276249999999999</v>
+        <v>0.0735648</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07762289999999999</v>
+        <v>0.0777289</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0502549</v>
+        <v>0.0504127</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0883058</v>
+        <v>0.08913980000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0955491</v>
+        <v>0.09554989999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0569848</v>
+        <v>0.0571403</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112446</v>
+        <v>0.113436</v>
       </c>
       <c r="C79" t="n">
-        <v>0.124556</v>
+        <v>0.124732</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0683496</v>
+        <v>0.06864489999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151061</v>
+        <v>0.152088</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169716</v>
+        <v>0.16993</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0415395</v>
+        <v>0.0417374</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0470271</v>
+        <v>0.0474179</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0437784</v>
+        <v>0.0442418</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0420572</v>
+        <v>0.0422406</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0482584</v>
+        <v>0.0487565</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0457301</v>
+        <v>0.0462385</v>
       </c>
       <c r="D82" t="n">
-        <v>0.042781</v>
+        <v>0.0431088</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.049423</v>
+        <v>0.0502808</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0477113</v>
+        <v>0.0483237</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0434738</v>
+        <v>0.043912</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0514572</v>
+        <v>0.0521396</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0504377</v>
+        <v>0.0508643</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0448881</v>
+        <v>0.0447854</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0538801</v>
+        <v>0.0547515</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0536356</v>
+        <v>0.054007</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0453901</v>
+        <v>0.0469894</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0570315</v>
+        <v>0.0578204</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0572702</v>
+        <v>0.0573762</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0468221</v>
+        <v>0.0475133</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0611926</v>
+        <v>0.0615908</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0620201</v>
+        <v>0.0620124</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0487153</v>
+        <v>0.0492799</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06657159999999999</v>
+        <v>0.0667422</v>
       </c>
       <c r="C88" t="n">
-        <v>0.068103</v>
+        <v>0.0679966</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0512138</v>
+        <v>0.0518115</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.073473</v>
+        <v>0.07366060000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07569529999999999</v>
+        <v>0.07530290000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0546408</v>
+        <v>0.0551298</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0818878</v>
+        <v>0.0818604</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08540540000000001</v>
+        <v>0.0852709</v>
       </c>
       <c r="D90" t="n">
-        <v>0.059235</v>
+        <v>0.0596348</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0928552</v>
+        <v>0.0927009</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0977797</v>
+        <v>0.0971818</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0654841</v>
+        <v>0.0656646</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107653</v>
+        <v>0.107257</v>
       </c>
       <c r="C92" t="n">
-        <v>0.114357</v>
+        <v>0.113718</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0739004</v>
+        <v>0.0736363</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129429</v>
+        <v>0.129002</v>
       </c>
       <c r="C93" t="n">
-        <v>0.139796</v>
+        <v>0.139272</v>
       </c>
       <c r="D93" t="n">
-        <v>0.08677260000000001</v>
+        <v>0.08625629999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.163113</v>
+        <v>0.162969</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179826</v>
+        <v>0.179124</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0517549</v>
+        <v>0.0522877</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0675321</v>
+        <v>0.06715699999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.06348860000000001</v>
+        <v>0.0628889</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0541597</v>
+        <v>0.0537993</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0699072</v>
+        <v>0.0687794</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0655012</v>
+        <v>0.06541139999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0549499</v>
+        <v>0.0553302</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07245169999999999</v>
+        <v>0.07187689999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0685221</v>
+        <v>0.06719459999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0567673</v>
+        <v>0.0573484</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0752053</v>
+        <v>0.07518320000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.069745</v>
+        <v>0.0700605</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0595918</v>
+        <v>0.0602668</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0775303</v>
+        <v>0.07726669999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07344920000000001</v>
+        <v>0.0752834</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0613013</v>
+        <v>0.0614431</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0810681</v>
+        <v>0.0817502</v>
       </c>
       <c r="C100" t="n">
-        <v>0.079217</v>
+        <v>0.0795959</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0632587</v>
+        <v>0.0629334</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0846329</v>
+        <v>0.0858635</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0821223</v>
+        <v>0.0844766</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06526129999999999</v>
+        <v>0.06390949999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0892148</v>
+        <v>0.0900106</v>
       </c>
       <c r="C102" t="n">
-        <v>0.08954239999999999</v>
+        <v>0.0901656</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06786</v>
+        <v>0.0665364</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0934096</v>
+        <v>0.0950377</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0967664</v>
+        <v>0.0969043</v>
       </c>
       <c r="D103" t="n">
-        <v>0.070727</v>
+        <v>0.0709115</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102907</v>
+        <v>0.102156</v>
       </c>
       <c r="C104" t="n">
-        <v>0.106054</v>
+        <v>0.106495</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0745832</v>
+        <v>0.0750575</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1133</v>
+        <v>0.11258</v>
       </c>
       <c r="C105" t="n">
-        <v>0.117737</v>
+        <v>0.118084</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08007</v>
+        <v>0.0801452</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.12911</v>
+        <v>0.127164</v>
       </c>
       <c r="C106" t="n">
-        <v>0.130894</v>
+        <v>0.133816</v>
       </c>
       <c r="D106" t="n">
-        <v>0.087436</v>
+        <v>0.0880051</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149204</v>
+        <v>0.147832</v>
       </c>
       <c r="C107" t="n">
-        <v>0.15738</v>
+        <v>0.154223</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09978720000000001</v>
+        <v>0.0981152</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179461</v>
+        <v>0.179329</v>
       </c>
       <c r="C108" t="n">
-        <v>0.191838</v>
+        <v>0.195733</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0600716</v>
+        <v>0.0598993</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.22471</v>
+        <v>0.224249</v>
       </c>
       <c r="C109" t="n">
-        <v>0.252461</v>
+        <v>0.25715</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0614613</v>
+        <v>0.0614504</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0806197</v>
+        <v>0.0812146</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08106149999999999</v>
+        <v>0.0815342</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06326229999999999</v>
+        <v>0.0627159</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0834032</v>
+        <v>0.08397259999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08377660000000001</v>
+        <v>0.08395710000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06449920000000001</v>
+        <v>0.0640479</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0866387</v>
+        <v>0.0859202</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0867173</v>
+        <v>0.0868313</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0661051</v>
+        <v>0.06572799999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.090988</v>
+        <v>0.0906706</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0898352</v>
+        <v>0.0896554</v>
       </c>
       <c r="D113" t="n">
-        <v>0.068402</v>
+        <v>0.0678735</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0941154</v>
+        <v>0.09545049999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0934982</v>
+        <v>0.0931839</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0704143</v>
+        <v>0.0702753</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100631</v>
+        <v>0.100691</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09811400000000001</v>
+        <v>0.09828629999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0731386</v>
+        <v>0.0731618</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106525</v>
+        <v>0.106282</v>
       </c>
       <c r="C116" t="n">
-        <v>0.103594</v>
+        <v>0.103703</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0762627</v>
+        <v>0.0763866</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.111404</v>
+        <v>0.113386</v>
       </c>
       <c r="C117" t="n">
-        <v>0.110651</v>
+        <v>0.110727</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0804204</v>
+        <v>0.08104260000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.119788</v>
+        <v>0.119957</v>
       </c>
       <c r="C118" t="n">
-        <v>0.119843</v>
+        <v>0.119791</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0858892</v>
+        <v>0.0865046</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.129532</v>
+        <v>0.129521</v>
       </c>
       <c r="C119" t="n">
-        <v>0.131195</v>
+        <v>0.131265</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0932365</v>
+        <v>0.09340619999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144375</v>
+        <v>0.1443</v>
       </c>
       <c r="C120" t="n">
-        <v>0.145515</v>
+        <v>0.146669</v>
       </c>
       <c r="D120" t="n">
-        <v>0.101618</v>
+        <v>0.101817</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.16256</v>
+        <v>0.162707</v>
       </c>
       <c r="C121" t="n">
-        <v>0.166825</v>
+        <v>0.168225</v>
       </c>
       <c r="D121" t="n">
-        <v>0.113926</v>
+        <v>0.113974</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188852</v>
+        <v>0.188652</v>
       </c>
       <c r="C122" t="n">
-        <v>0.200325</v>
+        <v>0.201716</v>
       </c>
       <c r="D122" t="n">
-        <v>0.132325</v>
+        <v>0.132388</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.228927</v>
+        <v>0.228912</v>
       </c>
       <c r="C123" t="n">
-        <v>0.255426</v>
+        <v>0.257338</v>
       </c>
       <c r="D123" t="n">
-        <v>0.08008899999999999</v>
+        <v>0.0809392</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.101831</v>
+        <v>0.102781</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0993696</v>
+        <v>0.100641</v>
       </c>
       <c r="D124" t="n">
-        <v>0.08441849999999999</v>
+        <v>0.08609749999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104728</v>
+        <v>0.105851</v>
       </c>
       <c r="C125" t="n">
-        <v>0.101216</v>
+        <v>0.102341</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0854862</v>
+        <v>0.0868757</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107406</v>
+        <v>0.107529</v>
       </c>
       <c r="C126" t="n">
-        <v>0.107319</v>
+        <v>0.105511</v>
       </c>
       <c r="D126" t="n">
-        <v>0.09161950000000001</v>
+        <v>0.0886822</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.11267</v>
+        <v>0.113494</v>
       </c>
       <c r="C127" t="n">
-        <v>0.107987</v>
+        <v>0.107701</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0903718</v>
+        <v>0.08943420000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.112925</v>
+        <v>0.114594</v>
       </c>
       <c r="C128" t="n">
-        <v>0.112995</v>
+        <v>0.112281</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09414160000000001</v>
+        <v>0.09234009999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.119583</v>
+        <v>0.117542</v>
       </c>
       <c r="C129" t="n">
-        <v>0.116204</v>
+        <v>0.115728</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0944778</v>
+        <v>0.0939329</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120704</v>
+        <v>0.121055</v>
       </c>
       <c r="C130" t="n">
-        <v>0.121357</v>
+        <v>0.121601</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09789630000000001</v>
+        <v>0.0978907</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127499</v>
+        <v>0.12733</v>
       </c>
       <c r="C131" t="n">
-        <v>0.128128</v>
+        <v>0.126275</v>
       </c>
       <c r="D131" t="n">
-        <v>0.101661</v>
+        <v>0.0982633</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132267</v>
+        <v>0.132785</v>
       </c>
       <c r="C132" t="n">
-        <v>0.13594</v>
+        <v>0.136759</v>
       </c>
       <c r="D132" t="n">
-        <v>0.105</v>
+        <v>0.105891</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142317</v>
+        <v>0.143456</v>
       </c>
       <c r="C133" t="n">
-        <v>0.145708</v>
+        <v>0.145648</v>
       </c>
       <c r="D133" t="n">
-        <v>0.108845</v>
+        <v>0.109188</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154111</v>
+        <v>0.153888</v>
       </c>
       <c r="C134" t="n">
-        <v>0.160552</v>
+        <v>0.159072</v>
       </c>
       <c r="D134" t="n">
-        <v>0.117151</v>
+        <v>0.114941</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169881</v>
+        <v>0.170342</v>
       </c>
       <c r="C135" t="n">
-        <v>0.180458</v>
+        <v>0.17993</v>
       </c>
       <c r="D135" t="n">
-        <v>0.126596</v>
+        <v>0.126743</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194986</v>
+        <v>0.196144</v>
       </c>
       <c r="C136" t="n">
-        <v>0.210469</v>
+        <v>0.209436</v>
       </c>
       <c r="D136" t="n">
-        <v>0.142399</v>
+        <v>0.140062</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232843</v>
+        <v>0.232169</v>
       </c>
       <c r="C137" t="n">
-        <v>0.26025</v>
+        <v>0.260538</v>
       </c>
       <c r="D137" t="n">
-        <v>0.159414</v>
+        <v>0.159029</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.172275</v>
+        <v>0.172313</v>
       </c>
       <c r="C138" t="n">
-        <v>0.154783</v>
+        <v>0.15448</v>
       </c>
       <c r="D138" t="n">
-        <v>0.160419</v>
+        <v>0.160133</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.173019</v>
+        <v>0.172465</v>
       </c>
       <c r="C139" t="n">
-        <v>0.15705</v>
+        <v>0.156912</v>
       </c>
       <c r="D139" t="n">
-        <v>0.162014</v>
+        <v>0.161506</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.17332</v>
+        <v>0.176207</v>
       </c>
       <c r="C140" t="n">
-        <v>0.159135</v>
+        <v>0.159164</v>
       </c>
       <c r="D140" t="n">
-        <v>0.162926</v>
+        <v>0.163332</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.172434</v>
+        <v>0.175875</v>
       </c>
       <c r="C141" t="n">
-        <v>0.162158</v>
+        <v>0.162306</v>
       </c>
       <c r="D141" t="n">
-        <v>0.16518</v>
+        <v>0.165274</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.171437</v>
+        <v>0.171624</v>
       </c>
       <c r="C142" t="n">
-        <v>0.16494</v>
+        <v>0.165528</v>
       </c>
       <c r="D142" t="n">
-        <v>0.165927</v>
+        <v>0.166993</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.181654</v>
+        <v>0.173758</v>
       </c>
       <c r="C143" t="n">
-        <v>0.169713</v>
+        <v>0.1688</v>
       </c>
       <c r="D143" t="n">
-        <v>0.169604</v>
+        <v>0.168577</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0322793</v>
+        <v>0.0323592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0196588</v>
+        <v>0.0235323</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0269866</v>
+        <v>0.0270439</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0335206</v>
+        <v>0.0333856</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0210252</v>
+        <v>0.0233257</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0269063</v>
+        <v>0.0269702</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.036156</v>
+        <v>0.0361143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.024153</v>
+        <v>0.0267739</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0273288</v>
+        <v>0.0270816</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0419518</v>
+        <v>0.0412996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0388904</v>
+        <v>0.0395187</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0258165</v>
+        <v>0.0256902</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0563076</v>
+        <v>0.0560425</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0598356</v>
+        <v>0.0595515</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0275968</v>
+        <v>0.0272134</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0761628</v>
+        <v>0.0764271</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0856157</v>
+        <v>0.0849979</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0318722</v>
+        <v>0.0295272</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107057</v>
+        <v>0.107335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116824</v>
+        <v>0.116107</v>
       </c>
       <c r="D8" t="n">
-        <v>0.048272</v>
+        <v>0.047596</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149162</v>
+        <v>0.148566</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165561</v>
+        <v>0.163704</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0265119</v>
+        <v>0.0265332</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0305991</v>
+        <v>0.0305827</v>
       </c>
       <c r="C10" t="n">
-        <v>0.023334</v>
+        <v>0.0279466</v>
       </c>
       <c r="D10" t="n">
-        <v>0.026631</v>
+        <v>0.0269815</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0312928</v>
+        <v>0.0312474</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0232827</v>
+        <v>0.0285912</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0266858</v>
+        <v>0.0272207</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0316318</v>
+        <v>0.0316132</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0234621</v>
+        <v>0.0292254</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0268725</v>
+        <v>0.0271876</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0321592</v>
+        <v>0.032305</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0239352</v>
+        <v>0.0294938</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0270901</v>
+        <v>0.0273315</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0328057</v>
+        <v>0.0329025</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0241228</v>
+        <v>0.0286783</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0275014</v>
+        <v>0.0277117</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.034003</v>
+        <v>0.0339505</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0235759</v>
+        <v>0.0294847</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0277301</v>
+        <v>0.0279519</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0350818</v>
+        <v>0.0350828</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0259095</v>
+        <v>0.0313676</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0278573</v>
+        <v>0.0280406</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0380637</v>
+        <v>0.0381147</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0309697</v>
+        <v>0.0340565</v>
       </c>
       <c r="D17" t="n">
-        <v>0.027971</v>
+        <v>0.0283116</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0413751</v>
+        <v>0.0414106</v>
       </c>
       <c r="C18" t="n">
-        <v>0.042483</v>
+        <v>0.0433136</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0281621</v>
+        <v>0.0283017</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0497897</v>
+        <v>0.0496256</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0529404</v>
+        <v>0.0530085</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0282843</v>
+        <v>0.0284955</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0600975</v>
+        <v>0.060323</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0661437</v>
+        <v>0.06636880000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0311388</v>
+        <v>0.0302699</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0773321</v>
+        <v>0.0772477</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08731510000000001</v>
+        <v>0.0874591</v>
       </c>
       <c r="D21" t="n">
-        <v>0.041159</v>
+        <v>0.0410733</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100408</v>
+        <v>0.100892</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115567</v>
+        <v>0.115722</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0552607</v>
+        <v>0.0551617</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138861</v>
+        <v>0.138976</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161561</v>
+        <v>0.16113</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0277949</v>
+        <v>0.0279288</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0320865</v>
+        <v>0.0320654</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0255737</v>
+        <v>0.0293991</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0284904</v>
+        <v>0.0281375</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0327864</v>
+        <v>0.0327635</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0258484</v>
+        <v>0.0299714</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0282007</v>
+        <v>0.0283384</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0335874</v>
+        <v>0.0335876</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0260495</v>
+        <v>0.0304542</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0284999</v>
+        <v>0.0289308</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.034363</v>
+        <v>0.0343478</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0267433</v>
+        <v>0.031516</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0288836</v>
+        <v>0.0290691</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0352774</v>
+        <v>0.0351243</v>
       </c>
       <c r="C28" t="n">
-        <v>0.027986</v>
+        <v>0.0319614</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0291172</v>
+        <v>0.0292415</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0367031</v>
+        <v>0.0365803</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0309979</v>
+        <v>0.03325</v>
       </c>
       <c r="D29" t="n">
-        <v>0.029348</v>
+        <v>0.0295556</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0389513</v>
+        <v>0.0387501</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0351091</v>
+        <v>0.0360866</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0296349</v>
+        <v>0.0299108</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0418467</v>
+        <v>0.041793</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0399862</v>
+        <v>0.0405092</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0303179</v>
+        <v>0.0305281</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0464757</v>
+        <v>0.04635</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0471382</v>
+        <v>0.0474525</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0311402</v>
+        <v>0.0313275</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.052724</v>
+        <v>0.0526714</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0556719</v>
+        <v>0.0558304</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0327179</v>
+        <v>0.0329561</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06321649999999999</v>
+        <v>0.06311029999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0665975</v>
+        <v>0.06664589999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0378332</v>
+        <v>0.0379143</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07689940000000001</v>
+        <v>0.076859</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0812469</v>
+        <v>0.08135870000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0455008</v>
+        <v>0.0457017</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09728920000000001</v>
+        <v>0.0972339</v>
       </c>
       <c r="C36" t="n">
-        <v>0.110489</v>
+        <v>0.11121</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0566404</v>
+        <v>0.0567511</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130118</v>
+        <v>0.130011</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153249</v>
+        <v>0.153046</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0285329</v>
+        <v>0.0290332</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0333065</v>
+        <v>0.0330444</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0282587</v>
+        <v>0.0304674</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0288146</v>
+        <v>0.029077</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0340312</v>
+        <v>0.0338125</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0289755</v>
+        <v>0.0308597</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0296762</v>
+        <v>0.0295877</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0346588</v>
+        <v>0.0345068</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0298391</v>
+        <v>0.0318459</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0293433</v>
+        <v>0.0297095</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0354109</v>
+        <v>0.0352248</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0309926</v>
+        <v>0.0325949</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0294261</v>
+        <v>0.0300939</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0364074</v>
+        <v>0.0362184</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0326203</v>
+        <v>0.034142</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0305411</v>
+        <v>0.0308848</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0376846</v>
+        <v>0.0375271</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03505</v>
+        <v>0.0359171</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0305722</v>
+        <v>0.0307398</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0397999</v>
+        <v>0.0396462</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0379366</v>
+        <v>0.0382527</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0311188</v>
+        <v>0.0313833</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0427869</v>
+        <v>0.0426738</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0423473</v>
+        <v>0.0426755</v>
       </c>
       <c r="D45" t="n">
-        <v>0.032241</v>
+        <v>0.0323621</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0469016</v>
+        <v>0.0468304</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0479227</v>
+        <v>0.0481668</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0339537</v>
+        <v>0.0337025</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0527861</v>
+        <v>0.0526759</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0545337</v>
+        <v>0.0547117</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0363695</v>
+        <v>0.0364746</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0606287</v>
+        <v>0.0604902</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06451</v>
+        <v>0.0646021</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0404686</v>
+        <v>0.0405941</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0734617</v>
+        <v>0.07333489999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0800215</v>
+        <v>0.0804491</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0458437</v>
+        <v>0.0459888</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09039469999999999</v>
+        <v>0.0902835</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102747</v>
+        <v>0.102826</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0541967</v>
+        <v>0.0544831</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120633</v>
+        <v>0.120496</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141156</v>
+        <v>0.140574</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0305852</v>
+        <v>0.0305936</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165661</v>
+        <v>0.165574</v>
       </c>
       <c r="C52" t="n">
-        <v>0.190104</v>
+        <v>0.18872</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0308507</v>
+        <v>0.0309575</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0348267</v>
+        <v>0.035165</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0312171</v>
+        <v>0.0320645</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0307669</v>
+        <v>0.0311315</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0356964</v>
+        <v>0.0358331</v>
       </c>
       <c r="C54" t="n">
-        <v>0.03199</v>
+        <v>0.0328533</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0312001</v>
+        <v>0.0316051</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0366086</v>
+        <v>0.0367061</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0331916</v>
+        <v>0.0340529</v>
       </c>
       <c r="D55" t="n">
-        <v>0.031554</v>
+        <v>0.0317985</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.037827</v>
+        <v>0.0379585</v>
       </c>
       <c r="C56" t="n">
-        <v>0.034449</v>
+        <v>0.0353917</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0320539</v>
+        <v>0.0324649</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0393407</v>
+        <v>0.0393609</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0363209</v>
+        <v>0.037293</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0326105</v>
+        <v>0.0330049</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0413042</v>
+        <v>0.041339</v>
       </c>
       <c r="C58" t="n">
-        <v>0.038939</v>
+        <v>0.0396734</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0333717</v>
+        <v>0.0337626</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0438084</v>
+        <v>0.0438408</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0419215</v>
+        <v>0.0424621</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0344189</v>
+        <v>0.0347137</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0474909</v>
+        <v>0.0474482</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0463235</v>
+        <v>0.0468674</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0357693</v>
+        <v>0.0360703</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0528031</v>
+        <v>0.0528242</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0531289</v>
+        <v>0.0536397</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0378224</v>
+        <v>0.0382538</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0605495</v>
+        <v>0.0605027</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0624831</v>
+        <v>0.0628312</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0410206</v>
+        <v>0.0413898</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0719775</v>
+        <v>0.0719225</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07626330000000001</v>
+        <v>0.0766169</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0460055</v>
+        <v>0.0464285</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08885940000000001</v>
+        <v>0.08876439999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0966878</v>
+        <v>0.0970405</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0538333</v>
+        <v>0.0541905</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116512</v>
+        <v>0.116394</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131145</v>
+        <v>0.131723</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0672261</v>
+        <v>0.0675776</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.15646</v>
+        <v>0.156313</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179155</v>
+        <v>0.179562</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0368605</v>
+        <v>0.0368311</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0411713</v>
+        <v>0.0407077</v>
       </c>
       <c r="C67" t="n">
-        <v>0.036077</v>
+        <v>0.0366884</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0366081</v>
+        <v>0.0371878</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0417838</v>
+        <v>0.0413358</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0369137</v>
+        <v>0.0376428</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0369714</v>
+        <v>0.0375386</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0427037</v>
+        <v>0.0421271</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0380472</v>
+        <v>0.0388454</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0374588</v>
+        <v>0.037981</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0438079</v>
+        <v>0.0432404</v>
       </c>
       <c r="C70" t="n">
-        <v>0.039258</v>
+        <v>0.0402341</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0381269</v>
+        <v>0.0384373</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0451913</v>
+        <v>0.0445708</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0408047</v>
+        <v>0.0417216</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0391476</v>
+        <v>0.038981</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0467924</v>
+        <v>0.046195</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0429191</v>
+        <v>0.0436092</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0391806</v>
+        <v>0.0396762</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0490991</v>
+        <v>0.0483886</v>
       </c>
       <c r="C73" t="n">
-        <v>0.045897</v>
+        <v>0.0464769</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0403077</v>
+        <v>0.0406339</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0521545</v>
+        <v>0.051513</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0500461</v>
+        <v>0.0505735</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0415472</v>
+        <v>0.0419612</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0567544</v>
+        <v>0.0560004</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0563913</v>
+        <v>0.0566396</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0434781</v>
+        <v>0.0438372</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0635952</v>
+        <v>0.06279319999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0650728</v>
+        <v>0.0652431</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0461881</v>
+        <v>0.046593</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0735648</v>
+        <v>0.07280150000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0777289</v>
+        <v>0.077889</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0504127</v>
+        <v>0.0507625</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08913980000000001</v>
+        <v>0.0882216</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09554989999999999</v>
+        <v>0.0957808</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0571403</v>
+        <v>0.0575293</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113436</v>
+        <v>0.112417</v>
       </c>
       <c r="C79" t="n">
-        <v>0.124732</v>
+        <v>0.12496</v>
       </c>
       <c r="D79" t="n">
-        <v>0.06864489999999999</v>
+        <v>0.069142</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.152088</v>
+        <v>0.151065</v>
       </c>
       <c r="C80" t="n">
-        <v>0.16993</v>
+        <v>0.169982</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0417374</v>
+        <v>0.0416026</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0474179</v>
+        <v>0.0471055</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0442418</v>
+        <v>0.0438406</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0422406</v>
+        <v>0.042072</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0487565</v>
+        <v>0.0482568</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0462385</v>
+        <v>0.0458317</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0431088</v>
+        <v>0.0426699</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0502808</v>
+        <v>0.0496952</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0483237</v>
+        <v>0.0483119</v>
       </c>
       <c r="D83" t="n">
-        <v>0.043912</v>
+        <v>0.0434566</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0521396</v>
+        <v>0.0516835</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0508643</v>
+        <v>0.0511647</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0447854</v>
+        <v>0.0443525</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0547515</v>
+        <v>0.0539873</v>
       </c>
       <c r="C85" t="n">
-        <v>0.054007</v>
+        <v>0.0543601</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0469894</v>
+        <v>0.0453903</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0578204</v>
+        <v>0.0573055</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0573762</v>
+        <v>0.0579719</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0475133</v>
+        <v>0.046806</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0615908</v>
+        <v>0.0612785</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0620124</v>
+        <v>0.0623537</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0492799</v>
+        <v>0.048555</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0667422</v>
+        <v>0.0664752</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0679966</v>
+        <v>0.0684691</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0518115</v>
+        <v>0.0512506</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07366060000000001</v>
+        <v>0.0730645</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07530290000000001</v>
+        <v>0.07551190000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0551298</v>
+        <v>0.0546382</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0818604</v>
+        <v>0.08154889999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0852709</v>
+        <v>0.08536530000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0596348</v>
+        <v>0.0592346</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0927009</v>
+        <v>0.09258189999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0971818</v>
+        <v>0.09757639999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0656646</v>
+        <v>0.06535299999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107257</v>
+        <v>0.107453</v>
       </c>
       <c r="C92" t="n">
-        <v>0.113718</v>
+        <v>0.114342</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0736363</v>
+        <v>0.0737902</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129002</v>
+        <v>0.129231</v>
       </c>
       <c r="C93" t="n">
-        <v>0.139272</v>
+        <v>0.139977</v>
       </c>
       <c r="D93" t="n">
-        <v>0.08625629999999999</v>
+        <v>0.0865776</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.162969</v>
+        <v>0.163389</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179124</v>
+        <v>0.179342</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0522877</v>
+        <v>0.0522789</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06715699999999999</v>
+        <v>0.06700739999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0628889</v>
+        <v>0.0628761</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0537993</v>
+        <v>0.0537292</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0687794</v>
+        <v>0.06985570000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06541139999999999</v>
+        <v>0.06606049999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0553302</v>
+        <v>0.0556951</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07187689999999999</v>
+        <v>0.07204439999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.06719459999999999</v>
+        <v>0.0682777</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0573484</v>
+        <v>0.0577067</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07518320000000001</v>
+        <v>0.0751238</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0700605</v>
+        <v>0.07235999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0602668</v>
+        <v>0.0595415</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07726669999999999</v>
+        <v>0.0779972</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0752834</v>
+        <v>0.0753477</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0614431</v>
+        <v>0.0615109</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0817502</v>
+        <v>0.0812707</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0795959</v>
+        <v>0.08040659999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0629334</v>
+        <v>0.0632008</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0858635</v>
+        <v>0.08495949999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0844766</v>
+        <v>0.08488320000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06390949999999999</v>
+        <v>0.0652799</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0900106</v>
+        <v>0.0893154</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0901656</v>
+        <v>0.0897551</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0665364</v>
+        <v>0.06767629999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0950377</v>
+        <v>0.09482019999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0969043</v>
+        <v>0.09686160000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0709115</v>
+        <v>0.0709905</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102156</v>
+        <v>0.102972</v>
       </c>
       <c r="C104" t="n">
-        <v>0.106495</v>
+        <v>0.106595</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0750575</v>
+        <v>0.0748318</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11258</v>
+        <v>0.113193</v>
       </c>
       <c r="C105" t="n">
-        <v>0.118084</v>
+        <v>0.11785</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0801452</v>
+        <v>0.0796689</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.127164</v>
+        <v>0.128438</v>
       </c>
       <c r="C106" t="n">
-        <v>0.133816</v>
+        <v>0.134063</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0880051</v>
+        <v>0.0878008</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.147832</v>
+        <v>0.14961</v>
       </c>
       <c r="C107" t="n">
-        <v>0.154223</v>
+        <v>0.15779</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0981152</v>
+        <v>0.09926169999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179329</v>
+        <v>0.179547</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195733</v>
+        <v>0.195486</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0598993</v>
+        <v>0.0601976</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.224249</v>
+        <v>0.224526</v>
       </c>
       <c r="C109" t="n">
-        <v>0.25715</v>
+        <v>0.257062</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0614504</v>
+        <v>0.0613488</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0812146</v>
+        <v>0.08049199999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0815342</v>
+        <v>0.08181769999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0627159</v>
+        <v>0.0623953</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08397259999999999</v>
+        <v>0.0835104</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08395710000000001</v>
+        <v>0.0843687</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0640479</v>
+        <v>0.06384919999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0859202</v>
+        <v>0.0870693</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0868313</v>
+        <v>0.0871111</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06572799999999999</v>
+        <v>0.0655872</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0906706</v>
+        <v>0.09097139999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0896554</v>
+        <v>0.0908094</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0678735</v>
+        <v>0.06773709999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09545049999999999</v>
+        <v>0.0948517</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0931839</v>
+        <v>0.0937952</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0702753</v>
+        <v>0.06963279999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100691</v>
+        <v>0.09991609999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09828629999999999</v>
+        <v>0.098566</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0731618</v>
+        <v>0.0726475</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106282</v>
+        <v>0.106299</v>
       </c>
       <c r="C116" t="n">
-        <v>0.103703</v>
+        <v>0.104016</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0763866</v>
+        <v>0.0762944</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113386</v>
+        <v>0.113248</v>
       </c>
       <c r="C117" t="n">
-        <v>0.110727</v>
+        <v>0.110464</v>
       </c>
       <c r="D117" t="n">
-        <v>0.08104260000000001</v>
+        <v>0.0810792</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.119957</v>
+        <v>0.121141</v>
       </c>
       <c r="C118" t="n">
-        <v>0.119791</v>
+        <v>0.119222</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0865046</v>
+        <v>0.0863507</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.129521</v>
+        <v>0.131046</v>
       </c>
       <c r="C119" t="n">
-        <v>0.131265</v>
+        <v>0.131579</v>
       </c>
       <c r="D119" t="n">
-        <v>0.09340619999999999</v>
+        <v>0.0932945</v>
       </c>
     </row>
     <row r="120">
@@ -4900,10 +4900,10 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.1443</v>
+        <v>0.14418</v>
       </c>
       <c r="C120" t="n">
-        <v>0.146669</v>
+        <v>0.146881</v>
       </c>
       <c r="D120" t="n">
         <v>0.101817</v>
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.162707</v>
+        <v>0.16248</v>
       </c>
       <c r="C121" t="n">
-        <v>0.168225</v>
+        <v>0.168382</v>
       </c>
       <c r="D121" t="n">
-        <v>0.113974</v>
+        <v>0.114136</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188652</v>
+        <v>0.186438</v>
       </c>
       <c r="C122" t="n">
-        <v>0.201716</v>
+        <v>0.202058</v>
       </c>
       <c r="D122" t="n">
-        <v>0.132388</v>
+        <v>0.132736</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.228912</v>
+        <v>0.229238</v>
       </c>
       <c r="C123" t="n">
-        <v>0.257338</v>
+        <v>0.257043</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0809392</v>
+        <v>0.0816732</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102781</v>
+        <v>0.106239</v>
       </c>
       <c r="C124" t="n">
-        <v>0.100641</v>
+        <v>0.0991234</v>
       </c>
       <c r="D124" t="n">
-        <v>0.08609749999999999</v>
+        <v>0.0835402</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105851</v>
+        <v>0.104723</v>
       </c>
       <c r="C125" t="n">
-        <v>0.102341</v>
+        <v>0.103087</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0868757</v>
+        <v>0.08672390000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.107529</v>
+        <v>0.109762</v>
       </c>
       <c r="C126" t="n">
-        <v>0.105511</v>
+        <v>0.106332</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0886822</v>
+        <v>0.0893587</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.113494</v>
+        <v>0.11171</v>
       </c>
       <c r="C127" t="n">
-        <v>0.107701</v>
+        <v>0.10839</v>
       </c>
       <c r="D127" t="n">
-        <v>0.08943420000000001</v>
+        <v>0.0893089</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.114594</v>
+        <v>0.113864</v>
       </c>
       <c r="C128" t="n">
-        <v>0.112281</v>
+        <v>0.113481</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09234009999999999</v>
+        <v>0.09374</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.117542</v>
+        <v>0.118354</v>
       </c>
       <c r="C129" t="n">
-        <v>0.115728</v>
+        <v>0.115901</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0939329</v>
+        <v>0.0939205</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121055</v>
+        <v>0.122172</v>
       </c>
       <c r="C130" t="n">
-        <v>0.121601</v>
+        <v>0.120359</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0978907</v>
+        <v>0.09553970000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.12733</v>
+        <v>0.125812</v>
       </c>
       <c r="C131" t="n">
-        <v>0.126275</v>
+        <v>0.127503</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0982633</v>
+        <v>0.10004</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132785</v>
+        <v>0.133577</v>
       </c>
       <c r="C132" t="n">
-        <v>0.136759</v>
+        <v>0.135416</v>
       </c>
       <c r="D132" t="n">
-        <v>0.105891</v>
+        <v>0.103337</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143456</v>
+        <v>0.143453</v>
       </c>
       <c r="C133" t="n">
-        <v>0.145648</v>
+        <v>0.146622</v>
       </c>
       <c r="D133" t="n">
-        <v>0.109188</v>
+        <v>0.110961</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153888</v>
+        <v>0.154401</v>
       </c>
       <c r="C134" t="n">
-        <v>0.159072</v>
+        <v>0.160437</v>
       </c>
       <c r="D134" t="n">
-        <v>0.114941</v>
+        <v>0.117144</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170342</v>
+        <v>0.17059</v>
       </c>
       <c r="C135" t="n">
-        <v>0.17993</v>
+        <v>0.179526</v>
       </c>
       <c r="D135" t="n">
-        <v>0.126743</v>
+        <v>0.125313</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.196144</v>
+        <v>0.194137</v>
       </c>
       <c r="C136" t="n">
-        <v>0.209436</v>
+        <v>0.210079</v>
       </c>
       <c r="D136" t="n">
-        <v>0.140062</v>
+        <v>0.141016</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232169</v>
+        <v>0.23253</v>
       </c>
       <c r="C137" t="n">
-        <v>0.260538</v>
+        <v>0.260217</v>
       </c>
       <c r="D137" t="n">
-        <v>0.159029</v>
+        <v>0.159782</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.172313</v>
+        <v>0.172586</v>
       </c>
       <c r="C138" t="n">
-        <v>0.15448</v>
+        <v>0.154832</v>
       </c>
       <c r="D138" t="n">
-        <v>0.160133</v>
+        <v>0.160646</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.172465</v>
+        <v>0.173462</v>
       </c>
       <c r="C139" t="n">
-        <v>0.156912</v>
+        <v>0.157535</v>
       </c>
       <c r="D139" t="n">
-        <v>0.161506</v>
+        <v>0.162157</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.176207</v>
+        <v>0.17318</v>
       </c>
       <c r="C140" t="n">
-        <v>0.159164</v>
+        <v>0.159882</v>
       </c>
       <c r="D140" t="n">
-        <v>0.163332</v>
+        <v>0.16427</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.175875</v>
+        <v>0.176881</v>
       </c>
       <c r="C141" t="n">
-        <v>0.162306</v>
+        <v>0.162374</v>
       </c>
       <c r="D141" t="n">
-        <v>0.165274</v>
+        <v>0.165405</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.171624</v>
+        <v>0.171455</v>
       </c>
       <c r="C142" t="n">
-        <v>0.165528</v>
+        <v>0.165962</v>
       </c>
       <c r="D142" t="n">
-        <v>0.166993</v>
+        <v>0.167481</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.173758</v>
+        <v>0.181622</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1688</v>
+        <v>0.168939</v>
       </c>
       <c r="D143" t="n">
-        <v>0.168577</v>
+        <v>0.168275</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0323592</v>
+        <v>0.032279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0235323</v>
+        <v>0.0238449</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0270439</v>
+        <v>0.0269883</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0333856</v>
+        <v>0.0334254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0233257</v>
+        <v>0.0235104</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0269702</v>
+        <v>0.0267855</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0361143</v>
+        <v>0.0363942</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0267739</v>
+        <v>0.0261917</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0270816</v>
+        <v>0.0273204</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0412996</v>
+        <v>0.0414442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0395187</v>
+        <v>0.0392945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0256902</v>
+        <v>0.0256736</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0560425</v>
+        <v>0.0561968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0595515</v>
+        <v>0.0593348</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0272134</v>
+        <v>0.0276323</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0764271</v>
+        <v>0.0765072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0849979</v>
+        <v>0.0850036</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0295272</v>
+        <v>0.0316764</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107335</v>
+        <v>0.107075</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116107</v>
+        <v>0.11588</v>
       </c>
       <c r="D8" t="n">
-        <v>0.047596</v>
+        <v>0.0481804</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148566</v>
+        <v>0.148765</v>
       </c>
       <c r="C9" t="n">
-        <v>0.163704</v>
+        <v>0.163972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0265332</v>
+        <v>0.0264742</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0305827</v>
+        <v>0.0305738</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0279466</v>
+        <v>0.0281521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0269815</v>
+        <v>0.0266292</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0312474</v>
+        <v>0.031304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0285912</v>
+        <v>0.0287045</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0272207</v>
+        <v>0.0268263</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0316132</v>
+        <v>0.0315223</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0292254</v>
+        <v>0.0291412</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0271876</v>
+        <v>0.0269042</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.032305</v>
+        <v>0.032121</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0294938</v>
+        <v>0.0294434</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0273315</v>
+        <v>0.0270533</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0329025</v>
+        <v>0.0327794</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0286783</v>
+        <v>0.0283683</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0277117</v>
+        <v>0.0274814</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0339505</v>
+        <v>0.0339517</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0294847</v>
+        <v>0.0293906</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0279519</v>
+        <v>0.0276214</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0350828</v>
+        <v>0.0349601</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0313676</v>
+        <v>0.0310399</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0280406</v>
+        <v>0.0277037</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0381147</v>
+        <v>0.0380299</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0340565</v>
+        <v>0.0343079</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0283116</v>
+        <v>0.0281591</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0414106</v>
+        <v>0.0413647</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0433136</v>
+        <v>0.0431905</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0283017</v>
+        <v>0.028177</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0496256</v>
+        <v>0.0495651</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0530085</v>
+        <v>0.0530144</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0284955</v>
+        <v>0.0283639</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.060323</v>
+        <v>0.0602515</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06636880000000001</v>
+        <v>0.0663448</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0302699</v>
+        <v>0.030351</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0772477</v>
+        <v>0.0773142</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0874591</v>
+        <v>0.08762979999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0410733</v>
+        <v>0.0407771</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100892</v>
+        <v>0.100207</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115722</v>
+        <v>0.115743</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0551617</v>
+        <v>0.0552508</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138976</v>
+        <v>0.138686</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16113</v>
+        <v>0.16105</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0279288</v>
+        <v>0.0279812</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0320654</v>
+        <v>0.0320495</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0293991</v>
+        <v>0.0295093</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0281375</v>
+        <v>0.0282547</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0327635</v>
+        <v>0.0326949</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0299714</v>
+        <v>0.0300354</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0283384</v>
+        <v>0.0283887</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0335876</v>
+        <v>0.0335565</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0304542</v>
+        <v>0.0306329</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0289308</v>
+        <v>0.0287401</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343478</v>
+        <v>0.0342618</v>
       </c>
       <c r="C27" t="n">
-        <v>0.031516</v>
+        <v>0.0315895</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0290691</v>
+        <v>0.0290277</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351243</v>
+        <v>0.0351471</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0319614</v>
+        <v>0.0320342</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0292415</v>
+        <v>0.0293647</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0365803</v>
+        <v>0.0365553</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03325</v>
+        <v>0.0333184</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0295556</v>
+        <v>0.0295329</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0387501</v>
+        <v>0.0387542</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0360866</v>
+        <v>0.0361387</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0299108</v>
+        <v>0.0299274</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.041793</v>
+        <v>0.0417032</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0405092</v>
+        <v>0.0405984</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0305281</v>
+        <v>0.0305022</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04635</v>
+        <v>0.0463518</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0474525</v>
+        <v>0.047489</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0313275</v>
+        <v>0.0312823</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0526714</v>
+        <v>0.0526556</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0558304</v>
+        <v>0.055903</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0329561</v>
+        <v>0.032789</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06311029999999999</v>
+        <v>0.06314019999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06664589999999999</v>
+        <v>0.0667099</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0379143</v>
+        <v>0.037682</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.076859</v>
+        <v>0.0768993</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08135870000000001</v>
+        <v>0.0815126</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0457017</v>
+        <v>0.0456676</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0972339</v>
+        <v>0.09727860000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11121</v>
+        <v>0.110796</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0567511</v>
+        <v>0.0568627</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130011</v>
+        <v>0.129929</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153046</v>
+        <v>0.153993</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0290332</v>
+        <v>0.0286536</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0330444</v>
+        <v>0.0330772</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0304674</v>
+        <v>0.0304115</v>
       </c>
       <c r="D38" t="n">
-        <v>0.029077</v>
+        <v>0.0287153</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0338125</v>
+        <v>0.0338425</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0308597</v>
+        <v>0.0308072</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0295877</v>
+        <v>0.0290117</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0345068</v>
+        <v>0.0345189</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0318459</v>
+        <v>0.0316721</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0297095</v>
+        <v>0.0292187</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0352248</v>
+        <v>0.0352375</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0325949</v>
+        <v>0.0324157</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0300939</v>
+        <v>0.0294031</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0362184</v>
+        <v>0.0362509</v>
       </c>
       <c r="C42" t="n">
-        <v>0.034142</v>
+        <v>0.034123</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0308848</v>
+        <v>0.029957</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0375271</v>
+        <v>0.037577</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0359171</v>
+        <v>0.0359647</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0307398</v>
+        <v>0.030536</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0396462</v>
+        <v>0.0396739</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0382527</v>
+        <v>0.0381438</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0313833</v>
+        <v>0.0312164</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0426738</v>
+        <v>0.0426633</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0426755</v>
+        <v>0.0426213</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0323621</v>
+        <v>0.032126</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0468304</v>
+        <v>0.046803</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0481668</v>
+        <v>0.0481381</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0337025</v>
+        <v>0.0337105</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0526759</v>
+        <v>0.0526856</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0547117</v>
+        <v>0.0546863</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0364746</v>
+        <v>0.036352</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0604902</v>
+        <v>0.0605275</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0646021</v>
+        <v>0.06467100000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0405941</v>
+        <v>0.0404774</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07333489999999999</v>
+        <v>0.0733693</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0804491</v>
+        <v>0.0803542</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0459888</v>
+        <v>0.0458863</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0902835</v>
+        <v>0.0904088</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102826</v>
+        <v>0.102681</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0544831</v>
+        <v>0.0544017</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120496</v>
+        <v>0.120595</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140574</v>
+        <v>0.140277</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0305936</v>
+        <v>0.0309958</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165574</v>
+        <v>0.165668</v>
       </c>
       <c r="C52" t="n">
-        <v>0.18872</v>
+        <v>0.188225</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0309575</v>
+        <v>0.0311271</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.035165</v>
+        <v>0.0352187</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0320645</v>
+        <v>0.0321398</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0311315</v>
+        <v>0.0312573</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0358331</v>
+        <v>0.0358635</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0328533</v>
+        <v>0.0329769</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0316051</v>
+        <v>0.0317649</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0367061</v>
+        <v>0.0367688</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0340529</v>
+        <v>0.0340606</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0317985</v>
+        <v>0.0320754</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0379585</v>
+        <v>0.0380318</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0353917</v>
+        <v>0.0354236</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0324649</v>
+        <v>0.0325351</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0393609</v>
+        <v>0.0394957</v>
       </c>
       <c r="C57" t="n">
-        <v>0.037293</v>
+        <v>0.0373441</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0330049</v>
+        <v>0.0331023</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.041339</v>
+        <v>0.041502</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0396734</v>
+        <v>0.0397156</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0337626</v>
+        <v>0.0338371</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0438408</v>
+        <v>0.0440015</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0424621</v>
+        <v>0.0425301</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0347137</v>
+        <v>0.0348446</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0474482</v>
+        <v>0.047562</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0468674</v>
+        <v>0.046882</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0360703</v>
+        <v>0.0362107</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0528242</v>
+        <v>0.0528632</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0536397</v>
+        <v>0.0536315</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0382538</v>
+        <v>0.0383604</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0605027</v>
+        <v>0.0605856</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0628312</v>
+        <v>0.0628321</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0413898</v>
+        <v>0.0415061</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0719225</v>
+        <v>0.0720592</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0766169</v>
+        <v>0.0766109</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0464285</v>
+        <v>0.0464673</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08876439999999999</v>
+        <v>0.088952</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0970405</v>
+        <v>0.09697939999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0541905</v>
+        <v>0.0542551</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116394</v>
+        <v>0.116575</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131723</v>
+        <v>0.131273</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0675776</v>
+        <v>0.06763329999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156313</v>
+        <v>0.156576</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179562</v>
+        <v>0.179297</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0368311</v>
+        <v>0.0368357</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0407077</v>
+        <v>0.0405686</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0366884</v>
+        <v>0.0368197</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0371878</v>
+        <v>0.0372152</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0413358</v>
+        <v>0.0412142</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0376428</v>
+        <v>0.0378247</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0375386</v>
+        <v>0.0375924</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0421271</v>
+        <v>0.0421244</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0388454</v>
+        <v>0.0390601</v>
       </c>
       <c r="D69" t="n">
-        <v>0.037981</v>
+        <v>0.0380171</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0432404</v>
+        <v>0.0433809</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0402341</v>
+        <v>0.0404533</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0384373</v>
+        <v>0.0384405</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0445708</v>
+        <v>0.0447322</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0417216</v>
+        <v>0.0419779</v>
       </c>
       <c r="D71" t="n">
-        <v>0.038981</v>
+        <v>0.0390088</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.046195</v>
+        <v>0.0463118</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0436092</v>
+        <v>0.0440493</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0396762</v>
+        <v>0.0397349</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0483886</v>
+        <v>0.0485343</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0464769</v>
+        <v>0.0468878</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0406339</v>
+        <v>0.0407194</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.051513</v>
+        <v>0.0517279</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0505735</v>
+        <v>0.0511556</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0419612</v>
+        <v>0.0420644</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0560004</v>
+        <v>0.0562974</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0566396</v>
+        <v>0.0572111</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0438372</v>
+        <v>0.0439718</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06279319999999999</v>
+        <v>0.0632214</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0652431</v>
+        <v>0.0658556</v>
       </c>
       <c r="D76" t="n">
-        <v>0.046593</v>
+        <v>0.0467445</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07280150000000001</v>
+        <v>0.073169</v>
       </c>
       <c r="C77" t="n">
-        <v>0.077889</v>
+        <v>0.07849970000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0507625</v>
+        <v>0.0509017</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0882216</v>
+        <v>0.08881410000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0957808</v>
+        <v>0.0963726</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0575293</v>
+        <v>0.0578269</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112417</v>
+        <v>0.112824</v>
       </c>
       <c r="C79" t="n">
-        <v>0.12496</v>
+        <v>0.125272</v>
       </c>
       <c r="D79" t="n">
-        <v>0.069142</v>
+        <v>0.06942189999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151065</v>
+        <v>0.151487</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169982</v>
+        <v>0.170354</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0416026</v>
+        <v>0.0416279</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0471055</v>
+        <v>0.0474576</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0438406</v>
+        <v>0.0441079</v>
       </c>
       <c r="D81" t="n">
-        <v>0.042072</v>
+        <v>0.042115</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0482568</v>
+        <v>0.0487469</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0458317</v>
+        <v>0.0462068</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0426699</v>
+        <v>0.0427102</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0496952</v>
+        <v>0.0502793</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0483119</v>
+        <v>0.0484705</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0434566</v>
+        <v>0.04353</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0516835</v>
+        <v>0.0523569</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0511647</v>
+        <v>0.0512452</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0443525</v>
+        <v>0.0444294</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0539873</v>
+        <v>0.0547925</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0543601</v>
+        <v>0.054293</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0453903</v>
+        <v>0.0455723</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0573055</v>
+        <v>0.0580838</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0579719</v>
+        <v>0.0578353</v>
       </c>
       <c r="D86" t="n">
-        <v>0.046806</v>
+        <v>0.0470199</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0612785</v>
+        <v>0.0618986</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0623537</v>
+        <v>0.0621149</v>
       </c>
       <c r="D87" t="n">
-        <v>0.048555</v>
+        <v>0.0487768</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0664752</v>
+        <v>0.066743</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0684691</v>
+        <v>0.06790980000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0512506</v>
+        <v>0.0513378</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0730645</v>
+        <v>0.0732496</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07551190000000001</v>
+        <v>0.0752448</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0546382</v>
+        <v>0.0545999</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08154889999999999</v>
+        <v>0.08127479999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08536530000000001</v>
+        <v>0.08508010000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0592346</v>
+        <v>0.0591872</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09258189999999999</v>
+        <v>0.09225029999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.09757639999999999</v>
+        <v>0.09746150000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06535299999999999</v>
+        <v>0.0651538</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107453</v>
+        <v>0.107419</v>
       </c>
       <c r="C92" t="n">
-        <v>0.114342</v>
+        <v>0.114203</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0737902</v>
+        <v>0.07353079999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129231</v>
+        <v>0.129212</v>
       </c>
       <c r="C93" t="n">
-        <v>0.139977</v>
+        <v>0.139674</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0865776</v>
+        <v>0.08620510000000001</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.163389</v>
+        <v>0.163173</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179342</v>
+        <v>0.179237</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0522789</v>
+        <v>0.0522113</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06700739999999999</v>
+        <v>0.0667471</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0628761</v>
+        <v>0.0632339</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0537292</v>
+        <v>0.0535901</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.06985570000000001</v>
+        <v>0.0700118</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06606049999999999</v>
+        <v>0.06526419999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0556951</v>
+        <v>0.0554102</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07204439999999999</v>
+        <v>0.07246180000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0682777</v>
+        <v>0.06852999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0577067</v>
+        <v>0.0574506</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0751238</v>
+        <v>0.0750871</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07235999999999999</v>
+        <v>0.0720922</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0595415</v>
+        <v>0.0593013</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0779972</v>
+        <v>0.0779868</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0753477</v>
+        <v>0.0759804</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0615109</v>
+        <v>0.0612908</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0812707</v>
+        <v>0.0812367</v>
       </c>
       <c r="C100" t="n">
-        <v>0.08040659999999999</v>
+        <v>0.0797185</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0632008</v>
+        <v>0.06290419999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08495949999999999</v>
+        <v>0.0851934</v>
       </c>
       <c r="C101" t="n">
-        <v>0.08488320000000001</v>
+        <v>0.0845581</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0652799</v>
+        <v>0.0653141</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0893154</v>
+        <v>0.08957569999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0897551</v>
+        <v>0.0903109</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06767629999999999</v>
+        <v>0.06756529999999999</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09482019999999999</v>
+        <v>0.0950845</v>
       </c>
       <c r="C103" t="n">
-        <v>0.09686160000000001</v>
+        <v>0.0966616</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0709905</v>
+        <v>0.0707079</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102972</v>
+        <v>0.10289</v>
       </c>
       <c r="C104" t="n">
-        <v>0.106595</v>
+        <v>0.106262</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0748318</v>
+        <v>0.07484010000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113193</v>
+        <v>0.113268</v>
       </c>
       <c r="C105" t="n">
-        <v>0.11785</v>
+        <v>0.117575</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0796689</v>
+        <v>0.0799851</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128438</v>
+        <v>0.128598</v>
       </c>
       <c r="C106" t="n">
-        <v>0.134063</v>
+        <v>0.133878</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0878008</v>
+        <v>0.087649</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.14961</v>
+        <v>0.148699</v>
       </c>
       <c r="C107" t="n">
-        <v>0.15779</v>
+        <v>0.15742</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09926169999999999</v>
+        <v>0.0992905</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179547</v>
+        <v>0.179133</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195486</v>
+        <v>0.194913</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0601976</v>
+        <v>0.0601434</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.224526</v>
+        <v>0.22393</v>
       </c>
       <c r="C109" t="n">
-        <v>0.257062</v>
+        <v>0.256294</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0613488</v>
+        <v>0.0614824</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08049199999999999</v>
+        <v>0.08063770000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08181769999999999</v>
+        <v>0.0818709</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0623953</v>
+        <v>0.0622359</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0835104</v>
+        <v>0.082344</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0843687</v>
+        <v>0.084513</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06384919999999999</v>
+        <v>0.064071</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0870693</v>
+        <v>0.0869769</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0871111</v>
+        <v>0.0876516</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0655872</v>
+        <v>0.0655594</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09097139999999999</v>
+        <v>0.0894981</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0908094</v>
+        <v>0.0909049</v>
       </c>
       <c r="D113" t="n">
-        <v>0.06773709999999999</v>
+        <v>0.067841</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0948517</v>
+        <v>0.0939792</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0937952</v>
+        <v>0.0943442</v>
       </c>
       <c r="D114" t="n">
-        <v>0.06963279999999999</v>
+        <v>0.06989330000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.09991609999999999</v>
+        <v>0.100682</v>
       </c>
       <c r="C115" t="n">
-        <v>0.098566</v>
+        <v>0.0982997</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0726475</v>
+        <v>0.0730807</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106299</v>
+        <v>0.106382</v>
       </c>
       <c r="C116" t="n">
-        <v>0.104016</v>
+        <v>0.103429</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0762944</v>
+        <v>0.07628310000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113248</v>
+        <v>0.11335</v>
       </c>
       <c r="C117" t="n">
-        <v>0.110464</v>
+        <v>0.111248</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0810792</v>
+        <v>0.08087759999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121141</v>
+        <v>0.121467</v>
       </c>
       <c r="C118" t="n">
-        <v>0.119222</v>
+        <v>0.119971</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0863507</v>
+        <v>0.0861339</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131046</v>
+        <v>0.131086</v>
       </c>
       <c r="C119" t="n">
-        <v>0.131579</v>
+        <v>0.131507</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0932945</v>
+        <v>0.0931951</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.14418</v>
+        <v>0.144237</v>
       </c>
       <c r="C120" t="n">
-        <v>0.146881</v>
+        <v>0.145653</v>
       </c>
       <c r="D120" t="n">
-        <v>0.101817</v>
+        <v>0.101897</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.16248</v>
+        <v>0.162351</v>
       </c>
       <c r="C121" t="n">
-        <v>0.168382</v>
+        <v>0.166895</v>
       </c>
       <c r="D121" t="n">
-        <v>0.114136</v>
+        <v>0.113889</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.186438</v>
+        <v>0.188626</v>
       </c>
       <c r="C122" t="n">
-        <v>0.202058</v>
+        <v>0.201726</v>
       </c>
       <c r="D122" t="n">
-        <v>0.132736</v>
+        <v>0.132508</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.229238</v>
+        <v>0.228741</v>
       </c>
       <c r="C123" t="n">
-        <v>0.257043</v>
+        <v>0.256521</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0816732</v>
+        <v>0.0867918</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.106239</v>
+        <v>0.103733</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0991234</v>
+        <v>0.100812</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0835402</v>
+        <v>0.086033</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104723</v>
+        <v>0.104369</v>
       </c>
       <c r="C125" t="n">
-        <v>0.103087</v>
+        <v>0.104856</v>
       </c>
       <c r="D125" t="n">
-        <v>0.08672390000000001</v>
+        <v>0.0903808</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.109762</v>
+        <v>0.109432</v>
       </c>
       <c r="C126" t="n">
-        <v>0.106332</v>
+        <v>0.107068</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0893587</v>
+        <v>0.09066340000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.11171</v>
+        <v>0.111931</v>
       </c>
       <c r="C127" t="n">
-        <v>0.10839</v>
+        <v>0.111566</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0893089</v>
+        <v>0.09500069999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113864</v>
+        <v>0.113387</v>
       </c>
       <c r="C128" t="n">
-        <v>0.113481</v>
+        <v>0.114245</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09374</v>
+        <v>0.09539880000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118354</v>
+        <v>0.116871</v>
       </c>
       <c r="C129" t="n">
-        <v>0.115901</v>
+        <v>0.117889</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0939205</v>
+        <v>0.0969531</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122172</v>
+        <v>0.121613</v>
       </c>
       <c r="C130" t="n">
-        <v>0.120359</v>
+        <v>0.122817</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09553970000000001</v>
+        <v>0.0998859</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.125812</v>
+        <v>0.129475</v>
       </c>
       <c r="C131" t="n">
-        <v>0.127503</v>
+        <v>0.128444</v>
       </c>
       <c r="D131" t="n">
-        <v>0.10004</v>
+        <v>0.101027</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133577</v>
+        <v>0.132961</v>
       </c>
       <c r="C132" t="n">
-        <v>0.135416</v>
+        <v>0.135835</v>
       </c>
       <c r="D132" t="n">
-        <v>0.103337</v>
+        <v>0.104545</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143453</v>
+        <v>0.142282</v>
       </c>
       <c r="C133" t="n">
-        <v>0.146622</v>
+        <v>0.146462</v>
       </c>
       <c r="D133" t="n">
-        <v>0.110961</v>
+        <v>0.110832</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154401</v>
+        <v>0.155288</v>
       </c>
       <c r="C134" t="n">
-        <v>0.160437</v>
+        <v>0.161091</v>
       </c>
       <c r="D134" t="n">
-        <v>0.117144</v>
+        <v>0.117996</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.17059</v>
+        <v>0.169539</v>
       </c>
       <c r="C135" t="n">
-        <v>0.179526</v>
+        <v>0.18013</v>
       </c>
       <c r="D135" t="n">
-        <v>0.125313</v>
+        <v>0.126026</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194137</v>
+        <v>0.194801</v>
       </c>
       <c r="C136" t="n">
-        <v>0.210079</v>
+        <v>0.210606</v>
       </c>
       <c r="D136" t="n">
-        <v>0.141016</v>
+        <v>0.141255</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.23253</v>
+        <v>0.232069</v>
       </c>
       <c r="C137" t="n">
-        <v>0.260217</v>
+        <v>0.260992</v>
       </c>
       <c r="D137" t="n">
-        <v>0.159782</v>
+        <v>0.160047</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.172586</v>
+        <v>0.171435</v>
       </c>
       <c r="C138" t="n">
-        <v>0.154832</v>
+        <v>0.154414</v>
       </c>
       <c r="D138" t="n">
-        <v>0.160646</v>
+        <v>0.160587</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.173462</v>
+        <v>0.17279</v>
       </c>
       <c r="C139" t="n">
-        <v>0.157535</v>
+        <v>0.157754</v>
       </c>
       <c r="D139" t="n">
-        <v>0.162157</v>
+        <v>0.162839</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.17318</v>
+        <v>0.174854</v>
       </c>
       <c r="C140" t="n">
-        <v>0.159882</v>
+        <v>0.159816</v>
       </c>
       <c r="D140" t="n">
-        <v>0.16427</v>
+        <v>0.163593</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.176881</v>
+        <v>0.175876</v>
       </c>
       <c r="C141" t="n">
-        <v>0.162374</v>
+        <v>0.161966</v>
       </c>
       <c r="D141" t="n">
-        <v>0.165405</v>
+        <v>0.164793</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.171455</v>
+        <v>0.17856</v>
       </c>
       <c r="C142" t="n">
-        <v>0.165962</v>
+        <v>0.165259</v>
       </c>
       <c r="D142" t="n">
-        <v>0.167481</v>
+        <v>0.166879</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.181622</v>
+        <v>0.180417</v>
       </c>
       <c r="C143" t="n">
-        <v>0.168939</v>
+        <v>0.169465</v>
       </c>
       <c r="D143" t="n">
-        <v>0.168275</v>
+        <v>0.169455</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032279</v>
+        <v>0.0344538</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0238449</v>
+        <v>0.0412935</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0269883</v>
+        <v>0.0302208</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0334254</v>
+        <v>0.0350759</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0235104</v>
+        <v>0.0437986</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0267855</v>
+        <v>0.0298163</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0363942</v>
+        <v>0.0369174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0261917</v>
+        <v>0.0486547</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0273204</v>
+        <v>0.0284064</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0414442</v>
+        <v>0.0421449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0392945</v>
+        <v>0.056939</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0256736</v>
+        <v>0.0289635</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0561968</v>
+        <v>0.050912</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0593348</v>
+        <v>0.06938229999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0276323</v>
+        <v>0.0314412</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0765072</v>
+        <v>0.0727117</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0850036</v>
+        <v>0.09345530000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0316764</v>
+        <v>0.0398094</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107075</v>
+        <v>0.102144</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11588</v>
+        <v>0.0310853</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0481804</v>
+        <v>0.0605293</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148765</v>
+        <v>0.142939</v>
       </c>
       <c r="C9" t="n">
-        <v>0.163972</v>
+        <v>0.0315641</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0264742</v>
+        <v>0.0300716</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0305738</v>
+        <v>0.0324028</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0281521</v>
+        <v>0.032161</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0266292</v>
+        <v>0.0301209</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.031304</v>
+        <v>0.0328906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0287045</v>
+        <v>0.0329878</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0268263</v>
+        <v>0.0301674</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0315223</v>
+        <v>0.033556</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0291412</v>
+        <v>0.0341895</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0269042</v>
+        <v>0.030257</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.032121</v>
+        <v>0.033858</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0294434</v>
+        <v>0.0357555</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0270533</v>
+        <v>0.0304248</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0327794</v>
+        <v>0.0347093</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0283683</v>
+        <v>0.0372884</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0274814</v>
+        <v>0.0306438</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0339517</v>
+        <v>0.0356144</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0293906</v>
+        <v>0.0394428</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0276214</v>
+        <v>0.0308551</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0349601</v>
+        <v>0.0369539</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0310399</v>
+        <v>0.0420155</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0277037</v>
+        <v>0.0311193</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0380299</v>
+        <v>0.0384127</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0343079</v>
+        <v>0.0467081</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0281591</v>
+        <v>0.0311645</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0413647</v>
+        <v>0.0410114</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0431905</v>
+        <v>0.0527266</v>
       </c>
       <c r="D18" t="n">
-        <v>0.028177</v>
+        <v>0.0312811</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0495651</v>
+        <v>0.0471509</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0530144</v>
+        <v>0.0622828</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0283639</v>
+        <v>0.032264</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0602515</v>
+        <v>0.0570621</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0663448</v>
+        <v>0.0760474</v>
       </c>
       <c r="D20" t="n">
-        <v>0.030351</v>
+        <v>0.0366256</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0773142</v>
+        <v>0.0755362</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08762979999999999</v>
+        <v>0.0937182</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0407771</v>
+        <v>0.0473837</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100207</v>
+        <v>0.100236</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115743</v>
+        <v>0.0367516</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0552508</v>
+        <v>0.0645869</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138686</v>
+        <v>0.138174</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16105</v>
+        <v>0.0372744</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0279812</v>
+        <v>0.0309976</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0320495</v>
+        <v>0.0339307</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0295093</v>
+        <v>0.0378535</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0282547</v>
+        <v>0.0313117</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0326949</v>
+        <v>0.0344528</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0300354</v>
+        <v>0.0386388</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0283887</v>
+        <v>0.03187</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0335565</v>
+        <v>0.035055</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0306329</v>
+        <v>0.0395122</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0287401</v>
+        <v>0.0317574</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0342618</v>
+        <v>0.0359808</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0315895</v>
+        <v>0.0407753</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0290277</v>
+        <v>0.0325867</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351471</v>
+        <v>0.0365998</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0320342</v>
+        <v>0.0422683</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0293647</v>
+        <v>0.0322579</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0365553</v>
+        <v>0.0380315</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0333184</v>
+        <v>0.0438582</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0295329</v>
+        <v>0.0327923</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0387542</v>
+        <v>0.0398349</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0361387</v>
+        <v>0.0465649</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0299274</v>
+        <v>0.0331692</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0417032</v>
+        <v>0.0428674</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0405984</v>
+        <v>0.0507812</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0305022</v>
+        <v>0.0338209</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0463518</v>
+        <v>0.048309</v>
       </c>
       <c r="C32" t="n">
-        <v>0.047489</v>
+        <v>0.0560742</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0312823</v>
+        <v>0.034782</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0526556</v>
+        <v>0.0553836</v>
       </c>
       <c r="C33" t="n">
-        <v>0.055903</v>
+        <v>0.06377049999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.032789</v>
+        <v>0.0380847</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06314019999999999</v>
+        <v>0.06494279999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0667099</v>
+        <v>0.0758856</v>
       </c>
       <c r="D34" t="n">
-        <v>0.037682</v>
+        <v>0.0444155</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0768993</v>
+        <v>0.07953499999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0815126</v>
+        <v>0.09183239999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0456676</v>
+        <v>0.0509283</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09727860000000001</v>
+        <v>0.100183</v>
       </c>
       <c r="C36" t="n">
-        <v>0.110796</v>
+        <v>0.114405</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0568627</v>
+        <v>0.0623137</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.129929</v>
+        <v>0.133256</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153993</v>
+        <v>0.0417185</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0286536</v>
+        <v>0.0320691</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0330772</v>
+        <v>0.0340091</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0304115</v>
+        <v>0.0422527</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0287153</v>
+        <v>0.0323465</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0338425</v>
+        <v>0.0347327</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0308072</v>
+        <v>0.0430942</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0290117</v>
+        <v>0.0326538</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0345189</v>
+        <v>0.0354621</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0316721</v>
+        <v>0.0441364</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0292187</v>
+        <v>0.0328915</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0352375</v>
+        <v>0.036267</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0324157</v>
+        <v>0.0453174</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0294031</v>
+        <v>0.0333392</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0362509</v>
+        <v>0.0372509</v>
       </c>
       <c r="C42" t="n">
-        <v>0.034123</v>
+        <v>0.0469032</v>
       </c>
       <c r="D42" t="n">
-        <v>0.029957</v>
+        <v>0.033724</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.037577</v>
+        <v>0.0389659</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0359647</v>
+        <v>0.0491198</v>
       </c>
       <c r="D43" t="n">
-        <v>0.030536</v>
+        <v>0.0343524</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0396739</v>
+        <v>0.0408195</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0381438</v>
+        <v>0.0520551</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0312164</v>
+        <v>0.0352045</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0426633</v>
+        <v>0.0436678</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0426213</v>
+        <v>0.0565461</v>
       </c>
       <c r="D45" t="n">
-        <v>0.032126</v>
+        <v>0.0361035</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.046803</v>
+        <v>0.0479159</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0481381</v>
+        <v>0.0621688</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0337105</v>
+        <v>0.0376935</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0526856</v>
+        <v>0.0537817</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0546863</v>
+        <v>0.0706548</v>
       </c>
       <c r="D47" t="n">
-        <v>0.036352</v>
+        <v>0.0399194</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0605275</v>
+        <v>0.0627688</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06467100000000001</v>
+        <v>0.0806936</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0404774</v>
+        <v>0.0444846</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0733693</v>
+        <v>0.0750535</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0803542</v>
+        <v>0.095043</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0458863</v>
+        <v>0.0506537</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0904088</v>
+        <v>0.0939367</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102681</v>
+        <v>0.115921</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0544017</v>
+        <v>0.0598021</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120595</v>
+        <v>0.124878</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140277</v>
+        <v>0.0431869</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0309958</v>
+        <v>0.0341457</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165668</v>
+        <v>0.170606</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188225</v>
+        <v>0.0439392</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0311271</v>
+        <v>0.0343476</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0352187</v>
+        <v>0.0375787</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0321398</v>
+        <v>0.0448312</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0312573</v>
+        <v>0.0345697</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0358635</v>
+        <v>0.0381834</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0329769</v>
+        <v>0.045714</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0317649</v>
+        <v>0.0348329</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0367688</v>
+        <v>0.0392106</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0340606</v>
+        <v>0.0470795</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0320754</v>
+        <v>0.0353556</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0380318</v>
+        <v>0.0401956</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0354236</v>
+        <v>0.0487884</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0325351</v>
+        <v>0.0357611</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0394957</v>
+        <v>0.0413988</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0373441</v>
+        <v>0.0512076</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0331023</v>
+        <v>0.0364164</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.041502</v>
+        <v>0.0431695</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0397156</v>
+        <v>0.0542487</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0338371</v>
+        <v>0.037316</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0440015</v>
+        <v>0.0456585</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0425301</v>
+        <v>0.0587565</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0348446</v>
+        <v>0.038423</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.047562</v>
+        <v>0.0489908</v>
       </c>
       <c r="C60" t="n">
-        <v>0.046882</v>
+        <v>0.06449050000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0362107</v>
+        <v>0.0398958</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0528632</v>
+        <v>0.0542198</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0536315</v>
+        <v>0.0722728</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0383604</v>
+        <v>0.0421421</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0605856</v>
+        <v>0.0616088</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0628321</v>
+        <v>0.0839266</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0415061</v>
+        <v>0.0452777</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0720592</v>
+        <v>0.0724094</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0766109</v>
+        <v>0.0959361</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0464673</v>
+        <v>0.0505508</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.088952</v>
+        <v>0.0891817</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09697939999999999</v>
+        <v>0.113024</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0542551</v>
+        <v>0.0589454</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116575</v>
+        <v>0.118124</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131273</v>
+        <v>0.0442009</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06763329999999999</v>
+        <v>0.073599</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156576</v>
+        <v>0.16074</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179297</v>
+        <v>0.0447318</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0368357</v>
+        <v>0.0412942</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0405686</v>
+        <v>0.0415818</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0368197</v>
+        <v>0.0455348</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0372152</v>
+        <v>0.0416201</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0412142</v>
+        <v>0.0422819</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0378247</v>
+        <v>0.0464236</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0375924</v>
+        <v>0.0420731</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0421244</v>
+        <v>0.0430432</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0390601</v>
+        <v>0.0479556</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0380171</v>
+        <v>0.0424551</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0433809</v>
+        <v>0.0440321</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0404533</v>
+        <v>0.0495768</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0384405</v>
+        <v>0.0430148</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447322</v>
+        <v>0.0452367</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0419779</v>
+        <v>0.0519169</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0390088</v>
+        <v>0.0436274</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0463118</v>
+        <v>0.046897</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0440493</v>
+        <v>0.0545976</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0397349</v>
+        <v>0.0444017</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0485343</v>
+        <v>0.0493771</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0468878</v>
+        <v>0.0587764</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0407194</v>
+        <v>0.0454113</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0517279</v>
+        <v>0.052609</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0511556</v>
+        <v>0.0640133</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0420644</v>
+        <v>0.04668</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0562974</v>
+        <v>0.0572517</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0572111</v>
+        <v>0.071663</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0439718</v>
+        <v>0.048585</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0632214</v>
+        <v>0.064402</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0658556</v>
+        <v>0.0821178</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0467445</v>
+        <v>0.0515349</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.073169</v>
+        <v>0.0750696</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07849970000000001</v>
+        <v>0.09604699999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0509017</v>
+        <v>0.0561565</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08881410000000001</v>
+        <v>0.09163399999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0963726</v>
+        <v>0.113078</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0578269</v>
+        <v>0.0634319</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112824</v>
+        <v>0.116758</v>
       </c>
       <c r="C79" t="n">
-        <v>0.125272</v>
+        <v>0.0579941</v>
       </c>
       <c r="D79" t="n">
-        <v>0.06942189999999999</v>
+        <v>0.07627299999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151487</v>
+        <v>0.156876</v>
       </c>
       <c r="C80" t="n">
-        <v>0.170354</v>
+        <v>0.0585131</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0416279</v>
+        <v>0.0446115</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0474576</v>
+        <v>0.0461774</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0441079</v>
+        <v>0.0597387</v>
       </c>
       <c r="D81" t="n">
-        <v>0.042115</v>
+        <v>0.0451814</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0487469</v>
+        <v>0.0475914</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0462068</v>
+        <v>0.0608507</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0427102</v>
+        <v>0.0457859</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0502793</v>
+        <v>0.0492758</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0484705</v>
+        <v>0.0620912</v>
       </c>
       <c r="D83" t="n">
-        <v>0.04353</v>
+        <v>0.0464819</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0523569</v>
+        <v>0.0517618</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0512452</v>
+        <v>0.06391189999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0444294</v>
+        <v>0.0476408</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0547925</v>
+        <v>0.0545636</v>
       </c>
       <c r="C85" t="n">
-        <v>0.054293</v>
+        <v>0.0660514</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0455723</v>
+        <v>0.0488338</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0580838</v>
+        <v>0.0577974</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0578353</v>
+        <v>0.06912450000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0470199</v>
+        <v>0.0504375</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0618986</v>
+        <v>0.0623291</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0621149</v>
+        <v>0.0732143</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0487768</v>
+        <v>0.052518</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.066743</v>
+        <v>0.0674299</v>
       </c>
       <c r="C88" t="n">
-        <v>0.06790980000000001</v>
+        <v>0.0786061</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0513378</v>
+        <v>0.0551556</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0732496</v>
+        <v>0.0744867</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0752448</v>
+        <v>0.0853266</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0545999</v>
+        <v>0.0587064</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08127479999999999</v>
+        <v>0.08332920000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08508010000000001</v>
+        <v>0.0943244</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0591872</v>
+        <v>0.0636277</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09225029999999999</v>
+        <v>0.09582540000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.09746150000000001</v>
+        <v>0.10587</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0651538</v>
+        <v>0.0703039</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107419</v>
+        <v>0.1121</v>
       </c>
       <c r="C92" t="n">
-        <v>0.114203</v>
+        <v>0.121493</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07353079999999999</v>
+        <v>0.0794176</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129212</v>
+        <v>0.134095</v>
       </c>
       <c r="C93" t="n">
-        <v>0.139674</v>
+        <v>0.142738</v>
       </c>
       <c r="D93" t="n">
-        <v>0.08620510000000001</v>
+        <v>0.09286759999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.163173</v>
+        <v>0.168604</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179237</v>
+        <v>0.17015</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0522113</v>
+        <v>0.0566289</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0667471</v>
+        <v>0.0686272</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0632339</v>
+        <v>0.167549</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0535901</v>
+        <v>0.0577342</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0700118</v>
+        <v>0.07065100000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06526419999999999</v>
+        <v>0.167179</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0554102</v>
+        <v>0.0609841</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07246180000000001</v>
+        <v>0.0741221</v>
       </c>
       <c r="C97" t="n">
-        <v>0.06852999999999999</v>
+        <v>0.168756</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0574506</v>
+        <v>0.0627105</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0750871</v>
+        <v>0.0767939</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0720922</v>
+        <v>0.170478</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0593013</v>
+        <v>0.0648639</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0779868</v>
+        <v>0.0809998</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0759804</v>
+        <v>0.171536</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0612908</v>
+        <v>0.06705800000000001</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0812367</v>
+        <v>0.0845954</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0797185</v>
+        <v>0.171062</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06290419999999999</v>
+        <v>0.0691635</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0851934</v>
+        <v>0.0889264</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0845581</v>
+        <v>0.175147</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0653141</v>
+        <v>0.0714475</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08957569999999999</v>
+        <v>0.0921577</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0903109</v>
+        <v>0.176769</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06756529999999999</v>
+        <v>0.0740232</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0950845</v>
+        <v>0.098579</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0966616</v>
+        <v>0.182301</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0707079</v>
+        <v>0.07600170000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.10289</v>
+        <v>0.108301</v>
       </c>
       <c r="C104" t="n">
-        <v>0.106262</v>
+        <v>0.185368</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07484010000000001</v>
+        <v>0.0813687</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113268</v>
+        <v>0.119309</v>
       </c>
       <c r="C105" t="n">
-        <v>0.117575</v>
+        <v>0.192803</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0799851</v>
+        <v>0.0873003</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128598</v>
+        <v>0.134891</v>
       </c>
       <c r="C106" t="n">
-        <v>0.133878</v>
+        <v>0.204123</v>
       </c>
       <c r="D106" t="n">
-        <v>0.087649</v>
+        <v>0.09541620000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.148699</v>
+        <v>0.15692</v>
       </c>
       <c r="C107" t="n">
-        <v>0.15742</v>
+        <v>0.220292</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0992905</v>
+        <v>0.108804</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179133</v>
+        <v>0.188403</v>
       </c>
       <c r="C108" t="n">
-        <v>0.194913</v>
+        <v>0.238031</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0601434</v>
+        <v>0.06530560000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.22393</v>
+        <v>0.235702</v>
       </c>
       <c r="C109" t="n">
-        <v>0.256294</v>
+        <v>0.237868</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0614824</v>
+        <v>0.06684</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08063770000000001</v>
+        <v>0.08347110000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0818709</v>
+        <v>0.23846</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0622359</v>
+        <v>0.06822590000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.082344</v>
+        <v>0.08707380000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.084513</v>
+        <v>0.239523</v>
       </c>
       <c r="D111" t="n">
-        <v>0.064071</v>
+        <v>0.06971769999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0869769</v>
+        <v>0.09076149999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0876516</v>
+        <v>0.240666</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0655594</v>
+        <v>0.07159260000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0894981</v>
+        <v>0.09396</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0909049</v>
+        <v>0.242069</v>
       </c>
       <c r="D113" t="n">
-        <v>0.067841</v>
+        <v>0.0737652</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0939792</v>
+        <v>0.098512</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0943442</v>
+        <v>0.244706</v>
       </c>
       <c r="D114" t="n">
-        <v>0.06989330000000001</v>
+        <v>0.0765685</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100682</v>
+        <v>0.104235</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0982997</v>
+        <v>0.246889</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0730807</v>
+        <v>0.0797585</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106382</v>
+        <v>0.111829</v>
       </c>
       <c r="C116" t="n">
-        <v>0.103429</v>
+        <v>0.25046</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07628310000000001</v>
+        <v>0.08354979999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.11335</v>
+        <v>0.117806</v>
       </c>
       <c r="C117" t="n">
-        <v>0.111248</v>
+        <v>0.255304</v>
       </c>
       <c r="D117" t="n">
-        <v>0.08087759999999999</v>
+        <v>0.0884113</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121467</v>
+        <v>0.127793</v>
       </c>
       <c r="C118" t="n">
-        <v>0.119971</v>
+        <v>0.262148</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0861339</v>
+        <v>0.0942978</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131086</v>
+        <v>0.138629</v>
       </c>
       <c r="C119" t="n">
-        <v>0.131507</v>
+        <v>0.270971</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0931951</v>
+        <v>0.101707</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144237</v>
+        <v>0.152229</v>
       </c>
       <c r="C120" t="n">
-        <v>0.145653</v>
+        <v>0.284</v>
       </c>
       <c r="D120" t="n">
-        <v>0.101897</v>
+        <v>0.110627</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.162351</v>
+        <v>0.171271</v>
       </c>
       <c r="C121" t="n">
-        <v>0.166895</v>
+        <v>0.306573</v>
       </c>
       <c r="D121" t="n">
-        <v>0.113889</v>
+        <v>0.12431</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188626</v>
+        <v>0.198323</v>
       </c>
       <c r="C122" t="n">
-        <v>0.201726</v>
+        <v>0.256086</v>
       </c>
       <c r="D122" t="n">
-        <v>0.132508</v>
+        <v>0.143779</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.228741</v>
+        <v>0.237176</v>
       </c>
       <c r="C123" t="n">
-        <v>0.256521</v>
+        <v>0.256795</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0867918</v>
+        <v>0.09039079999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103733</v>
+        <v>0.107711</v>
       </c>
       <c r="C124" t="n">
-        <v>0.100812</v>
+        <v>0.25859</v>
       </c>
       <c r="D124" t="n">
-        <v>0.086033</v>
+        <v>0.0949614</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104369</v>
+        <v>0.11145</v>
       </c>
       <c r="C125" t="n">
-        <v>0.104856</v>
+        <v>0.259778</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0903808</v>
+        <v>0.0946676</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.109432</v>
+        <v>0.114435</v>
       </c>
       <c r="C126" t="n">
-        <v>0.107068</v>
+        <v>0.261706</v>
       </c>
       <c r="D126" t="n">
-        <v>0.09066340000000001</v>
+        <v>0.0982923</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111931</v>
+        <v>0.11776</v>
       </c>
       <c r="C127" t="n">
-        <v>0.111566</v>
+        <v>0.264385</v>
       </c>
       <c r="D127" t="n">
-        <v>0.09500069999999999</v>
+        <v>0.0978523</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113387</v>
+        <v>0.119589</v>
       </c>
       <c r="C128" t="n">
-        <v>0.114245</v>
+        <v>0.267248</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09539880000000001</v>
+        <v>0.10275</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116871</v>
+        <v>0.124967</v>
       </c>
       <c r="C129" t="n">
-        <v>0.117889</v>
+        <v>0.266773</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0969531</v>
+        <v>0.104392</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121613</v>
+        <v>0.127503</v>
       </c>
       <c r="C130" t="n">
-        <v>0.122817</v>
+        <v>0.27481</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0998859</v>
+        <v>0.106282</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.129475</v>
+        <v>0.133582</v>
       </c>
       <c r="C131" t="n">
-        <v>0.128444</v>
+        <v>0.281131</v>
       </c>
       <c r="D131" t="n">
-        <v>0.101027</v>
+        <v>0.110042</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132961</v>
+        <v>0.137964</v>
       </c>
       <c r="C132" t="n">
-        <v>0.135835</v>
+        <v>0.283423</v>
       </c>
       <c r="D132" t="n">
-        <v>0.104545</v>
+        <v>0.116292</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142282</v>
+        <v>0.148399</v>
       </c>
       <c r="C133" t="n">
-        <v>0.146462</v>
+        <v>0.298372</v>
       </c>
       <c r="D133" t="n">
-        <v>0.110832</v>
+        <v>0.118873</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155288</v>
+        <v>0.159304</v>
       </c>
       <c r="C134" t="n">
-        <v>0.161091</v>
+        <v>0.308387</v>
       </c>
       <c r="D134" t="n">
-        <v>0.117996</v>
+        <v>0.128753</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169539</v>
+        <v>0.180119</v>
       </c>
       <c r="C135" t="n">
-        <v>0.18013</v>
+        <v>0.335434</v>
       </c>
       <c r="D135" t="n">
-        <v>0.126026</v>
+        <v>0.137321</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194801</v>
+        <v>0.206978</v>
       </c>
       <c r="C136" t="n">
-        <v>0.210606</v>
+        <v>0.26658</v>
       </c>
       <c r="D136" t="n">
-        <v>0.141255</v>
+        <v>0.157172</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232069</v>
+        <v>0.243786</v>
       </c>
       <c r="C137" t="n">
-        <v>0.260992</v>
+        <v>0.268095</v>
       </c>
       <c r="D137" t="n">
-        <v>0.160047</v>
+        <v>0.183728</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.171435</v>
+        <v>0.185426</v>
       </c>
       <c r="C138" t="n">
-        <v>0.154414</v>
+        <v>0.271003</v>
       </c>
       <c r="D138" t="n">
-        <v>0.160587</v>
+        <v>0.184686</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.17279</v>
+        <v>0.184</v>
       </c>
       <c r="C139" t="n">
-        <v>0.157754</v>
+        <v>0.272162</v>
       </c>
       <c r="D139" t="n">
-        <v>0.162839</v>
+        <v>0.186484</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.174854</v>
+        <v>0.179565</v>
       </c>
       <c r="C140" t="n">
-        <v>0.159816</v>
+        <v>0.272621</v>
       </c>
       <c r="D140" t="n">
-        <v>0.163593</v>
+        <v>0.188688</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.175876</v>
+        <v>0.182364</v>
       </c>
       <c r="C141" t="n">
-        <v>0.161966</v>
+        <v>0.276684</v>
       </c>
       <c r="D141" t="n">
-        <v>0.164793</v>
+        <v>0.189261</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.17856</v>
+        <v>0.183283</v>
       </c>
       <c r="C142" t="n">
-        <v>0.165259</v>
+        <v>0.279444</v>
       </c>
       <c r="D142" t="n">
-        <v>0.166879</v>
+        <v>0.191789</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.180417</v>
+        <v>0.187037</v>
       </c>
       <c r="C143" t="n">
-        <v>0.169465</v>
+        <v>0.283034</v>
       </c>
       <c r="D143" t="n">
-        <v>0.169455</v>
+        <v>0.193117</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.0177347</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0188852</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0234555</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0338857</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.0472317</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.0575473</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.114971</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.0165384</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0169788</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.017486</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.0179473</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0190006</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0210354</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0232111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0273704</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.033242</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0424186</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0554736</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0712052</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.095737</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.120816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0166553</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.0171951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0178482</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0186904</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0199208</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0220798</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0261723</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0299174</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0360282</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0442657</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0555848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.07283770000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.0951668</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118945</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0173426</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0180617</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.018949</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.020392</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.024542</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0279483</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0324731</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0380715</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0466525</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.056909</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0714974</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0912895</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.117883</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.142422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.019195</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0203607</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0218136</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0236284</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0264708</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297098</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0338513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0398965</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0472513</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0571737</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0718768</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.09075809999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.116281</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.146073</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0198702</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.0212214</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0226574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0247929</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.0271637</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0304312</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0345894</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0396103</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0467754</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.0560361</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0688766</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.08715820000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.111126</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.021371</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0231017</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0250312</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0273671</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.030302</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.0342767</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392133</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0459474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.0545635</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.066873</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.08354640000000001</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.106964</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0212266</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0219642</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0233059</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.024965</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.027507</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0303621</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0402101</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.0463648</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0548707</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0654704</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0815046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103387</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132347</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.16884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.031373</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.032779</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0342392</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.036179</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0382276</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0406218</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0440363</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0485942</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0553814</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.06523229999999999</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.0794011</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128268</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163701</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0346198</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354654</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0366085</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0388945</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0409798</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0433231</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0478824</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0522531</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0589284</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0684761</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08256520000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.102351</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.129668</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.164095</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0467531</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0489469</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0492735</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0513704</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529331</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0552064</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0281637</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0303387</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.0343874</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0402264</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0512406</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.0595602</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.0203069</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.0208109</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0212582</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0219184</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0229526</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.0241664</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0254836</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0273195</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0296545</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0332014</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0379014</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0448099</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0539658</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.06603249999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.020671</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.0211785</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0218233</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0225927</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0234831</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0247358</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0261932</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.0277728</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0302705</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0337553</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.038208</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0438485</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.053142</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06538140000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.081438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.0211673</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0217646</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0225445</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0235978</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.0247356</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0261785</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.028181</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0306195</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0343078</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0390459</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0453654</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0534848</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0640006</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0778128</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.0213048</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.0219901</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0226809</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0235119</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0248035</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0261888</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0281</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0307155</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0340517</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.039017</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.0450472</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0537333</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0640087</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.0761191</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.0215671</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.022204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0229249</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0238263</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.0250022</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0265029</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0283501</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0309632</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0342816</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0384953</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0444329</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0524612</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0624264</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0748988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.025562</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.0275782</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0280806</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.0285806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0282565</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0294624</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.0308743</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0341176</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0361708</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0410182</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0463375</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0537404</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.06263730000000001</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0750686</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.09099740000000001</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.0543355</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.055378</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0553167</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0560005</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0571877</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0572869</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.059316</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0627822</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0641979</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0676554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0737056</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.0815784</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.0931374</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.0822619</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.08355269999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.08275150000000001</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0835095</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0843792</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0856725</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0874267</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0900903</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.093279</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.09896530000000001</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.106256</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.117781</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.133615</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.093722</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.094073</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0945521</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0951642</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.09592340000000001</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.09669759999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.100979</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0998585</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.106291</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.106045</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.114325</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.118703</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.132586</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.144449</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.100829</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.101255</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.101684</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.102426</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.103294</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.104327</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.108111</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.107678</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0250893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.026459</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0281826</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0301669</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0330464</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.0400324</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0515425</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0219549</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0220185</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0223959</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0226063</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.022828</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0238637</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0243176</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.0252184</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0262676</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0283896</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0314271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.0373705</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0483472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0216108</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0218212</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0221418</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0227307</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0232391</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.0238749</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0245752</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0255408</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.026853</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0288755</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0325576</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0451778</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.0225246</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.022845</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0231005</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0234427</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0238108</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0242156</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0247109</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0253455</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0263488</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0275133</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0294802</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0325566</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0372371</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0445091</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0233299</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0235644</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.0237683</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0240722</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0244168</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0249086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0254511</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0261448</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.027135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0284505</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0303024</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0330686</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0376382</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0447934</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.057162</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.024014</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0243849</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.02468</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0250072</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.02551</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0259831</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0267313</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0276698</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0288476</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0307247</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0333151</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0375379</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.043859</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0545188</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.0242604</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0245599</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0248882</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.025275</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0257971</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.02637</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.027152</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0281046</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0295407</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.0311837</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0336176</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0371264</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.0426593</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0519684</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0258587</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0264334</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0269028</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0275923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0285702</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0300087</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0323097</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0365878</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0391818</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0416919</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0450736</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0484289</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0531234</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.059985</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0387026</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.039979</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0407366</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0414101</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0421872</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.0431039</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0440965</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0454494</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.046805</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.0482005</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0502533</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0531382</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0571138</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0631661</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0734669</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.045661</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0461072</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.047175</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.0476817</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0488919</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.0497329</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0514961</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0522748</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0539706</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0561519</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0589165</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0627973</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06854</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.0781154</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0641977</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0653511</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0658188</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0669466</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0672373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0686155</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0692349</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032279</v>
+        <v>0.032219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0238449</v>
+        <v>0.019913</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0269883</v>
+        <v>0.0248124</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0334254</v>
+        <v>0.0333112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0235104</v>
+        <v>0.0212462</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0267855</v>
+        <v>0.0249492</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0363942</v>
+        <v>0.0364172</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0261917</v>
+        <v>0.0246299</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0273204</v>
+        <v>0.0248852</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0414442</v>
+        <v>0.0419241</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0392945</v>
+        <v>0.0386999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0256736</v>
+        <v>0.0238687</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0561968</v>
+        <v>0.0572042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0593348</v>
+        <v>0.0607112</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0276323</v>
+        <v>0.0251121</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0765072</v>
+        <v>0.0765651</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0850036</v>
+        <v>0.0868067</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0316764</v>
+        <v>0.0294836</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107075</v>
+        <v>0.107266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11588</v>
+        <v>0.116509</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0481804</v>
+        <v>0.0464073</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148765</v>
+        <v>0.148733</v>
       </c>
       <c r="C9" t="n">
-        <v>0.163972</v>
+        <v>0.162858</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0264742</v>
+        <v>0.0247194</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0305738</v>
+        <v>0.0304683</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0281521</v>
+        <v>0.0235486</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0266292</v>
+        <v>0.0247253</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.031304</v>
+        <v>0.0311878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0287045</v>
+        <v>0.0238057</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0268263</v>
+        <v>0.0248624</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0315223</v>
+        <v>0.0314992</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0291412</v>
+        <v>0.024264</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0269042</v>
+        <v>0.0251004</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.032121</v>
+        <v>0.0320955</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0294434</v>
+        <v>0.0241859</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0270533</v>
+        <v>0.0253089</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0327794</v>
+        <v>0.0326645</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0283683</v>
+        <v>0.0244572</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0274814</v>
+        <v>0.0253196</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0339517</v>
+        <v>0.0339411</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0293906</v>
+        <v>0.0238032</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0276214</v>
+        <v>0.025615</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0349601</v>
+        <v>0.0348368</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0310399</v>
+        <v>0.0278968</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0277037</v>
+        <v>0.0259099</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0380299</v>
+        <v>0.0379515</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0343079</v>
+        <v>0.0323789</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0281591</v>
+        <v>0.0259603</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0413647</v>
+        <v>0.0415494</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0431905</v>
+        <v>0.0431635</v>
       </c>
       <c r="D18" t="n">
-        <v>0.028177</v>
+        <v>0.0262731</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0495651</v>
+        <v>0.0496544</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0530144</v>
+        <v>0.0540603</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0283639</v>
+        <v>0.0262754</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0602515</v>
+        <v>0.0600952</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0663448</v>
+        <v>0.0675716</v>
       </c>
       <c r="D20" t="n">
-        <v>0.030351</v>
+        <v>0.0289529</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0773142</v>
+        <v>0.0773533</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08762979999999999</v>
+        <v>0.0887225</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0407771</v>
+        <v>0.0391145</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100207</v>
+        <v>0.100351</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115743</v>
+        <v>0.116813</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0552508</v>
+        <v>0.0536835</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138686</v>
+        <v>0.138895</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16105</v>
+        <v>0.160763</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0279812</v>
+        <v>0.0257323</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0320495</v>
+        <v>0.0321827</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0295093</v>
+        <v>0.0260881</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0282547</v>
+        <v>0.0261889</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0326949</v>
+        <v>0.032682</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0300354</v>
+        <v>0.0263407</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0283887</v>
+        <v>0.0262682</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0335565</v>
+        <v>0.0335104</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0306329</v>
+        <v>0.0265407</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0287401</v>
+        <v>0.0267404</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0342618</v>
+        <v>0.0343118</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0315895</v>
+        <v>0.0279019</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0290277</v>
+        <v>0.0269716</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351471</v>
+        <v>0.0351399</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0320342</v>
+        <v>0.0283523</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0293647</v>
+        <v>0.0271658</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0365553</v>
+        <v>0.0366559</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0333184</v>
+        <v>0.0315262</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0295329</v>
+        <v>0.0274242</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0387542</v>
+        <v>0.0388354</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0361387</v>
+        <v>0.0356033</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0299274</v>
+        <v>0.0277446</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0417032</v>
+        <v>0.0418347</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0405984</v>
+        <v>0.0408141</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0305022</v>
+        <v>0.0283811</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0463518</v>
+        <v>0.0464501</v>
       </c>
       <c r="C32" t="n">
-        <v>0.047489</v>
+        <v>0.0479645</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0312823</v>
+        <v>0.0294005</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0526556</v>
+        <v>0.052771</v>
       </c>
       <c r="C33" t="n">
-        <v>0.055903</v>
+        <v>0.0566616</v>
       </c>
       <c r="D33" t="n">
-        <v>0.032789</v>
+        <v>0.0308569</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06314019999999999</v>
+        <v>0.06314740000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0667099</v>
+        <v>0.0677249</v>
       </c>
       <c r="D34" t="n">
-        <v>0.037682</v>
+        <v>0.035667</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0768993</v>
+        <v>0.0769106</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0815126</v>
+        <v>0.0828416</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0456676</v>
+        <v>0.0433542</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09727860000000001</v>
+        <v>0.0971557</v>
       </c>
       <c r="C36" t="n">
-        <v>0.110796</v>
+        <v>0.112291</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0568627</v>
+        <v>0.0548017</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.129929</v>
+        <v>0.129843</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153993</v>
+        <v>0.153591</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0286536</v>
+        <v>0.0267187</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0330772</v>
+        <v>0.0331471</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0304115</v>
+        <v>0.0288358</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0287153</v>
+        <v>0.0270275</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0338425</v>
+        <v>0.0339165</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0308072</v>
+        <v>0.0295191</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0290117</v>
+        <v>0.0272573</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0345189</v>
+        <v>0.0345812</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0316721</v>
+        <v>0.0305385</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0292187</v>
+        <v>0.0275197</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0352375</v>
+        <v>0.0353073</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0324157</v>
+        <v>0.0316978</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0294031</v>
+        <v>0.0279323</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0362509</v>
+        <v>0.0363958</v>
       </c>
       <c r="C42" t="n">
-        <v>0.034123</v>
+        <v>0.0335172</v>
       </c>
       <c r="D42" t="n">
-        <v>0.029957</v>
+        <v>0.0283914</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.037577</v>
+        <v>0.0377349</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0359647</v>
+        <v>0.0357787</v>
       </c>
       <c r="D43" t="n">
-        <v>0.030536</v>
+        <v>0.0290418</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0396739</v>
+        <v>0.0397966</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0381438</v>
+        <v>0.0385979</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0312164</v>
+        <v>0.0296946</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0426633</v>
+        <v>0.0427467</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0426213</v>
+        <v>0.0430006</v>
       </c>
       <c r="D45" t="n">
-        <v>0.032126</v>
+        <v>0.0307886</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.046803</v>
+        <v>0.0468486</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0481381</v>
+        <v>0.0485005</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0337105</v>
+        <v>0.0321773</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0526856</v>
+        <v>0.0526726</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0546863</v>
+        <v>0.0553009</v>
       </c>
       <c r="D47" t="n">
-        <v>0.036352</v>
+        <v>0.034533</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0605275</v>
+        <v>0.0605457</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06467100000000001</v>
+        <v>0.0654617</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0404774</v>
+        <v>0.0384171</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0733693</v>
+        <v>0.0734322</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0803542</v>
+        <v>0.0812855</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0458863</v>
+        <v>0.0438695</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0904088</v>
+        <v>0.0904455</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102681</v>
+        <v>0.103969</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0544017</v>
+        <v>0.0522845</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120595</v>
+        <v>0.120793</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140277</v>
+        <v>0.140361</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0309958</v>
+        <v>0.0288517</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165668</v>
+        <v>0.165664</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188225</v>
+        <v>0.18589</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0311271</v>
+        <v>0.0290239</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0352187</v>
+        <v>0.0363952</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0321398</v>
+        <v>0.031948</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0312573</v>
+        <v>0.0292533</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0358635</v>
+        <v>0.0371792</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0329769</v>
+        <v>0.0328174</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0317649</v>
+        <v>0.0296551</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0367688</v>
+        <v>0.0379745</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0340606</v>
+        <v>0.0340296</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0320754</v>
+        <v>0.030056</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0380318</v>
+        <v>0.0391761</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0354236</v>
+        <v>0.0352509</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0325351</v>
+        <v>0.0305957</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0394957</v>
+        <v>0.0405694</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0373441</v>
+        <v>0.0370749</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0331023</v>
+        <v>0.0310869</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.041502</v>
+        <v>0.0423845</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0397156</v>
+        <v>0.039548</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0338371</v>
+        <v>0.0316772</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0440015</v>
+        <v>0.0448243</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0425301</v>
+        <v>0.0425781</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0348446</v>
+        <v>0.0326916</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.047562</v>
+        <v>0.0482688</v>
       </c>
       <c r="C60" t="n">
-        <v>0.046882</v>
+        <v>0.0470946</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0362107</v>
+        <v>0.0339603</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0528632</v>
+        <v>0.0535349</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0536315</v>
+        <v>0.0540096</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0383604</v>
+        <v>0.0359484</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0605856</v>
+        <v>0.0611053</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0628321</v>
+        <v>0.0635168</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0415061</v>
+        <v>0.0389443</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0720592</v>
+        <v>0.07248019999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0766109</v>
+        <v>0.0775667</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0464673</v>
+        <v>0.0438979</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.088952</v>
+        <v>0.0893941</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09697939999999999</v>
+        <v>0.0980562</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0542551</v>
+        <v>0.0517859</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116575</v>
+        <v>0.117069</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131273</v>
+        <v>0.13182</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06763329999999999</v>
+        <v>0.0656759</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156576</v>
+        <v>0.157369</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179297</v>
+        <v>0.177697</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0368357</v>
+        <v>0.0325953</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0405686</v>
+        <v>0.0409459</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0368197</v>
+        <v>0.0353779</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0372152</v>
+        <v>0.0328781</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0412142</v>
+        <v>0.0416298</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0378247</v>
+        <v>0.0362405</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0375924</v>
+        <v>0.0332626</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0421244</v>
+        <v>0.0423934</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0390601</v>
+        <v>0.0372532</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0380171</v>
+        <v>0.0337226</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0433809</v>
+        <v>0.0434824</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0404533</v>
+        <v>0.0383824</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0384405</v>
+        <v>0.0342299</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447322</v>
+        <v>0.044886</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0419779</v>
+        <v>0.0397734</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0390088</v>
+        <v>0.0347505</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0463118</v>
+        <v>0.0464027</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0440493</v>
+        <v>0.0418977</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0397349</v>
+        <v>0.0352499</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0485343</v>
+        <v>0.048606</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0468878</v>
+        <v>0.0448353</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0407194</v>
+        <v>0.0360968</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0517279</v>
+        <v>0.0516189</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0511556</v>
+        <v>0.0490368</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0420644</v>
+        <v>0.037235</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0562974</v>
+        <v>0.0561216</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0572111</v>
+        <v>0.0552398</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0439718</v>
+        <v>0.0389809</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0632214</v>
+        <v>0.0629231</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0658556</v>
+        <v>0.06400400000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0467445</v>
+        <v>0.041458</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.073169</v>
+        <v>0.072765</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07849970000000001</v>
+        <v>0.07685930000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0509017</v>
+        <v>0.0454973</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08881410000000001</v>
+        <v>0.0884606</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0963726</v>
+        <v>0.09492150000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0578269</v>
+        <v>0.0521661</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112824</v>
+        <v>0.112723</v>
       </c>
       <c r="C79" t="n">
-        <v>0.125272</v>
+        <v>0.123694</v>
       </c>
       <c r="D79" t="n">
-        <v>0.06942189999999999</v>
+        <v>0.06380959999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151487</v>
+        <v>0.15148</v>
       </c>
       <c r="C80" t="n">
-        <v>0.170354</v>
+        <v>0.166574</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0416279</v>
+        <v>0.0385345</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0474576</v>
+        <v>0.0470733</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0441079</v>
+        <v>0.0444427</v>
       </c>
       <c r="D81" t="n">
-        <v>0.042115</v>
+        <v>0.0390309</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0487469</v>
+        <v>0.0486209</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0462068</v>
+        <v>0.0464313</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0427102</v>
+        <v>0.0397654</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0502793</v>
+        <v>0.0502137</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0484705</v>
+        <v>0.0482817</v>
       </c>
       <c r="D83" t="n">
-        <v>0.04353</v>
+        <v>0.0404847</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0523569</v>
+        <v>0.0520829</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0512452</v>
+        <v>0.0508961</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0444294</v>
+        <v>0.0414286</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0547925</v>
+        <v>0.0543507</v>
       </c>
       <c r="C85" t="n">
-        <v>0.054293</v>
+        <v>0.054059</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0455723</v>
+        <v>0.0424802</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0580838</v>
+        <v>0.0573791</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0578353</v>
+        <v>0.0575683</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0470199</v>
+        <v>0.043962</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0618986</v>
+        <v>0.0611706</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0621149</v>
+        <v>0.0620438</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0487768</v>
+        <v>0.0456887</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.066743</v>
+        <v>0.0658604</v>
       </c>
       <c r="C88" t="n">
-        <v>0.06790980000000001</v>
+        <v>0.06801069999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0513378</v>
+        <v>0.0478143</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0732496</v>
+        <v>0.0722271</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0752448</v>
+        <v>0.0752785</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0545999</v>
+        <v>0.0508491</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.08127479999999999</v>
+        <v>0.0807184</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08508010000000001</v>
+        <v>0.08528819999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0591872</v>
+        <v>0.0549094</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09225029999999999</v>
+        <v>0.09192939999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.09746150000000001</v>
+        <v>0.0978641</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0651538</v>
+        <v>0.0602444</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107419</v>
+        <v>0.106946</v>
       </c>
       <c r="C92" t="n">
-        <v>0.114203</v>
+        <v>0.114607</v>
       </c>
       <c r="D92" t="n">
-        <v>0.07353079999999999</v>
+        <v>0.0684815</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129212</v>
+        <v>0.12864</v>
       </c>
       <c r="C93" t="n">
-        <v>0.139674</v>
+        <v>0.139935</v>
       </c>
       <c r="D93" t="n">
-        <v>0.08620510000000001</v>
+        <v>0.0817172</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.163173</v>
+        <v>0.162524</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179237</v>
+        <v>0.178115</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0522113</v>
+        <v>0.0482417</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0667471</v>
+        <v>0.06625259999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0632339</v>
+        <v>0.0635217</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0535901</v>
+        <v>0.0498834</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0700118</v>
+        <v>0.0690133</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06526419999999999</v>
+        <v>0.0663594</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0554102</v>
+        <v>0.0518889</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07246180000000001</v>
+        <v>0.0727819</v>
       </c>
       <c r="C97" t="n">
-        <v>0.06852999999999999</v>
+        <v>0.06806420000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0574506</v>
+        <v>0.0538066</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0750871</v>
+        <v>0.074835</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0720922</v>
+        <v>0.07269589999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0593013</v>
+        <v>0.0547253</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0779868</v>
+        <v>0.078056</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0759804</v>
+        <v>0.07665180000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0612908</v>
+        <v>0.0578197</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0812367</v>
+        <v>0.0812204</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0797185</v>
+        <v>0.08076410000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06290419999999999</v>
+        <v>0.0594143</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0851934</v>
+        <v>0.08440250000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0845581</v>
+        <v>0.0856369</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0653141</v>
+        <v>0.0614596</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08957569999999999</v>
+        <v>0.0892806</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0903109</v>
+        <v>0.0913651</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06756529999999999</v>
+        <v>0.0636433</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0950845</v>
+        <v>0.0955715</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0966616</v>
+        <v>0.0981953</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0707079</v>
+        <v>0.06482880000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.10289</v>
+        <v>0.102754</v>
       </c>
       <c r="C104" t="n">
-        <v>0.106262</v>
+        <v>0.107514</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07484010000000001</v>
+        <v>0.0703937</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113268</v>
+        <v>0.113455</v>
       </c>
       <c r="C105" t="n">
-        <v>0.117575</v>
+        <v>0.119484</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0799851</v>
+        <v>0.0761043</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128598</v>
+        <v>0.128853</v>
       </c>
       <c r="C106" t="n">
-        <v>0.133878</v>
+        <v>0.13589</v>
       </c>
       <c r="D106" t="n">
-        <v>0.087649</v>
+        <v>0.08382050000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.148699</v>
+        <v>0.149517</v>
       </c>
       <c r="C107" t="n">
-        <v>0.15742</v>
+        <v>0.159341</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0992905</v>
+        <v>0.09543740000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179133</v>
+        <v>0.179317</v>
       </c>
       <c r="C108" t="n">
-        <v>0.194913</v>
+        <v>0.196477</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0601434</v>
+        <v>0.0571611</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.22393</v>
+        <v>0.225253</v>
       </c>
       <c r="C109" t="n">
-        <v>0.256294</v>
+        <v>0.255852</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0614824</v>
+        <v>0.0583227</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08063770000000001</v>
+        <v>0.08067879999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0818709</v>
+        <v>0.0826924</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0622359</v>
+        <v>0.0593261</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.082344</v>
+        <v>0.0838352</v>
       </c>
       <c r="C111" t="n">
-        <v>0.084513</v>
+        <v>0.0854364</v>
       </c>
       <c r="D111" t="n">
-        <v>0.064071</v>
+        <v>0.0610637</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0869769</v>
+        <v>0.0872052</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0876516</v>
+        <v>0.0877988</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0655594</v>
+        <v>0.0629866</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0894981</v>
+        <v>0.09110459999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0909049</v>
+        <v>0.0914341</v>
       </c>
       <c r="D113" t="n">
-        <v>0.067841</v>
+        <v>0.06484090000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0939792</v>
+        <v>0.0955482</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0943442</v>
+        <v>0.0950647</v>
       </c>
       <c r="D114" t="n">
-        <v>0.06989330000000001</v>
+        <v>0.0674631</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100682</v>
+        <v>0.100776</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0982997</v>
+        <v>0.09896969999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0730807</v>
+        <v>0.0700296</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106382</v>
+        <v>0.106297</v>
       </c>
       <c r="C116" t="n">
-        <v>0.103429</v>
+        <v>0.105008</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07628310000000001</v>
+        <v>0.0736827</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.11335</v>
+        <v>0.113306</v>
       </c>
       <c r="C117" t="n">
-        <v>0.111248</v>
+        <v>0.112101</v>
       </c>
       <c r="D117" t="n">
-        <v>0.08087759999999999</v>
+        <v>0.0775324</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121467</v>
+        <v>0.120014</v>
       </c>
       <c r="C118" t="n">
-        <v>0.119971</v>
+        <v>0.120975</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0861339</v>
+        <v>0.08238379999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131086</v>
+        <v>0.129707</v>
       </c>
       <c r="C119" t="n">
-        <v>0.131507</v>
+        <v>0.132548</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0931951</v>
+        <v>0.08829869999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144237</v>
+        <v>0.144319</v>
       </c>
       <c r="C120" t="n">
-        <v>0.145653</v>
+        <v>0.146834</v>
       </c>
       <c r="D120" t="n">
-        <v>0.101897</v>
+        <v>0.0975347</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.162351</v>
+        <v>0.162749</v>
       </c>
       <c r="C121" t="n">
-        <v>0.166895</v>
+        <v>0.168043</v>
       </c>
       <c r="D121" t="n">
-        <v>0.113889</v>
+        <v>0.108954</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188626</v>
+        <v>0.188689</v>
       </c>
       <c r="C122" t="n">
-        <v>0.201726</v>
+        <v>0.20241</v>
       </c>
       <c r="D122" t="n">
-        <v>0.132508</v>
+        <v>0.126968</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.228741</v>
+        <v>0.228796</v>
       </c>
       <c r="C123" t="n">
-        <v>0.256521</v>
+        <v>0.256077</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0867918</v>
+        <v>0.07608479999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103733</v>
+        <v>0.104541</v>
       </c>
       <c r="C124" t="n">
-        <v>0.100812</v>
+        <v>0.09982249999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.086033</v>
+        <v>0.07988149999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.104369</v>
+        <v>0.106023</v>
       </c>
       <c r="C125" t="n">
-        <v>0.104856</v>
+        <v>0.100913</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0903808</v>
+        <v>0.0796133</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.109432</v>
+        <v>0.108569</v>
       </c>
       <c r="C126" t="n">
-        <v>0.107068</v>
+        <v>0.106345</v>
       </c>
       <c r="D126" t="n">
-        <v>0.09066340000000001</v>
+        <v>0.0852686</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111931</v>
+        <v>0.110566</v>
       </c>
       <c r="C127" t="n">
-        <v>0.111566</v>
+        <v>0.107</v>
       </c>
       <c r="D127" t="n">
-        <v>0.09500069999999999</v>
+        <v>0.08354449999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113387</v>
+        <v>0.116345</v>
       </c>
       <c r="C128" t="n">
-        <v>0.114245</v>
+        <v>0.111741</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09539880000000001</v>
+        <v>0.08692809999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116871</v>
+        <v>0.117852</v>
       </c>
       <c r="C129" t="n">
-        <v>0.117889</v>
+        <v>0.114497</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0969531</v>
+        <v>0.0874761</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.121613</v>
+        <v>0.120828</v>
       </c>
       <c r="C130" t="n">
-        <v>0.122817</v>
+        <v>0.122377</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0998859</v>
+        <v>0.09411</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.129475</v>
+        <v>0.126687</v>
       </c>
       <c r="C131" t="n">
-        <v>0.128444</v>
+        <v>0.126989</v>
       </c>
       <c r="D131" t="n">
-        <v>0.101027</v>
+        <v>0.0940125</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132961</v>
+        <v>0.132571</v>
       </c>
       <c r="C132" t="n">
-        <v>0.135835</v>
+        <v>0.136157</v>
       </c>
       <c r="D132" t="n">
-        <v>0.104545</v>
+        <v>0.0999367</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142282</v>
+        <v>0.143311</v>
       </c>
       <c r="C133" t="n">
-        <v>0.146462</v>
+        <v>0.145367</v>
       </c>
       <c r="D133" t="n">
-        <v>0.110832</v>
+        <v>0.102398</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155288</v>
+        <v>0.154811</v>
       </c>
       <c r="C134" t="n">
-        <v>0.161091</v>
+        <v>0.160357</v>
       </c>
       <c r="D134" t="n">
-        <v>0.117996</v>
+        <v>0.11079</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169539</v>
+        <v>0.171582</v>
       </c>
       <c r="C135" t="n">
-        <v>0.18013</v>
+        <v>0.18025</v>
       </c>
       <c r="D135" t="n">
-        <v>0.126026</v>
+        <v>0.119737</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194801</v>
+        <v>0.194968</v>
       </c>
       <c r="C136" t="n">
-        <v>0.210606</v>
+        <v>0.211665</v>
       </c>
       <c r="D136" t="n">
-        <v>0.141255</v>
+        <v>0.136356</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232069</v>
+        <v>0.233295</v>
       </c>
       <c r="C137" t="n">
-        <v>0.260992</v>
+        <v>0.259387</v>
       </c>
       <c r="D137" t="n">
-        <v>0.160047</v>
+        <v>0.148563</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.171435</v>
+        <v>0.164787</v>
       </c>
       <c r="C138" t="n">
-        <v>0.154414</v>
+        <v>0.156399</v>
       </c>
       <c r="D138" t="n">
-        <v>0.160587</v>
+        <v>0.14991</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.17279</v>
+        <v>0.171519</v>
       </c>
       <c r="C139" t="n">
-        <v>0.157754</v>
+        <v>0.157978</v>
       </c>
       <c r="D139" t="n">
-        <v>0.162839</v>
+        <v>0.150598</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.174854</v>
+        <v>0.168123</v>
       </c>
       <c r="C140" t="n">
-        <v>0.159816</v>
+        <v>0.160543</v>
       </c>
       <c r="D140" t="n">
-        <v>0.163593</v>
+        <v>0.152012</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.175876</v>
+        <v>0.169872</v>
       </c>
       <c r="C141" t="n">
-        <v>0.161966</v>
+        <v>0.163057</v>
       </c>
       <c r="D141" t="n">
-        <v>0.164793</v>
+        <v>0.153474</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.17856</v>
+        <v>0.180277</v>
       </c>
       <c r="C142" t="n">
-        <v>0.165259</v>
+        <v>0.166681</v>
       </c>
       <c r="D142" t="n">
-        <v>0.166879</v>
+        <v>0.156083</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.180417</v>
+        <v>0.181353</v>
       </c>
       <c r="C143" t="n">
-        <v>0.169465</v>
+        <v>0.170071</v>
       </c>
       <c r="D143" t="n">
-        <v>0.169455</v>
+        <v>0.157324</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.032219</v>
+        <v>0.0323246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.019913</v>
+        <v>0.023519</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0248124</v>
+        <v>0.0245736</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0333112</v>
+        <v>0.0331457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0212462</v>
+        <v>0.0228084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0249492</v>
+        <v>0.0248516</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0364172</v>
+        <v>0.03616</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0246299</v>
+        <v>0.0261108</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0248852</v>
+        <v>0.0246723</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0419241</v>
+        <v>0.0418192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0386999</v>
+        <v>0.0390524</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0238687</v>
+        <v>0.0236511</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0572042</v>
+        <v>0.0562146</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0607112</v>
+        <v>0.0600648</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0251121</v>
+        <v>0.0248716</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0765651</v>
+        <v>0.0765096</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0868067</v>
+        <v>0.0853826</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0294836</v>
+        <v>0.0292354</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107266</v>
+        <v>0.107035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116509</v>
+        <v>0.11635</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0464073</v>
+        <v>0.0470121</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148733</v>
+        <v>0.149097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.162858</v>
+        <v>0.164254</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0247194</v>
+        <v>0.0244969</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0304683</v>
+        <v>0.0310191</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0235486</v>
+        <v>0.0282159</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0247253</v>
+        <v>0.0243563</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0311878</v>
+        <v>0.0315864</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0238057</v>
+        <v>0.0285363</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0248624</v>
+        <v>0.0244714</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0314992</v>
+        <v>0.0320261</v>
       </c>
       <c r="C12" t="n">
-        <v>0.024264</v>
+        <v>0.029105</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0251004</v>
+        <v>0.0247699</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0320955</v>
+        <v>0.0324442</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0241859</v>
+        <v>0.0294608</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0253089</v>
+        <v>0.0248761</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0326645</v>
+        <v>0.0331444</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0244572</v>
+        <v>0.0284878</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0253196</v>
+        <v>0.0252092</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0339411</v>
+        <v>0.034317</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0238032</v>
+        <v>0.0293465</v>
       </c>
       <c r="D15" t="n">
-        <v>0.025615</v>
+        <v>0.0254973</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0348368</v>
+        <v>0.0353052</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0278968</v>
+        <v>0.0309999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0259099</v>
+        <v>0.0258846</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0379515</v>
+        <v>0.0381414</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0323789</v>
+        <v>0.0340948</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0259603</v>
+        <v>0.0259135</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0415494</v>
+        <v>0.0414738</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0431635</v>
+        <v>0.0431813</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0262731</v>
+        <v>0.0260431</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0496544</v>
+        <v>0.0497906</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0540603</v>
+        <v>0.0533875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0262754</v>
+        <v>0.0252967</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0600952</v>
+        <v>0.060071</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0675716</v>
+        <v>0.0663874</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0289529</v>
+        <v>0.0283025</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0773533</v>
+        <v>0.0772682</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0887225</v>
+        <v>0.0877594</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0391145</v>
+        <v>0.0394773</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100351</v>
+        <v>0.100302</v>
       </c>
       <c r="C22" t="n">
-        <v>0.116813</v>
+        <v>0.115934</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0536835</v>
+        <v>0.0546481</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138895</v>
+        <v>0.138783</v>
       </c>
       <c r="C23" t="n">
-        <v>0.160763</v>
+        <v>0.161568</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0257323</v>
+        <v>0.0252231</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0321827</v>
+        <v>0.032336</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0260881</v>
+        <v>0.0293225</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0261889</v>
+        <v>0.0256412</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.032682</v>
+        <v>0.0328823</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0263407</v>
+        <v>0.0298144</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0262682</v>
+        <v>0.0260323</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0335104</v>
+        <v>0.0337113</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0265407</v>
+        <v>0.0304157</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0267404</v>
+        <v>0.0260397</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343118</v>
+        <v>0.0344353</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0279019</v>
+        <v>0.0311994</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0269716</v>
+        <v>0.0265286</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351399</v>
+        <v>0.0352469</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0283523</v>
+        <v>0.031879</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0271658</v>
+        <v>0.0267655</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0366559</v>
+        <v>0.0366984</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0315262</v>
+        <v>0.0331706</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0274242</v>
+        <v>0.0270301</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0388354</v>
+        <v>0.0388649</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0356033</v>
+        <v>0.0359846</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0277446</v>
+        <v>0.0273417</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0418347</v>
+        <v>0.0419017</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0408141</v>
+        <v>0.0405466</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0283811</v>
+        <v>0.027704</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0464501</v>
+        <v>0.0464619</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0479645</v>
+        <v>0.0472356</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0294005</v>
+        <v>0.0287966</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.052771</v>
+        <v>0.0527409</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0566616</v>
+        <v>0.0557146</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0308569</v>
+        <v>0.0306451</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06314740000000001</v>
+        <v>0.0631317</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0677249</v>
+        <v>0.066492</v>
       </c>
       <c r="D34" t="n">
-        <v>0.035667</v>
+        <v>0.0356201</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0769106</v>
+        <v>0.0768065</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0828416</v>
+        <v>0.0813871</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0433542</v>
+        <v>0.0437591</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0971557</v>
+        <v>0.0972044</v>
       </c>
       <c r="C36" t="n">
-        <v>0.112291</v>
+        <v>0.111167</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0548017</v>
+        <v>0.0554137</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.129843</v>
+        <v>0.129865</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153591</v>
+        <v>0.154021</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0267187</v>
+        <v>0.0261747</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0331471</v>
+        <v>0.0332829</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0288358</v>
+        <v>0.0300698</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0270275</v>
+        <v>0.0266708</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339165</v>
+        <v>0.0339931</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0295191</v>
+        <v>0.0305048</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0272573</v>
+        <v>0.0265705</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0345812</v>
+        <v>0.03466</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0305385</v>
+        <v>0.0314636</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0275197</v>
+        <v>0.0269784</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0353073</v>
+        <v>0.035383</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0316978</v>
+        <v>0.0323567</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0279323</v>
+        <v>0.0272368</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0363958</v>
+        <v>0.0363972</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0335172</v>
+        <v>0.0338012</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0283914</v>
+        <v>0.0276314</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0377349</v>
+        <v>0.0377299</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0357787</v>
+        <v>0.0357493</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0290418</v>
+        <v>0.0282202</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0397966</v>
+        <v>0.0398217</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0385979</v>
+        <v>0.0378822</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0296946</v>
+        <v>0.0294825</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0427467</v>
+        <v>0.0428253</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0430006</v>
+        <v>0.0424784</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0307886</v>
+        <v>0.0307444</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0468486</v>
+        <v>0.0469035</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0485005</v>
+        <v>0.0480699</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0321773</v>
+        <v>0.0315336</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0526726</v>
+        <v>0.0527539</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0553009</v>
+        <v>0.0546405</v>
       </c>
       <c r="D47" t="n">
-        <v>0.034533</v>
+        <v>0.0341351</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0605457</v>
+        <v>0.0605992</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0654617</v>
+        <v>0.064568</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0384171</v>
+        <v>0.0383393</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0734322</v>
+        <v>0.07339320000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0812855</v>
+        <v>0.08038869999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0438695</v>
+        <v>0.0439132</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0904455</v>
+        <v>0.0903554</v>
       </c>
       <c r="C50" t="n">
-        <v>0.103969</v>
+        <v>0.102786</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0522845</v>
+        <v>0.052574</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120793</v>
+        <v>0.120687</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140361</v>
+        <v>0.140717</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0288517</v>
+        <v>0.0285662</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165664</v>
+        <v>0.165454</v>
       </c>
       <c r="C52" t="n">
-        <v>0.18589</v>
+        <v>0.188358</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0290239</v>
+        <v>0.0286042</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0363952</v>
+        <v>0.0361958</v>
       </c>
       <c r="C53" t="n">
-        <v>0.031948</v>
+        <v>0.0316544</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0292533</v>
+        <v>0.028792</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0371792</v>
+        <v>0.0369512</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0328174</v>
+        <v>0.0324939</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0296551</v>
+        <v>0.0292477</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0379745</v>
+        <v>0.0378285</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0340296</v>
+        <v>0.0335995</v>
       </c>
       <c r="D55" t="n">
-        <v>0.030056</v>
+        <v>0.0299949</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0391761</v>
+        <v>0.03901</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0352509</v>
+        <v>0.0350433</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0305957</v>
+        <v>0.0300302</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0405694</v>
+        <v>0.0404495</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0370749</v>
+        <v>0.0369084</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0310869</v>
+        <v>0.0305349</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0423845</v>
+        <v>0.0424027</v>
       </c>
       <c r="C58" t="n">
-        <v>0.039548</v>
+        <v>0.0393907</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0316772</v>
+        <v>0.031322</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0448243</v>
+        <v>0.0448559</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0425781</v>
+        <v>0.0421334</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0326916</v>
+        <v>0.0328625</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0482688</v>
+        <v>0.0483963</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0470946</v>
+        <v>0.0466049</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0339603</v>
+        <v>0.0338786</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0535349</v>
+        <v>0.053669</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0540096</v>
+        <v>0.0533789</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0359484</v>
+        <v>0.0358298</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0611053</v>
+        <v>0.0612868</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0635168</v>
+        <v>0.06264309999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0389443</v>
+        <v>0.0390031</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07248019999999999</v>
+        <v>0.0726371</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0775667</v>
+        <v>0.0764138</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0438979</v>
+        <v>0.0439738</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0893941</v>
+        <v>0.08944530000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0980562</v>
+        <v>0.0968021</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0517859</v>
+        <v>0.0520481</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117069</v>
+        <v>0.117138</v>
       </c>
       <c r="C65" t="n">
-        <v>0.13182</v>
+        <v>0.13111</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0656759</v>
+        <v>0.0659849</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157369</v>
+        <v>0.157309</v>
       </c>
       <c r="C66" t="n">
-        <v>0.177697</v>
+        <v>0.179048</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0325953</v>
+        <v>0.0348157</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0409459</v>
+        <v>0.0409445</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0353779</v>
+        <v>0.0365278</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0328781</v>
+        <v>0.0355831</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0416298</v>
+        <v>0.0416231</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0362405</v>
+        <v>0.0375003</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0332626</v>
+        <v>0.0352129</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0423934</v>
+        <v>0.0424797</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0372532</v>
+        <v>0.0386926</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0337226</v>
+        <v>0.0355815</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0434824</v>
+        <v>0.0435822</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0383824</v>
+        <v>0.0401016</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0342299</v>
+        <v>0.0360977</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.044886</v>
+        <v>0.0449012</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0397734</v>
+        <v>0.0416732</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0347505</v>
+        <v>0.0363174</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0464027</v>
+        <v>0.0464891</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0418977</v>
+        <v>0.0435415</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0352499</v>
+        <v>0.0371992</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.048606</v>
+        <v>0.0486655</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0448353</v>
+        <v>0.0463724</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0360968</v>
+        <v>0.0381246</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0516189</v>
+        <v>0.0516951</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0490368</v>
+        <v>0.0504753</v>
       </c>
       <c r="D74" t="n">
-        <v>0.037235</v>
+        <v>0.0392095</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0561216</v>
+        <v>0.0562186</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0552398</v>
+        <v>0.056648</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0389809</v>
+        <v>0.0411028</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0629231</v>
+        <v>0.0630655</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06400400000000001</v>
+        <v>0.0653575</v>
       </c>
       <c r="D76" t="n">
-        <v>0.041458</v>
+        <v>0.0438036</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.072765</v>
+        <v>0.0728956</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07685930000000001</v>
+        <v>0.077835</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0454973</v>
+        <v>0.0479849</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0884606</v>
+        <v>0.0884764</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09492150000000001</v>
+        <v>0.0957793</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0521661</v>
+        <v>0.054893</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112723</v>
+        <v>0.11268</v>
       </c>
       <c r="C79" t="n">
-        <v>0.123694</v>
+        <v>0.124947</v>
       </c>
       <c r="D79" t="n">
-        <v>0.06380959999999999</v>
+        <v>0.06688810000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.15148</v>
+        <v>0.151394</v>
       </c>
       <c r="C80" t="n">
-        <v>0.166574</v>
+        <v>0.169941</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0385345</v>
+        <v>0.0396428</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0470733</v>
+        <v>0.0475506</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0444427</v>
+        <v>0.0443284</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0390309</v>
+        <v>0.0394139</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0486209</v>
+        <v>0.0487832</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0464313</v>
+        <v>0.0463683</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0397654</v>
+        <v>0.0402017</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0502137</v>
+        <v>0.0503426</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0482817</v>
+        <v>0.048763</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0404847</v>
+        <v>0.0406621</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0520829</v>
+        <v>0.0524421</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0508961</v>
+        <v>0.051652</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0414286</v>
+        <v>0.0416199</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0543507</v>
+        <v>0.0550845</v>
       </c>
       <c r="C85" t="n">
-        <v>0.054059</v>
+        <v>0.0549232</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0424802</v>
+        <v>0.0426759</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0573791</v>
+        <v>0.0585775</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0575683</v>
+        <v>0.0584575</v>
       </c>
       <c r="D86" t="n">
-        <v>0.043962</v>
+        <v>0.0447388</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0611706</v>
+        <v>0.0625742</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0620438</v>
+        <v>0.06278069999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0456887</v>
+        <v>0.0472945</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0658604</v>
+        <v>0.067677</v>
       </c>
       <c r="C88" t="n">
-        <v>0.06801069999999999</v>
+        <v>0.0685611</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0478143</v>
+        <v>0.0487174</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0722271</v>
+        <v>0.07438309999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0752785</v>
+        <v>0.0754185</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0508491</v>
+        <v>0.0516574</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0807184</v>
+        <v>0.0824455</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08528819999999999</v>
+        <v>0.0854618</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0549094</v>
+        <v>0.0559176</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09192939999999999</v>
+        <v>0.09285789999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0978641</v>
+        <v>0.09771639999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0602444</v>
+        <v>0.0612883</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.106946</v>
+        <v>0.108108</v>
       </c>
       <c r="C92" t="n">
-        <v>0.114607</v>
+        <v>0.114713</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0684815</v>
+        <v>0.06968539999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.12864</v>
+        <v>0.130077</v>
       </c>
       <c r="C93" t="n">
-        <v>0.139935</v>
+        <v>0.140641</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0817172</v>
+        <v>0.0824505</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.162524</v>
+        <v>0.16407</v>
       </c>
       <c r="C94" t="n">
-        <v>0.178115</v>
+        <v>0.180146</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0482417</v>
+        <v>0.0489115</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06625259999999999</v>
+        <v>0.06651700000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0635217</v>
+        <v>0.0623419</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0498834</v>
+        <v>0.0509477</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0690133</v>
+        <v>0.0695924</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0663594</v>
+        <v>0.0660438</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0518889</v>
+        <v>0.0514988</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0727819</v>
+        <v>0.07204670000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.06806420000000001</v>
+        <v>0.0688976</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0538066</v>
+        <v>0.0527368</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.074835</v>
+        <v>0.07447330000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07269589999999999</v>
+        <v>0.0712411</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0547253</v>
+        <v>0.0553337</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.078056</v>
+        <v>0.0774397</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07665180000000001</v>
+        <v>0.0760141</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0578197</v>
+        <v>0.0566869</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0812204</v>
+        <v>0.0806553</v>
       </c>
       <c r="C100" t="n">
-        <v>0.08076410000000001</v>
+        <v>0.079996</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0594143</v>
+        <v>0.0592846</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08440250000000001</v>
+        <v>0.08463950000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0856369</v>
+        <v>0.0850537</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0614596</v>
+        <v>0.0608335</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0892806</v>
+        <v>0.0887858</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0913651</v>
+        <v>0.0891039</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0636433</v>
+        <v>0.06349920000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0955715</v>
+        <v>0.09456349999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0981953</v>
+        <v>0.0972581</v>
       </c>
       <c r="D103" t="n">
-        <v>0.06482880000000001</v>
+        <v>0.066262</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102754</v>
+        <v>0.102573</v>
       </c>
       <c r="C104" t="n">
-        <v>0.107514</v>
+        <v>0.10664</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0703937</v>
+        <v>0.0694562</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113455</v>
+        <v>0.113491</v>
       </c>
       <c r="C105" t="n">
-        <v>0.119484</v>
+        <v>0.118216</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0761043</v>
+        <v>0.0749923</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128853</v>
+        <v>0.128412</v>
       </c>
       <c r="C106" t="n">
-        <v>0.13589</v>
+        <v>0.134337</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08382050000000001</v>
+        <v>0.0829256</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149517</v>
+        <v>0.149746</v>
       </c>
       <c r="C107" t="n">
-        <v>0.159341</v>
+        <v>0.156448</v>
       </c>
       <c r="D107" t="n">
-        <v>0.09543740000000001</v>
+        <v>0.0945797</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179317</v>
+        <v>0.179863</v>
       </c>
       <c r="C108" t="n">
-        <v>0.196477</v>
+        <v>0.195488</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0571611</v>
+        <v>0.0576217</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225253</v>
+        <v>0.225238</v>
       </c>
       <c r="C109" t="n">
-        <v>0.255852</v>
+        <v>0.256536</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0583227</v>
+        <v>0.0587696</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08067879999999999</v>
+        <v>0.08057889999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0826924</v>
+        <v>0.0821408</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0593261</v>
+        <v>0.0591798</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0838352</v>
+        <v>0.08391419999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0854364</v>
+        <v>0.0849087</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0610637</v>
+        <v>0.0600036</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0872052</v>
+        <v>0.0871135</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0877988</v>
+        <v>0.0881366</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0629866</v>
+        <v>0.0617252</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09110459999999999</v>
+        <v>0.0913094</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0914341</v>
+        <v>0.0912902</v>
       </c>
       <c r="D113" t="n">
-        <v>0.06484090000000001</v>
+        <v>0.0634193</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0955482</v>
+        <v>0.09554509999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0950647</v>
+        <v>0.0943857</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0674631</v>
+        <v>0.0657562</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100776</v>
+        <v>0.100849</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09896969999999999</v>
+        <v>0.09916709999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0700296</v>
+        <v>0.0685254</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106297</v>
+        <v>0.106746</v>
       </c>
       <c r="C116" t="n">
-        <v>0.105008</v>
+        <v>0.104025</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0736827</v>
+        <v>0.07166119999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113306</v>
+        <v>0.1135</v>
       </c>
       <c r="C117" t="n">
-        <v>0.112101</v>
+        <v>0.111577</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0775324</v>
+        <v>0.0763962</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120014</v>
+        <v>0.121494</v>
       </c>
       <c r="C118" t="n">
-        <v>0.120975</v>
+        <v>0.120488</v>
       </c>
       <c r="D118" t="n">
-        <v>0.08238379999999999</v>
+        <v>0.0818161</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.129707</v>
+        <v>0.131631</v>
       </c>
       <c r="C119" t="n">
-        <v>0.132548</v>
+        <v>0.131705</v>
       </c>
       <c r="D119" t="n">
-        <v>0.08829869999999999</v>
+        <v>0.0884871</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144319</v>
+        <v>0.144578</v>
       </c>
       <c r="C120" t="n">
-        <v>0.146834</v>
+        <v>0.147355</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0975347</v>
+        <v>0.09735829999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.162749</v>
+        <v>0.163011</v>
       </c>
       <c r="C121" t="n">
-        <v>0.168043</v>
+        <v>0.168536</v>
       </c>
       <c r="D121" t="n">
-        <v>0.108954</v>
+        <v>0.109377</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188689</v>
+        <v>0.18907</v>
       </c>
       <c r="C122" t="n">
-        <v>0.20241</v>
+        <v>0.202131</v>
       </c>
       <c r="D122" t="n">
-        <v>0.126968</v>
+        <v>0.127711</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.228796</v>
+        <v>0.229644</v>
       </c>
       <c r="C123" t="n">
-        <v>0.256077</v>
+        <v>0.255214</v>
       </c>
       <c r="D123" t="n">
-        <v>0.07608479999999999</v>
+        <v>0.0825458</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.104541</v>
+        <v>0.104394</v>
       </c>
       <c r="C124" t="n">
-        <v>0.09982249999999999</v>
+        <v>0.104618</v>
       </c>
       <c r="D124" t="n">
-        <v>0.07988149999999999</v>
+        <v>0.0858606</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106023</v>
+        <v>0.107127</v>
       </c>
       <c r="C125" t="n">
-        <v>0.100913</v>
+        <v>0.106635</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0796133</v>
+        <v>0.0868713</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108569</v>
+        <v>0.11034</v>
       </c>
       <c r="C126" t="n">
-        <v>0.106345</v>
+        <v>0.107121</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0852686</v>
+        <v>0.0853052</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110566</v>
+        <v>0.110498</v>
       </c>
       <c r="C127" t="n">
-        <v>0.107</v>
+        <v>0.111473</v>
       </c>
       <c r="D127" t="n">
-        <v>0.08354449999999999</v>
+        <v>0.08866110000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.116345</v>
+        <v>0.11472</v>
       </c>
       <c r="C128" t="n">
-        <v>0.111741</v>
+        <v>0.115102</v>
       </c>
       <c r="D128" t="n">
-        <v>0.08692809999999999</v>
+        <v>0.0916973</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.117852</v>
+        <v>0.118812</v>
       </c>
       <c r="C129" t="n">
-        <v>0.114497</v>
+        <v>0.119716</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0874761</v>
+        <v>0.0942863</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120828</v>
+        <v>0.122214</v>
       </c>
       <c r="C130" t="n">
-        <v>0.122377</v>
+        <v>0.125097</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09411</v>
+        <v>0.09833409999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126687</v>
+        <v>0.128631</v>
       </c>
       <c r="C131" t="n">
-        <v>0.126989</v>
+        <v>0.13052</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0940125</v>
+        <v>0.100236</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132571</v>
+        <v>0.134188</v>
       </c>
       <c r="C132" t="n">
-        <v>0.136157</v>
+        <v>0.138406</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0999367</v>
+        <v>0.102971</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143311</v>
+        <v>0.143118</v>
       </c>
       <c r="C133" t="n">
-        <v>0.145367</v>
+        <v>0.147132</v>
       </c>
       <c r="D133" t="n">
-        <v>0.102398</v>
+        <v>0.106485</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154811</v>
+        <v>0.155139</v>
       </c>
       <c r="C134" t="n">
-        <v>0.160357</v>
+        <v>0.162127</v>
       </c>
       <c r="D134" t="n">
-        <v>0.11079</v>
+        <v>0.114564</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171582</v>
+        <v>0.171415</v>
       </c>
       <c r="C135" t="n">
-        <v>0.18025</v>
+        <v>0.182583</v>
       </c>
       <c r="D135" t="n">
-        <v>0.119737</v>
+        <v>0.124984</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194968</v>
+        <v>0.195986</v>
       </c>
       <c r="C136" t="n">
-        <v>0.211665</v>
+        <v>0.212579</v>
       </c>
       <c r="D136" t="n">
-        <v>0.136356</v>
+        <v>0.139943</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.233295</v>
+        <v>0.232868</v>
       </c>
       <c r="C137" t="n">
-        <v>0.259387</v>
+        <v>0.261855</v>
       </c>
       <c r="D137" t="n">
-        <v>0.148563</v>
+        <v>0.148694</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.164787</v>
+        <v>0.162315</v>
       </c>
       <c r="C138" t="n">
-        <v>0.156399</v>
+        <v>0.156735</v>
       </c>
       <c r="D138" t="n">
-        <v>0.14991</v>
+        <v>0.150961</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.171519</v>
+        <v>0.172106</v>
       </c>
       <c r="C139" t="n">
-        <v>0.157978</v>
+        <v>0.158281</v>
       </c>
       <c r="D139" t="n">
-        <v>0.150598</v>
+        <v>0.151231</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.168123</v>
+        <v>0.173342</v>
       </c>
       <c r="C140" t="n">
-        <v>0.160543</v>
+        <v>0.160617</v>
       </c>
       <c r="D140" t="n">
-        <v>0.152012</v>
+        <v>0.152598</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.169872</v>
+        <v>0.176844</v>
       </c>
       <c r="C141" t="n">
-        <v>0.163057</v>
+        <v>0.163659</v>
       </c>
       <c r="D141" t="n">
-        <v>0.153474</v>
+        <v>0.154882</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.180277</v>
+        <v>0.177921</v>
       </c>
       <c r="C142" t="n">
-        <v>0.166681</v>
+        <v>0.166361</v>
       </c>
       <c r="D142" t="n">
-        <v>0.156083</v>
+        <v>0.15507</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.181353</v>
+        <v>0.173097</v>
       </c>
       <c r="C143" t="n">
-        <v>0.170071</v>
+        <v>0.170304</v>
       </c>
       <c r="D143" t="n">
-        <v>0.157324</v>
+        <v>0.157261</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0323246</v>
+        <v>0.0315981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.023519</v>
+        <v>0.0236539</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0245736</v>
+        <v>0.0235653</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0331457</v>
+        <v>0.0335743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0228084</v>
+        <v>0.0227701</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0248516</v>
+        <v>0.0237082</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03616</v>
+        <v>0.0357795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0261108</v>
+        <v>0.0265947</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0246723</v>
+        <v>0.0236881</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0418192</v>
+        <v>0.0414595</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0390524</v>
+        <v>0.0386998</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0236511</v>
+        <v>0.0227647</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0562146</v>
+        <v>0.0546658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0600648</v>
+        <v>0.0598401</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0248716</v>
+        <v>0.0249597</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0765096</v>
+        <v>0.0778457</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0853826</v>
+        <v>0.0852224</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0292354</v>
+        <v>0.029218</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107035</v>
+        <v>0.110091</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11635</v>
+        <v>0.116024</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0470121</v>
+        <v>0.045978</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149097</v>
+        <v>0.145657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164254</v>
+        <v>0.163969</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0244969</v>
+        <v>0.023306</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0310191</v>
+        <v>0.0302878</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0282159</v>
+        <v>0.0279827</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0243563</v>
+        <v>0.023405</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0315864</v>
+        <v>0.0306804</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0285363</v>
+        <v>0.0285475</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0244714</v>
+        <v>0.0237284</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0320261</v>
+        <v>0.0312283</v>
       </c>
       <c r="C12" t="n">
-        <v>0.029105</v>
+        <v>0.0289888</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0247699</v>
+        <v>0.0238956</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0324442</v>
+        <v>0.0316036</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0294608</v>
+        <v>0.0293843</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0248761</v>
+        <v>0.0242449</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0331444</v>
+        <v>0.032435</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0284878</v>
+        <v>0.0283965</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0252092</v>
+        <v>0.0242804</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.034317</v>
+        <v>0.0334177</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0293465</v>
+        <v>0.029082</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0254973</v>
+        <v>0.0246038</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0353052</v>
+        <v>0.0345271</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0309999</v>
+        <v>0.0309651</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0258846</v>
+        <v>0.0252309</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0381414</v>
+        <v>0.0370256</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0340948</v>
+        <v>0.0343401</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0259135</v>
+        <v>0.0252307</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0414738</v>
+        <v>0.0427214</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0431813</v>
+        <v>0.0429909</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0260431</v>
+        <v>0.0253738</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0497906</v>
+        <v>0.0494935</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0533875</v>
+        <v>0.0534416</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0252967</v>
+        <v>0.0251082</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.060071</v>
+        <v>0.06233</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0663874</v>
+        <v>0.0661593</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0283025</v>
+        <v>0.0283476</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0772682</v>
+        <v>0.0820139</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0877594</v>
+        <v>0.0878158</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0394773</v>
+        <v>0.0390326</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100302</v>
+        <v>0.10524</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115934</v>
+        <v>0.115703</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0546481</v>
+        <v>0.0544929</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138783</v>
+        <v>0.14203</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161568</v>
+        <v>0.161655</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0252231</v>
+        <v>0.0245513</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.032336</v>
+        <v>0.0324315</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0293225</v>
+        <v>0.0294321</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0256412</v>
+        <v>0.025036</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0328823</v>
+        <v>0.0330618</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0298144</v>
+        <v>0.0298751</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0260323</v>
+        <v>0.0252484</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0337113</v>
+        <v>0.0335494</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0304157</v>
+        <v>0.0305152</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0260397</v>
+        <v>0.0255425</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0344353</v>
+        <v>0.0343445</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0311994</v>
+        <v>0.0313736</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0265286</v>
+        <v>0.0260305</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0352469</v>
+        <v>0.0350241</v>
       </c>
       <c r="C28" t="n">
-        <v>0.031879</v>
+        <v>0.0318262</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0267655</v>
+        <v>0.0262947</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0366984</v>
+        <v>0.0363306</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0331706</v>
+        <v>0.0332787</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0270301</v>
+        <v>0.0266579</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0388649</v>
+        <v>0.0384118</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0359846</v>
+        <v>0.0360062</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0273417</v>
+        <v>0.0271255</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0419017</v>
+        <v>0.0416144</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0405466</v>
+        <v>0.0405533</v>
       </c>
       <c r="D31" t="n">
-        <v>0.027704</v>
+        <v>0.0277135</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0464619</v>
+        <v>0.0465522</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0472356</v>
+        <v>0.0473994</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0287966</v>
+        <v>0.0284876</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0527409</v>
+        <v>0.0535279</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0557146</v>
+        <v>0.0556572</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0306451</v>
+        <v>0.0299794</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0631317</v>
+        <v>0.0636413</v>
       </c>
       <c r="C34" t="n">
-        <v>0.066492</v>
+        <v>0.06653240000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0356201</v>
+        <v>0.0354018</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0768065</v>
+        <v>0.0771941</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0813871</v>
+        <v>0.0815323</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0437591</v>
+        <v>0.0431914</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0972044</v>
+        <v>0.0978724</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111167</v>
+        <v>0.110706</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0554137</v>
+        <v>0.0549006</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.129865</v>
+        <v>0.130569</v>
       </c>
       <c r="C37" t="n">
-        <v>0.154021</v>
+        <v>0.153426</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0261747</v>
+        <v>0.0256009</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0332829</v>
+        <v>0.0329763</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0300698</v>
+        <v>0.0302207</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0266708</v>
+        <v>0.0260327</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339931</v>
+        <v>0.033832</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0305048</v>
+        <v>0.0306543</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0265705</v>
+        <v>0.026201</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03466</v>
+        <v>0.0345777</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0314636</v>
+        <v>0.0316632</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0269784</v>
+        <v>0.0264975</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.035383</v>
+        <v>0.0355258</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0323567</v>
+        <v>0.0325952</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0272368</v>
+        <v>0.0267288</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0363972</v>
+        <v>0.0365266</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0338012</v>
+        <v>0.0340248</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0276314</v>
+        <v>0.0271018</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0377299</v>
+        <v>0.0378379</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0357493</v>
+        <v>0.0358288</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0282202</v>
+        <v>0.0276842</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0398217</v>
+        <v>0.040155</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0378822</v>
+        <v>0.0380832</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0294825</v>
+        <v>0.0285292</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0428253</v>
+        <v>0.0430508</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0424784</v>
+        <v>0.0426056</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0307444</v>
+        <v>0.0294674</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0469035</v>
+        <v>0.0473663</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0480699</v>
+        <v>0.0480934</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0315336</v>
+        <v>0.0309857</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0527539</v>
+        <v>0.0527227</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0546405</v>
+        <v>0.0546447</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0341351</v>
+        <v>0.0335135</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0605992</v>
+        <v>0.0614619</v>
       </c>
       <c r="C48" t="n">
-        <v>0.064568</v>
+        <v>0.06455470000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0383393</v>
+        <v>0.037779</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07339320000000001</v>
+        <v>0.07402449999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08038869999999999</v>
+        <v>0.0800434</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0439132</v>
+        <v>0.0432578</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0903554</v>
+        <v>0.0922917</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102786</v>
+        <v>0.102866</v>
       </c>
       <c r="D50" t="n">
-        <v>0.052574</v>
+        <v>0.0519075</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120687</v>
+        <v>0.12286</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140717</v>
+        <v>0.141065</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0285662</v>
+        <v>0.0277263</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165454</v>
+        <v>0.16594</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188358</v>
+        <v>0.188088</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0286042</v>
+        <v>0.0278989</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0361958</v>
+        <v>0.035804</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0316544</v>
+        <v>0.0317625</v>
       </c>
       <c r="D53" t="n">
-        <v>0.028792</v>
+        <v>0.0280535</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0369512</v>
+        <v>0.0363909</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0324939</v>
+        <v>0.0325911</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0292477</v>
+        <v>0.028412</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0378285</v>
+        <v>0.0372405</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0335995</v>
+        <v>0.0337141</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0299949</v>
+        <v>0.0288185</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03901</v>
+        <v>0.0384304</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0350433</v>
+        <v>0.0351376</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0300302</v>
+        <v>0.0292889</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0404495</v>
+        <v>0.0398737</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0369084</v>
+        <v>0.0370014</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0305349</v>
+        <v>0.0298598</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0424027</v>
+        <v>0.0416929</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0393907</v>
+        <v>0.0394244</v>
       </c>
       <c r="D58" t="n">
-        <v>0.031322</v>
+        <v>0.0308197</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0448559</v>
+        <v>0.0442029</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0421334</v>
+        <v>0.0422819</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0328625</v>
+        <v>0.0318014</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0483963</v>
+        <v>0.0478839</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0466049</v>
+        <v>0.0466458</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0338786</v>
+        <v>0.0331194</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.053669</v>
+        <v>0.0531478</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0533789</v>
+        <v>0.0533926</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0358298</v>
+        <v>0.0350971</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0612868</v>
+        <v>0.0608238</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06264309999999999</v>
+        <v>0.0626591</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0390031</v>
+        <v>0.0381896</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0726371</v>
+        <v>0.0723089</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0764138</v>
+        <v>0.0764759</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0439738</v>
+        <v>0.0431603</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08944530000000001</v>
+        <v>0.09008190000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0968021</v>
+        <v>0.0968929</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0520481</v>
+        <v>0.0512109</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117138</v>
+        <v>0.115997</v>
       </c>
       <c r="C65" t="n">
-        <v>0.13111</v>
+        <v>0.131095</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0659849</v>
+        <v>0.0653131</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157309</v>
+        <v>0.157108</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179048</v>
+        <v>0.178842</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0348157</v>
+        <v>0.0313714</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0409445</v>
+        <v>0.0409157</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0365278</v>
+        <v>0.0350396</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0355831</v>
+        <v>0.0316835</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0416231</v>
+        <v>0.0416334</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0375003</v>
+        <v>0.0359522</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0352129</v>
+        <v>0.0321075</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0424797</v>
+        <v>0.0424859</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0386926</v>
+        <v>0.0371643</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0355815</v>
+        <v>0.0325913</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0435822</v>
+        <v>0.0434117</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0401016</v>
+        <v>0.0385309</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0360977</v>
+        <v>0.0330758</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0449012</v>
+        <v>0.0447315</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0416732</v>
+        <v>0.0401029</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0363174</v>
+        <v>0.0335956</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0464891</v>
+        <v>0.0464202</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0435415</v>
+        <v>0.0419211</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0371992</v>
+        <v>0.0342946</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0486655</v>
+        <v>0.048689</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0463724</v>
+        <v>0.0445926</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0381246</v>
+        <v>0.0351319</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0516951</v>
+        <v>0.0517178</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0504753</v>
+        <v>0.0485344</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0392095</v>
+        <v>0.0363668</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0562186</v>
+        <v>0.0563387</v>
       </c>
       <c r="C75" t="n">
-        <v>0.056648</v>
+        <v>0.0545488</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0411028</v>
+        <v>0.0382057</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0630655</v>
+        <v>0.0630542</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0653575</v>
+        <v>0.0630288</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0438036</v>
+        <v>0.0407667</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0728956</v>
+        <v>0.0731754</v>
       </c>
       <c r="C77" t="n">
-        <v>0.077835</v>
+        <v>0.07564</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0479849</v>
+        <v>0.0448304</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0884764</v>
+        <v>0.0881237</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0957793</v>
+        <v>0.0934154</v>
       </c>
       <c r="D78" t="n">
-        <v>0.054893</v>
+        <v>0.0514161</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.11268</v>
+        <v>0.113106</v>
       </c>
       <c r="C79" t="n">
-        <v>0.124947</v>
+        <v>0.122547</v>
       </c>
       <c r="D79" t="n">
-        <v>0.06688810000000001</v>
+        <v>0.0633422</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151394</v>
+        <v>0.151877</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169941</v>
+        <v>0.1671</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0396428</v>
+        <v>0.0369781</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0475506</v>
+        <v>0.0470607</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0443284</v>
+        <v>0.0434752</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0394139</v>
+        <v>0.0374784</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0487832</v>
+        <v>0.0481062</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0463683</v>
+        <v>0.0455565</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0402017</v>
+        <v>0.0381024</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0503426</v>
+        <v>0.0496149</v>
       </c>
       <c r="C83" t="n">
-        <v>0.048763</v>
+        <v>0.0480288</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0406621</v>
+        <v>0.0391007</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0524421</v>
+        <v>0.0515819</v>
       </c>
       <c r="C84" t="n">
-        <v>0.051652</v>
+        <v>0.0509712</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0416199</v>
+        <v>0.039723</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0550845</v>
+        <v>0.0542781</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0549232</v>
+        <v>0.0542776</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0426759</v>
+        <v>0.0408606</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0585775</v>
+        <v>0.0573563</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0584575</v>
+        <v>0.0577919</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0447388</v>
+        <v>0.0422674</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0625742</v>
+        <v>0.0614389</v>
       </c>
       <c r="C87" t="n">
-        <v>0.06278069999999999</v>
+        <v>0.0621885</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0472945</v>
+        <v>0.0443346</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.067677</v>
+        <v>0.0664286</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0685611</v>
+        <v>0.0681879</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0487174</v>
+        <v>0.0467787</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07438309999999999</v>
+        <v>0.072792</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0754185</v>
+        <v>0.07519389999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0516574</v>
+        <v>0.0499086</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0824455</v>
+        <v>0.0812322</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0854618</v>
+        <v>0.0851165</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0559176</v>
+        <v>0.0541866</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09285789999999999</v>
+        <v>0.0924796</v>
       </c>
       <c r="C91" t="n">
-        <v>0.09771639999999999</v>
+        <v>0.09738140000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0612883</v>
+        <v>0.0597487</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.108108</v>
+        <v>0.107603</v>
       </c>
       <c r="C92" t="n">
-        <v>0.114713</v>
+        <v>0.11415</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06968539999999999</v>
+        <v>0.0680514</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.130077</v>
+        <v>0.129384</v>
       </c>
       <c r="C93" t="n">
-        <v>0.140641</v>
+        <v>0.139922</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0824505</v>
+        <v>0.0810157</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16407</v>
+        <v>0.16262</v>
       </c>
       <c r="C94" t="n">
-        <v>0.180146</v>
+        <v>0.179455</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0489115</v>
+        <v>0.0476165</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06651700000000001</v>
+        <v>0.0664312</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0623419</v>
+        <v>0.0633553</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0509477</v>
+        <v>0.0487961</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0695924</v>
+        <v>0.0687878</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0660438</v>
+        <v>0.0656144</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0514988</v>
+        <v>0.0508273</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07204670000000001</v>
+        <v>0.07164570000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0688976</v>
+        <v>0.06862600000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0527368</v>
+        <v>0.0525078</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07447330000000001</v>
+        <v>0.0746856</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0712411</v>
+        <v>0.07218289999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0553337</v>
+        <v>0.0539435</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0774397</v>
+        <v>0.07776420000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0760141</v>
+        <v>0.07552929999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0566869</v>
+        <v>0.0557675</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0806553</v>
+        <v>0.0810225</v>
       </c>
       <c r="C100" t="n">
-        <v>0.079996</v>
+        <v>0.0799072</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0592846</v>
+        <v>0.0576127</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08463950000000001</v>
+        <v>0.0837429</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0850537</v>
+        <v>0.0846813</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0608335</v>
+        <v>0.0603313</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0887858</v>
+        <v>0.0891232</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0891039</v>
+        <v>0.0898883</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06349920000000001</v>
+        <v>0.0626973</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09456349999999999</v>
+        <v>0.0948793</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0972581</v>
+        <v>0.09484049999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.066262</v>
+        <v>0.0656069</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102573</v>
+        <v>0.102744</v>
       </c>
       <c r="C104" t="n">
-        <v>0.10664</v>
+        <v>0.103993</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0694562</v>
+        <v>0.0698849</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113491</v>
+        <v>0.11314</v>
       </c>
       <c r="C105" t="n">
-        <v>0.118216</v>
+        <v>0.118044</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0749923</v>
+        <v>0.0745783</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128412</v>
+        <v>0.128027</v>
       </c>
       <c r="C106" t="n">
-        <v>0.134337</v>
+        <v>0.131328</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0829256</v>
+        <v>0.0827502</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149746</v>
+        <v>0.149347</v>
       </c>
       <c r="C107" t="n">
-        <v>0.156448</v>
+        <v>0.157832</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0945797</v>
+        <v>0.0942697</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179863</v>
+        <v>0.179089</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195488</v>
+        <v>0.195363</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0576217</v>
+        <v>0.0553014</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225238</v>
+        <v>0.225702</v>
       </c>
       <c r="C109" t="n">
-        <v>0.256536</v>
+        <v>0.251711</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0587696</v>
+        <v>0.0565207</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08057889999999999</v>
+        <v>0.0795158</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0821408</v>
+        <v>0.08206720000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0591798</v>
+        <v>0.0576643</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08391419999999999</v>
+        <v>0.08319840000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0849087</v>
+        <v>0.0847344</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0600036</v>
+        <v>0.0591184</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0871135</v>
+        <v>0.08700720000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0881366</v>
+        <v>0.0875326</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0617252</v>
+        <v>0.0605053</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0913094</v>
+        <v>0.0898998</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0912902</v>
+        <v>0.0906245</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0634193</v>
+        <v>0.0623675</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09554509999999999</v>
+        <v>0.0944892</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0943857</v>
+        <v>0.0946217</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0657562</v>
+        <v>0.06493359999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100849</v>
+        <v>0.100617</v>
       </c>
       <c r="C115" t="n">
-        <v>0.09916709999999999</v>
+        <v>0.0983228</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0685254</v>
+        <v>0.06755319999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106746</v>
+        <v>0.106808</v>
       </c>
       <c r="C116" t="n">
-        <v>0.104025</v>
+        <v>0.104127</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07166119999999999</v>
+        <v>0.07101109999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1135</v>
+        <v>0.113504</v>
       </c>
       <c r="C117" t="n">
-        <v>0.111577</v>
+        <v>0.11109</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0763962</v>
+        <v>0.0751338</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121494</v>
+        <v>0.121297</v>
       </c>
       <c r="C118" t="n">
-        <v>0.120488</v>
+        <v>0.120054</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0818161</v>
+        <v>0.08047120000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131631</v>
+        <v>0.129579</v>
       </c>
       <c r="C119" t="n">
-        <v>0.131705</v>
+        <v>0.130503</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0884871</v>
+        <v>0.0864463</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144578</v>
+        <v>0.144688</v>
       </c>
       <c r="C120" t="n">
-        <v>0.147355</v>
+        <v>0.145619</v>
       </c>
       <c r="D120" t="n">
-        <v>0.09735829999999999</v>
+        <v>0.095459</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163011</v>
+        <v>0.163015</v>
       </c>
       <c r="C121" t="n">
-        <v>0.168536</v>
+        <v>0.166913</v>
       </c>
       <c r="D121" t="n">
-        <v>0.109377</v>
+        <v>0.10665</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.18907</v>
+        <v>0.189258</v>
       </c>
       <c r="C122" t="n">
-        <v>0.202131</v>
+        <v>0.201749</v>
       </c>
       <c r="D122" t="n">
-        <v>0.127711</v>
+        <v>0.124439</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.229644</v>
+        <v>0.229284</v>
       </c>
       <c r="C123" t="n">
-        <v>0.255214</v>
+        <v>0.256714</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0825458</v>
+        <v>0.0748887</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.104394</v>
+        <v>0.102735</v>
       </c>
       <c r="C124" t="n">
-        <v>0.104618</v>
+        <v>0.0994452</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0858606</v>
+        <v>0.0789055</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.107127</v>
+        <v>0.108172</v>
       </c>
       <c r="C125" t="n">
-        <v>0.106635</v>
+        <v>0.101745</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0868713</v>
+        <v>0.0797016</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.11034</v>
+        <v>0.106349</v>
       </c>
       <c r="C126" t="n">
-        <v>0.107121</v>
+        <v>0.107282</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0853052</v>
+        <v>0.0852658</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110498</v>
+        <v>0.111329</v>
       </c>
       <c r="C127" t="n">
-        <v>0.111473</v>
+        <v>0.108607</v>
       </c>
       <c r="D127" t="n">
-        <v>0.08866110000000001</v>
+        <v>0.0838961</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.11472</v>
+        <v>0.115079</v>
       </c>
       <c r="C128" t="n">
-        <v>0.115102</v>
+        <v>0.113159</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0916973</v>
+        <v>0.08770559999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118812</v>
+        <v>0.119299</v>
       </c>
       <c r="C129" t="n">
-        <v>0.119716</v>
+        <v>0.116248</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0942863</v>
+        <v>0.0884408</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122214</v>
+        <v>0.120848</v>
       </c>
       <c r="C130" t="n">
-        <v>0.125097</v>
+        <v>0.123552</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09833409999999999</v>
+        <v>0.0943821</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.128631</v>
+        <v>0.129409</v>
       </c>
       <c r="C131" t="n">
-        <v>0.13052</v>
+        <v>0.127225</v>
       </c>
       <c r="D131" t="n">
-        <v>0.100236</v>
+        <v>0.0929185</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.134188</v>
+        <v>0.131369</v>
       </c>
       <c r="C132" t="n">
-        <v>0.138406</v>
+        <v>0.137616</v>
       </c>
       <c r="D132" t="n">
-        <v>0.102971</v>
+        <v>0.100628</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143118</v>
+        <v>0.145095</v>
       </c>
       <c r="C133" t="n">
-        <v>0.147132</v>
+        <v>0.144566</v>
       </c>
       <c r="D133" t="n">
-        <v>0.106485</v>
+        <v>0.100983</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155139</v>
+        <v>0.153512</v>
       </c>
       <c r="C134" t="n">
-        <v>0.162127</v>
+        <v>0.160993</v>
       </c>
       <c r="D134" t="n">
-        <v>0.114564</v>
+        <v>0.110562</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171415</v>
+        <v>0.17271</v>
       </c>
       <c r="C135" t="n">
-        <v>0.182583</v>
+        <v>0.178692</v>
       </c>
       <c r="D135" t="n">
-        <v>0.124984</v>
+        <v>0.117591</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.195986</v>
+        <v>0.1946</v>
       </c>
       <c r="C136" t="n">
-        <v>0.212579</v>
+        <v>0.209837</v>
       </c>
       <c r="D136" t="n">
-        <v>0.139943</v>
+        <v>0.133818</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232868</v>
+        <v>0.234011</v>
       </c>
       <c r="C137" t="n">
-        <v>0.261855</v>
+        <v>0.259725</v>
       </c>
       <c r="D137" t="n">
-        <v>0.148694</v>
+        <v>0.140983</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.162315</v>
+        <v>0.171013</v>
       </c>
       <c r="C138" t="n">
-        <v>0.156735</v>
+        <v>0.155875</v>
       </c>
       <c r="D138" t="n">
-        <v>0.150961</v>
+        <v>0.142926</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.172106</v>
+        <v>0.17248</v>
       </c>
       <c r="C139" t="n">
-        <v>0.158281</v>
+        <v>0.158414</v>
       </c>
       <c r="D139" t="n">
-        <v>0.151231</v>
+        <v>0.14441</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.173342</v>
+        <v>0.173171</v>
       </c>
       <c r="C140" t="n">
-        <v>0.160617</v>
+        <v>0.160719</v>
       </c>
       <c r="D140" t="n">
-        <v>0.152598</v>
+        <v>0.14529</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.176844</v>
+        <v>0.179008</v>
       </c>
       <c r="C141" t="n">
-        <v>0.163659</v>
+        <v>0.16356</v>
       </c>
       <c r="D141" t="n">
-        <v>0.154882</v>
+        <v>0.147163</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.177921</v>
+        <v>0.178417</v>
       </c>
       <c r="C142" t="n">
-        <v>0.166361</v>
+        <v>0.166435</v>
       </c>
       <c r="D142" t="n">
-        <v>0.15507</v>
+        <v>0.148018</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.173097</v>
+        <v>0.179704</v>
       </c>
       <c r="C143" t="n">
-        <v>0.170304</v>
+        <v>0.169918</v>
       </c>
       <c r="D143" t="n">
-        <v>0.157261</v>
+        <v>0.149753</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0315981</v>
+        <v>0.0316048</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0236539</v>
+        <v>0.0235079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0235653</v>
+        <v>0.0229422</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0335743</v>
+        <v>0.0337409</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0227701</v>
+        <v>0.0226362</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0237082</v>
+        <v>0.0231177</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0357795</v>
+        <v>0.0357257</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0265947</v>
+        <v>0.0264933</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0236881</v>
+        <v>0.023121</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0414595</v>
+        <v>0.0415381</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0386998</v>
+        <v>0.039147</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0227647</v>
+        <v>0.0212565</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0546658</v>
+        <v>0.0542402</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0598401</v>
+        <v>0.0598748</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0249597</v>
+        <v>0.0232009</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0778457</v>
+        <v>0.07750079999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0852224</v>
+        <v>0.08498749999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.029218</v>
+        <v>0.0276987</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.110091</v>
+        <v>0.110375</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116024</v>
+        <v>0.115716</v>
       </c>
       <c r="D8" t="n">
-        <v>0.045978</v>
+        <v>0.0460637</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145657</v>
+        <v>0.145552</v>
       </c>
       <c r="C9" t="n">
-        <v>0.163969</v>
+        <v>0.163882</v>
       </c>
       <c r="D9" t="n">
-        <v>0.023306</v>
+        <v>0.0228608</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0302878</v>
+        <v>0.0307015</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0279827</v>
+        <v>0.0279499</v>
       </c>
       <c r="D10" t="n">
-        <v>0.023405</v>
+        <v>0.0230031</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0306804</v>
+        <v>0.0309615</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0285475</v>
+        <v>0.0286053</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0237284</v>
+        <v>0.0234553</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0312283</v>
+        <v>0.0315857</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0289888</v>
+        <v>0.0290607</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0238956</v>
+        <v>0.0237778</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0316036</v>
+        <v>0.0318838</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0293843</v>
+        <v>0.0292433</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0242449</v>
+        <v>0.0237001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.032435</v>
+        <v>0.0327842</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0283965</v>
+        <v>0.0285209</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0242804</v>
+        <v>0.0239084</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0334177</v>
+        <v>0.0337675</v>
       </c>
       <c r="C15" t="n">
-        <v>0.029082</v>
+        <v>0.0294134</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0246038</v>
+        <v>0.0241056</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0345271</v>
+        <v>0.0349803</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0309651</v>
+        <v>0.0312739</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0252309</v>
+        <v>0.0240163</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0370256</v>
+        <v>0.037452</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0343401</v>
+        <v>0.0341703</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0252307</v>
+        <v>0.0244639</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0427214</v>
+        <v>0.043074</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0429909</v>
+        <v>0.0426886</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0253738</v>
+        <v>0.0240443</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0494935</v>
+        <v>0.0496042</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0534416</v>
+        <v>0.0532219</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0251082</v>
+        <v>0.0245013</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06233</v>
+        <v>0.0622891</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0661593</v>
+        <v>0.0664657</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0283476</v>
+        <v>0.0270113</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0820139</v>
+        <v>0.08187369999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0878158</v>
+        <v>0.0874707</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0390326</v>
+        <v>0.037835</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.10524</v>
+        <v>0.105543</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115703</v>
+        <v>0.115798</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0544929</v>
+        <v>0.0536743</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.14203</v>
+        <v>0.142064</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161655</v>
+        <v>0.161194</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0245513</v>
+        <v>0.0238912</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0324315</v>
+        <v>0.032345</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0294321</v>
+        <v>0.0293529</v>
       </c>
       <c r="D24" t="n">
-        <v>0.025036</v>
+        <v>0.0243049</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0330618</v>
+        <v>0.033087</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0298751</v>
+        <v>0.0297486</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0252484</v>
+        <v>0.0244137</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0335494</v>
+        <v>0.0335767</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0305152</v>
+        <v>0.030539</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0255425</v>
+        <v>0.0246551</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343445</v>
+        <v>0.0343338</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0313736</v>
+        <v>0.0315397</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0260305</v>
+        <v>0.0250798</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0350241</v>
+        <v>0.0350119</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0318262</v>
+        <v>0.0317361</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0262947</v>
+        <v>0.0254397</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0363306</v>
+        <v>0.036345</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0332787</v>
+        <v>0.0331444</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0266579</v>
+        <v>0.0256749</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0384118</v>
+        <v>0.0384515</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0360062</v>
+        <v>0.03601</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0271255</v>
+        <v>0.0260949</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0416144</v>
+        <v>0.0416294</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0405533</v>
+        <v>0.0405923</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0277135</v>
+        <v>0.0265419</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0465522</v>
+        <v>0.0466038</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0473994</v>
+        <v>0.0473379</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0284876</v>
+        <v>0.0274848</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0535279</v>
+        <v>0.0534445</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0556572</v>
+        <v>0.0556969</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0299794</v>
+        <v>0.02869</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0636413</v>
+        <v>0.0637233</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06653240000000001</v>
+        <v>0.0665559</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0354018</v>
+        <v>0.033982</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0771941</v>
+        <v>0.07723430000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0815323</v>
+        <v>0.08166959999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0431914</v>
+        <v>0.0424911</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0978724</v>
+        <v>0.09792380000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.110706</v>
+        <v>0.111217</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0549006</v>
+        <v>0.0543135</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130569</v>
+        <v>0.130647</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153426</v>
+        <v>0.154169</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0256009</v>
+        <v>0.0252228</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0329763</v>
+        <v>0.0331348</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0302207</v>
+        <v>0.0304691</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0260327</v>
+        <v>0.0254222</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.033832</v>
+        <v>0.0340041</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0306543</v>
+        <v>0.0308222</v>
       </c>
       <c r="D39" t="n">
-        <v>0.026201</v>
+        <v>0.0256168</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0345777</v>
+        <v>0.0347183</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0316632</v>
+        <v>0.0317287</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0264975</v>
+        <v>0.0259875</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0355258</v>
+        <v>0.0356779</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0325952</v>
+        <v>0.0325138</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0267288</v>
+        <v>0.0262615</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0365266</v>
+        <v>0.0366872</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0340248</v>
+        <v>0.0341695</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0271018</v>
+        <v>0.0267013</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0378379</v>
+        <v>0.037991</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0358288</v>
+        <v>0.035856</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0276842</v>
+        <v>0.0272772</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.040155</v>
+        <v>0.0402754</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0380832</v>
+        <v>0.0382142</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0285292</v>
+        <v>0.0279817</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0430508</v>
+        <v>0.0431215</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0426056</v>
+        <v>0.0426224</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0294674</v>
+        <v>0.0288583</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0473663</v>
+        <v>0.0474367</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0480934</v>
+        <v>0.0480991</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0309857</v>
+        <v>0.0302832</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0527227</v>
+        <v>0.0528586</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0546447</v>
+        <v>0.0546952</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0335135</v>
+        <v>0.0330226</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0614619</v>
+        <v>0.0616106</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06455470000000001</v>
+        <v>0.0646061</v>
       </c>
       <c r="D48" t="n">
-        <v>0.037779</v>
+        <v>0.0369602</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07402449999999999</v>
+        <v>0.0740856</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0800434</v>
+        <v>0.0803532</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0432578</v>
+        <v>0.0426122</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0922917</v>
+        <v>0.0924181</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102866</v>
+        <v>0.102856</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0519075</v>
+        <v>0.0514298</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.12286</v>
+        <v>0.123083</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141065</v>
+        <v>0.140322</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0277263</v>
+        <v>0.0268537</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16594</v>
+        <v>0.165907</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188088</v>
+        <v>0.18923</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0278989</v>
+        <v>0.0271946</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.035804</v>
+        <v>0.0360572</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0317625</v>
+        <v>0.0317468</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0280535</v>
+        <v>0.0272931</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0363909</v>
+        <v>0.0366994</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0325911</v>
+        <v>0.0326179</v>
       </c>
       <c r="D54" t="n">
-        <v>0.028412</v>
+        <v>0.0278396</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0372405</v>
+        <v>0.0375159</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0337141</v>
+        <v>0.0337779</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0288185</v>
+        <v>0.0281014</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0384304</v>
+        <v>0.0386706</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0351376</v>
+        <v>0.0351577</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0292889</v>
+        <v>0.0286033</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0398737</v>
+        <v>0.0401185</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0370014</v>
+        <v>0.0370223</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0298598</v>
+        <v>0.0292448</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0416929</v>
+        <v>0.041919</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0394244</v>
+        <v>0.0393909</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0308197</v>
+        <v>0.0299278</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0442029</v>
+        <v>0.0444365</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0422819</v>
+        <v>0.0421821</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0318014</v>
+        <v>0.0309901</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0478839</v>
+        <v>0.0480962</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0466458</v>
+        <v>0.0466732</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0331194</v>
+        <v>0.0322836</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0531478</v>
+        <v>0.0533869</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0533926</v>
+        <v>0.0533762</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0350971</v>
+        <v>0.0342871</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0608238</v>
+        <v>0.0609917</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0626591</v>
+        <v>0.0626545</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0381896</v>
+        <v>0.0372701</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0723089</v>
+        <v>0.0724606</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0764759</v>
+        <v>0.0764161</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0431603</v>
+        <v>0.0422927</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09008190000000001</v>
+        <v>0.0903144</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0968929</v>
+        <v>0.09678970000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0512109</v>
+        <v>0.0504033</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115997</v>
+        <v>0.116229</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131095</v>
+        <v>0.131066</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0653131</v>
+        <v>0.0646615</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157108</v>
+        <v>0.157314</v>
       </c>
       <c r="C66" t="n">
-        <v>0.178842</v>
+        <v>0.17899</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0313714</v>
+        <v>0.0321955</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0409157</v>
+        <v>0.0407446</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0350396</v>
+        <v>0.036572</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0316835</v>
+        <v>0.0325159</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0416334</v>
+        <v>0.0414756</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0359522</v>
+        <v>0.0374243</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0321075</v>
+        <v>0.0328834</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0424859</v>
+        <v>0.0423136</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0371643</v>
+        <v>0.038677</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0325913</v>
+        <v>0.0333889</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0434117</v>
+        <v>0.0432011</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0385309</v>
+        <v>0.0401485</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0330758</v>
+        <v>0.0338843</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447315</v>
+        <v>0.0445011</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0401029</v>
+        <v>0.0417153</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0335956</v>
+        <v>0.0343653</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0464202</v>
+        <v>0.0462745</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0419211</v>
+        <v>0.0435867</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0342946</v>
+        <v>0.0350548</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.048689</v>
+        <v>0.0485306</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0445926</v>
+        <v>0.0463843</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0351319</v>
+        <v>0.0359511</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0517178</v>
+        <v>0.0515319</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0485344</v>
+        <v>0.0504154</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0363668</v>
+        <v>0.0372367</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0563387</v>
+        <v>0.0562489</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0545488</v>
+        <v>0.0565078</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0382057</v>
+        <v>0.0390516</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0630542</v>
+        <v>0.0631181</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0630288</v>
+        <v>0.06512220000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0407667</v>
+        <v>0.0415541</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0731754</v>
+        <v>0.073364</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07564</v>
+        <v>0.07767110000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0448304</v>
+        <v>0.0457601</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0881237</v>
+        <v>0.0889552</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0934154</v>
+        <v>0.09553680000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0514161</v>
+        <v>0.0526836</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113106</v>
+        <v>0.113183</v>
       </c>
       <c r="C79" t="n">
-        <v>0.122547</v>
+        <v>0.124761</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0633422</v>
+        <v>0.0648228</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151877</v>
+        <v>0.151684</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1671</v>
+        <v>0.169704</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0369781</v>
+        <v>0.0365309</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0470607</v>
+        <v>0.0472401</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0434752</v>
+        <v>0.043971</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0374784</v>
+        <v>0.0368958</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0481062</v>
+        <v>0.0482382</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0455565</v>
+        <v>0.0459388</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0381024</v>
+        <v>0.037415</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0496149</v>
+        <v>0.0499563</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0480288</v>
+        <v>0.0481734</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0391007</v>
+        <v>0.038214</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0515819</v>
+        <v>0.0516789</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0509712</v>
+        <v>0.0509162</v>
       </c>
       <c r="D84" t="n">
-        <v>0.039723</v>
+        <v>0.0390738</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0542781</v>
+        <v>0.054154</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0542776</v>
+        <v>0.0540732</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0408606</v>
+        <v>0.040113</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0573563</v>
+        <v>0.057577</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0577919</v>
+        <v>0.0577407</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0422674</v>
+        <v>0.0415282</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0614389</v>
+        <v>0.061587</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0621885</v>
+        <v>0.0619241</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0443346</v>
+        <v>0.0432809</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0664286</v>
+        <v>0.0666016</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0681879</v>
+        <v>0.0679015</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0467787</v>
+        <v>0.0456687</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.072792</v>
+        <v>0.07311230000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07519389999999999</v>
+        <v>0.0753361</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0499086</v>
+        <v>0.048648</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0812322</v>
+        <v>0.0816766</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0851165</v>
+        <v>0.0852816</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0541866</v>
+        <v>0.0526861</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0924796</v>
+        <v>0.0927152</v>
       </c>
       <c r="C91" t="n">
-        <v>0.09738140000000001</v>
+        <v>0.0974421</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0597487</v>
+        <v>0.0579764</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107603</v>
+        <v>0.10771</v>
       </c>
       <c r="C92" t="n">
-        <v>0.11415</v>
+        <v>0.114559</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0680514</v>
+        <v>0.06598030000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129384</v>
+        <v>0.129593</v>
       </c>
       <c r="C93" t="n">
-        <v>0.139922</v>
+        <v>0.140132</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0810157</v>
+        <v>0.07871019999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16262</v>
+        <v>0.162548</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179455</v>
+        <v>0.179571</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0476165</v>
+        <v>0.0460532</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0664312</v>
+        <v>0.0662764</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0633553</v>
+        <v>0.0633765</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0487961</v>
+        <v>0.0475987</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0687878</v>
+        <v>0.069119</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0656144</v>
+        <v>0.0663609</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0508273</v>
+        <v>0.0496547</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07164570000000001</v>
+        <v>0.0717159</v>
       </c>
       <c r="C97" t="n">
-        <v>0.06862600000000001</v>
+        <v>0.06891799999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0525078</v>
+        <v>0.0508354</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0746856</v>
+        <v>0.07494679999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07218289999999999</v>
+        <v>0.07226050000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0539435</v>
+        <v>0.0526459</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07776420000000001</v>
+        <v>0.0776511</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07552929999999999</v>
+        <v>0.0754758</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0557675</v>
+        <v>0.0544657</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0810225</v>
+        <v>0.08072600000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0799072</v>
+        <v>0.0798445</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0576127</v>
+        <v>0.0563429</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0837429</v>
+        <v>0.084355</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0846813</v>
+        <v>0.08465830000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0603313</v>
+        <v>0.0583076</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0891232</v>
+        <v>0.0888757</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0898883</v>
+        <v>0.09004959999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0626973</v>
+        <v>0.0607038</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0948793</v>
+        <v>0.0949728</v>
       </c>
       <c r="C103" t="n">
-        <v>0.09484049999999999</v>
+        <v>0.09678050000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0656069</v>
+        <v>0.0629666</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102744</v>
+        <v>0.10224</v>
       </c>
       <c r="C104" t="n">
-        <v>0.103993</v>
+        <v>0.106225</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0698849</v>
+        <v>0.0670124</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11314</v>
+        <v>0.112739</v>
       </c>
       <c r="C105" t="n">
-        <v>0.118044</v>
+        <v>0.117758</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0745783</v>
+        <v>0.0719405</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128027</v>
+        <v>0.127815</v>
       </c>
       <c r="C106" t="n">
-        <v>0.131328</v>
+        <v>0.133821</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0827502</v>
+        <v>0.0791911</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149347</v>
+        <v>0.148661</v>
       </c>
       <c r="C107" t="n">
-        <v>0.157832</v>
+        <v>0.157566</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0942697</v>
+        <v>0.0908013</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179089</v>
+        <v>0.178603</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195363</v>
+        <v>0.194971</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0553014</v>
+        <v>0.0537978</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225702</v>
+        <v>0.225148</v>
       </c>
       <c r="C109" t="n">
-        <v>0.251711</v>
+        <v>0.255966</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0565207</v>
+        <v>0.0548414</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0795158</v>
+        <v>0.08029070000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08206720000000001</v>
+        <v>0.0818784</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0576643</v>
+        <v>0.0559478</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08319840000000001</v>
+        <v>0.0834688</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0847344</v>
+        <v>0.0844593</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0591184</v>
+        <v>0.0571662</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.08700720000000001</v>
+        <v>0.08690100000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0875326</v>
+        <v>0.0874074</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0605053</v>
+        <v>0.0589552</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0898998</v>
+        <v>0.0916748</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0906245</v>
+        <v>0.0908615</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0623675</v>
+        <v>0.0615169</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0944892</v>
+        <v>0.0970376</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0946217</v>
+        <v>0.09483229999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.06493359999999999</v>
+        <v>0.0644098</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100617</v>
+        <v>0.103472</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0983228</v>
+        <v>0.099215</v>
       </c>
       <c r="D115" t="n">
-        <v>0.06755319999999999</v>
+        <v>0.0682738</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106808</v>
+        <v>0.109115</v>
       </c>
       <c r="C116" t="n">
-        <v>0.104127</v>
+        <v>0.105006</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07101109999999999</v>
+        <v>0.072107</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113504</v>
+        <v>0.115479</v>
       </c>
       <c r="C117" t="n">
-        <v>0.11109</v>
+        <v>0.112105</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0751338</v>
+        <v>0.0763084</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121297</v>
+        <v>0.122809</v>
       </c>
       <c r="C118" t="n">
-        <v>0.120054</v>
+        <v>0.120425</v>
       </c>
       <c r="D118" t="n">
-        <v>0.08047120000000001</v>
+        <v>0.08126990000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.129579</v>
+        <v>0.13258</v>
       </c>
       <c r="C119" t="n">
-        <v>0.130503</v>
+        <v>0.132018</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0864463</v>
+        <v>0.0865253</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144688</v>
+        <v>0.145689</v>
       </c>
       <c r="C120" t="n">
-        <v>0.145619</v>
+        <v>0.147258</v>
       </c>
       <c r="D120" t="n">
-        <v>0.095459</v>
+        <v>0.093997</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163015</v>
+        <v>0.163419</v>
       </c>
       <c r="C121" t="n">
-        <v>0.166913</v>
+        <v>0.168535</v>
       </c>
       <c r="D121" t="n">
-        <v>0.10665</v>
+        <v>0.104669</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189258</v>
+        <v>0.189541</v>
       </c>
       <c r="C122" t="n">
-        <v>0.201749</v>
+        <v>0.20193</v>
       </c>
       <c r="D122" t="n">
-        <v>0.124439</v>
+        <v>0.122468</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.229284</v>
+        <v>0.2294</v>
       </c>
       <c r="C123" t="n">
-        <v>0.256714</v>
+        <v>0.256794</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0748887</v>
+        <v>0.0748248</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102735</v>
+        <v>0.103068</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0994452</v>
+        <v>0.09822160000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0789055</v>
+        <v>0.0759095</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.108172</v>
+        <v>0.106906</v>
       </c>
       <c r="C125" t="n">
-        <v>0.101745</v>
+        <v>0.102143</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0797016</v>
+        <v>0.0785928</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.106349</v>
+        <v>0.108099</v>
       </c>
       <c r="C126" t="n">
-        <v>0.107282</v>
+        <v>0.104329</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0852658</v>
+        <v>0.0792699</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111329</v>
+        <v>0.110851</v>
       </c>
       <c r="C127" t="n">
-        <v>0.108607</v>
+        <v>0.10813</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0838961</v>
+        <v>0.081875</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.115079</v>
+        <v>0.112349</v>
       </c>
       <c r="C128" t="n">
-        <v>0.113159</v>
+        <v>0.111629</v>
       </c>
       <c r="D128" t="n">
-        <v>0.08770559999999999</v>
+        <v>0.08456</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.119299</v>
+        <v>0.118695</v>
       </c>
       <c r="C129" t="n">
-        <v>0.116248</v>
+        <v>0.116017</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0884408</v>
+        <v>0.0866807</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120848</v>
+        <v>0.120964</v>
       </c>
       <c r="C130" t="n">
-        <v>0.123552</v>
+        <v>0.120727</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0943821</v>
+        <v>0.088403</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.129409</v>
+        <v>0.127783</v>
       </c>
       <c r="C131" t="n">
-        <v>0.127225</v>
+        <v>0.126269</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0929185</v>
+        <v>0.0909759</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.131369</v>
+        <v>0.133814</v>
       </c>
       <c r="C132" t="n">
-        <v>0.137616</v>
+        <v>0.134862</v>
       </c>
       <c r="D132" t="n">
-        <v>0.100628</v>
+        <v>0.0949009</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.145095</v>
+        <v>0.142625</v>
       </c>
       <c r="C133" t="n">
-        <v>0.144566</v>
+        <v>0.145177</v>
       </c>
       <c r="D133" t="n">
-        <v>0.100983</v>
+        <v>0.0992929</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153512</v>
+        <v>0.153652</v>
       </c>
       <c r="C134" t="n">
-        <v>0.160993</v>
+        <v>0.159686</v>
       </c>
       <c r="D134" t="n">
-        <v>0.110562</v>
+        <v>0.105833</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.17271</v>
+        <v>0.169846</v>
       </c>
       <c r="C135" t="n">
-        <v>0.178692</v>
+        <v>0.180721</v>
       </c>
       <c r="D135" t="n">
-        <v>0.117591</v>
+        <v>0.117124</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1946</v>
+        <v>0.194855</v>
       </c>
       <c r="C136" t="n">
-        <v>0.209837</v>
+        <v>0.210481</v>
       </c>
       <c r="D136" t="n">
-        <v>0.133818</v>
+        <v>0.13056</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.234011</v>
+        <v>0.232953</v>
       </c>
       <c r="C137" t="n">
-        <v>0.259725</v>
+        <v>0.259532</v>
       </c>
       <c r="D137" t="n">
-        <v>0.140983</v>
+        <v>0.139673</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.171013</v>
+        <v>0.169944</v>
       </c>
       <c r="C138" t="n">
-        <v>0.155875</v>
+        <v>0.155077</v>
       </c>
       <c r="D138" t="n">
-        <v>0.142926</v>
+        <v>0.140439</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.17248</v>
+        <v>0.17171</v>
       </c>
       <c r="C139" t="n">
-        <v>0.158414</v>
+        <v>0.157673</v>
       </c>
       <c r="D139" t="n">
-        <v>0.14441</v>
+        <v>0.142156</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.173171</v>
+        <v>0.172925</v>
       </c>
       <c r="C140" t="n">
-        <v>0.160719</v>
+        <v>0.159784</v>
       </c>
       <c r="D140" t="n">
-        <v>0.14529</v>
+        <v>0.142614</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.179008</v>
+        <v>0.175053</v>
       </c>
       <c r="C141" t="n">
-        <v>0.16356</v>
+        <v>0.162128</v>
       </c>
       <c r="D141" t="n">
-        <v>0.147163</v>
+        <v>0.143847</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.178417</v>
+        <v>0.177386</v>
       </c>
       <c r="C142" t="n">
-        <v>0.166435</v>
+        <v>0.165943</v>
       </c>
       <c r="D142" t="n">
-        <v>0.148018</v>
+        <v>0.146186</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.179704</v>
+        <v>0.179632</v>
       </c>
       <c r="C143" t="n">
-        <v>0.169918</v>
+        <v>0.168849</v>
       </c>
       <c r="D143" t="n">
-        <v>0.149753</v>
+        <v>0.146999</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0316048</v>
+        <v>0.0317669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0235079</v>
+        <v>0.0237096</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0229422</v>
+        <v>0.0230675</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0337409</v>
+        <v>0.0336165</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0226362</v>
+        <v>0.0234939</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0231177</v>
+        <v>0.0234307</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0357257</v>
+        <v>0.0358509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0264933</v>
+        <v>0.0266635</v>
       </c>
       <c r="D4" t="n">
-        <v>0.023121</v>
+        <v>0.0221635</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0415381</v>
+        <v>0.0414072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.039147</v>
+        <v>0.0389254</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0212565</v>
+        <v>0.0218523</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0542402</v>
+        <v>0.0545474</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0598748</v>
+        <v>0.0593793</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0232009</v>
+        <v>0.0229676</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07750079999999999</v>
+        <v>0.0774111</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08498749999999999</v>
+        <v>0.085423</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0276987</v>
+        <v>0.0272594</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.110375</v>
+        <v>0.110578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.115716</v>
+        <v>0.115751</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0460637</v>
+        <v>0.045093</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145552</v>
+        <v>0.145997</v>
       </c>
       <c r="C9" t="n">
-        <v>0.163882</v>
+        <v>0.164277</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0228608</v>
+        <v>0.0790593</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0307015</v>
+        <v>0.0303954</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0279499</v>
+        <v>0.0277823</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0230031</v>
+        <v>0.0225475</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0309615</v>
+        <v>0.0307414</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0286053</v>
+        <v>0.0285266</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0234553</v>
+        <v>0.0237408</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0315857</v>
+        <v>0.0313884</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0290607</v>
+        <v>0.0291971</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0237778</v>
+        <v>0.0237825</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0318838</v>
+        <v>0.0318395</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0292433</v>
+        <v>0.0296169</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0237001</v>
+        <v>0.0242902</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0327842</v>
+        <v>0.0328316</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0285209</v>
+        <v>0.0286424</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0239084</v>
+        <v>0.0240276</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0337675</v>
+        <v>0.033708</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0294134</v>
+        <v>0.0293234</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0241056</v>
+        <v>0.0244035</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0349803</v>
+        <v>0.03488</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0312739</v>
+        <v>0.0310929</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0240163</v>
+        <v>0.0241701</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.037452</v>
+        <v>0.0374063</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0341703</v>
+        <v>0.0341239</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0244639</v>
+        <v>0.024672</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.043074</v>
+        <v>0.0429683</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0426886</v>
+        <v>0.0428806</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0240443</v>
+        <v>0.0244015</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0496042</v>
+        <v>0.0497979</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0532219</v>
+        <v>0.0532797</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0245013</v>
+        <v>0.0247553</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0622891</v>
+        <v>0.0623985</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0664657</v>
+        <v>0.0662089</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0270113</v>
+        <v>0.0272431</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08187369999999999</v>
+        <v>0.0819694</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0874707</v>
+        <v>0.0874079</v>
       </c>
       <c r="D21" t="n">
-        <v>0.037835</v>
+        <v>0.0380763</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.105543</v>
+        <v>0.1052</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115798</v>
+        <v>0.115631</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0536743</v>
+        <v>0.0529977</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.142064</v>
+        <v>0.142094</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161194</v>
+        <v>0.160916</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0238912</v>
+        <v>0.0794305</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.032345</v>
+        <v>0.0323473</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0293529</v>
+        <v>0.0292858</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0243049</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.033087</v>
+        <v>0.0329992</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0297486</v>
+        <v>0.0298939</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0244137</v>
+        <v>0.0253154</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0335767</v>
+        <v>0.0335</v>
       </c>
       <c r="C26" t="n">
-        <v>0.030539</v>
+        <v>0.0305475</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0246551</v>
+        <v>0.0257345</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343338</v>
+        <v>0.0343262</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0315397</v>
+        <v>0.0314079</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0250798</v>
+        <v>0.0262617</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0350119</v>
+        <v>0.0349549</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0317361</v>
+        <v>0.0320829</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0254397</v>
+        <v>0.02642</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.036345</v>
+        <v>0.0363096</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0331444</v>
+        <v>0.0333432</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0256749</v>
+        <v>0.0265993</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0384515</v>
+        <v>0.0384706</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03601</v>
+        <v>0.0361793</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0260949</v>
+        <v>0.0267852</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0416294</v>
+        <v>0.0416609</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0405923</v>
+        <v>0.0406505</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0265419</v>
+        <v>0.0274903</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0466038</v>
+        <v>0.0465769</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0473379</v>
+        <v>0.0474248</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0274848</v>
+        <v>0.0281861</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0534445</v>
+        <v>0.053436</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0556969</v>
+        <v>0.0556059</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02869</v>
+        <v>0.030014</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0637233</v>
+        <v>0.0637567</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0665559</v>
+        <v>0.0665738</v>
       </c>
       <c r="D34" t="n">
-        <v>0.033982</v>
+        <v>0.0345971</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07723430000000001</v>
+        <v>0.07724350000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08166959999999999</v>
+        <v>0.081471</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0424911</v>
+        <v>0.0424647</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09792380000000001</v>
+        <v>0.0980164</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111217</v>
+        <v>0.110616</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0543135</v>
+        <v>0.0539913</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130647</v>
+        <v>0.130655</v>
       </c>
       <c r="C37" t="n">
-        <v>0.154169</v>
+        <v>0.153027</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0252228</v>
+        <v>0.073883</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0331348</v>
+        <v>0.0333314</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0304691</v>
+        <v>0.0302998</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0254222</v>
+        <v>0.0258678</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0340041</v>
+        <v>0.0339644</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0308222</v>
+        <v>0.0306628</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0256168</v>
+        <v>0.02624</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0347183</v>
+        <v>0.034754</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0317287</v>
+        <v>0.0316678</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0259875</v>
+        <v>0.0266347</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0356779</v>
+        <v>0.0357054</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0325138</v>
+        <v>0.0326143</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0262615</v>
+        <v>0.0269152</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0366872</v>
+        <v>0.0366652</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0341695</v>
+        <v>0.0340801</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0267013</v>
+        <v>0.0274151</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.037991</v>
+        <v>0.0379906</v>
       </c>
       <c r="C43" t="n">
-        <v>0.035856</v>
+        <v>0.035879</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0272772</v>
+        <v>0.0281791</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0402754</v>
+        <v>0.0402286</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0382142</v>
+        <v>0.0381501</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0279817</v>
+        <v>0.028846</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0431215</v>
+        <v>0.0430889</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0426224</v>
+        <v>0.042628</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0288583</v>
+        <v>0.0296605</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0474367</v>
+        <v>0.0473914</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0480991</v>
+        <v>0.0481491</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0302832</v>
+        <v>0.0310056</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0528586</v>
+        <v>0.0528102</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0546952</v>
+        <v>0.0546812</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0330226</v>
+        <v>0.0331755</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0616106</v>
+        <v>0.0615175</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0646061</v>
+        <v>0.06458410000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0369602</v>
+        <v>0.0370733</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0740856</v>
+        <v>0.074019</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0803532</v>
+        <v>0.0803363</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0426122</v>
+        <v>0.0425636</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0924181</v>
+        <v>0.0923495</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102856</v>
+        <v>0.10279</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0514298</v>
+        <v>0.051246</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.123083</v>
+        <v>0.122971</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140322</v>
+        <v>0.140844</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0268537</v>
+        <v>0.0674645</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165907</v>
+        <v>0.165825</v>
       </c>
       <c r="C52" t="n">
-        <v>0.18923</v>
+        <v>0.188119</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0271946</v>
+        <v>0.0985883</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0360572</v>
+        <v>0.0356417</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0317468</v>
+        <v>0.0321878</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0272931</v>
+        <v>0.028402</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0366994</v>
+        <v>0.0363139</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0326179</v>
+        <v>0.0329787</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0278396</v>
+        <v>0.0289413</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0375159</v>
+        <v>0.037181</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0337779</v>
+        <v>0.0341364</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0281014</v>
+        <v>0.0293237</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0386706</v>
+        <v>0.0383573</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0351577</v>
+        <v>0.0354439</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0286033</v>
+        <v>0.0297321</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0401185</v>
+        <v>0.0398234</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0370223</v>
+        <v>0.0372808</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0292448</v>
+        <v>0.0302601</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.041919</v>
+        <v>0.0416713</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0393909</v>
+        <v>0.0397281</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0299278</v>
+        <v>0.0309339</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0444365</v>
+        <v>0.0441901</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0421821</v>
+        <v>0.0425905</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0309901</v>
+        <v>0.0316775</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0480962</v>
+        <v>0.0478852</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0466732</v>
+        <v>0.0469254</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0322836</v>
+        <v>0.0328233</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0533869</v>
+        <v>0.0531501</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0533762</v>
+        <v>0.0536389</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0342871</v>
+        <v>0.0348006</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0609917</v>
+        <v>0.0608087</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0626545</v>
+        <v>0.06286799999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0372701</v>
+        <v>0.0377963</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0724606</v>
+        <v>0.0723203</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0764161</v>
+        <v>0.0766212</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0422927</v>
+        <v>0.0427567</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0903144</v>
+        <v>0.0901676</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09678970000000001</v>
+        <v>0.0970381</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0504033</v>
+        <v>0.0507209</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116229</v>
+        <v>0.116062</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131066</v>
+        <v>0.131218</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0646615</v>
+        <v>0.06475359999999999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157314</v>
+        <v>0.157105</v>
       </c>
       <c r="C66" t="n">
-        <v>0.17899</v>
+        <v>0.179269</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0321955</v>
+        <v>0.0913349</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0407446</v>
+        <v>0.0410346</v>
       </c>
       <c r="C67" t="n">
-        <v>0.036572</v>
+        <v>0.0364945</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0325159</v>
+        <v>0.0332149</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0414756</v>
+        <v>0.0417761</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0374243</v>
+        <v>0.0375776</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0328834</v>
+        <v>0.0337056</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0423136</v>
+        <v>0.0426078</v>
       </c>
       <c r="C69" t="n">
-        <v>0.038677</v>
+        <v>0.0387392</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0333889</v>
+        <v>0.0342107</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0432011</v>
+        <v>0.0434877</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0401485</v>
+        <v>0.04013</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0338843</v>
+        <v>0.0346317</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0445011</v>
+        <v>0.0447542</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0417153</v>
+        <v>0.0417303</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0343653</v>
+        <v>0.0351521</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0462745</v>
+        <v>0.0465775</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0435867</v>
+        <v>0.043712</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0350548</v>
+        <v>0.0358314</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0485306</v>
+        <v>0.0488903</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0463843</v>
+        <v>0.0466659</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0359511</v>
+        <v>0.0367121</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0515319</v>
+        <v>0.0520792</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0504154</v>
+        <v>0.0507977</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0372367</v>
+        <v>0.0377505</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0562489</v>
+        <v>0.0569237</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0565078</v>
+        <v>0.057026</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0390516</v>
+        <v>0.0395409</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0631181</v>
+        <v>0.0636979</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06512220000000001</v>
+        <v>0.0656702</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0415541</v>
+        <v>0.0420628</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.073364</v>
+        <v>0.0737005</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07767110000000001</v>
+        <v>0.0783811</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0457601</v>
+        <v>0.0461652</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0889552</v>
+        <v>0.0887944</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09553680000000001</v>
+        <v>0.0961245</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0526836</v>
+        <v>0.0529189</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113183</v>
+        <v>0.113781</v>
       </c>
       <c r="C79" t="n">
-        <v>0.124761</v>
+        <v>0.125192</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0648228</v>
+        <v>0.0648773</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151684</v>
+        <v>0.152564</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169704</v>
+        <v>0.170104</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0365309</v>
+        <v>0.0871585</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0472401</v>
+        <v>0.0478257</v>
       </c>
       <c r="C81" t="n">
-        <v>0.043971</v>
+        <v>0.0447495</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0368958</v>
+        <v>0.0382104</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0482382</v>
+        <v>0.0490159</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0459388</v>
+        <v>0.0464167</v>
       </c>
       <c r="D82" t="n">
-        <v>0.037415</v>
+        <v>0.0387539</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0499563</v>
+        <v>0.0504297</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0481734</v>
+        <v>0.0487716</v>
       </c>
       <c r="D83" t="n">
-        <v>0.038214</v>
+        <v>0.039804</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0516789</v>
+        <v>0.0519369</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0509162</v>
+        <v>0.0517379</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0390738</v>
+        <v>0.0408393</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.054154</v>
+        <v>0.054983</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0540732</v>
+        <v>0.0550953</v>
       </c>
       <c r="D85" t="n">
-        <v>0.040113</v>
+        <v>0.0418819</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.057577</v>
+        <v>0.0580412</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0577407</v>
+        <v>0.0584274</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0415282</v>
+        <v>0.0432849</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.061587</v>
+        <v>0.0619088</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0619241</v>
+        <v>0.062955</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0432809</v>
+        <v>0.0453376</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0666016</v>
+        <v>0.0670278</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0679015</v>
+        <v>0.0687608</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0456687</v>
+        <v>0.0477038</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07311230000000001</v>
+        <v>0.0731554</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0753361</v>
+        <v>0.0756255</v>
       </c>
       <c r="D89" t="n">
-        <v>0.048648</v>
+        <v>0.0499896</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0816766</v>
+        <v>0.081881</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0852816</v>
+        <v>0.0858783</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0526861</v>
+        <v>0.0541334</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0927152</v>
+        <v>0.09349209999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0974421</v>
+        <v>0.0981108</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0579764</v>
+        <v>0.0589522</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.10771</v>
+        <v>0.107805</v>
       </c>
       <c r="C92" t="n">
-        <v>0.114559</v>
+        <v>0.11488</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06598030000000001</v>
+        <v>0.0667717</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129593</v>
+        <v>0.129849</v>
       </c>
       <c r="C93" t="n">
-        <v>0.140132</v>
+        <v>0.140184</v>
       </c>
       <c r="D93" t="n">
-        <v>0.07871019999999999</v>
+        <v>0.0792025</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.162548</v>
+        <v>0.16241</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179571</v>
+        <v>0.179826</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0460532</v>
+        <v>0.100184</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0662764</v>
+        <v>0.0666535</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0633765</v>
+        <v>0.0633787</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0475987</v>
+        <v>0.0492636</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.069119</v>
+        <v>0.0699142</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0663609</v>
+        <v>0.0656475</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0496547</v>
+        <v>0.050518</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0717159</v>
+        <v>0.07180839999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.06891799999999999</v>
+        <v>0.0688995</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0508354</v>
+        <v>0.0519256</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07494679999999999</v>
+        <v>0.07447620000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07226050000000001</v>
+        <v>0.0722747</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0526459</v>
+        <v>0.0538276</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0776511</v>
+        <v>0.0775667</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0754758</v>
+        <v>0.0758099</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0544657</v>
+        <v>0.0555426</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08072600000000001</v>
+        <v>0.0807402</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0798445</v>
+        <v>0.0798941</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0563429</v>
+        <v>0.0573789</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.084355</v>
+        <v>0.08425820000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.08465830000000001</v>
+        <v>0.0847342</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0583076</v>
+        <v>0.0592318</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0888757</v>
+        <v>0.08884110000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.09004959999999999</v>
+        <v>0.09005580000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0607038</v>
+        <v>0.0614649</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0949728</v>
+        <v>0.0945762</v>
       </c>
       <c r="C103" t="n">
-        <v>0.09678050000000001</v>
+        <v>0.0968378</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0629666</v>
+        <v>0.0643625</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.10224</v>
+        <v>0.102465</v>
       </c>
       <c r="C104" t="n">
-        <v>0.106225</v>
+        <v>0.106417</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0670124</v>
+        <v>0.0683923</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.112739</v>
+        <v>0.113315</v>
       </c>
       <c r="C105" t="n">
-        <v>0.117758</v>
+        <v>0.117852</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0719405</v>
+        <v>0.0730953</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.127815</v>
+        <v>0.127664</v>
       </c>
       <c r="C106" t="n">
-        <v>0.133821</v>
+        <v>0.133902</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0791911</v>
+        <v>0.0806428</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.148661</v>
+        <v>0.14875</v>
       </c>
       <c r="C107" t="n">
-        <v>0.157566</v>
+        <v>0.157341</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0908013</v>
+        <v>0.0916917</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.178603</v>
+        <v>0.178713</v>
       </c>
       <c r="C108" t="n">
-        <v>0.194971</v>
+        <v>0.195125</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0537978</v>
+        <v>0.111026</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225148</v>
+        <v>0.225988</v>
       </c>
       <c r="C109" t="n">
-        <v>0.255966</v>
+        <v>0.25594</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0548414</v>
+        <v>0.150273</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08029070000000001</v>
+        <v>0.080253</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0818784</v>
+        <v>0.0818348</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0559478</v>
+        <v>0.058223</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0834688</v>
+        <v>0.0829534</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0844593</v>
+        <v>0.0844602</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0571662</v>
+        <v>0.0601015</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.08690100000000001</v>
+        <v>0.085967</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0874074</v>
+        <v>0.0874619</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0589552</v>
+        <v>0.0620877</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0916748</v>
+        <v>0.0899706</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0908615</v>
+        <v>0.0904884</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0615169</v>
+        <v>0.0641916</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0970376</v>
+        <v>0.09478930000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09483229999999999</v>
+        <v>0.0940737</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0644098</v>
+        <v>0.0662238</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.103472</v>
+        <v>0.100843</v>
       </c>
       <c r="C115" t="n">
-        <v>0.099215</v>
+        <v>0.0988409</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0682738</v>
+        <v>0.0689654</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.109115</v>
+        <v>0.106967</v>
       </c>
       <c r="C116" t="n">
-        <v>0.105006</v>
+        <v>0.104542</v>
       </c>
       <c r="D116" t="n">
-        <v>0.072107</v>
+        <v>0.0716338</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.115479</v>
+        <v>0.114165</v>
       </c>
       <c r="C117" t="n">
-        <v>0.112105</v>
+        <v>0.111521</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0763084</v>
+        <v>0.0747741</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.122809</v>
+        <v>0.122263</v>
       </c>
       <c r="C118" t="n">
-        <v>0.120425</v>
+        <v>0.120659</v>
       </c>
       <c r="D118" t="n">
-        <v>0.08126990000000001</v>
+        <v>0.0790038</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.13258</v>
+        <v>0.131862</v>
       </c>
       <c r="C119" t="n">
-        <v>0.132018</v>
+        <v>0.131691</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0865253</v>
+        <v>0.0841592</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145689</v>
+        <v>0.145072</v>
       </c>
       <c r="C120" t="n">
-        <v>0.147258</v>
+        <v>0.146326</v>
       </c>
       <c r="D120" t="n">
-        <v>0.093997</v>
+        <v>0.09240900000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163419</v>
+        <v>0.163112</v>
       </c>
       <c r="C121" t="n">
-        <v>0.168535</v>
+        <v>0.167698</v>
       </c>
       <c r="D121" t="n">
-        <v>0.104669</v>
+        <v>0.10406</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189541</v>
+        <v>0.189326</v>
       </c>
       <c r="C122" t="n">
-        <v>0.20193</v>
+        <v>0.20195</v>
       </c>
       <c r="D122" t="n">
-        <v>0.122468</v>
+        <v>0.12207</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2294</v>
+        <v>0.229335</v>
       </c>
       <c r="C123" t="n">
         <v>0.256794</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0748248</v>
+        <v>0.156448</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103068</v>
+        <v>0.102386</v>
       </c>
       <c r="C124" t="n">
-        <v>0.09822160000000001</v>
+        <v>0.0990086</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0759095</v>
+        <v>0.0777505</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.106906</v>
+        <v>0.108057</v>
       </c>
       <c r="C125" t="n">
-        <v>0.102143</v>
+        <v>0.103141</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0785928</v>
+        <v>0.08037809999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108099</v>
+        <v>0.10766</v>
       </c>
       <c r="C126" t="n">
-        <v>0.104329</v>
+        <v>0.105049</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0792699</v>
+        <v>0.0811079</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110851</v>
+        <v>0.109766</v>
       </c>
       <c r="C127" t="n">
-        <v>0.10813</v>
+        <v>0.109115</v>
       </c>
       <c r="D127" t="n">
-        <v>0.081875</v>
+        <v>0.08389240000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.112349</v>
+        <v>0.112709</v>
       </c>
       <c r="C128" t="n">
-        <v>0.111629</v>
+        <v>0.111569</v>
       </c>
       <c r="D128" t="n">
-        <v>0.08456</v>
+        <v>0.0844509</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118695</v>
+        <v>0.116999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.116017</v>
+        <v>0.115388</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0866807</v>
+        <v>0.0866021</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.120964</v>
+        <v>0.122752</v>
       </c>
       <c r="C130" t="n">
-        <v>0.120727</v>
+        <v>0.120947</v>
       </c>
       <c r="D130" t="n">
-        <v>0.088403</v>
+        <v>0.0890032</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127783</v>
+        <v>0.126171</v>
       </c>
       <c r="C131" t="n">
-        <v>0.126269</v>
+        <v>0.128073</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0909759</v>
+        <v>0.0925969</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133814</v>
+        <v>0.132472</v>
       </c>
       <c r="C132" t="n">
-        <v>0.134862</v>
+        <v>0.136133</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0949009</v>
+        <v>0.0962876</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142625</v>
+        <v>0.142082</v>
       </c>
       <c r="C133" t="n">
-        <v>0.145177</v>
+        <v>0.145888</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0992929</v>
+        <v>0.100176</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153652</v>
+        <v>0.155101</v>
       </c>
       <c r="C134" t="n">
-        <v>0.159686</v>
+        <v>0.15941</v>
       </c>
       <c r="D134" t="n">
-        <v>0.105833</v>
+        <v>0.10565</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.169846</v>
+        <v>0.17061</v>
       </c>
       <c r="C135" t="n">
-        <v>0.180721</v>
+        <v>0.179745</v>
       </c>
       <c r="D135" t="n">
-        <v>0.117124</v>
+        <v>0.115248</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194855</v>
+        <v>0.195484</v>
       </c>
       <c r="C136" t="n">
-        <v>0.210481</v>
+        <v>0.209899</v>
       </c>
       <c r="D136" t="n">
-        <v>0.13056</v>
+        <v>0.129528</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232953</v>
+        <v>0.232446</v>
       </c>
       <c r="C137" t="n">
-        <v>0.259532</v>
+        <v>0.259528</v>
       </c>
       <c r="D137" t="n">
-        <v>0.139673</v>
+        <v>0.157844</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.169944</v>
+        <v>0.16945</v>
       </c>
       <c r="C138" t="n">
-        <v>0.155077</v>
+        <v>0.156099</v>
       </c>
       <c r="D138" t="n">
-        <v>0.140439</v>
+        <v>0.141123</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.17171</v>
+        <v>0.171341</v>
       </c>
       <c r="C139" t="n">
-        <v>0.157673</v>
+        <v>0.157451</v>
       </c>
       <c r="D139" t="n">
-        <v>0.142156</v>
+        <v>0.141487</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.172925</v>
+        <v>0.172841</v>
       </c>
       <c r="C140" t="n">
-        <v>0.159784</v>
+        <v>0.159715</v>
       </c>
       <c r="D140" t="n">
-        <v>0.142614</v>
+        <v>0.142931</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.175053</v>
+        <v>0.174931</v>
       </c>
       <c r="C141" t="n">
-        <v>0.162128</v>
+        <v>0.162201</v>
       </c>
       <c r="D141" t="n">
-        <v>0.143847</v>
+        <v>0.143807</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.177386</v>
+        <v>0.175425</v>
       </c>
       <c r="C142" t="n">
-        <v>0.165943</v>
+        <v>0.166208</v>
       </c>
       <c r="D142" t="n">
-        <v>0.146186</v>
+        <v>0.146535</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.179632</v>
+        <v>0.178995</v>
       </c>
       <c r="C143" t="n">
-        <v>0.168849</v>
+        <v>0.169932</v>
       </c>
       <c r="D143" t="n">
-        <v>0.146999</v>
+        <v>0.147471</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0317669</v>
+        <v>0.0323469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0237096</v>
+        <v>0.0234436</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0230675</v>
+        <v>0.0226114</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0336165</v>
+        <v>0.0330245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0234939</v>
+        <v>0.0229359</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0234307</v>
+        <v>0.0230091</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0358509</v>
+        <v>0.0361616</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0266635</v>
+        <v>0.0260454</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0221635</v>
+        <v>0.0237814</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0414072</v>
+        <v>0.0420263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0389254</v>
+        <v>0.0388733</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0218523</v>
+        <v>0.0245747</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0545474</v>
+        <v>0.0565383</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0593793</v>
+        <v>0.0586889</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0229676</v>
+        <v>0.0266526</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0774111</v>
+        <v>0.07643270000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.085423</v>
+        <v>0.084913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0272594</v>
+        <v>0.0371579</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.110578</v>
+        <v>0.107114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.115751</v>
+        <v>0.115723</v>
       </c>
       <c r="D8" t="n">
-        <v>0.045093</v>
+        <v>0.0569056</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145997</v>
+        <v>0.14917</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164277</v>
+        <v>0.164275</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0790593</v>
+        <v>0.088311</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0303954</v>
+        <v>0.0305812</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0277823</v>
+        <v>0.0281695</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0225475</v>
+        <v>0.0255906</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0307414</v>
+        <v>0.0313067</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0285266</v>
+        <v>0.0285244</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0237408</v>
+        <v>0.0258069</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313884</v>
+        <v>0.031548</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0291971</v>
+        <v>0.0292257</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0237825</v>
+        <v>0.0259686</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0318395</v>
+        <v>0.0322063</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0296169</v>
+        <v>0.0293856</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0242902</v>
+        <v>0.0258458</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0328316</v>
+        <v>0.0328394</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0286424</v>
+        <v>0.0283398</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0240276</v>
+        <v>0.0258652</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.033708</v>
+        <v>0.0340622</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0293234</v>
+        <v>0.0294236</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0244035</v>
+        <v>0.0264456</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03488</v>
+        <v>0.0351363</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0310929</v>
+        <v>0.0308093</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0241701</v>
+        <v>0.025432</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0374063</v>
+        <v>0.0380987</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0341239</v>
+        <v>0.0341262</v>
       </c>
       <c r="D17" t="n">
-        <v>0.024672</v>
+        <v>0.0268214</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0429683</v>
+        <v>0.0413605</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0428806</v>
+        <v>0.042732</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0244015</v>
+        <v>0.0282009</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0497979</v>
+        <v>0.0497403</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0532797</v>
+        <v>0.0531278</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0247553</v>
+        <v>0.031856</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0623985</v>
+        <v>0.0600987</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0662089</v>
+        <v>0.06630229999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0272431</v>
+        <v>0.038574</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0819694</v>
+        <v>0.0771144</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0874079</v>
+        <v>0.08738369999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0380763</v>
+        <v>0.0490425</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1052</v>
+        <v>0.100248</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115631</v>
+        <v>0.115676</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0529977</v>
+        <v>0.0628064</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.142094</v>
+        <v>0.138808</v>
       </c>
       <c r="C23" t="n">
-        <v>0.160916</v>
+        <v>0.161234</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0794305</v>
+        <v>0.0871825</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0323473</v>
+        <v>0.0322176</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0292858</v>
+        <v>0.0292795</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0251</v>
+        <v>0.0280808</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0329992</v>
+        <v>0.0328076</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0298939</v>
+        <v>0.029755</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0253154</v>
+        <v>0.0282605</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0335</v>
+        <v>0.0336166</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0305475</v>
+        <v>0.0304742</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0257345</v>
+        <v>0.0286427</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343262</v>
+        <v>0.0343581</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0314079</v>
+        <v>0.0313012</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0262617</v>
+        <v>0.0292033</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0349549</v>
+        <v>0.0351496</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0320829</v>
+        <v>0.0318987</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02642</v>
+        <v>0.0294573</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0363096</v>
+        <v>0.0366056</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0333432</v>
+        <v>0.0330621</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0265993</v>
+        <v>0.029217</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0384706</v>
+        <v>0.0388559</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0361793</v>
+        <v>0.0359513</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0267852</v>
+        <v>0.0305116</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0416609</v>
+        <v>0.0418206</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0406505</v>
+        <v>0.0403772</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0274903</v>
+        <v>0.0329182</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0465769</v>
+        <v>0.0463696</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0474248</v>
+        <v>0.0472506</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0281861</v>
+        <v>0.0358979</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.053436</v>
+        <v>0.0526284</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0556059</v>
+        <v>0.055528</v>
       </c>
       <c r="D33" t="n">
-        <v>0.030014</v>
+        <v>0.0394355</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0637567</v>
+        <v>0.0630163</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0665738</v>
+        <v>0.06647409999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0345971</v>
+        <v>0.0441669</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07724350000000001</v>
+        <v>0.0767579</v>
       </c>
       <c r="C35" t="n">
-        <v>0.081471</v>
+        <v>0.0813116</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0424647</v>
+        <v>0.0512811</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0980164</v>
+        <v>0.0971516</v>
       </c>
       <c r="C36" t="n">
-        <v>0.110616</v>
+        <v>0.110524</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0539913</v>
+        <v>0.0622671</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.130655</v>
+        <v>0.129972</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153027</v>
+        <v>0.15279</v>
       </c>
       <c r="D37" t="n">
-        <v>0.073883</v>
+        <v>0.0814016</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0333314</v>
+        <v>0.0332588</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0302998</v>
+        <v>0.0301494</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0258678</v>
+        <v>0.0302945</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339644</v>
+        <v>0.0338703</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0306628</v>
+        <v>0.0305445</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02624</v>
+        <v>0.0308574</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.034754</v>
+        <v>0.0345005</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0316678</v>
+        <v>0.0315161</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0266347</v>
+        <v>0.0314805</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0357054</v>
+        <v>0.0352274</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0326143</v>
+        <v>0.0325086</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0269152</v>
+        <v>0.0321545</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0366652</v>
+        <v>0.0362846</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0340801</v>
+        <v>0.033912</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0274151</v>
+        <v>0.0330185</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0379906</v>
+        <v>0.0375475</v>
       </c>
       <c r="C43" t="n">
-        <v>0.035879</v>
+        <v>0.0358309</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0281791</v>
+        <v>0.0340578</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0402286</v>
+        <v>0.0396749</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0381501</v>
+        <v>0.0380482</v>
       </c>
       <c r="D44" t="n">
-        <v>0.028846</v>
+        <v>0.0352845</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0430889</v>
+        <v>0.0426816</v>
       </c>
       <c r="C45" t="n">
-        <v>0.042628</v>
+        <v>0.0425535</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0296605</v>
+        <v>0.0366773</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0473914</v>
+        <v>0.0468096</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0481491</v>
+        <v>0.0480801</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0310056</v>
+        <v>0.0389575</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0528102</v>
+        <v>0.0525807</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0546812</v>
+        <v>0.0546227</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0331755</v>
+        <v>0.0415391</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0615175</v>
+        <v>0.0604891</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06458410000000001</v>
+        <v>0.06460879999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0370733</v>
+        <v>0.0455751</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.074019</v>
+        <v>0.07332379999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0803363</v>
+        <v>0.0800942</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0425636</v>
+        <v>0.0509604</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0923495</v>
+        <v>0.09030150000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.10279</v>
+        <v>0.102689</v>
       </c>
       <c r="D50" t="n">
-        <v>0.051246</v>
+        <v>0.0596343</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.122971</v>
+        <v>0.120584</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140844</v>
+        <v>0.140267</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0674645</v>
+        <v>0.0754484</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165825</v>
+        <v>0.165455</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188119</v>
+        <v>0.188144</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0985883</v>
+        <v>0.105934</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0356417</v>
+        <v>0.0348446</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0321878</v>
+        <v>0.0313061</v>
       </c>
       <c r="D53" t="n">
-        <v>0.028402</v>
+        <v>0.0331978</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0363139</v>
+        <v>0.0356323</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0329787</v>
+        <v>0.032103</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0289413</v>
+        <v>0.0337833</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.037181</v>
+        <v>0.0365711</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0341364</v>
+        <v>0.0333356</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0293237</v>
+        <v>0.0343611</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0383573</v>
+        <v>0.0378311</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0354439</v>
+        <v>0.034732</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0297321</v>
+        <v>0.035197</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0398234</v>
+        <v>0.0392516</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0372808</v>
+        <v>0.0365936</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0302601</v>
+        <v>0.0359631</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0416713</v>
+        <v>0.0412592</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0397281</v>
+        <v>0.0391229</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0309339</v>
+        <v>0.0370007</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0441901</v>
+        <v>0.0437633</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0425905</v>
+        <v>0.0419293</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0316775</v>
+        <v>0.0381922</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0478852</v>
+        <v>0.0473874</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0469254</v>
+        <v>0.0464752</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0328233</v>
+        <v>0.0398069</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0531501</v>
+        <v>0.0527385</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0536389</v>
+        <v>0.0532316</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0348006</v>
+        <v>0.0422256</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0608087</v>
+        <v>0.0604826</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06286799999999999</v>
+        <v>0.0624993</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0377963</v>
+        <v>0.0456324</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0723203</v>
+        <v>0.0719606</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0766212</v>
+        <v>0.0763069</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0427567</v>
+        <v>0.050899</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0901676</v>
+        <v>0.0887911</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0970381</v>
+        <v>0.09667100000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0507209</v>
+        <v>0.0591333</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116062</v>
+        <v>0.116477</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131218</v>
+        <v>0.131084</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06475359999999999</v>
+        <v>0.0732202</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157105</v>
+        <v>0.156397</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179269</v>
+        <v>0.178984</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0913349</v>
+        <v>0.09937790000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0410346</v>
+        <v>0.0407265</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0364945</v>
+        <v>0.0361304</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0332149</v>
+        <v>0.0390202</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0417761</v>
+        <v>0.0414519</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0375776</v>
+        <v>0.0370417</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0337056</v>
+        <v>0.0396462</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0426078</v>
+        <v>0.042277</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0387392</v>
+        <v>0.0382825</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0342107</v>
+        <v>0.040264</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0434877</v>
+        <v>0.0434112</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04013</v>
+        <v>0.0396011</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0346317</v>
+        <v>0.04099</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447542</v>
+        <v>0.0447197</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0417303</v>
+        <v>0.0411755</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0351521</v>
+        <v>0.0416965</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465775</v>
+        <v>0.0462729</v>
       </c>
       <c r="C72" t="n">
-        <v>0.043712</v>
+        <v>0.0431016</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0358314</v>
+        <v>0.0426408</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0488903</v>
+        <v>0.048513</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0466659</v>
+        <v>0.0458827</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0367121</v>
+        <v>0.0438742</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0520792</v>
+        <v>0.0515312</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0507977</v>
+        <v>0.0499561</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0377505</v>
+        <v>0.0454388</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0569237</v>
+        <v>0.0559653</v>
       </c>
       <c r="C75" t="n">
-        <v>0.057026</v>
+        <v>0.0559264</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0395409</v>
+        <v>0.0475638</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0636979</v>
+        <v>0.0627389</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0656702</v>
+        <v>0.064487</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0420628</v>
+        <v>0.0506862</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0737005</v>
+        <v>0.0724964</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0783811</v>
+        <v>0.0770426</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0461652</v>
+        <v>0.0552682</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0887944</v>
+        <v>0.0883839</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0961245</v>
+        <v>0.09473570000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0529189</v>
+        <v>0.0624574</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113781</v>
+        <v>0.112064</v>
       </c>
       <c r="C79" t="n">
-        <v>0.125192</v>
+        <v>0.123878</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0648773</v>
+        <v>0.07487439999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.152564</v>
+        <v>0.150611</v>
       </c>
       <c r="C80" t="n">
-        <v>0.170104</v>
+        <v>0.168733</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0871585</v>
+        <v>0.0969394</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0478257</v>
+        <v>0.0469976</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0447495</v>
+        <v>0.0436566</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0382104</v>
+        <v>0.0473149</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0490159</v>
+        <v>0.0484724</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0464167</v>
+        <v>0.0453398</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0387539</v>
+        <v>0.0486895</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0504297</v>
+        <v>0.0500057</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0487716</v>
+        <v>0.0479491</v>
       </c>
       <c r="D83" t="n">
-        <v>0.039804</v>
+        <v>0.0508525</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0519369</v>
+        <v>0.0523009</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0517379</v>
+        <v>0.0507814</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0408393</v>
+        <v>0.0523922</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.054983</v>
+        <v>0.0543405</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0550953</v>
+        <v>0.0537358</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0418819</v>
+        <v>0.0545828</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0580412</v>
+        <v>0.0575185</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0584274</v>
+        <v>0.0570925</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0432849</v>
+        <v>0.0570788</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0619088</v>
+        <v>0.0615261</v>
       </c>
       <c r="C87" t="n">
-        <v>0.062955</v>
+        <v>0.0614532</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0453376</v>
+        <v>0.0601122</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0670278</v>
+        <v>0.066049</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0687608</v>
+        <v>0.0677441</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0477038</v>
+        <v>0.0639007</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0731554</v>
+        <v>0.0727206</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0756255</v>
+        <v>0.07480290000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0499896</v>
+        <v>0.0679179</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.081881</v>
+        <v>0.0814401</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0858783</v>
+        <v>0.08463080000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0541334</v>
+        <v>0.07298789999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09349209999999999</v>
+        <v>0.09240669999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0981108</v>
+        <v>0.0970394</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0589522</v>
+        <v>0.07934049999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107805</v>
+        <v>0.107547</v>
       </c>
       <c r="C92" t="n">
-        <v>0.11488</v>
+        <v>0.113613</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0667717</v>
+        <v>0.0875707</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.129849</v>
+        <v>0.12886</v>
       </c>
       <c r="C93" t="n">
-        <v>0.140184</v>
+        <v>0.139996</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0792025</v>
+        <v>0.101048</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16241</v>
+        <v>0.162862</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179826</v>
+        <v>0.179547</v>
       </c>
       <c r="D94" t="n">
-        <v>0.100184</v>
+        <v>0.121295</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0666535</v>
+        <v>0.0666442</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0633787</v>
+        <v>0.06339889999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0492636</v>
+        <v>0.06792819999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0699142</v>
+        <v>0.0693225</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0656475</v>
+        <v>0.0651456</v>
       </c>
       <c r="D96" t="n">
-        <v>0.050518</v>
+        <v>0.06939140000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07180839999999999</v>
+        <v>0.0722377</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0688995</v>
+        <v>0.06810860000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0519256</v>
+        <v>0.0730923</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07447620000000001</v>
+        <v>0.0746091</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0722747</v>
+        <v>0.07192460000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0538276</v>
+        <v>0.0756718</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0775667</v>
+        <v>0.0775641</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0758099</v>
+        <v>0.0761447</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0555426</v>
+        <v>0.0788616</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0807402</v>
+        <v>0.0807041</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0798941</v>
+        <v>0.0805445</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0573789</v>
+        <v>0.0805348</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08425820000000001</v>
+        <v>0.0847055</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0847342</v>
+        <v>0.0852826</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0592318</v>
+        <v>0.0851281</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.08884110000000001</v>
+        <v>0.0890808</v>
       </c>
       <c r="C102" t="n">
-        <v>0.09005580000000001</v>
+        <v>0.089431</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0614649</v>
+        <v>0.0874408</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0945762</v>
+        <v>0.0947006</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0968378</v>
+        <v>0.09735679999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0643625</v>
+        <v>0.0930798</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102465</v>
+        <v>0.102569</v>
       </c>
       <c r="C104" t="n">
-        <v>0.106417</v>
+        <v>0.105588</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0683923</v>
+        <v>0.0969305</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113315</v>
+        <v>0.113252</v>
       </c>
       <c r="C105" t="n">
-        <v>0.117852</v>
+        <v>0.118196</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0730953</v>
+        <v>0.103874</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.127664</v>
+        <v>0.128129</v>
       </c>
       <c r="C106" t="n">
-        <v>0.133902</v>
+        <v>0.134617</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0806428</v>
+        <v>0.112515</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.14875</v>
+        <v>0.149564</v>
       </c>
       <c r="C107" t="n">
-        <v>0.157341</v>
+        <v>0.156589</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0916917</v>
+        <v>0.123947</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.178713</v>
+        <v>0.179768</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195125</v>
+        <v>0.196001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.111026</v>
+        <v>0.14579</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225988</v>
+        <v>0.226138</v>
       </c>
       <c r="C109" t="n">
-        <v>0.25594</v>
+        <v>0.254589</v>
       </c>
       <c r="D109" t="n">
-        <v>0.150273</v>
+        <v>0.184221</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.080253</v>
+        <v>0.0804686</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0818348</v>
+        <v>0.08269020000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.058223</v>
+        <v>0.0877527</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0829534</v>
+        <v>0.0836407</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0844602</v>
+        <v>0.08547929999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0601015</v>
+        <v>0.0899401</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.085967</v>
+        <v>0.0870475</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0874619</v>
+        <v>0.0880515</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0620877</v>
+        <v>0.0924915</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0899706</v>
+        <v>0.0913167</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0904884</v>
+        <v>0.09103600000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0641916</v>
+        <v>0.09439549999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09478930000000001</v>
+        <v>0.09597120000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0940737</v>
+        <v>0.094902</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0662238</v>
+        <v>0.0975343</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.100843</v>
+        <v>0.102371</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0988409</v>
+        <v>0.0997142</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0689654</v>
+        <v>0.101077</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106967</v>
+        <v>0.109018</v>
       </c>
       <c r="C116" t="n">
-        <v>0.104542</v>
+        <v>0.1057</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0716338</v>
+        <v>0.105104</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.114165</v>
+        <v>0.115266</v>
       </c>
       <c r="C117" t="n">
-        <v>0.111521</v>
+        <v>0.112017</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0747741</v>
+        <v>0.108983</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.122263</v>
+        <v>0.12297</v>
       </c>
       <c r="C118" t="n">
-        <v>0.120659</v>
+        <v>0.121001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0790038</v>
+        <v>0.11531</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131862</v>
+        <v>0.132564</v>
       </c>
       <c r="C119" t="n">
-        <v>0.131691</v>
+        <v>0.132761</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0841592</v>
+        <v>0.121459</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145072</v>
+        <v>0.145381</v>
       </c>
       <c r="C120" t="n">
-        <v>0.146326</v>
+        <v>0.147905</v>
       </c>
       <c r="D120" t="n">
-        <v>0.09240900000000001</v>
+        <v>0.129505</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.163112</v>
+        <v>0.16323</v>
       </c>
       <c r="C121" t="n">
-        <v>0.167698</v>
+        <v>0.169025</v>
       </c>
       <c r="D121" t="n">
-        <v>0.10406</v>
+        <v>0.14092</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189326</v>
+        <v>0.189188</v>
       </c>
       <c r="C122" t="n">
-        <v>0.20195</v>
+        <v>0.202426</v>
       </c>
       <c r="D122" t="n">
-        <v>0.12207</v>
+        <v>0.157477</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.229335</v>
+        <v>0.229368</v>
       </c>
       <c r="C123" t="n">
-        <v>0.256794</v>
+        <v>0.257445</v>
       </c>
       <c r="D123" t="n">
-        <v>0.156448</v>
+        <v>0.19028</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102386</v>
+        <v>0.102009</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0990086</v>
+        <v>0.0997257</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0777505</v>
+        <v>0.105678</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.108057</v>
+        <v>0.107757</v>
       </c>
       <c r="C125" t="n">
-        <v>0.103141</v>
+        <v>0.100739</v>
       </c>
       <c r="D125" t="n">
-        <v>0.08037809999999999</v>
+        <v>0.105761</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.10766</v>
+        <v>0.108292</v>
       </c>
       <c r="C126" t="n">
-        <v>0.105049</v>
+        <v>0.104342</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0811079</v>
+        <v>0.108468</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.109766</v>
+        <v>0.111036</v>
       </c>
       <c r="C127" t="n">
-        <v>0.109115</v>
+        <v>0.107086</v>
       </c>
       <c r="D127" t="n">
-        <v>0.08389240000000001</v>
+        <v>0.111263</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.112709</v>
+        <v>0.113713</v>
       </c>
       <c r="C128" t="n">
-        <v>0.111569</v>
+        <v>0.112488</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0844509</v>
+        <v>0.11572</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.116999</v>
+        <v>0.118073</v>
       </c>
       <c r="C129" t="n">
-        <v>0.115388</v>
+        <v>0.115903</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0866021</v>
+        <v>0.118079</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122752</v>
+        <v>0.122175</v>
       </c>
       <c r="C130" t="n">
-        <v>0.120947</v>
+        <v>0.120535</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0890032</v>
+        <v>0.121105</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126171</v>
+        <v>0.127278</v>
       </c>
       <c r="C131" t="n">
-        <v>0.128073</v>
+        <v>0.128721</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0925969</v>
+        <v>0.127435</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.132472</v>
+        <v>0.133231</v>
       </c>
       <c r="C132" t="n">
-        <v>0.136133</v>
+        <v>0.136071</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0962876</v>
+        <v>0.131074</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142082</v>
+        <v>0.14344</v>
       </c>
       <c r="C133" t="n">
-        <v>0.145888</v>
+        <v>0.145977</v>
       </c>
       <c r="D133" t="n">
-        <v>0.100176</v>
+        <v>0.136465</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.155101</v>
+        <v>0.153812</v>
       </c>
       <c r="C134" t="n">
-        <v>0.15941</v>
+        <v>0.159945</v>
       </c>
       <c r="D134" t="n">
-        <v>0.10565</v>
+        <v>0.143734</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.17061</v>
+        <v>0.170836</v>
       </c>
       <c r="C135" t="n">
-        <v>0.179745</v>
+        <v>0.179573</v>
       </c>
       <c r="D135" t="n">
-        <v>0.115248</v>
+        <v>0.154273</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.195484</v>
+        <v>0.194788</v>
       </c>
       <c r="C136" t="n">
-        <v>0.209899</v>
+        <v>0.211569</v>
       </c>
       <c r="D136" t="n">
-        <v>0.129528</v>
+        <v>0.171771</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232446</v>
+        <v>0.232946</v>
       </c>
       <c r="C137" t="n">
-        <v>0.259528</v>
+        <v>0.260105</v>
       </c>
       <c r="D137" t="n">
-        <v>0.157844</v>
+        <v>0.198654</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.16945</v>
+        <v>0.170169</v>
       </c>
       <c r="C138" t="n">
-        <v>0.156099</v>
+        <v>0.157091</v>
       </c>
       <c r="D138" t="n">
-        <v>0.141123</v>
+        <v>0.168946</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.171341</v>
+        <v>0.172323</v>
       </c>
       <c r="C139" t="n">
-        <v>0.157451</v>
+        <v>0.159362</v>
       </c>
       <c r="D139" t="n">
-        <v>0.141487</v>
+        <v>0.169937</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.172841</v>
+        <v>0.174606</v>
       </c>
       <c r="C140" t="n">
-        <v>0.159715</v>
+        <v>0.162183</v>
       </c>
       <c r="D140" t="n">
-        <v>0.142931</v>
+        <v>0.173144</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.174931</v>
+        <v>0.174765</v>
       </c>
       <c r="C141" t="n">
-        <v>0.162201</v>
+        <v>0.164583</v>
       </c>
       <c r="D141" t="n">
-        <v>0.143807</v>
+        <v>0.1746</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.175425</v>
+        <v>0.177976</v>
       </c>
       <c r="C142" t="n">
-        <v>0.166208</v>
+        <v>0.167533</v>
       </c>
       <c r="D142" t="n">
-        <v>0.146535</v>
+        <v>0.177144</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.178995</v>
+        <v>0.18071</v>
       </c>
       <c r="C143" t="n">
-        <v>0.169932</v>
+        <v>0.171263</v>
       </c>
       <c r="D143" t="n">
-        <v>0.147471</v>
+        <v>0.179483</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0323469</v>
+        <v>0.0323532</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0234436</v>
+        <v>0.0236559</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0226114</v>
+        <v>0.0221341</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0330245</v>
+        <v>0.0332742</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0229359</v>
+        <v>0.0246593</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0230091</v>
+        <v>0.0225985</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0361616</v>
+        <v>0.0363129</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0260454</v>
+        <v>0.0273967</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0237814</v>
+        <v>0.0227855</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0420263</v>
+        <v>0.0417567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0388733</v>
+        <v>0.0392996</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0245747</v>
+        <v>0.0249141</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0565383</v>
+        <v>0.0566999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0586889</v>
+        <v>0.0602436</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0266526</v>
+        <v>0.0273765</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07643270000000001</v>
+        <v>0.07664849999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.084913</v>
+        <v>0.08571230000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0371579</v>
+        <v>0.0366401</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.107114</v>
+        <v>0.106972</v>
       </c>
       <c r="C8" t="n">
-        <v>0.115723</v>
+        <v>0.116507</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0569056</v>
+        <v>0.0564527</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14917</v>
+        <v>0.149162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164275</v>
+        <v>0.164488</v>
       </c>
       <c r="D9" t="n">
-        <v>0.088311</v>
+        <v>0.0882631</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0305812</v>
+        <v>0.0306288</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0281695</v>
+        <v>0.0286256</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0255906</v>
+        <v>0.0258071</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0313067</v>
+        <v>0.0313044</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0285244</v>
+        <v>0.0292536</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0258069</v>
+        <v>0.0258007</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.031548</v>
+        <v>0.0316593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0292257</v>
+        <v>0.029334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0259686</v>
+        <v>0.02573</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0322063</v>
+        <v>0.0323114</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0293856</v>
+        <v>0.0288316</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0258458</v>
+        <v>0.0260453</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0328394</v>
+        <v>0.032819</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0283398</v>
+        <v>0.0292028</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0258652</v>
+        <v>0.0256931</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0340622</v>
+        <v>0.0340807</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0294236</v>
+        <v>0.0295102</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0264456</v>
+        <v>0.0258114</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0351363</v>
+        <v>0.0351334</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0308093</v>
+        <v>0.0313402</v>
       </c>
       <c r="D16" t="n">
-        <v>0.025432</v>
+        <v>0.0255834</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0380987</v>
+        <v>0.0381611</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0341262</v>
+        <v>0.0342928</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0268214</v>
+        <v>0.0266827</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0413605</v>
+        <v>0.0414876</v>
       </c>
       <c r="C18" t="n">
-        <v>0.042732</v>
+        <v>0.0436566</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0282009</v>
+        <v>0.0288952</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0497403</v>
+        <v>0.0498101</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0531278</v>
+        <v>0.0535478</v>
       </c>
       <c r="D19" t="n">
-        <v>0.031856</v>
+        <v>0.0318065</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0600987</v>
+        <v>0.0603913</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06630229999999999</v>
+        <v>0.0666127</v>
       </c>
       <c r="D20" t="n">
-        <v>0.038574</v>
+        <v>0.0383015</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0771144</v>
+        <v>0.07728930000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08738369999999999</v>
+        <v>0.087731</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0490425</v>
+        <v>0.0488566</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100248</v>
+        <v>0.100289</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115676</v>
+        <v>0.115775</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0628064</v>
+        <v>0.0628478</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138808</v>
+        <v>0.138713</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161234</v>
+        <v>0.161</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0871825</v>
+        <v>0.0873029</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0322176</v>
+        <v>0.0322481</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0292795</v>
+        <v>0.029829</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0280808</v>
+        <v>0.0282354</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0328076</v>
+        <v>0.0328387</v>
       </c>
       <c r="C25" t="n">
-        <v>0.029755</v>
+        <v>0.0303451</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0282605</v>
+        <v>0.0285615</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0336166</v>
+        <v>0.0336342</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0304742</v>
+        <v>0.0310631</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0286427</v>
+        <v>0.0289528</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343581</v>
+        <v>0.0343973</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0313012</v>
+        <v>0.0319915</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0292033</v>
+        <v>0.0292599</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351496</v>
+        <v>0.0352486</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0318987</v>
+        <v>0.0324731</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0294573</v>
+        <v>0.0296307</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0366056</v>
+        <v>0.0366704</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0330621</v>
+        <v>0.0333759</v>
       </c>
       <c r="D29" t="n">
-        <v>0.029217</v>
+        <v>0.0300429</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0388559</v>
+        <v>0.0388347</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0359513</v>
+        <v>0.0361096</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0305116</v>
+        <v>0.0308016</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0418206</v>
+        <v>0.0418495</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0403772</v>
+        <v>0.0404735</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0329182</v>
+        <v>0.0332705</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0463696</v>
+        <v>0.0464873</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0472506</v>
+        <v>0.0475741</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0358979</v>
+        <v>0.0358315</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0526284</v>
+        <v>0.0527867</v>
       </c>
       <c r="C33" t="n">
-        <v>0.055528</v>
+        <v>0.0559869</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0394355</v>
+        <v>0.0396858</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0630163</v>
+        <v>0.06319660000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06647409999999999</v>
+        <v>0.0665867</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0441669</v>
+        <v>0.044081</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0767579</v>
+        <v>0.0768793</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0813116</v>
+        <v>0.08154790000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0512811</v>
+        <v>0.0515237</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0971516</v>
+        <v>0.0973171</v>
       </c>
       <c r="C36" t="n">
-        <v>0.110524</v>
+        <v>0.111202</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0622671</v>
+        <v>0.06260689999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.129972</v>
+        <v>0.129746</v>
       </c>
       <c r="C37" t="n">
-        <v>0.15279</v>
+        <v>0.15344</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0814016</v>
+        <v>0.0821262</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0332588</v>
+        <v>0.0333368</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0301494</v>
+        <v>0.0304892</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0302945</v>
+        <v>0.0305202</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0338703</v>
+        <v>0.0339304</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0305445</v>
+        <v>0.0308834</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0308574</v>
+        <v>0.030953</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0345005</v>
+        <v>0.0345589</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0315161</v>
+        <v>0.0319302</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0314805</v>
+        <v>0.0316057</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0352274</v>
+        <v>0.0353011</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0325086</v>
+        <v>0.0328204</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0321545</v>
+        <v>0.0323021</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0362846</v>
+        <v>0.0363544</v>
       </c>
       <c r="C42" t="n">
-        <v>0.033912</v>
+        <v>0.0342738</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0330185</v>
+        <v>0.0333793</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0375475</v>
+        <v>0.0375685</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0358309</v>
+        <v>0.0359346</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0340578</v>
+        <v>0.0343727</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0396749</v>
+        <v>0.0397558</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0380482</v>
+        <v>0.0380398</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0352845</v>
+        <v>0.0352689</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0426816</v>
+        <v>0.0427935</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0425535</v>
+        <v>0.0425146</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0366773</v>
+        <v>0.0368834</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0468096</v>
+        <v>0.0468999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0480801</v>
+        <v>0.048082</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0389575</v>
+        <v>0.0389984</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0525807</v>
+        <v>0.0527277</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0546227</v>
+        <v>0.0546894</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0415391</v>
+        <v>0.0415902</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0604891</v>
+        <v>0.0606202</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06460879999999999</v>
+        <v>0.0645495</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0455751</v>
+        <v>0.0456472</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07332379999999999</v>
+        <v>0.07347480000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0800942</v>
+        <v>0.080049</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0509604</v>
+        <v>0.0510045</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09030150000000001</v>
+        <v>0.0904707</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102689</v>
+        <v>0.102975</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0596343</v>
+        <v>0.0596985</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120584</v>
+        <v>0.120707</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140267</v>
+        <v>0.140526</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0754484</v>
+        <v>0.07563209999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165455</v>
+        <v>0.165568</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188144</v>
+        <v>0.18756</v>
       </c>
       <c r="D52" t="n">
-        <v>0.105934</v>
+        <v>0.106683</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0348446</v>
+        <v>0.0360187</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0313061</v>
+        <v>0.0318713</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0331978</v>
+        <v>0.034141</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0356323</v>
+        <v>0.0368455</v>
       </c>
       <c r="C54" t="n">
-        <v>0.032103</v>
+        <v>0.0325474</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0337833</v>
+        <v>0.0342427</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0365711</v>
+        <v>0.0376901</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0333356</v>
+        <v>0.0337257</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0343611</v>
+        <v>0.0354038</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0378311</v>
+        <v>0.038933</v>
       </c>
       <c r="C56" t="n">
-        <v>0.034732</v>
+        <v>0.0350791</v>
       </c>
       <c r="D56" t="n">
-        <v>0.035197</v>
+        <v>0.0356525</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0392516</v>
+        <v>0.0403629</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0365936</v>
+        <v>0.0370397</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0359631</v>
+        <v>0.0366097</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0412592</v>
+        <v>0.0422911</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0391229</v>
+        <v>0.0393698</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0370007</v>
+        <v>0.0373142</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0437633</v>
+        <v>0.0446821</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0419293</v>
+        <v>0.0421764</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0381922</v>
+        <v>0.0384112</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0473874</v>
+        <v>0.0482219</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0464752</v>
+        <v>0.0465801</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0398069</v>
+        <v>0.0399817</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0527385</v>
+        <v>0.0535088</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0532316</v>
+        <v>0.0534233</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0422256</v>
+        <v>0.0423747</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0604826</v>
+        <v>0.0611331</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0624993</v>
+        <v>0.06259149999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0456324</v>
+        <v>0.0457734</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0719606</v>
+        <v>0.07251970000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0763069</v>
+        <v>0.07664559999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.050899</v>
+        <v>0.0510241</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0887911</v>
+        <v>0.0893245</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09667100000000001</v>
+        <v>0.0976042</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0591333</v>
+        <v>0.0595924</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116477</v>
+        <v>0.116944</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131084</v>
+        <v>0.13216</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0732202</v>
+        <v>0.0737049</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156397</v>
+        <v>0.157139</v>
       </c>
       <c r="C66" t="n">
-        <v>0.178984</v>
+        <v>0.178481</v>
       </c>
       <c r="D66" t="n">
-        <v>0.09937790000000001</v>
+        <v>0.100679</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0407265</v>
+        <v>0.0409105</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0361304</v>
+        <v>0.0365866</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0390202</v>
+        <v>0.0393792</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0414519</v>
+        <v>0.0416227</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0370417</v>
+        <v>0.0374852</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0396462</v>
+        <v>0.0401155</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.042277</v>
+        <v>0.0424462</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0382825</v>
+        <v>0.0386083</v>
       </c>
       <c r="D69" t="n">
-        <v>0.040264</v>
+        <v>0.0407156</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0434112</v>
+        <v>0.0435921</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0396011</v>
+        <v>0.0401405</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04099</v>
+        <v>0.0414593</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0447197</v>
+        <v>0.044919</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0411755</v>
+        <v>0.0416034</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0416965</v>
+        <v>0.0421992</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0462729</v>
+        <v>0.0465255</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0431016</v>
+        <v>0.0435369</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0426408</v>
+        <v>0.0431657</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.048513</v>
+        <v>0.0488098</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0458827</v>
+        <v>0.0463762</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0438742</v>
+        <v>0.0444581</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0515312</v>
+        <v>0.0518816</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0499561</v>
+        <v>0.0505747</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0454388</v>
+        <v>0.0460717</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0559653</v>
+        <v>0.0565054</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0559264</v>
+        <v>0.0566841</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0475638</v>
+        <v>0.0484193</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0627389</v>
+        <v>0.06348620000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.064487</v>
+        <v>0.0654494</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0506862</v>
+        <v>0.0517376</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0724964</v>
+        <v>0.073327</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0770426</v>
+        <v>0.07831050000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0552682</v>
+        <v>0.0567656</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0883839</v>
+        <v>0.08912580000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09473570000000001</v>
+        <v>0.09621449999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0624574</v>
+        <v>0.0643389</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112064</v>
+        <v>0.113506</v>
       </c>
       <c r="C79" t="n">
-        <v>0.123878</v>
+        <v>0.12548</v>
       </c>
       <c r="D79" t="n">
-        <v>0.07487439999999999</v>
+        <v>0.0771309</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.150611</v>
+        <v>0.152557</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168733</v>
+        <v>0.170315</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0969394</v>
+        <v>0.0996427</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0469976</v>
+        <v>0.0474372</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0436566</v>
+        <v>0.0444587</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0473149</v>
+        <v>0.0478832</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0484724</v>
+        <v>0.0489531</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0453398</v>
+        <v>0.0467318</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0486895</v>
+        <v>0.0502861</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0500057</v>
+        <v>0.0504875</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0479491</v>
+        <v>0.0489814</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0508525</v>
+        <v>0.0517049</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0523009</v>
+        <v>0.0523271</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0507814</v>
+        <v>0.0513524</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0523922</v>
+        <v>0.0536272</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0543405</v>
+        <v>0.0546853</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0537358</v>
+        <v>0.0545597</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0545828</v>
+        <v>0.0557185</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0575185</v>
+        <v>0.058163</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0570925</v>
+        <v>0.0577566</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0570788</v>
+        <v>0.0579767</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0615261</v>
+        <v>0.0611872</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0614532</v>
+        <v>0.0624637</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0601122</v>
+        <v>0.0610737</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.066049</v>
+        <v>0.0665457</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0677441</v>
+        <v>0.0679009</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0639007</v>
+        <v>0.06427090000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0727206</v>
+        <v>0.0722083</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07480290000000001</v>
+        <v>0.07530969999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0679179</v>
+        <v>0.0687145</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0814401</v>
+        <v>0.0808156</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08463080000000001</v>
+        <v>0.08519930000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.07298789999999999</v>
+        <v>0.0734998</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.09240669999999999</v>
+        <v>0.0916515</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0970394</v>
+        <v>0.09742140000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.07934049999999999</v>
+        <v>0.0797359</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.107547</v>
+        <v>0.106813</v>
       </c>
       <c r="C92" t="n">
-        <v>0.113613</v>
+        <v>0.114217</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0875707</v>
+        <v>0.0884334</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.12886</v>
+        <v>0.128933</v>
       </c>
       <c r="C93" t="n">
-        <v>0.139996</v>
+        <v>0.139977</v>
       </c>
       <c r="D93" t="n">
-        <v>0.101048</v>
+        <v>0.100973</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.162862</v>
+        <v>0.163367</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179547</v>
+        <v>0.179248</v>
       </c>
       <c r="D94" t="n">
-        <v>0.121295</v>
+        <v>0.121582</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0666442</v>
+        <v>0.0671122</v>
       </c>
       <c r="C95" t="n">
-        <v>0.06339889999999999</v>
+        <v>0.0633674</v>
       </c>
       <c r="D95" t="n">
-        <v>0.06792819999999999</v>
+        <v>0.0677384</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0693225</v>
+        <v>0.0699394</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0651456</v>
+        <v>0.0657425</v>
       </c>
       <c r="D96" t="n">
-        <v>0.06939140000000001</v>
+        <v>0.0701835</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0722377</v>
+        <v>0.07249120000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.06810860000000001</v>
+        <v>0.0690974</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0730923</v>
+        <v>0.0728485</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0746091</v>
+        <v>0.07533430000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07192460000000001</v>
+        <v>0.0725605</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0756718</v>
+        <v>0.07551769999999999</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0775641</v>
+        <v>0.0777265</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0761447</v>
+        <v>0.0758919</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0788616</v>
+        <v>0.0783177</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0807041</v>
+        <v>0.080777</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0805445</v>
+        <v>0.0801012</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0805348</v>
+        <v>0.0812957</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0847055</v>
+        <v>0.08472010000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0852826</v>
+        <v>0.0845825</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0851281</v>
+        <v>0.0845118</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0890808</v>
+        <v>0.088656</v>
       </c>
       <c r="C102" t="n">
-        <v>0.089431</v>
+        <v>0.090154</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0874408</v>
+        <v>0.0881449</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0947006</v>
+        <v>0.0946033</v>
       </c>
       <c r="C103" t="n">
-        <v>0.09735679999999999</v>
+        <v>0.0970666</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0930798</v>
+        <v>0.0924854</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102569</v>
+        <v>0.102589</v>
       </c>
       <c r="C104" t="n">
-        <v>0.105588</v>
+        <v>0.106428</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0969305</v>
+        <v>0.0975693</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113252</v>
+        <v>0.112659</v>
       </c>
       <c r="C105" t="n">
-        <v>0.118196</v>
+        <v>0.117836</v>
       </c>
       <c r="D105" t="n">
-        <v>0.103874</v>
+        <v>0.103619</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128129</v>
+        <v>0.128438</v>
       </c>
       <c r="C106" t="n">
-        <v>0.134617</v>
+        <v>0.13396</v>
       </c>
       <c r="D106" t="n">
-        <v>0.112515</v>
+        <v>0.111967</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149564</v>
+        <v>0.149046</v>
       </c>
       <c r="C107" t="n">
-        <v>0.156589</v>
+        <v>0.157221</v>
       </c>
       <c r="D107" t="n">
-        <v>0.123947</v>
+        <v>0.124303</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179768</v>
+        <v>0.179305</v>
       </c>
       <c r="C108" t="n">
-        <v>0.196001</v>
+        <v>0.194515</v>
       </c>
       <c r="D108" t="n">
-        <v>0.14579</v>
+        <v>0.144813</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.226138</v>
+        <v>0.225353</v>
       </c>
       <c r="C109" t="n">
-        <v>0.254589</v>
+        <v>0.254834</v>
       </c>
       <c r="D109" t="n">
-        <v>0.184221</v>
+        <v>0.18304</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0804686</v>
+        <v>0.080967</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08269020000000001</v>
+        <v>0.08199380000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0877527</v>
+        <v>0.0870171</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0836407</v>
+        <v>0.0832405</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08547929999999999</v>
+        <v>0.08445950000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0899401</v>
+        <v>0.0893805</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0870475</v>
+        <v>0.0863358</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0880515</v>
+        <v>0.0873135</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0924915</v>
+        <v>0.09148340000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0913167</v>
+        <v>0.0906724</v>
       </c>
       <c r="C113" t="n">
-        <v>0.09103600000000001</v>
+        <v>0.09071410000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.09439549999999999</v>
+        <v>0.09394379999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09597120000000001</v>
+        <v>0.09511029999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.094902</v>
+        <v>0.0941538</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0975343</v>
+        <v>0.0969266</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.102371</v>
+        <v>0.0998284</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0997142</v>
+        <v>0.0982113</v>
       </c>
       <c r="D115" t="n">
-        <v>0.101077</v>
+        <v>0.0997369</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.109018</v>
+        <v>0.106027</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1057</v>
+        <v>0.104067</v>
       </c>
       <c r="D116" t="n">
-        <v>0.105104</v>
+        <v>0.103257</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.115266</v>
+        <v>0.113015</v>
       </c>
       <c r="C117" t="n">
-        <v>0.112017</v>
+        <v>0.110386</v>
       </c>
       <c r="D117" t="n">
-        <v>0.108983</v>
+        <v>0.106835</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.12297</v>
+        <v>0.121009</v>
       </c>
       <c r="C118" t="n">
-        <v>0.121001</v>
+        <v>0.119244</v>
       </c>
       <c r="D118" t="n">
-        <v>0.11531</v>
+        <v>0.112056</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.132564</v>
+        <v>0.131061</v>
       </c>
       <c r="C119" t="n">
-        <v>0.132761</v>
+        <v>0.130534</v>
       </c>
       <c r="D119" t="n">
-        <v>0.121459</v>
+        <v>0.119258</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.145381</v>
+        <v>0.144243</v>
       </c>
       <c r="C120" t="n">
-        <v>0.147905</v>
+        <v>0.146681</v>
       </c>
       <c r="D120" t="n">
-        <v>0.129505</v>
+        <v>0.127891</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.16323</v>
+        <v>0.162414</v>
       </c>
       <c r="C121" t="n">
-        <v>0.169025</v>
+        <v>0.167856</v>
       </c>
       <c r="D121" t="n">
-        <v>0.14092</v>
+        <v>0.139704</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.189188</v>
+        <v>0.188707</v>
       </c>
       <c r="C122" t="n">
-        <v>0.202426</v>
+        <v>0.199657</v>
       </c>
       <c r="D122" t="n">
-        <v>0.157477</v>
+        <v>0.156729</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.229368</v>
+        <v>0.229219</v>
       </c>
       <c r="C123" t="n">
-        <v>0.257445</v>
+        <v>0.253435</v>
       </c>
       <c r="D123" t="n">
-        <v>0.19028</v>
+        <v>0.190768</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.102009</v>
+        <v>0.105228</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0997257</v>
+        <v>0.101646</v>
       </c>
       <c r="D124" t="n">
-        <v>0.105678</v>
+        <v>0.106938</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.107757</v>
+        <v>0.109343</v>
       </c>
       <c r="C125" t="n">
-        <v>0.100739</v>
+        <v>0.102867</v>
       </c>
       <c r="D125" t="n">
-        <v>0.105761</v>
+        <v>0.108223</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.108292</v>
+        <v>0.109031</v>
       </c>
       <c r="C126" t="n">
-        <v>0.104342</v>
+        <v>0.105651</v>
       </c>
       <c r="D126" t="n">
-        <v>0.108468</v>
+        <v>0.110315</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.111036</v>
+        <v>0.110966</v>
       </c>
       <c r="C127" t="n">
-        <v>0.107086</v>
+        <v>0.110451</v>
       </c>
       <c r="D127" t="n">
-        <v>0.111263</v>
+        <v>0.114529</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113713</v>
+        <v>0.113428</v>
       </c>
       <c r="C128" t="n">
-        <v>0.112488</v>
+        <v>0.114153</v>
       </c>
       <c r="D128" t="n">
-        <v>0.11572</v>
+        <v>0.11763</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.118073</v>
+        <v>0.117795</v>
       </c>
       <c r="C129" t="n">
-        <v>0.115903</v>
+        <v>0.116295</v>
       </c>
       <c r="D129" t="n">
-        <v>0.118079</v>
+        <v>0.118899</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122175</v>
+        <v>0.122073</v>
       </c>
       <c r="C130" t="n">
-        <v>0.120535</v>
+        <v>0.121643</v>
       </c>
       <c r="D130" t="n">
-        <v>0.121105</v>
+        <v>0.122291</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127278</v>
+        <v>0.127539</v>
       </c>
       <c r="C131" t="n">
-        <v>0.128721</v>
+        <v>0.127395</v>
       </c>
       <c r="D131" t="n">
-        <v>0.127435</v>
+        <v>0.126141</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133231</v>
+        <v>0.133176</v>
       </c>
       <c r="C132" t="n">
-        <v>0.136071</v>
+        <v>0.137512</v>
       </c>
       <c r="D132" t="n">
-        <v>0.131074</v>
+        <v>0.132952</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.14344</v>
+        <v>0.142639</v>
       </c>
       <c r="C133" t="n">
-        <v>0.145977</v>
+        <v>0.146288</v>
       </c>
       <c r="D133" t="n">
-        <v>0.136465</v>
+        <v>0.137511</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.153812</v>
+        <v>0.154198</v>
       </c>
       <c r="C134" t="n">
-        <v>0.159945</v>
+        <v>0.16174</v>
       </c>
       <c r="D134" t="n">
-        <v>0.143734</v>
+        <v>0.146595</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.170836</v>
+        <v>0.171625</v>
       </c>
       <c r="C135" t="n">
-        <v>0.179573</v>
+        <v>0.179792</v>
       </c>
       <c r="D135" t="n">
-        <v>0.154273</v>
+        <v>0.155344</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.194788</v>
+        <v>0.198378</v>
       </c>
       <c r="C136" t="n">
-        <v>0.211569</v>
+        <v>0.210037</v>
       </c>
       <c r="D136" t="n">
-        <v>0.171771</v>
+        <v>0.171107</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232946</v>
+        <v>0.23454</v>
       </c>
       <c r="C137" t="n">
-        <v>0.260105</v>
+        <v>0.257675</v>
       </c>
       <c r="D137" t="n">
-        <v>0.198654</v>
+        <v>0.197302</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170169</v>
+        <v>0.170192</v>
       </c>
       <c r="C138" t="n">
-        <v>0.157091</v>
+        <v>0.156303</v>
       </c>
       <c r="D138" t="n">
-        <v>0.168946</v>
+        <v>0.167233</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.172323</v>
+        <v>0.171654</v>
       </c>
       <c r="C139" t="n">
-        <v>0.159362</v>
+        <v>0.158973</v>
       </c>
       <c r="D139" t="n">
-        <v>0.169937</v>
+        <v>0.169978</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.174606</v>
+        <v>0.173099</v>
       </c>
       <c r="C140" t="n">
-        <v>0.162183</v>
+        <v>0.160361</v>
       </c>
       <c r="D140" t="n">
-        <v>0.173144</v>
+        <v>0.171007</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.174765</v>
+        <v>0.17525</v>
       </c>
       <c r="C141" t="n">
-        <v>0.164583</v>
+        <v>0.163125</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1746</v>
+        <v>0.173626</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.177976</v>
+        <v>0.176708</v>
       </c>
       <c r="C142" t="n">
-        <v>0.167533</v>
+        <v>0.166544</v>
       </c>
       <c r="D142" t="n">
-        <v>0.177144</v>
+        <v>0.17573</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.18071</v>
+        <v>0.181383</v>
       </c>
       <c r="C143" t="n">
-        <v>0.171263</v>
+        <v>0.170143</v>
       </c>
       <c r="D143" t="n">
-        <v>0.179483</v>
+        <v>0.178189</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0323532</v>
+        <v>0.0324732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0236559</v>
+        <v>0.0239858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0221341</v>
+        <v>0.0210928</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0332742</v>
+        <v>0.0333415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0246593</v>
+        <v>0.0249788</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0225985</v>
+        <v>0.0225061</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0363129</v>
+        <v>0.0366621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0273967</v>
+        <v>0.0273661</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0227855</v>
+        <v>0.0293407</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0417567</v>
+        <v>0.0424376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0392996</v>
+        <v>0.0397001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0249141</v>
+        <v>0.0436408</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0566999</v>
+        <v>0.0572362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0602436</v>
+        <v>0.060757</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0273765</v>
+        <v>0.0642662</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07664849999999999</v>
+        <v>0.0760721</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08571230000000001</v>
+        <v>0.0858688</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0366401</v>
+        <v>0.093343</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.106972</v>
+        <v>0.106617</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116507</v>
+        <v>0.117194</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0564527</v>
+        <v>0.133706</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149162</v>
+        <v>0.149232</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164488</v>
+        <v>0.16437</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0882631</v>
+        <v>0.183943</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0306288</v>
+        <v>0.0306327</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0286256</v>
+        <v>0.0284866</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0258071</v>
+        <v>0.0240021</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0313044</v>
+        <v>0.0313501</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0292536</v>
+        <v>0.028975</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0258007</v>
+        <v>0.0241692</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0316593</v>
+        <v>0.0315624</v>
       </c>
       <c r="C12" t="n">
-        <v>0.029334</v>
+        <v>0.0295365</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02573</v>
+        <v>0.02426</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0323114</v>
+        <v>0.032233</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0288316</v>
+        <v>0.0291052</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0260453</v>
+        <v>0.0231803</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.032819</v>
+        <v>0.0329181</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0292028</v>
+        <v>0.0294817</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0256931</v>
+        <v>0.0240928</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0340807</v>
+        <v>0.0341545</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0295102</v>
+        <v>0.0298095</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0258114</v>
+        <v>0.0254689</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0351334</v>
+        <v>0.0352193</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0313402</v>
+        <v>0.0317045</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0255834</v>
+        <v>0.0302392</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0381611</v>
+        <v>0.0380162</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0342928</v>
+        <v>0.0346459</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0266827</v>
+        <v>0.0349991</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0414876</v>
+        <v>0.0413993</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0436566</v>
+        <v>0.0436699</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0288952</v>
+        <v>0.0460929</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0498101</v>
+        <v>0.0497298</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0535478</v>
+        <v>0.0538345</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0318065</v>
+        <v>0.0556467</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0603913</v>
+        <v>0.0601924</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0666127</v>
+        <v>0.0665444</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0383015</v>
+        <v>0.071382</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07728930000000001</v>
+        <v>0.077156</v>
       </c>
       <c r="C21" t="n">
-        <v>0.087731</v>
+        <v>0.0879238</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0488566</v>
+        <v>0.09417449999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100289</v>
+        <v>0.100274</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115775</v>
+        <v>0.116131</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0628478</v>
+        <v>0.131707</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138713</v>
+        <v>0.138758</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161</v>
+        <v>0.161533</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0873029</v>
+        <v>0.179946</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0322481</v>
+        <v>0.0321503</v>
       </c>
       <c r="C24" t="n">
-        <v>0.029829</v>
+        <v>0.0297454</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0282354</v>
+        <v>0.0267429</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0328387</v>
+        <v>0.0327512</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0303451</v>
+        <v>0.0301303</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0285615</v>
+        <v>0.0270635</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0336342</v>
+        <v>0.0335806</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0310631</v>
+        <v>0.0306743</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0289528</v>
+        <v>0.0274636</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0343973</v>
+        <v>0.0342663</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0319915</v>
+        <v>0.0318343</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0292599</v>
+        <v>0.0280965</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0352486</v>
+        <v>0.0351216</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0324731</v>
+        <v>0.0325935</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0296307</v>
+        <v>0.0297379</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0366704</v>
+        <v>0.0365631</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0333759</v>
+        <v>0.033256</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0300429</v>
+        <v>0.0337046</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0388347</v>
+        <v>0.0387986</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0361096</v>
+        <v>0.0361499</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0308016</v>
+        <v>0.0375979</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0418495</v>
+        <v>0.0418566</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0404735</v>
+        <v>0.0403903</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0332705</v>
+        <v>0.0422172</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0464873</v>
+        <v>0.0463698</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0475741</v>
+        <v>0.047537</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0358315</v>
+        <v>0.048046</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0527867</v>
+        <v>0.0526783</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0559869</v>
+        <v>0.0558742</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0396858</v>
+        <v>0.0564314</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06319660000000001</v>
+        <v>0.0630718</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0665867</v>
+        <v>0.06659760000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.044081</v>
+        <v>0.06840350000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0768793</v>
+        <v>0.0767825</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08154790000000001</v>
+        <v>0.08136110000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0515237</v>
+        <v>0.08907379999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0973171</v>
+        <v>0.0970929</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111202</v>
+        <v>0.111284</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06260689999999999</v>
+        <v>0.123541</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.129746</v>
+        <v>0.129848</v>
       </c>
       <c r="C37" t="n">
-        <v>0.15344</v>
+        <v>0.153922</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0821262</v>
+        <v>0.171228</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0333368</v>
+        <v>0.0332792</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0304892</v>
+        <v>0.0304105</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0305202</v>
+        <v>0.0294176</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339304</v>
+        <v>0.0339148</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0308834</v>
+        <v>0.0309864</v>
       </c>
       <c r="D39" t="n">
-        <v>0.030953</v>
+        <v>0.0302147</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0345589</v>
+        <v>0.0345017</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0319302</v>
+        <v>0.0318898</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0316057</v>
+        <v>0.0316422</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0353011</v>
+        <v>0.0353249</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0328204</v>
+        <v>0.0328259</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0323021</v>
+        <v>0.0329101</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0363544</v>
+        <v>0.0363437</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0342738</v>
+        <v>0.0343863</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0333793</v>
+        <v>0.0348445</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0375685</v>
+        <v>0.0376686</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0359346</v>
+        <v>0.0360986</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0343727</v>
+        <v>0.0371489</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0397558</v>
+        <v>0.0397468</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0380398</v>
+        <v>0.0381924</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0352689</v>
+        <v>0.0395594</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0427935</v>
+        <v>0.042726</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0425146</v>
+        <v>0.0426645</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0368834</v>
+        <v>0.0436154</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0468999</v>
+        <v>0.046831</v>
       </c>
       <c r="C46" t="n">
-        <v>0.048082</v>
+        <v>0.0481429</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0389984</v>
+        <v>0.0491128</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0527277</v>
+        <v>0.0526552</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0546894</v>
+        <v>0.0546696</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0415902</v>
+        <v>0.056697</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0606202</v>
+        <v>0.0605167</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0645495</v>
+        <v>0.06459230000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0456472</v>
+        <v>0.0670997</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07347480000000001</v>
+        <v>0.073392</v>
       </c>
       <c r="C49" t="n">
-        <v>0.080049</v>
+        <v>0.0800749</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0510045</v>
+        <v>0.0846531</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0904707</v>
+        <v>0.0903708</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102975</v>
+        <v>0.102637</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0596985</v>
+        <v>0.112592</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120707</v>
+        <v>0.120701</v>
       </c>
       <c r="C51" t="n">
-        <v>0.140526</v>
+        <v>0.139943</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07563209999999999</v>
+        <v>0.158566</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165568</v>
+        <v>0.165592</v>
       </c>
       <c r="C52" t="n">
-        <v>0.18756</v>
+        <v>0.188742</v>
       </c>
       <c r="D52" t="n">
-        <v>0.106683</v>
+        <v>0.213935</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0360187</v>
+        <v>0.0349691</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0318713</v>
+        <v>0.0323235</v>
       </c>
       <c r="D53" t="n">
-        <v>0.034141</v>
+        <v>0.033248</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0368455</v>
+        <v>0.0357763</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0325474</v>
+        <v>0.0331493</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0342427</v>
+        <v>0.034201</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0376901</v>
+        <v>0.0366409</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0337257</v>
+        <v>0.0343085</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0354038</v>
+        <v>0.0354465</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.038933</v>
+        <v>0.0379077</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0350791</v>
+        <v>0.0356033</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0356525</v>
+        <v>0.0367684</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0403629</v>
+        <v>0.0394086</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0370397</v>
+        <v>0.0375263</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0366097</v>
+        <v>0.0385385</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0422911</v>
+        <v>0.0413619</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0393698</v>
+        <v>0.0398767</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0373142</v>
+        <v>0.041038</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0446821</v>
+        <v>0.0438665</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0421764</v>
+        <v>0.0426688</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0384112</v>
+        <v>0.04412</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0482219</v>
+        <v>0.047489</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0465801</v>
+        <v>0.0470023</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0399817</v>
+        <v>0.0482375</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0535088</v>
+        <v>0.0528266</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0534233</v>
+        <v>0.0536518</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0423747</v>
+        <v>0.0552275</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0611331</v>
+        <v>0.0605434</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06259149999999999</v>
+        <v>0.0628824</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0457734</v>
+        <v>0.0652001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07251970000000001</v>
+        <v>0.07192949999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07664559999999999</v>
+        <v>0.0766375</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0510241</v>
+        <v>0.0809412</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0893245</v>
+        <v>0.08874840000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0976042</v>
+        <v>0.09689689999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0595924</v>
+        <v>0.106674</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116944</v>
+        <v>0.116353</v>
       </c>
       <c r="C65" t="n">
-        <v>0.13216</v>
+        <v>0.131298</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0737049</v>
+        <v>0.1494</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.157139</v>
+        <v>0.156299</v>
       </c>
       <c r="C66" t="n">
-        <v>0.178481</v>
+        <v>0.179058</v>
       </c>
       <c r="D66" t="n">
-        <v>0.100679</v>
+        <v>0.205093</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0409105</v>
+        <v>0.040505</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0365866</v>
+        <v>0.0364172</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0393792</v>
+        <v>0.0378477</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0416227</v>
+        <v>0.0410393</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0374852</v>
+        <v>0.0373305</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0401155</v>
+        <v>0.038809</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0424462</v>
+        <v>0.0419222</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0386083</v>
+        <v>0.0385497</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0407156</v>
+        <v>0.0398968</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0435921</v>
+        <v>0.0430402</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0401405</v>
+        <v>0.0399863</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0414593</v>
+        <v>0.0412829</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.044919</v>
+        <v>0.0444575</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0416034</v>
+        <v>0.0414613</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0421992</v>
+        <v>0.0429248</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0465255</v>
+        <v>0.0460148</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0435369</v>
+        <v>0.0434699</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0431657</v>
+        <v>0.0450775</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0488098</v>
+        <v>0.0481892</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0463762</v>
+        <v>0.0462311</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0444581</v>
+        <v>0.0482221</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0518816</v>
+        <v>0.0512851</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0505747</v>
+        <v>0.0504597</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0460717</v>
+        <v>0.0523435</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0565054</v>
+        <v>0.0557767</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0566841</v>
+        <v>0.0565964</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0484193</v>
+        <v>0.058594</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06348620000000001</v>
+        <v>0.06259729999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0654494</v>
+        <v>0.0654067</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0517376</v>
+        <v>0.06779540000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.073327</v>
+        <v>0.0726232</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07831050000000001</v>
+        <v>0.0782018</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0567656</v>
+        <v>0.08202230000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08912580000000001</v>
+        <v>0.0883579</v>
       </c>
       <c r="C78" t="n">
-        <v>0.09621449999999999</v>
+        <v>0.0960192</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0643389</v>
+        <v>0.104153</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113506</v>
+        <v>0.112729</v>
       </c>
       <c r="C79" t="n">
-        <v>0.12548</v>
+        <v>0.125334</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0771309</v>
+        <v>0.142384</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.152557</v>
+        <v>0.151503</v>
       </c>
       <c r="C80" t="n">
-        <v>0.170315</v>
+        <v>0.169989</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0996427</v>
+        <v>0.201506</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0474372</v>
+        <v>0.0475431</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0444587</v>
+        <v>0.044037</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0478832</v>
+        <v>0.0456378</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0489531</v>
+        <v>0.0482339</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0467318</v>
+        <v>0.0465584</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0502861</v>
+        <v>0.0478746</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0504875</v>
+        <v>0.0501772</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0489814</v>
+        <v>0.0490874</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0517049</v>
+        <v>0.0502751</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0523271</v>
+        <v>0.0519886</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0513524</v>
+        <v>0.0517508</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0536272</v>
+        <v>0.0529213</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0546853</v>
+        <v>0.0542126</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0545597</v>
+        <v>0.0547298</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0557185</v>
+        <v>0.056463</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.058163</v>
+        <v>0.0576478</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0577566</v>
+        <v>0.0583255</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0579767</v>
+        <v>0.0601453</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0611872</v>
+        <v>0.061635</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0624637</v>
+        <v>0.0629543</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0610737</v>
+        <v>0.06504020000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0665457</v>
+        <v>0.0663805</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0679009</v>
+        <v>0.0686928</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06427090000000001</v>
+        <v>0.0712487</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0722083</v>
+        <v>0.0733656</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07530969999999999</v>
+        <v>0.0764977</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0687145</v>
+        <v>0.07927679999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0808156</v>
+        <v>0.082681</v>
       </c>
       <c r="C90" t="n">
-        <v>0.08519930000000001</v>
+        <v>0.0856721</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0734998</v>
+        <v>0.0889682</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0916515</v>
+        <v>0.0929014</v>
       </c>
       <c r="C91" t="n">
-        <v>0.09742140000000001</v>
+        <v>0.0982582</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0797359</v>
+        <v>0.103151</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.106813</v>
+        <v>0.108049</v>
       </c>
       <c r="C92" t="n">
-        <v>0.114217</v>
+        <v>0.114793</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0884334</v>
+        <v>0.12307</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.128933</v>
+        <v>0.130301</v>
       </c>
       <c r="C93" t="n">
-        <v>0.139977</v>
+        <v>0.140527</v>
       </c>
       <c r="D93" t="n">
-        <v>0.100973</v>
+        <v>0.156904</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.163367</v>
+        <v>0.163582</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179248</v>
+        <v>0.179616</v>
       </c>
       <c r="D94" t="n">
-        <v>0.121582</v>
+        <v>0.215873</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0671122</v>
+        <v>0.0666747</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0633674</v>
+        <v>0.0634039</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0677384</v>
+        <v>0.0655997</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0699394</v>
+        <v>0.0695726</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0657425</v>
+        <v>0.0654535</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0701835</v>
+        <v>0.0676996</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07249120000000001</v>
+        <v>0.0724318</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0690974</v>
+        <v>0.06914140000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0728485</v>
+        <v>0.07172000000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07533430000000001</v>
+        <v>0.07491159999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0725605</v>
+        <v>0.07213559999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07551769999999999</v>
+        <v>0.0740363</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0777265</v>
+        <v>0.078016</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0758919</v>
+        <v>0.0761323</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0783177</v>
+        <v>0.0783885</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.080777</v>
+        <v>0.0812619</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0801012</v>
+        <v>0.08038149999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0812957</v>
+        <v>0.0826958</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.08472010000000001</v>
+        <v>0.0855069</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0845825</v>
+        <v>0.084892</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0845118</v>
+        <v>0.0876879</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.088656</v>
+        <v>0.0893335</v>
       </c>
       <c r="C102" t="n">
-        <v>0.090154</v>
+        <v>0.0901367</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0881449</v>
+        <v>0.093088</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0946033</v>
+        <v>0.0952471</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0970666</v>
+        <v>0.0972373</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0924854</v>
+        <v>0.100605</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.102589</v>
+        <v>0.10302</v>
       </c>
       <c r="C104" t="n">
-        <v>0.106428</v>
+        <v>0.106462</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0975693</v>
+        <v>0.109868</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.112659</v>
+        <v>0.113187</v>
       </c>
       <c r="C105" t="n">
-        <v>0.117836</v>
+        <v>0.11661</v>
       </c>
       <c r="D105" t="n">
-        <v>0.103619</v>
+        <v>0.121785</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.128438</v>
+        <v>0.129149</v>
       </c>
       <c r="C106" t="n">
-        <v>0.13396</v>
+        <v>0.13409</v>
       </c>
       <c r="D106" t="n">
-        <v>0.111967</v>
+        <v>0.143369</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149046</v>
+        <v>0.149369</v>
       </c>
       <c r="C107" t="n">
-        <v>0.157221</v>
+        <v>0.155857</v>
       </c>
       <c r="D107" t="n">
-        <v>0.124303</v>
+        <v>0.175533</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.179305</v>
+        <v>0.17969</v>
       </c>
       <c r="C108" t="n">
-        <v>0.194515</v>
+        <v>0.194931</v>
       </c>
       <c r="D108" t="n">
-        <v>0.144813</v>
+        <v>0.231148</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225353</v>
+        <v>0.225411</v>
       </c>
       <c r="C109" t="n">
-        <v>0.254834</v>
+        <v>0.252371</v>
       </c>
       <c r="D109" t="n">
-        <v>0.18304</v>
+        <v>0.343264</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.080967</v>
+        <v>0.08020620000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08199380000000001</v>
+        <v>0.082203</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0870171</v>
+        <v>0.0846016</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0832405</v>
+        <v>0.08306769999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08445950000000001</v>
+        <v>0.0844895</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0893805</v>
+        <v>0.0870238</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0863358</v>
+        <v>0.0870385</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0873135</v>
+        <v>0.087478</v>
       </c>
       <c r="D112" t="n">
-        <v>0.09148340000000001</v>
+        <v>0.0897932</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0906724</v>
+        <v>0.0907963</v>
       </c>
       <c r="C113" t="n">
-        <v>0.09071410000000001</v>
+        <v>0.0908311</v>
       </c>
       <c r="D113" t="n">
-        <v>0.09394379999999999</v>
+        <v>0.09324109999999999</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.09511029999999999</v>
+        <v>0.0951113</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0941538</v>
+        <v>0.094444</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0969266</v>
+        <v>0.0968485</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0998284</v>
+        <v>0.10038</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0982113</v>
+        <v>0.0987469</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0997369</v>
+        <v>0.101522</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106027</v>
+        <v>0.106368</v>
       </c>
       <c r="C116" t="n">
-        <v>0.104067</v>
+        <v>0.103986</v>
       </c>
       <c r="D116" t="n">
-        <v>0.103257</v>
+        <v>0.107198</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113015</v>
+        <v>0.113147</v>
       </c>
       <c r="C117" t="n">
-        <v>0.110386</v>
+        <v>0.111199</v>
       </c>
       <c r="D117" t="n">
-        <v>0.106835</v>
+        <v>0.114453</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121009</v>
+        <v>0.121221</v>
       </c>
       <c r="C118" t="n">
-        <v>0.119244</v>
+        <v>0.119302</v>
       </c>
       <c r="D118" t="n">
-        <v>0.112056</v>
+        <v>0.124072</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131061</v>
+        <v>0.131096</v>
       </c>
       <c r="C119" t="n">
-        <v>0.130534</v>
+        <v>0.131612</v>
       </c>
       <c r="D119" t="n">
-        <v>0.119258</v>
+        <v>0.137002</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144243</v>
+        <v>0.144128</v>
       </c>
       <c r="C120" t="n">
-        <v>0.146681</v>
+        <v>0.146729</v>
       </c>
       <c r="D120" t="n">
-        <v>0.127891</v>
+        <v>0.155456</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.162414</v>
+        <v>0.162341</v>
       </c>
       <c r="C121" t="n">
-        <v>0.167856</v>
+        <v>0.166711</v>
       </c>
       <c r="D121" t="n">
-        <v>0.139704</v>
+        <v>0.184153</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188707</v>
+        <v>0.188519</v>
       </c>
       <c r="C122" t="n">
-        <v>0.199657</v>
+        <v>0.201214</v>
       </c>
       <c r="D122" t="n">
-        <v>0.156729</v>
+        <v>0.233456</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.229219</v>
+        <v>0.228854</v>
       </c>
       <c r="C123" t="n">
-        <v>0.253435</v>
+        <v>0.255067</v>
       </c>
       <c r="D123" t="n">
-        <v>0.190768</v>
+        <v>0.343443</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.105228</v>
+        <v>0.103038</v>
       </c>
       <c r="C124" t="n">
-        <v>0.101646</v>
+        <v>0.0997005</v>
       </c>
       <c r="D124" t="n">
-        <v>0.106938</v>
+        <v>0.101415</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.109343</v>
+        <v>0.105675</v>
       </c>
       <c r="C125" t="n">
-        <v>0.102867</v>
+        <v>0.102082</v>
       </c>
       <c r="D125" t="n">
-        <v>0.108223</v>
+        <v>0.103715</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.109031</v>
+        <v>0.110509</v>
       </c>
       <c r="C126" t="n">
-        <v>0.105651</v>
+        <v>0.106199</v>
       </c>
       <c r="D126" t="n">
-        <v>0.110315</v>
+        <v>0.107426</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.110966</v>
+        <v>0.109872</v>
       </c>
       <c r="C127" t="n">
-        <v>0.110451</v>
+        <v>0.110248</v>
       </c>
       <c r="D127" t="n">
-        <v>0.114529</v>
+        <v>0.112191</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113428</v>
+        <v>0.113107</v>
       </c>
       <c r="C128" t="n">
-        <v>0.114153</v>
+        <v>0.111901</v>
       </c>
       <c r="D128" t="n">
-        <v>0.11763</v>
+        <v>0.113843</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.117795</v>
+        <v>0.117207</v>
       </c>
       <c r="C129" t="n">
-        <v>0.116295</v>
+        <v>0.11801</v>
       </c>
       <c r="D129" t="n">
-        <v>0.118899</v>
+        <v>0.119922</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122073</v>
+        <v>0.122116</v>
       </c>
       <c r="C130" t="n">
-        <v>0.121643</v>
+        <v>0.122014</v>
       </c>
       <c r="D130" t="n">
-        <v>0.122291</v>
+        <v>0.124065</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127539</v>
+        <v>0.126389</v>
       </c>
       <c r="C131" t="n">
-        <v>0.127395</v>
+        <v>0.128149</v>
       </c>
       <c r="D131" t="n">
-        <v>0.126141</v>
+        <v>0.130976</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.133176</v>
+        <v>0.134308</v>
       </c>
       <c r="C132" t="n">
-        <v>0.137512</v>
+        <v>0.136108</v>
       </c>
       <c r="D132" t="n">
-        <v>0.132952</v>
+        <v>0.139457</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.142639</v>
+        <v>0.143523</v>
       </c>
       <c r="C133" t="n">
-        <v>0.146288</v>
+        <v>0.146251</v>
       </c>
       <c r="D133" t="n">
-        <v>0.137511</v>
+        <v>0.151123</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154198</v>
+        <v>0.154213</v>
       </c>
       <c r="C134" t="n">
-        <v>0.16174</v>
+        <v>0.159745</v>
       </c>
       <c r="D134" t="n">
-        <v>0.146595</v>
+        <v>0.167173</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171625</v>
+        <v>0.171196</v>
       </c>
       <c r="C135" t="n">
-        <v>0.179792</v>
+        <v>0.179526</v>
       </c>
       <c r="D135" t="n">
-        <v>0.155344</v>
+        <v>0.193613</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.198378</v>
+        <v>0.195147</v>
       </c>
       <c r="C136" t="n">
-        <v>0.210037</v>
+        <v>0.210047</v>
       </c>
       <c r="D136" t="n">
-        <v>0.171107</v>
+        <v>0.238382</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.23454</v>
+        <v>0.232289</v>
       </c>
       <c r="C137" t="n">
-        <v>0.257675</v>
+        <v>0.258866</v>
       </c>
       <c r="D137" t="n">
-        <v>0.197302</v>
+        <v>0.334624</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170192</v>
+        <v>0.169579</v>
       </c>
       <c r="C138" t="n">
-        <v>0.156303</v>
+        <v>0.156045</v>
       </c>
       <c r="D138" t="n">
-        <v>0.167233</v>
+        <v>0.15747</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.171654</v>
+        <v>0.169758</v>
       </c>
       <c r="C139" t="n">
-        <v>0.158973</v>
+        <v>0.158671</v>
       </c>
       <c r="D139" t="n">
-        <v>0.169978</v>
+        <v>0.160003</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.173099</v>
+        <v>0.172303</v>
       </c>
       <c r="C140" t="n">
-        <v>0.160361</v>
+        <v>0.161022</v>
       </c>
       <c r="D140" t="n">
-        <v>0.171007</v>
+        <v>0.162451</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.17525</v>
+        <v>0.17421</v>
       </c>
       <c r="C141" t="n">
-        <v>0.163125</v>
+        <v>0.163386</v>
       </c>
       <c r="D141" t="n">
-        <v>0.173626</v>
+        <v>0.16462</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.176708</v>
+        <v>0.17653</v>
       </c>
       <c r="C142" t="n">
-        <v>0.166544</v>
+        <v>0.166971</v>
       </c>
       <c r="D142" t="n">
-        <v>0.17573</v>
+        <v>0.168493</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.181383</v>
+        <v>0.179691</v>
       </c>
       <c r="C143" t="n">
-        <v>0.170143</v>
+        <v>0.170434</v>
       </c>
       <c r="D143" t="n">
-        <v>0.178189</v>
+        <v>0.172391</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0324732</v>
+        <v>0.0317031</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0239858</v>
+        <v>0.0239445</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0210928</v>
+        <v>0.0222887</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0333415</v>
+        <v>0.0337229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0249788</v>
+        <v>0.0244126</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0225061</v>
+        <v>0.0250444</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0366621</v>
+        <v>0.0354625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0273661</v>
+        <v>0.0279508</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0293407</v>
+        <v>0.0308427</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0424376</v>
+        <v>0.0413934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0397001</v>
+        <v>0.0386709</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0436408</v>
+        <v>0.0390697</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0572362</v>
+        <v>0.0540155</v>
       </c>
       <c r="C6" t="n">
-        <v>0.060757</v>
+        <v>0.0602318</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0642662</v>
+        <v>0.0542723</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0760721</v>
+        <v>0.0775921</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0858688</v>
+        <v>0.0861138</v>
       </c>
       <c r="D7" t="n">
-        <v>0.093343</v>
+        <v>0.07394530000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.106617</v>
+        <v>0.109917</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117194</v>
+        <v>0.116572</v>
       </c>
       <c r="D8" t="n">
-        <v>0.133706</v>
+        <v>0.10124</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149232</v>
+        <v>0.145457</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16437</v>
+        <v>0.164268</v>
       </c>
       <c r="D9" t="n">
-        <v>0.183943</v>
+        <v>0.0241416</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0306327</v>
+        <v>0.030491</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0284866</v>
+        <v>0.0284612</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0240021</v>
+        <v>0.0244001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0313501</v>
+        <v>0.0308972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.028975</v>
+        <v>0.0288736</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0241692</v>
+        <v>0.0246474</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0315624</v>
+        <v>0.0313987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0295365</v>
+        <v>0.0293946</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02426</v>
+        <v>0.0251256</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.032233</v>
+        <v>0.031807</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0291052</v>
+        <v>0.029025</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0231803</v>
+        <v>0.0251233</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0329181</v>
+        <v>0.032687</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0294817</v>
+        <v>0.0294646</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0240928</v>
+        <v>0.025021</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0341545</v>
+        <v>0.033804</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0298095</v>
+        <v>0.02964</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0254689</v>
+        <v>0.0248441</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0352193</v>
+        <v>0.0348471</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0317045</v>
+        <v>0.0313891</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0302392</v>
+        <v>0.0319988</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0380162</v>
+        <v>0.037205</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0346459</v>
+        <v>0.0351222</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0349991</v>
+        <v>0.0373474</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0413993</v>
+        <v>0.0429315</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0436699</v>
+        <v>0.043939</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0460929</v>
+        <v>0.0461191</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0497298</v>
+        <v>0.049764</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0538345</v>
+        <v>0.0539153</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0556467</v>
+        <v>0.0529694</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0601924</v>
+        <v>0.0624016</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0665444</v>
+        <v>0.0667087</v>
       </c>
       <c r="D20" t="n">
-        <v>0.071382</v>
+        <v>0.06388149999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.077156</v>
+        <v>0.0820278</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0879238</v>
+        <v>0.0877781</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09417449999999999</v>
+        <v>0.07794</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100274</v>
+        <v>0.105432</v>
       </c>
       <c r="C22" t="n">
-        <v>0.116131</v>
+        <v>0.116088</v>
       </c>
       <c r="D22" t="n">
-        <v>0.131707</v>
+        <v>0.099895</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.138758</v>
+        <v>0.142217</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161533</v>
+        <v>0.16092</v>
       </c>
       <c r="D23" t="n">
-        <v>0.179946</v>
+        <v>0.025482</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0321503</v>
+        <v>0.0322388</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0297454</v>
+        <v>0.0296769</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0267429</v>
+        <v>0.0259313</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0327512</v>
+        <v>0.0329195</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0301303</v>
+        <v>0.0301989</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0270635</v>
+        <v>0.0263505</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0335806</v>
+        <v>0.0334184</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0306743</v>
+        <v>0.0309906</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0274636</v>
+        <v>0.0265898</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0342663</v>
+        <v>0.0341952</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0318343</v>
+        <v>0.0319985</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0280965</v>
+        <v>0.027735</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0351216</v>
+        <v>0.0348238</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0325935</v>
+        <v>0.032691</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0297379</v>
+        <v>0.0297083</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0365631</v>
+        <v>0.0361831</v>
       </c>
       <c r="C29" t="n">
-        <v>0.033256</v>
+        <v>0.0331848</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0337046</v>
+        <v>0.0337271</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0387986</v>
+        <v>0.0382302</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0361499</v>
+        <v>0.0359814</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0375979</v>
+        <v>0.0393365</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0418566</v>
+        <v>0.0414137</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0403903</v>
+        <v>0.0406242</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0422172</v>
+        <v>0.0434886</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0463698</v>
+        <v>0.0464105</v>
       </c>
       <c r="C32" t="n">
-        <v>0.047537</v>
+        <v>0.0476166</v>
       </c>
       <c r="D32" t="n">
-        <v>0.048046</v>
+        <v>0.0491933</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0526783</v>
+        <v>0.0532928</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0558742</v>
+        <v>0.055853</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0564314</v>
+        <v>0.0554524</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0630718</v>
+        <v>0.0636299</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06659760000000001</v>
+        <v>0.066716</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06840350000000001</v>
+        <v>0.0641775</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0767825</v>
+        <v>0.077394</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08136110000000001</v>
+        <v>0.08165269999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08907379999999999</v>
+        <v>0.0771071</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0970929</v>
+        <v>0.09821390000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111284</v>
+        <v>0.111174</v>
       </c>
       <c r="D36" t="n">
-        <v>0.123541</v>
+        <v>0.09878389999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.129848</v>
+        <v>0.131722</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153922</v>
+        <v>0.153641</v>
       </c>
       <c r="D37" t="n">
-        <v>0.171228</v>
+        <v>0.026487</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0332792</v>
+        <v>0.0328122</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0304105</v>
+        <v>0.0300907</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0294176</v>
+        <v>0.0270906</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0339148</v>
+        <v>0.0335417</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0309864</v>
+        <v>0.0302734</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0302147</v>
+        <v>0.0274566</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0345017</v>
+        <v>0.0342639</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0318898</v>
+        <v>0.0312991</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0316422</v>
+        <v>0.0284775</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0353249</v>
+        <v>0.0353187</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0328259</v>
+        <v>0.0323302</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0329101</v>
+        <v>0.0299192</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0363437</v>
+        <v>0.036305</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0343863</v>
+        <v>0.0337614</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0348445</v>
+        <v>0.032757</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0376686</v>
+        <v>0.0376513</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0360986</v>
+        <v>0.0355858</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0371489</v>
+        <v>0.0356452</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0397468</v>
+        <v>0.0399096</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0381924</v>
+        <v>0.0379646</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0395594</v>
+        <v>0.0393953</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.042726</v>
+        <v>0.0428152</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0426645</v>
+        <v>0.0424314</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0436154</v>
+        <v>0.0438484</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.046831</v>
+        <v>0.0471122</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0481429</v>
+        <v>0.0480075</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0491128</v>
+        <v>0.0489954</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0526552</v>
+        <v>0.0524644</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0546696</v>
+        <v>0.0546632</v>
       </c>
       <c r="D47" t="n">
-        <v>0.056697</v>
+        <v>0.0547942</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0605167</v>
+        <v>0.0613108</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06459230000000001</v>
+        <v>0.0646283</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0670997</v>
+        <v>0.0631065</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.073392</v>
+        <v>0.0740205</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0800749</v>
+        <v>0.0804029</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0846531</v>
+        <v>0.0750506</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0903708</v>
+        <v>0.09264310000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102637</v>
+        <v>0.103362</v>
       </c>
       <c r="D50" t="n">
-        <v>0.112592</v>
+        <v>0.0920131</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120701</v>
+        <v>0.12435</v>
       </c>
       <c r="C51" t="n">
-        <v>0.139943</v>
+        <v>0.141687</v>
       </c>
       <c r="D51" t="n">
-        <v>0.158566</v>
+        <v>0.0291657</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165592</v>
+        <v>0.167663</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188742</v>
+        <v>0.18931</v>
       </c>
       <c r="D52" t="n">
-        <v>0.213935</v>
+        <v>0.0297561</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0349691</v>
+        <v>0.0355089</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0323235</v>
+        <v>0.0314081</v>
       </c>
       <c r="D53" t="n">
-        <v>0.033248</v>
+        <v>0.0304433</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0357763</v>
+        <v>0.0362462</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0331493</v>
+        <v>0.0322127</v>
       </c>
       <c r="D54" t="n">
-        <v>0.034201</v>
+        <v>0.0315914</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0366409</v>
+        <v>0.037087</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0343085</v>
+        <v>0.0335256</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0354465</v>
+        <v>0.0330872</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0379077</v>
+        <v>0.0382544</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0356033</v>
+        <v>0.0348257</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0367684</v>
+        <v>0.0347959</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0394086</v>
+        <v>0.0396947</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0375263</v>
+        <v>0.0368774</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0385385</v>
+        <v>0.0375305</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0413619</v>
+        <v>0.0414932</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0398767</v>
+        <v>0.0393982</v>
       </c>
       <c r="D58" t="n">
-        <v>0.041038</v>
+        <v>0.0407164</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0438665</v>
+        <v>0.0440642</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0426688</v>
+        <v>0.0422892</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04412</v>
+        <v>0.0443426</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.047489</v>
+        <v>0.0476959</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0470023</v>
+        <v>0.0467114</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0482375</v>
+        <v>0.0478627</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0528266</v>
+        <v>0.0530127</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0536518</v>
+        <v>0.053465</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0552275</v>
+        <v>0.0541882</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0605434</v>
+        <v>0.060809</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0628824</v>
+        <v>0.06289210000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0652001</v>
+        <v>0.062114</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07192949999999999</v>
+        <v>0.0725121</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0766375</v>
+        <v>0.0768749</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0809412</v>
+        <v>0.0736603</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08874840000000001</v>
+        <v>0.09063649999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09689689999999999</v>
+        <v>0.0976185</v>
       </c>
       <c r="D64" t="n">
-        <v>0.106674</v>
+        <v>0.0903533</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116353</v>
+        <v>0.117312</v>
       </c>
       <c r="C65" t="n">
-        <v>0.131298</v>
+        <v>0.132952</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1494</v>
+        <v>0.11626</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.156299</v>
+        <v>0.159364</v>
       </c>
       <c r="C66" t="n">
-        <v>0.179058</v>
+        <v>0.181225</v>
       </c>
       <c r="D66" t="n">
-        <v>0.205093</v>
+        <v>0.033642</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.040505</v>
+        <v>0.0408512</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0364172</v>
+        <v>0.0344063</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0378477</v>
+        <v>0.0345145</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0410393</v>
+        <v>0.0416055</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0373305</v>
+        <v>0.0353586</v>
       </c>
       <c r="D68" t="n">
-        <v>0.038809</v>
+        <v>0.0356171</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0419222</v>
+        <v>0.0424469</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0385497</v>
+        <v>0.0366246</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0398968</v>
+        <v>0.0369547</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0430402</v>
+        <v>0.0434274</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0399863</v>
+        <v>0.0379239</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0412829</v>
+        <v>0.0385718</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0444575</v>
+        <v>0.0447938</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0414613</v>
+        <v>0.0394471</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0429248</v>
+        <v>0.0406641</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0460148</v>
+        <v>0.0465912</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0434699</v>
+        <v>0.0413069</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0450775</v>
+        <v>0.0430552</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0481892</v>
+        <v>0.0488618</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0462311</v>
+        <v>0.0442921</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0482221</v>
+        <v>0.0467601</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0512851</v>
+        <v>0.052074</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0504597</v>
+        <v>0.0485027</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0523435</v>
+        <v>0.050958</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0557767</v>
+        <v>0.0568114</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0565964</v>
+        <v>0.0546552</v>
       </c>
       <c r="D75" t="n">
-        <v>0.058594</v>
+        <v>0.0557463</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06259729999999999</v>
+        <v>0.0638225</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0654067</v>
+        <v>0.0634744</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06779540000000001</v>
+        <v>0.0624739</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0726232</v>
+        <v>0.07425320000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0782018</v>
+        <v>0.0763206</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08202230000000001</v>
+        <v>0.0732028</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0883579</v>
+        <v>0.09013160000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0960192</v>
+        <v>0.09444619999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.104153</v>
+        <v>0.088044</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112729</v>
+        <v>0.116422</v>
       </c>
       <c r="C79" t="n">
-        <v>0.125334</v>
+        <v>0.124795</v>
       </c>
       <c r="D79" t="n">
-        <v>0.142384</v>
+        <v>0.111673</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.151503</v>
+        <v>0.157149</v>
       </c>
       <c r="C80" t="n">
-        <v>0.169989</v>
+        <v>0.170492</v>
       </c>
       <c r="D80" t="n">
-        <v>0.201506</v>
+        <v>0.0399022</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0475431</v>
+        <v>0.0471496</v>
       </c>
       <c r="C81" t="n">
-        <v>0.044037</v>
+        <v>0.0447648</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0456378</v>
+        <v>0.0410031</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0482339</v>
+        <v>0.0485534</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0465584</v>
+        <v>0.0469371</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0478746</v>
+        <v>0.0422786</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0501772</v>
+        <v>0.0504306</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0490874</v>
+        <v>0.0499386</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0502751</v>
+        <v>0.0438868</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0519886</v>
+        <v>0.0528584</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0517508</v>
+        <v>0.0530226</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0529213</v>
+        <v>0.0465646</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0542126</v>
+        <v>0.0557689</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0547298</v>
+        <v>0.056511</v>
       </c>
       <c r="D85" t="n">
-        <v>0.056463</v>
+        <v>0.0501862</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0576478</v>
+        <v>0.0594445</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0583255</v>
+        <v>0.0601568</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0601453</v>
+        <v>0.0543575</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.061635</v>
+        <v>0.0637088</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0629543</v>
+        <v>0.0647982</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06504020000000001</v>
+        <v>0.0590603</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0663805</v>
+        <v>0.0689994</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0686928</v>
+        <v>0.0710749</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0712487</v>
+        <v>0.0653326</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0733656</v>
+        <v>0.07592930000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0764977</v>
+        <v>0.0785491</v>
       </c>
       <c r="D89" t="n">
-        <v>0.07927679999999999</v>
+        <v>0.0725359</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.082681</v>
+        <v>0.0846291</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0856721</v>
+        <v>0.0886067</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0889682</v>
+        <v>0.0766561</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0929014</v>
+        <v>0.0962715</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0982582</v>
+        <v>0.101053</v>
       </c>
       <c r="D91" t="n">
-        <v>0.103151</v>
+        <v>0.0884987</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.108049</v>
+        <v>0.111813</v>
       </c>
       <c r="C92" t="n">
-        <v>0.114793</v>
+        <v>0.118205</v>
       </c>
       <c r="D92" t="n">
-        <v>0.12307</v>
+        <v>0.103438</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.130301</v>
+        <v>0.134617</v>
       </c>
       <c r="C93" t="n">
-        <v>0.140527</v>
+        <v>0.145279</v>
       </c>
       <c r="D93" t="n">
-        <v>0.156904</v>
+        <v>0.126434</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.163582</v>
+        <v>0.169419</v>
       </c>
       <c r="C94" t="n">
-        <v>0.179616</v>
+        <v>0.187606</v>
       </c>
       <c r="D94" t="n">
-        <v>0.215873</v>
+        <v>0.0518721</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0666747</v>
+        <v>0.0687311</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0634039</v>
+        <v>0.0660207</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0655997</v>
+        <v>0.052995</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0695726</v>
+        <v>0.0708635</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0654535</v>
+        <v>0.0689341</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0676996</v>
+        <v>0.0565359</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0724318</v>
+        <v>0.0742003</v>
       </c>
       <c r="C97" t="n">
-        <v>0.06914140000000001</v>
+        <v>0.0719475</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07172000000000001</v>
+        <v>0.0584815</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07491159999999999</v>
+        <v>0.077582</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07213559999999999</v>
+        <v>0.0759223</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0740363</v>
+        <v>0.0611297</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.078016</v>
+        <v>0.08120620000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0761323</v>
+        <v>0.0802826</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0783885</v>
+        <v>0.06466479999999999</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0812619</v>
+        <v>0.0840562</v>
       </c>
       <c r="C100" t="n">
-        <v>0.08038149999999999</v>
+        <v>0.0831263</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0826958</v>
+        <v>0.06875580000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0855069</v>
+        <v>0.08798499999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.084892</v>
+        <v>0.08919920000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0876879</v>
+        <v>0.07585169999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0893335</v>
+        <v>0.0925151</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0901367</v>
+        <v>0.0947645</v>
       </c>
       <c r="D102" t="n">
-        <v>0.093088</v>
+        <v>0.07971880000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0952471</v>
+        <v>0.0984339</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0972373</v>
+        <v>0.102499</v>
       </c>
       <c r="D103" t="n">
-        <v>0.100605</v>
+        <v>0.0855909</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.10302</v>
+        <v>0.10685</v>
       </c>
       <c r="C104" t="n">
-        <v>0.106462</v>
+        <v>0.112276</v>
       </c>
       <c r="D104" t="n">
-        <v>0.109868</v>
+        <v>0.0946258</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.113187</v>
+        <v>0.117788</v>
       </c>
       <c r="C105" t="n">
-        <v>0.11661</v>
+        <v>0.124323</v>
       </c>
       <c r="D105" t="n">
-        <v>0.121785</v>
+        <v>0.100504</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.129149</v>
+        <v>0.133672</v>
       </c>
       <c r="C106" t="n">
-        <v>0.13409</v>
+        <v>0.140699</v>
       </c>
       <c r="D106" t="n">
-        <v>0.143369</v>
+        <v>0.114568</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.149369</v>
+        <v>0.155872</v>
       </c>
       <c r="C107" t="n">
-        <v>0.155857</v>
+        <v>0.162608</v>
       </c>
       <c r="D107" t="n">
-        <v>0.175533</v>
+        <v>0.134264</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.17969</v>
+        <v>0.18713</v>
       </c>
       <c r="C108" t="n">
-        <v>0.194931</v>
+        <v>0.204133</v>
       </c>
       <c r="D108" t="n">
-        <v>0.231148</v>
+        <v>0.0601408</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.225411</v>
+        <v>0.234667</v>
       </c>
       <c r="C109" t="n">
-        <v>0.252371</v>
+        <v>0.266742</v>
       </c>
       <c r="D109" t="n">
-        <v>0.343264</v>
+        <v>0.0623373</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08020620000000001</v>
+        <v>0.08354979999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.082203</v>
+        <v>0.08635039999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0846016</v>
+        <v>0.06370779999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.08306769999999999</v>
+        <v>0.08602369999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0844895</v>
+        <v>0.0892136</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0870238</v>
+        <v>0.06638670000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0870385</v>
+        <v>0.08992890000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.087478</v>
+        <v>0.0926062</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0897932</v>
+        <v>0.06883889999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0907963</v>
+        <v>0.0939864</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0908311</v>
+        <v>0.09610870000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.09324109999999999</v>
+        <v>0.0725286</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0951113</v>
+        <v>0.0992036</v>
       </c>
       <c r="C114" t="n">
-        <v>0.094444</v>
+        <v>0.09992529999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0968485</v>
+        <v>0.0770141</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.10038</v>
+        <v>0.105354</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0987469</v>
+        <v>0.104356</v>
       </c>
       <c r="D115" t="n">
-        <v>0.101522</v>
+        <v>0.08192770000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.106368</v>
+        <v>0.112023</v>
       </c>
       <c r="C116" t="n">
-        <v>0.103986</v>
+        <v>0.109915</v>
       </c>
       <c r="D116" t="n">
-        <v>0.107198</v>
+        <v>0.0899133</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.113147</v>
+        <v>0.119091</v>
       </c>
       <c r="C117" t="n">
-        <v>0.111199</v>
+        <v>0.117624</v>
       </c>
       <c r="D117" t="n">
-        <v>0.114453</v>
+        <v>0.09732929999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121221</v>
+        <v>0.127579</v>
       </c>
       <c r="C118" t="n">
-        <v>0.119302</v>
+        <v>0.127184</v>
       </c>
       <c r="D118" t="n">
-        <v>0.124072</v>
+        <v>0.106981</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.131096</v>
+        <v>0.13817</v>
       </c>
       <c r="C119" t="n">
-        <v>0.131612</v>
+        <v>0.139136</v>
       </c>
       <c r="D119" t="n">
-        <v>0.137002</v>
+        <v>0.11598</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.144128</v>
+        <v>0.150602</v>
       </c>
       <c r="C120" t="n">
-        <v>0.146729</v>
+        <v>0.153772</v>
       </c>
       <c r="D120" t="n">
-        <v>0.155456</v>
+        <v>0.127458</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.162341</v>
+        <v>0.169445</v>
       </c>
       <c r="C121" t="n">
-        <v>0.166711</v>
+        <v>0.177094</v>
       </c>
       <c r="D121" t="n">
-        <v>0.184153</v>
+        <v>0.145405</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.188519</v>
+        <v>0.196093</v>
       </c>
       <c r="C122" t="n">
-        <v>0.201214</v>
+        <v>0.210024</v>
       </c>
       <c r="D122" t="n">
-        <v>0.233456</v>
+        <v>0.173368</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.228854</v>
+        <v>0.240323</v>
       </c>
       <c r="C123" t="n">
-        <v>0.255067</v>
+        <v>0.26639</v>
       </c>
       <c r="D123" t="n">
-        <v>0.343443</v>
+        <v>0.0871576</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.103038</v>
+        <v>0.112953</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0997005</v>
+        <v>0.109812</v>
       </c>
       <c r="D124" t="n">
-        <v>0.101415</v>
+        <v>0.09178360000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.105675</v>
+        <v>0.109811</v>
       </c>
       <c r="C125" t="n">
-        <v>0.102082</v>
+        <v>0.110534</v>
       </c>
       <c r="D125" t="n">
-        <v>0.103715</v>
+        <v>0.09129429999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.110509</v>
+        <v>0.116869</v>
       </c>
       <c r="C126" t="n">
-        <v>0.106199</v>
+        <v>0.114518</v>
       </c>
       <c r="D126" t="n">
-        <v>0.107426</v>
+        <v>0.0952571</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.109872</v>
+        <v>0.115005</v>
       </c>
       <c r="C127" t="n">
-        <v>0.110248</v>
+        <v>0.117453</v>
       </c>
       <c r="D127" t="n">
-        <v>0.112191</v>
+        <v>0.0975684</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.113107</v>
+        <v>0.121723</v>
       </c>
       <c r="C128" t="n">
-        <v>0.111901</v>
+        <v>0.123022</v>
       </c>
       <c r="D128" t="n">
-        <v>0.113843</v>
+        <v>0.103666</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.117207</v>
+        <v>0.122727</v>
       </c>
       <c r="C129" t="n">
-        <v>0.11801</v>
+        <v>0.125601</v>
       </c>
       <c r="D129" t="n">
-        <v>0.119922</v>
+        <v>0.105595</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122116</v>
+        <v>0.129914</v>
       </c>
       <c r="C130" t="n">
-        <v>0.122014</v>
+        <v>0.130921</v>
       </c>
       <c r="D130" t="n">
-        <v>0.124065</v>
+        <v>0.111786</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.126389</v>
+        <v>0.132444</v>
       </c>
       <c r="C131" t="n">
-        <v>0.128149</v>
+        <v>0.137308</v>
       </c>
       <c r="D131" t="n">
-        <v>0.130976</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.134308</v>
+        <v>0.140653</v>
       </c>
       <c r="C132" t="n">
-        <v>0.136108</v>
+        <v>0.146279</v>
       </c>
       <c r="D132" t="n">
-        <v>0.139457</v>
+        <v>0.121551</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.143523</v>
+        <v>0.148802</v>
       </c>
       <c r="C133" t="n">
-        <v>0.146251</v>
+        <v>0.15649</v>
       </c>
       <c r="D133" t="n">
-        <v>0.151123</v>
+        <v>0.129328</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.154213</v>
+        <v>0.162263</v>
       </c>
       <c r="C134" t="n">
-        <v>0.159745</v>
+        <v>0.170582</v>
       </c>
       <c r="D134" t="n">
-        <v>0.167173</v>
+        <v>0.140735</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.171196</v>
+        <v>0.179416</v>
       </c>
       <c r="C135" t="n">
-        <v>0.179526</v>
+        <v>0.191661</v>
       </c>
       <c r="D135" t="n">
-        <v>0.193613</v>
+        <v>0.156825</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.195147</v>
+        <v>0.205231</v>
       </c>
       <c r="C136" t="n">
-        <v>0.210047</v>
+        <v>0.222715</v>
       </c>
       <c r="D136" t="n">
-        <v>0.238382</v>
+        <v>0.179729</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.232289</v>
+        <v>0.242719</v>
       </c>
       <c r="C137" t="n">
-        <v>0.258866</v>
+        <v>0.274533</v>
       </c>
       <c r="D137" t="n">
-        <v>0.334624</v>
+        <v>0.163129</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.169579</v>
+        <v>0.184055</v>
       </c>
       <c r="C138" t="n">
-        <v>0.156045</v>
+        <v>0.169733</v>
       </c>
       <c r="D138" t="n">
-        <v>0.15747</v>
+        <v>0.164277</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169758</v>
+        <v>0.185236</v>
       </c>
       <c r="C139" t="n">
-        <v>0.158671</v>
+        <v>0.172494</v>
       </c>
       <c r="D139" t="n">
-        <v>0.160003</v>
+        <v>0.166438</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.172303</v>
+        <v>0.183488</v>
       </c>
       <c r="C140" t="n">
-        <v>0.161022</v>
+        <v>0.174585</v>
       </c>
       <c r="D140" t="n">
-        <v>0.162451</v>
+        <v>0.168135</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.17421</v>
+        <v>0.191719</v>
       </c>
       <c r="C141" t="n">
-        <v>0.163386</v>
+        <v>0.178718</v>
       </c>
       <c r="D141" t="n">
-        <v>0.16462</v>
+        <v>0.172259</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.17653</v>
+        <v>0.191625</v>
       </c>
       <c r="C142" t="n">
-        <v>0.166971</v>
+        <v>0.181904</v>
       </c>
       <c r="D142" t="n">
-        <v>0.168493</v>
+        <v>0.173527</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.179691</v>
+        <v>0.193739</v>
       </c>
       <c r="C143" t="n">
-        <v>0.170434</v>
+        <v>0.185475</v>
       </c>
       <c r="D143" t="n">
-        <v>0.172391</v>
+        <v>0.177131</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0317031</v>
+        <v>0.0317098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0239445</v>
+        <v>0.0238136</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0222887</v>
+        <v>0.0241249</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0337229</v>
+        <v>0.0333084</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0244126</v>
+        <v>0.0242101</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0250444</v>
+        <v>0.0245308</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0354625</v>
+        <v>0.03577</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0279508</v>
+        <v>0.0276637</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0308427</v>
+        <v>0.0248671</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0413934</v>
+        <v>0.041202</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0386709</v>
+        <v>0.0388698</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0390697</v>
+        <v>0.023583</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0540155</v>
+        <v>0.053845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0602318</v>
+        <v>0.0599545</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0542723</v>
+        <v>0.02524</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0775921</v>
+        <v>0.0775296</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0861138</v>
+        <v>0.08597109999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07394530000000001</v>
+        <v>0.0293374</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.109917</v>
+        <v>0.110527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116572</v>
+        <v>0.1163</v>
       </c>
       <c r="D8" t="n">
-        <v>0.10124</v>
+        <v>0.0486043</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145457</v>
+        <v>0.145483</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164268</v>
+        <v>0.164307</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0241416</v>
+        <v>0.0236563</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.030491</v>
+        <v>0.0303439</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0284612</v>
+        <v>0.0286503</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0244001</v>
+        <v>0.0237885</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0308972</v>
+        <v>0.0309938</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0288736</v>
+        <v>0.0289018</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0246474</v>
+        <v>0.0239662</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0313987</v>
+        <v>0.0313946</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0293946</v>
+        <v>0.0293017</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0251256</v>
+        <v>0.0241612</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.031807</v>
+        <v>0.0317709</v>
       </c>
       <c r="C13" t="n">
-        <v>0.029025</v>
+        <v>0.0290786</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0251233</v>
+        <v>0.0243752</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.032687</v>
+        <v>0.0325863</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0294646</v>
+        <v>0.0292717</v>
       </c>
       <c r="D14" t="n">
-        <v>0.025021</v>
+        <v>0.0246729</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.033804</v>
+        <v>0.0335894</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02964</v>
+        <v>0.0294702</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0248441</v>
+        <v>0.0250588</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0348471</v>
+        <v>0.0347934</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0313891</v>
+        <v>0.0312586</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0319988</v>
+        <v>0.0255071</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.037205</v>
+        <v>0.0372858</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0351222</v>
+        <v>0.0346196</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0373474</v>
+        <v>0.0257203</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0429315</v>
+        <v>0.042896</v>
       </c>
       <c r="C18" t="n">
-        <v>0.043939</v>
+        <v>0.0438561</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0461191</v>
+        <v>0.0262093</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.049764</v>
+        <v>0.0495655</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0539153</v>
+        <v>0.0537353</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0529694</v>
+        <v>0.0267483</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0624016</v>
+        <v>0.062381</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0667087</v>
+        <v>0.0665543</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06388149999999999</v>
+        <v>0.0286008</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0820278</v>
+        <v>0.08204649999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0877781</v>
+        <v>0.0879718</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07794</v>
+        <v>0.0408884</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.105432</v>
+        <v>0.105268</v>
       </c>
       <c r="C22" t="n">
-        <v>0.116088</v>
+        <v>0.115765</v>
       </c>
       <c r="D22" t="n">
-        <v>0.099895</v>
+        <v>0.0580367</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.142217</v>
+        <v>0.141905</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16092</v>
+        <v>0.161069</v>
       </c>
       <c r="D23" t="n">
-        <v>0.025482</v>
+        <v>0.0247311</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0322388</v>
+        <v>0.0322711</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0296769</v>
+        <v>0.0298513</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0259313</v>
+        <v>0.0250735</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0329195</v>
+        <v>0.0330562</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0301989</v>
+        <v>0.0304435</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0263505</v>
+        <v>0.0253836</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0334184</v>
+        <v>0.0335688</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0309906</v>
+        <v>0.0308262</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0265898</v>
+        <v>0.0257906</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0341952</v>
+        <v>0.034369</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0319985</v>
+        <v>0.0319443</v>
       </c>
       <c r="D27" t="n">
-        <v>0.027735</v>
+        <v>0.0261631</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0348238</v>
+        <v>0.0350258</v>
       </c>
       <c r="C28" t="n">
-        <v>0.032691</v>
+        <v>0.0324391</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0297083</v>
+        <v>0.0265571</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0361831</v>
+        <v>0.0363636</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0331848</v>
+        <v>0.0331749</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0337271</v>
+        <v>0.0268865</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0382302</v>
+        <v>0.038415</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0359814</v>
+        <v>0.0357863</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0393365</v>
+        <v>0.0273178</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0414137</v>
+        <v>0.0416715</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0406242</v>
+        <v>0.0404456</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0434886</v>
+        <v>0.0280137</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0464105</v>
+        <v>0.0465194</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0476166</v>
+        <v>0.0474915</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0491933</v>
+        <v>0.0291195</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0532928</v>
+        <v>0.0533735</v>
       </c>
       <c r="C33" t="n">
-        <v>0.055853</v>
+        <v>0.0559148</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0554524</v>
+        <v>0.030908</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0636299</v>
+        <v>0.0636467</v>
       </c>
       <c r="C34" t="n">
-        <v>0.066716</v>
+        <v>0.0666202</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0641775</v>
+        <v>0.0360161</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.077394</v>
+        <v>0.0772274</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08165269999999999</v>
+        <v>0.081362</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0771071</v>
+        <v>0.0449529</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09821390000000001</v>
+        <v>0.0978488</v>
       </c>
       <c r="C36" t="n">
-        <v>0.111174</v>
+        <v>0.111001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09878389999999999</v>
+        <v>0.058248</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.131722</v>
+        <v>0.130622</v>
       </c>
       <c r="C37" t="n">
-        <v>0.153641</v>
+        <v>0.153748</v>
       </c>
       <c r="D37" t="n">
-        <v>0.026487</v>
+        <v>0.0256021</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0328122</v>
+        <v>0.032982</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0300907</v>
+        <v>0.0297767</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0270906</v>
+        <v>0.0259724</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0335417</v>
+        <v>0.0338575</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0302734</v>
+        <v>0.0302969</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0274566</v>
+        <v>0.0261256</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0342639</v>
+        <v>0.0346385</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0312991</v>
+        <v>0.0313736</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0284775</v>
+        <v>0.0263923</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0353187</v>
+        <v>0.0355997</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0323302</v>
+        <v>0.0323165</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0299192</v>
+        <v>0.0266613</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.036305</v>
+        <v>0.0365802</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0337614</v>
+        <v>0.0337156</v>
       </c>
       <c r="D42" t="n">
-        <v>0.032757</v>
+        <v>0.0272319</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0376513</v>
+        <v>0.0378796</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0355858</v>
+        <v>0.0357264</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0356452</v>
+        <v>0.0278554</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0399096</v>
+        <v>0.0401598</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0379646</v>
+        <v>0.0380096</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0393953</v>
+        <v>0.028518</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0428152</v>
+        <v>0.0429728</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0424314</v>
+        <v>0.0425425</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0438484</v>
+        <v>0.0297334</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0471122</v>
+        <v>0.047305</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0480075</v>
+        <v>0.0481349</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0489954</v>
+        <v>0.0315635</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0524644</v>
+        <v>0.0526776</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0546632</v>
+        <v>0.0547442</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0547942</v>
+        <v>0.0342539</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0613108</v>
+        <v>0.061431</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0646283</v>
+        <v>0.06464259999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0631065</v>
+        <v>0.0388424</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0740205</v>
+        <v>0.0739943</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0804029</v>
+        <v>0.08018889999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0750506</v>
+        <v>0.0451875</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09264310000000001</v>
+        <v>0.0923562</v>
       </c>
       <c r="C50" t="n">
-        <v>0.103362</v>
+        <v>0.102802</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0920131</v>
+        <v>0.0550064</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.12435</v>
+        <v>0.122927</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141687</v>
+        <v>0.140905</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0291657</v>
+        <v>0.0271509</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.167663</v>
+        <v>0.165873</v>
       </c>
       <c r="C52" t="n">
-        <v>0.18931</v>
+        <v>0.188166</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0297561</v>
+        <v>0.0274152</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0355089</v>
+        <v>0.0361022</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0314081</v>
+        <v>0.0312944</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0304433</v>
+        <v>0.0275764</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0362462</v>
+        <v>0.0367706</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0322127</v>
+        <v>0.0320818</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0315914</v>
+        <v>0.0279971</v>
       </c>
   